--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -515,10 +515,10 @@
         <v>2.605320930480957</v>
       </c>
       <c r="F2" t="n">
-        <v>3.598334149883449</v>
+        <v>2.94035151621457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044083737</v>
+        <v>0.05736073044118364</v>
       </c>
       <c r="H2" t="n">
         <v>0.01205397708987732</v>
@@ -527,10 +527,10 @@
         <v>0.3460532910052329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09512509460306844</v>
+        <v>0.09512509460318386</v>
       </c>
       <c r="K2" t="n">
-        <v>2.232922014116113</v>
+        <v>1.851218581228679</v>
       </c>
     </row>
     <row r="3">
@@ -550,10 +550,10 @@
         <v>13.59173965454102</v>
       </c>
       <c r="F3" t="n">
-        <v>1.632386173727591</v>
+        <v>2.069546840511953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353191855</v>
+        <v>0.05736075353226516</v>
       </c>
       <c r="H3" t="n">
         <v>0.01205193294762807</v>
@@ -562,10 +562,10 @@
         <v>-5.765275087054412</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09524699879294764</v>
+        <v>0.09524699879306318</v>
       </c>
       <c r="K3" t="n">
-        <v>2.097831807945828</v>
+        <v>2.6265010049906</v>
       </c>
     </row>
     <row r="4">
@@ -585,10 +585,10 @@
         <v>-6.973344802856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.340425864219912</v>
+        <v>-2.630872956718412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672245368</v>
+        <v>0.05736077672280007</v>
       </c>
       <c r="H4" t="n">
         <v>0.01204989079356267</v>
@@ -597,10 +597,10 @@
         <v>-2.060311162828749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09535888789365499</v>
+        <v>0.09535888789377045</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.738983817148552</v>
+        <v>-2.468966783092247</v>
       </c>
     </row>
     <row r="5">
@@ -620,10 +620,10 @@
         <v>5.380267143249512</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8377422246343129</v>
+        <v>-1.681801136395437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955620144</v>
+        <v>0.05736079955654794</v>
       </c>
       <c r="H5" t="n">
         <v>0.01204784511072887</v>
@@ -632,10 +632,10 @@
         <v>-6.99765566804485</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09544270820380803</v>
+        <v>0.09544270820392353</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.207192876143169</v>
+        <v>-0.49439940324245</v>
       </c>
     </row>
     <row r="6">
@@ -655,10 +655,10 @@
         <v>6.592167377471924</v>
       </c>
       <c r="F6" t="n">
-        <v>1.730952045030971</v>
+        <v>0.4405049525324695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262101544</v>
+        <v>0.05736082262136188</v>
       </c>
       <c r="H6" t="n">
         <v>0.0120458087996127</v>
@@ -667,10 +667,10 @@
         <v>4.709526320452824</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09554333401747118</v>
+        <v>0.09554333401758668</v>
       </c>
       <c r="K6" t="n">
-        <v>2.206098563385147</v>
+        <v>-0.4317559399376142</v>
       </c>
     </row>
     <row r="7">
@@ -690,10 +690,10 @@
         <v>-8.018988609313965</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.604493906803366</v>
+        <v>-10.54597897098616</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084520581011</v>
+        <v>0.05736084520615656</v>
       </c>
       <c r="H7" t="n">
         <v>0.01204379254340893</v>
@@ -702,10 +702,10 @@
         <v>-21.63065293633207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09563762631814747</v>
+        <v>0.09563762631826296</v>
       </c>
       <c r="K7" t="n">
-        <v>-10.44599081234292</v>
+        <v>-5.761383826377409</v>
       </c>
     </row>
     <row r="8">
@@ -725,10 +725,10 @@
         <v>-6.977509498596191</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.575120043574619</v>
+        <v>-6.721639910930254</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0573608682316058</v>
+        <v>0.05736086823195224</v>
       </c>
       <c r="H8" t="n">
         <v>0.01204176522905698</v>
@@ -737,10 +737,10 @@
         <v>-15.12166796545416</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09578047646620558</v>
+        <v>0.09578047646632105</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.138896657000738</v>
+        <v>-3.49028711301689</v>
       </c>
     </row>
     <row r="9">
@@ -760,10 +760,10 @@
         <v>-8.124106407165527</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.233827533350237</v>
+        <v>-3.047174452475797</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0573608911760361</v>
+        <v>0.05736089117638252</v>
       </c>
       <c r="H9" t="n">
         <v>0.01203975046591665</v>
@@ -772,10 +772,10 @@
         <v>-4.165239286047924</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09593707416076004</v>
+        <v>0.09593707416087553</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.026610851032376</v>
+        <v>-1.913200799785152</v>
       </c>
     </row>
     <row r="10">
@@ -795,10 +795,10 @@
         <v>13.14702987670898</v>
       </c>
       <c r="F10" t="n">
-        <v>3.866936805099248</v>
+        <v>2.823119415786744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091370558832</v>
+        <v>0.05736091370593477</v>
       </c>
       <c r="H10" t="n">
         <v>0.01203774698603866</v>
@@ -807,10 +807,10 @@
         <v>2.699596254056521</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0961011831217775</v>
+        <v>0.09610118312189297</v>
       </c>
       <c r="K10" t="n">
-        <v>4.936490914123327</v>
+        <v>3.481762358364213</v>
       </c>
     </row>
     <row r="11">
@@ -830,10 +830,10 @@
         <v>14.72685050964355</v>
       </c>
       <c r="F11" t="n">
-        <v>18.85008344093838</v>
+        <v>18.40494201213989</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641875575</v>
+        <v>0.0573609364191022</v>
       </c>
       <c r="H11" t="n">
         <v>0.01203572095745642</v>
@@ -842,10 +842,10 @@
         <v>29.53804211122594</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09629872944733919</v>
+        <v>0.0962987294474547</v>
       </c>
       <c r="K11" t="n">
-        <v>17.0879046720751</v>
+        <v>8.474799199820568</v>
       </c>
     </row>
     <row r="12">
@@ -865,10 +865,10 @@
         <v>9.602319717407227</v>
       </c>
       <c r="F12" t="n">
-        <v>4.677716772067013</v>
+        <v>3.073385752400629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865326343</v>
+        <v>0.05736095865360988</v>
       </c>
       <c r="H12" t="n">
         <v>0.01203374163844728</v>
@@ -877,10 +877,10 @@
         <v>14.89295699401844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09644488103079167</v>
+        <v>0.09644488103090716</v>
       </c>
       <c r="K12" t="n">
-        <v>7.839280973075627</v>
+        <v>4.563213849463255</v>
       </c>
     </row>
     <row r="13">
@@ -900,10 +900,10 @@
         <v>10.23368358612061</v>
       </c>
       <c r="F13" t="n">
-        <v>6.612690345099576</v>
+        <v>5.845202636562545</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158167399</v>
+        <v>0.05736098158202044</v>
       </c>
       <c r="H13" t="n">
         <v>0.01203173857481943</v>
@@ -912,10 +912,10 @@
         <v>5.711378463540445</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09661242340203802</v>
+        <v>0.09661242340215348</v>
       </c>
       <c r="K13" t="n">
-        <v>6.448002767759988</v>
+        <v>4.663480425451867</v>
       </c>
     </row>
     <row r="14">
@@ -935,10 +935,10 @@
         <v>14.37446022033691</v>
       </c>
       <c r="F14" t="n">
-        <v>2.225404638565003</v>
+        <v>0.7663098144401107</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417312251</v>
+        <v>0.05736100417346895</v>
       </c>
       <c r="H14" t="n">
         <v>0.01202975101037396</v>
@@ -947,10 +947,10 @@
         <v>-1.60226807134854</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0967410383990283</v>
+        <v>0.09674103839914378</v>
       </c>
       <c r="K14" t="n">
-        <v>3.84936923603295</v>
+        <v>3.667799716986152</v>
       </c>
     </row>
     <row r="15">
@@ -970,10 +970,10 @@
         <v>4.421060085296631</v>
       </c>
       <c r="F15" t="n">
-        <v>1.460132465406116</v>
+        <v>0.06640749072720235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651045913</v>
+        <v>0.05736102651080557</v>
       </c>
       <c r="H15" t="n">
         <v>0.01202776768857916</v>
@@ -982,10 +982,10 @@
         <v>-4.662501863313549</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09684233283797379</v>
+        <v>0.09684233283808925</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5096974526945139</v>
+        <v>1.042376935477755</v>
       </c>
     </row>
     <row r="16">
@@ -1005,10 +1005,10 @@
         <v>-6.916018009185791</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.278689741540861</v>
+        <v>-4.569136834039361</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837787073</v>
+        <v>0.05736104837821718</v>
       </c>
       <c r="H16" t="n">
         <v>0.01202579350977828</v>
@@ -1017,10 +1017,10 @@
         <v>-2.251321017877197</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0969146311652006</v>
+        <v>0.09691463116531611</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.520375692847893</v>
+        <v>-2.989643666630969</v>
       </c>
     </row>
     <row r="17">
@@ -1040,10 +1040,10 @@
         <v>11.07903099060059</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.399074933662416</v>
+        <v>-1.937969546125357</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091728404</v>
+        <v>0.05736107091763049</v>
       </c>
       <c r="H17" t="n">
         <v>0.01202381744977288</v>
@@ -1052,10 +1052,10 @@
         <v>-5.876330982522415</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0970024288039099</v>
+        <v>0.09700242880402538</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08127714557707755</v>
+        <v>0.2041913485296628</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>2.912221193313599</v>
       </c>
       <c r="F18" t="n">
-        <v>1.730952045030971</v>
+        <v>0.4405049525324695</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316001514</v>
+        <v>0.05736109316036159</v>
       </c>
       <c r="H18" t="n">
         <v>0.01202184883155155</v>
@@ -1087,10 +1087,10 @@
         <v>3.396424902465048</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09709014823120894</v>
+        <v>0.09709014823132443</v>
       </c>
       <c r="K18" t="n">
-        <v>1.124031707055007</v>
+        <v>-1.14631285907583</v>
       </c>
     </row>
     <row r="19">
@@ -1110,10 +1110,10 @@
         <v>-3.412827491760254</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.915161398562006</v>
+        <v>-8.856646462744798</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510275879</v>
+        <v>0.05736111510310524</v>
       </c>
       <c r="H19" t="n">
         <v>0.01201988768092122</v>
@@ -1122,10 +1122,10 @@
         <v>-19.95911042021942</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09718824976850522</v>
+        <v>0.09718824976862073</v>
       </c>
       <c r="K19" t="n">
-        <v>-8.711016235377082</v>
+        <v>-5.026108014963681</v>
       </c>
     </row>
     <row r="20">
@@ -1145,10 +1145,10 @@
         <v>-1.480825424194336</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.002630233123837</v>
+        <v>-6.721639910930254</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736353496</v>
+        <v>0.0573611373638814</v>
       </c>
       <c r="H20" t="n">
         <v>0.01201792803799151</v>
@@ -1157,10 +1157,10 @@
         <v>-16.22199223487049</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09732041992243239</v>
+        <v>0.09732041992254785</v>
       </c>
       <c r="K20" t="n">
-        <v>-6.500026347757862</v>
+        <v>-2.813508596123684</v>
       </c>
     </row>
     <row r="21">
@@ -1180,10 +1180,10 @@
         <v>-3.334112882614136</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.233827533350237</v>
+        <v>-3.047174452475797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968158575</v>
+        <v>0.0573611596819322</v>
       </c>
       <c r="H21" t="n">
         <v>0.01201597604602966</v>
@@ -1192,10 +1192,10 @@
         <v>-5.1783373326003</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09747216448850149</v>
+        <v>0.09747216448861699</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.338082311362885</v>
+        <v>-1.279402104065381</v>
       </c>
     </row>
     <row r="22">
@@ -1215,10 +1215,10 @@
         <v>7.984479904174805</v>
       </c>
       <c r="F22" t="n">
-        <v>6.669988924572838</v>
+        <v>5.894497325037625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153373385</v>
+        <v>0.05736118153408029</v>
       </c>
       <c r="H22" t="n">
         <v>0.01201402945341101</v>
@@ -1227,10 +1227,10 @@
         <v>2.586716945761856</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09763409867423367</v>
+        <v>0.09763409867434918</v>
       </c>
       <c r="K22" t="n">
-        <v>4.926724980830841</v>
+        <v>3.395096551070238</v>
       </c>
     </row>
     <row r="23">
@@ -1250,10 +1250,10 @@
         <v>22.16579627990723</v>
       </c>
       <c r="F23" t="n">
-        <v>22.73418741886952</v>
+        <v>21.66518853760431</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414857654</v>
+        <v>0.05736120414892298</v>
       </c>
       <c r="H23" t="n">
         <v>0.01201208005113585</v>
@@ -1262,10 +1262,10 @@
         <v>31.145832663474</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09782463967642695</v>
+        <v>0.09782463967654242</v>
       </c>
       <c r="K23" t="n">
-        <v>20.26553815549126</v>
+        <v>10.24518123062575</v>
       </c>
     </row>
     <row r="24">
@@ -1285,10 +1285,10 @@
         <v>4.471473217010498</v>
       </c>
       <c r="F24" t="n">
-        <v>8.339633503210962</v>
+        <v>6.73530248354458</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551865441</v>
+        <v>0.05736122551900086</v>
       </c>
       <c r="H24" t="n">
         <v>0.01201014716470183</v>
@@ -1297,10 +1297,10 @@
         <v>14.01164184239214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09797306725085038</v>
+        <v>0.09797306725096587</v>
       </c>
       <c r="K24" t="n">
-        <v>8.013993941409668</v>
+        <v>4.698270395509608</v>
       </c>
     </row>
     <row r="25">
@@ -1320,10 +1320,10 @@
         <v>16.07535552978516</v>
       </c>
       <c r="F25" t="n">
-        <v>6.453933069828606</v>
+        <v>5.103537677748928</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753105154</v>
+        <v>0.05736124753139799</v>
       </c>
       <c r="H25" t="n">
         <v>0.01200821257580742</v>
@@ -1332,10 +1332,10 @@
         <v>6.432699092026201</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09812395865527523</v>
+        <v>0.09812395865539071</v>
       </c>
       <c r="K25" t="n">
-        <v>7.688197678184101</v>
+        <v>5.396968169689565</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,30 +1475,35 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>weights</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>integration</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1581,19 +1586,20 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
         <v>11.1462564717188</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0.07670785825239984</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>9.398333333333326</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.1362792422223517</v>
       </c>
-      <c r="AC2" t="b">
+      <c r="AD2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1668,19 +1674,20 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
         <v>15.45026114981542</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>0.10334466932462</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>12.48240818796544</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>-0.6595370112797341</v>
       </c>
-      <c r="AC3" t="b">
+      <c r="AD3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1761,19 +1768,20 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="n">
         <v>16.46356518161705</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>0.1061648555155583</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>13.61220523137098</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>-0.8843564925973237</v>
       </c>
-      <c r="AC4" t="b">
+      <c r="AD4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1854,19 +1862,20 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
         <v>17.47830864520502</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>0.1205706720336819</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>13.98439294545111</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>-1.12380237365424</v>
       </c>
-      <c r="AC5" t="b">
+      <c r="AD5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1924,14 +1933,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95547409271933</v>
+        <v>16.95547409271833</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>12.63620530149827</v>
+        <v>12.63620530149768</v>
       </c>
       <c r="R6" t="n">
-        <v>4.896157593548001e-05</v>
+        <v>4.896157605327467e-05</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1942,47 +1951,56 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>9.89929215059697</v>
+        <v>9.899292150602365</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="n">
         <v>17.72904696611337</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>0.1219620529587611</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>14.13156041252731</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>-1.185174251735035</v>
       </c>
-      <c r="AC6" t="b">
+      <c r="AD6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1991,68 +2009,73 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>15.64594325826156</v>
+        <v>18.78770983288531</v>
       </c>
       <c r="J7" t="n">
-        <v>5.389900762538002</v>
+        <v>21.56572353958988</v>
       </c>
       <c r="K7" t="n">
-        <v>11.36933545186805</v>
+        <v>14.99269289421301</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01544875209848173</v>
+        <v>-0.4196540095910855</v>
       </c>
       <c r="M7" t="n">
-        <v>21.97199870935651</v>
+        <v>11.57388646804013</v>
       </c>
       <c r="N7" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O7" t="n">
-        <v>8.593461939299962</v>
+        <v>9.182716072963494</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>6.720243303265311</v>
+        <v>7.252043157544585</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7431407701085232</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+        <v>0.7067073544121778</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>31.52444733887168</v>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>21.00273525779637</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.1502661589383568</v>
+        <v>64.0593507422989</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.33047327146183</v>
+        <v>0.4466480606700315</v>
       </c>
       <c r="AB7" t="n">
-        <v>-2.066669752452925</v>
-      </c>
-      <c r="AC7" t="b">
+        <v>55.29887032865963</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-27.52859336672178</v>
+      </c>
+      <c r="AD7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2062,7 +2085,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+          <t>{'max_depth': 4}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2080,32 +2103,32 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>22.35410119832531</v>
+        <v>25.0222863676995</v>
       </c>
       <c r="J8" t="n">
-        <v>23.55157736220105</v>
+        <v>14.22695694111434</v>
       </c>
       <c r="K8" t="n">
-        <v>18.25108044144951</v>
+        <v>18.04098762522142</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.00978338024012</v>
+        <v>-1.518191799548848</v>
       </c>
       <c r="M8" t="n">
-        <v>12.95633519362215</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="N8" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O8" t="n">
-        <v>9.189494019003165</v>
+        <v>2.718626345104153</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>7.272957591520889</v>
+        <v>2.049073522538445</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7062742243072765</v>
+        <v>0.974292614933202</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -2116,55 +2139,48 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>31.19179743474784</v>
+        <v>21.66224700979679</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>88.05378061590044</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.6271732507439588</v>
+        <v>109.9983196679577</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.9860012337052</v>
+        <v>0.8188190567365496</v>
       </c>
       <c r="AB8" t="n">
-        <v>-52.90279785008835</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>101.6035909965635</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-83.1177011513183</v>
+      </c>
+      <c r="AD8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2173,60 +2189,61 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>25.0222863676995</v>
+        <v>37.12686164710544</v>
       </c>
       <c r="J9" t="n">
-        <v>14.22695694111434</v>
+        <v>33.63080762429482</v>
       </c>
       <c r="K9" t="n">
-        <v>18.04098762522142</v>
+        <v>32.86990355803422</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.518191799548848</v>
+        <v>-4.543847873456486</v>
       </c>
       <c r="M9" t="n">
-        <v>26.74729347229004</v>
+        <v>67.74408584860083</v>
       </c>
       <c r="N9" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O9" t="n">
-        <v>2.718626345104153</v>
+        <v>10.59950734558514</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>2.049073522538445</v>
+        <v>8.128288051910729</v>
       </c>
       <c r="R9" t="n">
-        <v>0.974292614933202</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v>21.66224700979679</v>
-      </c>
+        <v>0.6092218965236962</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>109.9983196679577</v>
-      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>(0.17439549164925142, 0.1741086181286509, 0.17387614097516488, 0.14943963580592928, 0.14933433251341427, 0.08802644586258417, 0.07496519946052772, 0.0158541356044774)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.8188190567365496</v>
+        <v>185.230935456766</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.6035909965635</v>
+        <v>1.141546685795284</v>
       </c>
       <c r="AB9" t="n">
-        <v>-83.1177011513183</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>144.3949708183104</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-237.529629454993</v>
+      </c>
+      <c r="AD9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2276,14 +2293,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O10" t="n">
-        <v>16.80574782764326</v>
+        <v>16.80574782764303</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>12.47378710526558</v>
+        <v>12.47378710526541</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0176312341450765</v>
+        <v>0.01763123414510259</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2295,19 +2312,20 @@
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="n">
         <v>408.7157464360039</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>2.594973612158374</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>327.327699649084</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>-1160.336386430032</v>
       </c>
-      <c r="AC10" t="b">
+      <c r="AD10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2388,19 +2406,20 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
         <v>1209.687469155379</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>7.559220367873763</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>956.2616200652577</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>-10172.29545007738</v>
       </c>
-      <c r="AC11" t="b">
+      <c r="AD11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12533,17 +12552,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -12580,13 +12599,13 @@
         <v>-0.00737587333869702</v>
       </c>
       <c r="H2" t="n">
-        <v>-17.08999544475871</v>
+        <v>-18.97462200458756</v>
       </c>
       <c r="I2" t="n">
-        <v>-30.09821138928276</v>
+        <v>-44.91608810424805</v>
       </c>
       <c r="J2" t="n">
-        <v>-44.91608810424805</v>
+        <v>-2.25093838376747</v>
       </c>
       <c r="K2" t="n">
         <v>13.22797970211588</v>
@@ -12618,13 +12637,13 @@
         <v>-0.007375855225168926</v>
       </c>
       <c r="H3" t="n">
-        <v>3.16834704208728</v>
+        <v>6.746289639291404</v>
       </c>
       <c r="I3" t="n">
-        <v>8.82159223457669</v>
+        <v>0.4673192203044891</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4673192203044891</v>
+        <v>12.4784663135708</v>
       </c>
       <c r="K3" t="n">
         <v>23.00033446182202</v>
@@ -12656,13 +12675,13 @@
         <v>-0.007375836261387075</v>
       </c>
       <c r="H4" t="n">
-        <v>-16.92787434868204</v>
+        <v>-29.19943353396192</v>
       </c>
       <c r="I4" t="n">
-        <v>-36.72509719636279</v>
+        <v>-34.81304550170898</v>
       </c>
       <c r="J4" t="n">
-        <v>-34.81304550170898</v>
+        <v>5.964440879635672</v>
       </c>
       <c r="K4" t="n">
         <v>32.69332991686343</v>
@@ -12694,13 +12713,13 @@
         <v>-0.007375817663049955</v>
       </c>
       <c r="H5" t="n">
-        <v>2.886132492902415</v>
+        <v>6.746289639291404</v>
       </c>
       <c r="I5" t="n">
-        <v>8.82159223457669</v>
+        <v>-5.528274059295654</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.528274059295654</v>
+        <v>19.99667030167136</v>
       </c>
       <c r="K5" t="n">
         <v>42.30750806334375</v>
@@ -12732,13 +12751,13 @@
         <v>-0.007375798802678496</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6436102686880085</v>
+        <v>-15.00654937138926</v>
       </c>
       <c r="I6" t="n">
-        <v>-19.85398821211405</v>
+        <v>3.249172687530518</v>
       </c>
       <c r="J6" t="n">
-        <v>3.249172687530518</v>
+        <v>23.42317923244277</v>
       </c>
       <c r="K6" t="n">
         <v>51.84358090595912</v>
@@ -12770,13 +12789,13 @@
         <v>-0.007375780441514851</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.95133766633146</v>
+        <v>-23.13433216597208</v>
       </c>
       <c r="I7" t="n">
-        <v>-24.49729477572742</v>
+        <v>-43.05313110351562</v>
       </c>
       <c r="J7" t="n">
-        <v>-43.05313110351562</v>
+        <v>20.1465980937935</v>
       </c>
       <c r="K7" t="n">
         <v>61.30219361437663</v>
@@ -12808,13 +12827,13 @@
         <v>-0.007375761592573027</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.21409646291697</v>
+        <v>-26.36855167014864</v>
       </c>
       <c r="I8" t="n">
-        <v>-27.6643277662427</v>
+        <v>-23.2375316619873</v>
       </c>
       <c r="J8" t="n">
-        <v>-23.2375316619873</v>
+        <v>27.53265991266874</v>
       </c>
       <c r="K8" t="n">
         <v>70.6840187871634</v>
@@ -12846,13 +12865,13 @@
         <v>-0.007375742787818884</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.99642077939547</v>
+        <v>-23.76811496945886</v>
       </c>
       <c r="I9" t="n">
-        <v>-25.69673318469289</v>
+        <v>-14.75483417510986</v>
       </c>
       <c r="J9" t="n">
-        <v>-14.75483417510986</v>
+        <v>35.40314609042152</v>
       </c>
       <c r="K9" t="n">
         <v>79.98964005992558</v>
@@ -12884,13 +12903,13 @@
         <v>-0.007375724439957848</v>
       </c>
       <c r="H10" t="n">
-        <v>7.953515716299511</v>
+        <v>6.693849550936702</v>
       </c>
       <c r="I10" t="n">
-        <v>3.726243676336815</v>
+        <v>-14.32335090637207</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.32335090637207</v>
+        <v>46.59473555389429</v>
       </c>
       <c r="K10" t="n">
         <v>89.21966563368532</v>
@@ -12922,13 +12941,13 @@
         <v>-0.007375705880088512</v>
       </c>
       <c r="H11" t="n">
-        <v>31.78819367127875</v>
+        <v>32.90958897719069</v>
       </c>
       <c r="I11" t="n">
-        <v>27.47640869400569</v>
+        <v>33.28797149658203</v>
       </c>
       <c r="J11" t="n">
-        <v>33.28797149658203</v>
+        <v>63.60529152969145</v>
       </c>
       <c r="K11" t="n">
         <v>98.37473210200567</v>
@@ -12960,13 +12979,13 @@
         <v>-0.007375687817907511</v>
       </c>
       <c r="H12" t="n">
-        <v>7.325849232256335</v>
+        <v>-6.102563973251534</v>
       </c>
       <c r="I12" t="n">
-        <v>-13.2711425970182</v>
+        <v>-12.72276592254639</v>
       </c>
       <c r="J12" t="n">
-        <v>-12.72276592254639</v>
+        <v>55.05556318339393</v>
       </c>
       <c r="K12" t="n">
         <v>107.455353933568</v>
@@ -12998,13 +13017,13 @@
         <v>-0.00737566899760278</v>
       </c>
       <c r="H13" t="n">
-        <v>21.97199870935651</v>
+        <v>11.57388646804013</v>
       </c>
       <c r="I13" t="n">
-        <v>12.95633519362215</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="J13" t="n">
-        <v>26.74729347229004</v>
+        <v>67.74408584860083</v>
       </c>
       <c r="K13" t="n">
         <v>116.4622062660359</v>
@@ -13065,17 +13084,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -13106,19 +13125,19 @@
         <v>143.1120539770899</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1573607304408</v>
+        <v>143.1573607304412</v>
       </c>
       <c r="G2" t="n">
-        <v>145.3329220141161</v>
+        <v>146.0403515162146</v>
       </c>
       <c r="H2" t="n">
-        <v>146.6983341498834</v>
+        <v>145.705320930481</v>
       </c>
       <c r="I2" t="n">
-        <v>145.705320930481</v>
+        <v>144.9512185812287</v>
       </c>
       <c r="J2" t="n">
-        <v>143.1951250946031</v>
+        <v>143.1951250946032</v>
       </c>
       <c r="K2" t="n">
         <v>143.3159605762785</v>
@@ -13141,19 +13160,19 @@
         <v>143.1241059100375</v>
       </c>
       <c r="F3" t="n">
-        <v>143.2147214839728</v>
+        <v>143.2147214839734</v>
       </c>
       <c r="G3" t="n">
-        <v>147.4307538220619</v>
+        <v>148.1098983567265</v>
       </c>
       <c r="H3" t="n">
-        <v>148.330720323611</v>
+        <v>159.297060585022</v>
       </c>
       <c r="I3" t="n">
-        <v>159.297060585022</v>
+        <v>147.5777195862193</v>
       </c>
       <c r="J3" t="n">
-        <v>143.290372093396</v>
+        <v>143.2903720933963</v>
       </c>
       <c r="K3" t="n">
         <v>143.5322888861778</v>
@@ -13176,19 +13195,19 @@
         <v>143.1361558008311</v>
       </c>
       <c r="F4" t="n">
-        <v>143.2720822606952</v>
+        <v>143.2720822606962</v>
       </c>
       <c r="G4" t="n">
-        <v>144.6917700049134</v>
+        <v>145.4790254000081</v>
       </c>
       <c r="H4" t="n">
-        <v>146.9902944593911</v>
+        <v>152.3237157821655</v>
       </c>
       <c r="I4" t="n">
-        <v>152.3237157821655</v>
+        <v>145.108752803127</v>
       </c>
       <c r="J4" t="n">
-        <v>143.3857309812897</v>
+        <v>143.38573098129</v>
       </c>
       <c r="K4" t="n">
         <v>143.7489548823427</v>
@@ -13211,19 +13230,19 @@
         <v>143.1482036459418</v>
       </c>
       <c r="F5" t="n">
-        <v>143.3294430602514</v>
+        <v>143.3294430602528</v>
       </c>
       <c r="G5" t="n">
-        <v>143.4845771287702</v>
+        <v>143.7972242636127</v>
       </c>
       <c r="H5" t="n">
-        <v>146.1525522347568</v>
+        <v>157.703982925415</v>
       </c>
       <c r="I5" t="n">
-        <v>157.703982925415</v>
+        <v>144.6143533998846</v>
       </c>
       <c r="J5" t="n">
-        <v>143.4811736894935</v>
+        <v>143.481173689494</v>
       </c>
       <c r="K5" t="n">
         <v>143.9658743622872</v>
@@ -13246,19 +13265,19 @@
         <v>143.1602494547414</v>
       </c>
       <c r="F6" t="n">
-        <v>143.3868038828724</v>
+        <v>143.3868038828741</v>
       </c>
       <c r="G6" t="n">
-        <v>145.6906756921553</v>
+        <v>144.2377292161451</v>
       </c>
       <c r="H6" t="n">
-        <v>147.8835042797877</v>
+        <v>164.296150302887</v>
       </c>
       <c r="I6" t="n">
-        <v>164.296150302887</v>
+        <v>144.182597459947</v>
       </c>
       <c r="J6" t="n">
-        <v>143.576717023511</v>
+        <v>143.5767170235115</v>
       </c>
       <c r="K6" t="n">
         <v>144.183097732919</v>
@@ -13281,19 +13300,19 @@
         <v>143.1722932472848</v>
       </c>
       <c r="F7" t="n">
-        <v>143.4441647280782</v>
+        <v>143.4441647280803</v>
       </c>
       <c r="G7" t="n">
-        <v>135.2446848798124</v>
+        <v>133.691750245159</v>
       </c>
       <c r="H7" t="n">
-        <v>139.2790103729844</v>
+        <v>156.277161693573</v>
       </c>
       <c r="I7" t="n">
-        <v>156.277161693573</v>
+        <v>138.4212136335696</v>
       </c>
       <c r="J7" t="n">
-        <v>143.6723546498291</v>
+        <v>143.6723546498298</v>
       </c>
       <c r="K7" t="n">
         <v>144.4006059741242</v>
@@ -13316,19 +13335,19 @@
         <v>143.1843350125139</v>
       </c>
       <c r="F8" t="n">
-        <v>143.5015255963098</v>
+        <v>143.5015255963122</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1057882228117</v>
+        <v>126.9701103342287</v>
       </c>
       <c r="H8" t="n">
-        <v>133.7038903294097</v>
+        <v>149.2996521949768</v>
       </c>
       <c r="I8" t="n">
-        <v>149.2996521949768</v>
+        <v>134.9309265205527</v>
       </c>
       <c r="J8" t="n">
-        <v>143.7681351262953</v>
+        <v>143.7681351262961</v>
       </c>
       <c r="K8" t="n">
         <v>144.6185447700622</v>
@@ -13351,19 +13370,19 @@
         <v>143.1963747629798</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5588864874859</v>
+        <v>143.5588864874886</v>
       </c>
       <c r="G9" t="n">
-        <v>125.0791773717793</v>
+        <v>123.9229358817529</v>
       </c>
       <c r="H9" t="n">
-        <v>132.4700627960595</v>
+        <v>141.1755457878113</v>
       </c>
       <c r="I9" t="n">
-        <v>141.1755457878113</v>
+        <v>133.0177257207675</v>
       </c>
       <c r="J9" t="n">
-        <v>143.8640722004561</v>
+        <v>143.864072200457</v>
       </c>
       <c r="K9" t="n">
         <v>144.8369553509025</v>
@@ -13386,19 +13405,19 @@
         <v>143.2084125099659</v>
       </c>
       <c r="F10" t="n">
-        <v>143.6162474011915</v>
+        <v>143.6162474011945</v>
       </c>
       <c r="G10" t="n">
-        <v>130.0156682859026</v>
+        <v>126.7460552975397</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3369996011587</v>
+        <v>154.3225756645203</v>
       </c>
       <c r="I10" t="n">
-        <v>154.3225756645203</v>
+        <v>136.4994880791318</v>
       </c>
       <c r="J10" t="n">
-        <v>143.9601733835779</v>
+        <v>143.9601733835789</v>
       </c>
       <c r="K10" t="n">
         <v>145.0558602395762</v>
@@ -13421,19 +13440,19 @@
         <v>143.2204482309233</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6736083376102</v>
+        <v>143.6736083376136</v>
       </c>
       <c r="G11" t="n">
-        <v>147.1035729579777</v>
+        <v>145.1509973096796</v>
       </c>
       <c r="H11" t="n">
-        <v>155.1870830420971</v>
+        <v>169.0494261741638</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0494261741638</v>
+        <v>144.9742872789523</v>
       </c>
       <c r="J11" t="n">
-        <v>144.0564721130252</v>
+        <v>144.0564721130264</v>
       </c>
       <c r="K11" t="n">
         <v>145.275359770542</v>
@@ -13456,19 +13475,19 @@
         <v>143.2324819725617</v>
       </c>
       <c r="F12" t="n">
-        <v>143.7309692962635</v>
+        <v>143.7309692962673</v>
       </c>
       <c r="G12" t="n">
-        <v>154.9428539310533</v>
+        <v>148.2243830620802</v>
       </c>
       <c r="H12" t="n">
-        <v>159.8647998141641</v>
+        <v>178.651745891571</v>
       </c>
       <c r="I12" t="n">
-        <v>178.651745891571</v>
+        <v>149.5375011284156</v>
       </c>
       <c r="J12" t="n">
-        <v>144.152916994056</v>
+        <v>144.1529169940573</v>
       </c>
       <c r="K12" t="n">
         <v>145.4952997133427</v>
@@ -13491,19 +13510,19 @@
         <v>143.2445137111366</v>
       </c>
       <c r="F13" t="n">
-        <v>143.7883302778451</v>
+        <v>143.7883302778493</v>
       </c>
       <c r="G13" t="n">
-        <v>161.3908566988133</v>
+        <v>154.0695856986427</v>
       </c>
       <c r="H13" t="n">
-        <v>166.4774901592637</v>
+        <v>188.8854294776916</v>
       </c>
       <c r="I13" t="n">
-        <v>188.8854294776916</v>
+        <v>154.2009815538675</v>
       </c>
       <c r="J13" t="n">
-        <v>144.2495294174581</v>
+        <v>144.2495294174594</v>
       </c>
       <c r="K13" t="n">
         <v>145.7157442633923</v>
@@ -13526,19 +13545,19 @@
         <v>143.2565434621469</v>
       </c>
       <c r="F14" t="n">
-        <v>143.8456912820183</v>
+        <v>143.8456912820227</v>
       </c>
       <c r="G14" t="n">
-        <v>165.2402259348463</v>
+        <v>154.8358955130828</v>
       </c>
       <c r="H14" t="n">
-        <v>168.7028947978287</v>
+        <v>203.2598896980286</v>
       </c>
       <c r="I14" t="n">
-        <v>203.2598896980286</v>
+        <v>157.8687812708536</v>
       </c>
       <c r="J14" t="n">
-        <v>144.3462704558571</v>
+        <v>144.3462704558586</v>
       </c>
       <c r="K14" t="n">
         <v>145.9365766234059</v>
@@ -13561,19 +13580,19 @@
         <v>143.2685712298355</v>
       </c>
       <c r="F15" t="n">
-        <v>143.9030523085287</v>
+        <v>143.9030523085335</v>
       </c>
       <c r="G15" t="n">
-        <v>165.7499233875408</v>
+        <v>154.9023030038101</v>
       </c>
       <c r="H15" t="n">
-        <v>170.1630272632348</v>
+        <v>207.6809497833252</v>
       </c>
       <c r="I15" t="n">
-        <v>207.6809497833252</v>
+        <v>158.9111582063314</v>
       </c>
       <c r="J15" t="n">
-        <v>144.4431127886951</v>
+        <v>144.4431127886967</v>
       </c>
       <c r="K15" t="n">
         <v>146.1577148277208</v>
@@ -13596,19 +13615,19 @@
         <v>143.2805970233453</v>
       </c>
       <c r="F16" t="n">
-        <v>143.9604133569066</v>
+        <v>143.9604133569118</v>
       </c>
       <c r="G16" t="n">
-        <v>162.2295476946929</v>
+        <v>150.3331661697707</v>
       </c>
       <c r="H16" t="n">
-        <v>166.884337521694</v>
+        <v>200.7649317741394</v>
       </c>
       <c r="I16" t="n">
-        <v>200.7649317741394</v>
+        <v>155.9215145397004</v>
       </c>
       <c r="J16" t="n">
-        <v>144.5400274198603</v>
+        <v>144.540027419862</v>
       </c>
       <c r="K16" t="n">
         <v>146.3790718793287</v>
@@ -13631,19 +13650,19 @@
         <v>143.2926208407951</v>
       </c>
       <c r="F17" t="n">
-        <v>144.0177744278239</v>
+        <v>144.0177744278294</v>
       </c>
       <c r="G17" t="n">
-        <v>162.1482705491158</v>
+        <v>148.3951966236453</v>
       </c>
       <c r="H17" t="n">
-        <v>165.4852625880316</v>
+        <v>211.84396276474</v>
       </c>
       <c r="I17" t="n">
-        <v>211.84396276474</v>
+        <v>156.1257058882301</v>
       </c>
       <c r="J17" t="n">
-        <v>144.6370298486642</v>
+        <v>144.637029848666</v>
       </c>
       <c r="K17" t="n">
         <v>146.6006942773734</v>
@@ -13666,19 +13685,19 @@
         <v>143.3046426896266</v>
       </c>
       <c r="F18" t="n">
-        <v>144.0751355209839</v>
+        <v>144.0751355209898</v>
       </c>
       <c r="G18" t="n">
-        <v>163.2723022561708</v>
+        <v>148.8357015761778</v>
       </c>
       <c r="H18" t="n">
-        <v>167.2162146330625</v>
+        <v>214.7561839580536</v>
       </c>
       <c r="I18" t="n">
-        <v>214.7561839580536</v>
+        <v>154.9793930291542</v>
       </c>
       <c r="J18" t="n">
-        <v>144.7341199968954</v>
+        <v>144.7341199968973</v>
       </c>
       <c r="K18" t="n">
         <v>146.8225817800755</v>
@@ -13701,19 +13720,19 @@
         <v>143.3166625773076</v>
       </c>
       <c r="F19" t="n">
-        <v>144.1324966360866</v>
+        <v>144.1324966360929</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5612860207937</v>
+        <v>139.979055113433</v>
       </c>
       <c r="H19" t="n">
-        <v>160.3010532345005</v>
+        <v>211.3433564662933</v>
       </c>
       <c r="I19" t="n">
-        <v>211.3433564662933</v>
+        <v>149.9532850141906</v>
       </c>
       <c r="J19" t="n">
-        <v>144.8313082466639</v>
+        <v>144.8313082466659</v>
       </c>
       <c r="K19" t="n">
         <v>147.0447655265973</v>
@@ -13736,19 +13755,19 @@
         <v>143.3286805053456</v>
       </c>
       <c r="F20" t="n">
-        <v>144.1898577734502</v>
+        <v>144.1898577734567</v>
       </c>
       <c r="G20" t="n">
-        <v>148.0612596730359</v>
+        <v>133.2574152025028</v>
       </c>
       <c r="H20" t="n">
-        <v>154.2984230013767</v>
+        <v>209.862531042099</v>
       </c>
       <c r="I20" t="n">
-        <v>209.862531042099</v>
+        <v>147.1397764180669</v>
       </c>
       <c r="J20" t="n">
-        <v>144.9286286665863</v>
+        <v>144.9286286665885</v>
       </c>
       <c r="K20" t="n">
         <v>147.2673477209631</v>
@@ -13771,19 +13790,19 @@
         <v>143.3406964813916</v>
       </c>
       <c r="F21" t="n">
-        <v>144.2472189331318</v>
+        <v>144.2472189331387</v>
       </c>
       <c r="G21" t="n">
-        <v>145.723177361673</v>
+        <v>130.210240750027</v>
       </c>
       <c r="H21" t="n">
-        <v>153.0645954680264</v>
+        <v>206.5284181594849</v>
       </c>
       <c r="I21" t="n">
-        <v>206.5284181594849</v>
+        <v>145.8603743140015</v>
       </c>
       <c r="J21" t="n">
-        <v>145.0261008310748</v>
+        <v>145.0261008310771</v>
       </c>
       <c r="K21" t="n">
         <v>147.490387078701</v>
@@ -13806,19 +13825,19 @@
         <v>143.352710510845</v>
       </c>
       <c r="F22" t="n">
-        <v>144.3045801146655</v>
+        <v>144.3045801146727</v>
       </c>
       <c r="G22" t="n">
-        <v>150.6499023425039</v>
+        <v>136.1047380750646</v>
       </c>
       <c r="H22" t="n">
-        <v>159.7345843925993</v>
+        <v>214.5128980636597</v>
       </c>
       <c r="I22" t="n">
-        <v>214.5128980636597</v>
+        <v>149.2554708650717</v>
       </c>
       <c r="J22" t="n">
-        <v>145.123734929749</v>
+        <v>145.1237349297514</v>
       </c>
       <c r="K22" t="n">
         <v>147.7139141637365</v>
@@ -13841,19 +13860,19 @@
         <v>143.3647225908962</v>
       </c>
       <c r="F23" t="n">
-        <v>144.3619413188141</v>
+        <v>144.3619413188217</v>
       </c>
       <c r="G23" t="n">
-        <v>170.9154404979951</v>
+        <v>157.7699266126689</v>
       </c>
       <c r="H23" t="n">
-        <v>182.4687718114688</v>
+        <v>236.6786943435669</v>
       </c>
       <c r="I23" t="n">
-        <v>236.6786943435669</v>
+        <v>159.5006520956975</v>
       </c>
       <c r="J23" t="n">
-        <v>145.2215595694254</v>
+        <v>145.2215595694279</v>
       </c>
       <c r="K23" t="n">
         <v>147.9380147985661</v>
@@ -13876,19 +13895,19 @@
         <v>143.3767327380609</v>
       </c>
       <c r="F24" t="n">
-        <v>144.4193025443327</v>
+        <v>144.4193025443407</v>
       </c>
       <c r="G24" t="n">
-        <v>178.9294344394048</v>
+        <v>164.5052290962135</v>
       </c>
       <c r="H24" t="n">
-        <v>190.8084053146797</v>
+        <v>241.1501675605774</v>
       </c>
       <c r="I24" t="n">
-        <v>241.1501675605774</v>
+        <v>164.1989224912071</v>
       </c>
       <c r="J24" t="n">
-        <v>145.3195326366763</v>
+        <v>145.3195326366789</v>
       </c>
       <c r="K24" t="n">
         <v>148.1625626276353</v>
@@ -13911,19 +13930,19 @@
         <v>143.3887409506367</v>
       </c>
       <c r="F25" t="n">
-        <v>144.4766637918638</v>
+        <v>144.4766637918721</v>
       </c>
       <c r="G25" t="n">
-        <v>186.6176321175889</v>
+        <v>169.6087667739624</v>
       </c>
       <c r="H25" t="n">
-        <v>197.2623383845083</v>
+        <v>257.2255230903626</v>
       </c>
       <c r="I25" t="n">
-        <v>257.2255230903626</v>
+        <v>169.5958906608966</v>
       </c>
       <c r="J25" t="n">
-        <v>145.4176565953316</v>
+        <v>145.4176565953343</v>
       </c>
       <c r="K25" t="n">
         <v>148.3875650434942</v>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -515,10 +515,10 @@
         <v>2.605320930480957</v>
       </c>
       <c r="F2" t="n">
-        <v>2.94035151621457</v>
+        <v>4.022232886894614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044118364</v>
+        <v>0.05736073044090867</v>
       </c>
       <c r="H2" t="n">
         <v>0.01205397708987732</v>
@@ -527,10 +527,10 @@
         <v>0.3460532910052329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09512509460318386</v>
+        <v>0.09512509460309221</v>
       </c>
       <c r="K2" t="n">
-        <v>1.851218581228679</v>
+        <v>1.20446483382353</v>
       </c>
     </row>
     <row r="3">
@@ -550,10 +550,10 @@
         <v>13.59173965454102</v>
       </c>
       <c r="F3" t="n">
-        <v>2.069546840511953</v>
+        <v>1.560610184430546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353226516</v>
+        <v>0.05736075353199016</v>
       </c>
       <c r="H3" t="n">
         <v>0.01205193294762807</v>
@@ -562,10 +562,10 @@
         <v>-5.765275087054412</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09524699879306318</v>
+        <v>0.09524699879297151</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6265010049906</v>
+        <v>1.123868434117929</v>
       </c>
     </row>
     <row r="4">
@@ -585,10 +585,10 @@
         <v>-6.973344802856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.630872956718412</v>
+        <v>-1.689702425255553</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672280007</v>
+        <v>0.05736077672252504</v>
       </c>
       <c r="H4" t="n">
         <v>0.01204989079356267</v>
@@ -597,10 +597,10 @@
         <v>-2.060311162828749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09535888789377045</v>
+        <v>0.09535888789367879</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.468966783092247</v>
+        <v>-1.640092950578735</v>
       </c>
     </row>
     <row r="5">
@@ -620,10 +620,10 @@
         <v>5.380267143249512</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.681801136395437</v>
+        <v>-1.195864062317908</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955654794</v>
+        <v>0.05736079955627291</v>
       </c>
       <c r="H5" t="n">
         <v>0.01204784511072887</v>
@@ -632,10 +632,10 @@
         <v>-6.99765566804485</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09544270820392353</v>
+        <v>0.09544270820383187</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.49439940324245</v>
+        <v>-0.8611628736126399</v>
       </c>
     </row>
     <row r="6">
@@ -655,10 +655,10 @@
         <v>6.592167377471924</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4405049525324695</v>
+        <v>1.38167548399533</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262136188</v>
+        <v>0.05736082262108685</v>
       </c>
       <c r="H6" t="n">
         <v>0.0120458087996127</v>
@@ -667,10 +667,10 @@
         <v>4.709526320452824</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09554333401758668</v>
+        <v>0.095543334017495</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4317559399376142</v>
+        <v>-0.3737097773209673</v>
       </c>
     </row>
     <row r="7">
@@ -690,10 +690,10 @@
         <v>-8.018988609313965</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.54597897098616</v>
+        <v>-9.083053730479406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084520615656</v>
+        <v>0.0573608452058815</v>
       </c>
       <c r="H7" t="n">
         <v>0.01204379254340893</v>
@@ -702,10 +702,10 @@
         <v>-21.63065293633207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09563762631826296</v>
+        <v>0.09563762631817126</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.761383826377409</v>
+        <v>-4.721063775344898</v>
       </c>
     </row>
     <row r="8">
@@ -725,10 +725,10 @@
         <v>-6.977509498596191</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.721639910930254</v>
+        <v>-5.701979368525946</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823195224</v>
+        <v>0.05736086823167719</v>
       </c>
       <c r="H8" t="n">
         <v>0.01204176522905698</v>
@@ -737,10 +737,10 @@
         <v>-15.12166796545416</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09578047646632105</v>
+        <v>0.09578047646622938</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.49028711301689</v>
+        <v>-2.852594381397366</v>
       </c>
     </row>
     <row r="9">
@@ -760,10 +760,10 @@
         <v>-8.124106407165527</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.047174452475797</v>
+        <v>-1.64654066632004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117638252</v>
+        <v>0.05736089117610749</v>
       </c>
       <c r="H9" t="n">
         <v>0.01203975046591665</v>
@@ -772,10 +772,10 @@
         <v>-4.165239286047924</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09593707416087553</v>
+        <v>0.09593707416078384</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.913200799785152</v>
+        <v>-1.190199625744144</v>
       </c>
     </row>
     <row r="10">
@@ -795,10 +795,10 @@
         <v>13.14702987670898</v>
       </c>
       <c r="F10" t="n">
-        <v>2.823119415786744</v>
+        <v>3.518546567289765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091370593477</v>
+        <v>0.05736091370565971</v>
       </c>
       <c r="H10" t="n">
         <v>0.01203774698603866</v>
@@ -807,10 +807,10 @@
         <v>2.699596254056521</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09610118312189297</v>
+        <v>0.09610118312180128</v>
       </c>
       <c r="K10" t="n">
-        <v>3.481762358364213</v>
+        <v>2.326996999883241</v>
       </c>
     </row>
     <row r="11">
@@ -830,10 +830,10 @@
         <v>14.72685050964355</v>
       </c>
       <c r="F11" t="n">
-        <v>18.40494201213989</v>
+        <v>19.05225850106809</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0573609364191022</v>
+        <v>0.05736093641882714</v>
       </c>
       <c r="H11" t="n">
         <v>0.01203572095745642</v>
@@ -842,10 +842,10 @@
         <v>29.53804211122594</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0962987294474547</v>
+        <v>0.09629872944736299</v>
       </c>
       <c r="K11" t="n">
-        <v>8.474799199820568</v>
+        <v>6.436171099597841</v>
       </c>
     </row>
     <row r="12">
@@ -865,10 +865,10 @@
         <v>9.602319717407227</v>
       </c>
       <c r="F12" t="n">
-        <v>3.073385752400629</v>
+        <v>6.092610753502422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865360988</v>
+        <v>0.05736095865333485</v>
       </c>
       <c r="H12" t="n">
         <v>0.01203374163844728</v>
@@ -877,10 +877,10 @@
         <v>14.89295699401844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09644488103090716</v>
+        <v>0.09644488103081549</v>
       </c>
       <c r="K12" t="n">
-        <v>4.563213849463255</v>
+        <v>4.152049728798116</v>
       </c>
     </row>
     <row r="13">
@@ -900,10 +900,10 @@
         <v>10.23368358612061</v>
       </c>
       <c r="F13" t="n">
-        <v>5.845202636562545</v>
+        <v>6.058156752157673</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158202044</v>
+        <v>0.05736098158174538</v>
       </c>
       <c r="H13" t="n">
         <v>0.01203173857481943</v>
@@ -912,10 +912,10 @@
         <v>5.711378463540445</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09661242340215348</v>
+        <v>0.09661242340206182</v>
       </c>
       <c r="K13" t="n">
-        <v>4.663480425451867</v>
+        <v>3.296961736427692</v>
       </c>
     </row>
     <row r="14">
@@ -935,10 +935,10 @@
         <v>14.37446022033691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7663098144401107</v>
+        <v>1.291786568316248</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417346895</v>
+        <v>0.05736100417319392</v>
       </c>
       <c r="H14" t="n">
         <v>0.01202975101037396</v>
@@ -947,10 +947,10 @@
         <v>-1.60226807134854</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09674103839914378</v>
+        <v>0.09674103839905208</v>
       </c>
       <c r="K14" t="n">
-        <v>3.667799716986152</v>
+        <v>2.403481827764528</v>
       </c>
     </row>
     <row r="15">
@@ -970,10 +970,10 @@
         <v>4.421060085296631</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06640749072720235</v>
+        <v>0.6637347260596143</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651080557</v>
+        <v>0.05736102651053052</v>
       </c>
       <c r="H15" t="n">
         <v>0.01202776768857916</v>
@@ -982,10 +982,10 @@
         <v>-4.662501863313549</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09684233283808925</v>
+        <v>0.09684233283799759</v>
       </c>
       <c r="K15" t="n">
-        <v>1.042376935477755</v>
+        <v>0.445895388446686</v>
       </c>
     </row>
     <row r="16">
@@ -1005,10 +1005,10 @@
         <v>-6.916018009185791</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.569136834039361</v>
+        <v>-3.627966302576501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837821718</v>
+        <v>0.05736104837794212</v>
       </c>
       <c r="H16" t="n">
         <v>0.01202579350977828</v>
@@ -1017,10 +1017,10 @@
         <v>-2.251321017877197</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09691463116531611</v>
+        <v>0.0969146311652244</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.989643666630969</v>
+        <v>-1.883373601056603</v>
       </c>
     </row>
     <row r="17">
@@ -1040,10 +1040,10 @@
         <v>11.07903099060059</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.937969546125357</v>
+        <v>-1.685574113986701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091763049</v>
+        <v>0.05736107091735543</v>
       </c>
       <c r="H17" t="n">
         <v>0.01202381744977288</v>
@@ -1052,10 +1052,10 @@
         <v>-5.876330982522415</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09700242880402538</v>
+        <v>0.09700242880393369</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2041913485296628</v>
+        <v>-0.398972050296362</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>2.912221193313599</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4405049525324695</v>
+        <v>1.38167548399533</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316036159</v>
+        <v>0.05736109316008656</v>
       </c>
       <c r="H18" t="n">
         <v>0.01202184883155155</v>
@@ -1087,10 +1087,10 @@
         <v>3.396424902465048</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09709014823132443</v>
+        <v>0.09709014823123274</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.14631285907583</v>
+        <v>-0.9179754209148892</v>
       </c>
     </row>
     <row r="19">
@@ -1110,10 +1110,10 @@
         <v>-3.412827491760254</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.856646462744798</v>
+        <v>-7.393721222238045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510310524</v>
+        <v>0.05736111510283018</v>
       </c>
       <c r="H19" t="n">
         <v>0.01201988768092122</v>
@@ -1122,10 +1122,10 @@
         <v>-19.95911042021942</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09718824976862073</v>
+        <v>0.09718824976852902</v>
       </c>
       <c r="K19" t="n">
-        <v>-5.026108014963681</v>
+        <v>-4.364329057605866</v>
       </c>
     </row>
     <row r="20">
@@ -1145,10 +1145,10 @@
         <v>-1.480825424194336</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.721639910930254</v>
+        <v>-5.701979368525946</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0573611373638814</v>
+        <v>0.05736113736360635</v>
       </c>
       <c r="H20" t="n">
         <v>0.01201792803799151</v>
@@ -1157,10 +1157,10 @@
         <v>-16.22199223487049</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09732041992254785</v>
+        <v>0.09732041992245617</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.813508596123684</v>
+        <v>-2.56159239331328</v>
       </c>
     </row>
     <row r="21">
@@ -1180,10 +1180,10 @@
         <v>-3.334112882614136</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.047174452475797</v>
+        <v>-1.64654066632004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0573611596819322</v>
+        <v>0.05736115968165714</v>
       </c>
       <c r="H21" t="n">
         <v>0.01201597604602966</v>
@@ -1192,10 +1192,10 @@
         <v>-5.1783373326003</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09747216448861699</v>
+        <v>0.09747216448852529</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.279402104065381</v>
+        <v>-0.9020766199709798</v>
       </c>
     </row>
     <row r="22">
@@ -1215,10 +1215,10 @@
         <v>7.984479904174805</v>
       </c>
       <c r="F22" t="n">
-        <v>5.894497325037625</v>
+        <v>6.325866863137985</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153408029</v>
+        <v>0.05736118153380523</v>
       </c>
       <c r="H22" t="n">
         <v>0.01201402945341101</v>
@@ -1227,10 +1227,10 @@
         <v>2.586716945761856</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09763409867434918</v>
+        <v>0.09763409867425747</v>
       </c>
       <c r="K22" t="n">
-        <v>3.395096551070238</v>
+        <v>2.106053663220804</v>
       </c>
     </row>
     <row r="23">
@@ -1250,10 +1250,10 @@
         <v>22.16579627990723</v>
       </c>
       <c r="F23" t="n">
-        <v>21.66518853760431</v>
+        <v>22.61467466407339</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414892298</v>
+        <v>0.05736120414864793</v>
       </c>
       <c r="H23" t="n">
         <v>0.01201208005113585</v>
@@ -1262,10 +1262,10 @@
         <v>31.145832663474</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09782463967654242</v>
+        <v>0.09782463967645073</v>
       </c>
       <c r="K23" t="n">
-        <v>10.24518123062575</v>
+        <v>7.391234191502877</v>
       </c>
     </row>
     <row r="24">
@@ -1285,10 +1285,10 @@
         <v>4.471473217010498</v>
       </c>
       <c r="F24" t="n">
-        <v>6.73530248354458</v>
+        <v>9.754527484646365</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551900086</v>
+        <v>0.05736122551872583</v>
       </c>
       <c r="H24" t="n">
         <v>0.01201014716470183</v>
@@ -1297,10 +1297,10 @@
         <v>14.01164184239214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09797306725096587</v>
+        <v>0.09797306725087418</v>
       </c>
       <c r="K24" t="n">
-        <v>4.698270395509608</v>
+        <v>4.011356912994174</v>
       </c>
     </row>
     <row r="25">
@@ -1320,10 +1320,10 @@
         <v>16.07535552978516</v>
       </c>
       <c r="F25" t="n">
-        <v>5.103537677748928</v>
+        <v>6.058156752157673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753139799</v>
+        <v>0.05736124753112293</v>
       </c>
       <c r="H25" t="n">
         <v>0.01200821257580742</v>
@@ -1332,10 +1332,10 @@
         <v>6.432699092026201</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09812395865539071</v>
+        <v>0.09812395865529903</v>
       </c>
       <c r="K25" t="n">
-        <v>5.396968169689565</v>
+        <v>3.828899778626128</v>
       </c>
     </row>
   </sheetData>
@@ -1933,14 +1933,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95547409271833</v>
+        <v>16.95547409271895</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>12.63620530149768</v>
+        <v>12.63620530149806</v>
       </c>
       <c r="R6" t="n">
-        <v>4.896157605327467e-05</v>
+        <v>4.896157598033302e-05</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>9.899292150602365</v>
+        <v>9.899292150598122</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -2009,32 +2009,32 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>18.78770983288531</v>
+        <v>20.41389207209659</v>
       </c>
       <c r="J7" t="n">
-        <v>21.56572353958988</v>
+        <v>16.16170793999773</v>
       </c>
       <c r="K7" t="n">
-        <v>14.99269289421301</v>
+        <v>15.94401550920139</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4196540095910855</v>
+        <v>-0.6760480065874221</v>
       </c>
       <c r="M7" t="n">
-        <v>11.57388646804013</v>
+        <v>15.50043817517054</v>
       </c>
       <c r="N7" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O7" t="n">
-        <v>9.182716072963494</v>
+        <v>9.205054979449486</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>7.252043157544585</v>
+        <v>7.264473563712153</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7067073544121778</v>
+        <v>0.7052786254178469</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2045,23 +2045,23 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>31.52444733887168</v>
+        <v>31.42909237149799</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>64.0593507422989</v>
+        <v>78.90268537271196</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4466480606700315</v>
+        <v>0.5707196379881881</v>
       </c>
       <c r="AB7" t="n">
-        <v>55.29887032865963</v>
+        <v>70.34873081108836</v>
       </c>
       <c r="AC7" t="n">
-        <v>-27.52859336672178</v>
+        <v>-42.28115700614222</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2189,32 +2189,32 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>37.12686164710544</v>
+        <v>37.91027620656208</v>
       </c>
       <c r="J9" t="n">
-        <v>33.63080762429482</v>
+        <v>37.14913341850825</v>
       </c>
       <c r="K9" t="n">
-        <v>32.86990355803422</v>
+        <v>33.73456707702895</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.543847873456486</v>
+        <v>-4.780277950655551</v>
       </c>
       <c r="M9" t="n">
-        <v>67.74408584860083</v>
+        <v>64.62481886684907</v>
       </c>
       <c r="N9" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O9" t="n">
-        <v>10.59950734558514</v>
+        <v>12.54920694310847</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>8.128288051910729</v>
+        <v>9.455152385725551</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6092218965236962</v>
+        <v>0.4522386026799839</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -2227,21 +2227,21 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>(0.17439549164925142, 0.1741086181286509, 0.17387614097516488, 0.14943963580592928, 0.14933433251341427, 0.08802644586258417, 0.07496519946052772, 0.0158541356044774)</t>
+          <t>(0.17457811624865116, 0.17428967274317633, 0.17405592330206318, 0.14948568343267246, 0.14937980384235414, 0.08773639491525703, 0.07460366767503923, 0.01587073784078647)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>185.230935456766</v>
+        <v>200.3565584799579</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.141546685795284</v>
+        <v>1.26505566932078</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.3949708183104</v>
+        <v>159.5404641264709</v>
       </c>
       <c r="AC9" t="n">
-        <v>-237.529629454993</v>
+        <v>-278.0759552234479</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>75.22385024635092</v>
       </c>
       <c r="K10" t="n">
-        <v>63.29204867021941</v>
+        <v>63.2920486702194</v>
       </c>
       <c r="L10" t="n">
-        <v>-19.8189650142547</v>
+        <v>-19.81896501425469</v>
       </c>
       <c r="M10" t="n">
         <v>116.4622062660359</v>
@@ -2293,14 +2293,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O10" t="n">
-        <v>16.80574782764303</v>
+        <v>16.80574782764317</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>12.47378710526541</v>
+        <v>12.4737871052655</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01763123414510259</v>
+        <v>0.01763123414508594</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -12599,13 +12599,13 @@
         <v>-0.00737587333869702</v>
       </c>
       <c r="H2" t="n">
-        <v>-18.97462200458756</v>
+        <v>-25.6131179951706</v>
       </c>
       <c r="I2" t="n">
         <v>-44.91608810424805</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.25093838376747</v>
+        <v>2.972072073377206</v>
       </c>
       <c r="K2" t="n">
         <v>13.22797970211588</v>
@@ -12637,13 +12637,13 @@
         <v>-0.007375855225168926</v>
       </c>
       <c r="H3" t="n">
-        <v>6.746289639291404</v>
+        <v>5.221552394135188</v>
       </c>
       <c r="I3" t="n">
         <v>0.4673192203044891</v>
       </c>
       <c r="J3" t="n">
-        <v>12.4784663135708</v>
+        <v>11.09918999548406</v>
       </c>
       <c r="K3" t="n">
         <v>23.00033446182202</v>
@@ -12675,13 +12675,13 @@
         <v>-0.007375836261387075</v>
       </c>
       <c r="H4" t="n">
-        <v>-29.19943353396192</v>
+        <v>-34.21114569196688</v>
       </c>
       <c r="I4" t="n">
         <v>-34.81304550170898</v>
       </c>
       <c r="J4" t="n">
-        <v>5.964440879635672</v>
+        <v>12.04866604837931</v>
       </c>
       <c r="K4" t="n">
         <v>32.69332991686343</v>
@@ -12713,13 +12713,13 @@
         <v>-0.007375817663049955</v>
       </c>
       <c r="H5" t="n">
-        <v>6.746289639291404</v>
+        <v>5.221552394135188</v>
       </c>
       <c r="I5" t="n">
         <v>-5.528274059295654</v>
       </c>
       <c r="J5" t="n">
-        <v>19.99667030167136</v>
+        <v>19.16467107142016</v>
       </c>
       <c r="K5" t="n">
         <v>42.30750806334375</v>
@@ -12751,13 +12751,13 @@
         <v>-0.007375798802678496</v>
       </c>
       <c r="H6" t="n">
-        <v>-15.00654937138926</v>
+        <v>-17.46611219583104</v>
       </c>
       <c r="I6" t="n">
         <v>3.249172687530518</v>
       </c>
       <c r="J6" t="n">
-        <v>23.42317923244277</v>
+        <v>25.78095243938058</v>
       </c>
       <c r="K6" t="n">
         <v>51.84358090595912</v>
@@ -12789,13 +12789,13 @@
         <v>-0.007375780441514851</v>
       </c>
       <c r="H7" t="n">
-        <v>-23.13433216597208</v>
+        <v>-25.79908245596483</v>
       </c>
       <c r="I7" t="n">
         <v>-43.05313110351562</v>
       </c>
       <c r="J7" t="n">
-        <v>20.1465980937935</v>
+        <v>24.60680111247158</v>
       </c>
       <c r="K7" t="n">
         <v>61.30219361437663</v>
@@ -12827,13 +12827,13 @@
         <v>-0.007375761592573027</v>
       </c>
       <c r="H8" t="n">
-        <v>-26.36855167014864</v>
+        <v>-31.38026382815359</v>
       </c>
       <c r="I8" t="n">
         <v>-23.2375316619873</v>
       </c>
       <c r="J8" t="n">
-        <v>27.53265991266874</v>
+        <v>31.7241950040486</v>
       </c>
       <c r="K8" t="n">
         <v>70.6840187871634</v>
@@ -12865,13 +12865,13 @@
         <v>-0.007375742787818884</v>
       </c>
       <c r="H9" t="n">
-        <v>-23.76811496945886</v>
+        <v>-16.97744638515068</v>
       </c>
       <c r="I9" t="n">
         <v>-14.75483417510986</v>
       </c>
       <c r="J9" t="n">
-        <v>35.40314609042152</v>
+        <v>39.39726465385615</v>
       </c>
       <c r="K9" t="n">
         <v>79.98964005992558</v>
@@ -12903,13 +12903,13 @@
         <v>-0.007375724439957848</v>
       </c>
       <c r="H10" t="n">
-        <v>6.693849550936702</v>
+        <v>0.05535356035366046</v>
       </c>
       <c r="I10" t="n">
         <v>-14.32335090637207</v>
       </c>
       <c r="J10" t="n">
-        <v>46.59473555389429</v>
+        <v>46.43897492816537</v>
       </c>
       <c r="K10" t="n">
         <v>89.21966563368532</v>
@@ -12941,13 +12941,13 @@
         <v>-0.007375705880088512</v>
       </c>
       <c r="H11" t="n">
-        <v>32.90958897719069</v>
+        <v>41.97204083713427</v>
       </c>
       <c r="I11" t="n">
         <v>33.28797149658203</v>
       </c>
       <c r="J11" t="n">
-        <v>63.60529152969145</v>
+        <v>58.55402964752025</v>
       </c>
       <c r="K11" t="n">
         <v>98.37473210200567</v>
@@ -12979,13 +12979,13 @@
         <v>-0.007375687817907511</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.102563973251534</v>
+        <v>-2.246815014479433</v>
       </c>
       <c r="I12" t="n">
         <v>-12.72276592254639</v>
       </c>
       <c r="J12" t="n">
-        <v>55.05556318339393</v>
+        <v>57.34569322111768</v>
       </c>
       <c r="K12" t="n">
         <v>107.455353933568</v>
@@ -13017,13 +13017,13 @@
         <v>-0.00737566899760278</v>
       </c>
       <c r="H13" t="n">
-        <v>11.57388646804013</v>
+        <v>15.50043817517054</v>
       </c>
       <c r="I13" t="n">
         <v>26.74729347229004</v>
       </c>
       <c r="J13" t="n">
-        <v>67.74408584860083</v>
+        <v>64.62481886684907</v>
       </c>
       <c r="K13" t="n">
         <v>116.4622062660359</v>
@@ -13125,19 +13125,19 @@
         <v>143.1120539770899</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1573607304412</v>
+        <v>143.1573607304409</v>
       </c>
       <c r="G2" t="n">
-        <v>146.0403515162146</v>
+        <v>147.1222328868946</v>
       </c>
       <c r="H2" t="n">
         <v>145.705320930481</v>
       </c>
       <c r="I2" t="n">
-        <v>144.9512185812287</v>
+        <v>144.3044648338235</v>
       </c>
       <c r="J2" t="n">
-        <v>143.1951250946032</v>
+        <v>143.1951250946031</v>
       </c>
       <c r="K2" t="n">
         <v>143.3159605762785</v>
@@ -13160,19 +13160,19 @@
         <v>143.1241059100375</v>
       </c>
       <c r="F3" t="n">
-        <v>143.2147214839734</v>
+        <v>143.2147214839729</v>
       </c>
       <c r="G3" t="n">
-        <v>148.1098983567265</v>
+        <v>148.6828430713252</v>
       </c>
       <c r="H3" t="n">
         <v>159.297060585022</v>
       </c>
       <c r="I3" t="n">
-        <v>147.5777195862193</v>
+        <v>145.4283332679414</v>
       </c>
       <c r="J3" t="n">
-        <v>143.2903720933963</v>
+        <v>143.2903720933961</v>
       </c>
       <c r="K3" t="n">
         <v>143.5322888861778</v>
@@ -13195,19 +13195,19 @@
         <v>143.1361558008311</v>
       </c>
       <c r="F4" t="n">
-        <v>143.2720822606962</v>
+        <v>143.2720822606954</v>
       </c>
       <c r="G4" t="n">
-        <v>145.4790254000081</v>
+        <v>146.9931406460696</v>
       </c>
       <c r="H4" t="n">
         <v>152.3237157821655</v>
       </c>
       <c r="I4" t="n">
-        <v>145.108752803127</v>
+        <v>143.7882403173627</v>
       </c>
       <c r="J4" t="n">
-        <v>143.38573098129</v>
+        <v>143.3857309812897</v>
       </c>
       <c r="K4" t="n">
         <v>143.7489548823427</v>
@@ -13230,19 +13230,19 @@
         <v>143.1482036459418</v>
       </c>
       <c r="F5" t="n">
-        <v>143.3294430602528</v>
+        <v>143.3294430602517</v>
       </c>
       <c r="G5" t="n">
-        <v>143.7972242636127</v>
+        <v>145.7972765837517</v>
       </c>
       <c r="H5" t="n">
         <v>157.703982925415</v>
       </c>
       <c r="I5" t="n">
-        <v>144.6143533998846</v>
+        <v>142.9270774437501</v>
       </c>
       <c r="J5" t="n">
-        <v>143.481173689494</v>
+        <v>143.4811736894935</v>
       </c>
       <c r="K5" t="n">
         <v>143.9658743622872</v>
@@ -13265,19 +13265,19 @@
         <v>143.1602494547414</v>
       </c>
       <c r="F6" t="n">
-        <v>143.3868038828741</v>
+        <v>143.3868038828728</v>
       </c>
       <c r="G6" t="n">
-        <v>144.2377292161451</v>
+        <v>147.178952067747</v>
       </c>
       <c r="H6" t="n">
         <v>164.296150302887</v>
       </c>
       <c r="I6" t="n">
-        <v>144.182597459947</v>
+        <v>142.5533676664291</v>
       </c>
       <c r="J6" t="n">
-        <v>143.5767170235115</v>
+        <v>143.576717023511</v>
       </c>
       <c r="K6" t="n">
         <v>144.183097732919</v>
@@ -13300,19 +13300,19 @@
         <v>143.1722932472848</v>
       </c>
       <c r="F7" t="n">
-        <v>143.4441647280803</v>
+        <v>143.4441647280787</v>
       </c>
       <c r="G7" t="n">
-        <v>133.691750245159</v>
+        <v>138.0958983372676</v>
       </c>
       <c r="H7" t="n">
         <v>156.277161693573</v>
       </c>
       <c r="I7" t="n">
-        <v>138.4212136335696</v>
+        <v>137.8323038910842</v>
       </c>
       <c r="J7" t="n">
-        <v>143.6723546498298</v>
+        <v>143.6723546498292</v>
       </c>
       <c r="K7" t="n">
         <v>144.4006059741242</v>
@@ -13335,19 +13335,19 @@
         <v>143.1843350125139</v>
       </c>
       <c r="F8" t="n">
-        <v>143.5015255963122</v>
+        <v>143.5015255963104</v>
       </c>
       <c r="G8" t="n">
-        <v>126.9701103342287</v>
+        <v>132.3939189687417</v>
       </c>
       <c r="H8" t="n">
         <v>149.2996521949768</v>
       </c>
       <c r="I8" t="n">
-        <v>134.9309265205527</v>
+        <v>134.9797095096868</v>
       </c>
       <c r="J8" t="n">
-        <v>143.7681351262961</v>
+        <v>143.7681351262954</v>
       </c>
       <c r="K8" t="n">
         <v>144.6185447700622</v>
@@ -13370,19 +13370,19 @@
         <v>143.1963747629798</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5588864874886</v>
+        <v>143.5588864874865</v>
       </c>
       <c r="G9" t="n">
-        <v>123.9229358817529</v>
+        <v>130.7473783024217</v>
       </c>
       <c r="H9" t="n">
         <v>141.1755457878113</v>
       </c>
       <c r="I9" t="n">
-        <v>133.0177257207675</v>
+        <v>133.7895098839427</v>
       </c>
       <c r="J9" t="n">
-        <v>143.864072200457</v>
+        <v>143.8640722004562</v>
       </c>
       <c r="K9" t="n">
         <v>144.8369553509025</v>
@@ -13405,19 +13405,19 @@
         <v>143.2084125099659</v>
       </c>
       <c r="F10" t="n">
-        <v>143.6162474011945</v>
+        <v>143.6162474011921</v>
       </c>
       <c r="G10" t="n">
-        <v>126.7460552975397</v>
+        <v>134.2659248697114</v>
       </c>
       <c r="H10" t="n">
         <v>154.3225756645203</v>
       </c>
       <c r="I10" t="n">
-        <v>136.4994880791318</v>
+        <v>136.1165068838259</v>
       </c>
       <c r="J10" t="n">
-        <v>143.9601733835789</v>
+        <v>143.960173383578</v>
       </c>
       <c r="K10" t="n">
         <v>145.0558602395762</v>
@@ -13440,19 +13440,19 @@
         <v>143.2204482309233</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6736083376136</v>
+        <v>143.6736083376109</v>
       </c>
       <c r="G11" t="n">
-        <v>145.1509973096796</v>
+        <v>153.3181833707795</v>
       </c>
       <c r="H11" t="n">
         <v>169.0494261741638</v>
       </c>
       <c r="I11" t="n">
-        <v>144.9742872789523</v>
+        <v>142.5526779834238</v>
       </c>
       <c r="J11" t="n">
-        <v>144.0564721130264</v>
+        <v>144.0564721130254</v>
       </c>
       <c r="K11" t="n">
         <v>145.275359770542</v>
@@ -13475,19 +13475,19 @@
         <v>143.2324819725617</v>
       </c>
       <c r="F12" t="n">
-        <v>143.7309692962673</v>
+        <v>143.7309692962643</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2243830620802</v>
+        <v>159.4107941242819</v>
       </c>
       <c r="H12" t="n">
         <v>178.651745891571</v>
       </c>
       <c r="I12" t="n">
-        <v>149.5375011284156</v>
+        <v>146.7047277122219</v>
       </c>
       <c r="J12" t="n">
-        <v>144.1529169940573</v>
+        <v>144.1529169940562</v>
       </c>
       <c r="K12" t="n">
         <v>145.4952997133427</v>
@@ -13510,19 +13510,19 @@
         <v>143.2445137111366</v>
       </c>
       <c r="F13" t="n">
-        <v>143.7883302778493</v>
+        <v>143.788330277846</v>
       </c>
       <c r="G13" t="n">
-        <v>154.0695856986427</v>
+        <v>165.4689508764396</v>
       </c>
       <c r="H13" t="n">
         <v>188.8854294776916</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2009815538675</v>
+        <v>150.0016894486496</v>
       </c>
       <c r="J13" t="n">
-        <v>144.2495294174594</v>
+        <v>144.2495294174582</v>
       </c>
       <c r="K13" t="n">
         <v>145.7157442633923</v>
@@ -13545,19 +13545,19 @@
         <v>143.2565434621469</v>
       </c>
       <c r="F14" t="n">
-        <v>143.8456912820227</v>
+        <v>143.8456912820192</v>
       </c>
       <c r="G14" t="n">
-        <v>154.8358955130828</v>
+        <v>166.7607374447558</v>
       </c>
       <c r="H14" t="n">
         <v>203.2598896980286</v>
       </c>
       <c r="I14" t="n">
-        <v>157.8687812708536</v>
+        <v>152.4051712764141</v>
       </c>
       <c r="J14" t="n">
-        <v>144.3462704558586</v>
+        <v>144.3462704558573</v>
       </c>
       <c r="K14" t="n">
         <v>145.9365766234059</v>
@@ -13580,19 +13580,19 @@
         <v>143.2685712298355</v>
       </c>
       <c r="F15" t="n">
-        <v>143.9030523085335</v>
+        <v>143.9030523085298</v>
       </c>
       <c r="G15" t="n">
-        <v>154.9023030038101</v>
+        <v>167.4244721708154</v>
       </c>
       <c r="H15" t="n">
         <v>207.6809497833252</v>
       </c>
       <c r="I15" t="n">
-        <v>158.9111582063314</v>
+        <v>152.8510666648608</v>
       </c>
       <c r="J15" t="n">
-        <v>144.4431127886967</v>
+        <v>144.4431127886953</v>
       </c>
       <c r="K15" t="n">
         <v>146.1577148277208</v>
@@ -13615,19 +13615,19 @@
         <v>143.2805970233453</v>
       </c>
       <c r="F16" t="n">
-        <v>143.9604133569118</v>
+        <v>143.9604133569077</v>
       </c>
       <c r="G16" t="n">
-        <v>150.3331661697707</v>
+        <v>163.7965058682389</v>
       </c>
       <c r="H16" t="n">
         <v>200.7649317741394</v>
       </c>
       <c r="I16" t="n">
-        <v>155.9215145397004</v>
+        <v>150.9676930638042</v>
       </c>
       <c r="J16" t="n">
-        <v>144.540027419862</v>
+        <v>144.5400274198605</v>
       </c>
       <c r="K16" t="n">
         <v>146.3790718793287</v>
@@ -13650,19 +13650,19 @@
         <v>143.2926208407951</v>
       </c>
       <c r="F17" t="n">
-        <v>144.0177744278294</v>
+        <v>144.0177744278251</v>
       </c>
       <c r="G17" t="n">
-        <v>148.3951966236453</v>
+        <v>162.1109317542522</v>
       </c>
       <c r="H17" t="n">
         <v>211.84396276474</v>
       </c>
       <c r="I17" t="n">
-        <v>156.1257058882301</v>
+        <v>150.5687210135078</v>
       </c>
       <c r="J17" t="n">
-        <v>144.637029848666</v>
+        <v>144.6370298486644</v>
       </c>
       <c r="K17" t="n">
         <v>146.6006942773734</v>
@@ -13685,19 +13685,19 @@
         <v>143.3046426896266</v>
       </c>
       <c r="F18" t="n">
-        <v>144.0751355209898</v>
+        <v>144.0751355209852</v>
       </c>
       <c r="G18" t="n">
-        <v>148.8357015761778</v>
+        <v>163.4926072382476</v>
       </c>
       <c r="H18" t="n">
         <v>214.7561839580536</v>
       </c>
       <c r="I18" t="n">
-        <v>154.9793930291542</v>
+        <v>149.6507455925929</v>
       </c>
       <c r="J18" t="n">
-        <v>144.7341199968973</v>
+        <v>144.7341199968957</v>
       </c>
       <c r="K18" t="n">
         <v>146.8225817800755</v>
@@ -13720,19 +13720,19 @@
         <v>143.3166625773076</v>
       </c>
       <c r="F19" t="n">
-        <v>144.1324966360929</v>
+        <v>144.132496636088</v>
       </c>
       <c r="G19" t="n">
-        <v>139.979055113433</v>
+        <v>156.0988860160095</v>
       </c>
       <c r="H19" t="n">
         <v>211.3433564662933</v>
       </c>
       <c r="I19" t="n">
-        <v>149.9532850141906</v>
+        <v>145.2864165349871</v>
       </c>
       <c r="J19" t="n">
-        <v>144.8313082466659</v>
+        <v>144.8313082466642</v>
       </c>
       <c r="K19" t="n">
         <v>147.0447655265973</v>
@@ -13755,19 +13755,19 @@
         <v>143.3286805053456</v>
       </c>
       <c r="F20" t="n">
-        <v>144.1898577734567</v>
+        <v>144.1898577734516</v>
       </c>
       <c r="G20" t="n">
-        <v>133.2574152025028</v>
+        <v>150.3969066474836</v>
       </c>
       <c r="H20" t="n">
         <v>209.862531042099</v>
       </c>
       <c r="I20" t="n">
-        <v>147.1397764180669</v>
+        <v>142.7248241416738</v>
       </c>
       <c r="J20" t="n">
-        <v>144.9286286665885</v>
+        <v>144.9286286665867</v>
       </c>
       <c r="K20" t="n">
         <v>147.2673477209631</v>
@@ -13790,19 +13790,19 @@
         <v>143.3406964813916</v>
       </c>
       <c r="F21" t="n">
-        <v>144.2472189331387</v>
+        <v>144.2472189331332</v>
       </c>
       <c r="G21" t="n">
-        <v>130.210240750027</v>
+        <v>148.7503659811636</v>
       </c>
       <c r="H21" t="n">
         <v>206.5284181594849</v>
       </c>
       <c r="I21" t="n">
-        <v>145.8603743140015</v>
+        <v>141.8227475217028</v>
       </c>
       <c r="J21" t="n">
-        <v>145.0261008310771</v>
+        <v>145.0261008310752</v>
       </c>
       <c r="K21" t="n">
         <v>147.490387078701</v>
@@ -13825,19 +13825,19 @@
         <v>143.352710510845</v>
       </c>
       <c r="F22" t="n">
-        <v>144.3045801146727</v>
+        <v>144.304580114667</v>
       </c>
       <c r="G22" t="n">
-        <v>136.1047380750646</v>
+        <v>155.0762328443015</v>
       </c>
       <c r="H22" t="n">
         <v>214.5128980636597</v>
       </c>
       <c r="I22" t="n">
-        <v>149.2554708650717</v>
+        <v>143.9288011849236</v>
       </c>
       <c r="J22" t="n">
-        <v>145.1237349297514</v>
+        <v>145.1237349297494</v>
       </c>
       <c r="K22" t="n">
         <v>147.7139141637365</v>
@@ -13860,19 +13860,19 @@
         <v>143.3647225908962</v>
       </c>
       <c r="F23" t="n">
-        <v>144.3619413188217</v>
+        <v>144.3619413188157</v>
       </c>
       <c r="G23" t="n">
-        <v>157.7699266126689</v>
+        <v>177.6909075083749</v>
       </c>
       <c r="H23" t="n">
         <v>236.6786943435669</v>
       </c>
       <c r="I23" t="n">
-        <v>159.5006520956975</v>
+        <v>151.3200353764265</v>
       </c>
       <c r="J23" t="n">
-        <v>145.2215595694279</v>
+        <v>145.2215595694259</v>
       </c>
       <c r="K23" t="n">
         <v>147.9380147985661</v>
@@ -13895,19 +13895,19 @@
         <v>143.3767327380609</v>
       </c>
       <c r="F24" t="n">
-        <v>144.4193025443407</v>
+        <v>144.4193025443344</v>
       </c>
       <c r="G24" t="n">
-        <v>164.5052290962135</v>
+        <v>187.4454349930213</v>
       </c>
       <c r="H24" t="n">
         <v>241.1501675605774</v>
       </c>
       <c r="I24" t="n">
-        <v>164.1989224912071</v>
+        <v>155.3313922894206</v>
       </c>
       <c r="J24" t="n">
-        <v>145.3195326366789</v>
+        <v>145.3195326366768</v>
       </c>
       <c r="K24" t="n">
         <v>148.1625626276353</v>
@@ -13930,19 +13930,19 @@
         <v>143.3887409506367</v>
       </c>
       <c r="F25" t="n">
-        <v>144.4766637918721</v>
+        <v>144.4766637918655</v>
       </c>
       <c r="G25" t="n">
-        <v>169.6087667739624</v>
+        <v>193.503591745179</v>
       </c>
       <c r="H25" t="n">
         <v>257.2255230903626</v>
       </c>
       <c r="I25" t="n">
-        <v>169.5958906608966</v>
+        <v>159.1602920680468</v>
       </c>
       <c r="J25" t="n">
-        <v>145.4176565953343</v>
+        <v>145.4176565953321</v>
       </c>
       <c r="K25" t="n">
         <v>148.3875650434942</v>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,10 +489,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
         </is>
@@ -503,7 +508,7 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2159605762784906</v>
+        <v>0.2159605765139645</v>
       </c>
       <c r="C2" t="n">
         <v>-0.3499999999999986</v>
@@ -515,22 +520,25 @@
         <v>2.605320930480957</v>
       </c>
       <c r="F2" t="n">
-        <v>4.022232886894614</v>
+        <v>4.150435633220996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044090867</v>
+        <v>0.05736073044107484</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01205397708987732</v>
+        <v>0.01045505303544303</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3460532910052329</v>
+        <v>0.3460532910052291</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09512509460309221</v>
+        <v>-3.577984666760092</v>
       </c>
       <c r="K2" t="n">
-        <v>1.20446483382353</v>
+        <v>0.09459211999682744</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5452805911831415</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +546,7 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2163283098992963</v>
+        <v>0.2163283101349975</v>
       </c>
       <c r="C3" t="n">
         <v>0.009999999999999431</v>
@@ -550,22 +558,25 @@
         <v>13.59173965454102</v>
       </c>
       <c r="F3" t="n">
-        <v>1.560610184430546</v>
+        <v>2.420792344856824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353199016</v>
+        <v>0.05736075353215644</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01205193294762807</v>
+        <v>0.01045334555783484</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.765275087054412</v>
+        <v>-5.765275087054417</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09524699879297151</v>
+        <v>3.45362248620736</v>
       </c>
       <c r="K3" t="n">
-        <v>1.123868434117929</v>
+        <v>0.0947141364083296</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.460658631130292</v>
       </c>
     </row>
     <row r="4">
@@ -573,7 +584,7 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2166659961649486</v>
+        <v>0.2166659964011046</v>
       </c>
       <c r="C4" t="n">
         <v>-2.849999999999999</v>
@@ -585,22 +596,25 @@
         <v>-6.973344802856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.689702425255553</v>
+        <v>-0.9925748806592074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672252504</v>
+        <v>0.05736077672269135</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01204989079356267</v>
+        <v>0.01045164547619493</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.060311162828749</v>
+        <v>-2.06031116282875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09535888789367879</v>
+        <v>-3.117357104074518</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.640092950578735</v>
+        <v>0.0948261395333303</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.839633530622113</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +622,7 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2169194799444938</v>
+        <v>0.2169194801805929</v>
       </c>
       <c r="C5" t="n">
         <v>0.0299999999999983</v>
@@ -620,22 +634,25 @@
         <v>5.380267143249512</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.195864062317908</v>
+        <v>-0.2274273310937977</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955627291</v>
+        <v>0.05736079955643922</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01204784511072887</v>
+        <v>0.01044992181059001</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.99765566804485</v>
+        <v>-6.997655668044846</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09544270820383187</v>
+        <v>5.27509307133526</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.8611628736126399</v>
+        <v>0.09491006718254073</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.0005955074581199447</v>
       </c>
     </row>
     <row r="6">
@@ -643,7 +660,7 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2172233706317854</v>
+        <v>0.2172233708680835</v>
       </c>
       <c r="C6" t="n">
         <v>-3.439999999999998</v>
@@ -655,22 +672,25 @@
         <v>6.592167377471924</v>
       </c>
       <c r="F6" t="n">
-        <v>1.38167548399533</v>
+        <v>2.078803028591675</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262108685</v>
+        <v>0.05736082262125317</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0120458087996127</v>
+        <v>0.0104482185499748</v>
       </c>
       <c r="I6" t="n">
-        <v>4.709526320452824</v>
+        <v>4.709526320452823</v>
       </c>
       <c r="J6" t="n">
-        <v>0.095543334017495</v>
+        <v>-1.775171377200004</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3737097773209673</v>
+        <v>0.09501080401310384</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.5516599826490903</v>
       </c>
     </row>
     <row r="7">
@@ -678,7 +698,7 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2175082412052234</v>
+        <v>0.2175082414418341</v>
       </c>
       <c r="C7" t="n">
         <v>-7.1</v>
@@ -690,22 +710,25 @@
         <v>-8.018988609313965</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.083053730479406</v>
+        <v>-8.03750549848783</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0573608452058815</v>
+        <v>0.05736084520604784</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01204379254340893</v>
+        <v>0.01044652942443491</v>
       </c>
       <c r="I7" t="n">
         <v>-21.63065293633207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09563762631817126</v>
+        <v>-6.521963173627176</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.721063775344898</v>
+        <v>0.09510520535743895</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-4.972472370764634</v>
       </c>
     </row>
     <row r="8">
@@ -713,7 +736,7 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217938795937954</v>
+        <v>0.2179387961746784</v>
       </c>
       <c r="C8" t="n">
         <v>-3.97</v>
@@ -725,22 +748,25 @@
         <v>-6.977509498596191</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.701979368525946</v>
+        <v>-4.701666535298115</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823167719</v>
+        <v>0.05736086823184355</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01204176522905698</v>
+        <v>0.01044483355158832</v>
       </c>
       <c r="I8" t="n">
-        <v>-15.12166796545416</v>
+        <v>-15.12166796545415</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09578047646622938</v>
+        <v>-3.851968139538391</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.852594381397366</v>
+        <v>0.09524816598603675</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.989791976968506</v>
       </c>
     </row>
     <row r="9">
@@ -748,7 +774,7 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184105808403274</v>
+        <v>0.2184105810772508</v>
       </c>
       <c r="C9" t="n">
         <v>-1.540000000000002</v>
@@ -760,22 +786,25 @@
         <v>-8.124106407165527</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.64654066632004</v>
+        <v>-0.5833198071405251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117610749</v>
+        <v>0.05736089117627385</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01203975046591665</v>
+        <v>0.01044314564209969</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.165239286047924</v>
+        <v>-4.165239286047926</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09593707416078384</v>
+        <v>-7.184096535988147</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.190199625744144</v>
+        <v>0.09540487263187476</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2.011797338784021</v>
       </c>
     </row>
     <row r="10">
@@ -783,7 +812,7 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2189048886737055</v>
+        <v>0.2189048889109131</v>
       </c>
       <c r="C10" t="n">
         <v>4.13</v>
@@ -795,22 +824,25 @@
         <v>13.14702987670898</v>
       </c>
       <c r="F10" t="n">
-        <v>3.518546567289765</v>
+        <v>4.23424787105804</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091370565971</v>
+        <v>0.05736091370582608</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01203774698603866</v>
+        <v>0.0104414682452898</v>
       </c>
       <c r="I10" t="n">
-        <v>2.699596254056521</v>
+        <v>2.699596254056517</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09610118312180128</v>
+        <v>3.155521630895988</v>
       </c>
       <c r="K10" t="n">
-        <v>2.326996999883241</v>
+        <v>0.09556909028734299</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.458851109766251</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +850,7 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2194995309658054</v>
+        <v>0.2194995312028141</v>
       </c>
       <c r="C11" t="n">
         <v>8.02</v>
@@ -830,22 +862,25 @@
         <v>14.72685050964355</v>
       </c>
       <c r="F11" t="n">
-        <v>19.05225850106809</v>
+        <v>19.19647977179865</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641882714</v>
+        <v>0.05736093641899351</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01203572095745642</v>
+        <v>0.0104397563735219</v>
       </c>
       <c r="I11" t="n">
         <v>29.53804211122594</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09629872944736299</v>
+        <v>3.461637892103377</v>
       </c>
       <c r="K11" t="n">
-        <v>6.436171099597841</v>
+        <v>0.0957667413317765</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.050299305762764</v>
       </c>
     </row>
     <row r="12">
@@ -853,7 +888,7 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2199399428006643</v>
+        <v>0.2199399430380993</v>
       </c>
       <c r="C12" t="n">
         <v>9.34</v>
@@ -865,22 +900,25 @@
         <v>9.602319717407227</v>
       </c>
       <c r="F12" t="n">
-        <v>6.092610753502422</v>
+        <v>4.219652363749089</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865333485</v>
+        <v>0.05736095865350116</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01203374163844728</v>
+        <v>0.01043810463238515</v>
       </c>
       <c r="I12" t="n">
         <v>14.89295699401844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09644488103081549</v>
+        <v>3.462660433596286</v>
       </c>
       <c r="K12" t="n">
-        <v>4.152049728798116</v>
+        <v>0.09591300210799519</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.04381236952682</v>
       </c>
     </row>
     <row r="13">
@@ -888,7 +926,7 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2204445500496206</v>
+        <v>0.2204445502872545</v>
       </c>
       <c r="C13" t="n">
         <v>3.969999999999999</v>
@@ -900,22 +938,25 @@
         <v>10.23368358612061</v>
       </c>
       <c r="F13" t="n">
-        <v>6.058156752157673</v>
+        <v>7.100981529234848</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158174538</v>
+        <v>0.05736098158191172</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01203173857481943</v>
+        <v>0.01043643320894461</v>
       </c>
       <c r="I13" t="n">
-        <v>5.711378463540445</v>
+        <v>5.711378463540446</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09661242340206182</v>
+        <v>1.629522881765662</v>
       </c>
       <c r="K13" t="n">
-        <v>3.296961736427692</v>
+        <v>0.09608065502603695</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.087890104116524</v>
       </c>
     </row>
     <row r="14">
@@ -923,7 +964,7 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2208323600135884</v>
+        <v>0.2208323602514781</v>
       </c>
       <c r="C14" t="n">
         <v>0.8500000000000014</v>
@@ -935,22 +976,25 @@
         <v>14.37446022033691</v>
       </c>
       <c r="F14" t="n">
-        <v>1.291786568316248</v>
+        <v>2.009974975005985</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417319392</v>
+        <v>0.05736100417336026</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01202975101037396</v>
+        <v>0.01043477417704963</v>
       </c>
       <c r="I14" t="n">
         <v>-1.60226807134854</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09674103839905208</v>
+        <v>8.225506623500706</v>
       </c>
       <c r="K14" t="n">
-        <v>2.403481827764528</v>
+        <v>0.09620937953396268</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.224104111439987</v>
       </c>
     </row>
     <row r="15">
@@ -958,7 +1002,7 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2211382043148831</v>
+        <v>0.2211382045529433</v>
       </c>
       <c r="C15" t="n">
         <v>-0.6799999999999997</v>
@@ -970,22 +1014,25 @@
         <v>4.421060085296631</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6637347260596143</v>
+        <v>1.471885467393526</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651053052</v>
+        <v>0.05736102651069686</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01202776768857916</v>
+        <v>0.01043311137393488</v>
       </c>
       <c r="I15" t="n">
-        <v>-4.662501863313549</v>
+        <v>-4.662501863313551</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09684233283799759</v>
+        <v>3.465662087656112</v>
       </c>
       <c r="K15" t="n">
-        <v>0.445895388446686</v>
+        <v>0.09631078081252502</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8735306333717447</v>
       </c>
     </row>
     <row r="16">
@@ -993,7 +1040,7 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2213570516079528</v>
+        <v>0.2213570518461268</v>
       </c>
       <c r="C16" t="n">
         <v>-2.849999999999999</v>
@@ -1005,22 +1052,25 @@
         <v>-6.916018009185791</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.627966302576501</v>
+        <v>-2.930838757980159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837794212</v>
+        <v>0.05736104837810849</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01202579350977828</v>
+        <v>0.01043144594870427</v>
       </c>
       <c r="I16" t="n">
         <v>-2.251321017877197</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0969146311652244</v>
+        <v>0.05904392032708383</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.883373601056603</v>
+        <v>0.09638318205764651</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-1.609743506103244</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2216223980446728</v>
+        <v>0.2216223982830741</v>
       </c>
       <c r="C17" t="n">
         <v>-0.8900000000000006</v>
@@ -1040,22 +1090,25 @@
         <v>11.07903099060059</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.685574113986701</v>
+        <v>-0.7887600401219022</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091735543</v>
+        <v>0.05736107091752177</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01202381744977288</v>
+        <v>0.01042979690765122</v>
       </c>
       <c r="I17" t="n">
-        <v>-5.876330982522415</v>
+        <v>-5.87633098252242</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09700242880393369</v>
+        <v>3.467707170641927</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.398972050296362</v>
+        <v>0.09647108870274901</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1502458026760672</v>
       </c>
     </row>
     <row r="18">
@@ -1063,7 +1116,7 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2218875027020601</v>
+        <v>0.2218875029406604</v>
       </c>
       <c r="C18" t="n">
         <v>-3.439999999999998</v>
@@ -1075,22 +1128,25 @@
         <v>2.912221193313599</v>
       </c>
       <c r="F18" t="n">
-        <v>1.38167548399533</v>
+        <v>2.078803028591675</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316008656</v>
+        <v>0.0573610931602529</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01202184883155155</v>
+        <v>0.01042814809056836</v>
       </c>
       <c r="I18" t="n">
-        <v>3.396424902465048</v>
+        <v>3.396424902465046</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09709014823123274</v>
+        <v>-1.763131775751253</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.9179754209148892</v>
+        <v>0.09655891473049388</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-1.02157372796625</v>
       </c>
     </row>
     <row r="19">
@@ -1098,7 +1154,7 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2221837465218357</v>
+        <v>0.2221837467605496</v>
       </c>
       <c r="C19" t="n">
         <v>-8.830000000000002</v>
@@ -1110,22 +1166,25 @@
         <v>-3.412827491760254</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.393721222238045</v>
+        <v>-6.348172990246469</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510283018</v>
+        <v>0.05736111510299652</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01201988768092122</v>
+        <v>0.01042649943354945</v>
       </c>
       <c r="I19" t="n">
-        <v>-19.95911042021942</v>
+        <v>-19.95911042021941</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09718824976852902</v>
+        <v>-6.509923572178424</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.364329057605866</v>
+        <v>0.0966571204323652</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-4.660052368475563</v>
       </c>
     </row>
     <row r="20">
@@ -1133,7 +1192,7 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2225821943657706</v>
+        <v>0.2225821946046551</v>
       </c>
       <c r="C20" t="n">
         <v>-3.97</v>
@@ -1145,22 +1204,25 @@
         <v>-1.480825424194336</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.701979368525946</v>
+        <v>-5.159115239115108</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736360635</v>
+        <v>0.05736113736377269</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01201792803799151</v>
+        <v>0.0104248612333393</v>
       </c>
       <c r="I20" t="n">
         <v>-16.22199223487049</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09732041992245617</v>
+        <v>-3.83992853808964</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.56159239331328</v>
+        <v>0.09678939773392237</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-2.741505399202871</v>
       </c>
     </row>
     <row r="21">
@@ -1168,7 +1230,7 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2230393577378891</v>
+        <v>0.2230393579770009</v>
       </c>
       <c r="C21" t="n">
         <v>-1.540000000000002</v>
@@ -1180,22 +1242,25 @@
         <v>-3.334112882614136</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.64654066632004</v>
+        <v>-0.5833198071405251</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968165714</v>
+        <v>0.05736115968182351</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01201597604602966</v>
+        <v>0.01042322780635629</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.1783373326003</v>
+        <v>-5.178337332600299</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09747216448852529</v>
+        <v>0.1385804282519985</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.9020766199709798</v>
+        <v>0.09694124848839358</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.7486556152451076</v>
       </c>
     </row>
     <row r="22">
@@ -1203,7 +1268,7 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2235270850355562</v>
+        <v>0.2235270852748101</v>
       </c>
       <c r="C22" t="n">
         <v>4.970000000000001</v>
@@ -1215,22 +1280,25 @@
         <v>7.984479904174805</v>
       </c>
       <c r="F22" t="n">
-        <v>6.325866863137985</v>
+        <v>7.017839908133537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153380523</v>
+        <v>0.0573611815339716</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01201402945341101</v>
+        <v>0.0104215930979592</v>
       </c>
       <c r="I22" t="n">
-        <v>2.586716945761856</v>
+        <v>2.58671694576185</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09763409867425747</v>
+        <v>3.472753907687566</v>
       </c>
       <c r="K22" t="n">
-        <v>2.106053663220804</v>
+        <v>0.09710328663558032</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.309198934359892</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1306,7 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2241006348295684</v>
+        <v>0.2241006350691634</v>
       </c>
       <c r="C23" t="n">
         <v>7.280000000000001</v>
@@ -1250,22 +1318,25 @@
         <v>22.16579627990723</v>
       </c>
       <c r="F23" t="n">
-        <v>22.61467466407339</v>
+        <v>23.3008733712545</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414864793</v>
+        <v>0.05736120414881429</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01201208005113585</v>
+        <v>0.01041997623275392</v>
       </c>
       <c r="I23" t="n">
         <v>31.145832663474</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09782463967645073</v>
+        <v>3.473677493552128</v>
       </c>
       <c r="K23" t="n">
-        <v>7.391234191502877</v>
+        <v>0.09729393848357722</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.886843088661504</v>
       </c>
     </row>
     <row r="24">
@@ -1273,7 +1344,7 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2245478290691949</v>
+        <v>0.2245478293088183</v>
       </c>
       <c r="C24" t="n">
         <v>8.940000000000001</v>
@@ -1285,22 +1356,25 @@
         <v>4.471473217010498</v>
       </c>
       <c r="F24" t="n">
-        <v>9.754527484646365</v>
+        <v>7.881569094893034</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551872583</v>
+        <v>0.05736122551889219</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01201014716470183</v>
+        <v>0.01041834372604455</v>
       </c>
       <c r="I24" t="n">
         <v>14.01164184239214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09797306725087418</v>
+        <v>-3.097302096729747</v>
       </c>
       <c r="K24" t="n">
-        <v>4.011356912994174</v>
+        <v>0.09744246618458503</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.011639066646091</v>
       </c>
     </row>
     <row r="25">
@@ -1308,7 +1382,7 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2250024158589667</v>
+        <v>0.2250024160987891</v>
       </c>
       <c r="C25" t="n">
         <v>3.969999999999999</v>
@@ -1320,22 +1394,25 @@
         <v>16.07535552978516</v>
       </c>
       <c r="F25" t="n">
-        <v>6.058156752157673</v>
+        <v>6.917377487956821</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753112293</v>
+        <v>0.05736124753128929</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01200821257580742</v>
+        <v>0.01041672700257124</v>
       </c>
       <c r="I25" t="n">
-        <v>6.432699092026201</v>
+        <v>6.4326990920262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09812395865529903</v>
+        <v>3.465750277069117</v>
       </c>
       <c r="K25" t="n">
-        <v>3.828899778626128</v>
+        <v>0.09759346354421655</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.801163821748208</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,18 +1683,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 2}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1631,32 +1708,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>15.13637137495065</v>
+        <v>15.61651981301526</v>
       </c>
       <c r="J3" t="n">
-        <v>4.420995199870931</v>
+        <v>6.913791036123157</v>
       </c>
       <c r="K3" t="n">
-        <v>12.97190596342883</v>
+        <v>12.12486602646134</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07853599602998163</v>
+        <v>0.01914832458219462</v>
       </c>
       <c r="M3" t="n">
-        <v>4.780715763185643</v>
+        <v>1.629522881765662</v>
       </c>
       <c r="N3" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O3" t="n">
-        <v>11.30536428421562</v>
+        <v>15.89316412890312</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>8.802897043929974</v>
+        <v>11.96503094378698</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5554424583197214</v>
+        <v>0.1214234704258171</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -1667,7 +1744,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>23.44703993250942</v>
+        <v>11.7387981835032</v>
       </c>
       <c r="V3" t="b">
         <v>1</v>
@@ -1676,16 +1753,16 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>15.45026114981542</v>
+        <v>12.64381886738492</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.10334466932462</v>
+        <v>0.09364646693134403</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.48240818796544</v>
+        <v>11.27214745918249</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6595370112797341</v>
+        <v>-0.1114036652655501</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -1694,29 +1771,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'n_changepoints': 2}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
         <v>1</v>
       </c>
@@ -1727,32 +1796,32 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.42743090957689</v>
+        <v>15.13637137495065</v>
       </c>
       <c r="J4" t="n">
-        <v>2.663201748036615</v>
+        <v>4.420995199870932</v>
       </c>
       <c r="K4" t="n">
-        <v>12.55213186407106</v>
+        <v>12.97190596342883</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04275733880856225</v>
+        <v>0.07853599602998163</v>
       </c>
       <c r="M4" t="n">
-        <v>5.825054634025459</v>
+        <v>4.780715763185643</v>
       </c>
       <c r="N4" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O4" t="n">
-        <v>13.18354951791877</v>
+        <v>11.30536428421562</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>10.0775715972081</v>
+        <v>8.802897043929974</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3954620485378314</v>
+        <v>0.5554424583197213</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1763,23 +1832,25 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>13.2846482085337</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
+        <v>23.44703993250942</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>16.46356518161705</v>
+        <v>15.45026114981542</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1061648555155583</v>
+        <v>0.10334466932462</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.61220523137098</v>
+        <v>12.48240818796544</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8843564925973237</v>
+        <v>-0.6595370112797341</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -1788,12 +1859,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1803,12 +1874,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -1821,32 +1892,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>16.28407189340217</v>
+        <v>15.42743090957689</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0548228534847</v>
+        <v>2.663201748036615</v>
       </c>
       <c r="K5" t="n">
-        <v>12.37770713692645</v>
+        <v>12.55213186407106</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06649996955191884</v>
+        <v>0.04275733880856225</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.06624285807981778</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="N5" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O5" t="n">
-        <v>16.82587646781341</v>
+        <v>13.18354951791877</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>12.42182181574862</v>
+        <v>10.0775715972081</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01527661245887613</v>
+        <v>0.3954620485378314</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -1857,23 +1928,23 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>9.860091463813326</v>
+        <v>13.2846482085337</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>17.47830864520502</v>
+        <v>16.46356518161705</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1205706720336819</v>
+        <v>0.1061648555155583</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.98439294545111</v>
+        <v>13.61220523137098</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.12380237365424</v>
+        <v>-0.8843564925973237</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -1882,12 +1953,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1897,7 +1968,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1915,32 +1986,32 @@
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>16.26947225343302</v>
+        <v>16.27955076943286</v>
       </c>
       <c r="J6" t="n">
-        <v>1.006104198063623</v>
+        <v>1.039807053647507</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36789597267848</v>
+        <v>12.37468318691936</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06458846538547647</v>
+        <v>-0.06590784379298587</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.00737566899760278</v>
+        <v>-0.04809916354221855</v>
       </c>
       <c r="N6" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95547409271895</v>
+        <v>16.84597877025111</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>12.63620530149806</v>
+        <v>12.46165214367573</v>
       </c>
       <c r="R6" t="n">
-        <v>4.896157598033302e-05</v>
+        <v>0.01292225875724395</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1951,23 +2022,23 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>9.899292150598122</v>
+        <v>9.875535778025739</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>17.72904696611337</v>
+        <v>17.55483187646903</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1219620529587611</v>
+        <v>0.1209995167278683</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.13156041252731</v>
+        <v>14.02975219547075</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.185174251735035</v>
+        <v>-1.142439874012582</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -1976,12 +2047,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1991,12 +2062,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -2009,32 +2080,32 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>20.41389207209659</v>
+        <v>16.26947225343302</v>
       </c>
       <c r="J7" t="n">
-        <v>16.16170793999773</v>
+        <v>1.006104198063623</v>
       </c>
       <c r="K7" t="n">
-        <v>15.94401550920139</v>
+        <v>12.36789597267848</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.6760480065874221</v>
+        <v>-0.06458846538547647</v>
       </c>
       <c r="M7" t="n">
-        <v>15.50043817517054</v>
+        <v>-0.00737566899760278</v>
       </c>
       <c r="N7" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O7" t="n">
-        <v>9.205054979449486</v>
+        <v>16.95547409271876</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>7.264473563712153</v>
+        <v>12.63620530149774</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7052786254178469</v>
+        <v>4.896157600242645e-05</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2045,23 +2116,23 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>31.42909237149799</v>
+        <v>9.899292150610471</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>78.90268537271196</v>
+        <v>17.72904696611337</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5707196379881881</v>
+        <v>0.1219620529587611</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.34873081108836</v>
+        <v>14.13156041252731</v>
       </c>
       <c r="AC7" t="n">
-        <v>-42.28115700614222</v>
+        <v>-1.185174251735035</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2070,12 +2141,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2085,7 +2156,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2103,32 +2174,32 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>25.0222863676995</v>
+        <v>19.39754499843002</v>
       </c>
       <c r="J8" t="n">
-        <v>14.22695694111434</v>
+        <v>21.09450716059999</v>
       </c>
       <c r="K8" t="n">
-        <v>18.04098762522142</v>
+        <v>15.27556451853956</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.518191799548848</v>
+        <v>-0.5133116004589744</v>
       </c>
       <c r="M8" t="n">
-        <v>26.74729347229004</v>
+        <v>12.11200468550675</v>
       </c>
       <c r="N8" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O8" t="n">
-        <v>2.718626345104153</v>
+        <v>9.160156911678643</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>2.049073522538445</v>
+        <v>7.243662933940258</v>
       </c>
       <c r="R8" t="n">
-        <v>0.974292614933202</v>
+        <v>0.7081466472640792</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -2139,23 +2210,23 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>21.66224700979679</v>
+        <v>31.61936216896851</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>109.9983196679577</v>
+        <v>69.24134777969769</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8188190567365496</v>
+        <v>0.4889154533116196</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.6035909965635</v>
+        <v>60.57820448277844</v>
       </c>
       <c r="AC8" t="n">
-        <v>-83.1177011513183</v>
+        <v>-32.33084462556548</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2164,23 +2235,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>{'max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2189,59 +2268,59 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>37.91027620656208</v>
+        <v>25.0222863676995</v>
       </c>
       <c r="J9" t="n">
-        <v>37.14913341850825</v>
+        <v>14.22695694111434</v>
       </c>
       <c r="K9" t="n">
-        <v>33.73456707702895</v>
+        <v>18.04098762522142</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.780277950655551</v>
+        <v>-1.518191799548848</v>
       </c>
       <c r="M9" t="n">
-        <v>64.62481886684907</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="N9" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O9" t="n">
-        <v>12.54920694310847</v>
+        <v>2.718626345104153</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>9.455152385725551</v>
+        <v>2.049073522538445</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4522386026799839</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+        <v>0.974292614933202</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>21.66224700979679</v>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>(0.17457811624865116, 0.17428967274317633, 0.17405592330206318, 0.14948568343267246, 0.14937980384235414, 0.08773639491525703, 0.07460366767503923, 0.01587073784078647)</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>200.3565584799579</v>
+        <v>109.9983196679577</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.26505566932078</v>
+        <v>0.8188190567365496</v>
       </c>
       <c r="AB9" t="n">
-        <v>159.5404641264709</v>
+        <v>101.6035909965635</v>
       </c>
       <c r="AC9" t="n">
-        <v>-278.0759552234479</v>
+        <v>-83.1177011513183</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2250,7 +2329,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2261,7 +2340,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2275,32 +2354,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>71.9469114319318</v>
+        <v>33.07872270087717</v>
       </c>
       <c r="J10" t="n">
-        <v>75.22385024635092</v>
+        <v>31.0681476903971</v>
       </c>
       <c r="K10" t="n">
-        <v>63.2920486702194</v>
+        <v>29.39970889546297</v>
       </c>
       <c r="L10" t="n">
-        <v>-19.81896501425469</v>
+        <v>-3.400806647671409</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4622062660359</v>
+        <v>55.78127640369425</v>
       </c>
       <c r="N10" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O10" t="n">
-        <v>16.80574782764317</v>
+        <v>12.94151059124675</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>12.4737871052655</v>
+        <v>9.744374772016563</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01763123414508594</v>
+        <v>0.4174559045362259</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2308,22 +2387,26 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>['mlp', 'elasticnet', 'mlr']</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
+          <t>['mlp', 'elasticnet', 'mlr', 'silverkite', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>(0.15003694632517167, 0.14988792456547803, 0.1496886494583437, 0.13834885541630565, 0.12874213013887276, 0.12865186610824345, 0.07609988196509854, 0.06490402362928875, 0.013639722393197424)</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>408.7157464360039</v>
+        <v>172.5992520977831</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.594973612158374</v>
+        <v>1.097150568312029</v>
       </c>
       <c r="AB10" t="n">
-        <v>327.327699649084</v>
+        <v>138.2199282533834</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1160.336386430032</v>
+        <v>-206.1062058377667</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2332,31 +2415,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mlr</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2365,61 +2440,151 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>217.0336818415346</v>
+        <v>71.95208515224566</v>
       </c>
       <c r="J11" t="n">
-        <v>225.8545926540665</v>
+        <v>75.2296106947004</v>
       </c>
       <c r="K11" t="n">
-        <v>192.7137544686115</v>
+        <v>63.29708858611358</v>
       </c>
       <c r="L11" t="n">
-        <v>-188.4475971110153</v>
+        <v>-19.82195931582635</v>
       </c>
       <c r="M11" t="n">
-        <v>349.4602373251853</v>
+        <v>116.4682541642171</v>
       </c>
       <c r="N11" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>16.76625713139039</v>
+        <v>16.81533708614786</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>12.47334348926859</v>
+        <v>12.48473562670349</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02224261433850994</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>9.931059683765882</v>
-      </c>
+        <v>0.01650984690416868</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'mlr']</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1209.687469155379</v>
+        <v>408.7595257966846</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.559220367873763</v>
+        <v>2.595287313566343</v>
       </c>
       <c r="AB11" t="n">
-        <v>956.2616200652577</v>
+        <v>327.36701099697</v>
       </c>
       <c r="AC11" t="n">
-        <v>-10172.29545007738</v>
+        <v>-1160.585191561535</v>
       </c>
       <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>217.0336818415347</v>
+      </c>
+      <c r="J12" t="n">
+        <v>225.8545926540662</v>
+      </c>
+      <c r="K12" t="n">
+        <v>192.7137544686111</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-188.4475971110156</v>
+      </c>
+      <c r="M12" t="n">
+        <v>349.4602373251911</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.299999999999983</v>
+      </c>
+      <c r="O12" t="n">
+        <v>16.76625713139039</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>12.47334348929998</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.02224261433850983</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>9.931059683765882</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="n">
+        <v>1209.687469155373</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7.559220367873714</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>956.2616200652518</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-10172.29545007728</v>
+      </c>
+      <c r="AD12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12506,7 +12671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12532,45 +12697,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mlr</t>
         </is>
@@ -12587,31 +12757,34 @@
         <v>-0.8599999999999994</v>
       </c>
       <c r="D2" t="n">
-        <v>1.587815545947301</v>
+        <v>-3.577984666760092</v>
       </c>
       <c r="E2" t="n">
+        <v>1.587815545947298</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.8267494407946</v>
       </c>
-      <c r="F2" t="n">
-        <v>-0.06624281324630488</v>
-      </c>
       <c r="G2" t="n">
-        <v>-0.00737587333869702</v>
+        <v>-0.04809911194152505</v>
       </c>
       <c r="H2" t="n">
-        <v>-25.6131179951706</v>
+        <v>-0.007375873338697048</v>
       </c>
       <c r="I2" t="n">
+        <v>-23.86832382297595</v>
+      </c>
+      <c r="J2" t="n">
         <v>-44.91608810424805</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.972072073377206</v>
-      </c>
       <c r="K2" t="n">
-        <v>13.22797970211588</v>
+        <v>2.060260512587823</v>
       </c>
       <c r="L2" t="n">
-        <v>39.75755779293263</v>
+        <v>13.23402760254975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>39.75755779292946</v>
       </c>
     </row>
     <row r="3">
@@ -12625,31 +12798,34 @@
         <v>-1.689999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.959959197072623</v>
+        <v>3.45362248620736</v>
       </c>
       <c r="E3" t="n">
+        <v>-7.959959197072622</v>
+      </c>
+      <c r="F3" t="n">
         <v>-1.25990846321783</v>
       </c>
-      <c r="F3" t="n">
-        <v>-0.06624281750720229</v>
-      </c>
       <c r="G3" t="n">
+        <v>-0.04809911685291013</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.007375855225168926</v>
       </c>
-      <c r="H3" t="n">
-        <v>5.221552394135188</v>
-      </c>
       <c r="I3" t="n">
+        <v>6.95835990407698</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.4673192203044891</v>
       </c>
-      <c r="J3" t="n">
-        <v>11.09918999548406</v>
-      </c>
       <c r="K3" t="n">
-        <v>23.00033446182202</v>
+        <v>10.04334528973968</v>
       </c>
       <c r="L3" t="n">
-        <v>69.07462205819843</v>
+        <v>23.00638236204064</v>
+      </c>
+      <c r="M3" t="n">
+        <v>69.07462205819999</v>
       </c>
     </row>
     <row r="4">
@@ -12663,31 +12839,34 @@
         <v>-3.580000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.055784006481533</v>
+        <v>-3.117357104074518</v>
       </c>
       <c r="E4" t="n">
+        <v>-1.055784006481534</v>
+      </c>
+      <c r="F4" t="n">
         <v>-5.432123017413437</v>
       </c>
-      <c r="F4" t="n">
-        <v>-0.06624282154268712</v>
-      </c>
       <c r="G4" t="n">
+        <v>-0.0480991214922426</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.007375836261387075</v>
       </c>
-      <c r="H4" t="n">
-        <v>-34.21114569196688</v>
-      </c>
       <c r="I4" t="n">
+        <v>-29.19943353396192</v>
+      </c>
+      <c r="J4" t="n">
         <v>-34.81304550170898</v>
       </c>
-      <c r="J4" t="n">
-        <v>12.04866604837931</v>
-      </c>
       <c r="K4" t="n">
-        <v>32.69332991686343</v>
+        <v>9.977061060655807</v>
       </c>
       <c r="L4" t="n">
-        <v>98.15360840839435</v>
+        <v>32.69937781688039</v>
+      </c>
+      <c r="M4" t="n">
+        <v>98.15360840839479</v>
       </c>
     </row>
     <row r="5">
@@ -12701,31 +12880,34 @@
         <v>-4.07</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.630738391978975</v>
+        <v>5.27509307133526</v>
       </c>
       <c r="E5" t="n">
+        <v>-8.630738391978978</v>
+      </c>
+      <c r="F5" t="n">
         <v>-8.518268860255077</v>
       </c>
-      <c r="F5" t="n">
-        <v>-0.06624282566269812</v>
-      </c>
       <c r="G5" t="n">
+        <v>-0.04809912623593959</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.007375817663049955</v>
       </c>
-      <c r="H5" t="n">
-        <v>5.221552394135188</v>
-      </c>
       <c r="I5" t="n">
+        <v>6.95835990407698</v>
+      </c>
+      <c r="J5" t="n">
         <v>-5.528274059295654</v>
       </c>
-      <c r="J5" t="n">
-        <v>19.16467107142016</v>
-      </c>
       <c r="K5" t="n">
-        <v>42.30750806334375</v>
+        <v>17.22552979469518</v>
       </c>
       <c r="L5" t="n">
-        <v>126.996142833357</v>
+        <v>42.31355596315203</v>
+      </c>
+      <c r="M5" t="n">
+        <v>126.9961428333551</v>
       </c>
     </row>
     <row r="6">
@@ -12739,31 +12921,34 @@
         <v>-2.1</v>
       </c>
       <c r="D6" t="n">
+        <v>-1.775171377200004</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.219259606631341</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-9.693335279169055</v>
       </c>
-      <c r="F6" t="n">
-        <v>-0.06624282976778773</v>
-      </c>
       <c r="G6" t="n">
+        <v>-0.04809913096005403</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.007375798802678496</v>
       </c>
-      <c r="H6" t="n">
-        <v>-17.46611219583104</v>
-      </c>
       <c r="I6" t="n">
+        <v>-12.32832454971317</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.249172687530518</v>
       </c>
-      <c r="J6" t="n">
-        <v>25.78095243938058</v>
-      </c>
       <c r="K6" t="n">
-        <v>51.84358090595912</v>
+        <v>22.0036291419392</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6043613464478</v>
+        <v>51.84962880556075</v>
+      </c>
+      <c r="M6" t="n">
+        <v>155.604361346445</v>
       </c>
     </row>
     <row r="7">
@@ -12777,31 +12962,34 @@
         <v>-0.8599999999999994</v>
       </c>
       <c r="D7" t="n">
-        <v>-23.94145339002804</v>
+        <v>-6.521963173627176</v>
       </c>
       <c r="E7" t="n">
+        <v>-23.94145339002803</v>
+      </c>
+      <c r="F7" t="n">
         <v>-8.71427971686551</v>
       </c>
-      <c r="F7" t="n">
-        <v>-0.06624283378741325</v>
-      </c>
       <c r="G7" t="n">
-        <v>-0.007375780441514851</v>
+        <v>-0.04809913558452195</v>
       </c>
       <c r="H7" t="n">
-        <v>-25.79908245596483</v>
+        <v>-0.007375780441514823</v>
       </c>
       <c r="I7" t="n">
+        <v>-26.36052710622713</v>
+      </c>
+      <c r="J7" t="n">
         <v>-43.05313110351562</v>
       </c>
-      <c r="J7" t="n">
-        <v>24.60680111247158</v>
-      </c>
       <c r="K7" t="n">
-        <v>61.30219361437663</v>
+        <v>20.20750755296153</v>
       </c>
       <c r="L7" t="n">
-        <v>183.9801994573588</v>
+        <v>61.30824151377726</v>
+      </c>
+      <c r="M7" t="n">
+        <v>183.9801994573578</v>
       </c>
     </row>
     <row r="8">
@@ -12815,31 +13003,34 @@
         <v>-4.710000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.61555631537002</v>
+        <v>-3.851968139538391</v>
       </c>
       <c r="E8" t="n">
+        <v>-14.61555631537004</v>
+      </c>
+      <c r="F8" t="n">
         <v>-5.713143583858779</v>
       </c>
-      <c r="F8" t="n">
-        <v>-0.06624283789719243</v>
-      </c>
       <c r="G8" t="n">
-        <v>-0.007375761592573027</v>
+        <v>-0.04809914031491758</v>
       </c>
       <c r="H8" t="n">
-        <v>-31.38026382815359</v>
+        <v>-0.007375761592573055</v>
       </c>
       <c r="I8" t="n">
+        <v>-26.36855167014864</v>
+      </c>
+      <c r="J8" t="n">
         <v>-23.2375316619873</v>
       </c>
-      <c r="J8" t="n">
-        <v>31.7241950040486</v>
-      </c>
       <c r="K8" t="n">
-        <v>70.6840187871634</v>
+        <v>26.7935446612738</v>
       </c>
       <c r="L8" t="n">
-        <v>212.1256749609799</v>
+        <v>70.69006668635764</v>
+      </c>
+      <c r="M8" t="n">
+        <v>212.1256749609804</v>
       </c>
     </row>
     <row r="9">
@@ -12853,31 +13044,34 @@
         <v>-2.110000000000002</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.3815084135846</v>
+        <v>-7.184096535988147</v>
       </c>
       <c r="E9" t="n">
+        <v>-3.381508413584601</v>
+      </c>
+      <c r="F9" t="n">
         <v>-1.600234497656915</v>
       </c>
-      <c r="F9" t="n">
-        <v>-0.06624284194890606</v>
-      </c>
       <c r="G9" t="n">
+        <v>-0.04809914497758427</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.007375742787818884</v>
       </c>
-      <c r="H9" t="n">
-        <v>-16.97744638515068</v>
-      </c>
       <c r="I9" t="n">
+        <v>-23.18879326444034</v>
+      </c>
+      <c r="J9" t="n">
         <v>-14.75483417510986</v>
       </c>
-      <c r="J9" t="n">
-        <v>39.39726465385615</v>
-      </c>
       <c r="K9" t="n">
-        <v>79.98964005992558</v>
+        <v>32.79328733084</v>
       </c>
       <c r="L9" t="n">
-        <v>240.0425387645134</v>
+        <v>79.99568795891588</v>
+      </c>
+      <c r="M9" t="n">
+        <v>240.042538764513</v>
       </c>
     </row>
     <row r="10">
@@ -12891,31 +13085,34 @@
         <v>3.2</v>
       </c>
       <c r="D10" t="n">
-        <v>3.370442030314118</v>
+        <v>3.155521630895988</v>
       </c>
       <c r="E10" t="n">
+        <v>3.370442030314115</v>
+      </c>
+      <c r="F10" t="n">
         <v>2.526288989634081</v>
       </c>
-      <c r="F10" t="n">
-        <v>-0.06624284595577024</v>
-      </c>
       <c r="G10" t="n">
+        <v>-0.04809914958775607</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.007375724439957848</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.05535356035366046</v>
-      </c>
       <c r="I10" t="n">
+        <v>3.726243676336817</v>
+      </c>
+      <c r="J10" t="n">
         <v>-14.32335090637207</v>
       </c>
-      <c r="J10" t="n">
-        <v>46.43897492816537</v>
-      </c>
       <c r="K10" t="n">
-        <v>89.21966563368532</v>
+        <v>40.42133572465503</v>
       </c>
       <c r="L10" t="n">
-        <v>267.7326154714517</v>
+        <v>89.22571353247412</v>
+      </c>
+      <c r="M10" t="n">
+        <v>267.7326154714501</v>
       </c>
     </row>
     <row r="11">
@@ -12929,31 +13126,34 @@
         <v>4.7</v>
       </c>
       <c r="D11" t="n">
-        <v>27.46181632388766</v>
+        <v>3.461637892103377</v>
       </c>
       <c r="E11" t="n">
+        <v>27.46181632388767</v>
+      </c>
+      <c r="F11" t="n">
         <v>5.676287313735113</v>
       </c>
-      <c r="F11" t="n">
-        <v>-0.06624285009368691</v>
-      </c>
       <c r="G11" t="n">
-        <v>-0.007375705880088512</v>
+        <v>-0.04809915435495782</v>
       </c>
       <c r="H11" t="n">
-        <v>41.97204083713427</v>
+        <v>-0.007375705880088484</v>
       </c>
       <c r="I11" t="n">
+        <v>33.70629626031248</v>
+      </c>
+      <c r="J11" t="n">
         <v>33.28797149658203</v>
       </c>
-      <c r="J11" t="n">
-        <v>58.55402964752025</v>
-      </c>
       <c r="K11" t="n">
-        <v>98.37473210200567</v>
+        <v>50.76904425885748</v>
       </c>
       <c r="L11" t="n">
-        <v>295.1978148619908</v>
+        <v>98.38078000058397</v>
+      </c>
+      <c r="M11" t="n">
+        <v>295.197814861987</v>
       </c>
     </row>
     <row r="12">
@@ -12967,31 +13167,34 @@
         <v>1.189999999999998</v>
       </c>
       <c r="D12" t="n">
+        <v>3.462660433596286</v>
+      </c>
+      <c r="E12" t="n">
         <v>16.03008585566835</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>6.788896817895228</v>
       </c>
-      <c r="F12" t="n">
-        <v>-0.06624285400587837</v>
-      </c>
       <c r="G12" t="n">
-        <v>-0.007375687817907511</v>
+        <v>-0.04809915885337546</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.246815014479433</v>
+        <v>-0.007375687817907484</v>
       </c>
       <c r="I12" t="n">
+        <v>-7.860868173476407</v>
+      </c>
+      <c r="J12" t="n">
         <v>-12.72276592254639</v>
       </c>
-      <c r="J12" t="n">
-        <v>57.34569322111768</v>
-      </c>
       <c r="K12" t="n">
-        <v>107.455353933568</v>
+        <v>49.72789661831082</v>
       </c>
       <c r="L12" t="n">
-        <v>322.4396803425277</v>
+        <v>107.4614018319529</v>
+      </c>
+      <c r="M12" t="n">
+        <v>322.4396803425299</v>
       </c>
     </row>
     <row r="13">
@@ -13005,31 +13208,34 @@
         <v>-0.05</v>
       </c>
       <c r="D13" t="n">
+        <v>1.629522881765662</v>
+      </c>
+      <c r="E13" t="n">
         <v>4.780715763185643</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>5.825054634025459</v>
       </c>
-      <c r="F13" t="n">
-        <v>-0.06624285807981778</v>
-      </c>
       <c r="G13" t="n">
+        <v>-0.04809916354221855</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.00737566899760278</v>
       </c>
-      <c r="H13" t="n">
-        <v>15.50043817517054</v>
-      </c>
       <c r="I13" t="n">
+        <v>12.11200468550675</v>
+      </c>
+      <c r="J13" t="n">
         <v>26.74729347229004</v>
       </c>
-      <c r="J13" t="n">
-        <v>64.62481886684907</v>
-      </c>
       <c r="K13" t="n">
-        <v>116.4622062660359</v>
+        <v>55.78127640369425</v>
       </c>
       <c r="L13" t="n">
-        <v>349.4602373251853</v>
+        <v>116.4682541642171</v>
+      </c>
+      <c r="M13" t="n">
+        <v>349.4602373251911</v>
       </c>
     </row>
   </sheetData>
@@ -13043,7 +13249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13064,45 +13270,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>mlr</t>
         </is>
@@ -13116,31 +13327,34 @@
         <v>142.75</v>
       </c>
       <c r="C2" t="n">
+        <v>139.5220153332399</v>
+      </c>
+      <c r="D2" t="n">
         <v>143.4460532910052</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>149.0503341460492</v>
       </c>
-      <c r="E2" t="n">
-        <v>143.1120539770899</v>
-      </c>
       <c r="F2" t="n">
-        <v>143.1573607304409</v>
+        <v>143.1104550530354</v>
       </c>
       <c r="G2" t="n">
-        <v>147.1222328868946</v>
+        <v>143.1573607304411</v>
       </c>
       <c r="H2" t="n">
+        <v>147.250435633221</v>
+      </c>
+      <c r="I2" t="n">
         <v>145.705320930481</v>
       </c>
-      <c r="I2" t="n">
-        <v>144.3044648338235</v>
-      </c>
       <c r="J2" t="n">
-        <v>143.1951250946031</v>
+        <v>143.6452805911831</v>
       </c>
       <c r="K2" t="n">
-        <v>143.3159605762785</v>
+        <v>143.1945921199968</v>
+      </c>
+      <c r="L2" t="n">
+        <v>143.315960576514</v>
       </c>
     </row>
     <row r="3">
@@ -13151,31 +13365,34 @@
         <v>142.76</v>
       </c>
       <c r="C3" t="n">
+        <v>142.9756378194473</v>
+      </c>
+      <c r="D3" t="n">
         <v>137.6807782039508</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>150.9613780029637</v>
       </c>
-      <c r="E3" t="n">
-        <v>143.1241059100375</v>
-      </c>
       <c r="F3" t="n">
-        <v>143.2147214839729</v>
+        <v>143.1209083985933</v>
       </c>
       <c r="G3" t="n">
-        <v>148.6828430713252</v>
+        <v>143.2147214839732</v>
       </c>
       <c r="H3" t="n">
+        <v>149.6712279780778</v>
+      </c>
+      <c r="I3" t="n">
         <v>159.297060585022</v>
       </c>
-      <c r="I3" t="n">
-        <v>145.4283332679414</v>
-      </c>
       <c r="J3" t="n">
-        <v>143.2903720933961</v>
+        <v>145.1059392223134</v>
       </c>
       <c r="K3" t="n">
-        <v>143.5322888861778</v>
+        <v>143.2893062564052</v>
+      </c>
+      <c r="L3" t="n">
+        <v>143.532288886649</v>
       </c>
     </row>
     <row r="4">
@@ -13186,31 +13403,34 @@
         <v>139.91</v>
       </c>
       <c r="C4" t="n">
+        <v>139.8582807153727</v>
+      </c>
+      <c r="D4" t="n">
         <v>135.6204670411221</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>147.8047795077601</v>
       </c>
-      <c r="E4" t="n">
-        <v>143.1361558008311</v>
-      </c>
       <c r="F4" t="n">
-        <v>143.2720822606954</v>
+        <v>143.1313600440695</v>
       </c>
       <c r="G4" t="n">
-        <v>146.9931406460696</v>
+        <v>143.2720822606959</v>
       </c>
       <c r="H4" t="n">
+        <v>148.6786530974186</v>
+      </c>
+      <c r="I4" t="n">
         <v>152.3237157821655</v>
       </c>
-      <c r="I4" t="n">
-        <v>143.7882403173627</v>
-      </c>
       <c r="J4" t="n">
-        <v>143.3857309812897</v>
+        <v>143.2663056916913</v>
       </c>
       <c r="K4" t="n">
-        <v>143.7489548823427</v>
+        <v>143.3841323959385</v>
+      </c>
+      <c r="L4" t="n">
+        <v>143.7489548830501</v>
       </c>
     </row>
     <row r="5">
@@ -13221,31 +13441,34 @@
         <v>139.94</v>
       </c>
       <c r="C5" t="n">
+        <v>145.133373786708</v>
+      </c>
+      <c r="D5" t="n">
         <v>128.6228113730772</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>142.1378858070531</v>
       </c>
-      <c r="E5" t="n">
-        <v>143.1482036459418</v>
-      </c>
       <c r="F5" t="n">
-        <v>143.3294430602517</v>
+        <v>143.14180996588</v>
       </c>
       <c r="G5" t="n">
-        <v>145.7972765837517</v>
+        <v>143.3294430602524</v>
       </c>
       <c r="H5" t="n">
+        <v>148.4512257663248</v>
+      </c>
+      <c r="I5" t="n">
         <v>157.703982925415</v>
       </c>
-      <c r="I5" t="n">
-        <v>142.9270774437501</v>
-      </c>
       <c r="J5" t="n">
-        <v>143.4811736894935</v>
+        <v>143.2657101842332</v>
       </c>
       <c r="K5" t="n">
-        <v>143.9658743622872</v>
+        <v>143.479042463121</v>
+      </c>
+      <c r="L5" t="n">
+        <v>143.9658743632307</v>
       </c>
     </row>
     <row r="6">
@@ -13256,31 +13479,34 @@
         <v>136.5</v>
       </c>
       <c r="C6" t="n">
+        <v>143.358202409508</v>
+      </c>
+      <c r="D6" t="n">
         <v>133.33233769353</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>136.3738032577548</v>
       </c>
-      <c r="E6" t="n">
-        <v>143.1602494547414</v>
-      </c>
       <c r="F6" t="n">
-        <v>143.3868038828728</v>
+        <v>143.15225818443</v>
       </c>
       <c r="G6" t="n">
-        <v>147.178952067747</v>
+        <v>143.3868038828736</v>
       </c>
       <c r="H6" t="n">
+        <v>150.5300287949165</v>
+      </c>
+      <c r="I6" t="n">
         <v>164.296150302887</v>
       </c>
-      <c r="I6" t="n">
-        <v>142.5533676664291</v>
-      </c>
       <c r="J6" t="n">
-        <v>143.576717023511</v>
+        <v>142.7140502015841</v>
       </c>
       <c r="K6" t="n">
-        <v>144.183097732919</v>
+        <v>143.5740532671341</v>
+      </c>
+      <c r="L6" t="n">
+        <v>144.1830977340987</v>
       </c>
     </row>
     <row r="7">
@@ -13291,31 +13517,34 @@
         <v>129.4</v>
       </c>
       <c r="C7" t="n">
+        <v>136.8362392358808</v>
+      </c>
+      <c r="D7" t="n">
         <v>111.701684757198</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>128.0176800408655</v>
       </c>
-      <c r="E7" t="n">
-        <v>143.1722932472848</v>
-      </c>
       <c r="F7" t="n">
-        <v>143.4441647280787</v>
+        <v>143.1627047138545</v>
       </c>
       <c r="G7" t="n">
-        <v>138.0958983372676</v>
+        <v>143.4441647280797</v>
       </c>
       <c r="H7" t="n">
+        <v>142.4925232964287</v>
+      </c>
+      <c r="I7" t="n">
         <v>156.277161693573</v>
       </c>
-      <c r="I7" t="n">
-        <v>137.8323038910842</v>
-      </c>
       <c r="J7" t="n">
-        <v>143.6723546498292</v>
+        <v>137.7415778308195</v>
       </c>
       <c r="K7" t="n">
-        <v>144.4006059741242</v>
+        <v>143.6691584724916</v>
+      </c>
+      <c r="L7" t="n">
+        <v>144.4006059755406</v>
       </c>
     </row>
     <row r="8">
@@ -13326,31 +13555,34 @@
         <v>125.43</v>
       </c>
       <c r="C8" t="n">
-        <v>96.5800167917438</v>
+        <v>132.9842710963424</v>
       </c>
       <c r="D8" t="n">
+        <v>96.58001679174382</v>
+      </c>
+      <c r="E8" t="n">
         <v>124.815363933563</v>
       </c>
-      <c r="E8" t="n">
-        <v>143.1843350125139</v>
-      </c>
       <c r="F8" t="n">
-        <v>143.5015255963104</v>
+        <v>143.173149547406</v>
       </c>
       <c r="G8" t="n">
-        <v>132.3939189687417</v>
+        <v>143.5015255963115</v>
       </c>
       <c r="H8" t="n">
+        <v>137.7908567611306</v>
+      </c>
+      <c r="I8" t="n">
         <v>149.2996521949768</v>
       </c>
-      <c r="I8" t="n">
-        <v>134.9797095096868</v>
-      </c>
       <c r="J8" t="n">
-        <v>143.7681351262954</v>
+        <v>134.751785853851</v>
       </c>
       <c r="K8" t="n">
-        <v>144.6185447700622</v>
+        <v>143.7644066384776</v>
+      </c>
+      <c r="L8" t="n">
+        <v>144.6185447717152</v>
       </c>
     </row>
     <row r="9">
@@ -13361,31 +13593,34 @@
         <v>123.89</v>
       </c>
       <c r="C9" t="n">
-        <v>92.41477750569588</v>
+        <v>125.8001745603543</v>
       </c>
       <c r="D9" t="n">
+        <v>92.41477750569589</v>
+      </c>
+      <c r="E9" t="n">
         <v>125.0801061097166</v>
       </c>
-      <c r="E9" t="n">
-        <v>143.1963747629798</v>
-      </c>
       <c r="F9" t="n">
-        <v>143.5588864874865</v>
+        <v>143.1835926930481</v>
       </c>
       <c r="G9" t="n">
-        <v>130.7473783024217</v>
+        <v>143.5588864874878</v>
       </c>
       <c r="H9" t="n">
+        <v>137.20753695399</v>
+      </c>
+      <c r="I9" t="n">
         <v>141.1755457878113</v>
       </c>
-      <c r="I9" t="n">
-        <v>133.7895098839427</v>
-      </c>
       <c r="J9" t="n">
-        <v>143.8640722004562</v>
+        <v>132.739988515067</v>
       </c>
       <c r="K9" t="n">
-        <v>144.8369553509025</v>
+        <v>143.8598115111095</v>
+      </c>
+      <c r="L9" t="n">
+        <v>144.8369553527925</v>
       </c>
     </row>
     <row r="10">
@@ -13396,31 +13631,34 @@
         <v>128.02</v>
       </c>
       <c r="C10" t="n">
-        <v>95.1143737597524</v>
+        <v>128.9556961912502</v>
       </c>
       <c r="D10" t="n">
+        <v>95.11437375975241</v>
+      </c>
+      <c r="E10" t="n">
         <v>126.7450284697335</v>
       </c>
-      <c r="E10" t="n">
-        <v>143.2084125099659</v>
-      </c>
       <c r="F10" t="n">
-        <v>143.6162474011921</v>
+        <v>143.1940341612934</v>
       </c>
       <c r="G10" t="n">
-        <v>134.2659248697114</v>
+        <v>143.6162474011936</v>
       </c>
       <c r="H10" t="n">
+        <v>141.4417848250481</v>
+      </c>
+      <c r="I10" t="n">
         <v>154.3225756645203</v>
       </c>
-      <c r="I10" t="n">
-        <v>136.1165068838259</v>
-      </c>
       <c r="J10" t="n">
-        <v>143.960173383578</v>
+        <v>135.1988396248332</v>
       </c>
       <c r="K10" t="n">
-        <v>145.0558602395762</v>
+        <v>143.9553806013969</v>
+      </c>
+      <c r="L10" t="n">
+        <v>145.0558602417034</v>
       </c>
     </row>
     <row r="11">
@@ -13431,31 +13669,34 @@
         <v>136.04</v>
       </c>
       <c r="C11" t="n">
+        <v>132.4173340833536</v>
+      </c>
+      <c r="D11" t="n">
         <v>124.6524158709783</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>136.0427490941574</v>
       </c>
-      <c r="E11" t="n">
-        <v>143.2204482309233</v>
-      </c>
       <c r="F11" t="n">
-        <v>143.6736083376109</v>
+        <v>143.2044739176669</v>
       </c>
       <c r="G11" t="n">
-        <v>153.3181833707795</v>
+        <v>143.6736083376126</v>
       </c>
       <c r="H11" t="n">
+        <v>160.6382645968467</v>
+      </c>
+      <c r="I11" t="n">
         <v>169.0494261741638</v>
       </c>
-      <c r="I11" t="n">
-        <v>142.5526779834238</v>
-      </c>
       <c r="J11" t="n">
-        <v>144.0564721130254</v>
+        <v>141.249138930596</v>
       </c>
       <c r="K11" t="n">
-        <v>145.275359770542</v>
+        <v>144.0511473427286</v>
+      </c>
+      <c r="L11" t="n">
+        <v>145.2753597729062</v>
       </c>
     </row>
     <row r="12">
@@ -13466,31 +13707,34 @@
         <v>145.38</v>
       </c>
       <c r="C12" t="n">
+        <v>135.8799945169499</v>
+      </c>
+      <c r="D12" t="n">
         <v>139.5453728649968</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>140.4291317982778</v>
       </c>
-      <c r="E12" t="n">
-        <v>143.2324819725617</v>
-      </c>
       <c r="F12" t="n">
-        <v>143.7309692962643</v>
+        <v>143.2149120222993</v>
       </c>
       <c r="G12" t="n">
-        <v>159.4107941242819</v>
+        <v>143.7309692962661</v>
       </c>
       <c r="H12" t="n">
+        <v>164.8579169605958</v>
+      </c>
+      <c r="I12" t="n">
         <v>178.651745891571</v>
       </c>
-      <c r="I12" t="n">
-        <v>146.7047277122219</v>
-      </c>
       <c r="J12" t="n">
-        <v>144.1529169940562</v>
+        <v>145.2929513001228</v>
       </c>
       <c r="K12" t="n">
-        <v>145.4952997133427</v>
+        <v>144.1470603448366</v>
+      </c>
+      <c r="L12" t="n">
+        <v>145.4952997159443</v>
       </c>
     </row>
     <row r="13">
@@ -13501,31 +13745,34 @@
         <v>149.35</v>
       </c>
       <c r="C13" t="n">
+        <v>137.5095173987156</v>
+      </c>
+      <c r="D13" t="n">
         <v>145.2567513285372</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>148.6828063500248</v>
       </c>
-      <c r="E13" t="n">
-        <v>143.2445137111366</v>
-      </c>
       <c r="F13" t="n">
-        <v>143.788330277846</v>
+        <v>143.2253484555083</v>
       </c>
       <c r="G13" t="n">
-        <v>165.4689508764396</v>
+        <v>143.788330277848</v>
       </c>
       <c r="H13" t="n">
+        <v>171.9588984898307</v>
+      </c>
+      <c r="I13" t="n">
         <v>188.8854294776916</v>
       </c>
-      <c r="I13" t="n">
-        <v>150.0016894486496</v>
-      </c>
       <c r="J13" t="n">
-        <v>144.2495294174582</v>
+        <v>148.3808414042393</v>
       </c>
       <c r="K13" t="n">
-        <v>145.7157442633923</v>
+        <v>144.2431409998627</v>
+      </c>
+      <c r="L13" t="n">
+        <v>145.7157442662316</v>
       </c>
     </row>
     <row r="14">
@@ -13536,31 +13783,34 @@
         <v>150.2</v>
       </c>
       <c r="C14" t="n">
+        <v>145.7350240222163</v>
+      </c>
+      <c r="D14" t="n">
         <v>143.6544832571887</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>155.8039457371164</v>
       </c>
-      <c r="E14" t="n">
-        <v>143.2565434621469</v>
-      </c>
       <c r="F14" t="n">
-        <v>143.8456912820192</v>
+        <v>143.2357832296853</v>
       </c>
       <c r="G14" t="n">
-        <v>166.7607374447558</v>
+        <v>143.8456912820214</v>
       </c>
       <c r="H14" t="n">
+        <v>173.9688734648366</v>
+      </c>
+      <c r="I14" t="n">
         <v>203.2598896980286</v>
       </c>
-      <c r="I14" t="n">
-        <v>152.4051712764141</v>
-      </c>
       <c r="J14" t="n">
-        <v>144.3462704558573</v>
+        <v>151.6049455156793</v>
       </c>
       <c r="K14" t="n">
-        <v>145.9365766234059</v>
+        <v>144.3393503793966</v>
+      </c>
+      <c r="L14" t="n">
+        <v>145.9365766264831</v>
       </c>
     </row>
     <row r="15">
@@ -13571,31 +13821,34 @@
         <v>149.52</v>
       </c>
       <c r="C15" t="n">
+        <v>149.2006861098724</v>
+      </c>
+      <c r="D15" t="n">
         <v>138.9919813938752</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>158.7921403519803</v>
       </c>
-      <c r="E15" t="n">
-        <v>143.2685712298355</v>
-      </c>
       <c r="F15" t="n">
-        <v>143.9030523085298</v>
+        <v>143.2462163410593</v>
       </c>
       <c r="G15" t="n">
-        <v>167.4244721708154</v>
+        <v>143.9030523085321</v>
       </c>
       <c r="H15" t="n">
+        <v>175.4407589322302</v>
+      </c>
+      <c r="I15" t="n">
         <v>207.6809497833252</v>
       </c>
-      <c r="I15" t="n">
-        <v>152.8510666648608</v>
-      </c>
       <c r="J15" t="n">
-        <v>144.4431127886953</v>
+        <v>152.4784761490511</v>
       </c>
       <c r="K15" t="n">
-        <v>146.1577148277208</v>
+        <v>144.4356611602092</v>
+      </c>
+      <c r="L15" t="n">
+        <v>146.157714831036</v>
       </c>
     </row>
     <row r="16">
@@ -13606,31 +13859,34 @@
         <v>146.67</v>
       </c>
       <c r="C16" t="n">
+        <v>149.2597300301994</v>
+      </c>
+      <c r="D16" t="n">
         <v>136.740660375998</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>154.2691527981541</v>
       </c>
-      <c r="E16" t="n">
-        <v>143.2805970233453</v>
-      </c>
       <c r="F16" t="n">
-        <v>143.9604133569077</v>
+        <v>143.256647787008</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7965058682389</v>
+        <v>143.9604133569102</v>
       </c>
       <c r="H16" t="n">
+        <v>172.50992017425</v>
+      </c>
+      <c r="I16" t="n">
         <v>200.7649317741394</v>
       </c>
-      <c r="I16" t="n">
-        <v>150.9676930638042</v>
-      </c>
       <c r="J16" t="n">
-        <v>144.5400274198605</v>
+        <v>150.8687326429478</v>
       </c>
       <c r="K16" t="n">
-        <v>146.3790718793287</v>
+        <v>144.5320443422668</v>
+      </c>
+      <c r="L16" t="n">
+        <v>146.3790718828821</v>
       </c>
     </row>
     <row r="17">
@@ -13641,31 +13897,34 @@
         <v>145.78</v>
       </c>
       <c r="C17" t="n">
-        <v>130.8643293934756</v>
+        <v>152.7274372008414</v>
       </c>
       <c r="D17" t="n">
+        <v>130.8643293934755</v>
+      </c>
+      <c r="E17" t="n">
         <v>148.756438968833</v>
       </c>
-      <c r="E17" t="n">
-        <v>143.2926208407951</v>
-      </c>
       <c r="F17" t="n">
-        <v>144.0177744278251</v>
+        <v>143.2670775839156</v>
       </c>
       <c r="G17" t="n">
-        <v>162.1109317542522</v>
+        <v>144.0177744278278</v>
       </c>
       <c r="H17" t="n">
+        <v>171.7211601341281</v>
+      </c>
+      <c r="I17" t="n">
         <v>211.84396276474</v>
       </c>
-      <c r="I17" t="n">
-        <v>150.5687210135078</v>
-      </c>
       <c r="J17" t="n">
-        <v>144.6370298486644</v>
+        <v>151.0189784456239</v>
       </c>
       <c r="K17" t="n">
-        <v>146.6006942773734</v>
+        <v>144.6285154309696</v>
+      </c>
+      <c r="L17" t="n">
+        <v>146.6006942811652</v>
       </c>
     </row>
     <row r="18">
@@ -13676,31 +13935,34 @@
         <v>142.34</v>
       </c>
       <c r="C18" t="n">
+        <v>150.9643054250901</v>
+      </c>
+      <c r="D18" t="n">
         <v>134.2607542959406</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>142.1606112238213</v>
       </c>
-      <c r="E18" t="n">
-        <v>143.3046426896266</v>
-      </c>
       <c r="F18" t="n">
-        <v>144.0751355209852</v>
+        <v>143.2775057320062</v>
       </c>
       <c r="G18" t="n">
-        <v>163.4926072382476</v>
+        <v>144.075135520988</v>
       </c>
       <c r="H18" t="n">
+        <v>173.7999631627198</v>
+      </c>
+      <c r="I18" t="n">
         <v>214.7561839580536</v>
       </c>
-      <c r="I18" t="n">
-        <v>149.6507455925929</v>
-      </c>
       <c r="J18" t="n">
-        <v>144.7341199968957</v>
+        <v>149.9974047176576</v>
       </c>
       <c r="K18" t="n">
-        <v>146.8225817800755</v>
+        <v>144.7250743457001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>146.8225817841059</v>
       </c>
     </row>
     <row r="19">
@@ -13711,31 +13973,34 @@
         <v>133.51</v>
       </c>
       <c r="C19" t="n">
+        <v>144.4543818529117</v>
+      </c>
+      <c r="D19" t="n">
         <v>114.3016438757212</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>134.1987390957643</v>
       </c>
-      <c r="E19" t="n">
-        <v>143.3166625773076</v>
-      </c>
       <c r="F19" t="n">
-        <v>144.132496636088</v>
+        <v>143.2879322314398</v>
       </c>
       <c r="G19" t="n">
-        <v>156.0988860160095</v>
+        <v>144.132496636091</v>
       </c>
       <c r="H19" t="n">
+        <v>167.4517901724733</v>
+      </c>
+      <c r="I19" t="n">
         <v>211.3433564662933</v>
       </c>
-      <c r="I19" t="n">
-        <v>145.2864165349871</v>
-      </c>
       <c r="J19" t="n">
-        <v>144.8313082466642</v>
+        <v>145.3373523491821</v>
       </c>
       <c r="K19" t="n">
-        <v>147.0447655265973</v>
+        <v>144.8217314661324</v>
+      </c>
+      <c r="L19" t="n">
+        <v>147.0447655308664</v>
       </c>
     </row>
     <row r="20">
@@ -13746,31 +14011,34 @@
         <v>129.54</v>
       </c>
       <c r="C20" t="n">
-        <v>98.0796516408507</v>
+        <v>140.614453314822</v>
       </c>
       <c r="D20" t="n">
+        <v>98.07965164085067</v>
+      </c>
+      <c r="E20" t="n">
         <v>130.2602248941504</v>
       </c>
-      <c r="E20" t="n">
-        <v>143.3286805053456</v>
-      </c>
       <c r="F20" t="n">
-        <v>144.1898577734516</v>
+        <v>143.2983570926731</v>
       </c>
       <c r="G20" t="n">
-        <v>150.3969066474836</v>
+        <v>144.1898577734548</v>
       </c>
       <c r="H20" t="n">
+        <v>162.2926749333582</v>
+      </c>
+      <c r="I20" t="n">
         <v>209.862531042099</v>
       </c>
-      <c r="I20" t="n">
-        <v>142.7248241416738</v>
-      </c>
       <c r="J20" t="n">
-        <v>144.9286286665867</v>
+        <v>142.5958469499792</v>
       </c>
       <c r="K20" t="n">
-        <v>147.2673477209631</v>
+        <v>144.9185208638663</v>
+      </c>
+      <c r="L20" t="n">
+        <v>147.2673477254711</v>
       </c>
     </row>
     <row r="21">
@@ -13781,31 +14049,34 @@
         <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>92.90131430825039</v>
+        <v>140.753033743074</v>
       </c>
       <c r="D21" t="n">
+        <v>92.90131430825038</v>
+      </c>
+      <c r="E21" t="n">
         <v>130.1410163044249</v>
       </c>
-      <c r="E21" t="n">
-        <v>143.3406964813916</v>
-      </c>
       <c r="F21" t="n">
-        <v>144.2472189331332</v>
+        <v>143.3087803204795</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7503659811636</v>
+        <v>144.2472189331366</v>
       </c>
       <c r="H21" t="n">
+        <v>161.7093551262177</v>
+      </c>
+      <c r="I21" t="n">
         <v>206.5284181594849</v>
       </c>
-      <c r="I21" t="n">
-        <v>141.8227475217028</v>
-      </c>
       <c r="J21" t="n">
-        <v>145.0261008310752</v>
+        <v>141.8471913347341</v>
       </c>
       <c r="K21" t="n">
-        <v>147.490387078701</v>
+        <v>145.0154621123547</v>
+      </c>
+      <c r="L21" t="n">
+        <v>147.4903870834481</v>
       </c>
     </row>
     <row r="22">
@@ -13816,31 +14087,34 @@
         <v>132.97</v>
       </c>
       <c r="C22" t="n">
-        <v>95.48803125401224</v>
+        <v>144.2257876507616</v>
       </c>
       <c r="D22" t="n">
+        <v>95.48803125401223</v>
+      </c>
+      <c r="E22" t="n">
         <v>132.2711873112226</v>
       </c>
-      <c r="E22" t="n">
-        <v>143.352710510845</v>
-      </c>
       <c r="F22" t="n">
-        <v>144.304580114667</v>
+        <v>143.3192019135774</v>
       </c>
       <c r="G22" t="n">
-        <v>155.0762328443015</v>
+        <v>144.3045801146706</v>
       </c>
       <c r="H22" t="n">
+        <v>168.7271950343512</v>
+      </c>
+      <c r="I22" t="n">
         <v>214.5128980636597</v>
       </c>
-      <c r="I22" t="n">
-        <v>143.9288011849236</v>
-      </c>
       <c r="J22" t="n">
-        <v>145.1237349297494</v>
+        <v>144.156390269094</v>
       </c>
       <c r="K22" t="n">
-        <v>147.7139141637365</v>
+        <v>145.1125653989903</v>
+      </c>
+      <c r="L22" t="n">
+        <v>147.7139141687229</v>
       </c>
     </row>
     <row r="23">
@@ -13851,31 +14125,34 @@
         <v>140.25</v>
       </c>
       <c r="C23" t="n">
+        <v>147.6994651443137</v>
+      </c>
+      <c r="D23" t="n">
         <v>126.6338639174862</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>143.1469940879638</v>
       </c>
-      <c r="E23" t="n">
-        <v>143.3647225908962</v>
-      </c>
       <c r="F23" t="n">
-        <v>144.3619413188157</v>
+        <v>143.3296218898102</v>
       </c>
       <c r="G23" t="n">
-        <v>177.6909075083749</v>
+        <v>144.3619413188194</v>
       </c>
       <c r="H23" t="n">
+        <v>192.0280684056057</v>
+      </c>
+      <c r="I23" t="n">
         <v>236.6786943435669</v>
       </c>
-      <c r="I23" t="n">
-        <v>151.3200353764265</v>
-      </c>
       <c r="J23" t="n">
-        <v>145.2215595694259</v>
+        <v>151.0432333577555</v>
       </c>
       <c r="K23" t="n">
-        <v>147.9380147985661</v>
+        <v>145.2098593374739</v>
+      </c>
+      <c r="L23" t="n">
+        <v>147.938014803792</v>
       </c>
     </row>
     <row r="24">
@@ -13886,31 +14163,34 @@
         <v>149.19</v>
       </c>
       <c r="C24" t="n">
+        <v>144.602163047584</v>
+      </c>
+      <c r="D24" t="n">
         <v>140.6455057598784</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>150.0511033362729</v>
       </c>
-      <c r="E24" t="n">
-        <v>143.3767327380609</v>
-      </c>
       <c r="F24" t="n">
-        <v>144.4193025443344</v>
+        <v>143.3400402335362</v>
       </c>
       <c r="G24" t="n">
-        <v>187.4454349930213</v>
+        <v>144.4193025443383</v>
       </c>
       <c r="H24" t="n">
+        <v>199.9096375004987</v>
+      </c>
+      <c r="I24" t="n">
         <v>241.1501675605774</v>
       </c>
-      <c r="I24" t="n">
-        <v>155.3313922894206</v>
-      </c>
       <c r="J24" t="n">
-        <v>145.3195326366768</v>
+        <v>154.0548724244016</v>
       </c>
       <c r="K24" t="n">
-        <v>148.1625626276353</v>
+        <v>145.3073018036585</v>
+      </c>
+      <c r="L24" t="n">
+        <v>148.1625626331009</v>
       </c>
     </row>
     <row r="25">
@@ -13921,31 +14201,34 @@
         <v>153.16</v>
       </c>
       <c r="C25" t="n">
+        <v>148.0679133246531</v>
+      </c>
+      <c r="D25" t="n">
         <v>147.0782048519046</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>158.0691930182104</v>
       </c>
-      <c r="E25" t="n">
-        <v>143.3887409506367</v>
-      </c>
       <c r="F25" t="n">
-        <v>144.4766637918655</v>
+        <v>143.3504569605388</v>
       </c>
       <c r="G25" t="n">
-        <v>193.503591745179</v>
+        <v>144.4766637918695</v>
       </c>
       <c r="H25" t="n">
+        <v>206.8270149884556</v>
+      </c>
+      <c r="I25" t="n">
         <v>257.2255230903626</v>
       </c>
-      <c r="I25" t="n">
-        <v>159.1602920680468</v>
-      </c>
       <c r="J25" t="n">
-        <v>145.4176565953321</v>
+        <v>157.8560362461498</v>
       </c>
       <c r="K25" t="n">
-        <v>148.3875650434942</v>
+        <v>145.4048952672027</v>
+      </c>
+      <c r="L25" t="n">
+        <v>148.3875650491997</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -503,34 +503,34 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2159605762784906</v>
+        <v>0.2267227230729176</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3499999999999986</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>5.950334146049205</v>
+        <v>5.055816239391071</v>
       </c>
       <c r="E2" t="n">
-        <v>2.605320930480957</v>
+        <v>-1.709359884262085</v>
       </c>
       <c r="F2" t="n">
-        <v>4.022232886894614</v>
+        <v>3.98912638883615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044090867</v>
+        <v>0.04035482659070674</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01205397708987732</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3460532910052329</v>
+        <v>0.3460532910052291</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09512509460309221</v>
+        <v>0.0229425268951675</v>
       </c>
       <c r="K2" t="n">
-        <v>1.20446483382353</v>
+        <v>0.7447311360738365</v>
       </c>
     </row>
     <row r="3">
@@ -538,34 +538,34 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2163283098992963</v>
+        <v>0.1167857774386434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009999999999999431</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1.911043856914492</v>
+        <v>-0.06123793176479886</v>
       </c>
       <c r="E3" t="n">
-        <v>13.59173965454102</v>
+        <v>15.83026313781738</v>
       </c>
       <c r="F3" t="n">
-        <v>1.560610184430546</v>
+        <v>3.611925704111199</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353199016</v>
+        <v>0.04034809566660941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01205193294762807</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.765275087054412</v>
+        <v>-5.765275087054417</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09524699879297151</v>
+        <v>-0.01370536529095636</v>
       </c>
       <c r="K3" t="n">
-        <v>1.123868434117929</v>
+        <v>1.700165435223376</v>
       </c>
     </row>
     <row r="4">
@@ -573,34 +573,34 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2166659961649486</v>
+        <v>0.1110421165021549</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.849999999999999</v>
+        <v>-3.49</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.156598495203612</v>
+        <v>-3.869205111912139</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.973344802856445</v>
+        <v>-13.27529811859131</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.689702425255553</v>
+        <v>-10.27633329981001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672252504</v>
+        <v>0.04034606109713276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01204989079356267</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.060311162828749</v>
+        <v>-2.06031116282875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09535888789367879</v>
+        <v>-0.01562059712627807</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.640092950578735</v>
+        <v>-2.899180371563571</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +608,34 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2169194799444938</v>
+        <v>0.03092089526803932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0299999999999983</v>
+        <v>2.65</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.666893700706981</v>
+        <v>-4.258079846684658</v>
       </c>
       <c r="E5" t="n">
-        <v>5.380267143249512</v>
+        <v>6.761101245880127</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.195864062317908</v>
+        <v>4.728308941825452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955627291</v>
+        <v>0.04034450389727037</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01204784511072887</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.99765566804485</v>
+        <v>-6.997655668044846</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09544270820383187</v>
+        <v>-0.04232818993760406</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.8611628736126399</v>
+        <v>0.1823019096850907</v>
       </c>
     </row>
     <row r="6">
@@ -643,34 +643,34 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2172233706317854</v>
+        <v>0.0110615487410648</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.439999999999998</v>
+        <v>-1.28</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.764082549298242</v>
+        <v>-4.260916742609935</v>
       </c>
       <c r="E6" t="n">
-        <v>6.592167377471924</v>
+        <v>3.95297908782959</v>
       </c>
       <c r="F6" t="n">
-        <v>1.38167548399533</v>
+        <v>-1.526254048350224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262108685</v>
+        <v>0.04034457461035795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0120458087996127</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I6" t="n">
-        <v>4.709526320452824</v>
+        <v>4.709526320452823</v>
       </c>
       <c r="J6" t="n">
-        <v>0.095543334017495</v>
+        <v>-0.04894794854223303</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3737097773209673</v>
+        <v>-0.1092426618325109</v>
       </c>
     </row>
     <row r="7">
@@ -678,34 +678,34 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2175082412052234</v>
+        <v>-0.1467750680742448</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.1</v>
+        <v>-4.17</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.35612321688931</v>
+        <v>-10.85192477557784</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.018988609313965</v>
+        <v>-9.151973724365234</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.083053730479406</v>
+        <v>-8.236142931166896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0573608452058815</v>
+        <v>0.04033231297911974</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01204379254340893</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I7" t="n">
         <v>-21.63065293633207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09563762631817126</v>
+        <v>-0.101564241357749</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.721063775344898</v>
+        <v>-4.723595371933821</v>
       </c>
     </row>
     <row r="8">
@@ -713,34 +713,34 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217938795937954</v>
+        <v>-0.1033570955095371</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.97</v>
+        <v>-4.390000000000002</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.202316107302563</v>
+        <v>-5.277830784404387</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.977509498596191</v>
+        <v>-1.706090331077576</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.701979368525946</v>
+        <v>-6.971633797435939</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823167719</v>
+        <v>0.04033663944658344</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01204176522905698</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I8" t="n">
-        <v>-15.12166796545416</v>
+        <v>-15.12166796545415</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09578047646622938</v>
+        <v>-0.0870901416803585</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.852594381397366</v>
+        <v>-2.665997586751049</v>
       </c>
     </row>
     <row r="9">
@@ -748,34 +748,34 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184105808403274</v>
+        <v>0.01393961633749896</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.540000000000002</v>
+        <v>1.889999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2647421761536179</v>
+        <v>-0.05830666387815597</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.124106407165527</v>
+        <v>-6.003754138946533</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.64654066632004</v>
+        <v>-2.980120065928276</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117610749</v>
+        <v>0.04034213664181832</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01203975046591665</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.165239286047924</v>
+        <v>-4.165239286047926</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09593707416078384</v>
+        <v>-0.04798940533293486</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.190199625744144</v>
+        <v>-0.7531839988708937</v>
       </c>
     </row>
     <row r="10">
@@ -783,34 +783,34 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2189048886737055</v>
+        <v>0.03683931082237635</v>
       </c>
       <c r="C10" t="n">
-        <v>4.13</v>
+        <v>0.5699999999999982</v>
       </c>
       <c r="D10" t="n">
-        <v>1.664922360016853</v>
+        <v>1.400174226705355</v>
       </c>
       <c r="E10" t="n">
-        <v>13.14702987670898</v>
+        <v>0.4307167232036591</v>
       </c>
       <c r="F10" t="n">
-        <v>3.518546567289765</v>
+        <v>4.294319354348958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091370565971</v>
+        <v>0.04033911400663104</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01203774698603866</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I10" t="n">
-        <v>2.699596254056521</v>
+        <v>2.699596254056517</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09610118312180128</v>
+        <v>-0.04035718138303816</v>
       </c>
       <c r="K10" t="n">
-        <v>2.326996999883241</v>
+        <v>0.5447253052351865</v>
       </c>
     </row>
     <row r="11">
@@ -818,34 +818,34 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2194995309658054</v>
+        <v>0.2188534273412905</v>
       </c>
       <c r="C11" t="n">
-        <v>8.02</v>
+        <v>12.5</v>
       </c>
       <c r="D11" t="n">
-        <v>9.297720624423924</v>
+        <v>10.04804712734939</v>
       </c>
       <c r="E11" t="n">
-        <v>14.72685050964355</v>
+        <v>22.14382743835449</v>
       </c>
       <c r="F11" t="n">
-        <v>19.05225850106809</v>
+        <v>15.7005398832731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641882714</v>
+        <v>0.04034648640096908</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01203572095745642</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I11" t="n">
         <v>29.53804211122594</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09629872944736299</v>
+        <v>0.02031664825471259</v>
       </c>
       <c r="K11" t="n">
-        <v>6.436171099597841</v>
+        <v>7.874565098844478</v>
       </c>
     </row>
     <row r="12">
@@ -853,34 +853,34 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2199399428006643</v>
+        <v>0.2425289892483242</v>
       </c>
       <c r="C12" t="n">
-        <v>9.34</v>
+        <v>9.729999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>4.386382704120387</v>
+        <v>5.352777256543572</v>
       </c>
       <c r="E12" t="n">
-        <v>9.602319717407227</v>
+        <v>6.576641082763672</v>
       </c>
       <c r="F12" t="n">
-        <v>6.092610753502422</v>
+        <v>2.11371995346483</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865333485</v>
+        <v>0.04033604413919353</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01203374163844728</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I12" t="n">
         <v>14.89295699401844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09644488103081549</v>
+        <v>0.02820502146979863</v>
       </c>
       <c r="K12" t="n">
-        <v>4.152049728798116</v>
+        <v>3.895385559497108</v>
       </c>
     </row>
     <row r="13">
@@ -888,34 +888,34 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2204445500496206</v>
+        <v>0.3033764389869624</v>
       </c>
       <c r="C13" t="n">
-        <v>3.969999999999999</v>
+        <v>-0.6800000000000012</v>
       </c>
       <c r="D13" t="n">
-        <v>8.253674551746993</v>
+        <v>6.982484734080437</v>
       </c>
       <c r="E13" t="n">
-        <v>10.23368358612061</v>
+        <v>9.681203842163086</v>
       </c>
       <c r="F13" t="n">
-        <v>6.058156752157673</v>
+        <v>7.105176277714366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158174538</v>
+        <v>0.04033872193312613</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01203173857481943</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I13" t="n">
-        <v>5.711378463540445</v>
+        <v>5.711378463540446</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09661242340206182</v>
+        <v>0.0484883973139889</v>
       </c>
       <c r="K13" t="n">
-        <v>3.296961736427692</v>
+        <v>2.514823915359068</v>
       </c>
     </row>
     <row r="14">
@@ -923,34 +923,34 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2208323600135884</v>
+        <v>0.2716389723484802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8500000000000014</v>
+        <v>0.09000000000000057</v>
       </c>
       <c r="D14" t="n">
-        <v>7.121139387091595</v>
+        <v>3.813615625367522</v>
       </c>
       <c r="E14" t="n">
-        <v>14.37446022033691</v>
+        <v>-0.7238388657569885</v>
       </c>
       <c r="F14" t="n">
-        <v>1.291786568316248</v>
+        <v>-0.3743595202593884</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417319392</v>
+        <v>0.04033591373270362</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01202975101037396</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I14" t="n">
         <v>-1.60226807134854</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09674103839905208</v>
+        <v>0.03790830570102066</v>
       </c>
       <c r="K14" t="n">
-        <v>2.403481827764528</v>
+        <v>0.3976488821124872</v>
       </c>
     </row>
     <row r="15">
@@ -958,34 +958,34 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2211382043148831</v>
+        <v>0.2538486363900283</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6799999999999997</v>
+        <v>-0.9699999999999974</v>
       </c>
       <c r="D15" t="n">
-        <v>2.988194614863885</v>
+        <v>1.841554697869178</v>
       </c>
       <c r="E15" t="n">
-        <v>4.421060085296631</v>
+        <v>5.249192237854004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6637347260596143</v>
+        <v>1.626632485596053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651053052</v>
+        <v>0.04033538693551159</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01202776768857916</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I15" t="n">
-        <v>-4.662501863313549</v>
+        <v>-4.662501863313551</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09684233283799759</v>
+        <v>0.03197801811580601</v>
       </c>
       <c r="K15" t="n">
-        <v>0.445895388446686</v>
+        <v>0.4944974174519305</v>
       </c>
     </row>
     <row r="16">
@@ -993,34 +993,34 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2213570516079528</v>
+        <v>0.1213672574398323</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.849999999999999</v>
+        <v>-5.26</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.522987553826191</v>
+        <v>-3.451029252236701</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.916018009185791</v>
+        <v>-5.528318881988525</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.627966302576501</v>
+        <v>-2.220118290877013</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837794212</v>
+        <v>0.04032887946586783</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01202579350977828</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I16" t="n">
         <v>-2.251321017877197</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0969146311652244</v>
+        <v>-0.01218461069080723</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.883373601056603</v>
+        <v>-2.08069575685078</v>
       </c>
     </row>
     <row r="17">
@@ -1028,34 +1028,34 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2216223980446728</v>
+        <v>0.03328323358780239</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8900000000000006</v>
+        <v>1.010000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.51271382932108</v>
+        <v>-5.389191659022408</v>
       </c>
       <c r="E17" t="n">
-        <v>11.07903099060059</v>
+        <v>0.4850055277347565</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.685574113986701</v>
+        <v>1.878740659620688</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091735543</v>
+        <v>0.04032863007525217</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01202381744977288</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I17" t="n">
-        <v>-5.876330982522415</v>
+        <v>-5.87633098252242</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09700242880393369</v>
+        <v>-0.04154603510502244</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.398972050296362</v>
+        <v>-0.923509868476053</v>
       </c>
     </row>
     <row r="18">
@@ -1063,34 +1063,34 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2218875027020601</v>
+        <v>-0.01413436960896064</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.439999999999998</v>
+        <v>-1.13</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.595827745011652</v>
+        <v>-5.942902499794938</v>
       </c>
       <c r="E18" t="n">
-        <v>2.912221193313599</v>
+        <v>2.434354782104492</v>
       </c>
       <c r="F18" t="n">
-        <v>1.38167548399533</v>
+        <v>0.9820954364894451</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316008656</v>
+        <v>0.04032848511410589</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01202184883155155</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I18" t="n">
-        <v>3.396424902465048</v>
+        <v>3.396424902465046</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09709014823123274</v>
+        <v>-0.05735195115765887</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.9179754209148892</v>
+        <v>-0.5508972862648828</v>
       </c>
     </row>
     <row r="19">
@@ -1098,34 +1098,34 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2221837465218357</v>
+        <v>-0.1502323113984652</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.830000000000002</v>
+        <v>-11.67</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.961872128057017</v>
+        <v>-9.786089699404199</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.412827491760254</v>
+        <v>-6.554773807525635</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.393721222238045</v>
+        <v>-6.869092991019381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510283018</v>
+        <v>0.04032140915429205</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01201988768092122</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I19" t="n">
-        <v>-19.95911042021942</v>
+        <v>-19.95911042021941</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09718824976852902</v>
+        <v>-0.1027202904074316</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.364329057605866</v>
+        <v>-5.235203055766013</v>
       </c>
     </row>
     <row r="20">
@@ -1133,34 +1133,34 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2225821943657706</v>
+        <v>-0.08849834653814881</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.97</v>
+        <v>-1.530000000000002</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.938514201613873</v>
+        <v>-5.01707669796208</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.480825424194336</v>
+        <v>-12.2064905166626</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.701979368525946</v>
+        <v>-7.807746362106792</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736360635</v>
+        <v>0.04032357805789699</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01201792803799151</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I20" t="n">
         <v>-16.22199223487049</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09732041992245617</v>
+        <v>-0.08214157915279123</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.56159239331328</v>
+        <v>-3.507130932055122</v>
       </c>
     </row>
     <row r="21">
@@ -1168,34 +1168,34 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2230393577378891</v>
+        <v>0.03106537067274928</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.540000000000002</v>
+        <v>0.2699999999999989</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1192085897255089</v>
+        <v>0.5012001112213333</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.334112882614136</v>
+        <v>-9.638014793395996</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.64654066632004</v>
+        <v>3.527187099159054</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968165714</v>
+        <v>0.04032583045880403</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01201597604602966</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.1783373326003</v>
+        <v>-5.178337332600299</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09747216448852529</v>
+        <v>-0.04228625594885618</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.9020766199709798</v>
+        <v>-1.28435505104901</v>
       </c>
     </row>
     <row r="22">
@@ -1203,34 +1203,34 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2235270850355562</v>
+        <v>0.01524795727864969</v>
       </c>
       <c r="C22" t="n">
-        <v>4.970000000000001</v>
+        <v>2.719999999999998</v>
       </c>
       <c r="D22" t="n">
-        <v>2.130171006797716</v>
+        <v>0.542747402830031</v>
       </c>
       <c r="E22" t="n">
-        <v>7.984479904174805</v>
+        <v>5.184406757354736</v>
       </c>
       <c r="F22" t="n">
-        <v>6.325866863137985</v>
+        <v>0.4012741268094889</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153380523</v>
+        <v>0.04031957935627645</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01201402945341101</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I22" t="n">
-        <v>2.586716945761856</v>
+        <v>2.58671694576185</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09763409867425747</v>
+        <v>-0.04756081078106524</v>
       </c>
       <c r="K22" t="n">
-        <v>2.106053663220804</v>
+        <v>1.211880439158313</v>
       </c>
     </row>
     <row r="23">
@@ -1238,34 +1238,34 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2241006348295684</v>
+        <v>0.265331393113545</v>
       </c>
       <c r="C23" t="n">
-        <v>7.280000000000001</v>
+        <v>10.43</v>
       </c>
       <c r="D23" t="n">
-        <v>10.87580677674121</v>
+        <v>9.804808631002267</v>
       </c>
       <c r="E23" t="n">
-        <v>22.16579627990723</v>
+        <v>14.21683788299561</v>
       </c>
       <c r="F23" t="n">
-        <v>22.61467466407339</v>
+        <v>22.09953719238687</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414864793</v>
+        <v>0.04032906473544806</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01201208005113585</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I23" t="n">
         <v>31.145832663474</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09782463967645073</v>
+        <v>0.03580349629029041</v>
       </c>
       <c r="K23" t="n">
-        <v>7.391234191502877</v>
+        <v>6.825982031674129</v>
       </c>
     </row>
     <row r="24">
@@ -1273,34 +1273,34 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2245478290691949</v>
+        <v>0.214513534491001</v>
       </c>
       <c r="C24" t="n">
-        <v>8.940000000000001</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>6.904109248309029</v>
+        <v>5.641595509422597</v>
       </c>
       <c r="E24" t="n">
-        <v>4.471473217010498</v>
+        <v>4.074631214141846</v>
       </c>
       <c r="F24" t="n">
-        <v>9.754527484646365</v>
+        <v>6.409602887657454</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551872583</v>
+        <v>0.04031910189201707</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01201014716470183</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I24" t="n">
         <v>14.01164184239214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09797306725087418</v>
+        <v>0.01886088913496539</v>
       </c>
       <c r="K24" t="n">
-        <v>4.011356912994174</v>
+        <v>3.550835333912856</v>
       </c>
     </row>
     <row r="25">
@@ -1308,34 +1308,34 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2250024158589667</v>
+        <v>0.3012266297463029</v>
       </c>
       <c r="C25" t="n">
-        <v>3.969999999999999</v>
+        <v>-0.6800000000000012</v>
       </c>
       <c r="D25" t="n">
-        <v>8.018089681937507</v>
+        <v>6.805306048395622</v>
       </c>
       <c r="E25" t="n">
-        <v>16.07535552978516</v>
+        <v>14.33363723754883</v>
       </c>
       <c r="F25" t="n">
-        <v>6.058156752157673</v>
+        <v>4.175659467454291</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753112293</v>
+        <v>0.04032116480616169</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01200821257580742</v>
+        <v>-0.1982499689781219</v>
       </c>
       <c r="I25" t="n">
-        <v>6.432699092026201</v>
+        <v>6.4326990920262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09812395865529903</v>
+        <v>0.04776594185811423</v>
       </c>
       <c r="K25" t="n">
-        <v>3.828899778626128</v>
+        <v>3.025443964833644</v>
       </c>
     </row>
   </sheetData>
@@ -1512,27 +1512,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10, 'weights': 'uniform'}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -1545,32 +1545,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>15.82121834752305</v>
+        <v>16.27486146419729</v>
       </c>
       <c r="J2" t="n">
-        <v>2.879756346463232</v>
+        <v>1.024177861813716</v>
       </c>
       <c r="K2" t="n">
-        <v>12.81999999999999</v>
+        <v>12.37153183005262</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.006733855290852686</v>
+        <v>-0.06529386526047642</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.05</v>
+        <v>-0.02922014674986896</v>
       </c>
       <c r="N2" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O2" t="n">
-        <v>9.884424914093533</v>
+        <v>16.95529528308837</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>7.739625668449198</v>
+        <v>12.63635632837686</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6601700325516441</v>
+        <v>7.005210190724753e-05</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -1581,23 +1581,23 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>13.27025872644036</v>
+        <v>9.896325926159271</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>11.1462564717188</v>
+        <v>32.95751822400509</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07670785825239984</v>
+        <v>0.2371775594032087</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.398333333333326</v>
+        <v>30.68987594381121</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1362792422223517</v>
+        <v>-6.551344701829288</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -1606,18 +1606,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 2}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1631,32 +1635,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>15.13637137495065</v>
+        <v>16.34843536589629</v>
       </c>
       <c r="J3" t="n">
-        <v>4.420995199870931</v>
+        <v>1.262176382863076</v>
       </c>
       <c r="K3" t="n">
-        <v>12.97190596342883</v>
+        <v>12.4194649293866</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07853599602998163</v>
+        <v>-0.07494740215128548</v>
       </c>
       <c r="M3" t="n">
-        <v>4.780715763185643</v>
+        <v>-0.3167895763196253</v>
       </c>
       <c r="N3" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O3" t="n">
-        <v>11.30536428421562</v>
+        <v>16.88129871136112</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>8.802897043929974</v>
+        <v>12.62765678896847</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5554424583197214</v>
+        <v>0.008778827700041791</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -1667,25 +1671,23 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>23.44703993250942</v>
-      </c>
-      <c r="V3" t="b">
-        <v>1</v>
-      </c>
+        <v>9.86619292607438</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>15.45026114981542</v>
+        <v>34.78956989552181</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.10334466932462</v>
+        <v>0.252094076496653</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.48240818796544</v>
+        <v>32.55913224607754</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6595370112797341</v>
+        <v>-7.414211275235948</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -1694,22 +1696,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'n_neighbors': 10, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1727,32 +1729,32 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.42743090957689</v>
+        <v>15.82121834752305</v>
       </c>
       <c r="J4" t="n">
-        <v>2.663201748036615</v>
+        <v>2.879756346463232</v>
       </c>
       <c r="K4" t="n">
-        <v>12.55213186407106</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04275733880856225</v>
+        <v>-0.006733855290852686</v>
       </c>
       <c r="M4" t="n">
-        <v>5.825054634025459</v>
+        <v>-0.05</v>
       </c>
       <c r="N4" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O4" t="n">
-        <v>13.18354951791877</v>
+        <v>9.877319723476916</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>10.0775715972081</v>
+        <v>7.780374331550801</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3954620485378314</v>
+        <v>0.6606584148081278</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1763,23 +1765,23 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>13.2846482085337</v>
+        <v>13.2378585881554</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>16.46356518161705</v>
+        <v>43.06649548469589</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1061648555155583</v>
+        <v>0.3271199668576726</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.61220523137098</v>
+        <v>41.64499999999998</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8843564925973237</v>
+        <v>-11.89419871386361</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -1788,27 +1790,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -1821,32 +1823,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>16.28407189340217</v>
+        <v>15.42075113490896</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0548228534847</v>
+        <v>2.657400072473664</v>
       </c>
       <c r="K5" t="n">
-        <v>12.37770713692645</v>
+        <v>12.5487957877661</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06649996955191884</v>
+        <v>0.04358609390625057</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.06624285807981778</v>
+        <v>5.845188192714248</v>
       </c>
       <c r="N5" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O5" t="n">
-        <v>16.82587646781341</v>
+        <v>12.28223656853483</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>12.42182181574862</v>
+        <v>9.358879952013057</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01527661245887613</v>
+        <v>0.475296722849473</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -1857,23 +1859,23 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>9.860091463813326</v>
+        <v>13.29686695451541</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>17.47830864520502</v>
+        <v>53.04884907162774</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1205706720336819</v>
+        <v>0.4045486513912218</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.98439294545111</v>
+        <v>50.95641349041542</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.12380237365424</v>
+        <v>-18.56443117657846</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -1882,29 +1884,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'n_changepoints': 2}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
         <v>1</v>
       </c>
@@ -1915,32 +1909,32 @@
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>16.26947225343302</v>
+        <v>15.13637137495065</v>
       </c>
       <c r="J6" t="n">
-        <v>1.006104198063623</v>
+        <v>4.420995199870932</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36789597267848</v>
+        <v>12.97190596342883</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06458846538547647</v>
+        <v>0.07853599602998163</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.00737566899760278</v>
+        <v>4.780715763185643</v>
       </c>
       <c r="N6" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95547409271895</v>
+        <v>11.30536428421562</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>12.63620530149806</v>
+        <v>8.802897043929974</v>
       </c>
       <c r="R6" t="n">
-        <v>4.896157598033302e-05</v>
+        <v>0.5554424583197213</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1951,23 +1945,25 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>9.899292150598122</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+        <v>23.44703993250942</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>17.72904696611337</v>
+        <v>52.80491952723281</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1219620529587611</v>
+        <v>0.4116861128404925</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.13156041252731</v>
+        <v>51.0390935399087</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.185174251735035</v>
+        <v>-18.38492226135821</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -1976,22 +1972,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+          <t>{'max_depth': 6}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2009,32 +2005,32 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>20.41389207209659</v>
+        <v>19.79332181354709</v>
       </c>
       <c r="J7" t="n">
-        <v>16.16170793999773</v>
+        <v>9.23855019628739</v>
       </c>
       <c r="K7" t="n">
-        <v>15.94401550920139</v>
+        <v>16.58078294222554</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.6760480065874221</v>
+        <v>-0.5756951445133027</v>
       </c>
       <c r="M7" t="n">
-        <v>15.50043817517054</v>
+        <v>0.1256728619337082</v>
       </c>
       <c r="N7" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O7" t="n">
-        <v>9.205054979449486</v>
+        <v>0.1923112874034469</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>7.264473563712153</v>
+        <v>0.1347680426765488</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7052786254178469</v>
+        <v>0.9998713622571993</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2045,23 +2041,23 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>31.42909237149799</v>
+        <v>16.75987622632614</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>78.90268537271196</v>
+        <v>60.60396004737298</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5707196379881881</v>
+        <v>0.4747574336685856</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.34873081108836</v>
+        <v>59.66972966616353</v>
       </c>
       <c r="AC7" t="n">
-        <v>-42.28115700614222</v>
+        <v>-24.53390862701059</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2070,22 +2066,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
+          <t>{'max_depth': 3, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2103,32 +2099,32 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>25.0222863676995</v>
+        <v>18.0759319602418</v>
       </c>
       <c r="J8" t="n">
-        <v>14.22695694111434</v>
+        <v>6.686094738916814</v>
       </c>
       <c r="K8" t="n">
-        <v>18.04098762522142</v>
+        <v>14.59306674706519</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.518191799548848</v>
+        <v>-0.3141236190611112</v>
       </c>
       <c r="M8" t="n">
-        <v>26.74729347229004</v>
+        <v>-17.40250205416364</v>
       </c>
       <c r="N8" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O8" t="n">
-        <v>2.718626345104153</v>
+        <v>6.883727806336818</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>2.049073522538445</v>
+        <v>5.501769252587492</v>
       </c>
       <c r="R8" t="n">
-        <v>0.974292614933202</v>
+        <v>0.8351813930694365</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -2139,23 +2135,23 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>21.66224700979679</v>
+        <v>28.81914258558427</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>109.9983196679577</v>
+        <v>81.6955762236182</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8188190567365496</v>
+        <v>0.636647504490288</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.6035909965635</v>
+        <v>78.80295228005168</v>
       </c>
       <c r="AC8" t="n">
-        <v>-83.1177011513183</v>
+        <v>-45.39940101622627</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2189,32 +2185,32 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>37.91027620656208</v>
+        <v>38.28211396801102</v>
       </c>
       <c r="J9" t="n">
-        <v>37.14913341850825</v>
+        <v>39.07796121045143</v>
       </c>
       <c r="K9" t="n">
-        <v>33.73456707702895</v>
+        <v>33.97943467804109</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.780277950655551</v>
+        <v>-4.894224168571751</v>
       </c>
       <c r="M9" t="n">
-        <v>64.62481886684907</v>
+        <v>61.56630042375202</v>
       </c>
       <c r="N9" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O9" t="n">
-        <v>12.54920694310847</v>
+        <v>11.55781760335779</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>9.455152385725551</v>
+        <v>8.74570903130159</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4522386026799839</v>
+        <v>0.5353664846751792</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -2227,21 +2223,21 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>(0.17457811624865116, 0.17428967274317633, 0.17405592330206318, 0.14948568343267246, 0.14937980384235414, 0.08773639491525703, 0.07460366767503923, 0.01587073784078647)</t>
+          <t>(0.17315003926290512, 0.17289977693907205, 0.172150542193612, 0.14514748786067583, 0.14465740818559392, 0.11589622458697342, 0.060357608310903504, 0.015740912660264103)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>200.3565584799579</v>
+        <v>173.2115384169229</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.26505566932078</v>
+        <v>1.023184527605139</v>
       </c>
       <c r="AB9" t="n">
-        <v>159.5404641264709</v>
+        <v>129.6830210047577</v>
       </c>
       <c r="AC9" t="n">
-        <v>-278.0759552234479</v>
+        <v>-207.5782078031898</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2275,32 +2271,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>71.9469114319318</v>
+        <v>72.2626664753393</v>
       </c>
       <c r="J10" t="n">
-        <v>75.22385024635092</v>
+        <v>75.40151108897503</v>
       </c>
       <c r="K10" t="n">
-        <v>63.2920486702194</v>
+        <v>63.49944777096903</v>
       </c>
       <c r="L10" t="n">
-        <v>-19.81896501425469</v>
+        <v>-20.00210333468969</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4622062660359</v>
+        <v>117.5311628581442</v>
       </c>
       <c r="N10" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O10" t="n">
-        <v>16.80574782764317</v>
+        <v>15.93124503630279</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>12.4737871052655</v>
+        <v>11.89768119798214</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01763123414508594</v>
+        <v>0.1172081897424927</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2314,16 +2310,16 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>408.7157464360039</v>
+        <v>375.1417037317563</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.594973612158374</v>
+        <v>2.268065499590243</v>
       </c>
       <c r="AB10" t="n">
-        <v>327.327699649084</v>
+        <v>286.7492583911578</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1160.336386430032</v>
+        <v>-977.3764408465198</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2342,7 +2338,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2365,32 +2361,32 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>217.0336818415346</v>
+        <v>218.263958293221</v>
       </c>
       <c r="J11" t="n">
-        <v>225.8545926540665</v>
+        <v>226.6470563284643</v>
       </c>
       <c r="K11" t="n">
-        <v>192.7137544686115</v>
+        <v>193.5639180765999</v>
       </c>
       <c r="L11" t="n">
-        <v>-188.4475971110153</v>
+        <v>-190.6014887445869</v>
       </c>
       <c r="M11" t="n">
-        <v>349.4602373251853</v>
+        <v>352.9394982975019</v>
       </c>
       <c r="N11" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>16.76625713139039</v>
+        <v>15.13788421837133</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>12.47334348926859</v>
+        <v>11.33331456904419</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02224261433850994</v>
+        <v>0.2029432959818519</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -2401,23 +2397,23 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>9.931059683765882</v>
+        <v>9.98653802961441</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1209.687469155379</v>
+        <v>1178.755358452028</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.559220367873763</v>
+        <v>7.221606500117882</v>
       </c>
       <c r="AB11" t="n">
-        <v>956.2616200652577</v>
+        <v>914.414090973331</v>
       </c>
       <c r="AC11" t="n">
-        <v>-10172.29545007738</v>
+        <v>-9658.678084092709</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -12188,11 +12184,11 @@
         <v>44348</v>
       </c>
       <c r="B750" t="n">
-        <v>-0.3499999999999986</v>
+        <v>0.04035482659070674</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12201,11 +12197,11 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>0.009999999999999431</v>
+        <v>0.04034809566660941</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12214,11 +12210,11 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>-2.849999999999999</v>
+        <v>0.04034606109713276</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12227,11 +12223,11 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>0.0299999999999983</v>
+        <v>0.04034450389727037</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12240,11 +12236,11 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>-3.439999999999998</v>
+        <v>0.04034457461035795</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12253,11 +12249,11 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>-7.1</v>
+        <v>0.04033231297911974</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12266,11 +12262,11 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>-3.97</v>
+        <v>0.04033663944658344</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12279,11 +12275,11 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>-1.540000000000002</v>
+        <v>0.04034213664181832</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12292,11 +12288,11 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>4.13</v>
+        <v>0.04033911400663104</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12305,11 +12301,11 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>8.02</v>
+        <v>0.04034648640096908</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12318,11 +12314,11 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>9.34</v>
+        <v>0.04033604413919353</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12331,11 +12327,11 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>3.969999999999999</v>
+        <v>0.04033872193312613</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12344,11 +12340,11 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>0.8500000000000014</v>
+        <v>0.04033591373270362</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12357,11 +12353,11 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.6799999999999997</v>
+        <v>0.04033538693551159</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12370,11 +12366,11 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>-2.849999999999999</v>
+        <v>0.04032887946586783</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12383,11 +12379,11 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.8900000000000006</v>
+        <v>0.04032863007525217</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12396,11 +12392,11 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>-3.439999999999998</v>
+        <v>0.04032848511410589</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12409,11 +12405,11 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>-8.830000000000002</v>
+        <v>0.04032140915429205</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12422,11 +12418,11 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>-3.97</v>
+        <v>0.04032357805789699</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12435,11 +12431,11 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>-1.540000000000002</v>
+        <v>0.04032583045880403</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12448,11 +12444,11 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>4.970000000000001</v>
+        <v>0.04031957935627645</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12461,11 +12457,11 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>7.280000000000001</v>
+        <v>0.04032906473544806</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12474,11 +12470,11 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>8.940000000000001</v>
+        <v>0.04031910189201707</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12487,11 +12483,11 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>3.969999999999999</v>
+        <v>0.04032116480616169</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12527,37 +12523,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -12584,34 +12580,34 @@
         <v>23.7</v>
       </c>
       <c r="C2" t="n">
+        <v>-0.0292021609271421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.8599999999999994</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.587815545947301</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.8267494407946</v>
-      </c>
       <c r="F2" t="n">
-        <v>-0.06624281324630488</v>
+        <v>2.848584471010339</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00737587333869702</v>
+        <v>1.587815545947298</v>
       </c>
       <c r="H2" t="n">
-        <v>-25.6131179951706</v>
+        <v>-19.96530723571777</v>
       </c>
       <c r="I2" t="n">
-        <v>-44.91608810424805</v>
+        <v>-16.77290326911425</v>
       </c>
       <c r="J2" t="n">
-        <v>2.972072073377206</v>
+        <v>4.590546863247835</v>
       </c>
       <c r="K2" t="n">
-        <v>13.22797970211588</v>
+        <v>13.1391417985265</v>
       </c>
       <c r="L2" t="n">
-        <v>39.75755779293263</v>
+        <v>39.76341713282626</v>
       </c>
     </row>
     <row r="3">
@@ -12622,34 +12618,34 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C3" t="n">
+        <v>-0.0292062523670862</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E3" t="n">
         <v>-1.689999999999999</v>
       </c>
-      <c r="D3" t="n">
-        <v>-7.959959197072623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.25990846321783</v>
-      </c>
       <c r="F3" t="n">
-        <v>-0.06624281750720229</v>
+        <v>-1.269876754262278</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.007375855225168926</v>
+        <v>-7.959959197072622</v>
       </c>
       <c r="H3" t="n">
-        <v>5.221552394135188</v>
+        <v>-0.8769826889038086</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4673192203044891</v>
+        <v>9.62371381343312</v>
       </c>
       <c r="J3" t="n">
-        <v>11.09918999548406</v>
+        <v>10.94425775379112</v>
       </c>
       <c r="K3" t="n">
-        <v>23.00033446182202</v>
+        <v>22.85633162288447</v>
       </c>
       <c r="L3" t="n">
-        <v>69.07462205819843</v>
+        <v>68.91499069734013</v>
       </c>
     </row>
     <row r="4">
@@ -12660,34 +12656,34 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C4" t="n">
+        <v>-0.02920880403160196</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E4" t="n">
         <v>-3.580000000000001</v>
       </c>
-      <c r="D4" t="n">
-        <v>-1.055784006481533</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-5.432123017413437</v>
-      </c>
       <c r="F4" t="n">
-        <v>-0.06624282154268712</v>
+        <v>-5.436140635040127</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.007375836261387075</v>
+        <v>-1.055784006481534</v>
       </c>
       <c r="H4" t="n">
-        <v>-34.21114569196688</v>
+        <v>5.692280769348145</v>
       </c>
       <c r="I4" t="n">
-        <v>-34.81304550170898</v>
+        <v>-27.95543657499028</v>
       </c>
       <c r="J4" t="n">
-        <v>12.04866604837931</v>
+        <v>15.66130325637577</v>
       </c>
       <c r="K4" t="n">
-        <v>32.69332991686343</v>
+        <v>32.55232776803148</v>
       </c>
       <c r="L4" t="n">
-        <v>98.15360840839435</v>
+        <v>98.00298168444567</v>
       </c>
     </row>
     <row r="5">
@@ -12698,34 +12694,34 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C5" t="n">
+        <v>-0.02921086706394328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E5" t="n">
         <v>-4.07</v>
       </c>
-      <c r="D5" t="n">
-        <v>-8.630738391978975</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-8.518268860255077</v>
-      </c>
       <c r="F5" t="n">
-        <v>-0.06624282566269812</v>
+        <v>-8.513959436443164</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.007375817663049955</v>
+        <v>-8.630738391978978</v>
       </c>
       <c r="H5" t="n">
-        <v>5.221552394135188</v>
+        <v>-16.39287757873535</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.528274059295654</v>
+        <v>5.429520207704737</v>
       </c>
       <c r="J5" t="n">
-        <v>19.16467107142016</v>
+        <v>17.61728316603944</v>
       </c>
       <c r="K5" t="n">
-        <v>42.30750806334375</v>
+        <v>42.16332350956218</v>
       </c>
       <c r="L5" t="n">
-        <v>126.996142833357</v>
+        <v>126.8359709720701</v>
       </c>
     </row>
     <row r="6">
@@ -12736,34 +12732,34 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C6" t="n">
+        <v>-0.02921119525329503</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>-9.690484084929139</v>
+      </c>
+      <c r="G6" t="n">
         <v>6.219259606631341</v>
       </c>
-      <c r="E6" t="n">
-        <v>-9.693335279169055</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.06624282976778773</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.007375798802678496</v>
-      </c>
       <c r="H6" t="n">
-        <v>-17.46611219583104</v>
+        <v>15.77884387969971</v>
       </c>
       <c r="I6" t="n">
-        <v>3.249172687530518</v>
+        <v>0.668147030070209</v>
       </c>
       <c r="J6" t="n">
-        <v>25.78095243938058</v>
+        <v>27.22199555793512</v>
       </c>
       <c r="K6" t="n">
-        <v>51.84358090595912</v>
+        <v>51.7267008606786</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6043613464478</v>
+        <v>155.5261033536087</v>
       </c>
     </row>
     <row r="7">
@@ -12774,34 +12770,34 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C7" t="n">
+        <v>-0.02922451248869616</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.8599999999999994</v>
       </c>
-      <c r="D7" t="n">
-        <v>-23.94145339002804</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-8.71427971686551</v>
-      </c>
       <c r="F7" t="n">
-        <v>-0.06624283378741325</v>
+        <v>-8.77041636660026</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.007375780441514851</v>
+        <v>-23.94145339002803</v>
       </c>
       <c r="H7" t="n">
-        <v>-25.79908245596483</v>
+        <v>-26.39239501953125</v>
       </c>
       <c r="I7" t="n">
-        <v>-43.05313110351562</v>
+        <v>-35.47401942294096</v>
       </c>
       <c r="J7" t="n">
-        <v>24.60680111247158</v>
+        <v>25.149833060826</v>
       </c>
       <c r="K7" t="n">
-        <v>61.30219361437663</v>
+        <v>61.19822989876703</v>
       </c>
       <c r="L7" t="n">
-        <v>183.9801994573588</v>
+        <v>183.9407037851094</v>
       </c>
     </row>
     <row r="8">
@@ -12812,34 +12808,34 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C8" t="n">
+        <v>-0.02922037133183243</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E8" t="n">
         <v>-4.710000000000001</v>
       </c>
-      <c r="D8" t="n">
-        <v>-14.61555631537002</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-5.713143583858779</v>
-      </c>
       <c r="F8" t="n">
-        <v>-0.06624283789719243</v>
+        <v>-5.771212071970075</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.007375761592573027</v>
+        <v>-14.61555631537004</v>
       </c>
       <c r="H8" t="n">
-        <v>-31.38026382815359</v>
+        <v>-5.030478477478027</v>
       </c>
       <c r="I8" t="n">
-        <v>-23.2375316619873</v>
+        <v>-17.59896145606132</v>
       </c>
       <c r="J8" t="n">
-        <v>31.7241950040486</v>
+        <v>33.24902514652634</v>
       </c>
       <c r="K8" t="n">
-        <v>70.6840187871634</v>
+        <v>70.69404420619576</v>
       </c>
       <c r="L8" t="n">
-        <v>212.1256749609799</v>
+        <v>212.4281425662387</v>
       </c>
     </row>
     <row r="9">
@@ -12850,34 +12846,34 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C9" t="n">
+        <v>-0.02921492604702407</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E9" t="n">
         <v>-2.110000000000002</v>
       </c>
-      <c r="D9" t="n">
-        <v>-3.3815084135846</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.600234497656915</v>
-      </c>
       <c r="F9" t="n">
-        <v>-0.06624284194890606</v>
+        <v>-1.591178381139676</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007375742787818884</v>
+        <v>-3.381508413584601</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.97744638515068</v>
+        <v>9.357422828674316</v>
       </c>
       <c r="I9" t="n">
-        <v>-14.75483417510986</v>
+        <v>-5.885986106142737</v>
       </c>
       <c r="J9" t="n">
-        <v>39.39726465385615</v>
+        <v>41.6572716826302</v>
       </c>
       <c r="K9" t="n">
-        <v>79.98964005992558</v>
+        <v>80.17460994682106</v>
       </c>
       <c r="L9" t="n">
-        <v>240.0425387645134</v>
+        <v>240.8698343428298</v>
       </c>
     </row>
     <row r="10">
@@ -12888,34 +12884,34 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C10" t="n">
+        <v>-0.02921850878559713</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E10" t="n">
         <v>3.2</v>
       </c>
-      <c r="D10" t="n">
-        <v>3.370442030314118</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.526288989634081</v>
-      </c>
       <c r="F10" t="n">
-        <v>-0.06624284595577024</v>
+        <v>2.532773871311278</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.007375724439957848</v>
+        <v>3.370442030314115</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05535356035366046</v>
+        <v>-2.152265548706055</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.32335090637207</v>
+        <v>1.213749428228593</v>
       </c>
       <c r="J10" t="n">
-        <v>46.43897492816537</v>
+        <v>47.06524156355783</v>
       </c>
       <c r="K10" t="n">
-        <v>89.21966563368532</v>
+        <v>89.57591252925579</v>
       </c>
       <c r="L10" t="n">
-        <v>267.7326154714517</v>
+        <v>269.0737456728726</v>
       </c>
     </row>
     <row r="11">
@@ -12926,34 +12922,34 @@
         <v>38.5</v>
       </c>
       <c r="C11" t="n">
+        <v>-0.02921116056711577</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E11" t="n">
         <v>4.7</v>
       </c>
-      <c r="D11" t="n">
-        <v>27.46181632388766</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.676287313735113</v>
-      </c>
       <c r="F11" t="n">
-        <v>-0.06624285009368691</v>
+        <v>5.717317781270998</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.007375705880088512</v>
+        <v>27.46181632388767</v>
       </c>
       <c r="H11" t="n">
-        <v>41.97204083713427</v>
+        <v>9.816100120544434</v>
       </c>
       <c r="I11" t="n">
-        <v>33.28797149658203</v>
+        <v>34.8120481104048</v>
       </c>
       <c r="J11" t="n">
-        <v>58.55402964752025</v>
+        <v>55.97287065754316</v>
       </c>
       <c r="K11" t="n">
-        <v>98.37473210200567</v>
+        <v>98.98470461047357</v>
       </c>
       <c r="L11" t="n">
-        <v>295.1978148619908</v>
+        <v>297.3001145683075</v>
       </c>
     </row>
     <row r="12">
@@ -12964,34 +12960,34 @@
         <v>-4.799999999999983</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.02922255170620079</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E12" t="n">
         <v>1.189999999999998</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>6.833712299773604</v>
+      </c>
+      <c r="G12" t="n">
         <v>16.03008585566835</v>
       </c>
-      <c r="E12" t="n">
-        <v>6.788896817895228</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.06624285400587837</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.007375687817907511</v>
-      </c>
       <c r="H12" t="n">
-        <v>-2.246815014479433</v>
+        <v>5.376845359802246</v>
       </c>
       <c r="I12" t="n">
-        <v>-12.72276592254639</v>
+        <v>16.28763139934393</v>
       </c>
       <c r="J12" t="n">
-        <v>57.34569322111768</v>
+        <v>58.92689623834615</v>
       </c>
       <c r="K12" t="n">
-        <v>107.455353933568</v>
+        <v>108.2751672393408</v>
       </c>
       <c r="L12" t="n">
-        <v>322.4396803425277</v>
+        <v>325.1715138460481</v>
       </c>
     </row>
     <row r="13">
@@ -13002,34 +12998,34 @@
         <v>7.299999999999983</v>
       </c>
       <c r="C13" t="n">
+        <v>-0.02922014674986896</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3167895763196253</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.05</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
+        <v>5.845188192714248</v>
+      </c>
+      <c r="G13" t="n">
         <v>4.780715763185643</v>
       </c>
-      <c r="E13" t="n">
-        <v>5.825054634025459</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.06624285807981778</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.00737566899760278</v>
-      </c>
       <c r="H13" t="n">
-        <v>15.50043817517054</v>
+        <v>0.1256728619337082</v>
       </c>
       <c r="I13" t="n">
-        <v>26.74729347229004</v>
+        <v>-17.40250205416364</v>
       </c>
       <c r="J13" t="n">
-        <v>64.62481886684907</v>
+        <v>61.56630042375202</v>
       </c>
       <c r="K13" t="n">
-        <v>116.4622062660359</v>
+        <v>117.5311628581442</v>
       </c>
       <c r="L13" t="n">
-        <v>349.4602373251853</v>
+        <v>352.9394982975019</v>
       </c>
     </row>
   </sheetData>
@@ -13059,37 +13055,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -13113,34 +13109,34 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>142.75</v>
+        <v>143.1403548265907</v>
       </c>
       <c r="C2" t="n">
+        <v>142.9017500310219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>148.1558162393911</v>
+      </c>
+      <c r="F2" t="n">
         <v>143.4460532910052</v>
       </c>
-      <c r="D2" t="n">
-        <v>149.0503341460492</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143.1120539770899</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143.1573607304409</v>
-      </c>
       <c r="G2" t="n">
-        <v>147.1222328868946</v>
+        <v>141.3906401157379</v>
       </c>
       <c r="H2" t="n">
-        <v>145.705320930481</v>
+        <v>147.0891263888361</v>
       </c>
       <c r="I2" t="n">
-        <v>144.3044648338235</v>
+        <v>143.8447311360738</v>
       </c>
       <c r="J2" t="n">
-        <v>143.1951250946031</v>
+        <v>143.1229425268952</v>
       </c>
       <c r="K2" t="n">
-        <v>143.3159605762785</v>
+        <v>143.3267227230729</v>
       </c>
     </row>
     <row r="3">
@@ -13148,34 +13144,34 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>142.76</v>
+        <v>143.1807029222573</v>
       </c>
       <c r="C3" t="n">
+        <v>142.7035000620437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>145.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>148.0945783076263</v>
+      </c>
+      <c r="F3" t="n">
         <v>137.6807782039508</v>
       </c>
-      <c r="D3" t="n">
-        <v>150.9613780029637</v>
-      </c>
-      <c r="E3" t="n">
-        <v>143.1241059100375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>143.2147214839729</v>
-      </c>
       <c r="G3" t="n">
-        <v>148.6828430713252</v>
+        <v>157.2209032535553</v>
       </c>
       <c r="H3" t="n">
-        <v>159.297060585022</v>
+        <v>150.7010520929474</v>
       </c>
       <c r="I3" t="n">
-        <v>145.4283332679414</v>
+        <v>145.5448965712972</v>
       </c>
       <c r="J3" t="n">
-        <v>143.2903720933961</v>
+        <v>143.1092371616042</v>
       </c>
       <c r="K3" t="n">
-        <v>143.5322888861778</v>
+        <v>143.4435085005116</v>
       </c>
     </row>
     <row r="4">
@@ -13183,34 +13179,34 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>139.91</v>
+        <v>143.2210489833545</v>
       </c>
       <c r="C4" t="n">
+        <v>142.5052500930656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>144.2253731957141</v>
+      </c>
+      <c r="F4" t="n">
         <v>135.6204670411221</v>
       </c>
-      <c r="D4" t="n">
-        <v>147.8047795077601</v>
-      </c>
-      <c r="E4" t="n">
-        <v>143.1361558008311</v>
-      </c>
-      <c r="F4" t="n">
-        <v>143.2720822606954</v>
-      </c>
       <c r="G4" t="n">
-        <v>146.9931406460696</v>
+        <v>143.945605134964</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3237157821655</v>
+        <v>140.4247187931373</v>
       </c>
       <c r="I4" t="n">
-        <v>143.7882403173627</v>
+        <v>142.6457161997336</v>
       </c>
       <c r="J4" t="n">
-        <v>143.3857309812897</v>
+        <v>143.0936165644779</v>
       </c>
       <c r="K4" t="n">
-        <v>143.7489548823427</v>
+        <v>143.5545506170137</v>
       </c>
     </row>
     <row r="5">
@@ -13218,34 +13214,34 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>139.94</v>
+        <v>143.2613934872517</v>
       </c>
       <c r="C5" t="n">
+        <v>142.3070001240875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>144.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>139.9672933490295</v>
+      </c>
+      <c r="F5" t="n">
         <v>128.6228113730772</v>
       </c>
-      <c r="D5" t="n">
-        <v>142.1378858070531</v>
-      </c>
-      <c r="E5" t="n">
-        <v>143.1482036459418</v>
-      </c>
-      <c r="F5" t="n">
-        <v>143.3294430602517</v>
-      </c>
       <c r="G5" t="n">
-        <v>145.7972765837517</v>
+        <v>150.7067063808441</v>
       </c>
       <c r="H5" t="n">
-        <v>157.703982925415</v>
+        <v>145.1530277349628</v>
       </c>
       <c r="I5" t="n">
-        <v>142.9270774437501</v>
+        <v>142.8280181094187</v>
       </c>
       <c r="J5" t="n">
-        <v>143.4811736894935</v>
+        <v>143.0512883745403</v>
       </c>
       <c r="K5" t="n">
-        <v>143.9658743622872</v>
+        <v>143.5854715122817</v>
       </c>
     </row>
     <row r="6">
@@ -13253,34 +13249,34 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>136.5</v>
+        <v>143.3017380618621</v>
       </c>
       <c r="C6" t="n">
+        <v>142.1087501551093</v>
+      </c>
+      <c r="D6" t="n">
+        <v>142.97</v>
+      </c>
+      <c r="E6" t="n">
+        <v>135.7063766064195</v>
+      </c>
+      <c r="F6" t="n">
         <v>133.33233769353</v>
       </c>
-      <c r="D6" t="n">
-        <v>136.3738032577548</v>
-      </c>
-      <c r="E6" t="n">
-        <v>143.1602494547414</v>
-      </c>
-      <c r="F6" t="n">
-        <v>143.3868038828728</v>
-      </c>
       <c r="G6" t="n">
-        <v>147.178952067747</v>
+        <v>154.6596854686737</v>
       </c>
       <c r="H6" t="n">
-        <v>164.296150302887</v>
+        <v>143.6267736866126</v>
       </c>
       <c r="I6" t="n">
-        <v>142.5533676664291</v>
+        <v>142.7187754475862</v>
       </c>
       <c r="J6" t="n">
-        <v>143.576717023511</v>
+        <v>143.0023404259981</v>
       </c>
       <c r="K6" t="n">
-        <v>144.183097732919</v>
+        <v>143.5965330610228</v>
       </c>
     </row>
     <row r="7">
@@ -13288,34 +13284,34 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>129.4</v>
+        <v>143.3420703748412</v>
       </c>
       <c r="C7" t="n">
+        <v>141.9105001861312</v>
+      </c>
+      <c r="D7" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>124.8544518308417</v>
+      </c>
+      <c r="F7" t="n">
         <v>111.701684757198</v>
       </c>
-      <c r="D7" t="n">
-        <v>128.0176800408655</v>
-      </c>
-      <c r="E7" t="n">
-        <v>143.1722932472848</v>
-      </c>
-      <c r="F7" t="n">
-        <v>143.4441647280787</v>
-      </c>
       <c r="G7" t="n">
-        <v>138.0958983372676</v>
+        <v>145.5077117443085</v>
       </c>
       <c r="H7" t="n">
-        <v>156.277161693573</v>
+        <v>135.3906307554457</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8323038910842</v>
+        <v>137.9951800756524</v>
       </c>
       <c r="J7" t="n">
-        <v>143.6723546498292</v>
+        <v>142.9007761846404</v>
       </c>
       <c r="K7" t="n">
-        <v>144.4006059741242</v>
+        <v>143.4497579929485</v>
       </c>
     </row>
     <row r="8">
@@ -13323,34 +13319,34 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>125.43</v>
+        <v>143.3824070142878</v>
       </c>
       <c r="C8" t="n">
-        <v>96.5800167917438</v>
+        <v>141.7122502171531</v>
       </c>
       <c r="D8" t="n">
-        <v>124.815363933563</v>
+        <v>134.41</v>
       </c>
       <c r="E8" t="n">
-        <v>143.1843350125139</v>
+        <v>119.5766210464373</v>
       </c>
       <c r="F8" t="n">
-        <v>143.5015255963104</v>
+        <v>96.58001679174382</v>
       </c>
       <c r="G8" t="n">
-        <v>132.3939189687417</v>
+        <v>143.8016214132309</v>
       </c>
       <c r="H8" t="n">
-        <v>149.2996521949768</v>
+        <v>128.4189969580097</v>
       </c>
       <c r="I8" t="n">
-        <v>134.9797095096868</v>
+        <v>135.3291824889013</v>
       </c>
       <c r="J8" t="n">
-        <v>143.7681351262954</v>
+        <v>142.81368604296</v>
       </c>
       <c r="K8" t="n">
-        <v>144.6185447700622</v>
+        <v>143.346400897439</v>
       </c>
     </row>
     <row r="9">
@@ -13358,34 +13354,34 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>123.89</v>
+        <v>143.4227491509296</v>
       </c>
       <c r="C9" t="n">
-        <v>92.41477750569588</v>
+        <v>141.5140002481749</v>
       </c>
       <c r="D9" t="n">
-        <v>125.0801061097166</v>
+        <v>136.3</v>
       </c>
       <c r="E9" t="n">
-        <v>143.1963747629798</v>
+        <v>119.5183143825591</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5588864874865</v>
+        <v>92.41477750569589</v>
       </c>
       <c r="G9" t="n">
-        <v>130.7473783024217</v>
+        <v>137.7978672742844</v>
       </c>
       <c r="H9" t="n">
-        <v>141.1755457878113</v>
+        <v>125.4388768920815</v>
       </c>
       <c r="I9" t="n">
-        <v>133.7895098839427</v>
+        <v>134.5759984900304</v>
       </c>
       <c r="J9" t="n">
-        <v>143.8640722004562</v>
+        <v>142.7656966376271</v>
       </c>
       <c r="K9" t="n">
-        <v>144.8369553509025</v>
+        <v>143.3603405137765</v>
       </c>
     </row>
     <row r="10">
@@ -13393,34 +13389,34 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>128.02</v>
+        <v>143.4630882649362</v>
       </c>
       <c r="C10" t="n">
-        <v>95.1143737597524</v>
+        <v>141.3157502791968</v>
       </c>
       <c r="D10" t="n">
-        <v>126.7450284697335</v>
+        <v>136.87</v>
       </c>
       <c r="E10" t="n">
-        <v>143.2084125099659</v>
+        <v>120.9184886092645</v>
       </c>
       <c r="F10" t="n">
-        <v>143.6162474011921</v>
+        <v>95.11437375975241</v>
       </c>
       <c r="G10" t="n">
-        <v>134.2659248697114</v>
+        <v>138.228583997488</v>
       </c>
       <c r="H10" t="n">
-        <v>154.3225756645203</v>
+        <v>129.7331962464304</v>
       </c>
       <c r="I10" t="n">
-        <v>136.1165068838259</v>
+        <v>135.1207237952656</v>
       </c>
       <c r="J10" t="n">
-        <v>143.960173383578</v>
+        <v>142.725339456244</v>
       </c>
       <c r="K10" t="n">
-        <v>145.0558602395762</v>
+        <v>143.3971798245989</v>
       </c>
     </row>
     <row r="11">
@@ -13428,34 +13424,34 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>136.04</v>
+        <v>143.5034347513372</v>
       </c>
       <c r="C11" t="n">
+        <v>141.1175003102187</v>
+      </c>
+      <c r="D11" t="n">
+        <v>149.37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>130.9665357366139</v>
+      </c>
+      <c r="F11" t="n">
         <v>124.6524158709783</v>
       </c>
-      <c r="D11" t="n">
-        <v>136.0427490941574</v>
-      </c>
-      <c r="E11" t="n">
-        <v>143.2204482309233</v>
-      </c>
-      <c r="F11" t="n">
-        <v>143.6736083376109</v>
-      </c>
       <c r="G11" t="n">
-        <v>153.3181833707795</v>
+        <v>160.3724114358425</v>
       </c>
       <c r="H11" t="n">
-        <v>169.0494261741638</v>
+        <v>145.4337361297035</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5526779834238</v>
+        <v>142.9952888941101</v>
       </c>
       <c r="J11" t="n">
-        <v>144.0564721130254</v>
+        <v>142.7456561044987</v>
       </c>
       <c r="K11" t="n">
-        <v>145.275359770542</v>
+        <v>143.6160332519402</v>
       </c>
     </row>
     <row r="12">
@@ -13463,34 +13459,34 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>145.38</v>
+        <v>143.5437707954764</v>
       </c>
       <c r="C12" t="n">
+        <v>140.9192503412405</v>
+      </c>
+      <c r="D12" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>136.3193129931574</v>
+      </c>
+      <c r="F12" t="n">
         <v>139.5453728649968</v>
       </c>
-      <c r="D12" t="n">
-        <v>140.4291317982778</v>
-      </c>
-      <c r="E12" t="n">
-        <v>143.2324819725617</v>
-      </c>
-      <c r="F12" t="n">
-        <v>143.7309692962643</v>
-      </c>
       <c r="G12" t="n">
-        <v>159.4107941242819</v>
+        <v>166.9490525186062</v>
       </c>
       <c r="H12" t="n">
-        <v>178.651745891571</v>
+        <v>147.5474560831684</v>
       </c>
       <c r="I12" t="n">
-        <v>146.7047277122219</v>
+        <v>146.8906744536072</v>
       </c>
       <c r="J12" t="n">
-        <v>144.1529169940562</v>
+        <v>142.7738611259686</v>
       </c>
       <c r="K12" t="n">
-        <v>145.4952997133427</v>
+        <v>143.8585622411885</v>
       </c>
     </row>
     <row r="13">
@@ -13498,34 +13494,34 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>149.35</v>
+        <v>143.5841095174095</v>
       </c>
       <c r="C13" t="n">
+        <v>140.7210003722624</v>
+      </c>
+      <c r="D13" t="n">
+        <v>158.42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>143.3017977272379</v>
+      </c>
+      <c r="F13" t="n">
         <v>145.2567513285372</v>
       </c>
-      <c r="D13" t="n">
-        <v>148.6828063500248</v>
-      </c>
-      <c r="E13" t="n">
-        <v>143.2445137111366</v>
-      </c>
-      <c r="F13" t="n">
-        <v>143.788330277846</v>
-      </c>
       <c r="G13" t="n">
-        <v>165.4689508764396</v>
+        <v>176.6302563607693</v>
       </c>
       <c r="H13" t="n">
-        <v>188.8854294776916</v>
+        <v>154.6526323608827</v>
       </c>
       <c r="I13" t="n">
-        <v>150.0016894486496</v>
+        <v>149.4054983689662</v>
       </c>
       <c r="J13" t="n">
-        <v>144.2495294174582</v>
+        <v>142.8223495232826</v>
       </c>
       <c r="K13" t="n">
-        <v>145.7157442633923</v>
+        <v>144.1619386801755</v>
       </c>
     </row>
     <row r="14">
@@ -13533,34 +13529,34 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>150.2</v>
+        <v>143.6244454311422</v>
       </c>
       <c r="C14" t="n">
+        <v>140.5227504032843</v>
+      </c>
+      <c r="D14" t="n">
+        <v>158.51</v>
+      </c>
+      <c r="E14" t="n">
+        <v>147.1154133526054</v>
+      </c>
+      <c r="F14" t="n">
         <v>143.6544832571887</v>
       </c>
-      <c r="D14" t="n">
-        <v>155.8039457371164</v>
-      </c>
-      <c r="E14" t="n">
-        <v>143.2565434621469</v>
-      </c>
-      <c r="F14" t="n">
-        <v>143.8456912820192</v>
-      </c>
       <c r="G14" t="n">
-        <v>166.7607374447558</v>
+        <v>175.9064174950123</v>
       </c>
       <c r="H14" t="n">
-        <v>203.2598896980286</v>
+        <v>154.2782728406233</v>
       </c>
       <c r="I14" t="n">
-        <v>152.4051712764141</v>
+        <v>149.8031472510787</v>
       </c>
       <c r="J14" t="n">
-        <v>144.3462704558573</v>
+        <v>142.8602578289836</v>
       </c>
       <c r="K14" t="n">
-        <v>145.9365766234059</v>
+        <v>144.433577652524</v>
       </c>
     </row>
     <row r="15">
@@ -13568,34 +13564,34 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>149.52</v>
+        <v>143.6647808180777</v>
       </c>
       <c r="C15" t="n">
+        <v>140.3245004343061</v>
+      </c>
+      <c r="D15" t="n">
+        <v>157.54</v>
+      </c>
+      <c r="E15" t="n">
+        <v>148.9569680504746</v>
+      </c>
+      <c r="F15" t="n">
         <v>138.9919813938752</v>
       </c>
-      <c r="D15" t="n">
-        <v>158.7921403519803</v>
-      </c>
-      <c r="E15" t="n">
-        <v>143.2685712298355</v>
-      </c>
-      <c r="F15" t="n">
-        <v>143.9030523085298</v>
-      </c>
       <c r="G15" t="n">
-        <v>167.4244721708154</v>
+        <v>181.1556097328663</v>
       </c>
       <c r="H15" t="n">
-        <v>207.6809497833252</v>
+        <v>155.9049053262194</v>
       </c>
       <c r="I15" t="n">
-        <v>152.8510666648608</v>
+        <v>150.2976446685307</v>
       </c>
       <c r="J15" t="n">
-        <v>144.4431127886953</v>
+        <v>142.8922358470994</v>
       </c>
       <c r="K15" t="n">
-        <v>146.1577148277208</v>
+        <v>144.687426288914</v>
       </c>
     </row>
     <row r="16">
@@ -13603,34 +13599,34 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>146.67</v>
+        <v>143.7051096975436</v>
       </c>
       <c r="C16" t="n">
+        <v>140.126250465328</v>
+      </c>
+      <c r="D16" t="n">
+        <v>152.28</v>
+      </c>
+      <c r="E16" t="n">
+        <v>145.5059387982379</v>
+      </c>
+      <c r="F16" t="n">
         <v>136.740660375998</v>
       </c>
-      <c r="D16" t="n">
-        <v>154.2691527981541</v>
-      </c>
-      <c r="E16" t="n">
-        <v>143.2805970233453</v>
-      </c>
-      <c r="F16" t="n">
-        <v>143.9604133569077</v>
-      </c>
       <c r="G16" t="n">
-        <v>163.7965058682389</v>
+        <v>175.6272908508778</v>
       </c>
       <c r="H16" t="n">
-        <v>200.7649317741394</v>
+        <v>153.6847870353424</v>
       </c>
       <c r="I16" t="n">
-        <v>150.9676930638042</v>
+        <v>148.2169489116799</v>
       </c>
       <c r="J16" t="n">
-        <v>144.5400274198605</v>
+        <v>142.8800512364086</v>
       </c>
       <c r="K16" t="n">
-        <v>146.3790718793287</v>
+        <v>144.8087935463538</v>
       </c>
     </row>
     <row r="17">
@@ -13638,34 +13634,34 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>145.78</v>
+        <v>143.7454383276189</v>
       </c>
       <c r="C17" t="n">
-        <v>130.8643293934756</v>
+        <v>139.9280004963499</v>
       </c>
       <c r="D17" t="n">
-        <v>148.756438968833</v>
+        <v>153.29</v>
       </c>
       <c r="E17" t="n">
-        <v>143.2926208407951</v>
+        <v>140.1167471392155</v>
       </c>
       <c r="F17" t="n">
-        <v>144.0177744278251</v>
+        <v>130.8643293934755</v>
       </c>
       <c r="G17" t="n">
-        <v>162.1109317542522</v>
+        <v>176.1122963786125</v>
       </c>
       <c r="H17" t="n">
-        <v>211.84396276474</v>
+        <v>155.5635276949631</v>
       </c>
       <c r="I17" t="n">
-        <v>150.5687210135078</v>
+        <v>147.2934390432038</v>
       </c>
       <c r="J17" t="n">
-        <v>144.6370298486644</v>
+        <v>142.8385052013035</v>
       </c>
       <c r="K17" t="n">
-        <v>146.6006942773734</v>
+        <v>144.8420767799416</v>
       </c>
     </row>
     <row r="18">
@@ -13673,34 +13669,34 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>142.34</v>
+        <v>143.785766812733</v>
       </c>
       <c r="C18" t="n">
+        <v>139.7297505273717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>152.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>134.1738446394205</v>
+      </c>
+      <c r="F18" t="n">
         <v>134.2607542959406</v>
       </c>
-      <c r="D18" t="n">
-        <v>142.1606112238213</v>
-      </c>
-      <c r="E18" t="n">
-        <v>143.3046426896266</v>
-      </c>
-      <c r="F18" t="n">
-        <v>144.0751355209852</v>
-      </c>
       <c r="G18" t="n">
-        <v>163.4926072382476</v>
+        <v>178.546651160717</v>
       </c>
       <c r="H18" t="n">
-        <v>214.7561839580536</v>
+        <v>156.5456231314525</v>
       </c>
       <c r="I18" t="n">
-        <v>149.6507455925929</v>
+        <v>146.7425417569389</v>
       </c>
       <c r="J18" t="n">
-        <v>144.7341199968957</v>
+        <v>142.7811532501459</v>
       </c>
       <c r="K18" t="n">
-        <v>146.8225817800755</v>
+        <v>144.8279424103326</v>
       </c>
     </row>
     <row r="19">
@@ -13708,34 +13704,34 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>133.51</v>
+        <v>143.8260882218873</v>
       </c>
       <c r="C19" t="n">
+        <v>139.5315005583936</v>
+      </c>
+      <c r="D19" t="n">
+        <v>140.49</v>
+      </c>
+      <c r="E19" t="n">
+        <v>124.3877549400163</v>
+      </c>
+      <c r="F19" t="n">
         <v>114.3016438757212</v>
       </c>
-      <c r="D19" t="n">
-        <v>134.1987390957643</v>
-      </c>
-      <c r="E19" t="n">
-        <v>143.3166625773076</v>
-      </c>
-      <c r="F19" t="n">
-        <v>144.132496636088</v>
-      </c>
       <c r="G19" t="n">
-        <v>156.0988860160095</v>
+        <v>171.9918773531914</v>
       </c>
       <c r="H19" t="n">
-        <v>211.3433564662933</v>
+        <v>149.6765301404331</v>
       </c>
       <c r="I19" t="n">
-        <v>145.2864165349871</v>
+        <v>141.5073387011729</v>
       </c>
       <c r="J19" t="n">
-        <v>144.8313082466642</v>
+        <v>142.6784329597384</v>
       </c>
       <c r="K19" t="n">
-        <v>147.0447655265973</v>
+        <v>144.6777100989342</v>
       </c>
     </row>
     <row r="20">
@@ -13743,34 +13739,34 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>129.54</v>
+        <v>143.8664117999452</v>
       </c>
       <c r="C20" t="n">
-        <v>98.0796516408507</v>
+        <v>139.3332505894155</v>
       </c>
       <c r="D20" t="n">
-        <v>130.2602248941504</v>
+        <v>138.96</v>
       </c>
       <c r="E20" t="n">
-        <v>143.3286805053456</v>
+        <v>119.3706782420543</v>
       </c>
       <c r="F20" t="n">
-        <v>144.1898577734516</v>
+        <v>98.07965164085067</v>
       </c>
       <c r="G20" t="n">
-        <v>150.3969066474836</v>
+        <v>159.7853868365288</v>
       </c>
       <c r="H20" t="n">
-        <v>209.862531042099</v>
+        <v>141.8687837783263</v>
       </c>
       <c r="I20" t="n">
-        <v>142.7248241416738</v>
+        <v>138.0002077691178</v>
       </c>
       <c r="J20" t="n">
-        <v>144.9286286665867</v>
+        <v>142.5962913805857</v>
       </c>
       <c r="K20" t="n">
-        <v>147.2673477209631</v>
+        <v>144.589211752396</v>
       </c>
     </row>
     <row r="21">
@@ -13778,34 +13774,34 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>143.906737630404</v>
       </c>
       <c r="C21" t="n">
-        <v>92.90131430825039</v>
+        <v>139.1350006204374</v>
       </c>
       <c r="D21" t="n">
-        <v>130.1410163044249</v>
+        <v>139.23</v>
       </c>
       <c r="E21" t="n">
-        <v>143.3406964813916</v>
+        <v>119.8718783532756</v>
       </c>
       <c r="F21" t="n">
-        <v>144.2472189331332</v>
+        <v>92.90131430825038</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7503659811636</v>
+        <v>150.1473720431328</v>
       </c>
       <c r="H21" t="n">
-        <v>206.5284181594849</v>
+        <v>145.3959708774854</v>
       </c>
       <c r="I21" t="n">
-        <v>141.8227475217028</v>
+        <v>136.7158527180688</v>
       </c>
       <c r="J21" t="n">
-        <v>145.0261008310752</v>
+        <v>142.5540051246368</v>
       </c>
       <c r="K21" t="n">
-        <v>147.490387078701</v>
+        <v>144.6202771230688</v>
       </c>
     </row>
     <row r="22">
@@ -13813,34 +13809,34 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>132.97</v>
+        <v>143.9470572097603</v>
       </c>
       <c r="C22" t="n">
-        <v>95.48803125401224</v>
+        <v>138.9367506514592</v>
       </c>
       <c r="D22" t="n">
-        <v>132.2711873112226</v>
+        <v>141.95</v>
       </c>
       <c r="E22" t="n">
-        <v>143.352710510845</v>
+        <v>120.4146257561056</v>
       </c>
       <c r="F22" t="n">
-        <v>144.304580114667</v>
+        <v>95.48803125401223</v>
       </c>
       <c r="G22" t="n">
-        <v>155.0762328443015</v>
+        <v>155.3317788004875</v>
       </c>
       <c r="H22" t="n">
-        <v>214.5128980636597</v>
+        <v>145.7972450042949</v>
       </c>
       <c r="I22" t="n">
-        <v>143.9288011849236</v>
+        <v>137.9277331572271</v>
       </c>
       <c r="J22" t="n">
-        <v>145.1237349297494</v>
+        <v>142.5064443138557</v>
       </c>
       <c r="K22" t="n">
-        <v>147.7139141637365</v>
+        <v>144.6355250803474</v>
       </c>
     </row>
     <row r="23">
@@ -13848,34 +13844,34 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>140.25</v>
+        <v>143.9873862744957</v>
       </c>
       <c r="C23" t="n">
+        <v>138.7385006824811</v>
+      </c>
+      <c r="D23" t="n">
+        <v>152.38</v>
+      </c>
+      <c r="E23" t="n">
+        <v>130.2194343871079</v>
+      </c>
+      <c r="F23" t="n">
         <v>126.6338639174862</v>
       </c>
-      <c r="D23" t="n">
-        <v>143.1469940879638</v>
-      </c>
-      <c r="E23" t="n">
-        <v>143.3647225908962</v>
-      </c>
-      <c r="F23" t="n">
-        <v>144.3619413188157</v>
-      </c>
       <c r="G23" t="n">
-        <v>177.6909075083749</v>
+        <v>169.5486166834831</v>
       </c>
       <c r="H23" t="n">
-        <v>236.6786943435669</v>
+        <v>167.8967821966817</v>
       </c>
       <c r="I23" t="n">
-        <v>151.3200353764265</v>
+        <v>144.7537151889012</v>
       </c>
       <c r="J23" t="n">
-        <v>145.2215595694259</v>
+        <v>142.542247810146</v>
       </c>
       <c r="K23" t="n">
-        <v>147.9380147985661</v>
+        <v>144.900856473461</v>
       </c>
     </row>
     <row r="24">
@@ -13883,34 +13879,34 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>149.19</v>
+        <v>144.0277053763877</v>
       </c>
       <c r="C24" t="n">
+        <v>138.540250713503</v>
+      </c>
+      <c r="D24" t="n">
+        <v>161.38</v>
+      </c>
+      <c r="E24" t="n">
+        <v>135.8610298965305</v>
+      </c>
+      <c r="F24" t="n">
         <v>140.6455057598784</v>
       </c>
-      <c r="D24" t="n">
-        <v>150.0511033362729</v>
-      </c>
-      <c r="E24" t="n">
-        <v>143.3767327380609</v>
-      </c>
-      <c r="F24" t="n">
-        <v>144.4193025443344</v>
-      </c>
       <c r="G24" t="n">
-        <v>187.4454349930213</v>
+        <v>173.623247897625</v>
       </c>
       <c r="H24" t="n">
-        <v>241.1501675605774</v>
+        <v>174.3063850843392</v>
       </c>
       <c r="I24" t="n">
-        <v>155.3313922894206</v>
+        <v>148.3045505228141</v>
       </c>
       <c r="J24" t="n">
-        <v>145.3195326366768</v>
+        <v>142.561108699281</v>
       </c>
       <c r="K24" t="n">
-        <v>148.1625626276353</v>
+        <v>145.115370007952</v>
       </c>
     </row>
     <row r="25">
@@ -13918,34 +13914,34 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>153.16</v>
+        <v>144.0680265411939</v>
       </c>
       <c r="C25" t="n">
+        <v>138.3420007445248</v>
+      </c>
+      <c r="D25" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>142.6663359449261</v>
+      </c>
+      <c r="F25" t="n">
         <v>147.0782048519046</v>
       </c>
-      <c r="D25" t="n">
-        <v>158.0691930182104</v>
-      </c>
-      <c r="E25" t="n">
-        <v>143.3887409506367</v>
-      </c>
-      <c r="F25" t="n">
-        <v>144.4766637918655</v>
-      </c>
       <c r="G25" t="n">
-        <v>193.503591745179</v>
+        <v>187.9568851351738</v>
       </c>
       <c r="H25" t="n">
-        <v>257.2255230903626</v>
+        <v>178.4820445517935</v>
       </c>
       <c r="I25" t="n">
-        <v>159.1602920680468</v>
+        <v>151.3299944876477</v>
       </c>
       <c r="J25" t="n">
-        <v>145.4176565953321</v>
+        <v>142.6088746411391</v>
       </c>
       <c r="K25" t="n">
-        <v>148.3875650434942</v>
+        <v>145.4165966376983</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -503,34 +503,34 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2267227230729176</v>
+        <v>0.2159605765139645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>-0.3499999999999986</v>
       </c>
       <c r="D2" t="n">
-        <v>5.055816239391071</v>
+        <v>5.950334146049205</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.709359884262085</v>
+        <v>2.605320930480957</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98912638883615</v>
+        <v>2.818921988058695</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04035482659070674</v>
+        <v>0.05736073044085715</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01045505303544303</v>
       </c>
       <c r="I2" t="n">
         <v>0.3460532910052291</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0229425268951675</v>
+        <v>0.09459211999675489</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7447311360738365</v>
+        <v>1.185395802413944</v>
       </c>
     </row>
     <row r="3">
@@ -538,34 +538,34 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1167857774386434</v>
+        <v>0.2163283101349975</v>
       </c>
       <c r="C3" t="n">
-        <v>1.190000000000001</v>
+        <v>0.009999999999999431</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06123793176479886</v>
+        <v>1.911043856914492</v>
       </c>
       <c r="E3" t="n">
-        <v>15.83026313781738</v>
+        <v>13.59173965454102</v>
       </c>
       <c r="F3" t="n">
-        <v>3.611925704111199</v>
+        <v>1.227551080588366</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04034809566660941</v>
+        <v>0.05736075353193865</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01045334555783484</v>
       </c>
       <c r="I3" t="n">
         <v>-5.765275087054417</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01370536529095636</v>
+        <v>0.094714136408257</v>
       </c>
       <c r="K3" t="n">
-        <v>1.700165435223376</v>
+        <v>1.119042604731137</v>
       </c>
     </row>
     <row r="4">
@@ -573,34 +573,34 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1110421165021549</v>
+        <v>0.2166659964011046</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.49</v>
+        <v>-2.849999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.869205111912139</v>
+        <v>-3.156598495203612</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.27529811859131</v>
+        <v>-6.973344802856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.27633329981001</v>
+        <v>-2.479616667427226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04034606109713276</v>
+        <v>0.05736077672247356</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01045164547619493</v>
       </c>
       <c r="I4" t="n">
         <v>-2.06031116282875</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01562059712627807</v>
+        <v>0.09482613953325769</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.899180371563571</v>
+        <v>-1.65399399646931</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +608,34 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03092089526803932</v>
+        <v>0.2169194801805929</v>
       </c>
       <c r="C5" t="n">
-        <v>2.65</v>
+        <v>0.0299999999999983</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.258079846684658</v>
+        <v>-5.666893700706981</v>
       </c>
       <c r="E5" t="n">
-        <v>6.761101245880127</v>
+        <v>5.380267143249512</v>
       </c>
       <c r="F5" t="n">
-        <v>4.728308941825452</v>
+        <v>-1.5818662920388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04034450389727037</v>
+        <v>0.05736079955622139</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01044992181059001</v>
       </c>
       <c r="I5" t="n">
         <v>-6.997655668044846</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04232818993760406</v>
+        <v>0.09491006718246812</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1823019096850907</v>
+        <v>-0.8679271854656649</v>
       </c>
     </row>
     <row r="6">
@@ -643,34 +643,34 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0110615487410648</v>
+        <v>0.2172233708680835</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.28</v>
+        <v>-3.439999999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.260916742609935</v>
+        <v>-5.764082549298242</v>
       </c>
       <c r="E6" t="n">
-        <v>3.95297908782959</v>
+        <v>6.592167377471924</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.526254048350224</v>
+        <v>0.5917612418236577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04034457461035795</v>
+        <v>0.05736082262103534</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.0104482185499748</v>
       </c>
       <c r="I6" t="n">
         <v>4.709526320452823</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04894794854223303</v>
+        <v>0.09501080401303123</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1092426618325109</v>
+        <v>-0.3851427682384936</v>
       </c>
     </row>
     <row r="7">
@@ -678,34 +678,34 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1467750680742448</v>
+        <v>0.2175082414418341</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.17</v>
+        <v>-7.1</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.85192477557784</v>
+        <v>-8.35612321688931</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.151973724365234</v>
+        <v>-8.018988609313965</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.236142931166896</v>
+        <v>-9.897137675269143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04033231297911974</v>
+        <v>0.05736084520583001</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01044652942443491</v>
       </c>
       <c r="I7" t="n">
         <v>-21.63065293633207</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.101564241357749</v>
+        <v>0.09510520535736634</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.723595371933821</v>
+        <v>-4.738121338162069</v>
       </c>
     </row>
     <row r="8">
@@ -713,34 +713,34 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1033570955095371</v>
+        <v>0.2179387961746784</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.390000000000002</v>
+        <v>-3.97</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.277830784404387</v>
+        <v>-3.202316107302563</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.706090331077576</v>
+        <v>-6.977509498596191</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.971633797435939</v>
+        <v>-6.974706459016934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04033663944658344</v>
+        <v>0.05736086823162573</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01044483355158832</v>
       </c>
       <c r="I8" t="n">
         <v>-15.12166796545415</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0870901416803585</v>
+        <v>0.09524816598596414</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.665997586751049</v>
+        <v>-2.875924693547002</v>
       </c>
     </row>
     <row r="9">
@@ -748,34 +748,34 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01393961633749896</v>
+        <v>0.2184105810772508</v>
       </c>
       <c r="C9" t="n">
-        <v>1.889999999999999</v>
+        <v>-1.540000000000002</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05830666387815597</v>
+        <v>0.2647421761536179</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.003754138946533</v>
+        <v>-8.124106407165527</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.980120065928276</v>
+        <v>-2.343235032930321</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04034213664181832</v>
+        <v>0.05736089117605603</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01044314564209969</v>
       </c>
       <c r="I9" t="n">
         <v>-4.165239286047926</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.04798940533293486</v>
+        <v>0.09540487263180215</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.7531839988708937</v>
+        <v>-1.203041517211858</v>
       </c>
     </row>
     <row r="10">
@@ -783,34 +783,34 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03683931082237635</v>
+        <v>0.2189048889109131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5699999999999982</v>
+        <v>4.13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.400174226705355</v>
+        <v>1.664922360016853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4307167232036591</v>
+        <v>13.14702987670898</v>
       </c>
       <c r="F10" t="n">
-        <v>4.294319354348958</v>
+        <v>2.947544388868198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04033911400663104</v>
+        <v>0.05736091370560825</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.0104414682452898</v>
       </c>
       <c r="I10" t="n">
         <v>2.699596254056517</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.04035718138303816</v>
+        <v>0.09556909028727038</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5447253052351865</v>
+        <v>2.319511210311298</v>
       </c>
     </row>
     <row r="11">
@@ -818,34 +818,34 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2188534273412905</v>
+        <v>0.2194995312028141</v>
       </c>
       <c r="C11" t="n">
-        <v>12.5</v>
+        <v>8.02</v>
       </c>
       <c r="D11" t="n">
-        <v>10.04804712734939</v>
+        <v>9.297720624423924</v>
       </c>
       <c r="E11" t="n">
-        <v>22.14382743835449</v>
+        <v>14.72685050964355</v>
       </c>
       <c r="F11" t="n">
-        <v>15.7005398832731</v>
+        <v>18.55619830143108</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04034648640096908</v>
+        <v>0.05736093641877565</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.0104397563735219</v>
       </c>
       <c r="I11" t="n">
         <v>29.53804211122594</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02031664825471259</v>
+        <v>0.09576674133170388</v>
       </c>
       <c r="K11" t="n">
-        <v>7.874565098844478</v>
+        <v>6.433613962653841</v>
       </c>
     </row>
     <row r="12">
@@ -853,34 +853,34 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2425289892483242</v>
+        <v>0.2199399430380993</v>
       </c>
       <c r="C12" t="n">
-        <v>9.729999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="D12" t="n">
-        <v>5.352777256543572</v>
+        <v>4.386382704120387</v>
       </c>
       <c r="E12" t="n">
-        <v>6.576641082763672</v>
+        <v>9.602319717407227</v>
       </c>
       <c r="F12" t="n">
-        <v>2.11371995346483</v>
+        <v>3.097858530430762</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04033604413919353</v>
+        <v>0.05736095865328333</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01043810463238515</v>
       </c>
       <c r="I12" t="n">
         <v>14.89295699401844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02820502146979863</v>
+        <v>0.09591300210792258</v>
       </c>
       <c r="K12" t="n">
-        <v>3.895385559497108</v>
+        <v>4.107407078615437</v>
       </c>
     </row>
     <row r="13">
@@ -888,34 +888,34 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3033764389869624</v>
+        <v>0.2204445502872545</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6800000000000012</v>
+        <v>3.969999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>6.982484734080437</v>
+        <v>8.253674551746993</v>
       </c>
       <c r="E13" t="n">
-        <v>9.681203842163086</v>
+        <v>10.23368358612061</v>
       </c>
       <c r="F13" t="n">
-        <v>7.105176277714366</v>
+        <v>6.367223183796982</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04033872193312613</v>
+        <v>0.05736098158169389</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01043643320894461</v>
       </c>
       <c r="I13" t="n">
         <v>5.711378463540446</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0484883973139889</v>
+        <v>0.09608065502596434</v>
       </c>
       <c r="K13" t="n">
-        <v>2.514823915359068</v>
+        <v>3.303491803647603</v>
       </c>
     </row>
     <row r="14">
@@ -923,34 +923,34 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2716389723484802</v>
+        <v>0.2208323602514781</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09000000000000057</v>
+        <v>0.8500000000000014</v>
       </c>
       <c r="D14" t="n">
-        <v>3.813615625367522</v>
+        <v>7.121139387091595</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7238388657569885</v>
+        <v>14.37446022033691</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3743595202593884</v>
+        <v>0.2719927438398778</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04033591373270362</v>
+        <v>0.05736100417314244</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01043477417704963</v>
       </c>
       <c r="I14" t="n">
         <v>-1.60226807134854</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03790830570102066</v>
+        <v>0.09620937953389007</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3976488821124872</v>
+        <v>2.388456807339662</v>
       </c>
     </row>
     <row r="15">
@@ -958,34 +958,34 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2538486363900283</v>
+        <v>0.2211382045529433</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9699999999999974</v>
+        <v>-0.6799999999999997</v>
       </c>
       <c r="D15" t="n">
-        <v>1.841554697869178</v>
+        <v>2.988194614863885</v>
       </c>
       <c r="E15" t="n">
-        <v>5.249192237854004</v>
+        <v>4.421060085296631</v>
       </c>
       <c r="F15" t="n">
-        <v>1.626632485596053</v>
+        <v>0.2469871346418367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04033538693551159</v>
+        <v>0.05736102651047903</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01043311137393488</v>
       </c>
       <c r="I15" t="n">
         <v>-4.662501863313551</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03197801811580601</v>
+        <v>0.09631078081245241</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4944974174519305</v>
+        <v>0.4388494707945533</v>
       </c>
     </row>
     <row r="16">
@@ -993,34 +993,34 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1213672574398323</v>
+        <v>0.2213570518461268</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.26</v>
+        <v>-2.849999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.451029252236701</v>
+        <v>-4.522987553826191</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.528318881988525</v>
+        <v>-6.916018009185791</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.220118290877013</v>
+        <v>-4.417880544748172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04032887946586783</v>
+        <v>0.05736104837789063</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01043144594870427</v>
       </c>
       <c r="I16" t="n">
         <v>-2.251321017877197</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.01218461069080723</v>
+        <v>0.09638318205757389</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.08069575685078</v>
+        <v>-1.897269234535932</v>
       </c>
     </row>
     <row r="17">
@@ -1028,34 +1028,34 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03328323358780239</v>
+        <v>0.2216223982830741</v>
       </c>
       <c r="C17" t="n">
-        <v>1.010000000000001</v>
+        <v>-0.8900000000000006</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.389191659022408</v>
+        <v>-5.51271382932108</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4850055277347565</v>
+        <v>11.07903099060059</v>
       </c>
       <c r="F17" t="n">
-        <v>1.878740659620688</v>
+        <v>-1.762660332824446</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04032863007525217</v>
+        <v>0.05736107091730394</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01042979690765122</v>
       </c>
       <c r="I17" t="n">
         <v>-5.87633098252242</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.04154603510502244</v>
+        <v>0.0964710887026764</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.923509868476053</v>
+        <v>-0.4000151495031863</v>
       </c>
     </row>
     <row r="18">
@@ -1063,34 +1063,34 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01413436960896064</v>
+        <v>0.2218875029406604</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.13</v>
+        <v>-3.439999999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.942902499794938</v>
+        <v>-6.595827745011652</v>
       </c>
       <c r="E18" t="n">
-        <v>2.434354782104492</v>
+        <v>2.912221193313599</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9820954364894451</v>
+        <v>0.5917612418236577</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04032848511410589</v>
+        <v>0.05736109316003507</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01042814809056836</v>
       </c>
       <c r="I18" t="n">
         <v>3.396424902465046</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.05735195115765887</v>
+        <v>0.09655891473042127</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.5508972862648828</v>
+        <v>-0.9300195332518147</v>
       </c>
     </row>
     <row r="19">
@@ -1098,34 +1098,34 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1502323113984652</v>
+        <v>0.2221837467605496</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.67</v>
+        <v>-8.830000000000002</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.786089699404199</v>
+        <v>-7.961872128057017</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.554773807525635</v>
+        <v>-3.412827491760254</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.869092991019381</v>
+        <v>-8.207805167027779</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04032140915429205</v>
+        <v>0.05736111510277869</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01042649943354945</v>
       </c>
       <c r="I19" t="n">
         <v>-19.95911042021941</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1027202904074316</v>
+        <v>0.09665712043229259</v>
       </c>
       <c r="K19" t="n">
-        <v>-5.235203055766013</v>
+        <v>-4.380645445537281</v>
       </c>
     </row>
     <row r="20">
@@ -1133,34 +1133,34 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.08849834653814881</v>
+        <v>0.2225821946046551</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.530000000000002</v>
+        <v>-3.97</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.01707669796208</v>
+        <v>-3.938514201613873</v>
       </c>
       <c r="E20" t="n">
-        <v>-12.2064905166626</v>
+        <v>-1.480825424194336</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.807746362106792</v>
+        <v>-6.974706459016934</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04032357805789699</v>
+        <v>0.05736113736355486</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.0104248612333393</v>
       </c>
       <c r="I20" t="n">
         <v>-16.22199223487049</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.08214157915279123</v>
+        <v>0.09678939773384976</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.507130932055122</v>
+        <v>-2.584441387426113</v>
       </c>
     </row>
     <row r="21">
@@ -1168,34 +1168,34 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03106537067274928</v>
+        <v>0.2230393579770009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2699999999999989</v>
+        <v>-1.540000000000002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5012001112213333</v>
+        <v>-0.1192085897255089</v>
       </c>
       <c r="E21" t="n">
-        <v>-9.638014793395996</v>
+        <v>-3.334112882614136</v>
       </c>
       <c r="F21" t="n">
-        <v>3.527187099159054</v>
+        <v>-2.343235032930321</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04032583045880403</v>
+        <v>0.05736115968160566</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01042322780635629</v>
       </c>
       <c r="I21" t="n">
         <v>-5.178337332600299</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.04228625594885618</v>
+        <v>0.09694124848832096</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.28435505104901</v>
+        <v>-0.9145060840158233</v>
       </c>
     </row>
     <row r="22">
@@ -1203,34 +1203,34 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01524795727864969</v>
+        <v>0.2235270852748101</v>
       </c>
       <c r="C22" t="n">
-        <v>2.719999999999998</v>
+        <v>4.970000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.542747402830031</v>
+        <v>2.130171006797716</v>
       </c>
       <c r="E22" t="n">
-        <v>5.184406757354736</v>
+        <v>7.984479904174805</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4012741268094889</v>
+        <v>6.018922298119082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04031957935627645</v>
+        <v>0.05736118153375377</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.0104215930979592</v>
       </c>
       <c r="I22" t="n">
         <v>2.58671694576185</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.04756081078106524</v>
+        <v>0.09710328663550771</v>
       </c>
       <c r="K22" t="n">
-        <v>1.211880439158313</v>
+        <v>2.102104026694041</v>
       </c>
     </row>
     <row r="23">
@@ -1238,34 +1238,34 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265331393113545</v>
+        <v>0.2241006350691634</v>
       </c>
       <c r="C23" t="n">
-        <v>10.43</v>
+        <v>7.280000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>9.804808631002267</v>
+        <v>10.87580677674121</v>
       </c>
       <c r="E23" t="n">
-        <v>14.21683788299561</v>
+        <v>22.16579627990723</v>
       </c>
       <c r="F23" t="n">
-        <v>22.09953719238687</v>
+        <v>21.4735022591953</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04032906473544806</v>
+        <v>0.05736120414859647</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01041997623275392</v>
       </c>
       <c r="I23" t="n">
         <v>31.145832663474</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03580349629029041</v>
+        <v>0.09729393848350461</v>
       </c>
       <c r="K23" t="n">
-        <v>6.825982031674129</v>
+        <v>7.379485480309889</v>
       </c>
     </row>
     <row r="24">
@@ -1273,34 +1273,34 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.214513534491001</v>
+        <v>0.2245478293088183</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>5.641595509422597</v>
+        <v>6.904109248309029</v>
       </c>
       <c r="E24" t="n">
-        <v>4.074631214141846</v>
+        <v>4.471473217010498</v>
       </c>
       <c r="F24" t="n">
-        <v>6.409602887657454</v>
+        <v>6.759775261574712</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04031910189201707</v>
+        <v>0.05736122551867437</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01041834372604455</v>
       </c>
       <c r="I24" t="n">
         <v>14.01164184239214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01886088913496539</v>
+        <v>0.09744246618451242</v>
       </c>
       <c r="K24" t="n">
-        <v>3.550835333912856</v>
+        <v>3.96594912732716</v>
       </c>
     </row>
     <row r="25">
@@ -1308,34 +1308,34 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3012266297463029</v>
+        <v>0.2250024160987891</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.6800000000000012</v>
+        <v>3.969999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>6.805306048395622</v>
+        <v>8.018089681937507</v>
       </c>
       <c r="E25" t="n">
-        <v>14.33363723754883</v>
+        <v>16.07535552978516</v>
       </c>
       <c r="F25" t="n">
-        <v>4.175659467454291</v>
+        <v>5.576060412902489</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04032116480616169</v>
+        <v>0.05736124753107147</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1982499689781219</v>
+        <v>0.01041672700257124</v>
       </c>
       <c r="I25" t="n">
         <v>6.4326990920262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04776594185811423</v>
+        <v>0.09759346354414394</v>
       </c>
       <c r="K25" t="n">
-        <v>3.025443964833644</v>
+        <v>3.823662190111222</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1545,32 +1545,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>16.27486146419729</v>
+        <v>16.26947225343302</v>
       </c>
       <c r="J2" t="n">
-        <v>1.024177861813716</v>
+        <v>1.006104198063623</v>
       </c>
       <c r="K2" t="n">
-        <v>12.37153183005262</v>
+        <v>12.36789597267848</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06529386526047642</v>
+        <v>-0.06458846538547647</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.02922014674986896</v>
+        <v>-0.00737566899760278</v>
       </c>
       <c r="N2" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O2" t="n">
-        <v>16.95529528308837</v>
+        <v>16.9554740927191</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>12.63635632837686</v>
+        <v>12.63620530149808</v>
       </c>
       <c r="R2" t="n">
-        <v>7.005210190724753e-05</v>
+        <v>4.896157596201434e-05</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -1581,23 +1581,23 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>9.896325926159271</v>
+        <v>9.899292150599054</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>32.95751822400509</v>
+        <v>32.8198067136006</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2371775594032087</v>
+        <v>0.2360449453356454</v>
       </c>
       <c r="AB2" t="n">
-        <v>30.68987594381121</v>
+        <v>30.5479427338469</v>
       </c>
       <c r="AC2" t="n">
-        <v>-6.551344701829288</v>
+        <v>-6.488370634735669</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1624,7 +1624,11 @@
           <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
@@ -1635,32 +1639,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>16.34843536589629</v>
+        <v>16.27955076943286</v>
       </c>
       <c r="J3" t="n">
-        <v>1.262176382863076</v>
+        <v>1.039807053647507</v>
       </c>
       <c r="K3" t="n">
-        <v>12.4194649293866</v>
+        <v>12.37468318691936</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.07494740215128548</v>
+        <v>-0.06590784379298587</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809916354221855</v>
       </c>
       <c r="N3" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O3" t="n">
-        <v>16.88129871136112</v>
+        <v>16.84597877025111</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>12.62765678896847</v>
+        <v>12.46165214367573</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008778827700041791</v>
+        <v>0.01292225875724395</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -1671,23 +1675,23 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>9.86619292607438</v>
+        <v>9.875535778025739</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>34.78956989552181</v>
+        <v>33.07680015815105</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.252094076496653</v>
+        <v>0.2381572428865664</v>
       </c>
       <c r="AB3" t="n">
-        <v>32.55913224607754</v>
+        <v>30.81264434049505</v>
       </c>
       <c r="AC3" t="n">
-        <v>-7.414211275235948</v>
+        <v>-6.606104225958601</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -1706,7 +1710,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1747,14 +1751,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O4" t="n">
-        <v>9.877319723476916</v>
+        <v>9.884424914093533</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>7.780374331550801</v>
+        <v>7.739625668449198</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6606584148081278</v>
+        <v>0.6601700325516441</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1765,7 +1769,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>13.2378585881554</v>
+        <v>13.27025872644036</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -1800,7 +1804,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1823,32 +1827,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>15.42075113490896</v>
+        <v>15.42743090957689</v>
       </c>
       <c r="J5" t="n">
-        <v>2.657400072473664</v>
+        <v>2.663201748036615</v>
       </c>
       <c r="K5" t="n">
-        <v>12.5487957877661</v>
+        <v>12.55213186407106</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04358609390625057</v>
+        <v>0.04275733880856225</v>
       </c>
       <c r="M5" t="n">
-        <v>5.845188192714248</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="N5" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O5" t="n">
-        <v>12.28223656853483</v>
+        <v>13.18354951791877</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>9.358879952013057</v>
+        <v>10.0775715972081</v>
       </c>
       <c r="R5" t="n">
-        <v>0.475296722849473</v>
+        <v>0.3954620485378314</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -1859,23 +1863,23 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>13.29686695451541</v>
+        <v>13.2846482085337</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>53.04884907162774</v>
+        <v>53.02427216351563</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4045486513912218</v>
+        <v>0.4043486804474548</v>
       </c>
       <c r="AB5" t="n">
-        <v>50.95641349041542</v>
+        <v>50.93445481629846</v>
       </c>
       <c r="AC5" t="n">
-        <v>-18.56443117657846</v>
+        <v>-18.54630743389545</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -1972,22 +1976,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 6}</t>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2005,32 +2009,32 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>19.79332181354709</v>
+        <v>21.06197997743615</v>
       </c>
       <c r="J7" t="n">
-        <v>9.23855019628739</v>
+        <v>20.11698222824358</v>
       </c>
       <c r="K7" t="n">
-        <v>16.58078294222554</v>
+        <v>17.02514355323607</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5756951445133027</v>
+        <v>-0.7841576084376995</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1256728619337082</v>
+        <v>11.34969547006599</v>
       </c>
       <c r="N7" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1923112874034469</v>
+        <v>9.188692269750597</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.1347680426765488</v>
+        <v>7.272076459174254</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9998713622571993</v>
+        <v>0.7063254750393902</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2041,23 +2045,23 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>16.75987622632614</v>
+        <v>31.46486536611224</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>60.60396004737298</v>
+        <v>124.3549810331123</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4747574336685856</v>
+        <v>0.9503439435753235</v>
       </c>
       <c r="AB7" t="n">
-        <v>59.66972966616353</v>
+        <v>118.1839292561576</v>
       </c>
       <c r="AC7" t="n">
-        <v>-24.53390862701059</v>
+        <v>-106.5082183494286</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2066,31 +2070,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'n_estimators': 100}</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -2099,59 +2095,59 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>18.0759319602418</v>
+        <v>37.87194001154627</v>
       </c>
       <c r="J8" t="n">
-        <v>6.686094738916814</v>
+        <v>37.07611105880307</v>
       </c>
       <c r="K8" t="n">
-        <v>14.59306674706519</v>
+        <v>33.69992908657089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3141236190611112</v>
+        <v>-4.768593423756861</v>
       </c>
       <c r="M8" t="n">
-        <v>-17.40250205416364</v>
+        <v>64.55053398717999</v>
       </c>
       <c r="N8" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O8" t="n">
-        <v>6.883727806336818</v>
+        <v>12.55352081424406</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>5.501769252587492</v>
+        <v>9.460415749372993</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8351813930694365</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>28.81914258558427</v>
-      </c>
+        <v>0.4518619448982958</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>(0.17442022582145306, 0.17424574603116297, 0.1740124278969286, 0.14948752423562023, 0.1493818400108809, 0.08785217349854554, 0.07474367833982214, 0.015856384165586643)</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>81.6955762236182</v>
+        <v>167.5624775387293</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.636647504490288</v>
+        <v>0.9803084558049076</v>
       </c>
       <c r="AB8" t="n">
-        <v>78.80295228005168</v>
+        <v>124.4419168747899</v>
       </c>
       <c r="AC8" t="n">
-        <v>-45.39940101622627</v>
+        <v>-194.1950678100956</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2160,23 +2156,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>{'max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2185,59 +2189,59 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>38.28211396801102</v>
+        <v>25.0222863676995</v>
       </c>
       <c r="J9" t="n">
-        <v>39.07796121045143</v>
+        <v>14.22695694111434</v>
       </c>
       <c r="K9" t="n">
-        <v>33.97943467804109</v>
+        <v>18.04098762522142</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.894224168571751</v>
+        <v>-1.518191799548848</v>
       </c>
       <c r="M9" t="n">
-        <v>61.56630042375202</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="N9" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O9" t="n">
-        <v>11.55781760335779</v>
+        <v>2.718626345104153</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>8.74570903130159</v>
+        <v>2.049073522538445</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5353664846751792</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+        <v>0.974292614933202</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>21.66224700979679</v>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>(0.17315003926290512, 0.17289977693907205, 0.172150542193612, 0.14514748786067583, 0.14465740818559392, 0.11589622458697342, 0.060357608310903504, 0.015740912660264103)</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>173.2115384169229</v>
+        <v>151.1966384040152</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.023184527605139</v>
+        <v>1.169240937260311</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.6830210047577</v>
+        <v>145.2035909965634</v>
       </c>
       <c r="AC9" t="n">
-        <v>-207.5782078031898</v>
+        <v>-157.9276876056396</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2271,32 +2275,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>72.2626664753393</v>
+        <v>71.95208515224566</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40151108897503</v>
+        <v>75.2296106947004</v>
       </c>
       <c r="K10" t="n">
-        <v>63.49944777096903</v>
+        <v>63.29708858611358</v>
       </c>
       <c r="L10" t="n">
-        <v>-20.00210333468969</v>
+        <v>-19.82195931582635</v>
       </c>
       <c r="M10" t="n">
-        <v>117.5311628581442</v>
+        <v>116.4682541642171</v>
       </c>
       <c r="N10" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O10" t="n">
-        <v>15.93124503630279</v>
+        <v>16.81533708614794</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>11.89768119798214</v>
+        <v>12.48473562670357</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1172081897424927</v>
+        <v>0.01650984690415913</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2310,16 +2314,16 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>375.1417037317563</v>
+        <v>374.7517932853619</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.268065499590243</v>
+        <v>2.26839187008517</v>
       </c>
       <c r="AB10" t="n">
-        <v>286.7492583911578</v>
+        <v>286.7379380691132</v>
       </c>
       <c r="AC10" t="n">
-        <v>-977.3764408465198</v>
+        <v>-975.3437105886887</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2338,7 +2342,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR24', 'AR36', 'AR48', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2361,32 +2365,32 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>218.263958293221</v>
+        <v>217.0336818415347</v>
       </c>
       <c r="J11" t="n">
-        <v>226.6470563284643</v>
+        <v>225.8545926540662</v>
       </c>
       <c r="K11" t="n">
-        <v>193.5639180765999</v>
+        <v>192.7137544686111</v>
       </c>
       <c r="L11" t="n">
-        <v>-190.6014887445869</v>
+        <v>-188.4475971110156</v>
       </c>
       <c r="M11" t="n">
-        <v>352.9394982975019</v>
+        <v>349.4602373251911</v>
       </c>
       <c r="N11" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>15.13788421837133</v>
+        <v>16.76625713139039</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>11.33331456904419</v>
+        <v>12.47334348929998</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2029432959818519</v>
+        <v>0.02224261433850983</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -2397,23 +2401,23 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>9.98653802961441</v>
+        <v>9.931059683765882</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1178.755358452028</v>
+        <v>1175.524869903586</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.221606500117882</v>
+        <v>7.208798487349953</v>
       </c>
       <c r="AB11" t="n">
-        <v>914.414090973331</v>
+        <v>912.6616200652517</v>
       </c>
       <c r="AC11" t="n">
-        <v>-9658.678084092709</v>
+        <v>-9605.804146423794</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -12184,7 +12188,7 @@
         <v>44348</v>
       </c>
       <c r="B750" t="n">
-        <v>0.04035482659070674</v>
+        <v>0.05736073044085715</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
@@ -12197,7 +12201,7 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>0.04034809566660941</v>
+        <v>0.05736075353193865</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -12210,7 +12214,7 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>0.04034606109713276</v>
+        <v>0.05736077672247356</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -12223,7 +12227,7 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>0.04034450389727037</v>
+        <v>0.05736079955622139</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -12236,7 +12240,7 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>0.04034457461035795</v>
+        <v>0.05736082262103534</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -12249,7 +12253,7 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>0.04033231297911974</v>
+        <v>0.05736084520583001</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -12262,7 +12266,7 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>0.04033663944658344</v>
+        <v>0.05736086823162573</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -12275,7 +12279,7 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>0.04034213664181832</v>
+        <v>0.05736089117605603</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -12288,7 +12292,7 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>0.04033911400663104</v>
+        <v>0.05736091370560825</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -12301,7 +12305,7 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>0.04034648640096908</v>
+        <v>0.05736093641877565</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -12314,7 +12318,7 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>0.04033604413919353</v>
+        <v>0.05736095865328333</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -12327,7 +12331,7 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>0.04033872193312613</v>
+        <v>0.05736098158169389</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -12340,7 +12344,7 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>0.04033591373270362</v>
+        <v>0.05736100417314244</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -12353,7 +12357,7 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>0.04033538693551159</v>
+        <v>0.05736102651047903</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -12366,7 +12370,7 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>0.04032887946586783</v>
+        <v>0.05736104837789063</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -12379,7 +12383,7 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>0.04032863007525217</v>
+        <v>0.05736107091730394</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -12392,7 +12396,7 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>0.04032848511410589</v>
+        <v>0.05736109316003507</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -12405,7 +12409,7 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>0.04032140915429205</v>
+        <v>0.05736111510277869</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -12418,7 +12422,7 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>0.04032357805789699</v>
+        <v>0.05736113736355486</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -12431,7 +12435,7 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>0.04032583045880403</v>
+        <v>0.05736115968160566</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -12444,7 +12448,7 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>0.04031957935627645</v>
+        <v>0.05736118153375377</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -12457,7 +12461,7 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>0.04032906473544806</v>
+        <v>0.05736120414859647</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -12470,7 +12474,7 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>0.04031910189201707</v>
+        <v>0.05736122551867437</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -12483,7 +12487,7 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>0.04032116480616169</v>
+        <v>0.05736124753107147</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -12548,17 +12552,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -12580,34 +12584,34 @@
         <v>23.7</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0292021609271421</v>
+        <v>-0.007375873338697048</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809911194152505</v>
       </c>
       <c r="E2" t="n">
         <v>-0.8599999999999994</v>
       </c>
       <c r="F2" t="n">
-        <v>2.848584471010339</v>
+        <v>2.8267494407946</v>
       </c>
       <c r="G2" t="n">
         <v>1.587815545947298</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.96530723571777</v>
+        <v>-27.71033537299975</v>
       </c>
       <c r="I2" t="n">
-        <v>-16.77290326911425</v>
+        <v>2.935657734541286</v>
       </c>
       <c r="J2" t="n">
-        <v>4.590546863247835</v>
+        <v>-44.91608810424805</v>
       </c>
       <c r="K2" t="n">
-        <v>13.1391417985265</v>
+        <v>13.23402760254975</v>
       </c>
       <c r="L2" t="n">
-        <v>39.76341713282626</v>
+        <v>39.75755779292946</v>
       </c>
     </row>
     <row r="3">
@@ -12618,34 +12622,34 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0292062523670862</v>
+        <v>-0.007375855225168926</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809911685291013</v>
       </c>
       <c r="E3" t="n">
         <v>-1.689999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.269876754262278</v>
+        <v>-1.25990846321783</v>
       </c>
       <c r="G3" t="n">
         <v>-7.959959197072622</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8769826889038086</v>
+        <v>5.965370706642035</v>
       </c>
       <c r="I3" t="n">
-        <v>9.62371381343312</v>
+        <v>11.11001424876348</v>
       </c>
       <c r="J3" t="n">
-        <v>10.94425775379112</v>
+        <v>0.4673192203044891</v>
       </c>
       <c r="K3" t="n">
-        <v>22.85633162288447</v>
+        <v>23.00638236204064</v>
       </c>
       <c r="L3" t="n">
-        <v>68.91499069734013</v>
+        <v>69.07462205819999</v>
       </c>
     </row>
     <row r="4">
@@ -12656,34 +12660,34 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02920880403160196</v>
+        <v>-0.007375836261387075</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.0480991214922426</v>
       </c>
       <c r="E4" t="n">
         <v>-3.580000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.436140635040127</v>
+        <v>-5.432123017413437</v>
       </c>
       <c r="G4" t="n">
         <v>-1.055784006481534</v>
       </c>
       <c r="H4" t="n">
-        <v>5.692280769348145</v>
+        <v>-33.89168947173455</v>
       </c>
       <c r="I4" t="n">
-        <v>-27.95543657499028</v>
+        <v>12.04893262810423</v>
       </c>
       <c r="J4" t="n">
-        <v>15.66130325637577</v>
+        <v>-34.81304550170898</v>
       </c>
       <c r="K4" t="n">
-        <v>32.55232776803148</v>
+        <v>32.69937781688039</v>
       </c>
       <c r="L4" t="n">
-        <v>98.00298168444567</v>
+        <v>98.15360840839479</v>
       </c>
     </row>
     <row r="5">
@@ -12694,34 +12698,34 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02921086706394328</v>
+        <v>-0.007375817663049955</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809912623593959</v>
       </c>
       <c r="E5" t="n">
         <v>-4.07</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.513959436443164</v>
+        <v>-8.518268860255077</v>
       </c>
       <c r="G5" t="n">
         <v>-8.630738391978978</v>
       </c>
       <c r="H5" t="n">
-        <v>-16.39287757873535</v>
+        <v>5.965370706642035</v>
       </c>
       <c r="I5" t="n">
-        <v>5.429520207704737</v>
+        <v>19.17216876657948</v>
       </c>
       <c r="J5" t="n">
-        <v>17.61728316603944</v>
+        <v>-5.528274059295654</v>
       </c>
       <c r="K5" t="n">
-        <v>42.16332350956218</v>
+        <v>42.31355596315203</v>
       </c>
       <c r="L5" t="n">
-        <v>126.8359709720701</v>
+        <v>126.9961428333551</v>
       </c>
     </row>
     <row r="6">
@@ -12732,34 +12736,34 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02921119525329503</v>
+        <v>-0.007375798802678496</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809913096005403</v>
       </c>
       <c r="E6" t="n">
         <v>-2.1</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.690484084929139</v>
+        <v>-9.693335279169055</v>
       </c>
       <c r="G6" t="n">
         <v>6.219259606631341</v>
       </c>
       <c r="H6" t="n">
-        <v>15.77884387969971</v>
+        <v>-17.1466559755987</v>
       </c>
       <c r="I6" t="n">
-        <v>0.668147030070209</v>
+        <v>25.78389924357493</v>
       </c>
       <c r="J6" t="n">
-        <v>27.22199555793512</v>
+        <v>3.249172687530518</v>
       </c>
       <c r="K6" t="n">
-        <v>51.7267008606786</v>
+        <v>51.84962880556075</v>
       </c>
       <c r="L6" t="n">
-        <v>155.5261033536087</v>
+        <v>155.604361346445</v>
       </c>
     </row>
     <row r="7">
@@ -12770,34 +12774,34 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02922451248869616</v>
+        <v>-0.007375780441514823</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809913558452195</v>
       </c>
       <c r="E7" t="n">
         <v>-0.8599999999999994</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.77041636660026</v>
+        <v>-8.71427971686551</v>
       </c>
       <c r="G7" t="n">
         <v>-23.94145339002803</v>
       </c>
       <c r="H7" t="n">
-        <v>-26.39239501953125</v>
+        <v>-25.33730238347032</v>
       </c>
       <c r="I7" t="n">
-        <v>-35.47401942294096</v>
+        <v>24.60131068791674</v>
       </c>
       <c r="J7" t="n">
-        <v>25.149833060826</v>
+        <v>-43.05313110351562</v>
       </c>
       <c r="K7" t="n">
-        <v>61.19822989876703</v>
+        <v>61.30824151377726</v>
       </c>
       <c r="L7" t="n">
-        <v>183.9407037851094</v>
+        <v>183.9801994573578</v>
       </c>
     </row>
     <row r="8">
@@ -12808,34 +12812,34 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02922037133183243</v>
+        <v>-0.007375761592573055</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809914031491758</v>
       </c>
       <c r="E8" t="n">
         <v>-4.710000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.771212071970075</v>
+        <v>-5.713143583858779</v>
       </c>
       <c r="G8" t="n">
         <v>-14.61555631537004</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.030478477478027</v>
+        <v>-27.21879605789746</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.59896145606132</v>
+        <v>31.77982313122597</v>
       </c>
       <c r="J8" t="n">
-        <v>33.24902514652634</v>
+        <v>-23.2375316619873</v>
       </c>
       <c r="K8" t="n">
-        <v>70.69404420619576</v>
+        <v>70.69006668635764</v>
       </c>
       <c r="L8" t="n">
-        <v>212.4281425662387</v>
+        <v>212.1256749609804</v>
       </c>
     </row>
     <row r="9">
@@ -12846,34 +12850,34 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02921492604702407</v>
+        <v>-0.007375742787818884</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809914497758427</v>
       </c>
       <c r="E9" t="n">
         <v>-2.110000000000002</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.591178381139676</v>
+        <v>-1.600234497656915</v>
       </c>
       <c r="G9" t="n">
         <v>-3.381508413584601</v>
       </c>
       <c r="H9" t="n">
-        <v>9.357422828674316</v>
+        <v>-21.76376259233572</v>
       </c>
       <c r="I9" t="n">
-        <v>-5.885986106142737</v>
+        <v>39.31216045396098</v>
       </c>
       <c r="J9" t="n">
-        <v>41.6572716826302</v>
+        <v>-14.75483417510986</v>
       </c>
       <c r="K9" t="n">
-        <v>80.17460994682106</v>
+        <v>79.99568795891588</v>
       </c>
       <c r="L9" t="n">
-        <v>240.8698343428298</v>
+        <v>240.042538764513</v>
       </c>
     </row>
     <row r="10">
@@ -12884,34 +12888,34 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02921850878559713</v>
+        <v>-0.007375724439957848</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809914958775607</v>
       </c>
       <c r="E10" t="n">
         <v>3.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.532773871311278</v>
+        <v>2.526288989634081</v>
       </c>
       <c r="G10" t="n">
         <v>3.370442030314115</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.152265548706055</v>
+        <v>3.726243676336817</v>
       </c>
       <c r="I10" t="n">
-        <v>1.213749428228593</v>
+        <v>46.48753604476234</v>
       </c>
       <c r="J10" t="n">
-        <v>47.06524156355783</v>
+        <v>-14.32335090637207</v>
       </c>
       <c r="K10" t="n">
-        <v>89.57591252925579</v>
+        <v>89.22571353247412</v>
       </c>
       <c r="L10" t="n">
-        <v>269.0737456728726</v>
+        <v>267.7326154714501</v>
       </c>
     </row>
     <row r="11">
@@ -12922,34 +12926,34 @@
         <v>38.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02921116056711577</v>
+        <v>-0.007375705880088484</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809915435495782</v>
       </c>
       <c r="E11" t="n">
         <v>4.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5.717317781270998</v>
+        <v>5.676287313735113</v>
       </c>
       <c r="G11" t="n">
         <v>27.46181632388767</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816100120544434</v>
+        <v>28.65212088613022</v>
       </c>
       <c r="I11" t="n">
-        <v>34.8120481104048</v>
+        <v>58.34027627972959</v>
       </c>
       <c r="J11" t="n">
-        <v>55.97287065754316</v>
+        <v>33.28797149658203</v>
       </c>
       <c r="K11" t="n">
-        <v>98.98470461047357</v>
+        <v>98.38078000058397</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3001145683075</v>
+        <v>295.197814861987</v>
       </c>
     </row>
     <row r="12">
@@ -12960,34 +12964,34 @@
         <v>-4.799999999999983</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02922255170620079</v>
+        <v>-0.007375687817907484</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809915885337546</v>
       </c>
       <c r="E12" t="n">
         <v>1.189999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>6.833712299773604</v>
+        <v>6.788896817895228</v>
       </c>
       <c r="G12" t="n">
         <v>16.03008585566835</v>
       </c>
       <c r="H12" t="n">
-        <v>5.376845359802246</v>
+        <v>-12.8093625245237</v>
       </c>
       <c r="I12" t="n">
-        <v>16.28763139934393</v>
+        <v>57.16817979912119</v>
       </c>
       <c r="J12" t="n">
-        <v>58.92689623834615</v>
+        <v>-12.72276592254639</v>
       </c>
       <c r="K12" t="n">
-        <v>108.2751672393408</v>
+        <v>107.4614018319529</v>
       </c>
       <c r="L12" t="n">
-        <v>325.1715138460481</v>
+        <v>322.4396803425299</v>
       </c>
     </row>
     <row r="13">
@@ -12998,34 +13002,34 @@
         <v>7.299999999999983</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02922014674986896</v>
+        <v>-0.00737566899760278</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3167895763196253</v>
+        <v>-0.04809916354221855</v>
       </c>
       <c r="E13" t="n">
         <v>-0.05</v>
       </c>
       <c r="F13" t="n">
-        <v>5.845188192714248</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="G13" t="n">
         <v>4.780715763185643</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1256728619337082</v>
+        <v>11.34969547006599</v>
       </c>
       <c r="I13" t="n">
-        <v>-17.40250205416364</v>
+        <v>64.55053398717999</v>
       </c>
       <c r="J13" t="n">
-        <v>61.56630042375202</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="K13" t="n">
-        <v>117.5311628581442</v>
+        <v>116.4682541642171</v>
       </c>
       <c r="L13" t="n">
-        <v>352.9394982975019</v>
+        <v>349.4602373251911</v>
       </c>
     </row>
   </sheetData>
@@ -13080,17 +13084,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -13109,34 +13113,34 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>143.1403548265907</v>
+        <v>143.1573607304408</v>
       </c>
       <c r="C2" t="n">
-        <v>142.9017500310219</v>
+        <v>143.1104550530354</v>
       </c>
       <c r="D2" t="n">
-        <v>143.9</v>
+        <v>142.75</v>
       </c>
       <c r="E2" t="n">
-        <v>148.1558162393911</v>
+        <v>149.0503341460492</v>
       </c>
       <c r="F2" t="n">
         <v>143.4460532910052</v>
       </c>
       <c r="G2" t="n">
-        <v>141.3906401157379</v>
+        <v>145.9189219880587</v>
       </c>
       <c r="H2" t="n">
-        <v>147.0891263888361</v>
+        <v>144.2853958024139</v>
       </c>
       <c r="I2" t="n">
-        <v>143.8447311360738</v>
+        <v>145.705320930481</v>
       </c>
       <c r="J2" t="n">
-        <v>143.1229425268952</v>
+        <v>143.1945921199967</v>
       </c>
       <c r="K2" t="n">
-        <v>143.3267227230729</v>
+        <v>143.315960576514</v>
       </c>
     </row>
     <row r="3">
@@ -13144,34 +13148,34 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>143.1807029222573</v>
+        <v>143.2147214839728</v>
       </c>
       <c r="C3" t="n">
-        <v>142.7035000620437</v>
+        <v>143.1209083985933</v>
       </c>
       <c r="D3" t="n">
-        <v>145.09</v>
+        <v>142.76</v>
       </c>
       <c r="E3" t="n">
-        <v>148.0945783076263</v>
+        <v>150.9613780029637</v>
       </c>
       <c r="F3" t="n">
         <v>137.6807782039508</v>
       </c>
       <c r="G3" t="n">
-        <v>157.2209032535553</v>
+        <v>147.1464730686471</v>
       </c>
       <c r="H3" t="n">
-        <v>150.7010520929474</v>
+        <v>145.4044384071451</v>
       </c>
       <c r="I3" t="n">
-        <v>145.5448965712972</v>
+        <v>159.297060585022</v>
       </c>
       <c r="J3" t="n">
-        <v>143.1092371616042</v>
+        <v>143.289306256405</v>
       </c>
       <c r="K3" t="n">
-        <v>143.4435085005116</v>
+        <v>143.532288886649</v>
       </c>
     </row>
     <row r="4">
@@ -13179,34 +13183,34 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>143.2210489833545</v>
+        <v>143.2720822606953</v>
       </c>
       <c r="C4" t="n">
-        <v>142.5052500930656</v>
+        <v>143.1313600440695</v>
       </c>
       <c r="D4" t="n">
-        <v>141.6</v>
+        <v>139.91</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2253731957141</v>
+        <v>147.8047795077601</v>
       </c>
       <c r="F4" t="n">
         <v>135.6204670411221</v>
       </c>
       <c r="G4" t="n">
-        <v>143.945605134964</v>
+        <v>144.6668564012198</v>
       </c>
       <c r="H4" t="n">
-        <v>140.4247187931373</v>
+        <v>143.7504444106758</v>
       </c>
       <c r="I4" t="n">
-        <v>142.6457161997336</v>
+        <v>152.3237157821655</v>
       </c>
       <c r="J4" t="n">
-        <v>143.0936165644779</v>
+        <v>143.3841323959383</v>
       </c>
       <c r="K4" t="n">
-        <v>143.5545506170137</v>
+        <v>143.7489548830501</v>
       </c>
     </row>
     <row r="5">
@@ -13214,34 +13218,34 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>143.2613934872517</v>
+        <v>143.3294430602515</v>
       </c>
       <c r="C5" t="n">
-        <v>142.3070001240875</v>
+        <v>143.14180996588</v>
       </c>
       <c r="D5" t="n">
-        <v>144.25</v>
+        <v>139.94</v>
       </c>
       <c r="E5" t="n">
-        <v>139.9672933490295</v>
+        <v>142.1378858070531</v>
       </c>
       <c r="F5" t="n">
         <v>128.6228113730772</v>
       </c>
       <c r="G5" t="n">
-        <v>150.7067063808441</v>
+        <v>143.084990109181</v>
       </c>
       <c r="H5" t="n">
-        <v>145.1530277349628</v>
+        <v>142.8825172252101</v>
       </c>
       <c r="I5" t="n">
-        <v>142.8280181094187</v>
+        <v>157.703982925415</v>
       </c>
       <c r="J5" t="n">
-        <v>143.0512883745403</v>
+        <v>143.4790424631207</v>
       </c>
       <c r="K5" t="n">
-        <v>143.5854715122817</v>
+        <v>143.9658743632307</v>
       </c>
     </row>
     <row r="6">
@@ -13249,34 +13253,34 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>143.3017380618621</v>
+        <v>143.3868038828725</v>
       </c>
       <c r="C6" t="n">
-        <v>142.1087501551093</v>
+        <v>143.15225818443</v>
       </c>
       <c r="D6" t="n">
-        <v>142.97</v>
+        <v>136.5</v>
       </c>
       <c r="E6" t="n">
-        <v>135.7063766064195</v>
+        <v>136.3738032577548</v>
       </c>
       <c r="F6" t="n">
         <v>133.33233769353</v>
       </c>
       <c r="G6" t="n">
-        <v>154.6596854686737</v>
+        <v>143.6767513510047</v>
       </c>
       <c r="H6" t="n">
-        <v>143.6267736866126</v>
+        <v>142.4973744569716</v>
       </c>
       <c r="I6" t="n">
-        <v>142.7187754475862</v>
+        <v>164.296150302887</v>
       </c>
       <c r="J6" t="n">
-        <v>143.0023404259981</v>
+        <v>143.5740532671338</v>
       </c>
       <c r="K6" t="n">
-        <v>143.5965330610228</v>
+        <v>144.1830977340987</v>
       </c>
     </row>
     <row r="7">
@@ -13284,34 +13288,34 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>143.3420703748412</v>
+        <v>143.4441647280784</v>
       </c>
       <c r="C7" t="n">
-        <v>141.9105001861312</v>
+        <v>143.1627047138545</v>
       </c>
       <c r="D7" t="n">
-        <v>138.8</v>
+        <v>129.4</v>
       </c>
       <c r="E7" t="n">
-        <v>124.8544518308417</v>
+        <v>128.0176800408655</v>
       </c>
       <c r="F7" t="n">
         <v>111.701684757198</v>
       </c>
       <c r="G7" t="n">
-        <v>145.5077117443085</v>
+        <v>133.7796136757356</v>
       </c>
       <c r="H7" t="n">
-        <v>135.3906307554457</v>
+        <v>137.7592531188095</v>
       </c>
       <c r="I7" t="n">
-        <v>137.9951800756524</v>
+        <v>156.277161693573</v>
       </c>
       <c r="J7" t="n">
-        <v>142.9007761846404</v>
+        <v>143.6691584724911</v>
       </c>
       <c r="K7" t="n">
-        <v>143.4497579929485</v>
+        <v>144.4006059755406</v>
       </c>
     </row>
     <row r="8">
@@ -13319,34 +13323,34 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>143.3824070142878</v>
+        <v>143.50152559631</v>
       </c>
       <c r="C8" t="n">
-        <v>141.7122502171531</v>
+        <v>143.173149547406</v>
       </c>
       <c r="D8" t="n">
-        <v>134.41</v>
+        <v>125.43</v>
       </c>
       <c r="E8" t="n">
-        <v>119.5766210464373</v>
+        <v>124.815363933563</v>
       </c>
       <c r="F8" t="n">
         <v>96.58001679174382</v>
       </c>
       <c r="G8" t="n">
-        <v>143.8016214132309</v>
+        <v>126.8049072167186</v>
       </c>
       <c r="H8" t="n">
-        <v>128.4189969580097</v>
+        <v>134.8833284252625</v>
       </c>
       <c r="I8" t="n">
-        <v>135.3291824889013</v>
+        <v>149.2996521949768</v>
       </c>
       <c r="J8" t="n">
-        <v>142.81368604296</v>
+        <v>143.7644066384771</v>
       </c>
       <c r="K8" t="n">
-        <v>143.346400897439</v>
+        <v>144.6185447717152</v>
       </c>
     </row>
     <row r="9">
@@ -13354,34 +13358,34 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>143.4227491509296</v>
+        <v>143.558886487486</v>
       </c>
       <c r="C9" t="n">
-        <v>141.5140002481749</v>
+        <v>143.1835926930481</v>
       </c>
       <c r="D9" t="n">
-        <v>136.3</v>
+        <v>123.89</v>
       </c>
       <c r="E9" t="n">
-        <v>119.5183143825591</v>
+        <v>125.0801061097166</v>
       </c>
       <c r="F9" t="n">
         <v>92.41477750569589</v>
       </c>
       <c r="G9" t="n">
-        <v>137.7978672742844</v>
+        <v>124.4616721837883</v>
       </c>
       <c r="H9" t="n">
-        <v>125.4388768920815</v>
+        <v>133.6802869080507</v>
       </c>
       <c r="I9" t="n">
-        <v>134.5759984900304</v>
+        <v>141.1755457878113</v>
       </c>
       <c r="J9" t="n">
-        <v>142.7656966376271</v>
+        <v>143.8598115111089</v>
       </c>
       <c r="K9" t="n">
-        <v>143.3603405137765</v>
+        <v>144.8369553527925</v>
       </c>
     </row>
     <row r="10">
@@ -13389,34 +13393,34 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>143.4630882649362</v>
+        <v>143.6162474011917</v>
       </c>
       <c r="C10" t="n">
-        <v>141.3157502791968</v>
+        <v>143.1940341612934</v>
       </c>
       <c r="D10" t="n">
-        <v>136.87</v>
+        <v>128.02</v>
       </c>
       <c r="E10" t="n">
-        <v>120.9184886092645</v>
+        <v>126.7450284697335</v>
       </c>
       <c r="F10" t="n">
         <v>95.11437375975241</v>
       </c>
       <c r="G10" t="n">
-        <v>138.228583997488</v>
+        <v>127.4092165726565</v>
       </c>
       <c r="H10" t="n">
-        <v>129.7331962464304</v>
+        <v>135.999798118362</v>
       </c>
       <c r="I10" t="n">
-        <v>135.1207237952656</v>
+        <v>154.3225756645203</v>
       </c>
       <c r="J10" t="n">
-        <v>142.725339456244</v>
+        <v>143.9553806013962</v>
       </c>
       <c r="K10" t="n">
-        <v>143.3971798245989</v>
+        <v>145.0558602417034</v>
       </c>
     </row>
     <row r="11">
@@ -13424,34 +13428,34 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>143.5034347513372</v>
+        <v>143.6736083376104</v>
       </c>
       <c r="C11" t="n">
-        <v>141.1175003102187</v>
+        <v>143.2044739176669</v>
       </c>
       <c r="D11" t="n">
-        <v>149.37</v>
+        <v>136.04</v>
       </c>
       <c r="E11" t="n">
-        <v>130.9665357366139</v>
+        <v>136.0427490941574</v>
       </c>
       <c r="F11" t="n">
         <v>124.6524158709783</v>
       </c>
       <c r="G11" t="n">
-        <v>160.3724114358425</v>
+        <v>145.9654148740876</v>
       </c>
       <c r="H11" t="n">
-        <v>145.4337361297035</v>
+        <v>142.4334120810158</v>
       </c>
       <c r="I11" t="n">
-        <v>142.9952888941101</v>
+        <v>169.0494261741638</v>
       </c>
       <c r="J11" t="n">
-        <v>142.7456561044987</v>
+        <v>144.0511473427279</v>
       </c>
       <c r="K11" t="n">
-        <v>143.6160332519402</v>
+        <v>145.2753597729062</v>
       </c>
     </row>
     <row r="12">
@@ -13459,34 +13463,34 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>143.5437707954764</v>
+        <v>143.7309692962637</v>
       </c>
       <c r="C12" t="n">
-        <v>140.9192503412405</v>
+        <v>143.2149120222993</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1</v>
+        <v>145.38</v>
       </c>
       <c r="E12" t="n">
-        <v>136.3193129931574</v>
+        <v>140.4291317982778</v>
       </c>
       <c r="F12" t="n">
         <v>139.5453728649968</v>
       </c>
       <c r="G12" t="n">
-        <v>166.9490525186062</v>
+        <v>149.0632734045184</v>
       </c>
       <c r="H12" t="n">
-        <v>147.5474560831684</v>
+        <v>146.5408191596313</v>
       </c>
       <c r="I12" t="n">
-        <v>146.8906744536072</v>
+        <v>178.651745891571</v>
       </c>
       <c r="J12" t="n">
-        <v>142.7738611259686</v>
+        <v>144.1470603448358</v>
       </c>
       <c r="K12" t="n">
-        <v>143.8585622411885</v>
+        <v>145.4952997159443</v>
       </c>
     </row>
     <row r="13">
@@ -13494,34 +13498,34 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>143.5841095174095</v>
+        <v>143.7883302778454</v>
       </c>
       <c r="C13" t="n">
-        <v>140.7210003722624</v>
+        <v>143.2253484555083</v>
       </c>
       <c r="D13" t="n">
-        <v>158.42</v>
+        <v>149.35</v>
       </c>
       <c r="E13" t="n">
-        <v>143.3017977272379</v>
+        <v>148.6828063500248</v>
       </c>
       <c r="F13" t="n">
         <v>145.2567513285372</v>
       </c>
       <c r="G13" t="n">
-        <v>176.6302563607693</v>
+        <v>155.4304965883153</v>
       </c>
       <c r="H13" t="n">
-        <v>154.6526323608827</v>
+        <v>149.8443109632789</v>
       </c>
       <c r="I13" t="n">
-        <v>149.4054983689662</v>
+        <v>188.8854294776916</v>
       </c>
       <c r="J13" t="n">
-        <v>142.8223495232826</v>
+        <v>144.2431409998618</v>
       </c>
       <c r="K13" t="n">
-        <v>144.1619386801755</v>
+        <v>145.7157442662316</v>
       </c>
     </row>
     <row r="14">
@@ -13529,34 +13533,34 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>143.6244454311422</v>
+        <v>143.8456912820185</v>
       </c>
       <c r="C14" t="n">
-        <v>140.5227504032843</v>
+        <v>143.2357832296853</v>
       </c>
       <c r="D14" t="n">
-        <v>158.51</v>
+        <v>150.2</v>
       </c>
       <c r="E14" t="n">
-        <v>147.1154133526054</v>
+        <v>155.8039457371164</v>
       </c>
       <c r="F14" t="n">
         <v>143.6544832571887</v>
       </c>
       <c r="G14" t="n">
-        <v>175.9064174950123</v>
+        <v>155.7024893321552</v>
       </c>
       <c r="H14" t="n">
-        <v>154.2782728406233</v>
+        <v>152.2327677706185</v>
       </c>
       <c r="I14" t="n">
-        <v>149.8031472510787</v>
+        <v>203.2598896980286</v>
       </c>
       <c r="J14" t="n">
-        <v>142.8602578289836</v>
+        <v>144.3393503793957</v>
       </c>
       <c r="K14" t="n">
-        <v>144.433577652524</v>
+        <v>145.9365766264831</v>
       </c>
     </row>
     <row r="15">
@@ -13564,34 +13568,34 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>143.6647808180777</v>
+        <v>143.903052308529</v>
       </c>
       <c r="C15" t="n">
-        <v>140.3245004343061</v>
+        <v>143.2462163410593</v>
       </c>
       <c r="D15" t="n">
-        <v>157.54</v>
+        <v>149.52</v>
       </c>
       <c r="E15" t="n">
-        <v>148.9569680504746</v>
+        <v>158.7921403519803</v>
       </c>
       <c r="F15" t="n">
         <v>138.9919813938752</v>
       </c>
       <c r="G15" t="n">
-        <v>181.1556097328663</v>
+        <v>155.9494764667971</v>
       </c>
       <c r="H15" t="n">
-        <v>155.9049053262194</v>
+        <v>152.6716172414131</v>
       </c>
       <c r="I15" t="n">
-        <v>150.2976446685307</v>
+        <v>207.6809497833252</v>
       </c>
       <c r="J15" t="n">
-        <v>142.8922358470994</v>
+        <v>144.4356611602081</v>
       </c>
       <c r="K15" t="n">
-        <v>144.687426288914</v>
+        <v>146.157714831036</v>
       </c>
     </row>
     <row r="16">
@@ -13599,34 +13603,34 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>143.7051096975436</v>
+        <v>143.9604133569069</v>
       </c>
       <c r="C16" t="n">
-        <v>140.126250465328</v>
+        <v>143.256647787008</v>
       </c>
       <c r="D16" t="n">
-        <v>152.28</v>
+        <v>146.67</v>
       </c>
       <c r="E16" t="n">
-        <v>145.5059387982379</v>
+        <v>154.2691527981541</v>
       </c>
       <c r="F16" t="n">
         <v>136.740660375998</v>
       </c>
       <c r="G16" t="n">
-        <v>175.6272908508778</v>
+        <v>151.5315959220489</v>
       </c>
       <c r="H16" t="n">
-        <v>153.6847870353424</v>
+        <v>150.7743480068771</v>
       </c>
       <c r="I16" t="n">
-        <v>148.2169489116799</v>
+        <v>200.7649317741394</v>
       </c>
       <c r="J16" t="n">
-        <v>142.8800512364086</v>
+        <v>144.5320443422657</v>
       </c>
       <c r="K16" t="n">
-        <v>144.8087935463538</v>
+        <v>146.3790718828821</v>
       </c>
     </row>
     <row r="17">
@@ -13634,34 +13638,34 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>143.7454383276189</v>
+        <v>144.0177744278242</v>
       </c>
       <c r="C17" t="n">
-        <v>139.9280004963499</v>
+        <v>143.2670775839156</v>
       </c>
       <c r="D17" t="n">
-        <v>153.29</v>
+        <v>145.78</v>
       </c>
       <c r="E17" t="n">
-        <v>140.1167471392155</v>
+        <v>148.756438968833</v>
       </c>
       <c r="F17" t="n">
         <v>130.8643293934755</v>
       </c>
       <c r="G17" t="n">
-        <v>176.1122963786125</v>
+        <v>149.7689355892244</v>
       </c>
       <c r="H17" t="n">
-        <v>155.5635276949631</v>
+        <v>150.374332857374</v>
       </c>
       <c r="I17" t="n">
-        <v>147.2934390432038</v>
+        <v>211.84396276474</v>
       </c>
       <c r="J17" t="n">
-        <v>142.8385052013035</v>
+        <v>144.6285154309684</v>
       </c>
       <c r="K17" t="n">
-        <v>144.8420767799416</v>
+        <v>146.6006942811652</v>
       </c>
     </row>
     <row r="18">
@@ -13669,34 +13673,34 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>143.785766812733</v>
+        <v>144.0751355209842</v>
       </c>
       <c r="C18" t="n">
-        <v>139.7297505273717</v>
+        <v>143.2775057320062</v>
       </c>
       <c r="D18" t="n">
-        <v>152.16</v>
+        <v>142.34</v>
       </c>
       <c r="E18" t="n">
-        <v>134.1738446394205</v>
+        <v>142.1606112238213</v>
       </c>
       <c r="F18" t="n">
         <v>134.2607542959406</v>
       </c>
       <c r="G18" t="n">
-        <v>178.546651160717</v>
+        <v>150.3606968310481</v>
       </c>
       <c r="H18" t="n">
-        <v>156.5456231314525</v>
+        <v>149.4443133241221</v>
       </c>
       <c r="I18" t="n">
-        <v>146.7425417569389</v>
+        <v>214.7561839580536</v>
       </c>
       <c r="J18" t="n">
-        <v>142.7811532501459</v>
+        <v>144.7250743456988</v>
       </c>
       <c r="K18" t="n">
-        <v>144.8279424103326</v>
+        <v>146.8225817841059</v>
       </c>
     </row>
     <row r="19">
@@ -13704,34 +13708,34 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>143.8260882218873</v>
+        <v>144.132496636087</v>
       </c>
       <c r="C19" t="n">
-        <v>139.5315005583936</v>
+        <v>143.2879322314398</v>
       </c>
       <c r="D19" t="n">
-        <v>140.49</v>
+        <v>133.51</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3877549400163</v>
+        <v>134.1987390957643</v>
       </c>
       <c r="F19" t="n">
         <v>114.3016438757212</v>
       </c>
       <c r="G19" t="n">
-        <v>171.9918773531914</v>
+        <v>142.1528916640203</v>
       </c>
       <c r="H19" t="n">
-        <v>149.6765301404331</v>
+        <v>145.0636678785849</v>
       </c>
       <c r="I19" t="n">
-        <v>141.5073387011729</v>
+        <v>211.3433564662933</v>
       </c>
       <c r="J19" t="n">
-        <v>142.6784329597384</v>
+        <v>144.8217314661311</v>
       </c>
       <c r="K19" t="n">
-        <v>144.6777100989342</v>
+        <v>147.0447655308664</v>
       </c>
     </row>
     <row r="20">
@@ -13739,34 +13743,34 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>143.8664117999452</v>
+        <v>144.1898577734506</v>
       </c>
       <c r="C20" t="n">
-        <v>139.3332505894155</v>
+        <v>143.2983570926731</v>
       </c>
       <c r="D20" t="n">
-        <v>138.96</v>
+        <v>129.54</v>
       </c>
       <c r="E20" t="n">
-        <v>119.3706782420543</v>
+        <v>130.2602248941504</v>
       </c>
       <c r="F20" t="n">
         <v>98.07965164085067</v>
       </c>
       <c r="G20" t="n">
-        <v>159.7853868365288</v>
+        <v>135.1781852050034</v>
       </c>
       <c r="H20" t="n">
-        <v>141.8687837783263</v>
+        <v>142.4792264911587</v>
       </c>
       <c r="I20" t="n">
-        <v>138.0002077691178</v>
+        <v>209.862531042099</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5962913805857</v>
+        <v>144.918520863865</v>
       </c>
       <c r="K20" t="n">
-        <v>144.589211752396</v>
+        <v>147.2673477254711</v>
       </c>
     </row>
     <row r="21">
@@ -13774,34 +13778,34 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>143.906737630404</v>
+        <v>144.2472189331322</v>
       </c>
       <c r="C21" t="n">
-        <v>139.1350006204374</v>
+        <v>143.3087803204795</v>
       </c>
       <c r="D21" t="n">
-        <v>139.23</v>
+        <v>128</v>
       </c>
       <c r="E21" t="n">
-        <v>119.8718783532756</v>
+        <v>130.1410163044249</v>
       </c>
       <c r="F21" t="n">
         <v>92.90131430825038</v>
       </c>
       <c r="G21" t="n">
-        <v>150.1473720431328</v>
+        <v>132.8349501720731</v>
       </c>
       <c r="H21" t="n">
-        <v>145.3959708774854</v>
+        <v>141.5647204071429</v>
       </c>
       <c r="I21" t="n">
-        <v>136.7158527180688</v>
+        <v>206.5284181594849</v>
       </c>
       <c r="J21" t="n">
-        <v>142.5540051246368</v>
+        <v>145.0154621123533</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6202771230688</v>
+        <v>147.4903870834481</v>
       </c>
     </row>
     <row r="22">
@@ -13809,34 +13813,34 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>143.9470572097603</v>
+        <v>144.304580114666</v>
       </c>
       <c r="C22" t="n">
-        <v>138.9367506514592</v>
+        <v>143.3192019135774</v>
       </c>
       <c r="D22" t="n">
-        <v>141.95</v>
+        <v>132.97</v>
       </c>
       <c r="E22" t="n">
-        <v>120.4146257561056</v>
+        <v>132.2711873112226</v>
       </c>
       <c r="F22" t="n">
         <v>95.48803125401223</v>
       </c>
       <c r="G22" t="n">
-        <v>155.3317788004875</v>
+        <v>138.8538724701922</v>
       </c>
       <c r="H22" t="n">
-        <v>145.7972450042949</v>
+        <v>143.666824433837</v>
       </c>
       <c r="I22" t="n">
-        <v>137.9277331572271</v>
+        <v>214.5128980636597</v>
       </c>
       <c r="J22" t="n">
-        <v>142.5064443138557</v>
+        <v>145.1125653989888</v>
       </c>
       <c r="K22" t="n">
-        <v>144.6355250803474</v>
+        <v>147.7139141687229</v>
       </c>
     </row>
     <row r="23">
@@ -13844,34 +13848,34 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>143.9873862744957</v>
+        <v>144.3619413188146</v>
       </c>
       <c r="C23" t="n">
-        <v>138.7385006824811</v>
+        <v>143.3296218898102</v>
       </c>
       <c r="D23" t="n">
-        <v>152.38</v>
+        <v>140.25</v>
       </c>
       <c r="E23" t="n">
-        <v>130.2194343871079</v>
+        <v>143.1469940879638</v>
       </c>
       <c r="F23" t="n">
         <v>126.6338639174862</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5486166834831</v>
+        <v>160.3273747293875</v>
       </c>
       <c r="H23" t="n">
-        <v>167.8967821966817</v>
+        <v>151.0463099141468</v>
       </c>
       <c r="I23" t="n">
-        <v>144.7537151889012</v>
+        <v>236.6786943435669</v>
       </c>
       <c r="J23" t="n">
-        <v>142.542247810146</v>
+        <v>145.2098593374723</v>
       </c>
       <c r="K23" t="n">
-        <v>144.900856473461</v>
+        <v>147.938014803792</v>
       </c>
     </row>
     <row r="24">
@@ -13879,34 +13883,34 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>144.0277053763877</v>
+        <v>144.4193025443332</v>
       </c>
       <c r="C24" t="n">
-        <v>138.540250713503</v>
+        <v>143.3400402335362</v>
       </c>
       <c r="D24" t="n">
-        <v>161.38</v>
+        <v>149.19</v>
       </c>
       <c r="E24" t="n">
-        <v>135.8610298965305</v>
+        <v>150.0511033362729</v>
       </c>
       <c r="F24" t="n">
         <v>140.6455057598784</v>
       </c>
       <c r="G24" t="n">
-        <v>173.623247897625</v>
+        <v>167.0871499909622</v>
       </c>
       <c r="H24" t="n">
-        <v>174.3063850843392</v>
+        <v>155.012259041474</v>
       </c>
       <c r="I24" t="n">
-        <v>148.3045505228141</v>
+        <v>241.1501675605774</v>
       </c>
       <c r="J24" t="n">
-        <v>142.561108699281</v>
+        <v>145.3073018036568</v>
       </c>
       <c r="K24" t="n">
-        <v>145.115370007952</v>
+        <v>148.1625626331009</v>
       </c>
     </row>
     <row r="25">
@@ -13914,34 +13918,34 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>144.0680265411939</v>
+        <v>144.4766637918643</v>
       </c>
       <c r="C25" t="n">
-        <v>138.3420007445248</v>
+        <v>143.3504569605388</v>
       </c>
       <c r="D25" t="n">
-        <v>160.7</v>
+        <v>153.16</v>
       </c>
       <c r="E25" t="n">
-        <v>142.6663359449261</v>
+        <v>158.0691930182104</v>
       </c>
       <c r="F25" t="n">
         <v>147.0782048519046</v>
       </c>
       <c r="G25" t="n">
-        <v>187.9568851351738</v>
+        <v>172.6632104038646</v>
       </c>
       <c r="H25" t="n">
-        <v>178.4820445517935</v>
+        <v>158.8359212315852</v>
       </c>
       <c r="I25" t="n">
-        <v>151.3299944876477</v>
+        <v>257.2255230903626</v>
       </c>
       <c r="J25" t="n">
-        <v>142.6088746411391</v>
+        <v>145.4048952672009</v>
       </c>
       <c r="K25" t="n">
-        <v>145.4165966376983</v>
+        <v>148.3875650491997</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -500,842 +500,842 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2159605765139645</v>
+        <v>0.3322874406121059</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3499999999999986</v>
+        <v>1.781818181818181</v>
       </c>
       <c r="D2" t="n">
-        <v>5.950334146049205</v>
+        <v>1.903372605026118</v>
       </c>
       <c r="E2" t="n">
-        <v>2.605320930480957</v>
+        <v>6.045346736907959</v>
       </c>
       <c r="F2" t="n">
-        <v>2.818921988058695</v>
+        <v>0.6572263712006398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044085715</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01045505303544303</v>
+        <v>-0.5549336491811043</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3460532910052291</v>
+        <v>-5.78141845980207</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09459211999675489</v>
+        <v>-0.04911526934498436</v>
       </c>
       <c r="K2" t="n">
-        <v>1.185395802413944</v>
+        <v>0.6911242750161224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2163283101349975</v>
+        <v>0.3327564203061684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009999999999999431</v>
+        <v>-2.263636363636361</v>
       </c>
       <c r="D3" t="n">
-        <v>1.911043856914492</v>
+        <v>-3.222131813668422</v>
       </c>
       <c r="E3" t="n">
-        <v>13.59173965454102</v>
+        <v>-12.84650421142578</v>
       </c>
       <c r="F3" t="n">
-        <v>1.227551080588366</v>
+        <v>-5.644460625832509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353193865</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01045334555783484</v>
+        <v>-4.774303259879662</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.765275087054417</v>
+        <v>-2.038726658502481</v>
       </c>
       <c r="J3" t="n">
-        <v>0.094714136408257</v>
+        <v>-1.455415479679816</v>
       </c>
       <c r="K3" t="n">
-        <v>1.119042604731137</v>
+        <v>-3.20624377609667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2166659964011046</v>
+        <v>0.3331482459326764</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.849999999999999</v>
+        <v>-0.3363636363636379</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.156598495203612</v>
+        <v>-5.714604301002296</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.973344802856445</v>
+        <v>1.835295796394348</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.479616667427226</v>
+        <v>-0.03495792572807982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672247356</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01045164547619493</v>
+        <v>-4.42302859724821</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.06031116282875</v>
+        <v>-6.979362789671423</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09482613953325769</v>
+        <v>-1.338193316927162</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.65399399646931</v>
+        <v>-1.980581267736424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2169194801805929</v>
+        <v>0.3335761214214301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0299999999999983</v>
+        <v>-3.836363636363634</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.666893700706981</v>
+        <v>-6.041696069358696</v>
       </c>
       <c r="E5" t="n">
-        <v>5.380267143249512</v>
+        <v>6.862105846405029</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.5818662920388</v>
+        <v>-0.2956667239791535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955622139</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01044992181059001</v>
+        <v>-3.267768136625014</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.997655668044846</v>
+        <v>4.755741472248615</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09491006718246812</v>
+        <v>-0.9529638715565129</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.8679271854656649</v>
+        <v>-0.781202170513972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2172233708680835</v>
+        <v>0.3340382297540998</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.439999999999998</v>
+        <v>-6.818181818181818</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.764082549298242</v>
+        <v>-8.097731587997419</v>
       </c>
       <c r="E6" t="n">
-        <v>6.592167377471924</v>
+        <v>-7.68431568145752</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5917612418236577</v>
+        <v>-9.461390882545279</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262103534</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0104482185499748</v>
+        <v>-9.587329938472337</v>
       </c>
       <c r="I6" t="n">
-        <v>4.709526320452823</v>
+        <v>-21.63651906955145</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09501080401303123</v>
+        <v>-3.059330436061397</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3851427682384936</v>
+        <v>-6.624839531657144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2175082414418341</v>
+        <v>0.3345627195609779</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.1</v>
+        <v>-4.681818181818183</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.35612321688931</v>
+        <v>-3.142987745738129</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.018988609313965</v>
+        <v>1.432814359664917</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.897137675269143</v>
+        <v>-4.172732085322393</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084520583001</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01044652942443491</v>
+        <v>-2.293236228253746</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.63065293633207</v>
+        <v>-15.08455049372193</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09510520535736634</v>
+        <v>-0.6277910360529074</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.738121338162069</v>
+        <v>-2.71583865246946</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2179387961746784</v>
+        <v>0.3351399618335336</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.97</v>
+        <v>-1.745454545454547</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.202316107302563</v>
+        <v>0.4083693543140949</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.977509498596191</v>
+        <v>2.420299530029297</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.974706459016934</v>
+        <v>-2.034818649540184</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823162573</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01044483355158832</v>
+        <v>0.002807205479249134</v>
       </c>
       <c r="I8" t="n">
-        <v>-15.12166796545415</v>
+        <v>-4.117659170886816</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09524816598596414</v>
+        <v>0.137749189282276</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.875924693547002</v>
+        <v>-0.2601984410147316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184105810772508</v>
+        <v>0.3357445722828345</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.540000000000002</v>
+        <v>5.409090909090909</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2647421761536179</v>
+        <v>1.995384361382126</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.124106407165527</v>
+        <v>-2.774243354797363</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.343235032930321</v>
+        <v>-1.129961399054897</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117605603</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01044314564209969</v>
+        <v>-0.8749041997270488</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.165239286047926</v>
+        <v>2.717469584047073</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09540487263180215</v>
+        <v>-0.1546197423033897</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.203041517211858</v>
+        <v>0.9519940557049453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2189048889109131</v>
+        <v>0.3364141718863891</v>
       </c>
       <c r="C10" t="n">
-        <v>4.13</v>
+        <v>7.118181818181819</v>
       </c>
       <c r="D10" t="n">
-        <v>1.664922360016853</v>
+        <v>9.543079625484356</v>
       </c>
       <c r="E10" t="n">
-        <v>13.14702987670898</v>
+        <v>13.80928707122803</v>
       </c>
       <c r="F10" t="n">
-        <v>2.947544388868198</v>
+        <v>17.06683735850999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091370560825</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0104414682452898</v>
+        <v>14.24816168843081</v>
       </c>
       <c r="I10" t="n">
-        <v>2.699596254056517</v>
+        <v>29.56855716546661</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09556909028727038</v>
+        <v>4.886625420283749</v>
       </c>
       <c r="K10" t="n">
-        <v>2.319511210311298</v>
+        <v>9.263327454319056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2194995312028141</v>
+        <v>0.3369769656824815</v>
       </c>
       <c r="C11" t="n">
-        <v>8.02</v>
+        <v>9.227272727272727</v>
       </c>
       <c r="D11" t="n">
-        <v>9.297720624423924</v>
+        <v>4.918584962189359</v>
       </c>
       <c r="E11" t="n">
-        <v>14.72685050964355</v>
+        <v>13.66936779022217</v>
       </c>
       <c r="F11" t="n">
-        <v>18.55619830143108</v>
+        <v>3.138580876364481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641877565</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0104397563735219</v>
+        <v>-0.6686087269488732</v>
       </c>
       <c r="I11" t="n">
-        <v>29.53804211122594</v>
+        <v>14.88183093964284</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09576674133170388</v>
+        <v>-0.08544378691078212</v>
       </c>
       <c r="K11" t="n">
-        <v>6.433613962653841</v>
+        <v>4.936651607666985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2199399430380993</v>
+        <v>0.3375369878795311</v>
       </c>
       <c r="C12" t="n">
-        <v>9.34</v>
+        <v>4.718181818181816</v>
       </c>
       <c r="D12" t="n">
-        <v>4.386382704120387</v>
+        <v>8.03327030968234</v>
       </c>
       <c r="E12" t="n">
-        <v>9.602319717407227</v>
+        <v>10.8780632019043</v>
       </c>
       <c r="F12" t="n">
-        <v>3.097858530430762</v>
+        <v>5.070810054806564</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865328333</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01043810463238515</v>
+        <v>7.072741009251122</v>
       </c>
       <c r="I12" t="n">
-        <v>14.89295699401844</v>
+        <v>5.712605388858395</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09591300210792258</v>
+        <v>2.495192799221566</v>
       </c>
       <c r="K12" t="n">
-        <v>4.107407078615437</v>
+        <v>4.905419055853805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2204445502872545</v>
+        <v>0.3380267847790037</v>
       </c>
       <c r="C13" t="n">
-        <v>3.969999999999999</v>
+        <v>1.881818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>8.253674551746993</v>
+        <v>7.53826503401389</v>
       </c>
       <c r="E13" t="n">
-        <v>10.23368358612061</v>
+        <v>8.015440940856934</v>
       </c>
       <c r="F13" t="n">
-        <v>6.367223183796982</v>
+        <v>0.730451671113472</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158169389</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01043643320894461</v>
+        <v>7.538661637342932</v>
       </c>
       <c r="I13" t="n">
-        <v>5.711378463540446</v>
+        <v>-1.464261286293956</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09608065502596434</v>
+        <v>2.650662940885327</v>
       </c>
       <c r="K13" t="n">
-        <v>3.303491803647603</v>
+        <v>3.47147501330914</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2208323602514781</v>
+        <v>0.3384361746942659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8500000000000014</v>
+        <v>0.4909090909090901</v>
       </c>
       <c r="D14" t="n">
-        <v>7.121139387091595</v>
+        <v>2.744731103393845</v>
       </c>
       <c r="E14" t="n">
-        <v>14.37446022033691</v>
+        <v>5.431589603424072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2719927438398778</v>
+        <v>-0.8803668964581012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417314244</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01043477417704963</v>
+        <v>0.5811525776619317</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.60226807134854</v>
+        <v>-4.632672468894083</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09620937953389007</v>
+        <v>0.331629717630081</v>
       </c>
       <c r="K14" t="n">
-        <v>2.388456807339662</v>
+        <v>0.8224272371325581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2211382045529433</v>
+        <v>0.3388100278086768</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6799999999999997</v>
+        <v>-3.318181818181817</v>
       </c>
       <c r="D15" t="n">
-        <v>2.988194614863885</v>
+        <v>-4.300465845486711</v>
       </c>
       <c r="E15" t="n">
-        <v>4.421060085296631</v>
+        <v>-10.74925708770752</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2469871346418367</v>
+        <v>-6.116518703600522</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651047903</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01043311137393488</v>
+        <v>-6.057172030356209</v>
       </c>
       <c r="I15" t="n">
-        <v>-4.662501863313551</v>
+        <v>-2.230212826822292</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09631078081245241</v>
+        <v>-1.881020534004495</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4388494707945533</v>
+        <v>-3.527942982568485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2213570518461268</v>
+        <v>0.3391776207184876</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.849999999999999</v>
+        <v>-0.3363636363636379</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.522987553826191</v>
+        <v>-5.572466642681067</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.916018009185791</v>
+        <v>1.535154938697815</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.417880544748172</v>
+        <v>-2.859491952984169</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837789063</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01043144594870427</v>
+        <v>-4.410309183898856</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.251321017877197</v>
+        <v>-5.819685623518728</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09638318205757389</v>
+        <v>-1.331943720882108</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.897269234535932</v>
+        <v>-1.92839564746749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2216223982830741</v>
+        <v>0.3395653854474574</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8900000000000006</v>
+        <v>-4.190909090909088</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.51271382932108</v>
+        <v>-6.67488114442353</v>
       </c>
       <c r="E17" t="n">
-        <v>11.07903099060059</v>
+        <v>7.938852310180664</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.762660332824446</v>
+        <v>-1.731988256748398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091730394</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01042979690765122</v>
+        <v>-4.249468058285651</v>
       </c>
       <c r="I17" t="n">
-        <v>-5.87633098252242</v>
+        <v>3.404957125899097</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0964710887026764</v>
+        <v>-1.278200757434716</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.4000151495031863</v>
+        <v>-1.1107719908881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2218875029406604</v>
+        <v>0.3400003733028711</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.439999999999998</v>
+        <v>-8.118181818181819</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.595827745011652</v>
+        <v>-7.658446350169442</v>
       </c>
       <c r="E18" t="n">
-        <v>2.912221193313599</v>
+        <v>0.7233260273933411</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5917612418236577</v>
+        <v>-5.214039533503041</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316003507</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01042814809056836</v>
+        <v>-8.920603457604825</v>
       </c>
       <c r="I18" t="n">
-        <v>3.396424902465046</v>
+        <v>-19.90904823959922</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09655891473042127</v>
+        <v>-2.835100894589303</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.9300195332518147</v>
+        <v>-5.506125418618129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2221837467605496</v>
+        <v>0.3405005698522814</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.830000000000002</v>
+        <v>-4.681818181818183</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.961872128057017</v>
+        <v>-3.771534534325183</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.412827491760254</v>
+        <v>-7.745419979095459</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.207805167027779</v>
+        <v>-5.881159100281575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510277869</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01042649943354945</v>
+        <v>-3.410924225418728</v>
       </c>
       <c r="I19" t="n">
-        <v>-19.95911042021941</v>
+        <v>-16.22132747078849</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09665712043229259</v>
+        <v>-0.9983744183441338</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.380645445537281</v>
+        <v>-4.12342401279202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2225821946046551</v>
+        <v>0.3410584292923602</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.97</v>
+        <v>-1.745454545454547</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.938514201613873</v>
+        <v>0.1054526468178265</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.480825424194336</v>
+        <v>3.087023973464966</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.974706459016934</v>
+        <v>-1.391877600800287</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736355486</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0104248612333393</v>
+        <v>-0.6339983960352196</v>
       </c>
       <c r="I20" t="n">
-        <v>-16.22199223487049</v>
+        <v>-5.169689566641233</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09678939773384976</v>
+        <v>-0.07254652206960467</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.584441387426113</v>
+        <v>-0.4187689421677565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2230393579770009</v>
+        <v>0.3416546024339766</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.540000000000002</v>
+        <v>5.409090909090909</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1192085897255089</v>
+        <v>2.607072975940654</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.334112882614136</v>
+        <v>1.901763200759888</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.343235032930321</v>
+        <v>2.88435350954251</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968160566</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01042322780635629</v>
+        <v>0.2248857842507752</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.178337332600299</v>
+        <v>2.604447612422066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09694124848832096</v>
+        <v>0.2139469290729324</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.9145060840158233</v>
+        <v>1.786170350244999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2235270852748101</v>
+        <v>0.3422657762164647</v>
       </c>
       <c r="C22" t="n">
-        <v>4.970000000000001</v>
+        <v>6.445454545454547</v>
       </c>
       <c r="D22" t="n">
-        <v>2.130171006797716</v>
+        <v>10.59954758504588</v>
       </c>
       <c r="E22" t="n">
-        <v>7.984479904174805</v>
+        <v>6.812321186065674</v>
       </c>
       <c r="F22" t="n">
-        <v>6.018922298119082</v>
+        <v>17.25474935962279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153375377</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0104215930979592</v>
+        <v>15.52226694332733</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58671694576185</v>
+        <v>31.22476205854071</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09710328663550771</v>
+        <v>5.313277706692613</v>
       </c>
       <c r="K22" t="n">
-        <v>2.102104026694041</v>
+        <v>8.912212410451829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2241006350691634</v>
+        <v>0.3428445593764593</v>
       </c>
       <c r="C23" t="n">
-        <v>7.280000000000001</v>
+        <v>10.74545454545455</v>
       </c>
       <c r="D23" t="n">
-        <v>10.87580677674121</v>
+        <v>7.273397209413262</v>
       </c>
       <c r="E23" t="n">
-        <v>22.16579627990723</v>
+        <v>13.46900081634521</v>
       </c>
       <c r="F23" t="n">
-        <v>21.4735022591953</v>
+        <v>7.041749243668231</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414859647</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01041997623275392</v>
+        <v>2.269540868068994</v>
       </c>
       <c r="I23" t="n">
-        <v>31.145832663474</v>
+        <v>13.98458648263825</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09729393848350461</v>
+        <v>0.8958952759931663</v>
       </c>
       <c r="K23" t="n">
-        <v>7.379485480309889</v>
+        <v>5.953860836346273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2245478293088183</v>
+        <v>0.3433781365368418</v>
       </c>
       <c r="C24" t="n">
-        <v>8.940000000000001</v>
+        <v>4.718181818181816</v>
       </c>
       <c r="D24" t="n">
-        <v>6.904109248309029</v>
+        <v>7.868076363368766</v>
       </c>
       <c r="E24" t="n">
-        <v>4.471473217010498</v>
+        <v>13.46394157409668</v>
       </c>
       <c r="F24" t="n">
-        <v>6.759775261574712</v>
+        <v>5.097729476322566</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551867437</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01041834372604455</v>
+        <v>6.100616819931099</v>
       </c>
       <c r="I24" t="n">
-        <v>14.01164184239214</v>
+        <v>6.487984529649563</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09744246618451242</v>
+        <v>2.173098452333995</v>
       </c>
       <c r="K24" t="n">
-        <v>3.96594912732716</v>
+        <v>5.075703923250007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2250024160987891</v>
+        <v>0.3438481884844009</v>
       </c>
       <c r="C25" t="n">
-        <v>3.969999999999999</v>
+        <v>1.627272727272727</v>
       </c>
       <c r="D25" t="n">
-        <v>8.018089681937507</v>
+        <v>6.024275907612924</v>
       </c>
       <c r="E25" t="n">
-        <v>16.07535552978516</v>
+        <v>8.082443237304688</v>
       </c>
       <c r="F25" t="n">
-        <v>5.576060412902489</v>
+        <v>0.8869291431855019</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753107147</v>
+        <v>0.07530040053404534</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01041672700257124</v>
+        <v>4.433736805126396</v>
       </c>
       <c r="I25" t="n">
-        <v>6.4326990920262</v>
+        <v>-3.525187062481229</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09759346354414394</v>
+        <v>1.617628464714947</v>
       </c>
       <c r="K25" t="n">
-        <v>3.823662190111222</v>
+        <v>2.528762186275854</v>
       </c>
     </row>
   </sheetData>
@@ -1512,12 +1512,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
+          <t>{'n_neighbors': 11, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -1545,32 +1545,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>16.26947225343302</v>
+        <v>14.16666731485981</v>
       </c>
       <c r="J2" t="n">
-        <v>1.006104198063623</v>
+        <v>1.01624248723056</v>
       </c>
       <c r="K2" t="n">
-        <v>12.36789597267848</v>
+        <v>10.95151515151515</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06458846538547647</v>
+        <v>0.08819337856099618</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.00737566899760278</v>
+        <v>2.009090909090911</v>
       </c>
       <c r="N2" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9554740927191</v>
+        <v>10.02068238226953</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>12.63620530149808</v>
+        <v>7.854472630173564</v>
       </c>
       <c r="R2" t="n">
-        <v>4.896157596201434e-05</v>
+        <v>0.6504663975465708</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -1581,23 +1581,23 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>9.899292150599054</v>
+        <v>15.37717979351883</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>32.8198067136006</v>
+        <v>11.50454635250166</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2360449453356454</v>
+        <v>0.07152673974036526</v>
       </c>
       <c r="AB2" t="n">
-        <v>30.5479427338469</v>
+        <v>9.240909090909083</v>
       </c>
       <c r="AC2" t="n">
-        <v>-6.488370634735669</v>
+        <v>0.2898691261953685</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+          <t>{'activation': 'relu', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -1639,32 +1639,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>16.27955076943286</v>
+        <v>14.49394886140646</v>
       </c>
       <c r="J3" t="n">
-        <v>1.039807053647507</v>
+        <v>1.381343183370294</v>
       </c>
       <c r="K3" t="n">
-        <v>12.37468318691936</v>
+        <v>10.99039111799059</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06590784379298587</v>
+        <v>0.04557721083183719</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.04809916354221855</v>
+        <v>1.769949422710348</v>
       </c>
       <c r="N3" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>16.84597877025111</v>
+        <v>11.01641994308268</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>12.46165214367573</v>
+        <v>8.607440568328624</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01292225875724395</v>
+        <v>0.5775500093445932</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -1675,23 +1675,23 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>9.875535778025739</v>
+        <v>13.62328082263185</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>33.07680015815105</v>
+        <v>13.94133807414187</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2381572428865664</v>
+        <v>0.08400850153712426</v>
       </c>
       <c r="AB3" t="n">
-        <v>30.81264434049505</v>
+        <v>11.20822104323386</v>
       </c>
       <c r="AC3" t="n">
-        <v>-6.606104225958601</v>
+        <v>-0.04281751236428444</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -1700,12 +1700,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10, 'weights': 'uniform'}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 0.5}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -1733,32 +1733,32 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.82121834752305</v>
+        <v>15.09530373889173</v>
       </c>
       <c r="J4" t="n">
-        <v>2.879756346463232</v>
+        <v>0.9743172268248915</v>
       </c>
       <c r="K4" t="n">
-        <v>12.81999999999999</v>
+        <v>11.22822252374491</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.006733855290852686</v>
+        <v>-0.03526388361415567</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="N4" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>9.884424914093533</v>
+        <v>16.94934151071192</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>7.739625668449198</v>
+        <v>12.63369548360876</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6601700325516441</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1769,23 +1769,23 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>13.27025872644036</v>
+        <v>13.69454902461603</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>43.06649548469589</v>
+        <v>16.4153894888649</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3271199668576726</v>
+        <v>0.1010335302767462</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.64499999999998</v>
+        <v>13.46689280868386</v>
       </c>
       <c r="AC4" t="n">
-        <v>-11.89419871386361</v>
+        <v>-0.4457785645499661</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -1794,12 +1794,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'max_depth': 6}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1827,32 +1827,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>15.42743090957689</v>
+        <v>13.71677148206937</v>
       </c>
       <c r="J5" t="n">
-        <v>2.663201748036615</v>
+        <v>4.249075369807209</v>
       </c>
       <c r="K5" t="n">
-        <v>12.55213186407106</v>
+        <v>9.727476030836501</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04275733880856225</v>
+        <v>0.1451869214650968</v>
       </c>
       <c r="M5" t="n">
-        <v>5.825054634025459</v>
+        <v>5.673378944396973</v>
       </c>
       <c r="N5" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>13.18354951791877</v>
+        <v>0.4357668729855375</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>10.0775715972081</v>
+        <v>0.311753509442343</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3954620485378314</v>
+        <v>0.9993389980152926</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -1863,23 +1863,23 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>13.2846482085337</v>
+        <v>20.58998083085664</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>53.02427216351563</v>
+        <v>16.76968046377441</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4043486804474548</v>
+        <v>0.1149801120799304</v>
       </c>
       <c r="AB5" t="n">
-        <v>50.93445481629846</v>
+        <v>14.62279783686002</v>
       </c>
       <c r="AC5" t="n">
-        <v>-18.54630743389545</v>
+        <v>-0.5088600955117966</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -1888,21 +1888,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 2}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>{'max_depth': 3, 'n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
@@ -1913,32 +1921,32 @@
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>15.13637137495065</v>
+        <v>20.04013305606249</v>
       </c>
       <c r="J6" t="n">
-        <v>4.420995199870932</v>
+        <v>12.96526504362184</v>
       </c>
       <c r="K6" t="n">
-        <v>12.97190596342883</v>
+        <v>16.92769772026407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07853599602998163</v>
+        <v>-0.824603706107879</v>
       </c>
       <c r="M6" t="n">
-        <v>4.780715763185643</v>
+        <v>-11.70153928118806</v>
       </c>
       <c r="N6" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>11.30536428421562</v>
+        <v>7.488925786617673</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>8.802897043929974</v>
+        <v>6.001624599147256</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5554424583197213</v>
+        <v>0.8047759163306019</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1949,25 +1957,23 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>23.44703993250942</v>
-      </c>
-      <c r="V6" t="b">
-        <v>1</v>
-      </c>
+        <v>33.05374300252842</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>52.80491952723281</v>
+        <v>26.49600155001646</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4116861128404925</v>
+        <v>0.1871950688653447</v>
       </c>
       <c r="AB6" t="n">
-        <v>51.0390935399087</v>
+        <v>23.20059318421503</v>
       </c>
       <c r="AC6" t="n">
-        <v>-18.38492226135821</v>
+        <v>-2.766691734799632</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -1976,12 +1982,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1991,7 +1997,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2009,32 +2015,32 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>21.06197997743615</v>
+        <v>14.2998351840783</v>
       </c>
       <c r="J7" t="n">
-        <v>20.11698222824358</v>
+        <v>2.096791423360109</v>
       </c>
       <c r="K7" t="n">
-        <v>17.02514355323607</v>
+        <v>11.50102381601369</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.7841576084376995</v>
+        <v>0.07097069138220535</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34969547006599</v>
+        <v>3.163255760337611</v>
       </c>
       <c r="N7" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>9.188692269750597</v>
+        <v>13.31089761248025</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>7.272076459174254</v>
+        <v>10.15725719112676</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7063254750393902</v>
+        <v>0.383250189061759</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2045,23 +2051,23 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>31.46486536611224</v>
+        <v>15.18264591724112</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>124.3549810331123</v>
+        <v>31.47398903447037</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9503439435753235</v>
+        <v>0.2281955095649519</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.1839292561576</v>
+        <v>29.55968443862372</v>
       </c>
       <c r="AC7" t="n">
-        <v>-106.5082183494286</v>
+        <v>-4.314996421108336</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2070,23 +2076,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'n_changepoints': 3}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -2095,59 +2101,61 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>37.87194001154627</v>
+        <v>14.16824041065862</v>
       </c>
       <c r="J8" t="n">
-        <v>37.07611105880307</v>
+        <v>4.316972187371513</v>
       </c>
       <c r="K8" t="n">
-        <v>33.69992908657089</v>
+        <v>11.93279545759319</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.768593423756861</v>
+        <v>0.08799086956283519</v>
       </c>
       <c r="M8" t="n">
-        <v>64.55053398717999</v>
+        <v>0.3338760690406671</v>
       </c>
       <c r="N8" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>12.55352081424406</v>
+        <v>11.30600685514595</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>9.460415749372993</v>
+        <v>8.804679089617128</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4518619448982958</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'prophet', 'gbt']</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>(0.17442022582145306, 0.17424574603116297, 0.1740124278969286, 0.14948752423562023, 0.1493818400108809, 0.08785217349854554, 0.07474367833982214, 0.015856384165586643)</t>
-        </is>
-      </c>
+        <v>0.5550483432038602</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>23.39663404830682</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>167.5624775387293</v>
+        <v>33.28407191224224</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9803084558049076</v>
+        <v>0.2515011358495877</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.4419168747899</v>
+        <v>31.57918338427961</v>
       </c>
       <c r="AC8" t="n">
-        <v>-194.1950678100956</v>
+        <v>-4.943911046713754</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2156,31 +2164,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2189,59 +2189,59 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>25.0222863676995</v>
+        <v>28.1112556669992</v>
       </c>
       <c r="J9" t="n">
-        <v>14.22695694111434</v>
+        <v>25.86304821541721</v>
       </c>
       <c r="K9" t="n">
-        <v>18.04098762522142</v>
+        <v>24.47710210008695</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.518191799548848</v>
+        <v>-2.590276044073916</v>
       </c>
       <c r="M9" t="n">
-        <v>26.74729347229004</v>
+        <v>1.596816395921678</v>
       </c>
       <c r="N9" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>2.718626345104153</v>
+        <v>10.87405856900377</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>2.049073522538445</v>
+        <v>8.31553817254783</v>
       </c>
       <c r="R9" t="n">
-        <v>0.974292614933202</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v>21.66224700979679</v>
-      </c>
+        <v>0.5883978117434681</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>['mlp', 'mlr', 'elasticnet', 'svr', 'knn', 'xgboost', 'prophet', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>(0.16266425803527118, 0.16238605379285925, 0.16212186747488888, 0.15079662444892913, 0.14931611371300488, 0.10964380548737424, 0.08828361722628415, 0.014787659821388289)</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>151.1966384040152</v>
+        <v>145.1248009150125</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.169240937260311</v>
+        <v>0.8943934102234721</v>
       </c>
       <c r="AB9" t="n">
-        <v>145.2035909965634</v>
+        <v>116.1717480207018</v>
       </c>
       <c r="AC9" t="n">
-        <v>-157.9276876056396</v>
+        <v>-112.001100237327</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2275,32 +2275,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>71.95208515224566</v>
+        <v>52.667256779114</v>
       </c>
       <c r="J10" t="n">
-        <v>75.2296106947004</v>
+        <v>54.73337302027011</v>
       </c>
       <c r="K10" t="n">
-        <v>63.29708858611358</v>
+        <v>46.16945592778577</v>
       </c>
       <c r="L10" t="n">
-        <v>-19.82195931582635</v>
+        <v>-11.60226906924261</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4682541642171</v>
+        <v>0.6996616641842901</v>
       </c>
       <c r="N10" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>16.81533708614794</v>
+        <v>13.92759007735022</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>12.48473562670357</v>
+        <v>10.53957504436953</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01650984690415913</v>
+        <v>0.324778455124629</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2308,22 +2308,22 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>['mlp', 'elasticnet', 'mlr']</t>
+          <t>['mlp', 'mlr', 'elasticnet']</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>374.7517932853619</v>
+        <v>311.9372362379599</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.26839187008517</v>
+        <v>1.949468421183344</v>
       </c>
       <c r="AB10" t="n">
-        <v>286.7379380691132</v>
+        <v>252.8442515760386</v>
       </c>
       <c r="AC10" t="n">
-        <v>-975.3437105886887</v>
+        <v>-521.0761310735153</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2365,32 +2365,32 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>217.0336818415347</v>
+        <v>156.0626919550775</v>
       </c>
       <c r="J11" t="n">
-        <v>225.8545926540662</v>
+        <v>163.5281986637191</v>
       </c>
       <c r="K11" t="n">
-        <v>192.7137544686111</v>
+        <v>137.9450869491692</v>
       </c>
       <c r="L11" t="n">
-        <v>-188.4475971110156</v>
+        <v>-109.6535977588559</v>
       </c>
       <c r="M11" t="n">
-        <v>349.4602373251911</v>
+        <v>0.2983707123119927</v>
       </c>
       <c r="N11" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>16.76625713139039</v>
+        <v>16.77209658763452</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>12.47334348929998</v>
+        <v>12.46594634584826</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02224261433850983</v>
+        <v>0.02080531191104418</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -2401,23 +2401,23 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>9.931059683765882</v>
+        <v>13.6598358764792</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1175.524869903586</v>
+        <v>954.8750661324859</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.208798487349953</v>
+        <v>5.953186480767505</v>
       </c>
       <c r="AB11" t="n">
-        <v>912.6616200652517</v>
+        <v>774.3584976969719</v>
       </c>
       <c r="AC11" t="n">
-        <v>-9605.804146423794</v>
+        <v>-4891.068216041657</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -2434,7 +2434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C773"/>
+  <dimension ref="A1:C774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12162,7 +12162,7 @@
         <v>44287</v>
       </c>
       <c r="B748" t="n">
-        <v>-4.799999999999983</v>
+        <v>-5.099999999999994</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44317</v>
       </c>
       <c r="B749" t="n">
-        <v>7.299999999999983</v>
+        <v>4.900000000000006</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
@@ -12188,11 +12188,11 @@
         <v>44348</v>
       </c>
       <c r="B750" t="n">
-        <v>0.05736073044085715</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -12201,11 +12201,11 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>0.05736075353193865</v>
+        <v>1.781818181818181</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12214,11 +12214,11 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>0.05736077672247356</v>
+        <v>-2.263636363636361</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12227,11 +12227,11 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>0.05736079955622139</v>
+        <v>-0.3363636363636379</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12240,11 +12240,11 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>0.05736082262103534</v>
+        <v>-3.836363636363634</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12253,11 +12253,11 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>0.05736084520583001</v>
+        <v>-6.818181818181818</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12266,11 +12266,11 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>0.05736086823162573</v>
+        <v>-4.681818181818183</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12279,11 +12279,11 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>0.05736089117605603</v>
+        <v>-1.745454545454547</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12292,11 +12292,11 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>0.05736091370560825</v>
+        <v>5.409090909090909</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12305,11 +12305,11 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>0.05736093641877565</v>
+        <v>7.118181818181819</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12318,11 +12318,11 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>0.05736095865328333</v>
+        <v>9.227272727272727</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12331,11 +12331,11 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>0.05736098158169389</v>
+        <v>4.718181818181816</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12344,11 +12344,11 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>0.05736100417314244</v>
+        <v>1.881818181818182</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12357,11 +12357,11 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>0.05736102651047903</v>
+        <v>0.4909090909090901</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12370,11 +12370,11 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>0.05736104837789063</v>
+        <v>-3.318181818181817</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12383,11 +12383,11 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>0.05736107091730394</v>
+        <v>-0.3363636363636379</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12396,11 +12396,11 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>0.05736109316003507</v>
+        <v>-4.190909090909088</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12409,11 +12409,11 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>0.05736111510277869</v>
+        <v>-8.118181818181819</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12422,11 +12422,11 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>0.05736113736355486</v>
+        <v>-4.681818181818183</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12435,11 +12435,11 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>0.05736115968160566</v>
+        <v>-1.745454545454547</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12448,11 +12448,11 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>0.05736118153375377</v>
+        <v>5.409090909090909</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12461,11 +12461,11 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>0.05736120414859647</v>
+        <v>6.445454545454547</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12474,11 +12474,11 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>0.05736122551867437</v>
+        <v>10.74545454545455</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12487,11 +12487,24 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>0.05736124753107147</v>
+        <v>4.718181818181816</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B774" t="n">
+        <v>1.627272727272727</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>knn</t>
         </is>
       </c>
     </row>
@@ -12527,42 +12540,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -12578,458 +12591,458 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B2" t="n">
-        <v>23.7</v>
+        <v>19.89999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.007375873338697048</v>
+        <v>0.6181818181818192</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04809911194152505</v>
+        <v>1.399492506848113</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8599999999999994</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8267494407946</v>
+        <v>-14.35616874694824</v>
       </c>
       <c r="G2" t="n">
-        <v>1.587815545947298</v>
+        <v>-17.32560997454982</v>
       </c>
       <c r="H2" t="n">
-        <v>-27.71033537299975</v>
+        <v>-0.4786664679422703</v>
       </c>
       <c r="I2" t="n">
-        <v>2.935657734541286</v>
+        <v>-8.079808106374465</v>
       </c>
       <c r="J2" t="n">
-        <v>-44.91608810424805</v>
+        <v>5.470446705634455</v>
       </c>
       <c r="K2" t="n">
-        <v>13.23402760254975</v>
+        <v>16.40848447802228</v>
       </c>
       <c r="L2" t="n">
-        <v>39.75755779292946</v>
+        <v>47.79529606968819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B3" t="n">
-        <v>19.89999999999999</v>
+        <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.007375855225168926</v>
+        <v>-1.100000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04809911685291013</v>
+        <v>0.2257049311930127</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.689999999999999</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.25990846321783</v>
+        <v>-3.705910682678223</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.959959197072622</v>
+        <v>-5.197691987409044</v>
       </c>
       <c r="H3" t="n">
-        <v>5.965370706642035</v>
+        <v>-4.691087030085646</v>
       </c>
       <c r="I3" t="n">
-        <v>11.11001424876348</v>
+        <v>-1.111924933511838</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4673192203044891</v>
+        <v>9.796323981856808</v>
       </c>
       <c r="K3" t="n">
-        <v>23.00638236204064</v>
+        <v>23.09162527346935</v>
       </c>
       <c r="L3" t="n">
-        <v>69.07462205819999</v>
+        <v>69.01850603168451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B4" t="n">
-        <v>-16.19999999999999</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.007375836261387075</v>
+        <v>-1.545454545454545</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0480991214922426</v>
+        <v>-0.9003937247402036</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.580000000000001</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.432123017413437</v>
+        <v>8.895022392272949</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.055784006481534</v>
+        <v>19.24504916210358</v>
       </c>
       <c r="H4" t="n">
-        <v>-33.89168947173455</v>
+        <v>-7.82000695100103</v>
       </c>
       <c r="I4" t="n">
-        <v>12.04893262810423</v>
+        <v>-8.631864650205085</v>
       </c>
       <c r="J4" t="n">
-        <v>-34.81304550170898</v>
+        <v>13.57233161056464</v>
       </c>
       <c r="K4" t="n">
-        <v>32.69937781688039</v>
+        <v>29.73317940867295</v>
       </c>
       <c r="L4" t="n">
-        <v>98.15360840839479</v>
+        <v>90.06926709322853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B5" t="n">
-        <v>3.799999999999997</v>
+        <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.007375817663049955</v>
+        <v>0.2454545454545457</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04809912623593959</v>
+        <v>-1.766832768624704</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.07</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.518268860255077</v>
+        <v>-1.439794659614563</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.630738391978978</v>
+        <v>4.460779807521723</v>
       </c>
       <c r="H5" t="n">
-        <v>5.965370706642035</v>
+        <v>-9.038553028587573</v>
       </c>
       <c r="I5" t="n">
-        <v>19.17216876657948</v>
+        <v>6.280099472428866</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.528274059295654</v>
+        <v>16.87034296111586</v>
       </c>
       <c r="K5" t="n">
-        <v>42.31355596315203</v>
+        <v>36.40428745693691</v>
       </c>
       <c r="L5" t="n">
-        <v>126.9961428333551</v>
+        <v>110.9490302819049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B6" t="n">
-        <v>4.899999999999991</v>
+        <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.007375798802678496</v>
+        <v>1.372727272727273</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04809913096005403</v>
+        <v>-1.619741472019153</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.1</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.693335279169055</v>
+        <v>-0.07330860197544098</v>
       </c>
       <c r="G6" t="n">
-        <v>6.219259606631341</v>
+        <v>-26.56475816413113</v>
       </c>
       <c r="H6" t="n">
-        <v>-17.1466559755987</v>
+        <v>-8.07442092371541</v>
       </c>
       <c r="I6" t="n">
-        <v>25.78389924357493</v>
+        <v>-23.86272803408155</v>
       </c>
       <c r="J6" t="n">
-        <v>3.249172687530518</v>
+        <v>17.6009382555454</v>
       </c>
       <c r="K6" t="n">
-        <v>51.84962880556075</v>
+        <v>43.35671688817502</v>
       </c>
       <c r="L6" t="n">
-        <v>155.604361346445</v>
+        <v>131.6592272790137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.39999999999999</v>
+        <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.007375780441514823</v>
+        <v>-2.127272727272728</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04809913558452195</v>
+        <v>-0.7061100183591139</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8599999999999994</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.71427971686551</v>
+        <v>-6.301846504211426</v>
       </c>
       <c r="G7" t="n">
-        <v>-23.94145339002803</v>
+        <v>-13.4958834760393</v>
       </c>
       <c r="H7" t="n">
-        <v>-25.33730238347032</v>
+        <v>-5.086297438105177</v>
       </c>
       <c r="I7" t="n">
-        <v>24.60131068791674</v>
+        <v>-14.54681081485071</v>
       </c>
       <c r="J7" t="n">
-        <v>-43.05313110351562</v>
+        <v>21.34608058043334</v>
       </c>
       <c r="K7" t="n">
-        <v>61.30824151377726</v>
+        <v>50.50863497778334</v>
       </c>
       <c r="L7" t="n">
-        <v>183.9801994573578</v>
+        <v>152.2013500941786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.700000000000003</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.007375761592573055</v>
+        <v>0.2363636363636346</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04809914031491758</v>
+        <v>0.6538957564868044</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.710000000000001</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.713143583858779</v>
+        <v>-3.893887042999268</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.61555631537004</v>
+        <v>-13.40635762522713</v>
       </c>
       <c r="H8" t="n">
-        <v>-27.21879605789746</v>
+        <v>-0.9598556639461577</v>
       </c>
       <c r="I8" t="n">
-        <v>31.77982313122597</v>
+        <v>-3.305977486910558</v>
       </c>
       <c r="J8" t="n">
-        <v>-23.2375316619873</v>
+        <v>27.1088790026819</v>
       </c>
       <c r="K8" t="n">
-        <v>70.69006668635764</v>
+        <v>57.75374490854012</v>
       </c>
       <c r="L8" t="n">
-        <v>212.1256749609804</v>
+        <v>172.576674111603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1000000000000085</v>
+        <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.007375742787818884</v>
+        <v>5.063636363636363</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04809914497758427</v>
+        <v>1.620242560774986</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.110000000000002</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.600234497656915</v>
+        <v>11.00482273101807</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.381508413584601</v>
+        <v>17.28958497929047</v>
       </c>
       <c r="H9" t="n">
-        <v>-21.76376259233572</v>
+        <v>3.201608958248801</v>
       </c>
       <c r="I9" t="n">
-        <v>39.31216045396098</v>
+        <v>3.386111565317465</v>
       </c>
       <c r="J9" t="n">
-        <v>-14.75483417510986</v>
+        <v>34.57446460543784</v>
       </c>
       <c r="K9" t="n">
-        <v>79.99568795891588</v>
+        <v>64.81247529713873</v>
       </c>
       <c r="L9" t="n">
-        <v>240.042538764513</v>
+        <v>192.7865184731107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B10" t="n">
-        <v>-13.10000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.007375724439957848</v>
+        <v>6.427272727272728</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04809914958775607</v>
+        <v>2.280153450385072</v>
       </c>
       <c r="E10" t="n">
-        <v>3.2</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F10" t="n">
-        <v>2.526288989634081</v>
+        <v>37.58415603637695</v>
       </c>
       <c r="G10" t="n">
-        <v>3.370442030314115</v>
+        <v>66.2530568017156</v>
       </c>
       <c r="H10" t="n">
-        <v>3.726243676336817</v>
+        <v>6.384444846058166</v>
       </c>
       <c r="I10" t="n">
-        <v>46.48753604476234</v>
+        <v>27.50717832543545</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.32335090637207</v>
+        <v>44.38834011081399</v>
       </c>
       <c r="K10" t="n">
-        <v>89.22571353247412</v>
+        <v>71.71435840347708</v>
       </c>
       <c r="L10" t="n">
-        <v>267.7326154714501</v>
+        <v>212.8322569025156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B11" t="n">
-        <v>38.5</v>
+        <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.007375705880088484</v>
+        <v>3.236363636363635</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04809915435495782</v>
+        <v>2.39011852412028</v>
       </c>
       <c r="E11" t="n">
-        <v>4.7</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F11" t="n">
-        <v>5.676287313735113</v>
+        <v>0.4477115571498871</v>
       </c>
       <c r="G11" t="n">
-        <v>27.46181632388767</v>
+        <v>13.20192925850797</v>
       </c>
       <c r="H11" t="n">
-        <v>28.65212088613022</v>
+        <v>7.545280265325228</v>
       </c>
       <c r="I11" t="n">
-        <v>58.34027627972959</v>
+        <v>16.04297785250718</v>
       </c>
       <c r="J11" t="n">
-        <v>33.28797149658203</v>
+        <v>41.46512425780818</v>
       </c>
       <c r="K11" t="n">
-        <v>98.38078000058397</v>
+        <v>78.37860443712098</v>
       </c>
       <c r="L11" t="n">
-        <v>295.197814861987</v>
+        <v>232.7150299297121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.799999999999983</v>
+        <v>4.900000000000006</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.007375687817907484</v>
+        <v>2.109090909090909</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04809915885337546</v>
+        <v>2.497047979731117</v>
       </c>
       <c r="E12" t="n">
-        <v>1.189999999999998</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F12" t="n">
-        <v>6.788896817895228</v>
+        <v>4.372786998748779</v>
       </c>
       <c r="G12" t="n">
-        <v>16.03008585566835</v>
+        <v>3.69292428465336</v>
       </c>
       <c r="H12" t="n">
-        <v>-12.8093625245237</v>
+        <v>6.595225579204865</v>
       </c>
       <c r="I12" t="n">
-        <v>57.16817979912119</v>
+        <v>4.789853163569622</v>
       </c>
       <c r="J12" t="n">
-        <v>-12.72276592254639</v>
+        <v>43.66966293634162</v>
       </c>
       <c r="K12" t="n">
-        <v>107.4614018319529</v>
+        <v>84.98799022432134</v>
       </c>
       <c r="L12" t="n">
-        <v>322.4396803425299</v>
+        <v>252.4362578357024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B13" t="n">
-        <v>7.299999999999983</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00737566899760278</v>
+        <v>2.009090909090911</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04809916354221855</v>
+        <v>1.769949422710348</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="F13" t="n">
-        <v>5.825054634025459</v>
+        <v>5.673378944396973</v>
       </c>
       <c r="G13" t="n">
-        <v>4.780715763185643</v>
+        <v>-11.70153928118806</v>
       </c>
       <c r="H13" t="n">
-        <v>11.34969547006599</v>
+        <v>3.163255760337611</v>
       </c>
       <c r="I13" t="n">
-        <v>64.55053398717999</v>
+        <v>0.3338760690406671</v>
       </c>
       <c r="J13" t="n">
-        <v>26.74729347229004</v>
+        <v>1.596816395921678</v>
       </c>
       <c r="K13" t="n">
-        <v>116.4682541642171</v>
+        <v>0.6996616641842901</v>
       </c>
       <c r="L13" t="n">
-        <v>349.4602373251911</v>
+        <v>0.2983707123119927</v>
       </c>
     </row>
   </sheetData>
@@ -13059,42 +13072,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -13110,842 +13123,842 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>143.1573607304408</v>
+        <v>154.3818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>143.1104550530354</v>
+        <v>152.0450663508189</v>
       </c>
       <c r="D2" t="n">
-        <v>142.75</v>
+        <v>152.675300400534</v>
       </c>
       <c r="E2" t="n">
-        <v>149.0503341460492</v>
+        <v>158.645346736908</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4460532910052</v>
+        <v>153.2572263712006</v>
       </c>
       <c r="G2" t="n">
-        <v>145.9189219880587</v>
+        <v>154.5033726050261</v>
       </c>
       <c r="H2" t="n">
-        <v>144.2853958024139</v>
+        <v>146.8185815401979</v>
       </c>
       <c r="I2" t="n">
-        <v>145.705320930481</v>
+        <v>153.2911242750161</v>
       </c>
       <c r="J2" t="n">
-        <v>143.1945921199967</v>
+        <v>152.550884730655</v>
       </c>
       <c r="K2" t="n">
-        <v>143.315960576514</v>
+        <v>152.9322874406121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>143.2147214839728</v>
+        <v>152.1181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>143.1209083985933</v>
+        <v>147.2707630909392</v>
       </c>
       <c r="D3" t="n">
-        <v>142.76</v>
+        <v>152.7506008010681</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9613780029637</v>
+        <v>145.7988425254822</v>
       </c>
       <c r="F3" t="n">
-        <v>137.6807782039508</v>
+        <v>147.6127657453681</v>
       </c>
       <c r="G3" t="n">
-        <v>147.1464730686471</v>
+        <v>151.2812407913577</v>
       </c>
       <c r="H3" t="n">
-        <v>145.4044384071451</v>
+        <v>144.7798548816955</v>
       </c>
       <c r="I3" t="n">
-        <v>159.297060585022</v>
+        <v>150.0848804989195</v>
       </c>
       <c r="J3" t="n">
-        <v>143.289306256405</v>
+        <v>151.0954692509752</v>
       </c>
       <c r="K3" t="n">
-        <v>143.532288886649</v>
+        <v>153.2650438609183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>143.2720822606953</v>
+        <v>151.7818181818182</v>
       </c>
       <c r="C4" t="n">
-        <v>143.1313600440695</v>
+        <v>142.847734493691</v>
       </c>
       <c r="D4" t="n">
-        <v>139.91</v>
+        <v>152.8259012016021</v>
       </c>
       <c r="E4" t="n">
-        <v>147.8047795077601</v>
+        <v>147.6341383218765</v>
       </c>
       <c r="F4" t="n">
-        <v>135.6204670411221</v>
+        <v>147.57780781964</v>
       </c>
       <c r="G4" t="n">
-        <v>144.6668564012198</v>
+        <v>145.5666364903554</v>
       </c>
       <c r="H4" t="n">
-        <v>143.7504444106758</v>
+        <v>137.800492092024</v>
       </c>
       <c r="I4" t="n">
-        <v>152.3237157821655</v>
+        <v>148.104299231183</v>
       </c>
       <c r="J4" t="n">
-        <v>143.3841323959383</v>
+        <v>149.757275934048</v>
       </c>
       <c r="K4" t="n">
-        <v>143.7489548830501</v>
+        <v>153.5981921068509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>143.3294430602515</v>
+        <v>147.9454545454545</v>
       </c>
       <c r="C5" t="n">
-        <v>143.14180996588</v>
+        <v>139.579966357066</v>
       </c>
       <c r="D5" t="n">
-        <v>139.94</v>
+        <v>152.9012016021362</v>
       </c>
       <c r="E5" t="n">
-        <v>142.1378858070531</v>
+        <v>154.4962441682815</v>
       </c>
       <c r="F5" t="n">
-        <v>128.6228113730772</v>
+        <v>147.2821410956608</v>
       </c>
       <c r="G5" t="n">
-        <v>143.084990109181</v>
+        <v>139.5249404209967</v>
       </c>
       <c r="H5" t="n">
-        <v>142.8825172252101</v>
+        <v>142.5562335642726</v>
       </c>
       <c r="I5" t="n">
-        <v>157.703982925415</v>
+        <v>147.3230970606691</v>
       </c>
       <c r="J5" t="n">
-        <v>143.4790424631207</v>
+        <v>148.8043120624915</v>
       </c>
       <c r="K5" t="n">
-        <v>143.9658743632307</v>
+        <v>153.9317682282724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>143.3868038828725</v>
+        <v>141.1272727272727</v>
       </c>
       <c r="C6" t="n">
-        <v>143.15225818443</v>
+        <v>129.9926364185936</v>
       </c>
       <c r="D6" t="n">
-        <v>136.5</v>
+        <v>152.9765020026702</v>
       </c>
       <c r="E6" t="n">
-        <v>136.3738032577548</v>
+        <v>146.811928486824</v>
       </c>
       <c r="F6" t="n">
-        <v>133.33233769353</v>
+        <v>137.8207502131156</v>
       </c>
       <c r="G6" t="n">
-        <v>143.6767513510047</v>
+        <v>131.4272088329993</v>
       </c>
       <c r="H6" t="n">
-        <v>142.4973744569716</v>
+        <v>120.9197144947212</v>
       </c>
       <c r="I6" t="n">
-        <v>164.296150302887</v>
+        <v>140.6982575290119</v>
       </c>
       <c r="J6" t="n">
-        <v>143.5740532671338</v>
+        <v>145.7449816264301</v>
       </c>
       <c r="K6" t="n">
-        <v>144.1830977340987</v>
+        <v>154.2658064580265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>143.4441647280784</v>
+        <v>136.4454545454545</v>
       </c>
       <c r="C7" t="n">
-        <v>143.1627047138545</v>
+        <v>127.6994001903399</v>
       </c>
       <c r="D7" t="n">
-        <v>129.4</v>
+        <v>153.0518024032043</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0176800408655</v>
+        <v>148.2447428464889</v>
       </c>
       <c r="F7" t="n">
-        <v>111.701684757198</v>
+        <v>133.6480181277932</v>
       </c>
       <c r="G7" t="n">
-        <v>133.7796136757356</v>
+        <v>128.2842210872611</v>
       </c>
       <c r="H7" t="n">
-        <v>137.7592531188095</v>
+        <v>105.8351640009993</v>
       </c>
       <c r="I7" t="n">
-        <v>156.277161693573</v>
+        <v>137.9824188765425</v>
       </c>
       <c r="J7" t="n">
-        <v>143.6691584724911</v>
+        <v>145.1171905903772</v>
       </c>
       <c r="K7" t="n">
-        <v>144.4006059755406</v>
+        <v>154.6003691775875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>143.50152559631</v>
+        <v>134.7</v>
       </c>
       <c r="C8" t="n">
-        <v>143.173149547406</v>
+        <v>127.7022073958191</v>
       </c>
       <c r="D8" t="n">
-        <v>125.43</v>
+        <v>153.1271028037383</v>
       </c>
       <c r="E8" t="n">
-        <v>124.815363933563</v>
+        <v>150.6650423765182</v>
       </c>
       <c r="F8" t="n">
-        <v>96.58001679174382</v>
+        <v>131.613199478253</v>
       </c>
       <c r="G8" t="n">
-        <v>126.8049072167186</v>
+        <v>128.6925904415752</v>
       </c>
       <c r="H8" t="n">
-        <v>134.8833284252625</v>
+        <v>101.7175048301125</v>
       </c>
       <c r="I8" t="n">
-        <v>149.2996521949768</v>
+        <v>137.7222204355277</v>
       </c>
       <c r="J8" t="n">
-        <v>143.7644066384771</v>
+        <v>145.2549397796595</v>
       </c>
       <c r="K8" t="n">
-        <v>144.6185447717152</v>
+        <v>154.935509139421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>143.558886487486</v>
+        <v>140.1090909090909</v>
       </c>
       <c r="C9" t="n">
-        <v>143.1835926930481</v>
+        <v>126.8273031960921</v>
       </c>
       <c r="D9" t="n">
-        <v>123.89</v>
+        <v>153.2024032042724</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0801061097166</v>
+        <v>147.8907990217209</v>
       </c>
       <c r="F9" t="n">
-        <v>92.41477750569589</v>
+        <v>130.4832380791981</v>
       </c>
       <c r="G9" t="n">
-        <v>124.4616721837883</v>
+        <v>130.6879748029573</v>
       </c>
       <c r="H9" t="n">
-        <v>133.6802869080507</v>
+        <v>104.4349744141595</v>
       </c>
       <c r="I9" t="n">
-        <v>141.1755457878113</v>
+        <v>138.6742144912327</v>
       </c>
       <c r="J9" t="n">
-        <v>143.8598115111089</v>
+        <v>145.1003200373561</v>
       </c>
       <c r="K9" t="n">
-        <v>144.8369553527925</v>
+        <v>155.2712537117038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>143.6162474011917</v>
+        <v>147.2272727272727</v>
       </c>
       <c r="C10" t="n">
-        <v>143.1940341612934</v>
+        <v>141.0754648845229</v>
       </c>
       <c r="D10" t="n">
-        <v>128.02</v>
+        <v>153.2777036048064</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7450284697335</v>
+        <v>161.7000860929489</v>
       </c>
       <c r="F10" t="n">
-        <v>95.11437375975241</v>
+        <v>147.5500754377081</v>
       </c>
       <c r="G10" t="n">
-        <v>127.4092165726565</v>
+        <v>140.2310544284417</v>
       </c>
       <c r="H10" t="n">
-        <v>135.999798118362</v>
+        <v>134.0035315796262</v>
       </c>
       <c r="I10" t="n">
-        <v>154.3225756645203</v>
+        <v>147.9375419455517</v>
       </c>
       <c r="J10" t="n">
-        <v>143.9553806013962</v>
+        <v>149.9869454576398</v>
       </c>
       <c r="K10" t="n">
-        <v>145.0558602417034</v>
+        <v>155.6076678835902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>143.6736083376104</v>
+        <v>156.4545454545454</v>
       </c>
       <c r="C11" t="n">
-        <v>143.2044739176669</v>
+        <v>140.406856157574</v>
       </c>
       <c r="D11" t="n">
-        <v>136.04</v>
+        <v>153.3530040053405</v>
       </c>
       <c r="E11" t="n">
-        <v>136.0427490941574</v>
+        <v>175.3694538831711</v>
       </c>
       <c r="F11" t="n">
-        <v>124.6524158709783</v>
+        <v>150.6886563140725</v>
       </c>
       <c r="G11" t="n">
-        <v>145.9654148740876</v>
+        <v>145.1496393906311</v>
       </c>
       <c r="H11" t="n">
-        <v>142.4334120810158</v>
+        <v>148.885362519269</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0494261741638</v>
+        <v>152.8741935532187</v>
       </c>
       <c r="J11" t="n">
-        <v>144.0511473427279</v>
+        <v>149.901501670729</v>
       </c>
       <c r="K11" t="n">
-        <v>145.2753597729062</v>
+        <v>155.9446448492727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>143.7309692962637</v>
+        <v>161.1727272727273</v>
       </c>
       <c r="C12" t="n">
-        <v>143.2149120222993</v>
+        <v>147.4795971668252</v>
       </c>
       <c r="D12" t="n">
-        <v>145.38</v>
+        <v>153.4283044058745</v>
       </c>
       <c r="E12" t="n">
-        <v>140.4291317982778</v>
+        <v>186.2475170850754</v>
       </c>
       <c r="F12" t="n">
-        <v>139.5453728649968</v>
+        <v>155.7594663688791</v>
       </c>
       <c r="G12" t="n">
-        <v>149.0632734045184</v>
+        <v>153.1829097003134</v>
       </c>
       <c r="H12" t="n">
-        <v>146.5408191596313</v>
+        <v>154.5979679081274</v>
       </c>
       <c r="I12" t="n">
-        <v>178.651745891571</v>
+        <v>157.7796126090725</v>
       </c>
       <c r="J12" t="n">
-        <v>144.1470603448358</v>
+        <v>152.3966944699506</v>
       </c>
       <c r="K12" t="n">
-        <v>145.4952997159443</v>
+        <v>156.2821818371522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>143.7883302778454</v>
+        <v>163.0545454545454</v>
       </c>
       <c r="C13" t="n">
-        <v>143.2253484555083</v>
+        <v>155.0182588041681</v>
       </c>
       <c r="D13" t="n">
-        <v>149.35</v>
+        <v>153.5036048064086</v>
       </c>
       <c r="E13" t="n">
-        <v>148.6828063500248</v>
+        <v>194.2629580259323</v>
       </c>
       <c r="F13" t="n">
-        <v>145.2567513285372</v>
+        <v>156.4899180399926</v>
       </c>
       <c r="G13" t="n">
-        <v>155.4304965883153</v>
+        <v>160.7211747343273</v>
       </c>
       <c r="H13" t="n">
-        <v>149.8443109632789</v>
+        <v>153.1337066218335</v>
       </c>
       <c r="I13" t="n">
-        <v>188.8854294776916</v>
+        <v>161.2510876223817</v>
       </c>
       <c r="J13" t="n">
-        <v>144.2431409998618</v>
+        <v>155.0473574108359</v>
       </c>
       <c r="K13" t="n">
-        <v>145.7157442662316</v>
+        <v>156.6202086219312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>143.8456912820185</v>
+        <v>163.5454545454545</v>
       </c>
       <c r="C14" t="n">
-        <v>143.2357832296853</v>
+        <v>155.59941138183</v>
       </c>
       <c r="D14" t="n">
-        <v>150.2</v>
+        <v>153.5789052069426</v>
       </c>
       <c r="E14" t="n">
-        <v>155.8039457371164</v>
+        <v>199.6945476293564</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6544832571887</v>
+        <v>155.6095511435345</v>
       </c>
       <c r="G14" t="n">
-        <v>155.7024893321552</v>
+        <v>163.4659058377211</v>
       </c>
       <c r="H14" t="n">
-        <v>152.2327677706185</v>
+        <v>148.5010341529394</v>
       </c>
       <c r="I14" t="n">
-        <v>203.2598896980286</v>
+        <v>162.0735148595142</v>
       </c>
       <c r="J14" t="n">
-        <v>144.3393503793957</v>
+        <v>155.378987128466</v>
       </c>
       <c r="K14" t="n">
-        <v>145.9365766264831</v>
+        <v>156.9586447966255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>143.903052308529</v>
+        <v>160.2272727272727</v>
       </c>
       <c r="C15" t="n">
-        <v>143.2462163410593</v>
+        <v>149.5422393514738</v>
       </c>
       <c r="D15" t="n">
-        <v>149.52</v>
+        <v>153.6542056074767</v>
       </c>
       <c r="E15" t="n">
-        <v>158.7921403519803</v>
+        <v>188.9452905416489</v>
       </c>
       <c r="F15" t="n">
-        <v>138.9919813938752</v>
+        <v>149.493032439934</v>
       </c>
       <c r="G15" t="n">
-        <v>155.9494764667971</v>
+        <v>159.1654399922344</v>
       </c>
       <c r="H15" t="n">
-        <v>152.6716172414131</v>
+        <v>146.2708213261171</v>
       </c>
       <c r="I15" t="n">
-        <v>207.6809497833252</v>
+        <v>158.5455718769458</v>
       </c>
       <c r="J15" t="n">
-        <v>144.4356611602081</v>
+        <v>153.4979665944615</v>
       </c>
       <c r="K15" t="n">
-        <v>146.157714831036</v>
+        <v>157.2974548244342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>143.9604133569069</v>
+        <v>159.8909090909091</v>
       </c>
       <c r="C16" t="n">
-        <v>143.256647787008</v>
+        <v>145.131930167575</v>
       </c>
       <c r="D16" t="n">
-        <v>146.67</v>
+        <v>153.7295060080107</v>
       </c>
       <c r="E16" t="n">
-        <v>154.2691527981541</v>
+        <v>190.4804454803467</v>
       </c>
       <c r="F16" t="n">
-        <v>136.740660375998</v>
+        <v>146.6335404869498</v>
       </c>
       <c r="G16" t="n">
-        <v>151.5315959220489</v>
+        <v>153.5929733495533</v>
       </c>
       <c r="H16" t="n">
-        <v>150.7743480068771</v>
+        <v>140.4511357025984</v>
       </c>
       <c r="I16" t="n">
-        <v>200.7649317741394</v>
+        <v>156.6171762294783</v>
       </c>
       <c r="J16" t="n">
-        <v>144.5320443422657</v>
+        <v>152.1660228735794</v>
       </c>
       <c r="K16" t="n">
-        <v>146.3790718828821</v>
+        <v>157.6366324451527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>144.0177744278242</v>
+        <v>155.7</v>
       </c>
       <c r="C17" t="n">
-        <v>143.2670775839156</v>
+        <v>140.8824621092893</v>
       </c>
       <c r="D17" t="n">
-        <v>145.78</v>
+        <v>153.8048064085447</v>
       </c>
       <c r="E17" t="n">
-        <v>148.756438968833</v>
+        <v>198.4192977905273</v>
       </c>
       <c r="F17" t="n">
-        <v>130.8643293934755</v>
+        <v>144.9015522302014</v>
       </c>
       <c r="G17" t="n">
-        <v>149.7689355892244</v>
+        <v>146.9180922051298</v>
       </c>
       <c r="H17" t="n">
-        <v>150.374332857374</v>
+        <v>143.8560928284975</v>
       </c>
       <c r="I17" t="n">
-        <v>211.84396276474</v>
+        <v>155.5064042385902</v>
       </c>
       <c r="J17" t="n">
-        <v>144.6285154309684</v>
+        <v>150.8878221161447</v>
       </c>
       <c r="K17" t="n">
-        <v>146.6006942811652</v>
+        <v>157.9761978306001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>144.0751355209842</v>
+        <v>147.5818181818182</v>
       </c>
       <c r="C18" t="n">
-        <v>143.2775057320062</v>
+        <v>131.9618586516845</v>
       </c>
       <c r="D18" t="n">
-        <v>142.34</v>
+        <v>153.8801068090788</v>
       </c>
       <c r="E18" t="n">
-        <v>142.1606112238213</v>
+        <v>199.1426238179207</v>
       </c>
       <c r="F18" t="n">
-        <v>134.2607542959406</v>
+        <v>139.6875126966984</v>
       </c>
       <c r="G18" t="n">
-        <v>150.3606968310481</v>
+        <v>139.2596458549604</v>
       </c>
       <c r="H18" t="n">
-        <v>149.4443133241221</v>
+        <v>123.9470445888983</v>
       </c>
       <c r="I18" t="n">
-        <v>214.7561839580536</v>
+        <v>150.000278819972</v>
       </c>
       <c r="J18" t="n">
-        <v>144.7250743456988</v>
+        <v>148.0527212215554</v>
       </c>
       <c r="K18" t="n">
-        <v>146.8225817841059</v>
+        <v>158.316198203903</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>144.132496636087</v>
+        <v>142.9</v>
       </c>
       <c r="C19" t="n">
-        <v>143.2879322314398</v>
+        <v>128.5509344262657</v>
       </c>
       <c r="D19" t="n">
-        <v>133.51</v>
+        <v>153.9554072096128</v>
       </c>
       <c r="E19" t="n">
-        <v>134.1987390957643</v>
+        <v>191.3972038388252</v>
       </c>
       <c r="F19" t="n">
-        <v>114.3016438757212</v>
+        <v>133.8063535964168</v>
       </c>
       <c r="G19" t="n">
-        <v>142.1528916640203</v>
+        <v>135.4881113206352</v>
       </c>
       <c r="H19" t="n">
-        <v>145.0636678785849</v>
+        <v>107.7257171181098</v>
       </c>
       <c r="I19" t="n">
-        <v>211.3433564662933</v>
+        <v>145.87685480718</v>
       </c>
       <c r="J19" t="n">
-        <v>144.8217314661311</v>
+        <v>147.0543468032112</v>
       </c>
       <c r="K19" t="n">
-        <v>147.0447655308664</v>
+        <v>158.6566987737553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>144.1898577734506</v>
+        <v>141.1545454545454</v>
       </c>
       <c r="C20" t="n">
-        <v>143.2983570926731</v>
+        <v>127.9169360302305</v>
       </c>
       <c r="D20" t="n">
-        <v>129.54</v>
+        <v>154.0307076101469</v>
       </c>
       <c r="E20" t="n">
-        <v>130.2602248941504</v>
+        <v>194.4842278122902</v>
       </c>
       <c r="F20" t="n">
-        <v>98.07965164085067</v>
+        <v>132.4144759956165</v>
       </c>
       <c r="G20" t="n">
-        <v>135.1781852050034</v>
+        <v>135.593563967453</v>
       </c>
       <c r="H20" t="n">
-        <v>142.4792264911587</v>
+        <v>102.5560275514685</v>
       </c>
       <c r="I20" t="n">
-        <v>209.862531042099</v>
+        <v>145.4580858650123</v>
       </c>
       <c r="J20" t="n">
-        <v>144.918520863865</v>
+        <v>146.9818002811416</v>
       </c>
       <c r="K20" t="n">
-        <v>147.2673477254711</v>
+        <v>158.9977572030476</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>144.2472189331322</v>
+        <v>146.5636363636363</v>
       </c>
       <c r="C21" t="n">
-        <v>143.3087803204795</v>
+        <v>128.1418218144813</v>
       </c>
       <c r="D21" t="n">
-        <v>128</v>
+        <v>154.1060080106809</v>
       </c>
       <c r="E21" t="n">
-        <v>130.1410163044249</v>
+        <v>196.3859910130501</v>
       </c>
       <c r="F21" t="n">
-        <v>92.90131430825038</v>
+        <v>135.298829505159</v>
       </c>
       <c r="G21" t="n">
-        <v>132.8349501720731</v>
+        <v>138.2006369433937</v>
       </c>
       <c r="H21" t="n">
-        <v>141.5647204071429</v>
+        <v>105.1604751638906</v>
       </c>
       <c r="I21" t="n">
-        <v>206.5284181594849</v>
+        <v>147.2442562152573</v>
       </c>
       <c r="J21" t="n">
-        <v>145.0154621123533</v>
+        <v>147.1957472102146</v>
       </c>
       <c r="K21" t="n">
-        <v>147.4903870834481</v>
+        <v>159.3394118054816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>144.304580114666</v>
+        <v>153.0090909090909</v>
       </c>
       <c r="C22" t="n">
-        <v>143.3192019135774</v>
+        <v>143.6640887578086</v>
       </c>
       <c r="D22" t="n">
-        <v>132.97</v>
+        <v>154.181308411215</v>
       </c>
       <c r="E22" t="n">
-        <v>132.2711873112226</v>
+        <v>203.1983121991157</v>
       </c>
       <c r="F22" t="n">
-        <v>95.48803125401223</v>
+        <v>152.5535788647818</v>
       </c>
       <c r="G22" t="n">
-        <v>138.8538724701922</v>
+        <v>148.8001845284396</v>
       </c>
       <c r="H22" t="n">
-        <v>143.666824433837</v>
+        <v>136.3852372224313</v>
       </c>
       <c r="I22" t="n">
-        <v>214.5128980636597</v>
+        <v>156.1564686257091</v>
       </c>
       <c r="J22" t="n">
-        <v>145.1125653989888</v>
+        <v>152.5090249169072</v>
       </c>
       <c r="K22" t="n">
-        <v>147.7139141687229</v>
+        <v>159.6816775816981</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>144.3619413188146</v>
+        <v>163.7545454545454</v>
       </c>
       <c r="C23" t="n">
-        <v>143.3296218898102</v>
+        <v>145.9336296258776</v>
       </c>
       <c r="D23" t="n">
-        <v>140.25</v>
+        <v>154.256608811749</v>
       </c>
       <c r="E23" t="n">
-        <v>143.1469940879638</v>
+        <v>216.667313015461</v>
       </c>
       <c r="F23" t="n">
-        <v>126.6338639174862</v>
+        <v>159.59532810845</v>
       </c>
       <c r="G23" t="n">
-        <v>160.3273747293875</v>
+        <v>156.0735817378529</v>
       </c>
       <c r="H23" t="n">
-        <v>151.0463099141468</v>
+        <v>150.3698237050695</v>
       </c>
       <c r="I23" t="n">
-        <v>236.6786943435669</v>
+        <v>162.1103294620553</v>
       </c>
       <c r="J23" t="n">
-        <v>145.2098593374723</v>
+        <v>153.4049201929003</v>
       </c>
       <c r="K23" t="n">
-        <v>147.938014803792</v>
+        <v>160.0245221410745</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>144.4193025443332</v>
+        <v>168.4727272727272</v>
       </c>
       <c r="C24" t="n">
-        <v>143.3400402335362</v>
+        <v>152.0342464458087</v>
       </c>
       <c r="D24" t="n">
-        <v>149.19</v>
+        <v>154.3319092122831</v>
       </c>
       <c r="E24" t="n">
-        <v>150.0511033362729</v>
+        <v>230.1312545895576</v>
       </c>
       <c r="F24" t="n">
-        <v>140.6455057598784</v>
+        <v>164.6930575847726</v>
       </c>
       <c r="G24" t="n">
-        <v>167.0871499909622</v>
+        <v>163.9416581012216</v>
       </c>
       <c r="H24" t="n">
-        <v>155.012259041474</v>
+        <v>156.8578082347191</v>
       </c>
       <c r="I24" t="n">
-        <v>241.1501675605774</v>
+        <v>167.1860333853054</v>
       </c>
       <c r="J24" t="n">
-        <v>145.3073018036568</v>
+        <v>155.5780186452343</v>
       </c>
       <c r="K24" t="n">
-        <v>148.1625626331009</v>
+        <v>160.3679002776114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>144.4766637918643</v>
+        <v>170.1</v>
       </c>
       <c r="C25" t="n">
-        <v>143.3504569605388</v>
+        <v>156.4679832509351</v>
       </c>
       <c r="D25" t="n">
-        <v>153.16</v>
+        <v>154.4072096128171</v>
       </c>
       <c r="E25" t="n">
-        <v>158.0691930182104</v>
+        <v>238.2136978268623</v>
       </c>
       <c r="F25" t="n">
-        <v>147.0782048519046</v>
+        <v>165.5799867279581</v>
       </c>
       <c r="G25" t="n">
-        <v>172.6632104038646</v>
+        <v>169.9659340088346</v>
       </c>
       <c r="H25" t="n">
-        <v>158.8359212315852</v>
+        <v>153.3326211722379</v>
       </c>
       <c r="I25" t="n">
-        <v>257.2255230903626</v>
+        <v>169.7147955715812</v>
       </c>
       <c r="J25" t="n">
-        <v>145.4048952672009</v>
+        <v>157.1956471099493</v>
       </c>
       <c r="K25" t="n">
-        <v>148.3875650491997</v>
+        <v>160.7117484660958</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,10 +489,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
         </is>
@@ -515,7 +520,7 @@
         <v>6.045346736907959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6572263712006398</v>
+        <v>7.556859886019079</v>
       </c>
       <c r="G2" t="n">
         <v>0.07530040053404534</v>
@@ -527,10 +532,13 @@
         <v>-5.78141845980207</v>
       </c>
       <c r="J2" t="n">
+        <v>3.345664390983172</v>
+      </c>
+      <c r="K2" t="n">
         <v>-0.04911526934498436</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.6911242750161224</v>
+      <c r="L2" t="n">
+        <v>1.132435725810248</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +558,7 @@
         <v>-12.84650421142578</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.644460625832509</v>
+        <v>4.631323687339851</v>
       </c>
       <c r="G3" t="n">
         <v>0.07530040053404534</v>
@@ -562,10 +570,13 @@
         <v>-2.038726658502481</v>
       </c>
       <c r="J3" t="n">
+        <v>-2.759280635008337</v>
+      </c>
+      <c r="K3" t="n">
         <v>-1.455415479679816</v>
       </c>
-      <c r="K3" t="n">
-        <v>-3.20624377609667</v>
+      <c r="L3" t="n">
+        <v>-2.992810114533362</v>
       </c>
     </row>
     <row r="4">
@@ -585,7 +596,7 @@
         <v>1.835295796394348</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03495792572807982</v>
+        <v>7.668981264814643</v>
       </c>
       <c r="G4" t="n">
         <v>0.07530040053404534</v>
@@ -597,10 +608,13 @@
         <v>-6.979362789671423</v>
       </c>
       <c r="J4" t="n">
+        <v>4.882934788739271</v>
+      </c>
+      <c r="K4" t="n">
         <v>-1.338193316927162</v>
       </c>
-      <c r="K4" t="n">
-        <v>-1.980581267736424</v>
+      <c r="L4" t="n">
+        <v>-0.9847047548282996</v>
       </c>
     </row>
     <row r="5">
@@ -620,7 +634,7 @@
         <v>6.862105846405029</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2956667239791535</v>
+        <v>6.974004623086842</v>
       </c>
       <c r="G5" t="n">
         <v>0.07530040053404534</v>
@@ -632,10 +646,13 @@
         <v>4.755741472248615</v>
       </c>
       <c r="J5" t="n">
+        <v>-1.741124274075383</v>
+      </c>
+      <c r="K5" t="n">
         <v>-0.9529638715565129</v>
       </c>
-      <c r="K5" t="n">
-        <v>-0.781202170513972</v>
+      <c r="L5" t="n">
+        <v>-0.8492142578874424</v>
       </c>
     </row>
     <row r="6">
@@ -655,7 +672,7 @@
         <v>-7.68431568145752</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.461390882545279</v>
+        <v>-3.406891879698938</v>
       </c>
       <c r="G6" t="n">
         <v>0.07530040053404534</v>
@@ -667,10 +684,13 @@
         <v>-21.63651906955145</v>
       </c>
       <c r="J6" t="n">
+        <v>-6.012575665649568</v>
+      </c>
+      <c r="K6" t="n">
         <v>-3.059330436061397</v>
       </c>
-      <c r="K6" t="n">
-        <v>-6.624839531657144</v>
+      <c r="L6" t="n">
+        <v>-6.402826807051099</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +710,7 @@
         <v>1.432814359664917</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.172732085322393</v>
+        <v>-3.870261756378207</v>
       </c>
       <c r="G7" t="n">
         <v>0.07530040053404534</v>
@@ -702,10 +722,13 @@
         <v>-15.08455049372193</v>
       </c>
       <c r="J7" t="n">
+        <v>-3.332236675431846</v>
+      </c>
+      <c r="K7" t="n">
         <v>-0.6277910360529074</v>
       </c>
-      <c r="K7" t="n">
-        <v>-2.71583865246946</v>
+      <c r="L7" t="n">
+        <v>-2.751939290130674</v>
       </c>
     </row>
     <row r="8">
@@ -725,7 +748,7 @@
         <v>2.420299530029297</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.034818649540184</v>
+        <v>0.7488057736114099</v>
       </c>
       <c r="G8" t="n">
         <v>0.07530040053404534</v>
@@ -737,10 +760,13 @@
         <v>-4.117659170886816</v>
       </c>
       <c r="J8" t="n">
+        <v>-6.90445505432688</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.137749189282276</v>
       </c>
-      <c r="K8" t="n">
-        <v>-0.2601984410147316</v>
+      <c r="L8" t="n">
+        <v>-1.072657092128385</v>
       </c>
     </row>
     <row r="9">
@@ -760,7 +786,7 @@
         <v>-2.774243354797363</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.129961399054897</v>
+        <v>3.802957909734822</v>
       </c>
       <c r="G9" t="n">
         <v>0.07530040053404534</v>
@@ -772,10 +798,13 @@
         <v>2.717469584047073</v>
       </c>
       <c r="J9" t="n">
+        <v>3.153712602015931</v>
+      </c>
+      <c r="K9" t="n">
         <v>-0.1546197423033897</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.9519940557049453</v>
+      <c r="L9" t="n">
+        <v>1.299892535406434</v>
       </c>
     </row>
     <row r="10">
@@ -795,7 +824,7 @@
         <v>13.80928707122803</v>
       </c>
       <c r="F10" t="n">
-        <v>17.06683735850999</v>
+        <v>16.08344060108909</v>
       </c>
       <c r="G10" t="n">
         <v>0.07530040053404534</v>
@@ -807,10 +836,13 @@
         <v>29.56855716546661</v>
       </c>
       <c r="J10" t="n">
+        <v>3.354262653752059</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.886625420283749</v>
       </c>
-      <c r="K10" t="n">
-        <v>9.263327454319056</v>
+      <c r="L10" t="n">
+        <v>8.395179068252267</v>
       </c>
     </row>
     <row r="11">
@@ -830,7 +862,7 @@
         <v>13.66936779022217</v>
       </c>
       <c r="F11" t="n">
-        <v>3.138580876364481</v>
+        <v>6.260799330469256</v>
       </c>
       <c r="G11" t="n">
         <v>0.07530040053404534</v>
@@ -842,10 +874,13 @@
         <v>14.88183093964284</v>
       </c>
       <c r="J11" t="n">
+        <v>3.355359551471548</v>
+      </c>
+      <c r="K11" t="n">
         <v>-0.08544378691078212</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.936651607666985</v>
+      <c r="L11" t="n">
+        <v>4.705238833161987</v>
       </c>
     </row>
     <row r="12">
@@ -865,7 +900,7 @@
         <v>10.8780632019043</v>
       </c>
       <c r="F12" t="n">
-        <v>5.070810054806564</v>
+        <v>9.12182752295336</v>
       </c>
       <c r="G12" t="n">
         <v>0.07530040053404534</v>
@@ -877,10 +912,13 @@
         <v>5.712605388858395</v>
       </c>
       <c r="J12" t="n">
+        <v>1.366864646102551</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.495192799221566</v>
       </c>
-      <c r="K12" t="n">
-        <v>4.905419055853805</v>
+      <c r="L12" t="n">
+        <v>4.479546027675604</v>
       </c>
     </row>
     <row r="13">
@@ -900,7 +938,7 @@
         <v>8.015440940856934</v>
       </c>
       <c r="F13" t="n">
-        <v>0.730451671113472</v>
+        <v>5.757682133580738</v>
       </c>
       <c r="G13" t="n">
         <v>0.07530040053404534</v>
@@ -912,10 +950,13 @@
         <v>-1.464261286293956</v>
       </c>
       <c r="J13" t="n">
+        <v>7.676241971363441</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.650662940885327</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.47147501330914</v>
+      <c r="L13" t="n">
+        <v>4.084784046660546</v>
       </c>
     </row>
     <row r="14">
@@ -935,7 +976,7 @@
         <v>5.431589603424072</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8803668964581012</v>
+        <v>7.416081067030698</v>
       </c>
       <c r="G14" t="n">
         <v>0.07530040053404534</v>
@@ -947,10 +988,13 @@
         <v>-4.632672468894083</v>
       </c>
       <c r="J14" t="n">
+        <v>3.358579477035206</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.331629717630081</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.8224272371325581</v>
+      <c r="L14" t="n">
+        <v>1.265247341507024</v>
       </c>
     </row>
     <row r="15">
@@ -970,7 +1014,7 @@
         <v>-10.74925708770752</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.116518703600522</v>
+        <v>5.584701847484046</v>
       </c>
       <c r="G15" t="n">
         <v>0.07530040053404534</v>
@@ -982,10 +1026,13 @@
         <v>-2.230212826822292</v>
       </c>
       <c r="J15" t="n">
+        <v>0.1031260347524019</v>
+      </c>
+      <c r="K15" t="n">
         <v>-1.881020534004495</v>
       </c>
-      <c r="K15" t="n">
-        <v>-3.527942982568485</v>
+      <c r="L15" t="n">
+        <v>-2.891688060638499</v>
       </c>
     </row>
     <row r="16">
@@ -1005,7 +1052,7 @@
         <v>1.535154938697815</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.859491952984169</v>
+        <v>3.083702888415302</v>
       </c>
       <c r="G16" t="n">
         <v>0.07530040053404534</v>
@@ -1017,10 +1064,13 @@
         <v>-5.819685623518728</v>
       </c>
       <c r="J16" t="n">
+        <v>3.360773272474182</v>
+      </c>
+      <c r="K16" t="n">
         <v>-1.331943720882108</v>
       </c>
-      <c r="K16" t="n">
-        <v>-1.92839564746749</v>
+      <c r="L16" t="n">
+        <v>-1.161975444147524</v>
       </c>
     </row>
     <row r="17">
@@ -1040,7 +1090,7 @@
         <v>7.938852310180664</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.731988256748398</v>
+        <v>9.268441411665256</v>
       </c>
       <c r="G17" t="n">
         <v>0.07530040053404534</v>
@@ -1052,10 +1102,13 @@
         <v>3.404957125899097</v>
       </c>
       <c r="J17" t="n">
+        <v>-1.728209188023349</v>
+      </c>
+      <c r="K17" t="n">
         <v>-1.278200757434716</v>
       </c>
-      <c r="K17" t="n">
-        <v>-1.1107719908881</v>
+      <c r="L17" t="n">
+        <v>-1.085818104104515</v>
       </c>
     </row>
     <row r="18">
@@ -1075,7 +1128,7 @@
         <v>0.7233260273933411</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.214039533503041</v>
+        <v>1.713833801422377</v>
       </c>
       <c r="G18" t="n">
         <v>0.07530040053404534</v>
@@ -1087,10 +1140,13 @@
         <v>-19.90904823959922</v>
       </c>
       <c r="J18" t="n">
+        <v>-5.999660579597534</v>
+      </c>
+      <c r="K18" t="n">
         <v>-2.835100894589303</v>
       </c>
-      <c r="K18" t="n">
-        <v>-5.506125418618129</v>
+      <c r="L18" t="n">
+        <v>-5.43655545292476</v>
       </c>
     </row>
     <row r="19">
@@ -1110,7 +1166,7 @@
         <v>-7.745419979095459</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.881159100281575</v>
+        <v>-4.062380717432128</v>
       </c>
       <c r="G19" t="n">
         <v>0.07530040053404534</v>
@@ -1122,10 +1178,13 @@
         <v>-16.22132747078849</v>
       </c>
       <c r="J19" t="n">
+        <v>-3.319321589379812</v>
+      </c>
+      <c r="K19" t="n">
         <v>-0.9983744183441338</v>
       </c>
-      <c r="K19" t="n">
-        <v>-4.12342401279202</v>
+      <c r="L19" t="n">
+        <v>-3.936918070801935</v>
       </c>
     </row>
     <row r="20">
@@ -1145,7 +1204,7 @@
         <v>3.087023973464966</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.391877600800287</v>
+        <v>3.60664440365122</v>
       </c>
       <c r="G20" t="n">
         <v>0.07530040053404534</v>
@@ -1157,10 +1216,13 @@
         <v>-5.169689566641233</v>
       </c>
       <c r="J20" t="n">
+        <v>-0.208225180857196</v>
+      </c>
+      <c r="K20" t="n">
         <v>-0.07254652206960467</v>
       </c>
-      <c r="K20" t="n">
-        <v>-0.4187689421677565</v>
+      <c r="L20" t="n">
+        <v>-0.3169448044489938</v>
       </c>
     </row>
     <row r="21">
@@ -1180,7 +1242,7 @@
         <v>1.901763200759888</v>
       </c>
       <c r="F21" t="n">
-        <v>2.88435350954251</v>
+        <v>6.921268263073388</v>
       </c>
       <c r="G21" t="n">
         <v>0.07530040053404534</v>
@@ -1192,10 +1254,13 @@
         <v>2.604447612422066</v>
       </c>
       <c r="J21" t="n">
+        <v>3.366186993476813</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.2139469290729324</v>
       </c>
-      <c r="K21" t="n">
-        <v>1.786170350244999</v>
+      <c r="L21" t="n">
+        <v>2.035783838657105</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1280,7 @@
         <v>6.812321186065674</v>
       </c>
       <c r="F22" t="n">
-        <v>17.25474935962279</v>
+        <v>20.31276117500756</v>
       </c>
       <c r="G22" t="n">
         <v>0.07530040053404534</v>
@@ -1227,10 +1292,13 @@
         <v>31.22476205854071</v>
       </c>
       <c r="J22" t="n">
+        <v>3.367177739804093</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.313277706692613</v>
       </c>
-      <c r="K22" t="n">
-        <v>8.912212410451829</v>
+      <c r="L22" t="n">
+        <v>8.153884901303938</v>
       </c>
     </row>
     <row r="23">
@@ -1250,7 +1318,7 @@
         <v>13.46900081634521</v>
       </c>
       <c r="F23" t="n">
-        <v>7.041749243668231</v>
+        <v>10.13972140255816</v>
       </c>
       <c r="G23" t="n">
         <v>0.07530040053404534</v>
@@ -1262,10 +1330,13 @@
         <v>13.98458648263825</v>
       </c>
       <c r="J23" t="n">
+        <v>-2.737767286187414</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.8958952759931663</v>
       </c>
-      <c r="K23" t="n">
-        <v>5.953860836346273</v>
+      <c r="L23" t="n">
+        <v>4.814918177795744</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1356,7 @@
         <v>13.46394157409668</v>
       </c>
       <c r="F24" t="n">
-        <v>5.097729476322566</v>
+        <v>9.327231123221713</v>
       </c>
       <c r="G24" t="n">
         <v>0.07530040053404534</v>
@@ -1297,10 +1368,13 @@
         <v>6.487984529649563</v>
       </c>
       <c r="J24" t="n">
+        <v>3.213273366571909</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.173098452333995</v>
       </c>
-      <c r="K24" t="n">
-        <v>5.075703923250007</v>
+      <c r="L24" t="n">
+        <v>4.859346572311872</v>
       </c>
     </row>
     <row r="25">
@@ -1320,7 +1394,7 @@
         <v>8.082443237304688</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8869291431855019</v>
+        <v>8.098047110893297</v>
       </c>
       <c r="G25" t="n">
         <v>0.07530040053404534</v>
@@ -1332,10 +1406,13 @@
         <v>-3.525187062481229</v>
       </c>
       <c r="J25" t="n">
+        <v>3.370433049165153</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.617628464714947</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.528762186275854</v>
+      <c r="L25" t="n">
+        <v>2.738055287620706</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1480,30 +1557,25 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>LevelTestSetRMSE</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetRMSE</t>
+          <t>LevelTestSetMAPE</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetMAPE</t>
+          <t>LevelTestSetMAE</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetMAE</t>
+          <t>LevelTestSetR2</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetR2</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1586,20 +1658,19 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>11.50454635250166</v>
+      </c>
       <c r="Z2" t="n">
-        <v>11.50454635250166</v>
+        <v>0.07152673974036526</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07152673974036526</v>
+        <v>9.240909090909083</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.240909090909083</v>
-      </c>
-      <c r="AC2" t="n">
         <v>0.2898691261953685</v>
       </c>
-      <c r="AD2" t="b">
+      <c r="AC2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1680,49 +1751,40 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>13.94133807414187</v>
+      </c>
       <c r="Z3" t="n">
-        <v>13.94133807414187</v>
+        <v>0.08400850153712426</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08400850153712426</v>
+        <v>11.20822104323386</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.20822104323386</v>
-      </c>
-      <c r="AC3" t="n">
         <v>-0.04281751236428444</v>
       </c>
-      <c r="AD3" t="b">
+      <c r="AC3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.5}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'changepoints': 0}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
         <v>1</v>
       </c>
@@ -1733,32 +1795,32 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.09530373889173</v>
+        <v>13.56422672644867</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9743172268248915</v>
+        <v>6.586271361684705</v>
       </c>
       <c r="K4" t="n">
-        <v>11.22822252374491</v>
+        <v>10.05457774860014</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.03526388361415567</v>
+        <v>0.1640940200996037</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03066485753052917</v>
+        <v>7.676241971363441</v>
       </c>
       <c r="N4" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>16.94934151071192</v>
+        <v>15.94341723698209</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>12.63369548360876</v>
+        <v>12.00692908453688</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.1151754524982617</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1769,37 +1831,38 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>13.69454902461603</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
+        <v>15.59818620608143</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>15.61405696181125</v>
+      </c>
       <c r="Z4" t="n">
-        <v>16.4153894888649</v>
+        <v>0.09059395537103822</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1010335302767462</v>
+        <v>12.27512438859847</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.46689280868386</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-0.4457785645499661</v>
-      </c>
-      <c r="AD4" t="b">
+        <v>-0.308069793439455</v>
+      </c>
+      <c r="AC4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1809,12 +1872,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'max_depth': 6}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 0.5}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -1827,32 +1890,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>13.71677148206937</v>
+        <v>15.09530373889173</v>
       </c>
       <c r="J5" t="n">
-        <v>4.249075369807209</v>
+        <v>0.9743172268248915</v>
       </c>
       <c r="K5" t="n">
-        <v>9.727476030836501</v>
+        <v>11.22822252374491</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1451869214650968</v>
+        <v>-0.03526388361415567</v>
       </c>
       <c r="M5" t="n">
-        <v>5.673378944396973</v>
+        <v>0.03066485753052917</v>
       </c>
       <c r="N5" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4357668729855375</v>
+        <v>16.94934151071192</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.311753509442343</v>
+        <v>12.63369548360876</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9993389980152926</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -1863,37 +1926,36 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>20.58998083085664</v>
+        <v>13.69454902461603</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>16.4153894888649</v>
+      </c>
       <c r="Z5" t="n">
-        <v>16.76968046377441</v>
+        <v>0.1010335302767462</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1149801120799304</v>
+        <v>13.46689280868386</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.62279783686002</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-0.5088600955117966</v>
-      </c>
-      <c r="AD5" t="b">
+        <v>-0.4457785645499661</v>
+      </c>
+      <c r="AC5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1903,7 +1965,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'n_estimators': 100}</t>
+          <t>{'max_depth': 6}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1921,32 +1983,32 @@
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>20.04013305606249</v>
+        <v>13.71677148206937</v>
       </c>
       <c r="J6" t="n">
-        <v>12.96526504362184</v>
+        <v>4.249075369807209</v>
       </c>
       <c r="K6" t="n">
-        <v>16.92769772026407</v>
+        <v>9.727476030836501</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.824603706107879</v>
+        <v>0.1451869214650968</v>
       </c>
       <c r="M6" t="n">
-        <v>-11.70153928118806</v>
+        <v>5.673378944396973</v>
       </c>
       <c r="N6" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>7.488925786617673</v>
+        <v>0.4357668729855375</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>6.001624599147256</v>
+        <v>0.311753509442343</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8047759163306019</v>
+        <v>0.9993389980152926</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1957,25 +2019,24 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>33.05374300252842</v>
+        <v>20.58998083085664</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>16.76968046377441</v>
+      </c>
       <c r="Z6" t="n">
-        <v>26.49600155001646</v>
+        <v>0.1149801120799304</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1871950688653447</v>
+        <v>14.62279783686002</v>
       </c>
       <c r="AB6" t="n">
-        <v>23.20059318421503</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>-2.766691734799632</v>
-      </c>
-      <c r="AD6" t="b">
+        <v>-0.5088600955117966</v>
+      </c>
+      <c r="AC6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2056,41 +2117,48 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>31.47398903447037</v>
+      </c>
       <c r="Z7" t="n">
-        <v>31.47398903447037</v>
+        <v>0.2281955095649519</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2281955095649519</v>
+        <v>29.55968443862372</v>
       </c>
       <c r="AB7" t="n">
-        <v>29.55968443862372</v>
-      </c>
-      <c r="AC7" t="n">
         <v>-4.314996421108336</v>
       </c>
-      <c r="AD7" t="b">
+      <c r="AC7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 3}</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>{'max_depth': 3, 'n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
@@ -2101,32 +2169,32 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>14.16824041065862</v>
+        <v>21.85016549131038</v>
       </c>
       <c r="J8" t="n">
-        <v>4.316972187371513</v>
+        <v>18.72169847223069</v>
       </c>
       <c r="K8" t="n">
-        <v>11.93279545759319</v>
+        <v>19.0573321829246</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08799086956283519</v>
+        <v>-1.169086206028579</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3338760690406671</v>
+        <v>-18.58968368975688</v>
       </c>
       <c r="N8" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>11.30600685514595</v>
+        <v>7.549898719663588</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>8.804679089617128</v>
+        <v>6.04557279319091</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5550483432038602</v>
+        <v>0.8015840454287455</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -2137,50 +2205,47 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>23.39663404830682</v>
-      </c>
-      <c r="V8" t="b">
-        <v>1</v>
-      </c>
+        <v>31.92634610518765</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>35.0878427963901</v>
+      </c>
       <c r="Z8" t="n">
-        <v>33.28407191224224</v>
+        <v>0.2395334890827938</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2515011358495877</v>
+        <v>29.18789256183846</v>
       </c>
       <c r="AB8" t="n">
-        <v>31.57918338427961</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>-4.943911046713754</v>
-      </c>
-      <c r="AD8" t="b">
+        <v>-5.605607051842953</v>
+      </c>
+      <c r="AC8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'n_changepoints': 3}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2189,68 +2254,69 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>28.1112556669992</v>
+        <v>14.16824041065862</v>
       </c>
       <c r="J9" t="n">
-        <v>25.86304821541721</v>
+        <v>4.316972187371513</v>
       </c>
       <c r="K9" t="n">
-        <v>24.47710210008695</v>
+        <v>11.93279545759319</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.590276044073916</v>
+        <v>0.08799086956283519</v>
       </c>
       <c r="M9" t="n">
-        <v>1.596816395921678</v>
+        <v>0.3338760690406671</v>
       </c>
       <c r="N9" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>10.87405856900377</v>
+        <v>11.30600685514595</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>8.31553817254783</v>
+        <v>8.804679089617128</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5883978117434681</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>['mlp', 'mlr', 'elasticnet', 'svr', 'knn', 'xgboost', 'prophet', 'gbt']</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>(0.16266425803527118, 0.16238605379285925, 0.16212186747488888, 0.15079662444892913, 0.14931611371300488, 0.10964380548737424, 0.08828361722628415, 0.014787659821388289)</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr"/>
+        <v>0.5550483432038602</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>23.39663404830682</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>33.28407191224224</v>
+      </c>
       <c r="Z9" t="n">
-        <v>145.1248009150125</v>
+        <v>0.2515011358495877</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8943934102234721</v>
+        <v>31.57918338427961</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.1717480207018</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-112.001100237327</v>
-      </c>
-      <c r="AD9" t="b">
+        <v>-4.943911046713754</v>
+      </c>
+      <c r="AC9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2261,7 +2327,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2275,32 +2341,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>52.667256779114</v>
+        <v>25.24544073283259</v>
       </c>
       <c r="J10" t="n">
-        <v>54.73337302027011</v>
+        <v>21.96062703218074</v>
       </c>
       <c r="K10" t="n">
-        <v>46.16945592778577</v>
+        <v>21.62253626916121</v>
       </c>
       <c r="L10" t="n">
-        <v>-11.60226906924261</v>
+        <v>-1.895564644953093</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6996616641842901</v>
+        <v>2.283649769176961</v>
       </c>
       <c r="N10" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>13.92759007735022</v>
+        <v>11.46740621921583</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>10.53957504436953</v>
+        <v>8.739140874703891</v>
       </c>
       <c r="R10" t="n">
-        <v>0.324778455124629</v>
+        <v>0.5422538148169331</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2308,55 +2374,50 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>['mlp', 'mlr', 'elasticnet']</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+          <t>['mlp', 'mlr', 'elasticnet', 'svr', 'knn', 'silverkite', 'xgboost', 'prophet', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>(0.1430320769772374, 0.14277238151614263, 0.14252577137437972, 0.13195399078563377, 0.13057197764705503, 0.12900189755758174, 0.09353904713517983, 0.0735999409179502, 0.013002916088839765)</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>125.8670202099885</v>
+      </c>
       <c r="Z10" t="n">
-        <v>311.9372362379599</v>
+        <v>0.7782095207163208</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.949468421183344</v>
+        <v>100.9892496811462</v>
       </c>
       <c r="AB10" t="n">
-        <v>252.8442515760386</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-521.0761310735153</v>
-      </c>
-      <c r="AD10" t="b">
+        <v>-84.00085606740977</v>
+      </c>
+      <c r="AC10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mlr</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2365,61 +2426,149 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>156.0626919550775</v>
+        <v>52.667256779114</v>
       </c>
       <c r="J11" t="n">
-        <v>163.5281986637191</v>
+        <v>54.73337302027011</v>
       </c>
       <c r="K11" t="n">
-        <v>137.9450869491692</v>
+        <v>46.16945592778577</v>
       </c>
       <c r="L11" t="n">
-        <v>-109.6535977588559</v>
+        <v>-11.60226906924261</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2983707123119927</v>
+        <v>0.6996616641842901</v>
       </c>
       <c r="N11" t="n">
         <v>12.19999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>16.77209658763452</v>
+        <v>13.92759007735022</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
+        <v>10.53957504436953</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.324778455124629</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>['mlp', 'mlr', 'elasticnet']</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>311.9372362379599</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.949468421183344</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>252.8442515760386</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-521.0761310735153</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>156.0626919550775</v>
+      </c>
+      <c r="J12" t="n">
+        <v>163.5281986637191</v>
+      </c>
+      <c r="K12" t="n">
+        <v>137.9450869491692</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-109.6535977588559</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2983707123119927</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.19999999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>16.77209658763452</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
         <v>12.46594634584826</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>0.02080531191104418</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>6</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>13.6598358764792</v>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="n">
         <v>954.8750661324859</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="Z12" t="n">
         <v>5.953186480767505</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AA12" t="n">
         <v>774.3584976969719</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AB12" t="n">
         <v>-4891.068216041657</v>
       </c>
-      <c r="AD11" t="b">
+      <c r="AC12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12519,7 +12668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12550,40 +12699,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mlr</t>
         </is>
@@ -12603,27 +12757,30 @@
         <v>1.399492506848113</v>
       </c>
       <c r="E2" t="n">
+        <v>3.345664390983172</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-14.35616874694824</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-17.32560997454982</v>
       </c>
       <c r="H2" t="n">
         <v>-0.4786664679422703</v>
       </c>
       <c r="I2" t="n">
+        <v>-19.55802926812004</v>
+      </c>
+      <c r="J2" t="n">
         <v>-8.079808106374465</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.470446705634455</v>
-      </c>
       <c r="K2" t="n">
+        <v>5.285696266658212</v>
+      </c>
+      <c r="L2" t="n">
         <v>16.40848447802228</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>47.79529606968819</v>
       </c>
     </row>
@@ -12641,27 +12798,30 @@
         <v>0.2257049311930127</v>
       </c>
       <c r="E3" t="n">
+        <v>-2.759280635008337</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-3.705910682678223</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-5.197691987409044</v>
       </c>
       <c r="H3" t="n">
         <v>-4.691087030085646</v>
       </c>
       <c r="I3" t="n">
+        <v>-7.099370919552708</v>
+      </c>
+      <c r="J3" t="n">
         <v>-1.111924933511838</v>
       </c>
-      <c r="J3" t="n">
-        <v>9.796323981856808</v>
-      </c>
       <c r="K3" t="n">
+        <v>8.251203296643801</v>
+      </c>
+      <c r="L3" t="n">
         <v>23.09162527346935</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>69.01850603168451</v>
       </c>
     </row>
@@ -12679,27 +12839,30 @@
         <v>-0.9003937247402036</v>
       </c>
       <c r="E4" t="n">
+        <v>4.882934788739271</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.895022392272949</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19.24504916210358</v>
       </c>
       <c r="H4" t="n">
         <v>-7.82000695100103</v>
       </c>
       <c r="I4" t="n">
+        <v>20.47043063602624</v>
+      </c>
+      <c r="J4" t="n">
         <v>-8.631864650205085</v>
       </c>
-      <c r="J4" t="n">
-        <v>13.57233161056464</v>
-      </c>
       <c r="K4" t="n">
+        <v>12.59412526653335</v>
+      </c>
+      <c r="L4" t="n">
         <v>29.73317940867295</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>90.06926709322853</v>
       </c>
     </row>
@@ -12717,27 +12880,30 @@
         <v>-1.766832768624704</v>
       </c>
       <c r="E5" t="n">
+        <v>-1.741124274075383</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-1.439794659614563</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.460779807521723</v>
       </c>
       <c r="H5" t="n">
         <v>-9.038553028587573</v>
       </c>
       <c r="I5" t="n">
+        <v>0.9034759158839812</v>
+      </c>
+      <c r="J5" t="n">
         <v>6.280099472428866</v>
       </c>
-      <c r="J5" t="n">
-        <v>16.87034296111586</v>
-      </c>
       <c r="K5" t="n">
+        <v>14.54616781041491</v>
+      </c>
+      <c r="L5" t="n">
         <v>36.40428745693691</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>110.9490302819049</v>
       </c>
     </row>
@@ -12755,27 +12921,30 @@
         <v>-1.619741472019153</v>
       </c>
       <c r="E6" t="n">
+        <v>-6.012575665649568</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.07330860197544098</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-26.56475816413113</v>
       </c>
       <c r="H6" t="n">
         <v>-8.07442092371541</v>
       </c>
       <c r="I6" t="n">
+        <v>-32.53707468261997</v>
+      </c>
+      <c r="J6" t="n">
         <v>-23.86272803408155</v>
       </c>
-      <c r="J6" t="n">
-        <v>17.6009382555454</v>
-      </c>
       <c r="K6" t="n">
+        <v>14.72192151119035</v>
+      </c>
+      <c r="L6" t="n">
         <v>43.35671688817502</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>131.6592272790137</v>
       </c>
     </row>
@@ -12793,27 +12962,30 @@
         <v>-0.7061100183591139</v>
       </c>
       <c r="E7" t="n">
+        <v>-3.332236675431846</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-6.301846504211426</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-13.4958834760393</v>
       </c>
       <c r="H7" t="n">
         <v>-5.086297438105177</v>
       </c>
       <c r="I7" t="n">
+        <v>-16.90504387459979</v>
+      </c>
+      <c r="J7" t="n">
         <v>-14.54681081485071</v>
       </c>
-      <c r="J7" t="n">
-        <v>21.34608058043334</v>
-      </c>
       <c r="K7" t="n">
+        <v>18.37481106568101</v>
+      </c>
+      <c r="L7" t="n">
         <v>50.50863497778334</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>152.2013500941786</v>
       </c>
     </row>
@@ -12831,27 +13003,30 @@
         <v>0.6538957564868044</v>
       </c>
       <c r="E8" t="n">
+        <v>-6.90445505432688</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-3.893887042999268</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-13.40635762522713</v>
       </c>
       <c r="H8" t="n">
         <v>-0.9598556639461577</v>
       </c>
       <c r="I8" t="n">
+        <v>-19.94334646542247</v>
+      </c>
+      <c r="J8" t="n">
         <v>-3.305977486910558</v>
       </c>
-      <c r="J8" t="n">
-        <v>27.1088790026819</v>
-      </c>
       <c r="K8" t="n">
+        <v>22.88372734411068</v>
+      </c>
+      <c r="L8" t="n">
         <v>57.75374490854012</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>172.576674111603</v>
       </c>
     </row>
@@ -12869,27 +13044,30 @@
         <v>1.620242560774986</v>
       </c>
       <c r="E9" t="n">
+        <v>3.153712602015931</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>11.00482273101807</v>
-      </c>
-      <c r="G9" t="n">
-        <v>17.28958497929047</v>
       </c>
       <c r="H9" t="n">
         <v>3.201608958248801</v>
       </c>
       <c r="I9" t="n">
+        <v>19.76382454489537</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.386111565317465</v>
       </c>
-      <c r="J9" t="n">
-        <v>34.57446460543784</v>
-      </c>
       <c r="K9" t="n">
+        <v>30.78676215628462</v>
+      </c>
+      <c r="L9" t="n">
         <v>64.81247529713873</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>192.7865184731107</v>
       </c>
     </row>
@@ -12907,27 +13085,30 @@
         <v>2.280153450385072</v>
       </c>
       <c r="E10" t="n">
+        <v>3.354262653752059</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>37.58415603637695</v>
-      </c>
-      <c r="G10" t="n">
-        <v>66.2530568017156</v>
       </c>
       <c r="H10" t="n">
         <v>6.384444846058166</v>
       </c>
       <c r="I10" t="n">
+        <v>59.55889365566739</v>
+      </c>
+      <c r="J10" t="n">
         <v>27.50717832543545</v>
       </c>
-      <c r="J10" t="n">
-        <v>44.38834011081399</v>
-      </c>
       <c r="K10" t="n">
+        <v>39.1460068713853</v>
+      </c>
+      <c r="L10" t="n">
         <v>71.71435840347708</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>212.8322569025156</v>
       </c>
     </row>
@@ -12945,27 +13126,30 @@
         <v>2.39011852412028</v>
       </c>
       <c r="E11" t="n">
+        <v>3.355359551471548</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4477115571498871</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.20192925850797</v>
       </c>
       <c r="H11" t="n">
         <v>7.545280265325228</v>
       </c>
       <c r="I11" t="n">
+        <v>13.52087740556925</v>
+      </c>
+      <c r="J11" t="n">
         <v>16.04297785250718</v>
       </c>
-      <c r="J11" t="n">
-        <v>41.46512425780818</v>
-      </c>
       <c r="K11" t="n">
+        <v>36.8210207478761</v>
+      </c>
+      <c r="L11" t="n">
         <v>78.37860443712098</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>232.7150299297121</v>
       </c>
     </row>
@@ -12983,27 +13167,30 @@
         <v>2.497047979731117</v>
       </c>
       <c r="E12" t="n">
+        <v>1.366864646102551</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.372786998748779</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.69292428465336</v>
       </c>
       <c r="H12" t="n">
         <v>6.595225579204865</v>
       </c>
       <c r="I12" t="n">
+        <v>2.156371192145456</v>
+      </c>
+      <c r="J12" t="n">
         <v>4.789853163569622</v>
       </c>
-      <c r="J12" t="n">
-        <v>43.66966293634162</v>
-      </c>
       <c r="K12" t="n">
+        <v>38.51403519564953</v>
+      </c>
+      <c r="L12" t="n">
         <v>84.98799022432134</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>252.4362578357024</v>
       </c>
     </row>
@@ -13021,27 +13208,30 @@
         <v>1.769949422710348</v>
       </c>
       <c r="E13" t="n">
+        <v>7.676241971363441</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.03066485753052917</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>5.673378944396973</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-11.70153928118806</v>
       </c>
       <c r="H13" t="n">
         <v>3.163255760337611</v>
       </c>
       <c r="I13" t="n">
+        <v>-18.58968368975688</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.3338760690406671</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.596816395921678</v>
-      </c>
       <c r="K13" t="n">
+        <v>2.283649769176961</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.6996616641842901</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.2983707123119927</v>
       </c>
     </row>
@@ -13056,7 +13246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13082,40 +13272,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>mlr</t>
         </is>
@@ -13132,27 +13327,30 @@
         <v>152.0450663508189</v>
       </c>
       <c r="D2" t="n">
+        <v>155.9456643909832</v>
+      </c>
+      <c r="E2" t="n">
         <v>152.675300400534</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>158.645346736908</v>
-      </c>
-      <c r="F2" t="n">
-        <v>153.2572263712006</v>
       </c>
       <c r="G2" t="n">
         <v>154.5033726050261</v>
       </c>
       <c r="H2" t="n">
+        <v>160.1568598860191</v>
+      </c>
+      <c r="I2" t="n">
         <v>146.8185815401979</v>
       </c>
-      <c r="I2" t="n">
-        <v>153.2911242750161</v>
-      </c>
       <c r="J2" t="n">
+        <v>153.7324357258102</v>
+      </c>
+      <c r="K2" t="n">
         <v>152.550884730655</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>152.9322874406121</v>
       </c>
     </row>
@@ -13167,27 +13365,30 @@
         <v>147.2707630909392</v>
       </c>
       <c r="D3" t="n">
+        <v>153.1863837559748</v>
+      </c>
+      <c r="E3" t="n">
         <v>152.7506008010681</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>145.7988425254822</v>
-      </c>
-      <c r="F3" t="n">
-        <v>147.6127657453681</v>
       </c>
       <c r="G3" t="n">
         <v>151.2812407913577</v>
       </c>
       <c r="H3" t="n">
+        <v>164.7881835733589</v>
+      </c>
+      <c r="I3" t="n">
         <v>144.7798548816955</v>
       </c>
-      <c r="I3" t="n">
-        <v>150.0848804989195</v>
-      </c>
       <c r="J3" t="n">
+        <v>150.7396256112769</v>
+      </c>
+      <c r="K3" t="n">
         <v>151.0954692509752</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>153.2650438609183</v>
       </c>
     </row>
@@ -13202,27 +13403,30 @@
         <v>142.847734493691</v>
       </c>
       <c r="D4" t="n">
+        <v>158.0693185447141</v>
+      </c>
+      <c r="E4" t="n">
         <v>152.8259012016021</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>147.6341383218765</v>
-      </c>
-      <c r="F4" t="n">
-        <v>147.57780781964</v>
       </c>
       <c r="G4" t="n">
         <v>145.5666364903554</v>
       </c>
       <c r="H4" t="n">
+        <v>172.4571648381736</v>
+      </c>
+      <c r="I4" t="n">
         <v>137.800492092024</v>
       </c>
-      <c r="I4" t="n">
-        <v>148.104299231183</v>
-      </c>
       <c r="J4" t="n">
+        <v>149.7549208564486</v>
+      </c>
+      <c r="K4" t="n">
         <v>149.757275934048</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>153.5981921068509</v>
       </c>
     </row>
@@ -13237,27 +13441,30 @@
         <v>139.579966357066</v>
       </c>
       <c r="D5" t="n">
+        <v>156.3281942706387</v>
+      </c>
+      <c r="E5" t="n">
         <v>152.9012016021362</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>154.4962441682815</v>
-      </c>
-      <c r="F5" t="n">
-        <v>147.2821410956608</v>
       </c>
       <c r="G5" t="n">
         <v>139.5249404209967</v>
       </c>
       <c r="H5" t="n">
+        <v>179.4311694612604</v>
+      </c>
+      <c r="I5" t="n">
         <v>142.5562335642726</v>
       </c>
-      <c r="I5" t="n">
-        <v>147.3230970606691</v>
-      </c>
       <c r="J5" t="n">
+        <v>148.9057065985611</v>
+      </c>
+      <c r="K5" t="n">
         <v>148.8043120624915</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>153.9317682282724</v>
       </c>
     </row>
@@ -13272,27 +13479,30 @@
         <v>129.9926364185936</v>
       </c>
       <c r="D6" t="n">
+        <v>150.3156186049891</v>
+      </c>
+      <c r="E6" t="n">
         <v>152.9765020026702</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>146.811928486824</v>
-      </c>
-      <c r="F6" t="n">
-        <v>137.8207502131156</v>
       </c>
       <c r="G6" t="n">
         <v>131.4272088329993</v>
       </c>
       <c r="H6" t="n">
+        <v>176.0242775815615</v>
+      </c>
+      <c r="I6" t="n">
         <v>120.9197144947212</v>
       </c>
-      <c r="I6" t="n">
-        <v>140.6982575290119</v>
-      </c>
       <c r="J6" t="n">
+        <v>142.50287979151</v>
+      </c>
+      <c r="K6" t="n">
         <v>145.7449816264301</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>154.2658064580265</v>
       </c>
     </row>
@@ -13307,27 +13517,30 @@
         <v>127.6994001903399</v>
       </c>
       <c r="D7" t="n">
+        <v>146.9833819295573</v>
+      </c>
+      <c r="E7" t="n">
         <v>153.0518024032043</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>148.2447428464889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>133.6480181277932</v>
       </c>
       <c r="G7" t="n">
         <v>128.2842210872611</v>
       </c>
       <c r="H7" t="n">
+        <v>172.1540158251833</v>
+      </c>
+      <c r="I7" t="n">
         <v>105.8351640009993</v>
       </c>
-      <c r="I7" t="n">
-        <v>137.9824188765425</v>
-      </c>
       <c r="J7" t="n">
+        <v>139.7509405013793</v>
+      </c>
+      <c r="K7" t="n">
         <v>145.1171905903772</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>154.6003691775875</v>
       </c>
     </row>
@@ -13342,27 +13555,30 @@
         <v>127.7022073958191</v>
       </c>
       <c r="D8" t="n">
+        <v>140.0789268752304</v>
+      </c>
+      <c r="E8" t="n">
         <v>153.1271028037383</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>150.6650423765182</v>
-      </c>
-      <c r="F8" t="n">
-        <v>131.613199478253</v>
       </c>
       <c r="G8" t="n">
         <v>128.6925904415752</v>
       </c>
       <c r="H8" t="n">
+        <v>172.9028215987947</v>
+      </c>
+      <c r="I8" t="n">
         <v>101.7175048301125</v>
       </c>
-      <c r="I8" t="n">
-        <v>137.7222204355277</v>
-      </c>
       <c r="J8" t="n">
+        <v>138.678283409251</v>
+      </c>
+      <c r="K8" t="n">
         <v>145.2549397796595</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>154.935509139421</v>
       </c>
     </row>
@@ -13377,27 +13593,30 @@
         <v>126.8273031960921</v>
       </c>
       <c r="D9" t="n">
+        <v>143.2326394772463</v>
+      </c>
+      <c r="E9" t="n">
         <v>153.2024032042724</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>147.8907990217209</v>
-      </c>
-      <c r="F9" t="n">
-        <v>130.4832380791981</v>
       </c>
       <c r="G9" t="n">
         <v>130.6879748029573</v>
       </c>
       <c r="H9" t="n">
+        <v>176.7057795085295</v>
+      </c>
+      <c r="I9" t="n">
         <v>104.4349744141595</v>
       </c>
-      <c r="I9" t="n">
-        <v>138.6742144912327</v>
-      </c>
       <c r="J9" t="n">
+        <v>139.9781759446574</v>
+      </c>
+      <c r="K9" t="n">
         <v>145.1003200373561</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>155.2712537117038</v>
       </c>
     </row>
@@ -13412,27 +13631,30 @@
         <v>141.0754648845229</v>
       </c>
       <c r="D10" t="n">
+        <v>146.5869021309984</v>
+      </c>
+      <c r="E10" t="n">
         <v>153.2777036048064</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>161.7000860929489</v>
-      </c>
-      <c r="F10" t="n">
-        <v>147.5500754377081</v>
       </c>
       <c r="G10" t="n">
         <v>140.2310544284417</v>
       </c>
       <c r="H10" t="n">
+        <v>192.7892201096186</v>
+      </c>
+      <c r="I10" t="n">
         <v>134.0035315796262</v>
       </c>
-      <c r="I10" t="n">
-        <v>147.9375419455517</v>
-      </c>
       <c r="J10" t="n">
+        <v>148.3733550129097</v>
+      </c>
+      <c r="K10" t="n">
         <v>149.9869454576398</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>155.6076678835902</v>
       </c>
     </row>
@@ -13447,27 +13669,30 @@
         <v>140.406856157574</v>
       </c>
       <c r="D11" t="n">
+        <v>149.9422616824699</v>
+      </c>
+      <c r="E11" t="n">
         <v>153.3530040053405</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>175.3694538831711</v>
-      </c>
-      <c r="F11" t="n">
-        <v>150.6886563140725</v>
       </c>
       <c r="G11" t="n">
         <v>145.1496393906311</v>
       </c>
       <c r="H11" t="n">
+        <v>199.0500194400879</v>
+      </c>
+      <c r="I11" t="n">
         <v>148.885362519269</v>
       </c>
-      <c r="I11" t="n">
-        <v>152.8741935532187</v>
-      </c>
       <c r="J11" t="n">
+        <v>153.0785938460716</v>
+      </c>
+      <c r="K11" t="n">
         <v>149.901501670729</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>155.9446448492727</v>
       </c>
     </row>
@@ -13482,27 +13707,30 @@
         <v>147.4795971668252</v>
       </c>
       <c r="D12" t="n">
+        <v>151.3091263285725</v>
+      </c>
+      <c r="E12" t="n">
         <v>153.4283044058745</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>186.2475170850754</v>
-      </c>
-      <c r="F12" t="n">
-        <v>155.7594663688791</v>
       </c>
       <c r="G12" t="n">
         <v>153.1829097003134</v>
       </c>
       <c r="H12" t="n">
+        <v>208.1718469630412</v>
+      </c>
+      <c r="I12" t="n">
         <v>154.5979679081274</v>
       </c>
-      <c r="I12" t="n">
-        <v>157.7796126090725</v>
-      </c>
       <c r="J12" t="n">
+        <v>157.5581398737473</v>
+      </c>
+      <c r="K12" t="n">
         <v>152.3966944699506</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>156.2821818371522</v>
       </c>
     </row>
@@ -13517,27 +13745,30 @@
         <v>155.0182588041681</v>
       </c>
       <c r="D13" t="n">
+        <v>158.9853682999359</v>
+      </c>
+      <c r="E13" t="n">
         <v>153.5036048064086</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>194.2629580259323</v>
-      </c>
-      <c r="F13" t="n">
-        <v>156.4899180399926</v>
       </c>
       <c r="G13" t="n">
         <v>160.7211747343273</v>
       </c>
       <c r="H13" t="n">
+        <v>213.929529096622</v>
+      </c>
+      <c r="I13" t="n">
         <v>153.1337066218335</v>
       </c>
-      <c r="I13" t="n">
-        <v>161.2510876223817</v>
-      </c>
       <c r="J13" t="n">
+        <v>161.6429239204078</v>
+      </c>
+      <c r="K13" t="n">
         <v>155.0473574108359</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>156.6202086219312</v>
       </c>
     </row>
@@ -13552,27 +13783,30 @@
         <v>155.59941138183</v>
       </c>
       <c r="D14" t="n">
+        <v>162.3439477769711</v>
+      </c>
+      <c r="E14" t="n">
         <v>153.5789052069426</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>199.6945476293564</v>
-      </c>
-      <c r="F14" t="n">
-        <v>155.6095511435345</v>
       </c>
       <c r="G14" t="n">
         <v>163.4659058377211</v>
       </c>
       <c r="H14" t="n">
+        <v>221.3456101636527</v>
+      </c>
+      <c r="I14" t="n">
         <v>148.5010341529394</v>
       </c>
-      <c r="I14" t="n">
-        <v>162.0735148595142</v>
-      </c>
       <c r="J14" t="n">
+        <v>162.9081712619148</v>
+      </c>
+      <c r="K14" t="n">
         <v>155.378987128466</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>156.9586447966255</v>
       </c>
     </row>
@@ -13587,27 +13821,30 @@
         <v>149.5422393514738</v>
       </c>
       <c r="D15" t="n">
+        <v>162.4470738117235</v>
+      </c>
+      <c r="E15" t="n">
         <v>153.6542056074767</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>188.9452905416489</v>
-      </c>
-      <c r="F15" t="n">
-        <v>149.493032439934</v>
       </c>
       <c r="G15" t="n">
         <v>159.1654399922344</v>
       </c>
       <c r="H15" t="n">
+        <v>226.9303120111367</v>
+      </c>
+      <c r="I15" t="n">
         <v>146.2708213261171</v>
       </c>
-      <c r="I15" t="n">
-        <v>158.5455718769458</v>
-      </c>
       <c r="J15" t="n">
+        <v>160.0164832012763</v>
+      </c>
+      <c r="K15" t="n">
         <v>153.4979665944615</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>157.2974548244342</v>
       </c>
     </row>
@@ -13622,27 +13859,30 @@
         <v>145.131930167575</v>
       </c>
       <c r="D16" t="n">
+        <v>165.8078470841977</v>
+      </c>
+      <c r="E16" t="n">
         <v>153.7295060080107</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>190.4804454803467</v>
-      </c>
-      <c r="F16" t="n">
-        <v>146.6335404869498</v>
       </c>
       <c r="G16" t="n">
         <v>153.5929733495533</v>
       </c>
       <c r="H16" t="n">
+        <v>230.014014899552</v>
+      </c>
+      <c r="I16" t="n">
         <v>140.4511357025984</v>
       </c>
-      <c r="I16" t="n">
-        <v>156.6171762294783</v>
-      </c>
       <c r="J16" t="n">
+        <v>158.8545077571288</v>
+      </c>
+      <c r="K16" t="n">
         <v>152.1660228735794</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>157.6366324451527</v>
       </c>
     </row>
@@ -13657,27 +13897,30 @@
         <v>140.8824621092893</v>
       </c>
       <c r="D17" t="n">
+        <v>164.0796378961743</v>
+      </c>
+      <c r="E17" t="n">
         <v>153.8048064085447</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>198.4192977905273</v>
-      </c>
-      <c r="F17" t="n">
-        <v>144.9015522302014</v>
       </c>
       <c r="G17" t="n">
         <v>146.9180922051298</v>
       </c>
       <c r="H17" t="n">
+        <v>239.2824563112173</v>
+      </c>
+      <c r="I17" t="n">
         <v>143.8560928284975</v>
       </c>
-      <c r="I17" t="n">
-        <v>155.5064042385902</v>
-      </c>
       <c r="J17" t="n">
+        <v>157.7686896530243</v>
+      </c>
+      <c r="K17" t="n">
         <v>150.8878221161447</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>157.9761978306001</v>
       </c>
     </row>
@@ -13692,27 +13935,30 @@
         <v>131.9618586516845</v>
       </c>
       <c r="D18" t="n">
+        <v>158.0799773165768</v>
+      </c>
+      <c r="E18" t="n">
         <v>153.8801068090788</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>199.1426238179207</v>
-      </c>
-      <c r="F18" t="n">
-        <v>139.6875126966984</v>
       </c>
       <c r="G18" t="n">
         <v>139.2596458549604</v>
       </c>
       <c r="H18" t="n">
+        <v>240.9962901126397</v>
+      </c>
+      <c r="I18" t="n">
         <v>123.9470445888983</v>
       </c>
-      <c r="I18" t="n">
-        <v>150.000278819972</v>
-      </c>
       <c r="J18" t="n">
+        <v>152.3321342000996</v>
+      </c>
+      <c r="K18" t="n">
         <v>148.0527212215554</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>158.316198203903</v>
       </c>
     </row>
@@ -13727,27 +13973,30 @@
         <v>128.5509344262657</v>
       </c>
       <c r="D19" t="n">
+        <v>154.760655727197</v>
+      </c>
+      <c r="E19" t="n">
         <v>153.9554072096128</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>191.3972038388252</v>
-      </c>
-      <c r="F19" t="n">
-        <v>133.8063535964168</v>
       </c>
       <c r="G19" t="n">
         <v>135.4881113206352</v>
       </c>
       <c r="H19" t="n">
+        <v>236.9339093952075</v>
+      </c>
+      <c r="I19" t="n">
         <v>107.7257171181098</v>
       </c>
-      <c r="I19" t="n">
-        <v>145.87685480718</v>
-      </c>
       <c r="J19" t="n">
+        <v>148.3952161292976</v>
+      </c>
+      <c r="K19" t="n">
         <v>147.0543468032112</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>158.6566987737553</v>
       </c>
     </row>
@@ -13762,27 +14011,30 @@
         <v>127.9169360302305</v>
       </c>
       <c r="D20" t="n">
+        <v>154.5524305463398</v>
+      </c>
+      <c r="E20" t="n">
         <v>154.0307076101469</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>194.4842278122902</v>
-      </c>
-      <c r="F20" t="n">
-        <v>132.4144759956165</v>
       </c>
       <c r="G20" t="n">
         <v>135.593563967453</v>
       </c>
       <c r="H20" t="n">
+        <v>240.5405537988588</v>
+      </c>
+      <c r="I20" t="n">
         <v>102.5560275514685</v>
       </c>
-      <c r="I20" t="n">
-        <v>145.4580858650123</v>
-      </c>
       <c r="J20" t="n">
+        <v>148.0782713248487</v>
+      </c>
+      <c r="K20" t="n">
         <v>146.9818002811416</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>158.9977572030476</v>
       </c>
     </row>
@@ -13797,27 +14049,30 @@
         <v>128.1418218144813</v>
       </c>
       <c r="D21" t="n">
+        <v>157.9186175398166</v>
+      </c>
+      <c r="E21" t="n">
         <v>154.1060080106809</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>196.3859910130501</v>
-      </c>
-      <c r="F21" t="n">
-        <v>135.298829505159</v>
       </c>
       <c r="G21" t="n">
         <v>138.2006369433937</v>
       </c>
       <c r="H21" t="n">
+        <v>247.4618220619321</v>
+      </c>
+      <c r="I21" t="n">
         <v>105.1604751638906</v>
       </c>
-      <c r="I21" t="n">
-        <v>147.2442562152573</v>
-      </c>
       <c r="J21" t="n">
+        <v>150.1140551635058</v>
+      </c>
+      <c r="K21" t="n">
         <v>147.1957472102146</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>159.3394118054816</v>
       </c>
     </row>
@@ -13832,27 +14087,30 @@
         <v>143.6640887578086</v>
       </c>
       <c r="D22" t="n">
+        <v>161.2857952796207</v>
+      </c>
+      <c r="E22" t="n">
         <v>154.181308411215</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>203.1983121991157</v>
-      </c>
-      <c r="F22" t="n">
-        <v>152.5535788647818</v>
       </c>
       <c r="G22" t="n">
         <v>148.8001845284396</v>
       </c>
       <c r="H22" t="n">
+        <v>267.7745832369397</v>
+      </c>
+      <c r="I22" t="n">
         <v>136.3852372224313</v>
       </c>
-      <c r="I22" t="n">
-        <v>156.1564686257091</v>
-      </c>
       <c r="J22" t="n">
+        <v>158.2679400648097</v>
+      </c>
+      <c r="K22" t="n">
         <v>152.5090249169072</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>159.6816775816981</v>
       </c>
     </row>
@@ -13867,27 +14125,30 @@
         <v>145.9336296258776</v>
       </c>
       <c r="D23" t="n">
+        <v>158.5480279934333</v>
+      </c>
+      <c r="E23" t="n">
         <v>154.256608811749</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>216.667313015461</v>
-      </c>
-      <c r="F23" t="n">
-        <v>159.59532810845</v>
       </c>
       <c r="G23" t="n">
         <v>156.0735817378529</v>
       </c>
       <c r="H23" t="n">
+        <v>277.9143046394979</v>
+      </c>
+      <c r="I23" t="n">
         <v>150.3698237050695</v>
       </c>
-      <c r="I23" t="n">
-        <v>162.1103294620553</v>
-      </c>
       <c r="J23" t="n">
+        <v>163.0828582426054</v>
+      </c>
+      <c r="K23" t="n">
         <v>153.4049201929003</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>160.0245221410745</v>
       </c>
     </row>
@@ -13902,27 +14163,30 @@
         <v>152.0342464458087</v>
       </c>
       <c r="D24" t="n">
+        <v>161.7613013600052</v>
+      </c>
+      <c r="E24" t="n">
         <v>154.3319092122831</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>230.1312545895576</v>
-      </c>
-      <c r="F24" t="n">
-        <v>164.6930575847726</v>
       </c>
       <c r="G24" t="n">
         <v>163.9416581012216</v>
       </c>
       <c r="H24" t="n">
+        <v>287.2415357627196</v>
+      </c>
+      <c r="I24" t="n">
         <v>156.8578082347191</v>
       </c>
-      <c r="I24" t="n">
-        <v>167.1860333853054</v>
-      </c>
       <c r="J24" t="n">
+        <v>167.9422048149173</v>
+      </c>
+      <c r="K24" t="n">
         <v>155.5780186452343</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>160.3679002776114</v>
       </c>
     </row>
@@ -13937,27 +14201,30 @@
         <v>156.4679832509351</v>
       </c>
       <c r="D25" t="n">
+        <v>165.1317344091703</v>
+      </c>
+      <c r="E25" t="n">
         <v>154.4072096128171</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>238.2136978268623</v>
-      </c>
-      <c r="F25" t="n">
-        <v>165.5799867279581</v>
       </c>
       <c r="G25" t="n">
         <v>169.9659340088346</v>
       </c>
       <c r="H25" t="n">
+        <v>295.3395828736129</v>
+      </c>
+      <c r="I25" t="n">
         <v>153.3326211722379</v>
       </c>
-      <c r="I25" t="n">
-        <v>169.7147955715812</v>
-      </c>
       <c r="J25" t="n">
+        <v>170.680260102538</v>
+      </c>
+      <c r="K25" t="n">
         <v>157.1956471099493</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>160.7117484660958</v>
       </c>
     </row>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -508,37 +508,37 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3322874406121059</v>
+        <v>4.03129112410943</v>
       </c>
       <c r="C2" t="n">
-        <v>1.781818181818181</v>
+        <v>1.958333333333335</v>
       </c>
       <c r="D2" t="n">
-        <v>1.903372605026118</v>
+        <v>1.393350257635618</v>
       </c>
       <c r="E2" t="n">
-        <v>6.045346736907959</v>
+        <v>-0.01298084575682878</v>
       </c>
       <c r="F2" t="n">
-        <v>7.556859886019079</v>
+        <v>-1.121225760041334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5549336491811043</v>
+        <v>0.9763794421317273</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.78141845980207</v>
+        <v>-5.764753553287771</v>
       </c>
       <c r="J2" t="n">
-        <v>3.345664390983172</v>
+        <v>3.519167004662663</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04911526934498436</v>
+        <v>1.707522372655098</v>
       </c>
       <c r="L2" t="n">
-        <v>1.132435725810248</v>
+        <v>1.115286421471459</v>
       </c>
     </row>
     <row r="3">
@@ -546,37 +546,37 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3327564203061684</v>
+        <v>-4.017221186160896</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.263636363636361</v>
+        <v>-3.449999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.222131813668422</v>
+        <v>-3.595611200985704</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.84650421142578</v>
+        <v>-12.21850872039795</v>
       </c>
       <c r="F3" t="n">
-        <v>4.631323687339851</v>
+        <v>-3.388663418872328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.774303259879662</v>
+        <v>-2.053784028547786</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.038726658502481</v>
+        <v>-2.015365850600919</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.759280635008337</v>
+        <v>-3.064522190267938</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.455415479679816</v>
+        <v>-1.985369554328181</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.992810114533362</v>
+        <v>-3.23127067997437</v>
       </c>
     </row>
     <row r="4">
@@ -584,37 +584,37 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3331482459326764</v>
+        <v>-5.64149960380837</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3363636363636379</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.714604301002296</v>
+        <v>-6.035277878872401</v>
       </c>
       <c r="E4" t="n">
-        <v>1.835295796394348</v>
+        <v>5.033699989318848</v>
       </c>
       <c r="F4" t="n">
-        <v>7.668981264814643</v>
+        <v>-2.017772147196984</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.42302859724821</v>
+        <v>-3.296114363104323</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.979362789671423</v>
+        <v>-6.99227158397089</v>
       </c>
       <c r="J4" t="n">
-        <v>4.882934788739271</v>
+        <v>5.320980213394177</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.338193316927162</v>
+        <v>-2.940905805062851</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.9847047548282996</v>
+        <v>-1.479398303185465</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3335761214214301</v>
+        <v>-5.546297837619477</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.836363636363634</v>
+        <v>-2.041666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.041696069358696</v>
+        <v>-5.91369405170617</v>
       </c>
       <c r="E5" t="n">
-        <v>6.862105846405029</v>
+        <v>2.361547231674194</v>
       </c>
       <c r="F5" t="n">
-        <v>6.974004623086842</v>
+        <v>0.519402163977629</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.267768136625014</v>
+        <v>1.056417175137196</v>
       </c>
       <c r="I5" t="n">
-        <v>4.755741472248615</v>
+        <v>4.782507622343847</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.741124274075383</v>
+        <v>-1.711225454961701</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.9529638715565129</v>
+        <v>-1.458328036919381</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.8492142578874424</v>
+        <v>-1.328814817182268</v>
       </c>
     </row>
     <row r="6">
@@ -660,37 +660,37 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3340382297540998</v>
+        <v>-14.96906790301318</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.818181818181818</v>
+        <v>-8.85</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.097731587997419</v>
+        <v>-8.428076078426782</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.68431568145752</v>
+        <v>-12.51457786560059</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.406891879698938</v>
+        <v>-10.07754362237114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.587329938472337</v>
+        <v>-4.246205115835805</v>
       </c>
       <c r="I6" t="n">
-        <v>-21.63651906955145</v>
+        <v>-21.64928575031269</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.012575665649568</v>
+        <v>-6.475264712031477</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.059330436061397</v>
+        <v>-6.366792155708283</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.402826807051099</v>
+        <v>-8.787779670736485</v>
       </c>
     </row>
     <row r="7">
@@ -698,37 +698,37 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3345627195609779</v>
+        <v>-4.682644222883937</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.681818181818183</v>
+        <v>-4.450000000000003</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.142987745738129</v>
+        <v>-3.303495475023827</v>
       </c>
       <c r="E7" t="n">
-        <v>1.432814359664917</v>
+        <v>4.450562000274658</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.870261756378207</v>
+        <v>-6.806326667645403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.293236228253746</v>
+        <v>1.641699348252136</v>
       </c>
       <c r="I7" t="n">
-        <v>-15.08455049372193</v>
+        <v>-15.04342956100555</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.332236675431846</v>
+        <v>-3.730500789211856</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.6277910360529074</v>
+        <v>-0.975349440969221</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.751939290130674</v>
+        <v>-3.08092948437635</v>
       </c>
     </row>
     <row r="8">
@@ -736,37 +736,37 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3351399618335336</v>
+        <v>-0.8702608564549337</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.745454545454547</v>
+        <v>1.491666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4083693543140949</v>
+        <v>0.04394966570790793</v>
       </c>
       <c r="E8" t="n">
-        <v>2.420299530029297</v>
+        <v>1.529634833335876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7488057736114099</v>
+        <v>-3.499528079513011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002807205479249134</v>
+        <v>1.58952919001289</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.117659170886816</v>
+        <v>-4.086596218810603</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.90445505432688</v>
+        <v>-7.074795641866178</v>
       </c>
       <c r="K8" t="n">
-        <v>0.137749189282276</v>
+        <v>0.2780549617606979</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.072657092128385</v>
+        <v>-0.9052261384802255</v>
       </c>
     </row>
     <row r="9">
@@ -774,37 +774,37 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3357445722828345</v>
+        <v>-3.077240889065706</v>
       </c>
       <c r="C9" t="n">
-        <v>5.409090909090909</v>
+        <v>1.091666666666664</v>
       </c>
       <c r="D9" t="n">
-        <v>1.995384361382126</v>
+        <v>1.260747004071266</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.774243354797363</v>
+        <v>-2.047998666763306</v>
       </c>
       <c r="F9" t="n">
-        <v>3.802957909734822</v>
+        <v>2.592476219892122</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8749041997270488</v>
+        <v>-3.817793072967801</v>
       </c>
       <c r="I9" t="n">
-        <v>2.717469584047073</v>
+        <v>2.744948944962442</v>
       </c>
       <c r="J9" t="n">
-        <v>3.153712602015931</v>
+        <v>3.218508837899103</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1546197423033897</v>
+        <v>-2.260045803436456</v>
       </c>
       <c r="L9" t="n">
-        <v>1.299892535406434</v>
+        <v>-0.09244566886542678</v>
       </c>
     </row>
     <row r="10">
@@ -812,37 +812,37 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3364141718863891</v>
+        <v>17.96295781214803</v>
       </c>
       <c r="C10" t="n">
-        <v>7.118181818181819</v>
+        <v>13.475</v>
       </c>
       <c r="D10" t="n">
-        <v>9.543079625484356</v>
+        <v>8.863759913639999</v>
       </c>
       <c r="E10" t="n">
-        <v>13.80928707122803</v>
+        <v>14.79323577880859</v>
       </c>
       <c r="F10" t="n">
-        <v>16.08344060108909</v>
+        <v>18.89846537887696</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H10" t="n">
-        <v>14.24816168843081</v>
+        <v>5.139329430086101</v>
       </c>
       <c r="I10" t="n">
-        <v>29.56855716546661</v>
+        <v>29.63528288603657</v>
       </c>
       <c r="J10" t="n">
-        <v>3.354262653752059</v>
+        <v>3.528349934424705</v>
       </c>
       <c r="K10" t="n">
-        <v>4.886625420283749</v>
+        <v>7.739061264652758</v>
       </c>
       <c r="L10" t="n">
-        <v>8.395179068252267</v>
+        <v>10.64792593649229</v>
       </c>
     </row>
     <row r="11">
@@ -850,37 +850,37 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3369769656824815</v>
+        <v>-1.76873426477141</v>
       </c>
       <c r="C11" t="n">
-        <v>9.227272727272727</v>
+        <v>7.308333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>4.918584962189359</v>
+        <v>3.72900625722702</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66936779022217</v>
+        <v>1.120863199234009</v>
       </c>
       <c r="F11" t="n">
-        <v>6.260799330469256</v>
+        <v>1.724181237915867</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6686087269488732</v>
+        <v>-4.245751720586001</v>
       </c>
       <c r="I11" t="n">
-        <v>14.88183093964284</v>
+        <v>14.91318858879043</v>
       </c>
       <c r="J11" t="n">
-        <v>3.355359551471548</v>
+        <v>3.52952141929147</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.08544378691078212</v>
+        <v>-1.966529811211091</v>
       </c>
       <c r="L11" t="n">
-        <v>4.705238833161987</v>
+        <v>2.522147882030053</v>
       </c>
     </row>
     <row r="12">
@@ -888,37 +888,37 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3375369878795311</v>
+        <v>13.56677695570943</v>
       </c>
       <c r="C12" t="n">
-        <v>4.718181818181816</v>
+        <v>2.116666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>8.03327030968234</v>
+        <v>7.974431688012775</v>
       </c>
       <c r="E12" t="n">
-        <v>10.8780632019043</v>
+        <v>8.887970924377441</v>
       </c>
       <c r="F12" t="n">
-        <v>9.12182752295336</v>
+        <v>5.632596628162591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H12" t="n">
-        <v>7.072741009251122</v>
+        <v>3.801462074986062</v>
       </c>
       <c r="I12" t="n">
-        <v>5.712605388858395</v>
+        <v>5.825688101390598</v>
       </c>
       <c r="J12" t="n">
-        <v>1.366864646102551</v>
+        <v>1.718063979223756</v>
       </c>
       <c r="K12" t="n">
-        <v>2.495192799221566</v>
+        <v>5.827711860806542</v>
       </c>
       <c r="L12" t="n">
-        <v>4.479546027675604</v>
+        <v>5.26028390976025</v>
       </c>
     </row>
     <row r="13">
@@ -926,37 +926,37 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3380267847790037</v>
+        <v>11.60933724552297</v>
       </c>
       <c r="C13" t="n">
-        <v>1.881818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>7.53826503401389</v>
+        <v>6.800676002354368</v>
       </c>
       <c r="E13" t="n">
-        <v>8.015440940856934</v>
+        <v>3.119833469390869</v>
       </c>
       <c r="F13" t="n">
-        <v>5.757682133580738</v>
+        <v>-2.144629355657897</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H13" t="n">
-        <v>7.538661637342932</v>
+        <v>5.030787569282516</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.464261286293956</v>
+        <v>-1.526555551774979</v>
       </c>
       <c r="J13" t="n">
-        <v>7.676241971363441</v>
+        <v>-0.08880068575599243</v>
       </c>
       <c r="K13" t="n">
-        <v>2.650662940885327</v>
+        <v>5.585007122176539</v>
       </c>
       <c r="L13" t="n">
-        <v>4.084784046660546</v>
+        <v>3.491842165292432</v>
       </c>
     </row>
     <row r="14">
@@ -964,37 +964,37 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3384361746942659</v>
+        <v>5.245174952899106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4909090909090901</v>
+        <v>0.725000000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>2.744731103393845</v>
+        <v>2.501550036245829</v>
       </c>
       <c r="E14" t="n">
-        <v>5.431589603424072</v>
+        <v>4.146125793457031</v>
       </c>
       <c r="F14" t="n">
-        <v>7.416081067030698</v>
+        <v>-1.693812040969902</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5811525776619317</v>
+        <v>1.95552635297849</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.632672468894083</v>
+        <v>-4.582071818315877</v>
       </c>
       <c r="J14" t="n">
-        <v>3.358579477035206</v>
+        <v>3.532960294222935</v>
       </c>
       <c r="K14" t="n">
-        <v>0.331629717630081</v>
+        <v>2.438532619200578</v>
       </c>
       <c r="L14" t="n">
-        <v>1.265247341507024</v>
+        <v>1.786306898395319</v>
       </c>
     </row>
     <row r="15">
@@ -1002,37 +1002,37 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3388100278086768</v>
+        <v>-6.356183167898052</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.318181818181817</v>
+        <v>-4.183333333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.300465845486711</v>
+        <v>-4.884856412048705</v>
       </c>
       <c r="E15" t="n">
-        <v>-10.74925708770752</v>
+        <v>-11.38498115539551</v>
       </c>
       <c r="F15" t="n">
-        <v>5.584701847484046</v>
+        <v>-4.640622561872154</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.057172030356209</v>
+        <v>-3.532112964797341</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.230212826822292</v>
+        <v>-2.219713819502056</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1031260347524019</v>
+        <v>0.1199125925602806</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.881020534004495</v>
+        <v>-3.257799860323752</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.891688060638499</v>
+        <v>-3.614726506548416</v>
       </c>
     </row>
     <row r="16">
@@ -1040,37 +1040,37 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3391776207184876</v>
+        <v>-7.200051306258501</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3363636363636379</v>
+        <v>1.391666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.572466642681067</v>
+        <v>-5.753416004085279</v>
       </c>
       <c r="E16" t="n">
-        <v>1.535154938697815</v>
+        <v>-0.1782897263765335</v>
       </c>
       <c r="F16" t="n">
-        <v>3.083702888415302</v>
+        <v>-1.372716786637384</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.410309183898856</v>
+        <v>-0.8346997518716879</v>
       </c>
       <c r="I16" t="n">
-        <v>-5.819685623518728</v>
+        <v>-5.798250030903958</v>
       </c>
       <c r="J16" t="n">
-        <v>3.360773272474182</v>
+        <v>3.535303263956461</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.331943720882108</v>
+        <v>-2.639951502135351</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.161975444147524</v>
+        <v>-1.800391067363605</v>
       </c>
     </row>
     <row r="17">
@@ -1078,37 +1078,37 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3395653854474574</v>
+        <v>-8.709655705212754</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.190909090909088</v>
+        <v>-2.041666666666666</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.67488114442353</v>
+        <v>-6.725313579300818</v>
       </c>
       <c r="E17" t="n">
-        <v>7.938852310180664</v>
+        <v>8.698393821716309</v>
       </c>
       <c r="F17" t="n">
-        <v>9.268441411665256</v>
+        <v>0.1870347201124749</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.249468058285651</v>
+        <v>0.6554376058578074</v>
       </c>
       <c r="I17" t="n">
-        <v>3.404957125899097</v>
+        <v>3.391255890052639</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.728209188023349</v>
+        <v>-1.697432165401428</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.278200757434716</v>
+        <v>-2.646440515876936</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.085818104104515</v>
+        <v>-1.656692961465214</v>
       </c>
     </row>
     <row r="18">
@@ -1116,37 +1116,37 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3400003733028711</v>
+        <v>-15.03863631918693</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.118181818181819</v>
+        <v>-8.958333333333334</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.658446350169442</v>
+        <v>-8.074190210827888</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7233260273933411</v>
+        <v>-9.155291557312012</v>
       </c>
       <c r="F18" t="n">
-        <v>1.713833801422377</v>
+        <v>-8.542845381213111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.920603457604825</v>
+        <v>-4.241158440226273</v>
       </c>
       <c r="I18" t="n">
-        <v>-19.90904823959922</v>
+        <v>-19.85307294038447</v>
       </c>
       <c r="J18" t="n">
-        <v>-5.999660579597534</v>
+        <v>-6.461471422471204</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.835100894589303</v>
+        <v>-6.388299402563024</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.43655545292476</v>
+        <v>-8.361367015173569</v>
       </c>
     </row>
     <row r="19">
@@ -1154,37 +1154,37 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3405005698522814</v>
+        <v>-5.997119639443099</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.681818181818183</v>
+        <v>-6.316666666666669</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.771534534325183</v>
+        <v>-4.097691443804963</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.745419979095459</v>
+        <v>-14.00059795379639</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.062380717432128</v>
+        <v>-6.806326667645403</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.410924225418728</v>
+        <v>1.60626525052143</v>
       </c>
       <c r="I19" t="n">
-        <v>-16.22132747078849</v>
+        <v>-16.21861577998107</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.319321589379812</v>
+        <v>-3.716707499651583</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.9983744183441338</v>
+        <v>-1.425319279065844</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.936918070801935</v>
+        <v>-4.943144618835458</v>
       </c>
     </row>
     <row r="20">
@@ -1192,37 +1192,37 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3410584292923602</v>
+        <v>-1.168551107649364</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.745454545454547</v>
+        <v>1.491666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1054526468178265</v>
+        <v>-0.4059202832747824</v>
       </c>
       <c r="E20" t="n">
-        <v>3.087023973464966</v>
+        <v>-0.3650931715965271</v>
       </c>
       <c r="F20" t="n">
-        <v>3.60664440365122</v>
+        <v>-3.499528079513011</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.6339983960352196</v>
+        <v>1.257189096522525</v>
       </c>
       <c r="I20" t="n">
-        <v>-5.169689566641233</v>
+        <v>-5.173451789094977</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.208225180857196</v>
+        <v>0.1944472862336042</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.07254652206960467</v>
+        <v>0.06784484686576626</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3169448044489938</v>
+        <v>-0.3249329032835043</v>
       </c>
     </row>
     <row r="21">
@@ -1230,37 +1230,37 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3416546024339766</v>
+        <v>-1.362100345937051</v>
       </c>
       <c r="C21" t="n">
-        <v>5.409090909090909</v>
+        <v>2.041666666666664</v>
       </c>
       <c r="D21" t="n">
-        <v>2.607072975940654</v>
+        <v>1.673358202084806</v>
       </c>
       <c r="E21" t="n">
-        <v>1.901763200759888</v>
+        <v>7.187325954437256</v>
       </c>
       <c r="F21" t="n">
-        <v>6.921268263073388</v>
+        <v>5.017546621746649</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2248857842507752</v>
+        <v>-4.152797024586194</v>
       </c>
       <c r="I21" t="n">
-        <v>2.604447612422066</v>
+        <v>2.618908868026037</v>
       </c>
       <c r="J21" t="n">
-        <v>3.366186993476813</v>
+        <v>3.54108510862145</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2139469290729324</v>
+        <v>-1.800000272933036</v>
       </c>
       <c r="L21" t="n">
-        <v>2.035783838657105</v>
+        <v>0.9538718127993104</v>
       </c>
     </row>
     <row r="22">
@@ -1268,37 +1268,37 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3422657762164647</v>
+        <v>20.42631193127227</v>
       </c>
       <c r="C22" t="n">
-        <v>6.445454545454547</v>
+        <v>10.78333333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.59954758504588</v>
+        <v>10.33240782320689</v>
       </c>
       <c r="E22" t="n">
-        <v>6.812321186065674</v>
+        <v>8.953094482421875</v>
       </c>
       <c r="F22" t="n">
-        <v>20.31276117500756</v>
+        <v>19.89117828341893</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H22" t="n">
-        <v>15.52226694332733</v>
+        <v>5.137636358119046</v>
       </c>
       <c r="I22" t="n">
-        <v>31.22476205854071</v>
+        <v>31.36012321026912</v>
       </c>
       <c r="J22" t="n">
-        <v>3.367177739804093</v>
+        <v>3.542143223984978</v>
       </c>
       <c r="K22" t="n">
-        <v>5.313277706692613</v>
+        <v>8.559614947038483</v>
       </c>
       <c r="L22" t="n">
-        <v>8.153884901303938</v>
+        <v>10.61902612186116</v>
       </c>
     </row>
     <row r="23">
@@ -1306,37 +1306,37 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3428445593764593</v>
+        <v>2.018774471909182</v>
       </c>
       <c r="C23" t="n">
-        <v>10.74545454545455</v>
+        <v>9.25</v>
       </c>
       <c r="D23" t="n">
-        <v>7.273397209413262</v>
+        <v>6.18649882862201</v>
       </c>
       <c r="E23" t="n">
-        <v>13.46900081634521</v>
+        <v>13.52024555206299</v>
       </c>
       <c r="F23" t="n">
-        <v>10.13972140255816</v>
+        <v>5.521539334840272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H23" t="n">
-        <v>2.269540868068994</v>
+        <v>-3.965530642975552</v>
       </c>
       <c r="I23" t="n">
-        <v>13.98458648263825</v>
+        <v>14.00163780748747</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.737767286187414</v>
+        <v>-3.04154597094562</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8958952759931663</v>
+        <v>-0.6106198731140772</v>
       </c>
       <c r="L23" t="n">
-        <v>4.814918177795744</v>
+        <v>3.614587333763535</v>
       </c>
     </row>
     <row r="24">
@@ -1344,37 +1344,37 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3433781365368418</v>
+        <v>13.54072831022859</v>
       </c>
       <c r="C24" t="n">
-        <v>4.718181818181816</v>
+        <v>1.624999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>7.868076363368766</v>
+        <v>7.675768582725476</v>
       </c>
       <c r="E24" t="n">
-        <v>13.46394157409668</v>
+        <v>4.815525054931641</v>
       </c>
       <c r="F24" t="n">
-        <v>9.327231123221713</v>
+        <v>5.299827136313288</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H24" t="n">
-        <v>6.100616819931099</v>
+        <v>2.147582741400655</v>
       </c>
       <c r="I24" t="n">
-        <v>6.487984529649563</v>
+        <v>6.59822702306518</v>
       </c>
       <c r="J24" t="n">
-        <v>3.213273366571909</v>
+        <v>3.551507206644852</v>
       </c>
       <c r="K24" t="n">
-        <v>2.173098452333995</v>
+        <v>5.26773586778446</v>
       </c>
       <c r="L24" t="n">
-        <v>4.859346572311872</v>
+        <v>4.946255083965549</v>
       </c>
     </row>
     <row r="25">
@@ -1382,37 +1382,37 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3438481884844009</v>
+        <v>8.555017650761329</v>
       </c>
       <c r="C25" t="n">
-        <v>1.627272727272727</v>
+        <v>2.15</v>
       </c>
       <c r="D25" t="n">
-        <v>6.024275907612924</v>
+        <v>4.98798366138057</v>
       </c>
       <c r="E25" t="n">
-        <v>8.082443237304688</v>
+        <v>6.057351589202881</v>
       </c>
       <c r="F25" t="n">
-        <v>8.098047110893297</v>
+        <v>-2.784329798057359</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07530040053404534</v>
+        <v>0.1148965517241378</v>
       </c>
       <c r="H25" t="n">
-        <v>4.433736805126396</v>
+        <v>1.917139280507901</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.525187062481229</v>
+        <v>-3.636046415408411</v>
       </c>
       <c r="J25" t="n">
-        <v>3.370433049165153</v>
+        <v>3.545619888750855</v>
       </c>
       <c r="K25" t="n">
-        <v>1.617628464714947</v>
+        <v>3.529017827664456</v>
       </c>
       <c r="L25" t="n">
-        <v>2.738055287620706</v>
+        <v>2.975193239185486</v>
       </c>
     </row>
   </sheetData>
@@ -1594,12 +1594,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11, 'weights': 'uniform'}</t>
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1617,32 +1617,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>14.16666731485981</v>
+        <v>14.22850311613719</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01624248723056</v>
+        <v>2.004169617333215</v>
       </c>
       <c r="K2" t="n">
-        <v>10.95151515151515</v>
+        <v>11.18055555555555</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08819337856099618</v>
+        <v>0.07633180333035183</v>
       </c>
       <c r="M2" t="n">
-        <v>2.009090909090911</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="N2" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>10.02068238226953</v>
+        <v>10.01285023973552</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>7.854472630173564</v>
+        <v>7.842114942528735</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6504663975465708</v>
+        <v>0.6522446387299823</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>15.37717979351883</v>
+        <v>15.21438730342167</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>11.50454635250166</v>
+        <v>12.23336692017793</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.07152673974036526</v>
+        <v>0.07737981629220926</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.240909090909083</v>
+        <v>10.09722222222222</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2898691261953685</v>
+        <v>0.2657598923722978</v>
       </c>
       <c r="AC2" t="b">
         <v>1</v>
@@ -1677,29 +1677,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'changepoints': 0}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
         <v>1</v>
       </c>
@@ -1710,32 +1702,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>14.49394886140646</v>
+        <v>13.80982846576606</v>
       </c>
       <c r="J3" t="n">
-        <v>1.381343183370294</v>
+        <v>6.809886617721669</v>
       </c>
       <c r="K3" t="n">
-        <v>10.99039111799059</v>
+        <v>10.77241376848083</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04557721083183719</v>
+        <v>0.1298900557233134</v>
       </c>
       <c r="M3" t="n">
-        <v>1.769949422710348</v>
+        <v>-0.08880068575599198</v>
       </c>
       <c r="N3" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>11.01641994308268</v>
+        <v>15.88846535599839</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>8.607440568328624</v>
+        <v>11.96631493997688</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5775500093445932</v>
+        <v>0.1212440309276781</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -1746,22 +1738,24 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>13.62328082263185</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
+        <v>15.85808991121881</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>13.94133807414187</v>
+        <v>17.75661767831055</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08400850153712426</v>
+        <v>0.09822468649599135</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.20822104323386</v>
+        <v>13.5081852622595</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.04281751236428444</v>
+        <v>-0.5469154891017911</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
@@ -1770,18 +1764,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1795,32 +1793,32 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>13.56422672644867</v>
+        <v>14.97517744295523</v>
       </c>
       <c r="J4" t="n">
-        <v>6.586271361684705</v>
+        <v>1.032257036082011</v>
       </c>
       <c r="K4" t="n">
-        <v>10.05457774860014</v>
+        <v>11.02587229770494</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1640940200996037</v>
+        <v>-0.02315520517885994</v>
       </c>
       <c r="M4" t="n">
-        <v>7.676241971363441</v>
+        <v>3.675364733178132</v>
       </c>
       <c r="N4" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>15.94341723698209</v>
+        <v>14.99701339533813</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>12.00692908453688</v>
+        <v>11.13556795741842</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1151754524982617</v>
+        <v>0.2198682526750926</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1831,24 +1829,22 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>15.59818620608143</v>
-      </c>
-      <c r="V4" t="b">
-        <v>1</v>
-      </c>
+        <v>13.18827863007221</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>15.61405696181125</v>
+        <v>17.17756736399991</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09059395537103822</v>
+        <v>0.103347423926711</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.27512438859847</v>
+        <v>13.9392024371815</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.308069793439455</v>
+        <v>-0.4476694876842118</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
@@ -1867,17 +1863,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.5}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 1.0}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>normalize</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -1890,29 +1886,29 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>15.09530373889173</v>
+        <v>15.07477782915108</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9743172268248915</v>
+        <v>0.9435029895145387</v>
       </c>
       <c r="K5" t="n">
-        <v>11.22822252374491</v>
+        <v>11.31368630201028</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03526388361415567</v>
+        <v>-0.03681054197560019</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="N5" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>16.94934151071192</v>
+        <v>16.97933994563094</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>12.63369548360876</v>
+        <v>12.64285564803805</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1926,22 +1922,22 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>13.69454902461603</v>
+        <v>13.68990808072906</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>16.4153894888649</v>
+        <v>17.05484283282677</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1010335302767462</v>
+        <v>0.1036513846225947</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.46689280868386</v>
+        <v>13.91958859280036</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.4457785645499661</v>
+        <v>-0.4270577332612697</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
@@ -1960,7 +1956,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1983,32 +1979,32 @@
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>13.71677148206937</v>
+        <v>13.21889115222175</v>
       </c>
       <c r="J6" t="n">
-        <v>4.249075369807209</v>
+        <v>6.908983971726632</v>
       </c>
       <c r="K6" t="n">
-        <v>9.727476030836501</v>
+        <v>10.08083787759145</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1451869214650968</v>
+        <v>0.2027626868621164</v>
       </c>
       <c r="M6" t="n">
-        <v>5.673378944396973</v>
+        <v>7.741409778594971</v>
       </c>
       <c r="N6" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4357668729855375</v>
+        <v>0.3616826343753346</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.311753509442343</v>
+        <v>0.2583262512232978</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9993389980152926</v>
+        <v>0.999546253061694</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -2019,22 +2015,22 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>20.58998083085664</v>
+        <v>27.59944227921716</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>16.76968046377441</v>
+        <v>18.93896674310825</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1149801120799304</v>
+        <v>0.1284402363644279</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.62279783686002</v>
+        <v>15.94056935310363</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.5088600955117966</v>
+        <v>-0.7597811567038137</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
@@ -2043,22 +2039,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2076,32 +2072,32 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>14.2998351840783</v>
+        <v>20.01756046078422</v>
       </c>
       <c r="J7" t="n">
-        <v>2.096791423360109</v>
+        <v>2.211577972503424</v>
       </c>
       <c r="K7" t="n">
-        <v>11.50102381601369</v>
+        <v>15.16912145797449</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07097069138220535</v>
+        <v>-0.8281838227568334</v>
       </c>
       <c r="M7" t="n">
-        <v>3.163255760337611</v>
+        <v>8.637099780648388</v>
       </c>
       <c r="N7" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>13.31089761248025</v>
+        <v>9.070852980553864</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>10.15725719112676</v>
+        <v>7.153961209727836</v>
       </c>
       <c r="R7" t="n">
-        <v>0.383250189061759</v>
+        <v>0.7145995529664311</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2112,22 +2108,22 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>15.18264591724112</v>
+        <v>36.95595855503056</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>31.47398903447037</v>
+        <v>29.26865650763126</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2281955095649519</v>
+        <v>0.2050153914243541</v>
       </c>
       <c r="AA7" t="n">
-        <v>29.55968443862372</v>
+        <v>25.10990709545895</v>
       </c>
       <c r="AB7" t="n">
-        <v>-4.314996421108336</v>
+        <v>-3.202925345945211</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
@@ -2136,22 +2132,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'n_estimators': 100}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2169,32 +2165,32 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>21.85016549131038</v>
+        <v>14.20672536444297</v>
       </c>
       <c r="J8" t="n">
-        <v>18.72169847223069</v>
+        <v>2.290227103524304</v>
       </c>
       <c r="K8" t="n">
-        <v>19.0573321829246</v>
+        <v>11.37009713354396</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.169086206028579</v>
+        <v>0.0791571212744604</v>
       </c>
       <c r="M8" t="n">
-        <v>-18.58968368975688</v>
+        <v>2.881783527181065</v>
       </c>
       <c r="N8" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>7.549898719663588</v>
+        <v>13.18949391829887</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>6.04557279319091</v>
+        <v>10.07000387768475</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8015840454287455</v>
+        <v>0.3965870076154009</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -2205,22 +2201,22 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>31.92634610518765</v>
+        <v>15.05339812224375</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>35.0878427963901</v>
+        <v>33.22411412049264</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2395334890827938</v>
+        <v>0.2382792550637408</v>
       </c>
       <c r="AA8" t="n">
-        <v>29.18789256183846</v>
+        <v>31.07629972634302</v>
       </c>
       <c r="AB8" t="n">
-        <v>-5.605607051842953</v>
+        <v>-4.415679064017133</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
@@ -2254,32 +2250,32 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>14.16824041065862</v>
+        <v>14.01216897157831</v>
       </c>
       <c r="J9" t="n">
-        <v>4.316972187371513</v>
+        <v>4.358102186426165</v>
       </c>
       <c r="K9" t="n">
-        <v>11.93279545759319</v>
+        <v>12.02446212425986</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08799086956283519</v>
+        <v>0.104205698509224</v>
       </c>
       <c r="M9" t="n">
         <v>0.3338760690406671</v>
       </c>
       <c r="N9" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>11.30600685514595</v>
+        <v>11.30286044901137</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>8.804679089617128</v>
+        <v>8.808385262120638</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5550483432038602</v>
+        <v>0.5552856775403904</v>
       </c>
       <c r="S9" t="n">
         <v>6</v>
@@ -2298,16 +2294,16 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>33.28407191224224</v>
+        <v>33.72123444265412</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2515011358495877</v>
+        <v>0.2544926367795221</v>
       </c>
       <c r="AA9" t="n">
-        <v>31.57918338427961</v>
+        <v>32.11251671761294</v>
       </c>
       <c r="AB9" t="n">
-        <v>-4.943911046713754</v>
+        <v>-4.578957196607077</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
@@ -2341,32 +2337,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>25.24544073283259</v>
+        <v>21.28620392019444</v>
       </c>
       <c r="J10" t="n">
-        <v>21.96062703218074</v>
+        <v>16.97788481669194</v>
       </c>
       <c r="K10" t="n">
-        <v>21.62253626916121</v>
+        <v>18.71196770423904</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.895564644953093</v>
+        <v>-1.067254759463272</v>
       </c>
       <c r="M10" t="n">
-        <v>2.283649769176961</v>
+        <v>-12.05096948611688</v>
       </c>
       <c r="N10" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>11.46740621921583</v>
+        <v>11.66157116772498</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>8.739140874703891</v>
+        <v>8.894199401655488</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5422538148169331</v>
+        <v>0.5282927762919931</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2374,25 +2370,25 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>['mlp', 'mlr', 'elasticnet', 'svr', 'knn', 'silverkite', 'xgboost', 'prophet', 'gbt']</t>
+          <t>['mlp', 'elasticnet', 'mlr', 'svr', 'knn', 'silverkite', 'prophet', 'xgboost', 'gbt']</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>(0.1430320769772374, 0.14277238151614263, 0.14252577137437972, 0.13195399078563377, 0.13057197764705503, 0.12900189755758174, 0.09353904713517983, 0.0735999409179502, 0.013002916088839765)</t>
+          <t>(0.1460005246089272, 0.1431992352802551, 0.14164892056854442, 0.13558498915087738, 0.13468596443318023, 0.13109128464773426, 0.08899319168828744, 0.06552311465774606, 0.013272774964447927)</t>
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>125.8670202099885</v>
+        <v>96.01145216274844</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7782095207163208</v>
+        <v>0.5955418935727425</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.9892496811462</v>
+        <v>77.62426696827106</v>
       </c>
       <c r="AB10" t="n">
-        <v>-84.00085606740977</v>
+        <v>-44.22641640505537</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
@@ -2426,32 +2422,32 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>52.667256779114</v>
+        <v>44.00555515345945</v>
       </c>
       <c r="J11" t="n">
-        <v>54.73337302027011</v>
+        <v>43.80154984604291</v>
       </c>
       <c r="K11" t="n">
-        <v>46.16945592778577</v>
+        <v>39.92449201107164</v>
       </c>
       <c r="L11" t="n">
-        <v>-11.60226906924261</v>
+        <v>-7.835122435041075</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6996616641842901</v>
+        <v>-31.58540366862471</v>
       </c>
       <c r="N11" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>13.92759007735022</v>
+        <v>13.62141202119946</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>10.53957504436953</v>
+        <v>10.31980386637192</v>
       </c>
       <c r="R11" t="n">
-        <v>0.324778455124629</v>
+        <v>0.3564198325626025</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2459,21 +2455,21 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>['mlp', 'mlr', 'elasticnet']</t>
+          <t>['mlp', 'elasticnet', 'mlr']</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>311.9372362379599</v>
+        <v>248.8761127875884</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.949468421183344</v>
+        <v>1.561534856168545</v>
       </c>
       <c r="AA11" t="n">
-        <v>252.8442515760386</v>
+        <v>203.4670657866561</v>
       </c>
       <c r="AB11" t="n">
-        <v>-521.0761310735153</v>
+        <v>-302.8872856375314</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
@@ -2492,7 +2488,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2500,11 +2496,7 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
         <v>1</v>
       </c>
@@ -2515,32 +2507,32 @@
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>156.0626919550775</v>
+        <v>131.8697888504178</v>
       </c>
       <c r="J12" t="n">
-        <v>163.5281986637191</v>
+        <v>131.3761421433672</v>
       </c>
       <c r="K12" t="n">
-        <v>137.9450869491692</v>
+        <v>121.5686731940694</v>
       </c>
       <c r="L12" t="n">
-        <v>-109.6535977588559</v>
+        <v>-78.33926729203877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2983707123119927</v>
+        <v>-98.49945792699054</v>
       </c>
       <c r="N12" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>16.77209658763452</v>
+        <v>11.48339663954635</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>12.46594634584826</v>
+        <v>8.965086542336827</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02080531191104418</v>
+        <v>0.5425968780668404</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -2551,22 +2543,22 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>13.6598358764792</v>
+        <v>13.96752435878389</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>954.8750661324859</v>
+        <v>769.1032326277808</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.953186480767505</v>
+        <v>4.801683635827223</v>
       </c>
       <c r="AA12" t="n">
-        <v>774.3584976969719</v>
+        <v>628.321242623187</v>
       </c>
       <c r="AB12" t="n">
-        <v>-4891.068216041657</v>
+        <v>-2901.12005055932</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
@@ -12324,7 +12316,7 @@
         <v>44317</v>
       </c>
       <c r="B749" t="n">
-        <v>4.900000000000006</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
@@ -12337,7 +12329,7 @@
         <v>44348</v>
       </c>
       <c r="B750" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
@@ -12350,7 +12342,7 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>1.781818181818181</v>
+        <v>1.958333333333335</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -12363,7 +12355,7 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>-2.263636363636361</v>
+        <v>-3.449999999999999</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -12376,7 +12368,7 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.3363636363636379</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -12389,7 +12381,7 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>-3.836363636363634</v>
+        <v>-2.041666666666666</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -12402,7 +12394,7 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>-6.818181818181818</v>
+        <v>-8.85</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -12415,7 +12407,7 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>-4.681818181818183</v>
+        <v>-4.450000000000003</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -12428,7 +12420,7 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>-1.745454545454547</v>
+        <v>1.491666666666666</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -12441,7 +12433,7 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>5.409090909090909</v>
+        <v>1.091666666666664</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -12454,7 +12446,7 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>7.118181818181819</v>
+        <v>13.475</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -12467,7 +12459,7 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>9.227272727272727</v>
+        <v>7.308333333333333</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -12480,7 +12472,7 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>4.718181818181816</v>
+        <v>2.116666666666666</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -12493,7 +12485,7 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>1.881818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -12506,7 +12498,7 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>0.4909090909090901</v>
+        <v>0.725000000000002</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -12519,7 +12511,7 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>-3.318181818181817</v>
+        <v>-4.183333333333334</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -12532,7 +12524,7 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3363636363636379</v>
+        <v>1.391666666666667</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -12545,7 +12537,7 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>-4.190909090909088</v>
+        <v>-2.041666666666666</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -12558,7 +12550,7 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>-8.118181818181819</v>
+        <v>-8.958333333333334</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -12571,7 +12563,7 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>-4.681818181818183</v>
+        <v>-6.316666666666669</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -12584,7 +12576,7 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>-1.745454545454547</v>
+        <v>1.491666666666666</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -12597,7 +12589,7 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>5.409090909090909</v>
+        <v>2.041666666666664</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -12610,7 +12602,7 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>6.445454545454547</v>
+        <v>10.78333333333334</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -12623,7 +12615,7 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>10.74545454545455</v>
+        <v>9.25</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -12636,7 +12628,7 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>4.718181818181816</v>
+        <v>1.624999999999999</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -12649,7 +12641,7 @@
         <v>45078</v>
       </c>
       <c r="B774" t="n">
-        <v>1.627272727272727</v>
+        <v>2.15</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -12694,14 +12686,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
@@ -12714,12 +12706,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>svr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -12751,37 +12743,37 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6181818181818192</v>
+        <v>0.3166666666666676</v>
       </c>
       <c r="D2" t="n">
-        <v>1.399492506848113</v>
+        <v>3.519167004662663</v>
       </c>
       <c r="E2" t="n">
-        <v>3.345664390983172</v>
+        <v>-0.08583172794206884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.35616874694824</v>
+        <v>-7.747463703155518</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4786664679422703</v>
+        <v>-29.04579403136228</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.55802926812004</v>
+        <v>-0.6538255932287687</v>
       </c>
       <c r="J2" t="n">
         <v>-8.079808106374465</v>
       </c>
       <c r="K2" t="n">
-        <v>5.285696266658212</v>
+        <v>5.828766304024683</v>
       </c>
       <c r="L2" t="n">
-        <v>16.40848447802228</v>
+        <v>16.53361223834042</v>
       </c>
       <c r="M2" t="n">
-        <v>47.79529606968819</v>
+        <v>49.61878625502504</v>
       </c>
     </row>
     <row r="3">
@@ -12792,37 +12784,37 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.100000000000001</v>
+        <v>-1.658333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2257049311930127</v>
+        <v>-3.064522190267938</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.759280635008337</v>
+        <v>-0.08583132830137541</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.705910682678223</v>
+        <v>-3.712414503097534</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.691087030085646</v>
+        <v>-3.105220927063588</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.099370919552708</v>
+        <v>-4.777430663673822</v>
       </c>
       <c r="J3" t="n">
         <v>-1.111924933511838</v>
       </c>
       <c r="K3" t="n">
-        <v>8.251203296643801</v>
+        <v>6.602964004697492</v>
       </c>
       <c r="L3" t="n">
-        <v>23.09162527346935</v>
+        <v>19.4365150708041</v>
       </c>
       <c r="M3" t="n">
-        <v>69.01850603168451</v>
+        <v>58.32749435277537</v>
       </c>
     </row>
     <row r="4">
@@ -12833,37 +12825,37 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.545454545454545</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9003937247402036</v>
+        <v>5.320980213394177</v>
       </c>
       <c r="E4" t="n">
-        <v>4.882934788739271</v>
+        <v>-0.08583185310999286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G4" t="n">
-        <v>8.895022392272949</v>
+        <v>5.388124465942383</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.82000695100103</v>
+        <v>21.2699603418739</v>
       </c>
       <c r="I4" t="n">
-        <v>20.47043063602624</v>
+        <v>-7.84522198162424</v>
       </c>
       <c r="J4" t="n">
         <v>-8.631864650205085</v>
       </c>
       <c r="K4" t="n">
-        <v>12.59412526653335</v>
+        <v>9.93145589137194</v>
       </c>
       <c r="L4" t="n">
-        <v>29.73317940867295</v>
+        <v>25.20621447203304</v>
       </c>
       <c r="M4" t="n">
-        <v>90.06926709322853</v>
+        <v>75.6365930812708</v>
       </c>
     </row>
     <row r="5">
@@ -12874,37 +12866,37 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2454545454545457</v>
+        <v>1.258333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.766832768624704</v>
+        <v>-1.711225454961701</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.741124274075383</v>
+        <v>-0.08583185311585395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.439794659614563</v>
+        <v>-5.437986373901367</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.038553028587573</v>
+        <v>21.51973671957728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9034759158839812</v>
+        <v>-9.046766395984809</v>
       </c>
       <c r="J5" t="n">
         <v>6.280099472428866</v>
       </c>
       <c r="K5" t="n">
-        <v>14.54616781041491</v>
+        <v>11.989424368203</v>
       </c>
       <c r="L5" t="n">
-        <v>36.40428745693691</v>
+        <v>30.08128900289529</v>
       </c>
       <c r="M5" t="n">
-        <v>110.9490302819049</v>
+        <v>90.26181667386345</v>
       </c>
     </row>
     <row r="6">
@@ -12915,37 +12907,37 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.372727272727273</v>
+        <v>0.6083333333333343</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.619741472019153</v>
+        <v>-6.475264712031477</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.012575665649568</v>
+        <v>-0.08583185056339793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07330860197544098</v>
+        <v>-9.401984214782715</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.07442092371541</v>
+        <v>-42.33589804937755</v>
       </c>
       <c r="I6" t="n">
-        <v>-32.53707468261997</v>
+        <v>-8.133379120969469</v>
       </c>
       <c r="J6" t="n">
         <v>-23.86272803408155</v>
       </c>
       <c r="K6" t="n">
-        <v>14.72192151119035</v>
+        <v>7.831226652130896</v>
       </c>
       <c r="L6" t="n">
-        <v>43.35671688817502</v>
+        <v>30.59855842344436</v>
       </c>
       <c r="M6" t="n">
-        <v>131.6592272790137</v>
+        <v>91.81362493295819</v>
       </c>
     </row>
     <row r="7">
@@ -12956,37 +12948,37 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.127272727272728</v>
+        <v>-0.3250000000000005</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7061100183591139</v>
+        <v>-3.730500789211856</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.332236675431846</v>
+        <v>-0.08583185311453856</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.301846504211426</v>
+        <v>-10.38879585266113</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.086297438105177</v>
+        <v>-12.59909931669012</v>
       </c>
       <c r="I7" t="n">
-        <v>-16.90504387459979</v>
+        <v>-5.22430325042165</v>
       </c>
       <c r="J7" t="n">
         <v>-14.54681081485071</v>
       </c>
       <c r="K7" t="n">
-        <v>18.37481106568101</v>
+        <v>13.51011612772124</v>
       </c>
       <c r="L7" t="n">
-        <v>50.50863497778334</v>
+        <v>39.75563645031298</v>
       </c>
       <c r="M7" t="n">
-        <v>152.2013500941786</v>
+        <v>119.2848590161152</v>
       </c>
     </row>
     <row r="8">
@@ -12997,37 +12989,37 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2363636363636346</v>
+        <v>-1.158333333333335</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6538957564868044</v>
+        <v>-7.074795641866178</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.90445505432688</v>
+        <v>-0.08583185311361174</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.893887042999268</v>
+        <v>-6.954541683197021</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9598556639461577</v>
+        <v>-0.4351687964304558</v>
       </c>
       <c r="I8" t="n">
-        <v>-19.94334646542247</v>
+        <v>-1.201719906842541</v>
       </c>
       <c r="J8" t="n">
         <v>-3.305977486910558</v>
       </c>
       <c r="K8" t="n">
-        <v>22.88372734411068</v>
+        <v>17.73371037589412</v>
       </c>
       <c r="L8" t="n">
-        <v>57.75374490854012</v>
+        <v>46.44355366766029</v>
       </c>
       <c r="M8" t="n">
-        <v>172.576674111603</v>
+        <v>139.3486106681562</v>
       </c>
     </row>
     <row r="9">
@@ -13038,37 +13030,37 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>5.063636363636363</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1.620242560774986</v>
+        <v>3.218508837899103</v>
       </c>
       <c r="E9" t="n">
-        <v>3.153712602015931</v>
+        <v>-0.08583185309267427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G9" t="n">
-        <v>11.00482273101807</v>
+        <v>14.26703357696533</v>
       </c>
       <c r="H9" t="n">
-        <v>3.201608958248801</v>
+        <v>-4.69312289768085</v>
       </c>
       <c r="I9" t="n">
-        <v>19.76382454489537</v>
+        <v>2.860297926525259</v>
       </c>
       <c r="J9" t="n">
         <v>3.386111565317465</v>
       </c>
       <c r="K9" t="n">
-        <v>30.78676215628462</v>
+        <v>24.58921639748721</v>
       </c>
       <c r="L9" t="n">
-        <v>64.81247529713873</v>
+        <v>51.45376155564253</v>
       </c>
       <c r="M9" t="n">
-        <v>192.7865184731107</v>
+        <v>154.379234332082</v>
       </c>
     </row>
     <row r="10">
@@ -13079,37 +13071,37 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>6.427272727272728</v>
+        <v>5.641666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>2.280153450385072</v>
+        <v>3.528349934424705</v>
       </c>
       <c r="E10" t="n">
-        <v>3.354262653752059</v>
+        <v>-0.08583183564162478</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G10" t="n">
-        <v>37.58415603637695</v>
+        <v>43.71275329589844</v>
       </c>
       <c r="H10" t="n">
-        <v>6.384444846058166</v>
+        <v>48.50146737466255</v>
       </c>
       <c r="I10" t="n">
-        <v>59.55889365566739</v>
+        <v>5.989371306012243</v>
       </c>
       <c r="J10" t="n">
         <v>27.50717832543545</v>
       </c>
       <c r="K10" t="n">
-        <v>39.1460068713853</v>
+        <v>35.2219377307137</v>
       </c>
       <c r="L10" t="n">
-        <v>71.71435840347708</v>
+        <v>64.08297218698839</v>
       </c>
       <c r="M10" t="n">
-        <v>212.8322569025156</v>
+        <v>192.2668662086685</v>
       </c>
     </row>
     <row r="11">
@@ -13120,37 +13112,37 @@
         <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>3.236363636363635</v>
+        <v>3.516666666666664</v>
       </c>
       <c r="D11" t="n">
-        <v>2.39011852412028</v>
+        <v>3.52952141929147</v>
       </c>
       <c r="E11" t="n">
-        <v>3.355359551471548</v>
+        <v>-0.08583178531779123</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4477115571498871</v>
+        <v>0.7416021823883057</v>
       </c>
       <c r="H11" t="n">
-        <v>7.545280265325228</v>
+        <v>-0.7258278158917503</v>
       </c>
       <c r="I11" t="n">
-        <v>13.52087740556925</v>
+        <v>7.128774438505337</v>
       </c>
       <c r="J11" t="n">
         <v>16.04297785250718</v>
       </c>
       <c r="K11" t="n">
-        <v>36.8210207478761</v>
+        <v>30.03534014518391</v>
       </c>
       <c r="L11" t="n">
-        <v>78.37860443712098</v>
+        <v>62.75149438239907</v>
       </c>
       <c r="M11" t="n">
-        <v>232.7150299297121</v>
+        <v>188.2724327445767</v>
       </c>
     </row>
     <row r="12">
@@ -13158,40 +13150,40 @@
         <v>44317</v>
       </c>
       <c r="B12" t="n">
-        <v>4.900000000000006</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2.109090909090909</v>
+        <v>2.991666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>2.497047979731117</v>
+        <v>1.718063979223756</v>
       </c>
       <c r="E12" t="n">
-        <v>1.366864646102551</v>
+        <v>-0.0858318531040998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G12" t="n">
-        <v>4.372786998748779</v>
+        <v>-1.287561893463135</v>
       </c>
       <c r="H12" t="n">
-        <v>6.595225579204865</v>
+        <v>33.30940472570747</v>
       </c>
       <c r="I12" t="n">
-        <v>2.156371192145456</v>
+        <v>6.237779272768424</v>
       </c>
       <c r="J12" t="n">
         <v>4.789853163569622</v>
       </c>
       <c r="K12" t="n">
-        <v>38.51403519564953</v>
+        <v>33.41989303680025</v>
       </c>
       <c r="L12" t="n">
-        <v>84.98799022432134</v>
+        <v>73.33211749039522</v>
       </c>
       <c r="M12" t="n">
-        <v>252.4362578357024</v>
+        <v>220.0143021363515</v>
       </c>
     </row>
     <row r="13">
@@ -13199,40 +13191,40 @@
         <v>44348</v>
       </c>
       <c r="B13" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2.009090909090911</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="D13" t="n">
-        <v>1.769949422710348</v>
+        <v>-0.08880068575599198</v>
       </c>
       <c r="E13" t="n">
-        <v>7.676241971363441</v>
+        <v>3.675364733178132</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03066485753052917</v>
+        <v>0.0678821879382889</v>
       </c>
       <c r="G13" t="n">
-        <v>5.673378944396973</v>
+        <v>7.741409778594971</v>
       </c>
       <c r="H13" t="n">
-        <v>3.163255760337611</v>
+        <v>8.637099780648388</v>
       </c>
       <c r="I13" t="n">
-        <v>-18.58968368975688</v>
+        <v>2.881783527181065</v>
       </c>
       <c r="J13" t="n">
         <v>0.3338760690406671</v>
       </c>
       <c r="K13" t="n">
-        <v>2.283649769176961</v>
+        <v>-12.05096948611688</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6996616641842901</v>
+        <v>-31.58540366862471</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2983707123119927</v>
+        <v>-98.49945792699054</v>
       </c>
     </row>
   </sheetData>
@@ -13267,14 +13259,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
@@ -13287,12 +13279,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>svr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -13321,37 +13313,37 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>154.3818181818182</v>
+        <v>155.6583333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>152.0450663508189</v>
+        <v>157.2191670046627</v>
       </c>
       <c r="D2" t="n">
-        <v>155.9456643909832</v>
+        <v>154.6763794421317</v>
       </c>
       <c r="E2" t="n">
-        <v>152.675300400534</v>
+        <v>153.8148965517241</v>
       </c>
       <c r="F2" t="n">
-        <v>158.645346736908</v>
+        <v>153.6870191542432</v>
       </c>
       <c r="G2" t="n">
-        <v>154.5033726050261</v>
+        <v>152.5787742399586</v>
       </c>
       <c r="H2" t="n">
-        <v>160.1568598860191</v>
+        <v>155.0933502576356</v>
       </c>
       <c r="I2" t="n">
-        <v>146.8185815401979</v>
+        <v>147.9352464467122</v>
       </c>
       <c r="J2" t="n">
-        <v>153.7324357258102</v>
+        <v>154.8152864214715</v>
       </c>
       <c r="K2" t="n">
-        <v>152.550884730655</v>
+        <v>155.4075223726551</v>
       </c>
       <c r="L2" t="n">
-        <v>152.9322874406121</v>
+        <v>157.7312911241094</v>
       </c>
     </row>
     <row r="3">
@@ -13359,37 +13351,37 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>152.1181818181818</v>
+        <v>152.2083333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>147.2707630909392</v>
+        <v>154.1546448143947</v>
       </c>
       <c r="D3" t="n">
-        <v>153.1863837559748</v>
+        <v>152.6225954135839</v>
       </c>
       <c r="E3" t="n">
-        <v>152.7506008010681</v>
+        <v>153.9297931034483</v>
       </c>
       <c r="F3" t="n">
-        <v>145.7988425254822</v>
+        <v>141.4685104338452</v>
       </c>
       <c r="G3" t="n">
-        <v>151.2812407913577</v>
+        <v>149.1901108210863</v>
       </c>
       <c r="H3" t="n">
-        <v>164.7881835733589</v>
+        <v>151.4977390566499</v>
       </c>
       <c r="I3" t="n">
-        <v>144.7798548816955</v>
+        <v>145.9198805961113</v>
       </c>
       <c r="J3" t="n">
-        <v>150.7396256112769</v>
+        <v>151.5840157414971</v>
       </c>
       <c r="K3" t="n">
-        <v>151.0954692509752</v>
+        <v>153.4221528183269</v>
       </c>
       <c r="L3" t="n">
-        <v>153.2650438609183</v>
+        <v>153.7140699379485</v>
       </c>
     </row>
     <row r="4">
@@ -13397,37 +13389,37 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>151.7818181818182</v>
+        <v>153.875</v>
       </c>
       <c r="C4" t="n">
-        <v>142.847734493691</v>
+        <v>159.4756250277889</v>
       </c>
       <c r="D4" t="n">
-        <v>158.0693185447141</v>
+        <v>149.3264810504796</v>
       </c>
       <c r="E4" t="n">
-        <v>152.8259012016021</v>
+        <v>154.0446896551724</v>
       </c>
       <c r="F4" t="n">
-        <v>147.6341383218765</v>
+        <v>146.5022104231641</v>
       </c>
       <c r="G4" t="n">
-        <v>145.5666364903554</v>
+        <v>147.1723386738893</v>
       </c>
       <c r="H4" t="n">
-        <v>172.4571648381736</v>
+        <v>145.4624611777775</v>
       </c>
       <c r="I4" t="n">
-        <v>137.800492092024</v>
+        <v>138.9276090121404</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7549208564486</v>
+        <v>150.1046174383116</v>
       </c>
       <c r="K4" t="n">
-        <v>149.757275934048</v>
+        <v>150.4812470132641</v>
       </c>
       <c r="L4" t="n">
-        <v>153.5981921068509</v>
+        <v>148.0725703341402</v>
       </c>
     </row>
     <row r="5">
@@ -13435,37 +13427,37 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>147.9454545454545</v>
+        <v>151.8333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>139.579966357066</v>
+        <v>157.7643995728272</v>
       </c>
       <c r="D5" t="n">
-        <v>156.3281942706387</v>
+        <v>150.3828982256168</v>
       </c>
       <c r="E5" t="n">
-        <v>152.9012016021362</v>
+        <v>154.1595862068966</v>
       </c>
       <c r="F5" t="n">
-        <v>154.4962441682815</v>
+        <v>148.8637576548383</v>
       </c>
       <c r="G5" t="n">
-        <v>139.5249404209967</v>
+        <v>147.6917408378669</v>
       </c>
       <c r="H5" t="n">
-        <v>179.4311694612604</v>
+        <v>139.5487671260714</v>
       </c>
       <c r="I5" t="n">
-        <v>142.5562335642726</v>
+        <v>143.7101166344843</v>
       </c>
       <c r="J5" t="n">
-        <v>148.9057065985611</v>
+        <v>148.7758026211294</v>
       </c>
       <c r="K5" t="n">
-        <v>148.8043120624915</v>
+        <v>149.0229189763447</v>
       </c>
       <c r="L5" t="n">
-        <v>153.9317682282724</v>
+        <v>142.5262724965207</v>
       </c>
     </row>
     <row r="6">
@@ -13473,37 +13465,37 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>141.1272727272727</v>
+        <v>142.9833333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>129.9926364185936</v>
+        <v>151.2891348607957</v>
       </c>
       <c r="D6" t="n">
-        <v>150.3156186049891</v>
+        <v>146.136693109781</v>
       </c>
       <c r="E6" t="n">
-        <v>152.9765020026702</v>
+        <v>154.2744827586207</v>
       </c>
       <c r="F6" t="n">
-        <v>146.811928486824</v>
+        <v>136.3491797892377</v>
       </c>
       <c r="G6" t="n">
-        <v>131.4272088329993</v>
+        <v>137.6141972154958</v>
       </c>
       <c r="H6" t="n">
-        <v>176.0242775815615</v>
+        <v>131.1206910476446</v>
       </c>
       <c r="I6" t="n">
-        <v>120.9197144947212</v>
+        <v>122.0608308841716</v>
       </c>
       <c r="J6" t="n">
-        <v>142.50287979151</v>
+        <v>139.9880229503929</v>
       </c>
       <c r="K6" t="n">
-        <v>145.7449816264301</v>
+        <v>142.6561268206364</v>
       </c>
       <c r="L6" t="n">
-        <v>154.2658064580265</v>
+        <v>127.5572045935075</v>
       </c>
     </row>
     <row r="7">
@@ -13511,37 +13503,37 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>136.4454545454545</v>
+        <v>138.5333333333334</v>
       </c>
       <c r="C7" t="n">
-        <v>127.6994001903399</v>
+        <v>147.5586340715839</v>
       </c>
       <c r="D7" t="n">
-        <v>146.9833819295573</v>
+        <v>147.7783924580331</v>
       </c>
       <c r="E7" t="n">
-        <v>153.0518024032043</v>
+        <v>154.3893793103449</v>
       </c>
       <c r="F7" t="n">
-        <v>148.2447428464889</v>
+        <v>140.7997417895123</v>
       </c>
       <c r="G7" t="n">
-        <v>128.2842210872611</v>
+        <v>130.8078705478504</v>
       </c>
       <c r="H7" t="n">
-        <v>172.1540158251833</v>
+        <v>127.8171955726208</v>
       </c>
       <c r="I7" t="n">
-        <v>105.8351640009993</v>
+        <v>107.017401323166</v>
       </c>
       <c r="J7" t="n">
-        <v>139.7509405013793</v>
+        <v>136.9070934660165</v>
       </c>
       <c r="K7" t="n">
-        <v>145.1171905903772</v>
+        <v>141.6807773796672</v>
       </c>
       <c r="L7" t="n">
-        <v>154.6003691775875</v>
+        <v>122.8745603706236</v>
       </c>
     </row>
     <row r="8">
@@ -13549,37 +13541,37 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>134.7</v>
+        <v>140.025</v>
       </c>
       <c r="C8" t="n">
-        <v>127.7022073958191</v>
+        <v>140.4838384297177</v>
       </c>
       <c r="D8" t="n">
-        <v>140.0789268752304</v>
+        <v>149.367921648046</v>
       </c>
       <c r="E8" t="n">
-        <v>153.1271028037383</v>
+        <v>154.504275862069</v>
       </c>
       <c r="F8" t="n">
-        <v>150.6650423765182</v>
+        <v>142.3293766228482</v>
       </c>
       <c r="G8" t="n">
-        <v>128.6925904415752</v>
+        <v>127.3083424683374</v>
       </c>
       <c r="H8" t="n">
-        <v>172.9028215987947</v>
+        <v>127.8611452383287</v>
       </c>
       <c r="I8" t="n">
-        <v>101.7175048301125</v>
+        <v>102.9308051043554</v>
       </c>
       <c r="J8" t="n">
-        <v>138.678283409251</v>
+        <v>136.0018673275363</v>
       </c>
       <c r="K8" t="n">
-        <v>145.2549397796595</v>
+        <v>141.9588323414279</v>
       </c>
       <c r="L8" t="n">
-        <v>154.935509139421</v>
+        <v>122.0042995141686</v>
       </c>
     </row>
     <row r="9">
@@ -13587,37 +13579,37 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>140.1090909090909</v>
+        <v>141.1166666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>126.8273031960921</v>
+        <v>143.7023472676168</v>
       </c>
       <c r="D9" t="n">
-        <v>143.2326394772463</v>
+        <v>145.5501285750782</v>
       </c>
       <c r="E9" t="n">
-        <v>153.2024032042724</v>
+        <v>154.6191724137931</v>
       </c>
       <c r="F9" t="n">
-        <v>147.8907990217209</v>
+        <v>140.2813779560849</v>
       </c>
       <c r="G9" t="n">
-        <v>130.6879748029573</v>
+        <v>129.9008186882295</v>
       </c>
       <c r="H9" t="n">
-        <v>176.7057795085295</v>
+        <v>129.1218922424</v>
       </c>
       <c r="I9" t="n">
-        <v>104.4349744141595</v>
+        <v>105.6757540493179</v>
       </c>
       <c r="J9" t="n">
-        <v>139.9781759446574</v>
+        <v>135.9094216586709</v>
       </c>
       <c r="K9" t="n">
-        <v>145.1003200373561</v>
+        <v>139.6987865379914</v>
       </c>
       <c r="L9" t="n">
-        <v>155.2712537117038</v>
+        <v>118.9270586251029</v>
       </c>
     </row>
     <row r="10">
@@ -13625,37 +13617,37 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>147.2272727272727</v>
+        <v>154.5916666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>141.0754648845229</v>
+        <v>147.2306972020415</v>
       </c>
       <c r="D10" t="n">
-        <v>146.5869021309984</v>
+        <v>150.6894580051643</v>
       </c>
       <c r="E10" t="n">
-        <v>153.2777036048064</v>
+        <v>154.7340689655173</v>
       </c>
       <c r="F10" t="n">
-        <v>161.7000860929489</v>
+        <v>155.0746137348935</v>
       </c>
       <c r="G10" t="n">
-        <v>140.2310544284417</v>
+        <v>148.7992840671065</v>
       </c>
       <c r="H10" t="n">
-        <v>192.7892201096186</v>
+        <v>137.9856521560399</v>
       </c>
       <c r="I10" t="n">
-        <v>134.0035315796262</v>
+        <v>135.3110369353544</v>
       </c>
       <c r="J10" t="n">
-        <v>148.3733550129097</v>
+        <v>146.5573475951632</v>
       </c>
       <c r="K10" t="n">
-        <v>149.9869454576398</v>
+        <v>147.4378478026442</v>
       </c>
       <c r="L10" t="n">
-        <v>155.6076678835902</v>
+        <v>136.8900164372509</v>
       </c>
     </row>
     <row r="11">
@@ -13663,37 +13655,37 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>156.4545454545454</v>
+        <v>161.9</v>
       </c>
       <c r="C11" t="n">
-        <v>140.406856157574</v>
+        <v>150.760218621333</v>
       </c>
       <c r="D11" t="n">
-        <v>149.9422616824699</v>
+        <v>146.4437062845783</v>
       </c>
       <c r="E11" t="n">
-        <v>153.3530040053405</v>
+        <v>154.8489655172414</v>
       </c>
       <c r="F11" t="n">
-        <v>175.3694538831711</v>
+        <v>156.1954769341275</v>
       </c>
       <c r="G11" t="n">
-        <v>145.1496393906311</v>
+        <v>150.5234653050224</v>
       </c>
       <c r="H11" t="n">
-        <v>199.0500194400879</v>
+        <v>141.714658413267</v>
       </c>
       <c r="I11" t="n">
-        <v>148.885362519269</v>
+        <v>150.2242255241449</v>
       </c>
       <c r="J11" t="n">
-        <v>153.0785938460716</v>
+        <v>149.0794954771932</v>
       </c>
       <c r="K11" t="n">
-        <v>149.901501670729</v>
+        <v>145.4713179914331</v>
       </c>
       <c r="L11" t="n">
-        <v>155.9446448492727</v>
+        <v>135.1212821724795</v>
       </c>
     </row>
     <row r="12">
@@ -13701,37 +13693,37 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>161.1727272727273</v>
+        <v>164.0166666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>147.4795971668252</v>
+        <v>152.4782826005567</v>
       </c>
       <c r="D12" t="n">
-        <v>151.3091263285725</v>
+        <v>150.2451683595644</v>
       </c>
       <c r="E12" t="n">
-        <v>153.4283044058745</v>
+        <v>154.9638620689656</v>
       </c>
       <c r="F12" t="n">
-        <v>186.2475170850754</v>
+        <v>165.0834478585049</v>
       </c>
       <c r="G12" t="n">
-        <v>153.1829097003134</v>
+        <v>156.156061933185</v>
       </c>
       <c r="H12" t="n">
-        <v>208.1718469630412</v>
+        <v>149.6890901012797</v>
       </c>
       <c r="I12" t="n">
-        <v>154.5979679081274</v>
+        <v>156.0499136255355</v>
       </c>
       <c r="J12" t="n">
-        <v>157.5581398737473</v>
+        <v>154.3397793869535</v>
       </c>
       <c r="K12" t="n">
-        <v>152.3966944699506</v>
+        <v>151.2990298522396</v>
       </c>
       <c r="L12" t="n">
-        <v>156.2821818371522</v>
+        <v>148.688059128189</v>
       </c>
     </row>
     <row r="13">
@@ -13739,37 +13731,37 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>163.0545454545454</v>
+        <v>165.1000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>155.0182588041681</v>
+        <v>152.3894819148007</v>
       </c>
       <c r="D13" t="n">
-        <v>158.9853682999359</v>
+        <v>155.2759559288469</v>
       </c>
       <c r="E13" t="n">
-        <v>153.5036048064086</v>
+        <v>155.0787586206897</v>
       </c>
       <c r="F13" t="n">
-        <v>194.2629580259323</v>
+        <v>168.2032813278958</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7211747343273</v>
+        <v>154.0114325775271</v>
       </c>
       <c r="H13" t="n">
-        <v>213.929529096622</v>
+        <v>156.4897661036341</v>
       </c>
       <c r="I13" t="n">
-        <v>153.1337066218335</v>
+        <v>154.5233580737605</v>
       </c>
       <c r="J13" t="n">
-        <v>161.6429239204078</v>
+        <v>157.8316215522459</v>
       </c>
       <c r="K13" t="n">
-        <v>155.0473574108359</v>
+        <v>156.8840369744161</v>
       </c>
       <c r="L13" t="n">
-        <v>156.6202086219312</v>
+        <v>160.2973963737119</v>
       </c>
     </row>
     <row r="14">
@@ -13777,37 +13769,37 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>163.5454545454545</v>
+        <v>165.825</v>
       </c>
       <c r="C14" t="n">
-        <v>155.59941138183</v>
+        <v>155.9224422090237</v>
       </c>
       <c r="D14" t="n">
-        <v>162.3439477769711</v>
+        <v>157.2314822818254</v>
       </c>
       <c r="E14" t="n">
-        <v>153.5789052069426</v>
+        <v>155.1936551724139</v>
       </c>
       <c r="F14" t="n">
-        <v>199.6945476293564</v>
+        <v>172.3494071213528</v>
       </c>
       <c r="G14" t="n">
-        <v>163.4659058377211</v>
+        <v>152.3176205365572</v>
       </c>
       <c r="H14" t="n">
-        <v>221.3456101636527</v>
+        <v>158.9913161398799</v>
       </c>
       <c r="I14" t="n">
-        <v>148.5010341529394</v>
+        <v>149.9412862554446</v>
       </c>
       <c r="J14" t="n">
-        <v>162.9081712619148</v>
+        <v>159.6179284506412</v>
       </c>
       <c r="K14" t="n">
-        <v>155.378987128466</v>
+        <v>159.3225695936167</v>
       </c>
       <c r="L14" t="n">
-        <v>156.9586447966255</v>
+        <v>165.542571326611</v>
       </c>
     </row>
     <row r="15">
@@ -13815,37 +13807,37 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>160.2272727272727</v>
+        <v>161.6416666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>149.5422393514738</v>
+        <v>156.0423548015839</v>
       </c>
       <c r="D15" t="n">
-        <v>162.4470738117235</v>
+        <v>153.699369317028</v>
       </c>
       <c r="E15" t="n">
-        <v>153.6542056074767</v>
+        <v>155.308551724138</v>
       </c>
       <c r="F15" t="n">
-        <v>188.9452905416489</v>
+        <v>160.9644259659573</v>
       </c>
       <c r="G15" t="n">
-        <v>159.1654399922344</v>
+        <v>147.676997974685</v>
       </c>
       <c r="H15" t="n">
-        <v>226.9303120111367</v>
+        <v>154.1064597278312</v>
       </c>
       <c r="I15" t="n">
-        <v>146.2708213261171</v>
+        <v>147.7215724359425</v>
       </c>
       <c r="J15" t="n">
-        <v>160.0164832012763</v>
+        <v>156.0032019440928</v>
       </c>
       <c r="K15" t="n">
-        <v>153.4979665944615</v>
+        <v>156.064769733293</v>
       </c>
       <c r="L15" t="n">
-        <v>157.2974548244342</v>
+        <v>159.186388158713</v>
       </c>
     </row>
     <row r="16">
@@ -13853,37 +13845,37 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>159.8909090909091</v>
+        <v>163.0333333333334</v>
       </c>
       <c r="C16" t="n">
-        <v>145.131930167575</v>
+        <v>159.5776580655404</v>
       </c>
       <c r="D16" t="n">
-        <v>165.8078470841977</v>
+        <v>152.8646695651564</v>
       </c>
       <c r="E16" t="n">
-        <v>153.7295060080107</v>
+        <v>155.4234482758621</v>
       </c>
       <c r="F16" t="n">
-        <v>190.4804454803467</v>
+        <v>160.7861362395808</v>
       </c>
       <c r="G16" t="n">
-        <v>153.5929733495533</v>
+        <v>146.3042811880476</v>
       </c>
       <c r="H16" t="n">
-        <v>230.014014899552</v>
+        <v>148.353043723746</v>
       </c>
       <c r="I16" t="n">
-        <v>140.4511357025984</v>
+        <v>141.9233224050386</v>
       </c>
       <c r="J16" t="n">
-        <v>158.8545077571288</v>
+        <v>154.2028108767292</v>
       </c>
       <c r="K16" t="n">
-        <v>152.1660228735794</v>
+        <v>153.4248182311576</v>
       </c>
       <c r="L16" t="n">
-        <v>157.6366324451527</v>
+        <v>151.9863368524545</v>
       </c>
     </row>
     <row r="17">
@@ -13891,37 +13883,37 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>155.7</v>
+        <v>160.9916666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>140.8824621092893</v>
+        <v>157.880225900139</v>
       </c>
       <c r="D17" t="n">
-        <v>164.0796378961743</v>
+        <v>153.5201071710142</v>
       </c>
       <c r="E17" t="n">
-        <v>153.8048064085447</v>
+        <v>155.5383448275863</v>
       </c>
       <c r="F17" t="n">
-        <v>198.4192977905273</v>
+        <v>169.4845300612971</v>
       </c>
       <c r="G17" t="n">
-        <v>146.9180922051298</v>
+        <v>146.4913159081601</v>
       </c>
       <c r="H17" t="n">
-        <v>239.2824563112173</v>
+        <v>141.6277301444451</v>
       </c>
       <c r="I17" t="n">
-        <v>143.8560928284975</v>
+        <v>145.3145782950912</v>
       </c>
       <c r="J17" t="n">
-        <v>157.7686896530243</v>
+        <v>152.546117915264</v>
       </c>
       <c r="K17" t="n">
-        <v>150.8878221161447</v>
+        <v>150.7783777152807</v>
       </c>
       <c r="L17" t="n">
-        <v>157.9761978306001</v>
+        <v>143.2766811472417</v>
       </c>
     </row>
     <row r="18">
@@ -13929,37 +13921,37 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>147.5818181818182</v>
+        <v>152.0333333333334</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9618586516845</v>
+        <v>151.4187544776678</v>
       </c>
       <c r="D18" t="n">
-        <v>158.0799773165768</v>
+        <v>149.2789487307879</v>
       </c>
       <c r="E18" t="n">
-        <v>153.8801068090788</v>
+        <v>155.6532413793104</v>
       </c>
       <c r="F18" t="n">
-        <v>199.1426238179207</v>
+        <v>160.3292385039851</v>
       </c>
       <c r="G18" t="n">
-        <v>139.2596458549604</v>
+        <v>137.948470526947</v>
       </c>
       <c r="H18" t="n">
-        <v>240.9962901126397</v>
+        <v>133.5535399336173</v>
       </c>
       <c r="I18" t="n">
-        <v>123.9470445888983</v>
+        <v>125.4615053547067</v>
       </c>
       <c r="J18" t="n">
-        <v>152.3321342000996</v>
+        <v>144.1847509000905</v>
       </c>
       <c r="K18" t="n">
-        <v>148.0527212215554</v>
+        <v>144.3900783127176</v>
       </c>
       <c r="L18" t="n">
-        <v>158.316198203903</v>
+        <v>128.2380448280548</v>
       </c>
     </row>
     <row r="19">
@@ -13967,37 +13959,37 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>142.9</v>
+        <v>145.7166666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>128.5509344262657</v>
+        <v>147.7020469780162</v>
       </c>
       <c r="D19" t="n">
-        <v>154.760655727197</v>
+        <v>150.8852139813093</v>
       </c>
       <c r="E19" t="n">
-        <v>153.9554072096128</v>
+        <v>155.7681379310346</v>
       </c>
       <c r="F19" t="n">
-        <v>191.3972038388252</v>
+        <v>146.3286405501887</v>
       </c>
       <c r="G19" t="n">
-        <v>135.4881113206352</v>
+        <v>131.1421438593016</v>
       </c>
       <c r="H19" t="n">
-        <v>236.9339093952075</v>
+        <v>129.4558484898123</v>
       </c>
       <c r="I19" t="n">
-        <v>107.7257171181098</v>
+        <v>109.2428895747257</v>
       </c>
       <c r="J19" t="n">
-        <v>148.3952161292976</v>
+        <v>139.241606281255</v>
       </c>
       <c r="K19" t="n">
-        <v>147.0543468032112</v>
+        <v>142.9647590336518</v>
       </c>
       <c r="L19" t="n">
-        <v>158.6566987737553</v>
+        <v>122.2409251886117</v>
       </c>
     </row>
     <row r="20">
@@ -14005,37 +13997,37 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>141.1545454545454</v>
+        <v>147.2083333333334</v>
       </c>
       <c r="C20" t="n">
-        <v>127.9169360302305</v>
+        <v>147.8964942642498</v>
       </c>
       <c r="D20" t="n">
-        <v>154.5524305463398</v>
+        <v>152.1424030778318</v>
       </c>
       <c r="E20" t="n">
-        <v>154.0307076101469</v>
+        <v>155.8830344827587</v>
       </c>
       <c r="F20" t="n">
-        <v>194.4842278122902</v>
+        <v>145.9635473785922</v>
       </c>
       <c r="G20" t="n">
-        <v>135.593563967453</v>
+        <v>127.6426157797886</v>
       </c>
       <c r="H20" t="n">
-        <v>240.5405537988588</v>
+        <v>129.0499282065375</v>
       </c>
       <c r="I20" t="n">
-        <v>102.5560275514685</v>
+        <v>104.0694377856307</v>
       </c>
       <c r="J20" t="n">
-        <v>148.0782713248487</v>
+        <v>138.9166733779715</v>
       </c>
       <c r="K20" t="n">
-        <v>146.9818002811416</v>
+        <v>143.0326038805176</v>
       </c>
       <c r="L20" t="n">
-        <v>158.9977572030476</v>
+        <v>121.0723740809623</v>
       </c>
     </row>
     <row r="21">
@@ -14043,37 +14035,37 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>146.5636363636363</v>
+        <v>149.2500000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>128.1418218144813</v>
+        <v>151.4375793728712</v>
       </c>
       <c r="D21" t="n">
-        <v>157.9186175398166</v>
+        <v>147.9896060532456</v>
       </c>
       <c r="E21" t="n">
-        <v>154.1060080106809</v>
+        <v>155.9979310344829</v>
       </c>
       <c r="F21" t="n">
-        <v>196.3859910130501</v>
+        <v>153.1508733330294</v>
       </c>
       <c r="G21" t="n">
-        <v>138.2006369433937</v>
+        <v>132.6601624015352</v>
       </c>
       <c r="H21" t="n">
-        <v>247.4618220619321</v>
+        <v>130.7232864086223</v>
       </c>
       <c r="I21" t="n">
-        <v>105.1604751638906</v>
+        <v>106.6883466536567</v>
       </c>
       <c r="J21" t="n">
-        <v>150.1140551635058</v>
+        <v>139.8705451907709</v>
       </c>
       <c r="K21" t="n">
-        <v>147.1957472102146</v>
+        <v>141.2326036075845</v>
       </c>
       <c r="L21" t="n">
-        <v>159.3394118054816</v>
+        <v>119.7102737350253</v>
       </c>
     </row>
     <row r="22">
@@ -14081,37 +14073,37 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>153.0090909090909</v>
+        <v>160.0333333333334</v>
       </c>
       <c r="C22" t="n">
-        <v>143.6640887578086</v>
+        <v>154.9797225968562</v>
       </c>
       <c r="D22" t="n">
-        <v>161.2857952796207</v>
+        <v>153.1272424113647</v>
       </c>
       <c r="E22" t="n">
-        <v>154.181308411215</v>
+        <v>156.112827586207</v>
       </c>
       <c r="F22" t="n">
-        <v>203.1983121991157</v>
+        <v>162.1039678154513</v>
       </c>
       <c r="G22" t="n">
-        <v>148.8001845284396</v>
+        <v>152.5513406849541</v>
       </c>
       <c r="H22" t="n">
-        <v>267.7745832369397</v>
+        <v>141.0556942318292</v>
       </c>
       <c r="I22" t="n">
-        <v>136.3852372224313</v>
+        <v>138.0484698639258</v>
       </c>
       <c r="J22" t="n">
-        <v>158.2679400648097</v>
+        <v>150.489571312632</v>
       </c>
       <c r="K22" t="n">
-        <v>152.5090249169072</v>
+        <v>149.792218554623</v>
       </c>
       <c r="L22" t="n">
-        <v>159.6816775816981</v>
+        <v>140.1365856662975</v>
       </c>
     </row>
     <row r="23">
@@ -14119,37 +14111,37 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>163.7545454545454</v>
+        <v>169.2833333333334</v>
       </c>
       <c r="C23" t="n">
-        <v>145.9336296258776</v>
+        <v>151.9381766259106</v>
       </c>
       <c r="D23" t="n">
-        <v>158.5480279934333</v>
+        <v>149.1617117683891</v>
       </c>
       <c r="E23" t="n">
-        <v>154.256608811749</v>
+        <v>156.2277241379311</v>
       </c>
       <c r="F23" t="n">
-        <v>216.667313015461</v>
+        <v>175.6242133675143</v>
       </c>
       <c r="G23" t="n">
-        <v>156.0735817378529</v>
+        <v>158.0728800197944</v>
       </c>
       <c r="H23" t="n">
-        <v>277.9143046394979</v>
+        <v>147.2421930604512</v>
       </c>
       <c r="I23" t="n">
-        <v>150.3698237050695</v>
+        <v>152.0501076714133</v>
       </c>
       <c r="J23" t="n">
-        <v>163.0828582426054</v>
+        <v>154.1041586463955</v>
       </c>
       <c r="K23" t="n">
-        <v>153.4049201929003</v>
+        <v>149.1815986815089</v>
       </c>
       <c r="L23" t="n">
-        <v>160.0245221410745</v>
+        <v>142.1553601382067</v>
       </c>
     </row>
     <row r="24">
@@ -14157,37 +14149,37 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>168.4727272727272</v>
+        <v>170.9083333333334</v>
       </c>
       <c r="C24" t="n">
-        <v>152.0342464458087</v>
+        <v>155.4896838325554</v>
       </c>
       <c r="D24" t="n">
-        <v>161.7613013600052</v>
+        <v>151.3092945097898</v>
       </c>
       <c r="E24" t="n">
-        <v>154.3319092122831</v>
+        <v>156.3426206896553</v>
       </c>
       <c r="F24" t="n">
-        <v>230.1312545895576</v>
+        <v>180.4397384224459</v>
       </c>
       <c r="G24" t="n">
-        <v>163.9416581012216</v>
+        <v>163.3727071561077</v>
       </c>
       <c r="H24" t="n">
-        <v>287.2415357627196</v>
+        <v>154.9179616431767</v>
       </c>
       <c r="I24" t="n">
-        <v>156.8578082347191</v>
+        <v>158.6483346944785</v>
       </c>
       <c r="J24" t="n">
-        <v>167.9422048149173</v>
+        <v>159.0504137303611</v>
       </c>
       <c r="K24" t="n">
-        <v>155.5780186452343</v>
+        <v>154.4493345492934</v>
       </c>
       <c r="L24" t="n">
-        <v>160.3679002776114</v>
+        <v>155.6960884484353</v>
       </c>
     </row>
     <row r="25">
@@ -14195,37 +14187,37 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>170.1</v>
+        <v>173.0583333333334</v>
       </c>
       <c r="C25" t="n">
-        <v>156.4679832509351</v>
+        <v>159.0353037213063</v>
       </c>
       <c r="D25" t="n">
-        <v>165.1317344091703</v>
+        <v>153.2264337902977</v>
       </c>
       <c r="E25" t="n">
-        <v>154.4072096128171</v>
+        <v>156.4575172413794</v>
       </c>
       <c r="F25" t="n">
-        <v>238.2136978268623</v>
+        <v>186.4970900116488</v>
       </c>
       <c r="G25" t="n">
-        <v>169.9659340088346</v>
+        <v>160.5883773580503</v>
       </c>
       <c r="H25" t="n">
-        <v>295.3395828736129</v>
+        <v>159.9059453045573</v>
       </c>
       <c r="I25" t="n">
-        <v>153.3326211722379</v>
+        <v>155.0122882790701</v>
       </c>
       <c r="J25" t="n">
-        <v>170.680260102538</v>
+        <v>162.0256069695466</v>
       </c>
       <c r="K25" t="n">
-        <v>157.1956471099493</v>
+        <v>157.9783523769579</v>
       </c>
       <c r="L25" t="n">
-        <v>160.7117484660958</v>
+        <v>164.2511060991966</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -508,37 +508,37 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>4.03129112410943</v>
+        <v>3.766984688921639</v>
       </c>
       <c r="C2" t="n">
-        <v>1.958333333333335</v>
+        <v>0.2583333333333346</v>
       </c>
       <c r="D2" t="n">
-        <v>1.393350257635618</v>
+        <v>1.435901324649939</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01298084575682878</v>
+        <v>2.379271030426025</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.121225760041334</v>
+        <v>1.966362927086411</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1148965517241378</v>
+        <v>4.915855860008749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9763794421317273</v>
+        <v>1.637424616447472</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.764753553287771</v>
+        <v>-5.794459861988171</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519167004662663</v>
+        <v>3.522047919629248</v>
       </c>
       <c r="K2" t="n">
-        <v>1.707522372655098</v>
+        <v>3.440088388459287</v>
       </c>
       <c r="L2" t="n">
-        <v>1.115286421471459</v>
+        <v>2.450866114213969</v>
       </c>
     </row>
     <row r="3">
@@ -546,37 +546,37 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.017221186160896</v>
+        <v>-3.680067577310638</v>
       </c>
       <c r="C3" t="n">
         <v>-3.449999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.595611200985704</v>
+        <v>-3.579800155838563</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.21850872039795</v>
+        <v>-3.964375495910645</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.388663418872328</v>
+        <v>-3.942992572540549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1148965517241378</v>
+        <v>-4.841128800613748</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.053784028547786</v>
+        <v>-2.361001302364817</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.015365850600919</v>
+        <v>-2.002416232301968</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.064522190267938</v>
+        <v>-3.061716303675877</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.985369554328181</v>
+        <v>-3.627399226763067</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.23127067997437</v>
+        <v>-3.490983537162947</v>
       </c>
     </row>
     <row r="4">
@@ -584,37 +584,37 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.64149960380837</v>
+        <v>-5.719447275146194</v>
       </c>
       <c r="C4" t="n">
         <v>1.666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.035277878872401</v>
+        <v>-6.033695727661504</v>
       </c>
       <c r="E4" t="n">
-        <v>5.033699989318848</v>
+        <v>1.703900933265686</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.017772147196984</v>
+        <v>-0.09908963933875736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1148965517241378</v>
+        <v>-1.382231715303822</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.296114363104323</v>
+        <v>-3.994378664389758</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.99227158397089</v>
+        <v>-7.025072398607217</v>
       </c>
       <c r="J4" t="n">
-        <v>5.320980213394177</v>
+        <v>5.322877510363931</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.940905805062851</v>
+        <v>-3.698685884946591</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.479398303185465</v>
+        <v>-2.080320096753573</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.546297837619477</v>
+        <v>-5.509883856750548</v>
       </c>
       <c r="C5" t="n">
         <v>-2.041666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.91369405170617</v>
+        <v>-5.914946548565588</v>
       </c>
       <c r="E5" t="n">
-        <v>2.361547231674194</v>
+        <v>4.28227424621582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.519402163977629</v>
+        <v>1.44877798545258</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1148965517241378</v>
+        <v>1.64911967816727</v>
       </c>
       <c r="H5" t="n">
-        <v>1.056417175137196</v>
+        <v>-3.761260530159445</v>
       </c>
       <c r="I5" t="n">
-        <v>4.782507622343847</v>
+        <v>4.830753015605916</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.711225454961701</v>
+        <v>-1.709188667239948</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.458328036919381</v>
+        <v>-2.540674902914241</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.328814817182268</v>
+        <v>-2.445342992303909</v>
       </c>
     </row>
     <row r="6">
@@ -660,37 +660,37 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.96906790301318</v>
+        <v>-14.83262880720622</v>
       </c>
       <c r="C6" t="n">
         <v>-8.85</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.428076078426782</v>
+        <v>-8.500597079149603</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.51457786560059</v>
+        <v>-11.83240604400635</v>
       </c>
       <c r="F6" t="n">
-        <v>-10.07754362237114</v>
+        <v>-9.347181054563448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1148965517241378</v>
+        <v>-9.859630070029457</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.246205115835805</v>
+        <v>-11.07878204196312</v>
       </c>
       <c r="I6" t="n">
-        <v>-21.64928575031269</v>
+        <v>-21.71020679150999</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.475264712031477</v>
+        <v>-6.473042146245264</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.366792155708283</v>
+        <v>-11.9236803063996</v>
       </c>
       <c r="L6" t="n">
-        <v>-8.787779670736485</v>
+        <v>-10.55321370013855</v>
       </c>
     </row>
     <row r="7">
@@ -698,37 +698,37 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.682644222883937</v>
+        <v>-4.50908593804661</v>
       </c>
       <c r="C7" t="n">
         <v>-4.450000000000003</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.303495475023827</v>
+        <v>-3.341004823034903</v>
       </c>
       <c r="E7" t="n">
-        <v>4.450562000274658</v>
+        <v>-6.613067626953125</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.806326667645403</v>
+        <v>-7.514363633092389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1148965517241378</v>
+        <v>1.260798558935277</v>
       </c>
       <c r="H7" t="n">
-        <v>1.641699348252136</v>
+        <v>-3.982006631262378</v>
       </c>
       <c r="I7" t="n">
-        <v>-15.04342956100555</v>
+        <v>-15.01114155548225</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.730500789211856</v>
+        <v>-3.72466142144948</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.975349440969221</v>
+        <v>-2.410098003457903</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.08092948437635</v>
+        <v>-3.564079457295669</v>
       </c>
     </row>
     <row r="8">
@@ -736,37 +736,37 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8702608564549337</v>
+        <v>-0.7829474983091131</v>
       </c>
       <c r="C8" t="n">
         <v>1.491666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04394966570790793</v>
+        <v>-0.01215592602261406</v>
       </c>
       <c r="E8" t="n">
-        <v>1.529634833335876</v>
+        <v>0.7043164968490601</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.499528079513011</v>
+        <v>-0.001066522418873173</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1148965517241378</v>
+        <v>1.12810516124168</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58952919001289</v>
+        <v>-1.963450380141704</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.086596218810603</v>
+        <v>-4.039827183609478</v>
       </c>
       <c r="J8" t="n">
-        <v>-7.074795641866178</v>
+        <v>-7.070377187854572</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2780549617606979</v>
+        <v>-0.5394309057363792</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.9052261384802255</v>
+        <v>-1.072393295985673</v>
       </c>
     </row>
     <row r="9">
@@ -774,37 +774,37 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.077240889065706</v>
+        <v>-2.989552599330182</v>
       </c>
       <c r="C9" t="n">
         <v>1.091666666666664</v>
       </c>
       <c r="D9" t="n">
-        <v>1.260747004071266</v>
+        <v>1.156001042475661</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.047998666763306</v>
+        <v>-4.633250713348389</v>
       </c>
       <c r="F9" t="n">
-        <v>2.592476219892122</v>
+        <v>-0.1295828259939772</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1148965517241378</v>
+        <v>-6.265556699690095</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.817793072967801</v>
+        <v>-4.096406530212197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.744948944962442</v>
+        <v>2.772226446684454</v>
       </c>
       <c r="J9" t="n">
-        <v>3.218508837899103</v>
+        <v>3.221273910068808</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.260045803436456</v>
+        <v>-4.450505276410825</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.09244566886542678</v>
+        <v>-1.669824121531167</v>
       </c>
     </row>
     <row r="10">
@@ -812,37 +812,37 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>17.96295781214803</v>
+        <v>17.75005548525223</v>
       </c>
       <c r="C10" t="n">
         <v>13.475</v>
       </c>
       <c r="D10" t="n">
-        <v>8.863759913639999</v>
+        <v>8.866295290340354</v>
       </c>
       <c r="E10" t="n">
-        <v>14.79323577880859</v>
+        <v>22.66019058227539</v>
       </c>
       <c r="F10" t="n">
-        <v>18.89846537887696</v>
+        <v>25.70704022208248</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1148965517241378</v>
+        <v>15.73514737396713</v>
       </c>
       <c r="H10" t="n">
-        <v>5.139329430086101</v>
+        <v>14.65147470255502</v>
       </c>
       <c r="I10" t="n">
-        <v>29.63528288603657</v>
+        <v>29.69499134144737</v>
       </c>
       <c r="J10" t="n">
-        <v>3.528349934424705</v>
+        <v>3.531279501222999</v>
       </c>
       <c r="K10" t="n">
-        <v>7.739061264652758</v>
+        <v>16.04555918725813</v>
       </c>
       <c r="L10" t="n">
-        <v>10.64792593649229</v>
+        <v>13.97383354475668</v>
       </c>
     </row>
     <row r="11">
@@ -850,37 +850,37 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.76873426477141</v>
+        <v>-1.801183985419812</v>
       </c>
       <c r="C11" t="n">
         <v>7.308333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>3.72900625722702</v>
+        <v>3.626296648316976</v>
       </c>
       <c r="E11" t="n">
-        <v>1.120863199234009</v>
+        <v>-1.651434302330017</v>
       </c>
       <c r="F11" t="n">
-        <v>1.724181237915867</v>
+        <v>-0.8323376385294641</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1148965517241378</v>
+        <v>-9.463423937253745</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.245751720586001</v>
+        <v>-2.114431361337239</v>
       </c>
       <c r="I11" t="n">
-        <v>14.91318858879043</v>
+        <v>14.90697348056312</v>
       </c>
       <c r="J11" t="n">
-        <v>3.52952141929147</v>
+        <v>3.532457192702039</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.966529811211091</v>
+        <v>-4.459679761336932</v>
       </c>
       <c r="L11" t="n">
-        <v>2.522147882030053</v>
+        <v>-0.1262182983409496</v>
       </c>
     </row>
     <row r="12">
@@ -888,37 +888,37 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>13.56677695570943</v>
+        <v>13.7154687505149</v>
       </c>
       <c r="C12" t="n">
-        <v>2.116666666666666</v>
+        <v>0.474999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>7.974431688012775</v>
+        <v>8.006269046075889</v>
       </c>
       <c r="E12" t="n">
-        <v>8.887970924377441</v>
+        <v>6.814132690429688</v>
       </c>
       <c r="F12" t="n">
-        <v>5.632596628162591</v>
+        <v>7.828672148039088</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1148965517241378</v>
+        <v>8.448857175485312</v>
       </c>
       <c r="H12" t="n">
-        <v>3.801462074986062</v>
+        <v>12.38450628854085</v>
       </c>
       <c r="I12" t="n">
-        <v>5.825688101390598</v>
+        <v>5.86549781689009</v>
       </c>
       <c r="J12" t="n">
-        <v>1.718063979223756</v>
+        <v>1.720121298662021</v>
       </c>
       <c r="K12" t="n">
-        <v>5.827711860806542</v>
+        <v>11.51627740484702</v>
       </c>
       <c r="L12" t="n">
-        <v>5.26028390976025</v>
+        <v>8.0655970397359</v>
       </c>
     </row>
     <row r="13">
@@ -926,37 +926,37 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>11.60933724552297</v>
+        <v>12.09816059111381</v>
       </c>
       <c r="C13" t="n">
-        <v>1.083333333333333</v>
+        <v>0.9916666666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>6.800676002354368</v>
+        <v>6.946880036450655</v>
       </c>
       <c r="E13" t="n">
-        <v>3.119833469390869</v>
+        <v>2.563949108123779</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.144629355657897</v>
+        <v>2.903167401046056</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1148965517241378</v>
+        <v>10.34521598972966</v>
       </c>
       <c r="H13" t="n">
-        <v>5.030787569282516</v>
+        <v>9.146961923725708</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.526555551774979</v>
+        <v>-1.56973918677408</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.08880068575599243</v>
+        <v>-0.08592920740048093</v>
       </c>
       <c r="K13" t="n">
-        <v>5.585007122176539</v>
+        <v>10.53011283485639</v>
       </c>
       <c r="L13" t="n">
-        <v>3.491842165292432</v>
+        <v>6.785598699437514</v>
       </c>
     </row>
     <row r="14">
@@ -964,37 +964,37 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>5.245174952899106</v>
+        <v>5.268035026483176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.725000000000002</v>
+        <v>0.6250000000000018</v>
       </c>
       <c r="D14" t="n">
-        <v>2.501550036245829</v>
+        <v>2.577840188576501</v>
       </c>
       <c r="E14" t="n">
-        <v>4.146125793457031</v>
+        <v>1.597670197486877</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.693812040969902</v>
+        <v>-1.519933732312758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1148965517241378</v>
+        <v>6.540819153715441</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95552635297849</v>
+        <v>3.483618875522961</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.582071818315877</v>
+        <v>-4.557142688734477</v>
       </c>
       <c r="J14" t="n">
-        <v>3.532960294222935</v>
+        <v>3.535914287043733</v>
       </c>
       <c r="K14" t="n">
-        <v>2.438532619200578</v>
+        <v>5.09749101857386</v>
       </c>
       <c r="L14" t="n">
-        <v>1.786306898395319</v>
+        <v>3.434767041598616</v>
       </c>
     </row>
     <row r="15">
@@ -1002,37 +1002,37 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.356183167898052</v>
+        <v>-6.246215274425595</v>
       </c>
       <c r="C15" t="n">
         <v>-4.183333333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.884856412048705</v>
+        <v>-4.889587086370286</v>
       </c>
       <c r="E15" t="n">
-        <v>-11.38498115539551</v>
+        <v>-0.9677423238754272</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.640622561872154</v>
+        <v>-2.392501328200534</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1148965517241378</v>
+        <v>-6.504132190772293</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.532112964797341</v>
+        <v>-4.107924318130745</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.219713819502056</v>
+        <v>-2.226612149517955</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1199125925602806</v>
+        <v>0.1222710515639767</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.257799860323752</v>
+        <v>-5.619423927776211</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.614726506548416</v>
+        <v>-4.339405196331738</v>
       </c>
     </row>
     <row r="16">
@@ -1040,37 +1040,37 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.200051306258501</v>
+        <v>-7.152021526779208</v>
       </c>
       <c r="C16" t="n">
-        <v>1.391666666666667</v>
+        <v>0.4916666666666671</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.753416004085279</v>
+        <v>-5.731757802377056</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1782897263765335</v>
+        <v>-2.466873168945312</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.372716786637384</v>
+        <v>-3.224236538490093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1148965517241378</v>
+        <v>0.1340247101321376</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.8346997518716879</v>
+        <v>-3.646849508404808</v>
       </c>
       <c r="I16" t="n">
-        <v>-5.798250030903958</v>
+        <v>-5.774572987381077</v>
       </c>
       <c r="J16" t="n">
-        <v>3.535303263956461</v>
+        <v>3.53826967000181</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.639951502135351</v>
+        <v>-3.554948775017293</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.800391067363605</v>
+        <v>-2.504204654247696</v>
       </c>
     </row>
     <row r="17">
@@ -1078,37 +1078,37 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.709655705212754</v>
+        <v>-8.598672641285248</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.041666666666666</v>
+        <v>-1.549999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.725313579300818</v>
+        <v>-6.725103373320508</v>
       </c>
       <c r="E17" t="n">
-        <v>8.698393821716309</v>
+        <v>0.4834766685962677</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1870347201124749</v>
+        <v>1.44877798545258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1148965517241378</v>
+        <v>0.9174452890899457</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6554376058578074</v>
+        <v>-5.169691388896561</v>
       </c>
       <c r="I17" t="n">
-        <v>3.391255890052639</v>
+        <v>3.369479422974109</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.697432165401428</v>
+        <v>-1.695322299825463</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.646440515876936</v>
+        <v>-4.283639580363954</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.656692961465214</v>
+        <v>-3.528900553168456</v>
       </c>
     </row>
     <row r="18">
@@ -1116,37 +1116,37 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>-15.03863631918693</v>
+        <v>-14.89989599602268</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.958333333333334</v>
+        <v>-8.85</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.074190210827888</v>
+        <v>-8.150591576710319</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.155291557312012</v>
+        <v>-9.863496780395508</v>
       </c>
       <c r="F18" t="n">
-        <v>-8.542845381213111</v>
+        <v>-8.861504735888044</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1148965517241378</v>
+        <v>-8.952606508130293</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.241158440226273</v>
+        <v>-10.68466719243014</v>
       </c>
       <c r="I18" t="n">
-        <v>-19.85307294038447</v>
+        <v>-19.812149356065</v>
       </c>
       <c r="J18" t="n">
-        <v>-6.461471422471204</v>
+        <v>-6.45917577883078</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.388299402563024</v>
+        <v>-11.51238989886104</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.361367015173569</v>
+        <v>-10.19542543341291</v>
       </c>
     </row>
     <row r="19">
@@ -1154,37 +1154,37 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.997119639443099</v>
+        <v>-5.779200130065419</v>
       </c>
       <c r="C19" t="n">
         <v>-6.316666666666669</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.097691443804963</v>
+        <v>-4.158125774477085</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.00059795379639</v>
+        <v>-9.843279838562012</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.806326667645403</v>
+        <v>-9.815375517150095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1148965517241378</v>
+        <v>0.7241625138562641</v>
       </c>
       <c r="H19" t="n">
-        <v>1.60626525052143</v>
+        <v>-5.563770033590871</v>
       </c>
       <c r="I19" t="n">
-        <v>-16.21861577998107</v>
+        <v>-16.24255855467771</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.716707499651583</v>
+        <v>-3.710795054034995</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.425319279065844</v>
+        <v>-3.539602549933342</v>
       </c>
       <c r="L19" t="n">
-        <v>-4.943144618835458</v>
+        <v>-4.692743967134858</v>
       </c>
     </row>
     <row r="20">
@@ -1192,37 +1192,37 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.168551107649364</v>
+        <v>-1.11653087918512</v>
       </c>
       <c r="C20" t="n">
         <v>1.491666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4059202832747824</v>
+        <v>-0.4796821344250803</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3650931715965271</v>
+        <v>0.9732133150100708</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.499528079513011</v>
+        <v>0.1963047219545328</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1148965517241378</v>
+        <v>0.08848019701638396</v>
       </c>
       <c r="H20" t="n">
-        <v>1.257189096522525</v>
+        <v>-3.205247342550516</v>
       </c>
       <c r="I20" t="n">
-        <v>-5.173451789094977</v>
+        <v>-5.186981253147601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1944472862336042</v>
+        <v>0.1960109979384095</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06784484686576626</v>
+        <v>-1.411099341573084</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3249329032835043</v>
+        <v>-0.7157132989979283</v>
       </c>
     </row>
     <row r="21">
@@ -1230,37 +1230,37 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.362100345937051</v>
+        <v>-1.391731449698</v>
       </c>
       <c r="C21" t="n">
         <v>2.041666666666664</v>
       </c>
       <c r="D21" t="n">
-        <v>1.673358202084806</v>
+        <v>1.561574199623931</v>
       </c>
       <c r="E21" t="n">
-        <v>7.187325954437256</v>
+        <v>1.383330464363098</v>
       </c>
       <c r="F21" t="n">
-        <v>5.017546621746649</v>
+        <v>5.04015818960673</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1148965517241378</v>
+        <v>-6.71447545594435</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.152797024586194</v>
+        <v>-3.030693252209962</v>
       </c>
       <c r="I21" t="n">
-        <v>2.618908868026037</v>
+        <v>2.653789681466935</v>
       </c>
       <c r="J21" t="n">
-        <v>3.54108510862145</v>
+        <v>3.544082147301578</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.800000272933036</v>
+        <v>-3.712300052617437</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9538718127993104</v>
+        <v>-0.7637720273705342</v>
       </c>
     </row>
     <row r="22">
@@ -1268,37 +1268,37 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>20.42631193127227</v>
+        <v>20.63177463456805</v>
       </c>
       <c r="C22" t="n">
         <v>10.78333333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.33240782320689</v>
+        <v>10.37371001248888</v>
       </c>
       <c r="E22" t="n">
-        <v>8.953094482421875</v>
+        <v>25.94685173034668</v>
       </c>
       <c r="F22" t="n">
-        <v>19.89117828341893</v>
+        <v>20.79870198961238</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1148965517241378</v>
+        <v>19.5499917583671</v>
       </c>
       <c r="H22" t="n">
-        <v>5.137636358119046</v>
+        <v>15.99771538608257</v>
       </c>
       <c r="I22" t="n">
-        <v>31.36012321026912</v>
+        <v>31.49535481589763</v>
       </c>
       <c r="J22" t="n">
-        <v>3.542143223984978</v>
+        <v>3.545145868637483</v>
       </c>
       <c r="K22" t="n">
-        <v>8.559614947038483</v>
+        <v>18.72649392633923</v>
       </c>
       <c r="L22" t="n">
-        <v>10.61902612186116</v>
+        <v>15.16700780310393</v>
       </c>
     </row>
     <row r="23">
@@ -1306,37 +1306,37 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>2.018774471909182</v>
+        <v>1.979166006578907</v>
       </c>
       <c r="C23" t="n">
         <v>9.25</v>
       </c>
       <c r="D23" t="n">
-        <v>6.18649882862201</v>
+        <v>6.120836041080936</v>
       </c>
       <c r="E23" t="n">
-        <v>13.52024555206299</v>
+        <v>6.682102680206299</v>
       </c>
       <c r="F23" t="n">
-        <v>5.521539334840272</v>
+        <v>6.438742702911687</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1148965517241378</v>
+        <v>-7.146543756014503</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.965530642975552</v>
+        <v>2.444724359125359</v>
       </c>
       <c r="I23" t="n">
-        <v>14.00163780748747</v>
+        <v>13.94893835972937</v>
       </c>
       <c r="J23" t="n">
-        <v>-3.04154597094562</v>
+        <v>-3.038618354667637</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.6106198731140772</v>
+        <v>-0.9075511301034123</v>
       </c>
       <c r="L23" t="n">
-        <v>3.614587333763535</v>
+        <v>1.932940442826145</v>
       </c>
     </row>
     <row r="24">
@@ -1344,37 +1344,37 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>13.54072831022859</v>
+        <v>13.68747376204783</v>
       </c>
       <c r="C24" t="n">
-        <v>1.624999999999999</v>
+        <v>0.474999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>7.675768582725476</v>
+        <v>7.702530334062248</v>
       </c>
       <c r="E24" t="n">
-        <v>4.815525054931641</v>
+        <v>11.82012367248535</v>
       </c>
       <c r="F24" t="n">
-        <v>5.299827136313288</v>
+        <v>8.408938954426434</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1148965517241378</v>
+        <v>7.758923347116531</v>
       </c>
       <c r="H24" t="n">
-        <v>2.147582741400655</v>
+        <v>12.25629651256069</v>
       </c>
       <c r="I24" t="n">
-        <v>6.59822702306518</v>
+        <v>6.691423238956697</v>
       </c>
       <c r="J24" t="n">
-        <v>3.551507206644852</v>
+        <v>3.553898410376313</v>
       </c>
       <c r="K24" t="n">
-        <v>5.26773586778446</v>
+        <v>11.23423120724168</v>
       </c>
       <c r="L24" t="n">
-        <v>4.946255083965549</v>
+        <v>8.229102935774998</v>
       </c>
     </row>
     <row r="25">
@@ -1382,37 +1382,37 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>8.555017650761329</v>
+        <v>8.942730951384874</v>
       </c>
       <c r="C25" t="n">
-        <v>2.15</v>
+        <v>1.475</v>
       </c>
       <c r="D25" t="n">
-        <v>4.98798366138057</v>
+        <v>5.106972162961948</v>
       </c>
       <c r="E25" t="n">
-        <v>6.057351589202881</v>
+        <v>1.679895520210266</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.784329798057359</v>
+        <v>2.145542985737336</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1148965517241378</v>
+        <v>6.614721862567047</v>
       </c>
       <c r="H25" t="n">
-        <v>1.917139280507901</v>
+        <v>6.376305839735537</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.636046415408411</v>
+        <v>-3.789232407848057</v>
       </c>
       <c r="J25" t="n">
-        <v>3.545619888750855</v>
+        <v>3.548640953026888</v>
       </c>
       <c r="K25" t="n">
-        <v>3.529017827664456</v>
+        <v>7.311252884562485</v>
       </c>
       <c r="L25" t="n">
-        <v>2.975193239185486</v>
+        <v>5.244475254375467</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,115 +1467,120 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>DynamicallyTested</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TestSetLength</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestSetRMSE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TestSetR2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetPrediction</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetActual</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>InSampleRMSE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>InSampleR2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ValidationSetLength</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetric</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetricValue</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>univariate</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>weights</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1584,12 +1589,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1599,266 +1604,281 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
+          <t>{'alpha': 2.0, 'l1_ratio': 1.0}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>12</v>
       </c>
-      <c r="I2" t="n">
-        <v>14.22850311613719</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.004169617333215</v>
+        <v>9.956728606663262</v>
       </c>
       <c r="K2" t="n">
-        <v>11.18055555555555</v>
+        <v>2.650378327542448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07633180333035183</v>
+        <v>7.228983556294978</v>
       </c>
       <c r="M2" t="n">
-        <v>2.408333333333335</v>
+        <v>0.5488002736238082</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>10.28546549987908</v>
       </c>
       <c r="O2" t="n">
-        <v>10.01285023973552</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>7.842114942528735</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.0327798981205</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.6522446387299823</v>
+        <v>9.392443563436123</v>
       </c>
       <c r="S2" t="n">
+        <v>0.4978078364012102</v>
+      </c>
+      <c r="T2" t="n">
         <v>6</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>15.21438730342167</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>12.34760986840265</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>12.23336692017793</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>0.07737981629220926</v>
+        <v>11.49070567300793</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.09722222222222</v>
+        <v>0.07640265504003452</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2657598923722978</v>
-      </c>
-      <c r="AC2" t="b">
+        <v>10.13386698793731</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.3601367402747107</v>
+      </c>
+      <c r="AD2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>13.80982846576606</v>
-      </c>
       <c r="J3" t="n">
-        <v>6.809886617721669</v>
+        <v>14.24919182243655</v>
       </c>
       <c r="K3" t="n">
-        <v>10.77241376848083</v>
+        <v>2.005919859581277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1298900557233134</v>
+        <v>11.23055555555555</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.08880068575599198</v>
+        <v>0.07590641725962632</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="O3" t="n">
-        <v>15.88846535599839</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>11.96631493997688</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10.04312687909391</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.1212440309276781</v>
+        <v>7.851839080459771</v>
       </c>
       <c r="S3" t="n">
+        <v>0.65015482804917</v>
+      </c>
+      <c r="T3" t="n">
         <v>6</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>15.85808991121881</v>
-      </c>
-      <c r="V3" t="b">
-        <v>1</v>
+      <c r="V3" t="n">
+        <v>15.21087840196151</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>17.75661767831055</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>0.09822468649599135</v>
+        <v>12.30746113286721</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5081852622595</v>
+        <v>0.0776661571213545</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.5469154891017911</v>
-      </c>
-      <c r="AC3" t="b">
+        <v>10.14722222222222</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2659414207823876</v>
+      </c>
+      <c r="AD3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="b">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
-        <v>14.97517744295523</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.032257036082011</v>
+        <v>13.83945973859246</v>
       </c>
       <c r="K4" t="n">
-        <v>11.02587229770494</v>
+        <v>6.805997555488756</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02315520517885994</v>
+        <v>10.82154649397032</v>
       </c>
       <c r="M4" t="n">
-        <v>3.675364733178132</v>
+        <v>0.1282865206832411</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>-0.08592920740048182</v>
       </c>
       <c r="O4" t="n">
-        <v>14.99701339533813</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>11.13556795741842</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15.88908934647672</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.2198682526750926</v>
+        <v>11.96717682947196</v>
       </c>
       <c r="S4" t="n">
+        <v>0.1212153067386073</v>
+      </c>
+      <c r="T4" t="n">
         <v>6</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>13.18827863007221</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>15.85656290839023</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>17.17756736399991</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>0.103347423926711</v>
+        <v>17.84098876221841</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.9392024371815</v>
+        <v>0.0983654136402418</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.4476694876842118</v>
-      </c>
-      <c r="AC4" t="b">
+        <v>13.54322601313066</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.5425228717125137</v>
+      </c>
+      <c r="AD4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1868,90 +1888,95 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 1.0}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>normalize</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
-        <v>15.07477782915108</v>
-      </c>
       <c r="J5" t="n">
-        <v>0.9435029895145387</v>
+        <v>12.59320307612817</v>
       </c>
       <c r="K5" t="n">
-        <v>11.31368630201028</v>
+        <v>3.895829537804836</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03681054197560019</v>
+        <v>9.92808285551286</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0678821879382889</v>
+        <v>0.2782149176075274</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9.487472329621806</v>
       </c>
       <c r="O5" t="n">
-        <v>16.97933994563094</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>12.64285564803805</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.87364236441356</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>9.094861641076834</v>
       </c>
       <c r="S5" t="n">
+        <v>0.5110033164828063</v>
+      </c>
+      <c r="T5" t="n">
         <v>6</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>13.68990808072906</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>11.47669252683534</v>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>17.05484283282677</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0.1036513846225947</v>
+        <v>19.6099380732064</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.91958859280036</v>
+        <v>0.1347425429645777</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.4270577332612697</v>
-      </c>
-      <c r="AC5" t="b">
+        <v>17.85457784052955</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.8635721747428031</v>
+      </c>
+      <c r="AD5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1961,7 +1986,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'max_depth': 6}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1969,175 +1994,179 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F6" t="b">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
-        <v>13.21889115222175</v>
-      </c>
       <c r="J6" t="n">
-        <v>6.908983971726632</v>
+        <v>14.22580754093759</v>
       </c>
       <c r="K6" t="n">
-        <v>10.08083787759145</v>
+        <v>2.292326474417683</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2027626868621164</v>
+        <v>11.42008632098418</v>
       </c>
       <c r="M6" t="n">
-        <v>7.741409778594971</v>
+        <v>0.07893697973758751</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>2.882627174536632</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3616826343753346</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.2583262512232978</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13.13947780344381</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.999546253061694</v>
+        <v>10.02835840776086</v>
       </c>
       <c r="S6" t="n">
+        <v>0.4011828950700207</v>
+      </c>
+      <c r="T6" t="n">
         <v>6</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>27.59944227921716</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>15.03819849985716</v>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>18.93896674310825</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.1284402363644279</v>
+        <v>33.29522479426575</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.94056935310363</v>
+        <v>0.2385087267824854</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.7597811567038137</v>
-      </c>
-      <c r="AC6" t="b">
+        <v>31.12677462225648</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-4.372268074681979</v>
+      </c>
+      <c r="AD6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F7" t="b">
+          <t>{'n_changepoints': 3}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="n">
-        <v>20.01756046078422</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.211577972503424</v>
+        <v>14.04056593165524</v>
       </c>
       <c r="K7" t="n">
-        <v>15.16912145797449</v>
+        <v>4.3583448289182</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.8281838227568334</v>
+        <v>12.07446212425986</v>
       </c>
       <c r="M7" t="n">
-        <v>8.637099780648388</v>
+        <v>0.10276808179171</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>0.3338760690406671</v>
       </c>
       <c r="O7" t="n">
-        <v>9.070852980553864</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>7.153961209727836</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11.30361385552777</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>0.7145995529664311</v>
+        <v>8.812225367163109</v>
       </c>
       <c r="S7" t="n">
+        <v>0.5552467855330661</v>
+      </c>
+      <c r="T7" t="n">
         <v>6</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>36.95595855503056</v>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>23.39663404830682</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>29.26865650763126</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.2050153914243541</v>
+        <v>33.77516179227283</v>
       </c>
       <c r="AA7" t="n">
-        <v>25.10990709545895</v>
+        <v>0.2547405736759397</v>
       </c>
       <c r="AB7" t="n">
-        <v>-3.202925345945211</v>
-      </c>
-      <c r="AC7" t="b">
+        <v>32.16251671761294</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-4.52826240469527</v>
+      </c>
+      <c r="AD7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2147,7 +2176,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'max_depth': 3, 'max_features': 'sqrt'}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,157 +2184,173 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F8" t="b">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="n">
-        <v>14.20672536444297</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.290227103524304</v>
+        <v>17.15633208702801</v>
       </c>
       <c r="K8" t="n">
-        <v>11.37009713354396</v>
+        <v>17.24743522668262</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0791571212744604</v>
+        <v>11.40828553497566</v>
       </c>
       <c r="M8" t="n">
-        <v>2.881783527181065</v>
+        <v>-0.3396284943627312</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>0.8310221158028784</v>
       </c>
       <c r="O8" t="n">
-        <v>13.18949391829887</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>10.07000387768475</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.90971811704619</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.3965870076154009</v>
+        <v>6.243998679338493</v>
       </c>
       <c r="S8" t="n">
+        <v>0.7829998673875058</v>
+      </c>
+      <c r="T8" t="n">
         <v>6</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>15.05339812224375</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>22.57881549406556</v>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>33.22411412049264</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2382792550637408</v>
+        <v>69.17043888749949</v>
       </c>
       <c r="AA8" t="n">
-        <v>31.07629972634302</v>
+        <v>0.5252330954735452</v>
       </c>
       <c r="AB8" t="n">
-        <v>-4.415679064017133</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>66.53779322078299</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-22.18648070667334</v>
+      </c>
+      <c r="AD8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 3}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
+          <t>{'max_depth': 2}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>14.01216897157831</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.358102186426165</v>
+        <v>22.63591742621982</v>
       </c>
       <c r="K9" t="n">
-        <v>12.02446212425986</v>
+        <v>8.371046593418265</v>
       </c>
       <c r="L9" t="n">
-        <v>0.104205698509224</v>
+        <v>15.95802408854167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3338760690406671</v>
+        <v>-1.332016883827001</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>-4.192923545837402</v>
       </c>
       <c r="O9" t="n">
-        <v>11.30286044901137</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>8.808385262120638</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.354602499572973</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0.5552856775403904</v>
+        <v>5.802200995964223</v>
       </c>
       <c r="S9" t="n">
+        <v>0.8123898217323999</v>
+      </c>
+      <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>23.39663404830682</v>
-      </c>
-      <c r="V9" t="b">
-        <v>1</v>
+      <c r="V9" t="n">
+        <v>23.97225070606125</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>33.72123444265412</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.2544926367795221</v>
+        <v>70.5381552600435</v>
       </c>
       <c r="AA9" t="n">
-        <v>32.11251671761294</v>
+        <v>0.5297774210958579</v>
       </c>
       <c r="AB9" t="n">
-        <v>-4.578957196607077</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>67.19896895885468</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-23.11248487401311</v>
+      </c>
+      <c r="AD9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2327,70 +2372,73 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Not Tuned</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>12</v>
       </c>
-      <c r="I10" t="n">
-        <v>21.28620392019444</v>
-      </c>
       <c r="J10" t="n">
-        <v>16.97788481669194</v>
+        <v>25.22236276449087</v>
       </c>
       <c r="K10" t="n">
-        <v>18.71196770423904</v>
+        <v>23.06127142582256</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.067254759463272</v>
+        <v>22.39377247450449</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.05096948611688</v>
+        <v>-1.895389691273132</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>-13.78089172160723</v>
       </c>
       <c r="O10" t="n">
-        <v>11.66157116772498</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>8.894199401655488</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11.23475890565217</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.5282927762919931</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>8.707926422539272</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5622103397478334</v>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'svr', 'knn', 'silverkite', 'prophet', 'xgboost', 'gbt']</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>(0.1460005246089272, 0.1431992352802551, 0.14164892056854442, 0.13558498915087738, 0.13468596443318023, 0.13109128464773426, 0.08899319168828744, 0.06552311465774606, 0.013272774964447927)</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>96.01145216274844</v>
+          <t>['mlr', 'mlp', 'elasticnet', 'svr', 'knn', 'silverkite', 'gbt', 'prophet', 'xgboost']</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>(0.18225877175072056, 0.18153553078497148, 0.17003766662799735, 0.13451647407591164, 0.132236751348767, 0.12371241455025968, 0.03496513238009564, 0.02416827923121122, 0.016568979250065504)</t>
+        </is>
       </c>
       <c r="Z10" t="n">
-        <v>0.5955418935727425</v>
+        <v>125.6071051169497</v>
       </c>
       <c r="AA10" t="n">
-        <v>77.62426696827106</v>
+        <v>0.772751265562607</v>
       </c>
       <c r="AB10" t="n">
-        <v>-44.22641640505537</v>
-      </c>
-      <c r="AC10" t="b">
+        <v>101.0165085849839</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-75.45786838366914</v>
+      </c>
+      <c r="AD10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2412,66 +2460,69 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not Tuned</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>12</v>
       </c>
-      <c r="I11" t="n">
-        <v>44.00555515345945</v>
-      </c>
       <c r="J11" t="n">
-        <v>43.80154984604291</v>
+        <v>43.88836061207439</v>
       </c>
       <c r="K11" t="n">
-        <v>39.92449201107164</v>
+        <v>45.35175830219131</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.835122435041075</v>
+        <v>39.54323866239573</v>
       </c>
       <c r="M11" t="n">
-        <v>-31.58540366862471</v>
+        <v>-7.766660853192736</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>-26.1744773754597</v>
       </c>
       <c r="O11" t="n">
-        <v>13.62141202119946</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>10.31980386637192</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11.53769473443223</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.3564198325626025</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>8.991711864658567</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5382827775463495</v>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr']</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>248.8761127875884</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>['mlr', 'mlp', 'elasticnet']</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1.561534856168545</v>
+        <v>248.5038953770152</v>
       </c>
       <c r="AA11" t="n">
-        <v>203.4670657866561</v>
+        <v>1.538703226722919</v>
       </c>
       <c r="AB11" t="n">
-        <v>-302.8872856375314</v>
-      </c>
-      <c r="AC11" t="b">
+        <v>201.1401156926574</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-298.2679264725552</v>
+      </c>
+      <c r="AD11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2497,70 +2548,75 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="b">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>12</v>
       </c>
-      <c r="I12" t="n">
-        <v>131.8697888504178</v>
-      </c>
       <c r="J12" t="n">
-        <v>131.3761421433672</v>
+        <v>131.8899867106037</v>
       </c>
       <c r="K12" t="n">
-        <v>121.5686731940694</v>
+        <v>131.3163909481488</v>
       </c>
       <c r="L12" t="n">
-        <v>-78.33926729203877</v>
+        <v>121.588781057479</v>
       </c>
       <c r="M12" t="n">
-        <v>-98.49945792699054</v>
+        <v>-78.16972518083813</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>-98.29636995587998</v>
       </c>
       <c r="O12" t="n">
-        <v>11.48339663954635</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>8.965086542336827</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11.452321526197</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.5425968780668404</v>
+        <v>8.951774043500857</v>
       </c>
       <c r="S12" t="n">
+        <v>0.5450904533667156</v>
+      </c>
+      <c r="T12" t="n">
         <v>6</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>13.96752435878389</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>11.42190990889837</v>
+      </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>769.1032326277808</v>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>4.801683635827223</v>
+        <v>768.9252232672854</v>
       </c>
       <c r="AA12" t="n">
-        <v>628.321242623187</v>
+        <v>4.797772522577507</v>
       </c>
       <c r="AB12" t="n">
-        <v>-2901.12005055932</v>
-      </c>
-      <c r="AC12" t="b">
+        <v>628.1525293108872</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-2864.246480597258</v>
+      </c>
+      <c r="AD12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12329,7 +12385,7 @@
         <v>44348</v>
       </c>
       <c r="B750" t="n">
-        <v>8</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
@@ -12342,11 +12398,11 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>1.958333333333335</v>
+        <v>4.915855860008749</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12355,11 +12411,11 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>-3.449999999999999</v>
+        <v>-4.841128800613748</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12368,11 +12424,11 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>1.666666666666667</v>
+        <v>-1.382231715303822</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12381,11 +12437,11 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>-2.041666666666666</v>
+        <v>1.64911967816727</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12394,11 +12450,11 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>-8.85</v>
+        <v>-9.859630070029457</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12407,11 +12463,11 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>-4.450000000000003</v>
+        <v>1.260798558935277</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12420,11 +12476,11 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>1.491666666666666</v>
+        <v>1.12810516124168</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12433,11 +12489,11 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>1.091666666666664</v>
+        <v>-6.265556699690095</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12446,11 +12502,11 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>13.475</v>
+        <v>15.73514737396713</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12459,11 +12515,11 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>7.308333333333333</v>
+        <v>-9.463423937253745</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12472,11 +12528,11 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>2.116666666666666</v>
+        <v>8.448857175485312</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12485,11 +12541,11 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>1.083333333333333</v>
+        <v>10.34521598972966</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12498,11 +12554,11 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>0.725000000000002</v>
+        <v>6.540819153715441</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12511,11 +12567,11 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>-4.183333333333334</v>
+        <v>-6.504132190772293</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12524,11 +12580,11 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>1.391666666666667</v>
+        <v>0.1340247101321376</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12537,11 +12593,11 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>-2.041666666666666</v>
+        <v>0.9174452890899457</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12550,11 +12606,11 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>-8.958333333333334</v>
+        <v>-8.952606508130293</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12563,11 +12619,11 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>-6.316666666666669</v>
+        <v>0.7241625138562641</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12576,11 +12632,11 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>1.491666666666666</v>
+        <v>0.08848019701638396</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12589,11 +12645,11 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>2.041666666666664</v>
+        <v>-6.71447545594435</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12602,11 +12658,11 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>10.78333333333334</v>
+        <v>19.5499917583671</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12615,11 +12671,11 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>9.25</v>
+        <v>-7.146543756014503</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12628,11 +12684,11 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>1.624999999999999</v>
+        <v>7.758923347116531</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12641,11 +12697,11 @@
         <v>45078</v>
       </c>
       <c r="B774" t="n">
-        <v>2.15</v>
+        <v>6.614721862567047</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
     </row>
@@ -12681,42 +12737,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>silverkite</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -12743,34 +12799,34 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C2" t="n">
+        <v>0.6888736794168919</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.3166666666666676</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.519167004662663</v>
-      </c>
       <c r="E2" t="n">
-        <v>-0.08583172794206884</v>
+        <v>3.522047919629248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0678821879382889</v>
+        <v>4.482916669967473</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.747463703155518</v>
+        <v>-0.6538255932287687</v>
       </c>
       <c r="H2" t="n">
-        <v>-29.04579403136228</v>
+        <v>-8.079808106374465</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6538255932287687</v>
+        <v>-27.16863069905538</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.079808106374465</v>
+        <v>-36.94290542602539</v>
       </c>
       <c r="K2" t="n">
-        <v>5.828766304024683</v>
+        <v>8.606711818028193</v>
       </c>
       <c r="L2" t="n">
-        <v>16.53361223834042</v>
+        <v>18.26352553480314</v>
       </c>
       <c r="M2" t="n">
         <v>49.61878625502504</v>
@@ -12784,37 +12840,37 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
+        <v>-2.817380389499803</v>
+      </c>
+      <c r="D3" t="n">
         <v>-1.658333333333334</v>
       </c>
-      <c r="D3" t="n">
-        <v>-3.064522190267938</v>
-      </c>
       <c r="E3" t="n">
-        <v>-0.08583132830137541</v>
+        <v>-3.061716303675877</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0678821879382889</v>
+        <v>-4.640644794586675</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.712414503097534</v>
+        <v>-4.777420910329289</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.105220927063588</v>
+        <v>-1.111924933511838</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.777430663673822</v>
+        <v>-9.430567613871657</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.111924933511838</v>
+        <v>-11.33802318572998</v>
       </c>
       <c r="K3" t="n">
-        <v>6.602964004697492</v>
+        <v>7.515013579373115</v>
       </c>
       <c r="L3" t="n">
-        <v>19.4365150708041</v>
+        <v>16.94002846898674</v>
       </c>
       <c r="M3" t="n">
-        <v>58.32749435277537</v>
+        <v>58.2781105910467</v>
       </c>
     </row>
     <row r="4">
@@ -12825,37 +12881,37 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
+        <v>-0.1816791654597589</v>
+      </c>
+      <c r="D4" t="n">
         <v>-2.083333333333333</v>
       </c>
-      <c r="D4" t="n">
-        <v>5.320980213394177</v>
-      </c>
       <c r="E4" t="n">
-        <v>-0.08583185310999286</v>
+        <v>5.322877510363931</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0678821879382889</v>
+        <v>-7.944596314688561</v>
       </c>
       <c r="G4" t="n">
-        <v>5.388124465942383</v>
+        <v>-7.845534348603534</v>
       </c>
       <c r="H4" t="n">
-        <v>21.2699603418739</v>
+        <v>-8.631864650205085</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.84522198162424</v>
+        <v>2.194780238506205</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.631864650205085</v>
+        <v>16.48141288757324</v>
       </c>
       <c r="K4" t="n">
-        <v>9.93145589137194</v>
+        <v>11.76738170747148</v>
       </c>
       <c r="L4" t="n">
-        <v>25.20621447203304</v>
+        <v>22.47820974133444</v>
       </c>
       <c r="M4" t="n">
-        <v>75.6365930812708</v>
+        <v>75.56090470415165</v>
       </c>
     </row>
     <row r="5">
@@ -12866,37 +12922,37 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
+        <v>3.19576367683539</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.258333333333333</v>
       </c>
-      <c r="D5" t="n">
-        <v>-1.711225454961701</v>
-      </c>
       <c r="E5" t="n">
-        <v>-0.08583185311585395</v>
+        <v>-1.709188667239948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0678821879382889</v>
+        <v>-5.175483504567413</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.437986373901367</v>
+        <v>-9.047158597135009</v>
       </c>
       <c r="H5" t="n">
-        <v>21.51973671957728</v>
+        <v>6.280099472428866</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.046766395984809</v>
+        <v>8.201776692388094</v>
       </c>
       <c r="J5" t="n">
-        <v>6.280099472428866</v>
+        <v>25.38899803161621</v>
       </c>
       <c r="K5" t="n">
-        <v>11.989424368203</v>
+        <v>15.63570721695997</v>
       </c>
       <c r="L5" t="n">
-        <v>30.08128900289529</v>
+        <v>29.39746299070928</v>
       </c>
       <c r="M5" t="n">
-        <v>90.26181667386345</v>
+        <v>90.17210879985987</v>
       </c>
     </row>
     <row r="6">
@@ -12907,37 +12963,37 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
+        <v>-8.081708188529467</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.6083333333333343</v>
       </c>
-      <c r="D6" t="n">
-        <v>-6.475264712031477</v>
-      </c>
       <c r="E6" t="n">
-        <v>-0.08583185056339793</v>
+        <v>-6.473042146245264</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0678821879382889</v>
+        <v>-6.994715105182423</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.401984214782715</v>
+        <v>-8.133379244108287</v>
       </c>
       <c r="H6" t="n">
-        <v>-42.33589804937755</v>
+        <v>-23.86272803408155</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.133379120969469</v>
+        <v>-37.2065049487238</v>
       </c>
       <c r="J6" t="n">
-        <v>-23.86272803408155</v>
+        <v>-52.32772064208984</v>
       </c>
       <c r="K6" t="n">
-        <v>7.831226652130896</v>
+        <v>9.536447466653021</v>
       </c>
       <c r="L6" t="n">
-        <v>30.59855842344436</v>
+        <v>25.58946742426174</v>
       </c>
       <c r="M6" t="n">
-        <v>91.81362493295819</v>
+        <v>91.84482556649709</v>
       </c>
     </row>
     <row r="7">
@@ -12948,37 +13004,37 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
+        <v>2.672632631402454</v>
+      </c>
+      <c r="D7" t="n">
         <v>-0.3250000000000005</v>
       </c>
-      <c r="D7" t="n">
-        <v>-3.730500789211856</v>
-      </c>
       <c r="E7" t="n">
-        <v>-0.08583185311453856</v>
+        <v>-3.72466142144948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0678821879382889</v>
+        <v>0.796133865820049</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.38879585266113</v>
+        <v>-5.22430310058316</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.59909931669012</v>
+        <v>-14.54681081485071</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.22430325042165</v>
+        <v>-11.28477576828581</v>
       </c>
       <c r="J7" t="n">
-        <v>-14.54681081485071</v>
+        <v>-22.26231384277344</v>
       </c>
       <c r="K7" t="n">
-        <v>13.51011612772124</v>
+        <v>20.02196908114556</v>
       </c>
       <c r="L7" t="n">
-        <v>39.75563645031298</v>
+        <v>40.92484310854084</v>
       </c>
       <c r="M7" t="n">
-        <v>119.2848590161152</v>
+        <v>119.3057628284</v>
       </c>
     </row>
     <row r="8">
@@ -12989,37 +13045,37 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
+        <v>2.516875663985906</v>
+      </c>
+      <c r="D8" t="n">
         <v>-1.158333333333335</v>
       </c>
-      <c r="D8" t="n">
-        <v>-7.074795641866178</v>
-      </c>
       <c r="E8" t="n">
-        <v>-0.08583185311361174</v>
+        <v>-7.070377187854572</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0678821879382889</v>
+        <v>3.578177215948296</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.954541683197021</v>
+        <v>-1.20171949847721</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4351687964304558</v>
+        <v>-3.305977486910558</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.201719906842541</v>
+        <v>-19.45527158662552</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.305977486910558</v>
+        <v>-7.536753177642822</v>
       </c>
       <c r="K8" t="n">
-        <v>17.73371037589412</v>
+        <v>24.40409134716925</v>
       </c>
       <c r="L8" t="n">
-        <v>46.44355366766029</v>
+        <v>48.4878157210544</v>
       </c>
       <c r="M8" t="n">
-        <v>139.3486106681562</v>
+        <v>139.368394283229</v>
       </c>
     </row>
     <row r="9">
@@ -13030,37 +13086,37 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
+        <v>-4.850995003828175</v>
+      </c>
+      <c r="D9" t="n">
         <v>5.5</v>
       </c>
-      <c r="D9" t="n">
-        <v>3.218508837899103</v>
-      </c>
       <c r="E9" t="n">
-        <v>-0.08583185309267427</v>
+        <v>3.221273910068808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0678821879382889</v>
+        <v>2.39060333253468</v>
       </c>
       <c r="G9" t="n">
-        <v>14.26703357696533</v>
+        <v>2.860298183020452</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.69312289768085</v>
+        <v>3.386111565317465</v>
       </c>
       <c r="I9" t="n">
-        <v>2.860297926525259</v>
+        <v>-8.158702623272282</v>
       </c>
       <c r="J9" t="n">
-        <v>3.386111565317465</v>
+        <v>-15.8209171295166</v>
       </c>
       <c r="K9" t="n">
-        <v>24.58921639748721</v>
+        <v>28.79222047243011</v>
       </c>
       <c r="L9" t="n">
-        <v>51.45376155564253</v>
+        <v>50.64166699498539</v>
       </c>
       <c r="M9" t="n">
-        <v>154.379234332082</v>
+        <v>154.3853926562497</v>
       </c>
     </row>
     <row r="10">
@@ -13071,37 +13127,37 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
+        <v>16.63362094848771</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.641666666666667</v>
       </c>
-      <c r="D10" t="n">
-        <v>3.528349934424705</v>
-      </c>
       <c r="E10" t="n">
-        <v>-0.08583183564162478</v>
+        <v>3.531279501222999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0678821879382889</v>
+        <v>7.900034471960988</v>
       </c>
       <c r="G10" t="n">
-        <v>43.71275329589844</v>
+        <v>5.989371306095128</v>
       </c>
       <c r="H10" t="n">
-        <v>48.50146737466255</v>
+        <v>27.50717832543545</v>
       </c>
       <c r="I10" t="n">
-        <v>5.989371306012243</v>
+        <v>39.38495784544635</v>
       </c>
       <c r="J10" t="n">
-        <v>27.50717832543545</v>
+        <v>38.74528884887695</v>
       </c>
       <c r="K10" t="n">
-        <v>35.2219377307137</v>
+        <v>43.97514465037251</v>
       </c>
       <c r="L10" t="n">
-        <v>64.08297218698839</v>
+        <v>72.26300626549484</v>
       </c>
       <c r="M10" t="n">
-        <v>192.2668662086685</v>
+        <v>192.2553633760358</v>
       </c>
     </row>
     <row r="11">
@@ -13112,37 +13168,37 @@
         <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
+        <v>-8.357271503089157</v>
+      </c>
+      <c r="D11" t="n">
         <v>3.516666666666664</v>
       </c>
-      <c r="D11" t="n">
-        <v>3.52952141929147</v>
-      </c>
       <c r="E11" t="n">
-        <v>-0.08583178531779123</v>
+        <v>3.532457192702039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0678821879382889</v>
+        <v>0.009605425440931903</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7416021823883057</v>
+        <v>7.12877443819905</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7258278158917503</v>
+        <v>16.04297785250718</v>
       </c>
       <c r="I11" t="n">
-        <v>7.128774438505337</v>
+        <v>-4.682902959652433</v>
       </c>
       <c r="J11" t="n">
-        <v>16.04297785250718</v>
+        <v>-3.94494104385376</v>
       </c>
       <c r="K11" t="n">
-        <v>30.03534014518391</v>
+        <v>34.9137242749744</v>
       </c>
       <c r="L11" t="n">
-        <v>62.75149438239907</v>
+        <v>59.97331454817368</v>
       </c>
       <c r="M11" t="n">
-        <v>188.2724327445767</v>
+        <v>188.2676097221693</v>
       </c>
     </row>
     <row r="12">
@@ -13153,37 +13209,37 @@
         <v>10.19999999999999</v>
       </c>
       <c r="C12" t="n">
+        <v>9.897779901679099</v>
+      </c>
+      <c r="D12" t="n">
         <v>2.991666666666667</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.718063979223756</v>
-      </c>
       <c r="E12" t="n">
-        <v>-0.0858318531040998</v>
+        <v>1.720121298662021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0678821879382889</v>
+        <v>5.326766680769779</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.287561893463135</v>
+        <v>6.237779272367629</v>
       </c>
       <c r="H12" t="n">
-        <v>33.30940472570747</v>
+        <v>4.789853163569622</v>
       </c>
       <c r="I12" t="n">
-        <v>6.237779272768424</v>
+        <v>22.39548443028838</v>
       </c>
       <c r="J12" t="n">
-        <v>4.789853163569622</v>
+        <v>23.78001976013184</v>
       </c>
       <c r="K12" t="n">
-        <v>33.41989303680025</v>
+        <v>45.48938999392537</v>
       </c>
       <c r="L12" t="n">
-        <v>73.33211749039522</v>
+        <v>78.41209684455085</v>
       </c>
       <c r="M12" t="n">
-        <v>220.0143021363515</v>
+        <v>220.0117439512037</v>
       </c>
     </row>
     <row r="13">
@@ -13191,40 +13247,40 @@
         <v>44348</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="C13" t="n">
+        <v>10.28546549987908</v>
+      </c>
+      <c r="D13" t="n">
         <v>2.408333333333335</v>
       </c>
-      <c r="D13" t="n">
-        <v>-0.08880068575599198</v>
-      </c>
       <c r="E13" t="n">
-        <v>3.675364733178132</v>
+        <v>-0.08592920740048182</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0678821879382889</v>
+        <v>9.487472329621806</v>
       </c>
       <c r="G13" t="n">
-        <v>7.741409778594971</v>
+        <v>2.882627174536632</v>
       </c>
       <c r="H13" t="n">
-        <v>8.637099780648388</v>
+        <v>0.3338760690406671</v>
       </c>
       <c r="I13" t="n">
-        <v>2.881783527181065</v>
+        <v>0.8310221158028784</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3338760690406671</v>
+        <v>-4.192923545837402</v>
       </c>
       <c r="K13" t="n">
-        <v>-12.05096948611688</v>
+        <v>-13.78089172160723</v>
       </c>
       <c r="L13" t="n">
-        <v>-31.58540366862471</v>
+        <v>-26.1744773754597</v>
       </c>
       <c r="M13" t="n">
-        <v>-98.49945792699054</v>
+        <v>-98.29636995587998</v>
       </c>
     </row>
   </sheetData>
@@ -13254,42 +13310,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>silverkite</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -13313,37 +13369,37 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>155.6583333333333</v>
+        <v>159.2158558600088</v>
       </c>
       <c r="C2" t="n">
-        <v>157.2191670046627</v>
+        <v>154.5583333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>154.6763794421317</v>
+        <v>157.8220479196293</v>
       </c>
       <c r="E2" t="n">
-        <v>153.8148965517241</v>
+        <v>155.9374246164475</v>
       </c>
       <c r="F2" t="n">
-        <v>153.6870191542432</v>
+        <v>155.7359013246499</v>
       </c>
       <c r="G2" t="n">
-        <v>152.5787742399586</v>
+        <v>148.5055401380118</v>
       </c>
       <c r="H2" t="n">
-        <v>155.0933502576356</v>
+        <v>156.2663629270864</v>
       </c>
       <c r="I2" t="n">
-        <v>147.9352464467122</v>
+        <v>156.679271030426</v>
       </c>
       <c r="J2" t="n">
-        <v>154.8152864214715</v>
+        <v>156.750866114214</v>
       </c>
       <c r="K2" t="n">
-        <v>155.4075223726551</v>
+        <v>157.7400883884593</v>
       </c>
       <c r="L2" t="n">
-        <v>157.7312911241094</v>
+        <v>158.0669846889217</v>
       </c>
     </row>
     <row r="3">
@@ -13351,37 +13407,37 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>152.2083333333333</v>
+        <v>154.374727059395</v>
       </c>
       <c r="C3" t="n">
-        <v>154.1546448143947</v>
+        <v>151.1083333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>152.6225954135839</v>
+        <v>154.7603316159534</v>
       </c>
       <c r="E3" t="n">
-        <v>153.9297931034483</v>
+        <v>153.5764233140827</v>
       </c>
       <c r="F3" t="n">
-        <v>141.4685104338452</v>
+        <v>152.1561011688114</v>
       </c>
       <c r="G3" t="n">
-        <v>149.1901108210863</v>
+        <v>146.5031239057099</v>
       </c>
       <c r="H3" t="n">
-        <v>151.4977390566499</v>
+        <v>152.3233703545459</v>
       </c>
       <c r="I3" t="n">
-        <v>145.9198805961113</v>
+        <v>152.7148955345154</v>
       </c>
       <c r="J3" t="n">
-        <v>151.5840157414971</v>
+        <v>153.259882577051</v>
       </c>
       <c r="K3" t="n">
-        <v>153.4221528183269</v>
+        <v>154.1126891616962</v>
       </c>
       <c r="L3" t="n">
-        <v>153.7140699379485</v>
+        <v>154.386917111611</v>
       </c>
     </row>
     <row r="4">
@@ -13389,37 +13445,37 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>153.875</v>
+        <v>152.9924953440912</v>
       </c>
       <c r="C4" t="n">
-        <v>159.4756250277889</v>
+        <v>152.775</v>
       </c>
       <c r="D4" t="n">
-        <v>149.3264810504796</v>
+        <v>160.0832091263173</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0446896551724</v>
+        <v>149.5820446496929</v>
       </c>
       <c r="F4" t="n">
-        <v>146.5022104231641</v>
+        <v>146.1224054411499</v>
       </c>
       <c r="G4" t="n">
-        <v>147.1723386738893</v>
+        <v>139.4780515071026</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4624611777775</v>
+        <v>152.2242807152071</v>
       </c>
       <c r="I4" t="n">
-        <v>138.9276090121404</v>
+        <v>154.4187964677811</v>
       </c>
       <c r="J4" t="n">
-        <v>150.1046174383116</v>
+        <v>151.1795624802974</v>
       </c>
       <c r="K4" t="n">
-        <v>150.4812470132641</v>
+        <v>150.4140032767496</v>
       </c>
       <c r="L4" t="n">
-        <v>148.0725703341402</v>
+        <v>148.6674698364648</v>
       </c>
     </row>
     <row r="5">
@@ -13427,37 +13483,37 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>151.8333333333333</v>
+        <v>154.6416150222585</v>
       </c>
       <c r="C5" t="n">
-        <v>157.7643995728272</v>
+        <v>150.7333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>150.3828982256168</v>
+        <v>158.3740204590774</v>
       </c>
       <c r="E5" t="n">
-        <v>154.1595862068966</v>
+        <v>145.8207841195335</v>
       </c>
       <c r="F5" t="n">
-        <v>148.8637576548383</v>
+        <v>140.2074588925843</v>
       </c>
       <c r="G5" t="n">
-        <v>147.6917408378669</v>
+        <v>144.3088045227086</v>
       </c>
       <c r="H5" t="n">
-        <v>139.5487671260714</v>
+        <v>153.6730587006597</v>
       </c>
       <c r="I5" t="n">
-        <v>143.7101166344843</v>
+        <v>158.7010707139969</v>
       </c>
       <c r="J5" t="n">
-        <v>148.7758026211294</v>
+        <v>148.7342194879935</v>
       </c>
       <c r="K5" t="n">
-        <v>149.0229189763447</v>
+        <v>147.8733283738354</v>
       </c>
       <c r="L5" t="n">
-        <v>142.5262724965207</v>
+        <v>143.1575859797143</v>
       </c>
     </row>
     <row r="6">
@@ -13465,37 +13521,37 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>142.9833333333333</v>
+        <v>144.781984952229</v>
       </c>
       <c r="C6" t="n">
-        <v>151.2891348607957</v>
+        <v>141.8833333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>146.136693109781</v>
+        <v>151.9009783128321</v>
       </c>
       <c r="E6" t="n">
-        <v>154.2744827586207</v>
+        <v>134.7420020775704</v>
       </c>
       <c r="F6" t="n">
-        <v>136.3491797892377</v>
+        <v>131.7068618134347</v>
       </c>
       <c r="G6" t="n">
-        <v>137.6141972154958</v>
+        <v>122.5985977311986</v>
       </c>
       <c r="H6" t="n">
-        <v>131.1206910476446</v>
+        <v>144.3258776460962</v>
       </c>
       <c r="I6" t="n">
-        <v>122.0608308841716</v>
+        <v>146.8686646699906</v>
       </c>
       <c r="J6" t="n">
-        <v>139.9880229503929</v>
+        <v>138.181005787855</v>
       </c>
       <c r="K6" t="n">
-        <v>142.6561268206364</v>
+        <v>135.9496480674358</v>
       </c>
       <c r="L6" t="n">
-        <v>127.5572045935075</v>
+        <v>128.3249571725081</v>
       </c>
     </row>
     <row r="7">
@@ -13503,37 +13559,37 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>138.5333333333334</v>
+        <v>146.0427835111643</v>
       </c>
       <c r="C7" t="n">
-        <v>147.5586340715839</v>
+        <v>137.4333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>147.7783924580331</v>
+        <v>148.1763168913826</v>
       </c>
       <c r="E7" t="n">
-        <v>154.3893793103449</v>
+        <v>130.759995446308</v>
       </c>
       <c r="F7" t="n">
-        <v>140.7997417895123</v>
+        <v>128.3658569903998</v>
       </c>
       <c r="G7" t="n">
-        <v>130.8078705478504</v>
+        <v>107.5874561757163</v>
       </c>
       <c r="H7" t="n">
-        <v>127.8171955726208</v>
+        <v>136.8115140130039</v>
       </c>
       <c r="I7" t="n">
-        <v>107.017401323166</v>
+        <v>140.2555970430374</v>
       </c>
       <c r="J7" t="n">
-        <v>136.9070934660165</v>
+        <v>134.6169263305593</v>
       </c>
       <c r="K7" t="n">
-        <v>141.6807773796672</v>
+        <v>133.5395500639779</v>
       </c>
       <c r="L7" t="n">
-        <v>122.8745603706236</v>
+        <v>123.8158712344614</v>
       </c>
     </row>
     <row r="8">
@@ -13541,37 +13597,37 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>140.025</v>
+        <v>147.170888672406</v>
       </c>
       <c r="C8" t="n">
-        <v>140.4838384297177</v>
+        <v>138.925</v>
       </c>
       <c r="D8" t="n">
-        <v>149.367921648046</v>
+        <v>141.1059397035281</v>
       </c>
       <c r="E8" t="n">
-        <v>154.504275862069</v>
+        <v>128.7965450661663</v>
       </c>
       <c r="F8" t="n">
-        <v>142.3293766228482</v>
+        <v>128.3537010643772</v>
       </c>
       <c r="G8" t="n">
-        <v>127.3083424683374</v>
+        <v>103.5476289921068</v>
       </c>
       <c r="H8" t="n">
-        <v>127.8611452383287</v>
+        <v>136.810447490585</v>
       </c>
       <c r="I8" t="n">
-        <v>102.9308051043554</v>
+        <v>140.9599135398865</v>
       </c>
       <c r="J8" t="n">
-        <v>136.0018673275363</v>
+        <v>133.5445330345736</v>
       </c>
       <c r="K8" t="n">
-        <v>141.9588323414279</v>
+        <v>133.0001191582415</v>
       </c>
       <c r="L8" t="n">
-        <v>122.0042995141686</v>
+        <v>123.0329237361523</v>
       </c>
     </row>
     <row r="9">
@@ -13579,37 +13635,37 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>141.1166666666667</v>
+        <v>140.9053319727159</v>
       </c>
       <c r="C9" t="n">
-        <v>143.7023472676168</v>
+        <v>140.0166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>145.5501285750782</v>
+        <v>144.3272136135969</v>
       </c>
       <c r="E9" t="n">
-        <v>154.6191724137931</v>
+        <v>124.7001385359541</v>
       </c>
       <c r="F9" t="n">
-        <v>140.2813779560849</v>
+        <v>129.5097021068528</v>
       </c>
       <c r="G9" t="n">
-        <v>129.9008186882295</v>
+        <v>106.3198554387913</v>
       </c>
       <c r="H9" t="n">
-        <v>129.1218922424</v>
+        <v>136.680864664591</v>
       </c>
       <c r="I9" t="n">
-        <v>105.6757540493179</v>
+        <v>136.3266628265381</v>
       </c>
       <c r="J9" t="n">
-        <v>135.9094216586709</v>
+        <v>131.8747089130425</v>
       </c>
       <c r="K9" t="n">
-        <v>139.6987865379914</v>
+        <v>128.5496138818307</v>
       </c>
       <c r="L9" t="n">
-        <v>118.9270586251029</v>
+        <v>120.0433711368221</v>
       </c>
     </row>
     <row r="10">
@@ -13617,37 +13673,37 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>154.5916666666667</v>
+        <v>156.640479346683</v>
       </c>
       <c r="C10" t="n">
-        <v>147.2306972020415</v>
+        <v>153.4916666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>150.6894580051643</v>
+        <v>147.8584931148199</v>
       </c>
       <c r="E10" t="n">
-        <v>154.7340689655173</v>
+        <v>139.3516132385091</v>
       </c>
       <c r="F10" t="n">
-        <v>155.0746137348935</v>
+        <v>138.3759973971932</v>
       </c>
       <c r="G10" t="n">
-        <v>148.7992840671065</v>
+        <v>136.0148467802387</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9856521560399</v>
+        <v>162.3879048866735</v>
       </c>
       <c r="I10" t="n">
-        <v>135.3110369353544</v>
+        <v>158.9868534088135</v>
       </c>
       <c r="J10" t="n">
-        <v>146.5573475951632</v>
+        <v>145.8485424577991</v>
       </c>
       <c r="K10" t="n">
-        <v>147.4378478026442</v>
+        <v>144.5951730690888</v>
       </c>
       <c r="L10" t="n">
-        <v>136.8900164372509</v>
+        <v>137.7934266220744</v>
       </c>
     </row>
     <row r="11">
@@ -13655,37 +13711,37 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>161.9</v>
+        <v>147.1770554094292</v>
       </c>
       <c r="C11" t="n">
-        <v>150.760218621333</v>
+        <v>160.8</v>
       </c>
       <c r="D11" t="n">
-        <v>146.4437062845783</v>
+        <v>151.3909503075219</v>
       </c>
       <c r="E11" t="n">
-        <v>154.8489655172414</v>
+        <v>137.2371818771719</v>
       </c>
       <c r="F11" t="n">
-        <v>156.1954769341275</v>
+        <v>142.0022940455102</v>
       </c>
       <c r="G11" t="n">
-        <v>150.5234653050224</v>
+        <v>150.9218202608018</v>
       </c>
       <c r="H11" t="n">
-        <v>141.714658413267</v>
+        <v>161.555567248144</v>
       </c>
       <c r="I11" t="n">
-        <v>150.2242255241449</v>
+        <v>157.3354191064835</v>
       </c>
       <c r="J11" t="n">
-        <v>149.0794954771932</v>
+        <v>145.7223241594582</v>
       </c>
       <c r="K11" t="n">
-        <v>145.4713179914331</v>
+        <v>140.1354933077519</v>
       </c>
       <c r="L11" t="n">
-        <v>135.1212821724795</v>
+        <v>135.9922426366546</v>
       </c>
     </row>
     <row r="12">
@@ -13693,37 +13749,37 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>164.0166666666667</v>
+        <v>155.6259125849145</v>
       </c>
       <c r="C12" t="n">
-        <v>152.4782826005567</v>
+        <v>161.275</v>
       </c>
       <c r="D12" t="n">
-        <v>150.2451683595644</v>
+        <v>153.1110716061839</v>
       </c>
       <c r="E12" t="n">
-        <v>154.9638620689656</v>
+        <v>149.6216881657127</v>
       </c>
       <c r="F12" t="n">
-        <v>165.0834478585049</v>
+        <v>150.0085630915861</v>
       </c>
       <c r="G12" t="n">
-        <v>156.156061933185</v>
+        <v>156.7873180776919</v>
       </c>
       <c r="H12" t="n">
-        <v>149.6890901012797</v>
+        <v>169.3842393961831</v>
       </c>
       <c r="I12" t="n">
-        <v>156.0499136255355</v>
+        <v>164.1495517969132</v>
       </c>
       <c r="J12" t="n">
-        <v>154.3397793869535</v>
+        <v>153.7879211991941</v>
       </c>
       <c r="K12" t="n">
-        <v>151.2990298522396</v>
+        <v>151.6517707125989</v>
       </c>
       <c r="L12" t="n">
-        <v>148.688059128189</v>
+        <v>149.7077113871695</v>
       </c>
     </row>
     <row r="13">
@@ -13731,37 +13787,37 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>165.1000000000001</v>
+        <v>165.9711285746442</v>
       </c>
       <c r="C13" t="n">
-        <v>152.3894819148007</v>
+        <v>162.2666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>155.2759559288469</v>
+        <v>153.0251423987834</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0787586206897</v>
+        <v>158.7686500894384</v>
       </c>
       <c r="F13" t="n">
-        <v>168.2032813278958</v>
+        <v>156.9554431280367</v>
       </c>
       <c r="G13" t="n">
-        <v>154.0114325775271</v>
+        <v>155.2175788909178</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4897661036341</v>
+        <v>172.2874067972292</v>
       </c>
       <c r="I13" t="n">
-        <v>154.5233580737605</v>
+        <v>166.7135009050369</v>
       </c>
       <c r="J13" t="n">
-        <v>157.8316215522459</v>
+        <v>160.5735198986316</v>
       </c>
       <c r="K13" t="n">
-        <v>156.8840369744161</v>
+        <v>162.1818835474553</v>
       </c>
       <c r="L13" t="n">
-        <v>160.2973963737119</v>
+        <v>161.8058719782833</v>
       </c>
     </row>
     <row r="14">
@@ -13769,37 +13825,37 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>165.825</v>
+        <v>172.5119477283596</v>
       </c>
       <c r="C14" t="n">
-        <v>155.9224422090237</v>
+        <v>162.8916666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>157.2314822818254</v>
+        <v>156.5610566858272</v>
       </c>
       <c r="E14" t="n">
-        <v>155.1936551724139</v>
+        <v>162.2522689649614</v>
       </c>
       <c r="F14" t="n">
-        <v>172.3494071213528</v>
+        <v>159.5332833166132</v>
       </c>
       <c r="G14" t="n">
-        <v>152.3176205365572</v>
+        <v>150.6604362021833</v>
       </c>
       <c r="H14" t="n">
-        <v>158.9913161398799</v>
+        <v>170.7674730649164</v>
       </c>
       <c r="I14" t="n">
-        <v>149.9412862554446</v>
+        <v>168.3111711025238</v>
       </c>
       <c r="J14" t="n">
-        <v>159.6179284506412</v>
+        <v>164.0082869402302</v>
       </c>
       <c r="K14" t="n">
-        <v>159.3225695936167</v>
+        <v>167.2793745660292</v>
       </c>
       <c r="L14" t="n">
-        <v>165.542571326611</v>
+        <v>167.0739070047665</v>
       </c>
     </row>
     <row r="15">
@@ -13807,37 +13863,37 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>161.6416666666667</v>
+        <v>166.0078155375874</v>
       </c>
       <c r="C15" t="n">
-        <v>156.0423548015839</v>
+        <v>158.7083333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>153.699369317028</v>
+        <v>156.6833277373912</v>
       </c>
       <c r="E15" t="n">
-        <v>155.308551724138</v>
+        <v>158.1443446468306</v>
       </c>
       <c r="F15" t="n">
-        <v>160.9644259659573</v>
+        <v>154.6436962302429</v>
       </c>
       <c r="G15" t="n">
-        <v>147.676997974685</v>
+        <v>148.4338240526654</v>
       </c>
       <c r="H15" t="n">
-        <v>154.1064597278312</v>
+        <v>168.3749717367159</v>
       </c>
       <c r="I15" t="n">
-        <v>147.7215724359425</v>
+        <v>167.3434287786484</v>
       </c>
       <c r="J15" t="n">
-        <v>156.0032019440928</v>
+        <v>159.6688817438985</v>
       </c>
       <c r="K15" t="n">
-        <v>156.064769733293</v>
+        <v>161.659950638253</v>
       </c>
       <c r="L15" t="n">
-        <v>159.186388158713</v>
+        <v>160.8276917303409</v>
       </c>
     </row>
     <row r="16">
@@ -13845,37 +13901,37 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>163.0333333333334</v>
+        <v>166.1418402477195</v>
       </c>
       <c r="C16" t="n">
-        <v>159.5776580655404</v>
+        <v>159.2</v>
       </c>
       <c r="D16" t="n">
-        <v>152.8646695651564</v>
+        <v>160.2215974073929</v>
       </c>
       <c r="E16" t="n">
-        <v>155.4234482758621</v>
+        <v>154.4974951384258</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7861362395808</v>
+        <v>148.9119384278659</v>
       </c>
       <c r="G16" t="n">
-        <v>146.3042811880476</v>
+        <v>142.6592510652843</v>
       </c>
       <c r="H16" t="n">
-        <v>148.353043723746</v>
+        <v>165.1507351982258</v>
       </c>
       <c r="I16" t="n">
-        <v>141.9233224050386</v>
+        <v>164.8765556097031</v>
       </c>
       <c r="J16" t="n">
-        <v>154.2028108767292</v>
+        <v>157.1646770896508</v>
       </c>
       <c r="K16" t="n">
-        <v>153.4248182311576</v>
+        <v>158.1050018632357</v>
       </c>
       <c r="L16" t="n">
-        <v>151.9863368524545</v>
+        <v>153.6756702035617</v>
       </c>
     </row>
     <row r="17">
@@ -13883,37 +13939,37 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>160.9916666666667</v>
+        <v>167.0592855368095</v>
       </c>
       <c r="C17" t="n">
-        <v>157.880225900139</v>
+        <v>157.65</v>
       </c>
       <c r="D17" t="n">
-        <v>153.5201071710142</v>
+        <v>158.5262751075675</v>
       </c>
       <c r="E17" t="n">
-        <v>155.5383448275863</v>
+        <v>149.3278037495293</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4845300612971</v>
+        <v>142.1868350545454</v>
       </c>
       <c r="G17" t="n">
-        <v>146.4913159081601</v>
+        <v>146.0287304882584</v>
       </c>
       <c r="H17" t="n">
-        <v>141.6277301444451</v>
+        <v>166.5995131836784</v>
       </c>
       <c r="I17" t="n">
-        <v>145.3145782950912</v>
+        <v>165.3600322782993</v>
       </c>
       <c r="J17" t="n">
-        <v>152.546117915264</v>
+        <v>153.6357765364823</v>
       </c>
       <c r="K17" t="n">
-        <v>150.7783777152807</v>
+        <v>153.8213622828717</v>
       </c>
       <c r="L17" t="n">
-        <v>143.2766811472417</v>
+        <v>145.0769975622764</v>
       </c>
     </row>
     <row r="18">
@@ -13921,37 +13977,37 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>152.0333333333334</v>
+        <v>158.1066790286792</v>
       </c>
       <c r="C18" t="n">
-        <v>151.4187544776678</v>
+        <v>148.8</v>
       </c>
       <c r="D18" t="n">
-        <v>149.2789487307879</v>
+        <v>152.0670993287367</v>
       </c>
       <c r="E18" t="n">
-        <v>155.6532413793104</v>
+        <v>138.6431365570991</v>
       </c>
       <c r="F18" t="n">
-        <v>160.3292385039851</v>
+        <v>134.0362434778351</v>
       </c>
       <c r="G18" t="n">
-        <v>137.948470526947</v>
+        <v>126.2165811321934</v>
       </c>
       <c r="H18" t="n">
-        <v>133.5535399336173</v>
+        <v>157.7380084477903</v>
       </c>
       <c r="I18" t="n">
-        <v>125.4615053547067</v>
+        <v>155.4965354979038</v>
       </c>
       <c r="J18" t="n">
-        <v>144.1847509000905</v>
+        <v>143.4403511030694</v>
       </c>
       <c r="K18" t="n">
-        <v>144.3900783127176</v>
+        <v>142.3089723840106</v>
       </c>
       <c r="L18" t="n">
-        <v>128.2380448280548</v>
+        <v>130.1771015662537</v>
       </c>
     </row>
     <row r="19">
@@ -13959,37 +14015,37 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>145.7166666666667</v>
+        <v>158.8308415425354</v>
       </c>
       <c r="C19" t="n">
-        <v>147.7020469780162</v>
+        <v>142.4833333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>150.8852139813093</v>
+        <v>148.3563042747017</v>
       </c>
       <c r="E19" t="n">
-        <v>155.7681379310346</v>
+        <v>133.0793665235082</v>
       </c>
       <c r="F19" t="n">
-        <v>146.3286405501887</v>
+        <v>129.878117703358</v>
       </c>
       <c r="G19" t="n">
-        <v>131.1421438593016</v>
+        <v>109.9740225775157</v>
       </c>
       <c r="H19" t="n">
-        <v>129.4558484898123</v>
+        <v>147.9226329306402</v>
       </c>
       <c r="I19" t="n">
-        <v>109.2428895747257</v>
+        <v>145.6532556593418</v>
       </c>
       <c r="J19" t="n">
-        <v>139.241606281255</v>
+        <v>138.7476071359346</v>
       </c>
       <c r="K19" t="n">
-        <v>142.9647590336518</v>
+        <v>138.7693698340773</v>
       </c>
       <c r="L19" t="n">
-        <v>122.2409251886117</v>
+        <v>124.3979014361883</v>
       </c>
     </row>
     <row r="20">
@@ -13997,37 +14053,37 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>147.2083333333334</v>
+        <v>158.9193217395518</v>
       </c>
       <c r="C20" t="n">
-        <v>147.8964942642498</v>
+        <v>143.975</v>
       </c>
       <c r="D20" t="n">
-        <v>152.1424030778318</v>
+        <v>148.5523152726401</v>
       </c>
       <c r="E20" t="n">
-        <v>155.8830344827587</v>
+        <v>129.8741191809577</v>
       </c>
       <c r="F20" t="n">
-        <v>145.9635473785922</v>
+        <v>129.3984355689329</v>
       </c>
       <c r="G20" t="n">
-        <v>127.6426157797886</v>
+        <v>104.7870413243681</v>
       </c>
       <c r="H20" t="n">
-        <v>129.0499282065375</v>
+        <v>148.1189376525948</v>
       </c>
       <c r="I20" t="n">
-        <v>104.0694377856307</v>
+        <v>146.6264689743519</v>
       </c>
       <c r="J20" t="n">
-        <v>138.9166733779715</v>
+        <v>138.0318938369366</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0326038805176</v>
+        <v>137.3582704925042</v>
       </c>
       <c r="L20" t="n">
-        <v>121.0723740809623</v>
+        <v>123.2813705570032</v>
       </c>
     </row>
     <row r="21">
@@ -14035,37 +14091,37 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>149.2500000000001</v>
+        <v>152.2048462836075</v>
       </c>
       <c r="C21" t="n">
-        <v>151.4375793728712</v>
+        <v>146.0166666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>147.9896060532456</v>
+        <v>152.0963974199417</v>
       </c>
       <c r="E21" t="n">
-        <v>155.9979310344829</v>
+        <v>126.8434259287478</v>
       </c>
       <c r="F21" t="n">
-        <v>153.1508733330294</v>
+        <v>130.9600097685568</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6601624015352</v>
+        <v>107.440831005835</v>
       </c>
       <c r="H21" t="n">
-        <v>130.7232864086223</v>
+        <v>153.1590958422015</v>
       </c>
       <c r="I21" t="n">
-        <v>106.6883466536567</v>
+        <v>148.009799438715</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8705451907709</v>
+        <v>137.2681218095661</v>
       </c>
       <c r="K21" t="n">
-        <v>141.2326036075845</v>
+        <v>133.6459704398868</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7102737350253</v>
+        <v>121.8896391073052</v>
       </c>
     </row>
     <row r="22">
@@ -14073,37 +14129,37 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>160.0333333333334</v>
+        <v>171.7548380419746</v>
       </c>
       <c r="C22" t="n">
-        <v>154.9797225968562</v>
+        <v>156.8</v>
       </c>
       <c r="D22" t="n">
-        <v>153.1272424113647</v>
+        <v>155.6415432885792</v>
       </c>
       <c r="E22" t="n">
-        <v>156.112827586207</v>
+        <v>142.8411413148303</v>
       </c>
       <c r="F22" t="n">
-        <v>162.1039678154513</v>
+        <v>141.3337197810457</v>
       </c>
       <c r="G22" t="n">
-        <v>152.5513406849541</v>
+        <v>138.9361858217326</v>
       </c>
       <c r="H22" t="n">
-        <v>141.0556942318292</v>
+        <v>173.9577978318139</v>
       </c>
       <c r="I22" t="n">
-        <v>138.0484698639258</v>
+        <v>173.9566511690617</v>
       </c>
       <c r="J22" t="n">
-        <v>150.489571312632</v>
+        <v>152.43512961267</v>
       </c>
       <c r="K22" t="n">
-        <v>149.792218554623</v>
+        <v>152.372464366226</v>
       </c>
       <c r="L22" t="n">
-        <v>140.1365856662975</v>
+        <v>142.5214137418732</v>
       </c>
     </row>
     <row r="23">
@@ -14111,37 +14167,37 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>169.2833333333334</v>
+        <v>164.6082942859601</v>
       </c>
       <c r="C23" t="n">
-        <v>151.9381766259106</v>
+        <v>166.05</v>
       </c>
       <c r="D23" t="n">
-        <v>149.1617117683891</v>
+        <v>152.6029249339115</v>
       </c>
       <c r="E23" t="n">
-        <v>156.2277241379311</v>
+        <v>145.2858656739557</v>
       </c>
       <c r="F23" t="n">
-        <v>175.6242133675143</v>
+        <v>147.4545558221267</v>
       </c>
       <c r="G23" t="n">
-        <v>158.0728800197944</v>
+        <v>152.885124181462</v>
       </c>
       <c r="H23" t="n">
-        <v>147.2421930604512</v>
+        <v>180.3965405347256</v>
       </c>
       <c r="I23" t="n">
-        <v>152.0501076714133</v>
+        <v>180.638753849268</v>
       </c>
       <c r="J23" t="n">
-        <v>154.1041586463955</v>
+        <v>154.3680700554962</v>
       </c>
       <c r="K23" t="n">
-        <v>149.1815986815089</v>
+        <v>151.4649132361226</v>
       </c>
       <c r="L23" t="n">
-        <v>142.1553601382067</v>
+        <v>144.5005797484521</v>
       </c>
     </row>
     <row r="24">
@@ -14149,37 +14205,37 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>170.9083333333334</v>
+        <v>172.3672176330766</v>
       </c>
       <c r="C24" t="n">
-        <v>155.4896838325554</v>
+        <v>166.525</v>
       </c>
       <c r="D24" t="n">
-        <v>151.3092945097898</v>
+        <v>156.1568233442879</v>
       </c>
       <c r="E24" t="n">
-        <v>156.3426206896553</v>
+        <v>157.5421621865164</v>
       </c>
       <c r="F24" t="n">
-        <v>180.4397384224459</v>
+        <v>155.1570861561889</v>
       </c>
       <c r="G24" t="n">
-        <v>163.3727071561077</v>
+        <v>159.5765474204187</v>
       </c>
       <c r="H24" t="n">
-        <v>154.9179616431767</v>
+        <v>188.805479489152</v>
       </c>
       <c r="I24" t="n">
-        <v>158.6483346944785</v>
+        <v>192.4588775217533</v>
       </c>
       <c r="J24" t="n">
-        <v>159.0504137303611</v>
+        <v>162.5971729912712</v>
       </c>
       <c r="K24" t="n">
-        <v>154.4493345492934</v>
+        <v>162.6991444433643</v>
       </c>
       <c r="L24" t="n">
-        <v>155.6960884484353</v>
+        <v>158.1880535105</v>
       </c>
     </row>
     <row r="25">
@@ -14187,37 +14243,37 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>173.0583333333334</v>
+        <v>178.9819394956437</v>
       </c>
       <c r="C25" t="n">
-        <v>159.0353037213063</v>
+        <v>168</v>
       </c>
       <c r="D25" t="n">
-        <v>153.2264337902977</v>
+        <v>159.7054642973147</v>
       </c>
       <c r="E25" t="n">
-        <v>156.4575172413794</v>
+        <v>163.9184680262519</v>
       </c>
       <c r="F25" t="n">
-        <v>186.4970900116488</v>
+        <v>160.2640583191508</v>
       </c>
       <c r="G25" t="n">
-        <v>160.5883773580503</v>
+        <v>155.7873150125706</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9059453045573</v>
+        <v>190.9510224748894</v>
       </c>
       <c r="I25" t="n">
-        <v>155.0122882790701</v>
+        <v>194.1387730419636</v>
       </c>
       <c r="J25" t="n">
-        <v>162.0256069695466</v>
+        <v>167.8416482456466</v>
       </c>
       <c r="K25" t="n">
-        <v>157.9783523769579</v>
+        <v>170.0103973279268</v>
       </c>
       <c r="L25" t="n">
-        <v>164.2511060991966</v>
+        <v>167.1307844618848</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -508,25 +508,25 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>3.766984688921639</v>
+        <v>3.766984688921184</v>
       </c>
       <c r="C2" t="n">
         <v>0.2583333333333346</v>
       </c>
       <c r="D2" t="n">
-        <v>1.435901324649939</v>
+        <v>1.435836591799865</v>
       </c>
       <c r="E2" t="n">
         <v>2.379271030426025</v>
       </c>
       <c r="F2" t="n">
-        <v>1.966362927086411</v>
+        <v>0.9765952938860029</v>
       </c>
       <c r="G2" t="n">
-        <v>4.915855860008749</v>
+        <v>4.893354976353685</v>
       </c>
       <c r="H2" t="n">
-        <v>1.637424616447472</v>
+        <v>-0.6969377656998185</v>
       </c>
       <c r="I2" t="n">
         <v>-5.794459861988171</v>
@@ -535,10 +535,10 @@
         <v>3.522047919629248</v>
       </c>
       <c r="K2" t="n">
-        <v>3.440088388459287</v>
+        <v>2.65446729985835</v>
       </c>
       <c r="L2" t="n">
-        <v>2.450866114213969</v>
+        <v>1.8930834958303</v>
       </c>
     </row>
     <row r="3">
@@ -546,25 +546,25 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.680067577310638</v>
+        <v>-3.680067577309728</v>
       </c>
       <c r="C3" t="n">
         <v>-3.449999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.579800155838563</v>
+        <v>-3.579833167832135</v>
       </c>
       <c r="E3" t="n">
         <v>-3.964375495910645</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.942992572540549</v>
+        <v>-4.127846647904034</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.841128800613748</v>
+        <v>-4.842054623682291</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.361001302364817</v>
+        <v>-3.372985425267153</v>
       </c>
       <c r="I3" t="n">
         <v>-2.002416232301968</v>
@@ -573,10 +573,10 @@
         <v>-3.061716303675877</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.627399226763067</v>
+        <v>-3.965035875419724</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.490983537162947</v>
+        <v>-3.653144418289227</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.719447275146194</v>
+        <v>-5.719447275146649</v>
       </c>
       <c r="C4" t="n">
         <v>1.666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.033695727661504</v>
+        <v>-6.033780783184093</v>
       </c>
       <c r="E4" t="n">
         <v>1.703900933265686</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.09908963933875736</v>
+        <v>0.3779711091838561</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.382231715303822</v>
+        <v>-1.395507058028087</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.994378664389758</v>
+        <v>-2.792774121747967</v>
       </c>
       <c r="I4" t="n">
         <v>-7.025072398607217</v>
@@ -611,10 +611,10 @@
         <v>5.322877510363931</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.698685884946591</v>
+        <v>-3.302576151640901</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.080320096753573</v>
+        <v>-1.885858821563958</v>
       </c>
     </row>
     <row r="5">
@@ -628,19 +628,19 @@
         <v>-2.041666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.914946548565588</v>
+        <v>-5.915112755206569</v>
       </c>
       <c r="E5" t="n">
         <v>4.28227424621582</v>
       </c>
       <c r="F5" t="n">
-        <v>1.44877798545258</v>
+        <v>1.20617979967325</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64911967816727</v>
+        <v>1.633911372296023</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.761260530159445</v>
+        <v>-3.015904398965446</v>
       </c>
       <c r="I5" t="n">
         <v>4.830753015605916</v>
@@ -649,10 +649,10 @@
         <v>-1.709188667239948</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.540674902914241</v>
+        <v>-2.297292294473324</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.445342992303909</v>
+        <v>-2.241574407017898</v>
       </c>
     </row>
     <row r="6">
@@ -666,19 +666,19 @@
         <v>-8.85</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.500597079149603</v>
+        <v>-8.500818995912937</v>
       </c>
       <c r="E6" t="n">
         <v>-11.83240604400635</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.347181054563448</v>
+        <v>-11.01064832304401</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.859630070029457</v>
+        <v>-9.850806463960213</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.07878204196312</v>
+        <v>-9.057529387080839</v>
       </c>
       <c r="I6" t="n">
         <v>-21.71020679150999</v>
@@ -687,10 +687,10 @@
         <v>-6.473042146245264</v>
       </c>
       <c r="K6" t="n">
-        <v>-11.9236803063996</v>
+        <v>-11.24698821941576</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.55321370013855</v>
+        <v>-10.3282193896538</v>
       </c>
     </row>
     <row r="7">
@@ -704,19 +704,19 @@
         <v>-4.450000000000003</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.341004823034903</v>
+        <v>-3.34132327923053</v>
       </c>
       <c r="E7" t="n">
         <v>-6.613067626953125</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.514363633092389</v>
+        <v>-5.325795695328026</v>
       </c>
       <c r="G7" t="n">
-        <v>1.260798558935277</v>
+        <v>1.270369484674542</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.982006631262378</v>
+        <v>-4.115768010108155</v>
       </c>
       <c r="I7" t="n">
         <v>-15.01114155548225</v>
@@ -725,10 +725,10 @@
         <v>-3.72466142144948</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.410098003457903</v>
+        <v>-2.451494821160074</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.564079457295669</v>
+        <v>-3.641782408401332</v>
       </c>
     </row>
     <row r="8">
@@ -742,19 +742,19 @@
         <v>1.491666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01215592602261406</v>
+        <v>-0.01252466215107706</v>
       </c>
       <c r="E8" t="n">
         <v>0.7043164968490601</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001066522418873173</v>
+        <v>-2.162345711990123</v>
       </c>
       <c r="G8" t="n">
-        <v>1.12810516124168</v>
+        <v>1.120108880841877</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.963450380141704</v>
+        <v>-2.878646127737246</v>
       </c>
       <c r="I8" t="n">
         <v>-4.039827183609478</v>
@@ -763,10 +763,10 @@
         <v>-7.070377187854572</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.5394309057363792</v>
+        <v>-0.8471615817348274</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.072393295985673</v>
+        <v>-1.33460374645253</v>
       </c>
     </row>
     <row r="9">
@@ -774,25 +774,25 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.989552599330182</v>
+        <v>-2.989552599329727</v>
       </c>
       <c r="C9" t="n">
         <v>1.091666666666664</v>
       </c>
       <c r="D9" t="n">
-        <v>1.156001042475661</v>
+        <v>1.155658630321495</v>
       </c>
       <c r="E9" t="n">
         <v>-4.633250713348389</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1295828259939772</v>
+        <v>0.3051649315565179</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.265556699690095</v>
+        <v>-6.248228614267184</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.096406530212197</v>
+        <v>-2.779281300159202</v>
       </c>
       <c r="I9" t="n">
         <v>2.772226446684454</v>
@@ -801,10 +801,10 @@
         <v>3.221273910068808</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.450505276410825</v>
+        <v>-4.005687504585371</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.669824121531167</v>
+        <v>-1.423557742771427</v>
       </c>
     </row>
     <row r="10">
@@ -812,25 +812,25 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>17.75005548525223</v>
+        <v>17.75005548525269</v>
       </c>
       <c r="C10" t="n">
         <v>13.475</v>
       </c>
       <c r="D10" t="n">
-        <v>8.866295290340354</v>
+        <v>8.865930621011874</v>
       </c>
       <c r="E10" t="n">
         <v>22.66019058227539</v>
       </c>
       <c r="F10" t="n">
-        <v>25.70704022208248</v>
+        <v>20.97634568762702</v>
       </c>
       <c r="G10" t="n">
-        <v>15.73514737396713</v>
+        <v>15.72944449125641</v>
       </c>
       <c r="H10" t="n">
-        <v>14.65147470255502</v>
+        <v>13.37770145053271</v>
       </c>
       <c r="I10" t="n">
         <v>29.69499134144737</v>
@@ -839,10 +839,10 @@
         <v>3.531279501222999</v>
       </c>
       <c r="K10" t="n">
-        <v>16.04555918725813</v>
+        <v>15.61906714234727</v>
       </c>
       <c r="L10" t="n">
-        <v>13.97383354475668</v>
+        <v>13.67163412961957</v>
       </c>
     </row>
     <row r="11">
@@ -856,19 +856,19 @@
         <v>7.308333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>3.626296648316976</v>
+        <v>3.626076437156693</v>
       </c>
       <c r="E11" t="n">
         <v>-1.651434302330017</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8323376385294641</v>
+        <v>1.443318544146428</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.463423937253745</v>
+        <v>-9.473183216375112</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.114431361337239</v>
+        <v>2.952975571678624</v>
       </c>
       <c r="I11" t="n">
         <v>14.90697348056312</v>
@@ -877,10 +877,10 @@
         <v>3.532457192702039</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.459679761336932</v>
+        <v>-2.773797210038766</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1262182983409496</v>
+        <v>1.037320653741083</v>
       </c>
     </row>
     <row r="12">
@@ -888,25 +888,25 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>13.7154687505149</v>
+        <v>13.71546875051536</v>
       </c>
       <c r="C12" t="n">
         <v>0.474999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>8.006269046075889</v>
+        <v>8.006102227413621</v>
       </c>
       <c r="E12" t="n">
         <v>6.814132690429688</v>
       </c>
       <c r="F12" t="n">
-        <v>7.828672148039088</v>
+        <v>6.157259483627596</v>
       </c>
       <c r="G12" t="n">
-        <v>8.448857175485312</v>
+        <v>8.466217983607379</v>
       </c>
       <c r="H12" t="n">
-        <v>12.38450628854085</v>
+        <v>8.264480423769976</v>
       </c>
       <c r="I12" t="n">
         <v>5.86549781689009</v>
@@ -915,10 +915,10 @@
         <v>1.720121298662021</v>
       </c>
       <c r="K12" t="n">
-        <v>11.51627740484702</v>
+        <v>10.14872238596424</v>
       </c>
       <c r="L12" t="n">
-        <v>8.0655970397359</v>
+        <v>7.233787918307298</v>
       </c>
     </row>
     <row r="13">
@@ -932,19 +932,19 @@
         <v>0.9916666666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>6.946880036450655</v>
+        <v>6.946776767011458</v>
       </c>
       <c r="E13" t="n">
         <v>2.563949108123779</v>
       </c>
       <c r="F13" t="n">
-        <v>2.903167401046056</v>
+        <v>0.6070929187767251</v>
       </c>
       <c r="G13" t="n">
-        <v>10.34521598972966</v>
+        <v>10.31103344049422</v>
       </c>
       <c r="H13" t="n">
-        <v>9.146961923725708</v>
+        <v>2.300627950223674</v>
       </c>
       <c r="I13" t="n">
         <v>-1.56973918677408</v>
@@ -953,10 +953,10 @@
         <v>-0.08592920740048093</v>
       </c>
       <c r="K13" t="n">
-        <v>10.53011283485639</v>
+        <v>8.236607327277234</v>
       </c>
       <c r="L13" t="n">
-        <v>6.785598699437514</v>
+        <v>5.362291443828449</v>
       </c>
     </row>
     <row r="14">
@@ -964,25 +964,25 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>5.268035026483176</v>
+        <v>5.268035026482721</v>
       </c>
       <c r="C14" t="n">
         <v>0.6250000000000018</v>
       </c>
       <c r="D14" t="n">
-        <v>2.577840188576501</v>
+        <v>2.577784283448483</v>
       </c>
       <c r="E14" t="n">
         <v>1.597670197486877</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.519933732312758</v>
+        <v>0.2396101343081846</v>
       </c>
       <c r="G14" t="n">
-        <v>6.540819153715441</v>
+        <v>6.532157177325887</v>
       </c>
       <c r="H14" t="n">
-        <v>3.483618875522961</v>
+        <v>-1.089107363206029</v>
       </c>
       <c r="I14" t="n">
         <v>-4.557142688734477</v>
@@ -991,10 +991,10 @@
         <v>3.535914287043733</v>
       </c>
       <c r="K14" t="n">
-        <v>5.09749101857386</v>
+        <v>3.570361613534193</v>
       </c>
       <c r="L14" t="n">
-        <v>3.434767041598616</v>
+        <v>2.56706774361431</v>
       </c>
     </row>
     <row r="15">
@@ -1002,25 +1002,25 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.246215274425595</v>
+        <v>-6.246215274424685</v>
       </c>
       <c r="C15" t="n">
         <v>-4.183333333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.889587086370286</v>
+        <v>-4.889620292102666</v>
       </c>
       <c r="E15" t="n">
         <v>-0.9677423238754272</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.392501328200534</v>
+        <v>-6.120384866374144</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.504132190772293</v>
+        <v>-6.502311675416433</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.107924318130745</v>
+        <v>-3.008065022497194</v>
       </c>
       <c r="I15" t="n">
         <v>-2.226612149517955</v>
@@ -1029,10 +1029,10 @@
         <v>0.1222710515639767</v>
       </c>
       <c r="K15" t="n">
-        <v>-5.619423927776211</v>
+        <v>-5.25219732411277</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.339405196331738</v>
+        <v>-4.15081933814589</v>
       </c>
     </row>
     <row r="16">
@@ -1046,19 +1046,19 @@
         <v>0.4916666666666671</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.731757802377056</v>
+        <v>-5.731844683911063</v>
       </c>
       <c r="E16" t="n">
         <v>-2.466873168945312</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.224236538490093</v>
+        <v>-0.2876113814786728</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1340247101321376</v>
+        <v>0.1153570121256541</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.646849508404808</v>
+        <v>-2.57537587531881</v>
       </c>
       <c r="I16" t="n">
         <v>-5.774572987381077</v>
@@ -1067,10 +1067,10 @@
         <v>3.53826967000181</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.554948775017293</v>
+        <v>-3.204013463324122</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.504204654247696</v>
+        <v>-2.264062922044659</v>
       </c>
     </row>
     <row r="17">
@@ -1078,25 +1078,25 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.598672641285248</v>
+        <v>-8.598672641285702</v>
       </c>
       <c r="C17" t="n">
         <v>-1.549999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.725103373320508</v>
+        <v>-6.725281474764515</v>
       </c>
       <c r="E17" t="n">
         <v>0.4834766685962677</v>
       </c>
       <c r="F17" t="n">
-        <v>1.44877798545258</v>
+        <v>1.20617979967325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9174452890899457</v>
+        <v>0.8944389261273364</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.169691388896561</v>
+        <v>-3.328511285067685</v>
       </c>
       <c r="I17" t="n">
         <v>3.369479422974109</v>
@@ -1105,10 +1105,10 @@
         <v>-1.695322299825463</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.283639580363954</v>
+        <v>-3.677581666742018</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.528900553168456</v>
+        <v>-3.164462466770011</v>
       </c>
     </row>
     <row r="18">
@@ -1122,19 +1122,19 @@
         <v>-8.85</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.150591576710319</v>
+        <v>-8.150852762772315</v>
       </c>
       <c r="E18" t="n">
         <v>-9.863496780395508</v>
       </c>
       <c r="F18" t="n">
-        <v>-8.861504735888044</v>
+        <v>-8.474531043561518</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.952606508130293</v>
+        <v>-8.939466350354875</v>
       </c>
       <c r="H18" t="n">
-        <v>-10.68466719243014</v>
+        <v>-8.445613405679778</v>
       </c>
       <c r="I18" t="n">
         <v>-19.812149356065</v>
@@ -1143,10 +1143,10 @@
         <v>-6.45917577883078</v>
       </c>
       <c r="K18" t="n">
-        <v>-11.51238989886104</v>
+        <v>-10.76165858401911</v>
       </c>
       <c r="L18" t="n">
-        <v>-10.19542543341291</v>
+        <v>-9.86206855168354</v>
       </c>
     </row>
     <row r="19">
@@ -1160,19 +1160,19 @@
         <v>-6.316666666666669</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.158125774477085</v>
+        <v>-4.158484465678658</v>
       </c>
       <c r="E19" t="n">
         <v>-9.843279838562012</v>
       </c>
       <c r="F19" t="n">
-        <v>-9.815375517150095</v>
+        <v>-7.001035117365191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7241625138562641</v>
+        <v>0.7351895093744706</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.563770033590871</v>
+        <v>-5.415236209439418</v>
       </c>
       <c r="I19" t="n">
         <v>-16.24255855467771</v>
@@ -1181,10 +1181,10 @@
         <v>-3.710795054034995</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.539602549933342</v>
+        <v>-3.486415610043455</v>
       </c>
       <c r="L19" t="n">
-        <v>-4.692743967134858</v>
+        <v>-4.71322573211941</v>
       </c>
     </row>
     <row r="20">
@@ -1198,19 +1198,19 @@
         <v>1.491666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4796821344250803</v>
+        <v>-0.4800963576939372</v>
       </c>
       <c r="E20" t="n">
         <v>0.9732133150100708</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1963047219545328</v>
+        <v>-2.162345711990123</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08848019701638396</v>
+        <v>0.07862565405371372</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.205247342550516</v>
+        <v>-3.724431287540325</v>
       </c>
       <c r="I20" t="n">
         <v>-5.186981253147601</v>
@@ -1219,10 +1219,10 @@
         <v>0.1960109979384095</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.411099341573084</v>
+        <v>-1.58744550422391</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.7157132989979283</v>
+        <v>-0.9214262810100369</v>
       </c>
     </row>
     <row r="21">
@@ -1230,25 +1230,25 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.391731449698</v>
+        <v>-1.39173144969709</v>
       </c>
       <c r="C21" t="n">
         <v>2.041666666666664</v>
       </c>
       <c r="D21" t="n">
-        <v>1.561574199623931</v>
+        <v>1.561173161408347</v>
       </c>
       <c r="E21" t="n">
         <v>1.383330464363098</v>
       </c>
       <c r="F21" t="n">
-        <v>5.04015818960673</v>
+        <v>5.589701183138293</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.71447545594435</v>
+        <v>-6.690209268139961</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.030693252209962</v>
+        <v>-0.5382055333018273</v>
       </c>
       <c r="I21" t="n">
         <v>2.653789681466935</v>
@@ -1257,10 +1257,10 @@
         <v>3.544082147301578</v>
       </c>
       <c r="K21" t="n">
-        <v>-3.712300052617437</v>
+        <v>-2.87338208371296</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.7637720273705342</v>
+        <v>-0.3200108410682503</v>
       </c>
     </row>
     <row r="22">
@@ -1274,19 +1274,19 @@
         <v>10.78333333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.37371001248888</v>
+        <v>10.37331757778992</v>
       </c>
       <c r="E22" t="n">
         <v>25.94685173034668</v>
       </c>
       <c r="F22" t="n">
-        <v>20.79870198961238</v>
+        <v>21.14067675468946</v>
       </c>
       <c r="G22" t="n">
-        <v>19.5499917583671</v>
+        <v>19.5424423453489</v>
       </c>
       <c r="H22" t="n">
-        <v>15.99771538608257</v>
+        <v>9.617815468811196</v>
       </c>
       <c r="I22" t="n">
         <v>31.49535481589763</v>
@@ -1295,10 +1295,10 @@
         <v>3.545145868637483</v>
       </c>
       <c r="K22" t="n">
-        <v>18.72649392633923</v>
+        <v>16.59734414957605</v>
       </c>
       <c r="L22" t="n">
-        <v>15.16700780310393</v>
+        <v>14.10465503486681</v>
       </c>
     </row>
     <row r="23">
@@ -1306,25 +1306,25 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>1.979166006578907</v>
+        <v>1.979166006579362</v>
       </c>
       <c r="C23" t="n">
         <v>9.25</v>
       </c>
       <c r="D23" t="n">
-        <v>6.120836041080936</v>
+        <v>6.120565927027445</v>
       </c>
       <c r="E23" t="n">
         <v>6.682102680206299</v>
       </c>
       <c r="F23" t="n">
-        <v>6.438742702911687</v>
+        <v>7.808338562501594</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.146543756014503</v>
+        <v>-7.16105012582916</v>
       </c>
       <c r="H23" t="n">
-        <v>2.444724359125359</v>
+        <v>7.46510659926053</v>
       </c>
       <c r="I23" t="n">
         <v>13.94893835972937</v>
@@ -1333,10 +1333,10 @@
         <v>-3.038618354667637</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.9075511301034123</v>
+        <v>0.7610741600035773</v>
       </c>
       <c r="L23" t="n">
-        <v>1.932940442826145</v>
+        <v>3.023751087522811</v>
       </c>
     </row>
     <row r="24">
@@ -1350,19 +1350,19 @@
         <v>0.474999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>7.702530334062248</v>
+        <v>7.70234451653283</v>
       </c>
       <c r="E24" t="n">
         <v>11.82012367248535</v>
       </c>
       <c r="F24" t="n">
-        <v>8.408938954426434</v>
+        <v>6.805417312865228</v>
       </c>
       <c r="G24" t="n">
-        <v>7.758923347116531</v>
+        <v>7.787262540921816</v>
       </c>
       <c r="H24" t="n">
-        <v>12.25629651256069</v>
+        <v>6.81527802924302</v>
       </c>
       <c r="I24" t="n">
         <v>6.691423238956697</v>
@@ -1371,10 +1371,10 @@
         <v>3.553898410376313</v>
       </c>
       <c r="K24" t="n">
-        <v>11.23423120724168</v>
+        <v>9.430004777404221</v>
       </c>
       <c r="L24" t="n">
-        <v>8.229102935774998</v>
+        <v>7.203335442082517</v>
       </c>
     </row>
     <row r="25">
@@ -1388,19 +1388,19 @@
         <v>1.475</v>
       </c>
       <c r="D25" t="n">
-        <v>5.106972162961948</v>
+        <v>5.106866265322147</v>
       </c>
       <c r="E25" t="n">
         <v>1.679895520210266</v>
       </c>
       <c r="F25" t="n">
-        <v>2.145542985737336</v>
+        <v>0.7240161652081943</v>
       </c>
       <c r="G25" t="n">
-        <v>6.614721862567047</v>
+        <v>6.562877315157282</v>
       </c>
       <c r="H25" t="n">
-        <v>6.376305839735537</v>
+        <v>1.46744063647437</v>
       </c>
       <c r="I25" t="n">
         <v>-3.789232407848057</v>
@@ -1409,10 +1409,10 @@
         <v>3.548640953026888</v>
       </c>
       <c r="K25" t="n">
-        <v>7.311252884562485</v>
+        <v>5.657682967672176</v>
       </c>
       <c r="L25" t="n">
-        <v>5.244475254375467</v>
+        <v>4.193881013236904</v>
       </c>
     </row>
   </sheetData>
@@ -1608,10 +1608,8 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1623,32 +1621,32 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>9.956728606663262</v>
+        <v>9.956617070813387</v>
       </c>
       <c r="K2" t="n">
-        <v>2.650378327542448</v>
+        <v>2.650963207607533</v>
       </c>
       <c r="L2" t="n">
-        <v>7.228983556294978</v>
+        <v>7.22889684746038</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5488002736238082</v>
+        <v>0.548810382298065</v>
       </c>
       <c r="N2" t="n">
-        <v>10.28546549987908</v>
+        <v>10.28535560776018</v>
       </c>
       <c r="O2" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P2" t="n">
-        <v>12.0327798981205</v>
+        <v>12.0294701672896</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>9.392443563436123</v>
+        <v>9.387572291681305</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4978078364012102</v>
+        <v>0.4980840638914287</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -1659,22 +1657,22 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>12.34760986840265</v>
+        <v>12.28998141594318</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>11.49070567300793</v>
+        <v>11.48716040936863</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07640265504003452</v>
+        <v>0.07638216344227612</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.13386698793731</v>
+        <v>10.13084571682385</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3601367402747107</v>
+        <v>0.3605315174210624</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -1706,10 +1704,8 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1781,25 +1777,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1811,32 +1813,32 @@
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>13.83945973859246</v>
+        <v>14.92954405738234</v>
       </c>
       <c r="K4" t="n">
-        <v>6.805997555488756</v>
+        <v>2.582425408251861</v>
       </c>
       <c r="L4" t="n">
-        <v>10.82154649397032</v>
+        <v>11.40608929277311</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1282865206832411</v>
+        <v>-0.01444516804033147</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.08592920740048182</v>
+        <v>1.718607513334995</v>
       </c>
       <c r="O4" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P4" t="n">
-        <v>15.88908934647672</v>
+        <v>10.94142810080376</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>11.96717682947196</v>
+        <v>8.33338591099441</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1212153067386073</v>
+        <v>0.5847725964031704</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -1847,24 +1849,22 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>15.85656290839023</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
+        <v>10.33418224721547</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>17.84098876221841</v>
+        <v>14.2520525329766</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0983654136402418</v>
+        <v>0.08832067882317061</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.54322601313066</v>
+        <v>10.50220286716312</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5425228717125137</v>
+        <v>0.01565213902185425</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -1873,33 +1873,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'changepoints': 0}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1911,32 +1901,32 @@
         <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>12.59320307612817</v>
+        <v>13.83945973859246</v>
       </c>
       <c r="K5" t="n">
-        <v>3.895829537804836</v>
+        <v>6.805997555488756</v>
       </c>
       <c r="L5" t="n">
-        <v>9.92808285551286</v>
+        <v>10.82154649397032</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2782149176075274</v>
+        <v>0.1282865206832411</v>
       </c>
       <c r="N5" t="n">
-        <v>9.487472329621806</v>
+        <v>-0.08592920740048182</v>
       </c>
       <c r="O5" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P5" t="n">
-        <v>11.87364236441356</v>
+        <v>15.88908934647672</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>9.094861641076834</v>
+        <v>11.96717682947196</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5110033164828063</v>
+        <v>0.1212153067386073</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -1947,22 +1937,24 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>11.47669252683534</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>15.85656290839023</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>19.6099380732064</v>
+        <v>17.84098876221841</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1347425429645777</v>
+        <v>0.0983654136402418</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.85457784052955</v>
+        <v>13.54322601313066</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.8635721747428031</v>
+        <v>-0.5425228717125137</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -1971,12 +1963,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1986,7 +1978,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'max_depth': 2, 'max_features': None}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1994,10 +1986,8 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2009,32 +1999,32 @@
         <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>14.22580754093759</v>
+        <v>17.37194558192824</v>
       </c>
       <c r="K6" t="n">
-        <v>2.292326474417683</v>
+        <v>6.854220533698605</v>
       </c>
       <c r="L6" t="n">
-        <v>11.42008632098418</v>
+        <v>14.54774562445546</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07893697973758751</v>
+        <v>-0.3735118444559185</v>
       </c>
       <c r="N6" t="n">
-        <v>2.882627174536632</v>
+        <v>-5.818075717135242</v>
       </c>
       <c r="O6" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P6" t="n">
-        <v>13.13947780344381</v>
+        <v>9.039291965613105</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>10.02835840776086</v>
+        <v>7.15384028339544</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4011828950700207</v>
+        <v>0.716595452650592</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -2045,22 +2035,22 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>15.03819849985716</v>
+        <v>24.81173062105193</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>33.29522479426575</v>
+        <v>23.51265749329723</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2385087267824854</v>
+        <v>0.156125137567104</v>
       </c>
       <c r="AB6" t="n">
-        <v>31.12677462225648</v>
+        <v>18.96826516532918</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.372268074681979</v>
+        <v>-1.679151101386908</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -2069,25 +2059,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 3}</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2099,32 +2095,32 @@
         <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>14.04056593165524</v>
+        <v>14.22430552913185</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3583448289182</v>
+        <v>2.283848613333041</v>
       </c>
       <c r="L7" t="n">
-        <v>12.07446212425986</v>
+        <v>11.41811351772209</v>
       </c>
       <c r="M7" t="n">
-        <v>0.10276808179171</v>
+        <v>0.07913146774701818</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3338760690406671</v>
+        <v>2.887142794722719</v>
       </c>
       <c r="O7" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P7" t="n">
-        <v>11.30361385552777</v>
+        <v>13.13949597266035</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>8.812225367163109</v>
+        <v>10.0283713439507</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5552467855330661</v>
+        <v>0.4011812389851548</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -2135,24 +2131,22 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>23.39663404830682</v>
-      </c>
-      <c r="W7" t="b">
-        <v>1</v>
-      </c>
+        <v>15.03854518788069</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>33.77516179227283</v>
+        <v>33.25013667552012</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2547405736759397</v>
+        <v>0.2381959297637569</v>
       </c>
       <c r="AB7" t="n">
-        <v>32.16251671761294</v>
+        <v>31.08605604300426</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.52826240469527</v>
+        <v>-4.357727764320964</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2161,33 +2155,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'max_features': 'sqrt'}</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'n_changepoints': 3}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2199,32 +2183,32 @@
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>17.15633208702801</v>
+        <v>14.04056593165524</v>
       </c>
       <c r="K8" t="n">
-        <v>17.24743522668262</v>
+        <v>4.3583448289182</v>
       </c>
       <c r="L8" t="n">
-        <v>11.40828553497566</v>
+        <v>12.07446212425986</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3396284943627312</v>
+        <v>0.10276808179171</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8310221158028784</v>
+        <v>0.3338760690406671</v>
       </c>
       <c r="O8" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P8" t="n">
-        <v>7.90971811704619</v>
+        <v>11.30361385552777</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>6.243998679338493</v>
+        <v>8.812225367163109</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7829998673875058</v>
+        <v>0.5552467855330661</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -2235,22 +2219,24 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>22.57881549406556</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
+        <v>23.39663404830682</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>69.17043888749949</v>
+        <v>33.77516179227283</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5252330954735452</v>
+        <v>0.2547405736759397</v>
       </c>
       <c r="AB8" t="n">
-        <v>66.53779322078299</v>
+        <v>32.16251671761294</v>
       </c>
       <c r="AC8" t="n">
-        <v>-22.18648070667334</v>
+        <v>-4.52826240469527</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2282,10 +2268,8 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2372,10 +2356,8 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Not Tuned</t>
-        </is>
+      <c r="F10" t="b">
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
@@ -2385,32 +2367,32 @@
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>25.22236276449087</v>
+        <v>25.09343924665727</v>
       </c>
       <c r="K10" t="n">
-        <v>23.06127142582256</v>
+        <v>22.61078025346208</v>
       </c>
       <c r="L10" t="n">
-        <v>22.39377247450449</v>
+        <v>22.44043747996288</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.895389691273132</v>
+        <v>-1.865865906193841</v>
       </c>
       <c r="N10" t="n">
-        <v>-13.78089172160723</v>
+        <v>-14.83732649373442</v>
       </c>
       <c r="O10" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P10" t="n">
-        <v>11.23475890565217</v>
+        <v>11.06988207127236</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>8.707926422539272</v>
+        <v>8.57192604738143</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5622103397478334</v>
+        <v>0.5749657039538854</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -2418,25 +2400,25 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>['mlr', 'mlp', 'elasticnet', 'svr', 'knn', 'silverkite', 'gbt', 'prophet', 'xgboost']</t>
+          <t>['mlp', 'mlr', 'elasticnet', 'svr', 'knn', 'silverkite', 'prophet', 'xgboost', 'gbt']</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>(0.18225877175072056, 0.18153553078497148, 0.17003766662799735, 0.13451647407591164, 0.132236751348767, 0.12371241455025968, 0.03496513238009564, 0.02416827923121122, 0.016568979250065504)</t>
+          <t>(0.1895808635833279, 0.17663213998853747, 0.1662982867629555, 0.1335783387288961, 0.13152681863435156, 0.12384034480665766, 0.03408047152663131, 0.027228112006521848, 0.017234623962120717)</t>
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>125.6071051169497</v>
+        <v>126.1041682381996</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.772751265562607</v>
+        <v>0.7862656051767138</v>
       </c>
       <c r="AB10" t="n">
-        <v>101.0165085849839</v>
+        <v>102.5459791364617</v>
       </c>
       <c r="AC10" t="n">
-        <v>-75.45786838366914</v>
+        <v>-76.06419688337324</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2460,10 +2442,8 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Not Tuned</t>
-        </is>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
@@ -2473,32 +2453,32 @@
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>43.88836061207439</v>
+        <v>44.50459678968068</v>
       </c>
       <c r="K11" t="n">
-        <v>45.35175830219131</v>
+        <v>45.12687833020709</v>
       </c>
       <c r="L11" t="n">
-        <v>39.54323866239573</v>
+        <v>40.55153239755035</v>
       </c>
       <c r="M11" t="n">
-        <v>-7.766660853192736</v>
+        <v>-8.014574448663264</v>
       </c>
       <c r="N11" t="n">
-        <v>-26.1744773754597</v>
+        <v>-28.76413561159145</v>
       </c>
       <c r="O11" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P11" t="n">
-        <v>11.53769473443223</v>
+        <v>11.17752759734172</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>8.991711864658567</v>
+        <v>8.702525766370709</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5382827775463495</v>
+        <v>0.5666592928286273</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -2506,21 +2486,21 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
-          <t>['mlr', 'mlp', 'elasticnet']</t>
+          <t>['mlp', 'mlr', 'elasticnet']</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>248.5038953770152</v>
+        <v>255.2764730465111</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.538703226722919</v>
+        <v>1.597216056742258</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.1401156926574</v>
+        <v>208.4058898585897</v>
       </c>
       <c r="AC11" t="n">
-        <v>-298.2679264725552</v>
+        <v>-314.8023480612682</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -2548,10 +2528,8 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2563,32 +2541,32 @@
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>131.8899867106037</v>
+        <v>131.8899867105978</v>
       </c>
       <c r="K12" t="n">
-        <v>131.3163909481488</v>
+        <v>131.3163909481432</v>
       </c>
       <c r="L12" t="n">
-        <v>121.588781057479</v>
+        <v>121.5887810574711</v>
       </c>
       <c r="M12" t="n">
-        <v>-78.16972518083813</v>
+        <v>-78.16972518083101</v>
       </c>
       <c r="N12" t="n">
-        <v>-98.29636995587998</v>
+        <v>-98.29636995586952</v>
       </c>
       <c r="O12" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P12" t="n">
-        <v>11.452321526197</v>
+        <v>11.45232152619701</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>8.951774043500857</v>
+        <v>8.951774043500853</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5450904533667156</v>
+        <v>0.5450904533667152</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -2599,22 +2577,22 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>11.42190990889837</v>
+        <v>11.42190990889836</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>768.9252232672854</v>
+        <v>768.9252232672262</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.797772522577507</v>
+        <v>4.797772522577048</v>
       </c>
       <c r="AB12" t="n">
-        <v>628.1525293108872</v>
+        <v>628.1525293108285</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2864.246480597258</v>
+        <v>-2864.246480596816</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
@@ -12398,7 +12376,7 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>4.915855860008749</v>
+        <v>4.893354976353685</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -12411,7 +12389,7 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>-4.841128800613748</v>
+        <v>-4.842054623682291</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -12424,7 +12402,7 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.382231715303822</v>
+        <v>-1.395507058028087</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -12437,7 +12415,7 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>1.64911967816727</v>
+        <v>1.633911372296023</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -12450,7 +12428,7 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>-9.859630070029457</v>
+        <v>-9.850806463960213</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -12463,7 +12441,7 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>1.260798558935277</v>
+        <v>1.270369484674542</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -12476,7 +12454,7 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>1.12810516124168</v>
+        <v>1.120108880841877</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -12489,7 +12467,7 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>-6.265556699690095</v>
+        <v>-6.248228614267184</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -12502,7 +12480,7 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>15.73514737396713</v>
+        <v>15.72944449125641</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -12515,7 +12493,7 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>-9.463423937253745</v>
+        <v>-9.473183216375112</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -12528,7 +12506,7 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>8.448857175485312</v>
+        <v>8.466217983607379</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -12541,7 +12519,7 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>10.34521598972966</v>
+        <v>10.31103344049422</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -12554,7 +12532,7 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>6.540819153715441</v>
+        <v>6.532157177325887</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -12567,7 +12545,7 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>-6.504132190772293</v>
+        <v>-6.502311675416433</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -12580,7 +12558,7 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>0.1340247101321376</v>
+        <v>0.1153570121256541</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -12593,7 +12571,7 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>0.9174452890899457</v>
+        <v>0.8944389261273364</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -12606,7 +12584,7 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>-8.952606508130293</v>
+        <v>-8.939466350354875</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -12619,7 +12597,7 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>0.7241625138562641</v>
+        <v>0.7351895093744706</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -12632,7 +12610,7 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>0.08848019701638396</v>
+        <v>0.07862565405371372</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -12645,7 +12623,7 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>-6.71447545594435</v>
+        <v>-6.690209268139961</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -12658,7 +12636,7 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>19.5499917583671</v>
+        <v>19.5424423453489</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -12671,7 +12649,7 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>-7.146543756014503</v>
+        <v>-7.16105012582916</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -12684,7 +12662,7 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>7.758923347116531</v>
+        <v>7.787262540921816</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -12697,7 +12675,7 @@
         <v>45078</v>
       </c>
       <c r="B774" t="n">
-        <v>6.614721862567047</v>
+        <v>6.562877315157282</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -12747,27 +12725,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>silverkite</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -12799,37 +12777,37 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6888736794168919</v>
+        <v>0.6897154659789538</v>
       </c>
       <c r="D2" t="n">
         <v>0.3166666666666676</v>
       </c>
       <c r="E2" t="n">
+        <v>2.075647163818875</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.522047919629248</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.482916669967473</v>
-      </c>
       <c r="G2" t="n">
-        <v>-0.6538255932287687</v>
+        <v>-21.19884466656316</v>
       </c>
       <c r="H2" t="n">
+        <v>-0.6501172650483547</v>
+      </c>
+      <c r="I2" t="n">
         <v>-8.079808106374465</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-27.16863069905538</v>
       </c>
       <c r="J2" t="n">
         <v>-36.94290542602539</v>
       </c>
       <c r="K2" t="n">
-        <v>8.606711818028193</v>
+        <v>8.016850732640425</v>
       </c>
       <c r="L2" t="n">
-        <v>18.26352553480314</v>
+        <v>17.46138296160277</v>
       </c>
       <c r="M2" t="n">
-        <v>49.61878625502504</v>
+        <v>49.61878625501049</v>
       </c>
     </row>
     <row r="3">
@@ -12840,37 +12818,37 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.817380389499803</v>
+        <v>-2.816594353028785</v>
       </c>
       <c r="D3" t="n">
         <v>-1.658333333333334</v>
       </c>
       <c r="E3" t="n">
+        <v>2.253773641165799</v>
+      </c>
+      <c r="F3" t="n">
         <v>-3.061716303675877</v>
       </c>
-      <c r="F3" t="n">
-        <v>-4.640644794586675</v>
-      </c>
       <c r="G3" t="n">
-        <v>-4.777420910329289</v>
+        <v>-2.592967502177341</v>
       </c>
       <c r="H3" t="n">
+        <v>-4.773708174626774</v>
+      </c>
+      <c r="I3" t="n">
         <v>-1.111924933511838</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-9.430567613871657</v>
       </c>
       <c r="J3" t="n">
         <v>-11.33802318572998</v>
       </c>
       <c r="K3" t="n">
-        <v>7.515013579373115</v>
+        <v>8.626424897006732</v>
       </c>
       <c r="L3" t="n">
-        <v>16.94002846898674</v>
+        <v>19.23842995972412</v>
       </c>
       <c r="M3" t="n">
-        <v>58.2781105910467</v>
+        <v>58.27811059103533</v>
       </c>
     </row>
     <row r="4">
@@ -12881,37 +12859,37 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1816791654597589</v>
+        <v>-0.1808685497568565</v>
       </c>
       <c r="D4" t="n">
         <v>-2.083333333333333</v>
       </c>
       <c r="E4" t="n">
+        <v>2.225238451497916</v>
+      </c>
+      <c r="F4" t="n">
         <v>5.322877510363931</v>
       </c>
-      <c r="F4" t="n">
-        <v>-7.944596314688561</v>
-      </c>
       <c r="G4" t="n">
-        <v>-7.845534348603534</v>
+        <v>21.5825154690724</v>
       </c>
       <c r="H4" t="n">
+        <v>-7.841015726920441</v>
+      </c>
+      <c r="I4" t="n">
         <v>-8.631864650205085</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.194780238506205</v>
       </c>
       <c r="J4" t="n">
         <v>16.48141288757324</v>
       </c>
       <c r="K4" t="n">
-        <v>11.76738170747148</v>
+        <v>13.60259799769349</v>
       </c>
       <c r="L4" t="n">
-        <v>22.47820974133444</v>
+        <v>25.86842486862712</v>
       </c>
       <c r="M4" t="n">
-        <v>75.56090470415165</v>
+        <v>75.56090470414028</v>
       </c>
     </row>
     <row r="5">
@@ -12922,37 +12900,37 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>3.19576367683539</v>
+        <v>3.196557897488409</v>
       </c>
       <c r="D5" t="n">
         <v>1.258333333333333</v>
       </c>
       <c r="E5" t="n">
+        <v>2.280529279918223</v>
+      </c>
+      <c r="F5" t="n">
         <v>-1.709188667239948</v>
       </c>
-      <c r="F5" t="n">
-        <v>-5.175483504567413</v>
-      </c>
       <c r="G5" t="n">
-        <v>-9.047158597135009</v>
+        <v>12.8404792669534</v>
       </c>
       <c r="H5" t="n">
+        <v>-9.041240413193128</v>
+      </c>
+      <c r="I5" t="n">
         <v>6.280099472428866</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.201776692388094</v>
       </c>
       <c r="J5" t="n">
         <v>25.38899803161621</v>
       </c>
       <c r="K5" t="n">
-        <v>15.63570721695997</v>
+        <v>16.76396761363472</v>
       </c>
       <c r="L5" t="n">
-        <v>29.39746299070928</v>
+        <v>31.88306532575156</v>
       </c>
       <c r="M5" t="n">
-        <v>90.17210879985987</v>
+        <v>90.17210879984805</v>
       </c>
     </row>
     <row r="6">
@@ -12963,37 +12941,37 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.081708188529467</v>
+        <v>-8.080981036787238</v>
       </c>
       <c r="D6" t="n">
         <v>0.6083333333333343</v>
       </c>
       <c r="E6" t="n">
+        <v>2.261247985254395</v>
+      </c>
+      <c r="F6" t="n">
         <v>-6.473042146245264</v>
       </c>
-      <c r="F6" t="n">
-        <v>-6.994715105182423</v>
-      </c>
       <c r="G6" t="n">
-        <v>-8.133379244108287</v>
+        <v>-34.48894868457844</v>
       </c>
       <c r="H6" t="n">
+        <v>-8.125843684894148</v>
+      </c>
+      <c r="I6" t="n">
         <v>-23.86272803408155</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-37.2065049487238</v>
       </c>
       <c r="J6" t="n">
         <v>-52.32772064208984</v>
       </c>
       <c r="K6" t="n">
-        <v>9.536447466653021</v>
+        <v>10.66809368375707</v>
       </c>
       <c r="L6" t="n">
-        <v>25.58946742426174</v>
+        <v>28.67503083831915</v>
       </c>
       <c r="M6" t="n">
-        <v>91.84482556649709</v>
+        <v>91.84482556649027</v>
       </c>
     </row>
     <row r="7">
@@ -13004,37 +12982,37 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.672632631402454</v>
+        <v>2.673364871093789</v>
       </c>
       <c r="D7" t="n">
         <v>-0.3250000000000005</v>
       </c>
       <c r="E7" t="n">
+        <v>2.163277862898674</v>
+      </c>
+      <c r="F7" t="n">
         <v>-3.72466142144948</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.796133865820049</v>
-      </c>
       <c r="G7" t="n">
-        <v>-5.22430310058316</v>
+        <v>-12.08684589180388</v>
       </c>
       <c r="H7" t="n">
+        <v>-5.21536473838909</v>
+      </c>
+      <c r="I7" t="n">
         <v>-14.54681081485071</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-11.28477576828581</v>
       </c>
       <c r="J7" t="n">
         <v>-22.26231384277344</v>
       </c>
       <c r="K7" t="n">
-        <v>20.02196908114556</v>
+        <v>19.41701976587477</v>
       </c>
       <c r="L7" t="n">
-        <v>40.92484310854084</v>
+        <v>41.3808018541284</v>
       </c>
       <c r="M7" t="n">
-        <v>119.3057628284</v>
+        <v>119.3057628283927</v>
       </c>
     </row>
     <row r="8">
@@ -13045,37 +13023,37 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
-        <v>2.516875663985906</v>
+        <v>2.517600936004953</v>
       </c>
       <c r="D8" t="n">
         <v>-1.158333333333335</v>
       </c>
       <c r="E8" t="n">
+        <v>2.093814179280241</v>
+      </c>
+      <c r="F8" t="n">
         <v>-7.070377187854572</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.578177215948296</v>
-      </c>
       <c r="G8" t="n">
-        <v>-1.20171949847721</v>
+        <v>-6.165486288186339</v>
       </c>
       <c r="H8" t="n">
+        <v>-1.191967831978312</v>
+      </c>
+      <c r="I8" t="n">
         <v>-3.305977486910558</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-19.45527158662552</v>
       </c>
       <c r="J8" t="n">
         <v>-7.536753177642822</v>
       </c>
       <c r="K8" t="n">
-        <v>24.40409134716925</v>
+        <v>23.82124595277378</v>
       </c>
       <c r="L8" t="n">
-        <v>48.4878157210544</v>
+        <v>47.99326979950291</v>
       </c>
       <c r="M8" t="n">
-        <v>139.368394283229</v>
+        <v>139.3683942832236</v>
       </c>
     </row>
     <row r="9">
@@ -13086,37 +13064,37 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.850995003828175</v>
+        <v>-4.850265815822934</v>
       </c>
       <c r="D9" t="n">
         <v>5.5</v>
       </c>
       <c r="E9" t="n">
+        <v>2.092950450063605</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.221273910068808</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.39060333253468</v>
-      </c>
       <c r="G9" t="n">
-        <v>2.860298183020452</v>
+        <v>-3.462319762350289</v>
       </c>
       <c r="H9" t="n">
+        <v>2.870048400161512</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.386111565317465</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-8.158702623272282</v>
       </c>
       <c r="J9" t="n">
         <v>-15.8209171295166</v>
       </c>
       <c r="K9" t="n">
-        <v>28.79222047243011</v>
+        <v>27.99026701367953</v>
       </c>
       <c r="L9" t="n">
-        <v>50.64166699498539</v>
+        <v>50.54269243016208</v>
       </c>
       <c r="M9" t="n">
-        <v>154.3853926562497</v>
+        <v>154.3853926562456</v>
       </c>
     </row>
     <row r="10">
@@ -13127,37 +13105,37 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>16.63362094848771</v>
+        <v>16.63434728837898</v>
       </c>
       <c r="D10" t="n">
         <v>5.641666666666667</v>
       </c>
       <c r="E10" t="n">
+        <v>1.894517698883257</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.531279501222999</v>
       </c>
-      <c r="F10" t="n">
-        <v>7.900034471960988</v>
-      </c>
       <c r="G10" t="n">
-        <v>5.989371306095128</v>
+        <v>57.72367596724343</v>
       </c>
       <c r="H10" t="n">
+        <v>5.998311786999068</v>
+      </c>
+      <c r="I10" t="n">
         <v>27.50717832543545</v>
-      </c>
-      <c r="I10" t="n">
-        <v>39.38495784544635</v>
       </c>
       <c r="J10" t="n">
         <v>38.74528884887695</v>
       </c>
       <c r="K10" t="n">
-        <v>43.97514465037251</v>
+        <v>42.05175839868278</v>
       </c>
       <c r="L10" t="n">
-        <v>72.26300626549484</v>
+        <v>70.26140945443177</v>
       </c>
       <c r="M10" t="n">
-        <v>192.2553633760358</v>
+        <v>192.2553633760331</v>
       </c>
     </row>
     <row r="11">
@@ -13168,37 +13146,37 @@
         <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.357271503089157</v>
+        <v>-8.356541574578557</v>
       </c>
       <c r="D11" t="n">
         <v>3.516666666666664</v>
       </c>
       <c r="E11" t="n">
+        <v>1.999381330501612</v>
+      </c>
+      <c r="F11" t="n">
         <v>3.532457192702039</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.009605425440931903</v>
-      </c>
       <c r="G11" t="n">
-        <v>7.12877443819905</v>
+        <v>5.547440815821135</v>
       </c>
       <c r="H11" t="n">
+        <v>7.136310365204039</v>
+      </c>
+      <c r="I11" t="n">
         <v>16.04297785250718</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-4.682902959652433</v>
       </c>
       <c r="J11" t="n">
         <v>-3.94494104385376</v>
       </c>
       <c r="K11" t="n">
-        <v>34.9137242749744</v>
+        <v>34.63167687648264</v>
       </c>
       <c r="L11" t="n">
-        <v>59.97331454817368</v>
+        <v>60.63681649269517</v>
       </c>
       <c r="M11" t="n">
-        <v>188.2676097221693</v>
+        <v>188.2676097221624</v>
       </c>
     </row>
     <row r="12">
@@ -13209,37 +13187,37 @@
         <v>10.19999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.897779901679099</v>
+        <v>9.898507512184409</v>
       </c>
       <c r="D12" t="n">
         <v>2.991666666666667</v>
       </c>
       <c r="E12" t="n">
+        <v>2.096833828433665</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.720121298662021</v>
       </c>
-      <c r="F12" t="n">
-        <v>5.326766680769779</v>
-      </c>
       <c r="G12" t="n">
-        <v>6.237779272367629</v>
+        <v>13.67592199063574</v>
       </c>
       <c r="H12" t="n">
+        <v>6.243696086987129</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.789853163569622</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22.39548443028838</v>
       </c>
       <c r="J12" t="n">
         <v>23.78001976013184</v>
       </c>
       <c r="K12" t="n">
-        <v>45.48938999392537</v>
+        <v>43.39172179887505</v>
       </c>
       <c r="L12" t="n">
-        <v>78.41209684455085</v>
+        <v>77.33569509727332</v>
       </c>
       <c r="M12" t="n">
-        <v>220.0117439512037</v>
+        <v>220.0117439512019</v>
       </c>
     </row>
     <row r="13">
@@ -13250,37 +13228,37 @@
         <v>8.600000000000023</v>
       </c>
       <c r="C13" t="n">
-        <v>10.28546549987908</v>
+        <v>10.28535560776018</v>
       </c>
       <c r="D13" t="n">
         <v>2.408333333333335</v>
       </c>
       <c r="E13" t="n">
+        <v>1.718607513334995</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.08592920740048182</v>
       </c>
-      <c r="F13" t="n">
-        <v>9.487472329621806</v>
-      </c>
       <c r="G13" t="n">
-        <v>2.882627174536632</v>
+        <v>-5.818075717135242</v>
       </c>
       <c r="H13" t="n">
+        <v>2.887142794722719</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.3338760690406671</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8310221158028784</v>
       </c>
       <c r="J13" t="n">
         <v>-4.192923545837402</v>
       </c>
       <c r="K13" t="n">
-        <v>-13.78089172160723</v>
+        <v>-14.83732649373442</v>
       </c>
       <c r="L13" t="n">
-        <v>-26.1744773754597</v>
+        <v>-28.76413561159145</v>
       </c>
       <c r="M13" t="n">
-        <v>-98.29636995587998</v>
+        <v>-98.29636995586952</v>
       </c>
     </row>
   </sheetData>
@@ -13320,27 +13298,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>silverkite</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -13369,37 +13347,37 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>159.2158558600088</v>
+        <v>159.1933549763537</v>
       </c>
       <c r="C2" t="n">
         <v>154.5583333333333</v>
       </c>
       <c r="D2" t="n">
+        <v>153.6030622343002</v>
+      </c>
+      <c r="E2" t="n">
         <v>157.8220479196293</v>
       </c>
-      <c r="E2" t="n">
-        <v>155.9374246164475</v>
-      </c>
       <c r="F2" t="n">
-        <v>155.7359013246499</v>
+        <v>155.276595293886</v>
       </c>
       <c r="G2" t="n">
+        <v>155.7358365917999</v>
+      </c>
+      <c r="H2" t="n">
         <v>148.5055401380118</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156.2663629270864</v>
       </c>
       <c r="I2" t="n">
         <v>156.679271030426</v>
       </c>
       <c r="J2" t="n">
-        <v>156.750866114214</v>
+        <v>156.1930834958303</v>
       </c>
       <c r="K2" t="n">
-        <v>157.7400883884593</v>
+        <v>156.9544672998584</v>
       </c>
       <c r="L2" t="n">
-        <v>158.0669846889217</v>
+        <v>158.0669846889212</v>
       </c>
     </row>
     <row r="3">
@@ -13407,37 +13385,37 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>154.374727059395</v>
+        <v>154.3513003526714</v>
       </c>
       <c r="C3" t="n">
         <v>151.1083333333333</v>
       </c>
       <c r="D3" t="n">
+        <v>150.230076809033</v>
+      </c>
+      <c r="E3" t="n">
         <v>154.7603316159534</v>
       </c>
-      <c r="E3" t="n">
-        <v>153.5764233140827</v>
-      </c>
       <c r="F3" t="n">
-        <v>152.1561011688114</v>
+        <v>151.148748645982</v>
       </c>
       <c r="G3" t="n">
+        <v>152.1560034239677</v>
+      </c>
+      <c r="H3" t="n">
         <v>146.5031239057099</v>
-      </c>
-      <c r="H3" t="n">
-        <v>152.3233703545459</v>
       </c>
       <c r="I3" t="n">
         <v>152.7148955345154</v>
       </c>
       <c r="J3" t="n">
-        <v>153.259882577051</v>
+        <v>152.5399390775411</v>
       </c>
       <c r="K3" t="n">
-        <v>154.1126891616962</v>
+        <v>152.9894314244386</v>
       </c>
       <c r="L3" t="n">
-        <v>154.386917111611</v>
+        <v>154.3869171116115</v>
       </c>
     </row>
     <row r="4">
@@ -13445,34 +13423,34 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>152.9924953440912</v>
+        <v>152.9557932946433</v>
       </c>
       <c r="C4" t="n">
         <v>152.775</v>
       </c>
       <c r="D4" t="n">
+        <v>147.4373026872851</v>
+      </c>
+      <c r="E4" t="n">
         <v>160.0832091263173</v>
       </c>
-      <c r="E4" t="n">
-        <v>149.5820446496929</v>
-      </c>
       <c r="F4" t="n">
-        <v>146.1224054411499</v>
+        <v>151.5267197551658</v>
       </c>
       <c r="G4" t="n">
+        <v>146.1222226407837</v>
+      </c>
+      <c r="H4" t="n">
         <v>139.4780515071026</v>
-      </c>
-      <c r="H4" t="n">
-        <v>152.2242807152071</v>
       </c>
       <c r="I4" t="n">
         <v>154.4187964677811</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1795624802974</v>
+        <v>150.6540802559771</v>
       </c>
       <c r="K4" t="n">
-        <v>150.4140032767496</v>
+        <v>149.6868552727977</v>
       </c>
       <c r="L4" t="n">
         <v>148.6674698364648</v>
@@ -13483,34 +13461,34 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>154.6416150222585</v>
+        <v>154.5897046669394</v>
       </c>
       <c r="C5" t="n">
         <v>150.7333333333333</v>
       </c>
       <c r="D5" t="n">
+        <v>144.4213982883196</v>
+      </c>
+      <c r="E5" t="n">
         <v>158.3740204590774</v>
       </c>
-      <c r="E5" t="n">
-        <v>145.8207841195335</v>
-      </c>
       <c r="F5" t="n">
-        <v>140.2074588925843</v>
+        <v>152.7328995548391</v>
       </c>
       <c r="G5" t="n">
+        <v>140.2071098855771</v>
+      </c>
+      <c r="H5" t="n">
         <v>144.3088045227086</v>
-      </c>
-      <c r="H5" t="n">
-        <v>153.6730587006597</v>
       </c>
       <c r="I5" t="n">
         <v>158.7010707139969</v>
       </c>
       <c r="J5" t="n">
-        <v>148.7342194879935</v>
+        <v>148.4125058489592</v>
       </c>
       <c r="K5" t="n">
-        <v>147.8733283738354</v>
+        <v>147.3895629783244</v>
       </c>
       <c r="L5" t="n">
         <v>143.1575859797143</v>
@@ -13521,34 +13499,34 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>144.781984952229</v>
+        <v>144.7388982029791</v>
       </c>
       <c r="C6" t="n">
         <v>141.8833333333334</v>
       </c>
       <c r="D6" t="n">
+        <v>135.3638689012388</v>
+      </c>
+      <c r="E6" t="n">
         <v>151.9009783128321</v>
       </c>
-      <c r="E6" t="n">
-        <v>134.7420020775704</v>
-      </c>
       <c r="F6" t="n">
-        <v>131.7068618134347</v>
+        <v>141.722251231795</v>
       </c>
       <c r="G6" t="n">
+        <v>131.7062908896642</v>
+      </c>
+      <c r="H6" t="n">
         <v>122.5985977311986</v>
-      </c>
-      <c r="H6" t="n">
-        <v>144.3258776460962</v>
       </c>
       <c r="I6" t="n">
         <v>146.8686646699906</v>
       </c>
       <c r="J6" t="n">
-        <v>138.181005787855</v>
+        <v>138.0842864593054</v>
       </c>
       <c r="K6" t="n">
-        <v>135.9496480674358</v>
+        <v>136.1425747589087</v>
       </c>
       <c r="L6" t="n">
         <v>128.3249571725081</v>
@@ -13559,34 +13537,34 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>146.0427835111643</v>
+        <v>146.0092676876537</v>
       </c>
       <c r="C7" t="n">
         <v>137.4333333333333</v>
       </c>
       <c r="D7" t="n">
+        <v>131.2481008911306</v>
+      </c>
+      <c r="E7" t="n">
         <v>148.1763168913826</v>
       </c>
-      <c r="E7" t="n">
-        <v>130.759995446308</v>
-      </c>
       <c r="F7" t="n">
-        <v>128.3658569903998</v>
+        <v>136.396455536467</v>
       </c>
       <c r="G7" t="n">
+        <v>128.3649676104336</v>
+      </c>
+      <c r="H7" t="n">
         <v>107.5874561757163</v>
-      </c>
-      <c r="H7" t="n">
-        <v>136.8115140130039</v>
       </c>
       <c r="I7" t="n">
         <v>140.2555970430374</v>
       </c>
       <c r="J7" t="n">
-        <v>134.6169263305593</v>
+        <v>134.4425040509041</v>
       </c>
       <c r="K7" t="n">
-        <v>133.5395500639779</v>
+        <v>133.6910799377486</v>
       </c>
       <c r="L7" t="n">
         <v>123.8158712344614</v>
@@ -13597,34 +13575,34 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>147.170888672406</v>
+        <v>147.1293765684956</v>
       </c>
       <c r="C8" t="n">
         <v>138.925</v>
       </c>
       <c r="D8" t="n">
+        <v>128.3694547633933</v>
+      </c>
+      <c r="E8" t="n">
         <v>141.1059397035281</v>
       </c>
-      <c r="E8" t="n">
-        <v>128.7965450661663</v>
-      </c>
       <c r="F8" t="n">
-        <v>128.3537010643772</v>
+        <v>134.2341098244769</v>
       </c>
       <c r="G8" t="n">
+        <v>128.3524429482826</v>
+      </c>
+      <c r="H8" t="n">
         <v>103.5476289921068</v>
-      </c>
-      <c r="H8" t="n">
-        <v>136.810447490585</v>
       </c>
       <c r="I8" t="n">
         <v>140.9599135398865</v>
       </c>
       <c r="J8" t="n">
-        <v>133.5445330345736</v>
+        <v>133.1079003044515</v>
       </c>
       <c r="K8" t="n">
-        <v>133.0001191582415</v>
+        <v>132.8439183560137</v>
       </c>
       <c r="L8" t="n">
         <v>123.0329237361523</v>
@@ -13635,37 +13613,37 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>140.9053319727159</v>
+        <v>140.8811479542284</v>
       </c>
       <c r="C9" t="n">
         <v>140.0166666666667</v>
       </c>
       <c r="D9" t="n">
+        <v>125.5901734632342</v>
+      </c>
+      <c r="E9" t="n">
         <v>144.3272136135969</v>
       </c>
-      <c r="E9" t="n">
-        <v>124.7001385359541</v>
-      </c>
       <c r="F9" t="n">
-        <v>129.5097021068528</v>
+        <v>134.5392747560334</v>
       </c>
       <c r="G9" t="n">
+        <v>129.5081015786041</v>
+      </c>
+      <c r="H9" t="n">
         <v>106.3198554387913</v>
-      </c>
-      <c r="H9" t="n">
-        <v>136.680864664591</v>
       </c>
       <c r="I9" t="n">
         <v>136.3266628265381</v>
       </c>
       <c r="J9" t="n">
-        <v>131.8747089130425</v>
+        <v>131.6843425616801</v>
       </c>
       <c r="K9" t="n">
-        <v>128.5496138818307</v>
+        <v>128.8382308514284</v>
       </c>
       <c r="L9" t="n">
-        <v>120.0433711368221</v>
+        <v>120.0433711368226</v>
       </c>
     </row>
     <row r="10">
@@ -13673,37 +13651,37 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>156.640479346683</v>
+        <v>156.6105924454848</v>
       </c>
       <c r="C10" t="n">
         <v>153.4916666666667</v>
       </c>
       <c r="D10" t="n">
+        <v>138.9678749137668</v>
+      </c>
+      <c r="E10" t="n">
         <v>147.8584931148199</v>
       </c>
-      <c r="E10" t="n">
-        <v>139.3516132385091</v>
-      </c>
       <c r="F10" t="n">
-        <v>138.3759973971932</v>
+        <v>155.5156204436604</v>
       </c>
       <c r="G10" t="n">
+        <v>138.3740321996159</v>
+      </c>
+      <c r="H10" t="n">
         <v>136.0148467802387</v>
-      </c>
-      <c r="H10" t="n">
-        <v>162.3879048866735</v>
       </c>
       <c r="I10" t="n">
         <v>158.9868534088135</v>
       </c>
       <c r="J10" t="n">
-        <v>145.8485424577991</v>
+        <v>145.3559766912997</v>
       </c>
       <c r="K10" t="n">
-        <v>144.5951730690888</v>
+        <v>144.4572979937756</v>
       </c>
       <c r="L10" t="n">
-        <v>137.7934266220744</v>
+        <v>137.7934266220753</v>
       </c>
     </row>
     <row r="11">
@@ -13711,37 +13689,37 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>147.1770554094292</v>
+        <v>147.1374092291097</v>
       </c>
       <c r="C11" t="n">
         <v>160.8</v>
       </c>
       <c r="D11" t="n">
+        <v>141.9208504854455</v>
+      </c>
+      <c r="E11" t="n">
         <v>151.3909503075219</v>
       </c>
-      <c r="E11" t="n">
-        <v>137.2371818771719</v>
-      </c>
       <c r="F11" t="n">
-        <v>142.0022940455102</v>
+        <v>156.9589389878068</v>
       </c>
       <c r="G11" t="n">
+        <v>142.0001086367726</v>
+      </c>
+      <c r="H11" t="n">
         <v>150.9218202608018</v>
-      </c>
-      <c r="H11" t="n">
-        <v>161.555567248144</v>
       </c>
       <c r="I11" t="n">
         <v>157.3354191064835</v>
       </c>
       <c r="J11" t="n">
-        <v>145.7223241594582</v>
+        <v>146.3932973450408</v>
       </c>
       <c r="K11" t="n">
-        <v>140.1354933077519</v>
+        <v>141.6835007837369</v>
       </c>
       <c r="L11" t="n">
-        <v>135.9922426366546</v>
+        <v>135.9922426366555</v>
       </c>
     </row>
     <row r="12">
@@ -13749,37 +13727,37 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>155.6259125849145</v>
+        <v>155.603627212717</v>
       </c>
       <c r="C12" t="n">
         <v>161.275</v>
       </c>
       <c r="D12" t="n">
+        <v>150.1853309092155</v>
+      </c>
+      <c r="E12" t="n">
         <v>153.1110716061839</v>
       </c>
-      <c r="E12" t="n">
-        <v>149.6216881657127</v>
-      </c>
       <c r="F12" t="n">
-        <v>150.0085630915861</v>
+        <v>163.1161984714344</v>
       </c>
       <c r="G12" t="n">
+        <v>150.0062108641862</v>
+      </c>
+      <c r="H12" t="n">
         <v>156.7873180776919</v>
-      </c>
-      <c r="H12" t="n">
-        <v>169.3842393961831</v>
       </c>
       <c r="I12" t="n">
         <v>164.1495517969132</v>
       </c>
       <c r="J12" t="n">
-        <v>153.7879211991941</v>
+        <v>153.6270852633481</v>
       </c>
       <c r="K12" t="n">
-        <v>151.6517707125989</v>
+        <v>151.8322231697011</v>
       </c>
       <c r="L12" t="n">
-        <v>149.7077113871695</v>
+        <v>149.7077113871708</v>
       </c>
     </row>
     <row r="13">
@@ -13787,37 +13765,37 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>165.9711285746442</v>
+        <v>165.9146606532113</v>
       </c>
       <c r="C13" t="n">
         <v>162.2666666666667</v>
       </c>
       <c r="D13" t="n">
+        <v>152.4859588594391</v>
+      </c>
+      <c r="E13" t="n">
         <v>153.0251423987834</v>
       </c>
-      <c r="E13" t="n">
-        <v>158.7686500894384</v>
-      </c>
       <c r="F13" t="n">
-        <v>156.9554431280367</v>
+        <v>163.7232913902112</v>
       </c>
       <c r="G13" t="n">
+        <v>156.9529876311977</v>
+      </c>
+      <c r="H13" t="n">
         <v>155.2175788909178</v>
-      </c>
-      <c r="H13" t="n">
-        <v>172.2874067972292</v>
       </c>
       <c r="I13" t="n">
         <v>166.7135009050369</v>
       </c>
       <c r="J13" t="n">
-        <v>160.5735198986316</v>
+        <v>158.9893767071765</v>
       </c>
       <c r="K13" t="n">
-        <v>162.1818835474553</v>
+        <v>160.0688304969783</v>
       </c>
       <c r="L13" t="n">
-        <v>161.8058719782833</v>
+        <v>161.8058719782846</v>
       </c>
     </row>
     <row r="14">
@@ -13825,37 +13803,37 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>172.5119477283596</v>
+        <v>172.4468178305372</v>
       </c>
       <c r="C14" t="n">
         <v>162.8916666666667</v>
       </c>
       <c r="D14" t="n">
+        <v>151.3968514962331</v>
+      </c>
+      <c r="E14" t="n">
         <v>156.5610566858272</v>
       </c>
-      <c r="E14" t="n">
-        <v>162.2522689649614</v>
-      </c>
       <c r="F14" t="n">
-        <v>159.5332833166132</v>
+        <v>163.9629015245193</v>
       </c>
       <c r="G14" t="n">
+        <v>159.5307719146462</v>
+      </c>
+      <c r="H14" t="n">
         <v>150.6604362021833</v>
-      </c>
-      <c r="H14" t="n">
-        <v>170.7674730649164</v>
       </c>
       <c r="I14" t="n">
         <v>168.3111711025238</v>
       </c>
       <c r="J14" t="n">
-        <v>164.0082869402302</v>
+        <v>161.5564444507908</v>
       </c>
       <c r="K14" t="n">
-        <v>167.2793745660292</v>
+        <v>163.6391921105125</v>
       </c>
       <c r="L14" t="n">
-        <v>167.0739070047665</v>
+        <v>167.0739070047674</v>
       </c>
     </row>
     <row r="15">
@@ -13863,37 +13841,37 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>166.0078155375874</v>
+        <v>165.9445061551207</v>
       </c>
       <c r="C15" t="n">
         <v>158.7083333333333</v>
       </c>
       <c r="D15" t="n">
+        <v>148.3887864737359</v>
+      </c>
+      <c r="E15" t="n">
         <v>156.6833277373912</v>
       </c>
-      <c r="E15" t="n">
-        <v>158.1443446468306</v>
-      </c>
       <c r="F15" t="n">
-        <v>154.6436962302429</v>
+        <v>157.8425166581452</v>
       </c>
       <c r="G15" t="n">
+        <v>154.6411516225435</v>
+      </c>
+      <c r="H15" t="n">
         <v>148.4338240526654</v>
-      </c>
-      <c r="H15" t="n">
-        <v>168.3749717367159</v>
       </c>
       <c r="I15" t="n">
         <v>167.3434287786484</v>
       </c>
       <c r="J15" t="n">
-        <v>159.6688817438985</v>
+        <v>157.4056251126449</v>
       </c>
       <c r="K15" t="n">
-        <v>161.659950638253</v>
+        <v>158.3869947863998</v>
       </c>
       <c r="L15" t="n">
-        <v>160.8276917303409</v>
+        <v>160.8276917303427</v>
       </c>
     </row>
     <row r="16">
@@ -13901,37 +13879,37 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>166.1418402477195</v>
+        <v>166.0598631672464</v>
       </c>
       <c r="C16" t="n">
         <v>159.2</v>
       </c>
       <c r="D16" t="n">
+        <v>145.8134105984171</v>
+      </c>
+      <c r="E16" t="n">
         <v>160.2215974073929</v>
       </c>
-      <c r="E16" t="n">
-        <v>154.4974951384258</v>
-      </c>
       <c r="F16" t="n">
-        <v>148.9119384278659</v>
+        <v>157.5549052766665</v>
       </c>
       <c r="G16" t="n">
+        <v>148.9093069386325</v>
+      </c>
+      <c r="H16" t="n">
         <v>142.6592510652843</v>
-      </c>
-      <c r="H16" t="n">
-        <v>165.1507351982258</v>
       </c>
       <c r="I16" t="n">
         <v>164.8765556097031</v>
       </c>
       <c r="J16" t="n">
-        <v>157.1646770896508</v>
+        <v>155.1415621906002</v>
       </c>
       <c r="K16" t="n">
-        <v>158.1050018632357</v>
+        <v>155.1829813230757</v>
       </c>
       <c r="L16" t="n">
-        <v>153.6756702035617</v>
+        <v>153.6756702035635</v>
       </c>
     </row>
     <row r="17">
@@ -13939,37 +13917,37 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>167.0592855368095</v>
+        <v>166.9543020933737</v>
       </c>
       <c r="C17" t="n">
         <v>157.65</v>
       </c>
       <c r="D17" t="n">
+        <v>142.4848993133494</v>
+      </c>
+      <c r="E17" t="n">
         <v>158.5262751075675</v>
       </c>
-      <c r="E17" t="n">
-        <v>149.3278037495293</v>
-      </c>
       <c r="F17" t="n">
-        <v>142.1868350545454</v>
+        <v>158.7610850763398</v>
       </c>
       <c r="G17" t="n">
+        <v>142.184025463868</v>
+      </c>
+      <c r="H17" t="n">
         <v>146.0287304882584</v>
-      </c>
-      <c r="H17" t="n">
-        <v>166.5995131836784</v>
       </c>
       <c r="I17" t="n">
         <v>165.3600322782993</v>
       </c>
       <c r="J17" t="n">
-        <v>153.6357765364823</v>
+        <v>151.9770997238302</v>
       </c>
       <c r="K17" t="n">
-        <v>153.8213622828717</v>
+        <v>151.5053996563337</v>
       </c>
       <c r="L17" t="n">
-        <v>145.0769975622764</v>
+        <v>145.0769975622778</v>
       </c>
     </row>
     <row r="18">
@@ -13977,37 +13955,37 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>158.1066790286792</v>
+        <v>158.0148357430189</v>
       </c>
       <c r="C18" t="n">
         <v>148.8</v>
       </c>
       <c r="D18" t="n">
+        <v>134.0392859076696</v>
+      </c>
+      <c r="E18" t="n">
         <v>152.0670993287367</v>
       </c>
-      <c r="E18" t="n">
-        <v>138.6431365570991</v>
-      </c>
       <c r="F18" t="n">
-        <v>134.0362434778351</v>
+        <v>150.2865540327782</v>
       </c>
       <c r="G18" t="n">
+        <v>134.0331727010957</v>
+      </c>
+      <c r="H18" t="n">
         <v>126.2165811321934</v>
-      </c>
-      <c r="H18" t="n">
-        <v>157.7380084477903</v>
       </c>
       <c r="I18" t="n">
         <v>155.4965354979038</v>
       </c>
       <c r="J18" t="n">
-        <v>143.4403511030694</v>
+        <v>142.1150311721467</v>
       </c>
       <c r="K18" t="n">
-        <v>142.3089723840106</v>
+        <v>140.7437410723145</v>
       </c>
       <c r="L18" t="n">
-        <v>130.1771015662537</v>
+        <v>130.1771015662551</v>
       </c>
     </row>
     <row r="19">
@@ -14015,37 +13993,37 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>158.8308415425354</v>
+        <v>158.7500252523933</v>
       </c>
       <c r="C19" t="n">
         <v>142.4833333333333</v>
       </c>
       <c r="D19" t="n">
+        <v>128.6240496982302</v>
+      </c>
+      <c r="E19" t="n">
         <v>148.3563042747017</v>
       </c>
-      <c r="E19" t="n">
-        <v>133.0793665235082</v>
-      </c>
       <c r="F19" t="n">
-        <v>129.878117703358</v>
+        <v>143.285518915413</v>
       </c>
       <c r="G19" t="n">
+        <v>129.874688235417</v>
+      </c>
+      <c r="H19" t="n">
         <v>109.9740225775157</v>
-      </c>
-      <c r="H19" t="n">
-        <v>147.9226329306402</v>
       </c>
       <c r="I19" t="n">
         <v>145.6532556593418</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7476071359346</v>
+        <v>137.4018054400273</v>
       </c>
       <c r="K19" t="n">
-        <v>138.7693698340773</v>
+        <v>137.2573254622711</v>
       </c>
       <c r="L19" t="n">
-        <v>124.3979014361883</v>
+        <v>124.3979014361897</v>
       </c>
     </row>
     <row r="20">
@@ -14053,37 +14031,37 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>158.9193217395518</v>
+        <v>158.8286509064471</v>
       </c>
       <c r="C20" t="n">
         <v>143.975</v>
       </c>
       <c r="D20" t="n">
+        <v>124.8996184106899</v>
+      </c>
+      <c r="E20" t="n">
         <v>148.5523152726401</v>
       </c>
-      <c r="E20" t="n">
-        <v>129.8741191809577</v>
-      </c>
       <c r="F20" t="n">
-        <v>129.3984355689329</v>
+        <v>141.1231732034229</v>
       </c>
       <c r="G20" t="n">
+        <v>129.3945918777231</v>
+      </c>
+      <c r="H20" t="n">
         <v>104.7870413243681</v>
-      </c>
-      <c r="H20" t="n">
-        <v>148.1189376525948</v>
       </c>
       <c r="I20" t="n">
         <v>146.6264689743519</v>
       </c>
       <c r="J20" t="n">
-        <v>138.0318938369366</v>
+        <v>136.4803791590172</v>
       </c>
       <c r="K20" t="n">
-        <v>137.3582704925042</v>
+        <v>135.6698799580472</v>
       </c>
       <c r="L20" t="n">
-        <v>123.2813705570032</v>
+        <v>123.2813705570045</v>
       </c>
     </row>
     <row r="21">
@@ -14091,37 +14069,37 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>152.2048462836075</v>
+        <v>152.1384416383071</v>
       </c>
       <c r="C21" t="n">
         <v>146.0166666666667</v>
       </c>
       <c r="D21" t="n">
+        <v>124.361412877388</v>
+      </c>
+      <c r="E21" t="n">
         <v>152.0963974199417</v>
       </c>
-      <c r="E21" t="n">
-        <v>126.8434259287478</v>
-      </c>
       <c r="F21" t="n">
-        <v>130.9600097685568</v>
+        <v>146.7128743865612</v>
       </c>
       <c r="G21" t="n">
+        <v>130.9557650391314</v>
+      </c>
+      <c r="H21" t="n">
         <v>107.440831005835</v>
-      </c>
-      <c r="H21" t="n">
-        <v>153.1590958422015</v>
       </c>
       <c r="I21" t="n">
         <v>148.009799438715</v>
       </c>
       <c r="J21" t="n">
-        <v>137.2681218095661</v>
+        <v>136.160368317949</v>
       </c>
       <c r="K21" t="n">
-        <v>133.6459704398868</v>
+        <v>132.7964978743342</v>
       </c>
       <c r="L21" t="n">
-        <v>121.8896391073052</v>
+        <v>121.8896391073075</v>
       </c>
     </row>
     <row r="22">
@@ -14129,37 +14107,37 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>171.7548380419746</v>
+        <v>171.680883983656</v>
       </c>
       <c r="C22" t="n">
         <v>156.8</v>
       </c>
       <c r="D22" t="n">
+        <v>133.9792283461992</v>
+      </c>
+      <c r="E22" t="n">
         <v>155.6415432885792</v>
       </c>
-      <c r="E22" t="n">
-        <v>142.8411413148303</v>
-      </c>
       <c r="F22" t="n">
-        <v>141.3337197810457</v>
+        <v>167.8535511412506</v>
       </c>
       <c r="G22" t="n">
+        <v>141.3290826169213</v>
+      </c>
+      <c r="H22" t="n">
         <v>138.9361858217326</v>
-      </c>
-      <c r="H22" t="n">
-        <v>173.9577978318139</v>
       </c>
       <c r="I22" t="n">
         <v>173.9566511690617</v>
       </c>
       <c r="J22" t="n">
-        <v>152.43512961267</v>
+        <v>150.2650233528158</v>
       </c>
       <c r="K22" t="n">
-        <v>152.372464366226</v>
+        <v>149.3938420239103</v>
       </c>
       <c r="L22" t="n">
-        <v>142.5214137418732</v>
+        <v>142.5214137418755</v>
       </c>
     </row>
     <row r="23">
@@ -14167,37 +14145,37 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>164.6082942859601</v>
+        <v>164.5198338578268</v>
       </c>
       <c r="C23" t="n">
         <v>166.05</v>
       </c>
       <c r="D23" t="n">
+        <v>141.4443349454598</v>
+      </c>
+      <c r="E23" t="n">
         <v>152.6029249339115</v>
       </c>
-      <c r="E23" t="n">
-        <v>145.2858656739557</v>
-      </c>
       <c r="F23" t="n">
-        <v>147.4545558221267</v>
+        <v>175.6618897037523</v>
       </c>
       <c r="G23" t="n">
+        <v>147.4496485439488</v>
+      </c>
+      <c r="H23" t="n">
         <v>152.885124181462</v>
-      </c>
-      <c r="H23" t="n">
-        <v>180.3965405347256</v>
       </c>
       <c r="I23" t="n">
         <v>180.638753849268</v>
       </c>
       <c r="J23" t="n">
-        <v>154.3680700554962</v>
+        <v>153.2887744403386</v>
       </c>
       <c r="K23" t="n">
-        <v>151.4649132361226</v>
+        <v>150.1549161839139</v>
       </c>
       <c r="L23" t="n">
-        <v>144.5005797484521</v>
+        <v>144.5005797484549</v>
       </c>
     </row>
     <row r="24">
@@ -14205,37 +14183,37 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>172.3672176330766</v>
+        <v>172.3070963987486</v>
       </c>
       <c r="C24" t="n">
         <v>166.525</v>
       </c>
       <c r="D24" t="n">
+        <v>148.2596129747028</v>
+      </c>
+      <c r="E24" t="n">
         <v>156.1568233442879</v>
       </c>
-      <c r="E24" t="n">
-        <v>157.5421621865164</v>
-      </c>
       <c r="F24" t="n">
-        <v>155.1570861561889</v>
+        <v>182.4673070166175</v>
       </c>
       <c r="G24" t="n">
+        <v>155.1519930604816</v>
+      </c>
+      <c r="H24" t="n">
         <v>159.5765474204187</v>
-      </c>
-      <c r="H24" t="n">
-        <v>188.805479489152</v>
       </c>
       <c r="I24" t="n">
         <v>192.4588775217533</v>
       </c>
       <c r="J24" t="n">
-        <v>162.5971729912712</v>
+        <v>160.4921098824211</v>
       </c>
       <c r="K24" t="n">
-        <v>162.6991444433643</v>
+        <v>159.5849209613181</v>
       </c>
       <c r="L24" t="n">
-        <v>158.1880535105</v>
+        <v>158.1880535105027</v>
       </c>
     </row>
     <row r="25">
@@ -14243,37 +14221,37 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>178.9819394956437</v>
+        <v>178.8699737139059</v>
       </c>
       <c r="C25" t="n">
         <v>168</v>
       </c>
       <c r="D25" t="n">
+        <v>149.7270536111772</v>
+      </c>
+      <c r="E25" t="n">
         <v>159.7054642973147</v>
       </c>
-      <c r="E25" t="n">
-        <v>163.9184680262519</v>
-      </c>
       <c r="F25" t="n">
-        <v>160.2640583191508</v>
+        <v>183.1913231818257</v>
       </c>
       <c r="G25" t="n">
+        <v>160.2588593258037</v>
+      </c>
+      <c r="H25" t="n">
         <v>155.7873150125706</v>
-      </c>
-      <c r="H25" t="n">
-        <v>190.9510224748894</v>
       </c>
       <c r="I25" t="n">
         <v>194.1387730419636</v>
       </c>
       <c r="J25" t="n">
-        <v>167.8416482456466</v>
+        <v>164.685990895658</v>
       </c>
       <c r="K25" t="n">
-        <v>170.0103973279268</v>
+        <v>165.2426039289902</v>
       </c>
       <c r="L25" t="n">
-        <v>167.1307844618848</v>
+        <v>167.1307844618876</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_summaries" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="best_fcst" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_set_predictions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_test_set_predictions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -514,19 +515,19 @@
         <v>0.2583333333333346</v>
       </c>
       <c r="D2" t="n">
-        <v>1.435836591799865</v>
+        <v>1.270009916969054</v>
       </c>
       <c r="E2" t="n">
-        <v>2.379271030426025</v>
+        <v>10.80737686157227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9765952938860029</v>
+        <v>1.27826278584369</v>
       </c>
       <c r="G2" t="n">
-        <v>4.893354976353685</v>
+        <v>4.499209047375788</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6969377656998185</v>
+        <v>-0.8329782321013152</v>
       </c>
       <c r="I2" t="n">
         <v>-5.794459861988171</v>
@@ -535,10 +536,10 @@
         <v>3.522047919629248</v>
       </c>
       <c r="K2" t="n">
-        <v>2.65446729985835</v>
+        <v>1.648164533706054</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8930834958303</v>
+        <v>1.946238340571063</v>
       </c>
     </row>
     <row r="3">
@@ -552,19 +553,19 @@
         <v>-3.449999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.579833167832135</v>
+        <v>-3.613535785515994</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.964375495910645</v>
+        <v>0.4511221349239349</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.127846647904034</v>
+        <v>-1.253610930166673</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.842054623682291</v>
+        <v>-4.396231704963625</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.372985425267153</v>
+        <v>-3.349247421193129</v>
       </c>
       <c r="I3" t="n">
         <v>-2.002416232301968</v>
@@ -573,10 +574,10 @@
         <v>-3.061716303675877</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.965035875419724</v>
+        <v>-2.999696685441143</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.653144418289227</v>
+        <v>-3.097272477241781</v>
       </c>
     </row>
     <row r="4">
@@ -590,19 +591,19 @@
         <v>1.666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.033780783184093</v>
+        <v>-6.071525324962166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.703900933265686</v>
+        <v>4.739393711090088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3779711091838561</v>
+        <v>0.1588471049091813</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.395507058028087</v>
+        <v>-1.626629478330968</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.792774121747967</v>
+        <v>-2.636585669624071</v>
       </c>
       <c r="I4" t="n">
         <v>-7.025072398607217</v>
@@ -611,10 +612,10 @@
         <v>5.322877510363931</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.302576151640901</v>
+        <v>-1.368122681015286</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.885858821563958</v>
+        <v>-1.501727678232446</v>
       </c>
     </row>
     <row r="5">
@@ -628,19 +629,19 @@
         <v>-2.041666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.915112755206569</v>
+        <v>-5.930335529642326</v>
       </c>
       <c r="E5" t="n">
-        <v>4.28227424621582</v>
+        <v>8.035329818725586</v>
       </c>
       <c r="F5" t="n">
-        <v>1.20617979967325</v>
+        <v>1.410871774421102</v>
       </c>
       <c r="G5" t="n">
-        <v>1.633911372296023</v>
+        <v>1.441172003837657</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.015904398965446</v>
+        <v>-2.854629727363269</v>
       </c>
       <c r="I5" t="n">
         <v>4.830753015605916</v>
@@ -649,10 +650,10 @@
         <v>-1.709188667239948</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.297292294473324</v>
+        <v>-0.0008619830348366442</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.241574407017898</v>
+        <v>-1.528059028500398</v>
       </c>
     </row>
     <row r="6">
@@ -666,19 +667,19 @@
         <v>-8.85</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.500818995912937</v>
+        <v>-8.414130264410932</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.83240604400635</v>
+        <v>-1.510663986206055</v>
       </c>
       <c r="F6" t="n">
-        <v>-11.01064832304401</v>
+        <v>-6.86391416304753</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.850806463960213</v>
+        <v>-10.0824282535164</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.057529387080839</v>
+        <v>-8.935193105434985</v>
       </c>
       <c r="I6" t="n">
         <v>-21.71020679150999</v>
@@ -687,10 +688,10 @@
         <v>-6.473042146245264</v>
       </c>
       <c r="K6" t="n">
-        <v>-11.24698821941576</v>
+        <v>-8.627178507332971</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.3282193896538</v>
+        <v>-9.455847967213678</v>
       </c>
     </row>
     <row r="7">
@@ -704,19 +705,19 @@
         <v>-4.450000000000003</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.34132327923053</v>
+        <v>-3.258872668731423</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.613067626953125</v>
+        <v>-6.462928295135498</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.325795695328026</v>
+        <v>-9.062332972477874</v>
       </c>
       <c r="G7" t="n">
-        <v>1.270369484674542</v>
+        <v>1.272984401441768</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.115768010108155</v>
+        <v>-4.095626440229156</v>
       </c>
       <c r="I7" t="n">
         <v>-15.01114155548225</v>
@@ -725,10 +726,10 @@
         <v>-3.72466142144948</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.451494821160074</v>
+        <v>-3.961658337088421</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.641782408401332</v>
+        <v>-4.400812431329789</v>
       </c>
     </row>
     <row r="8">
@@ -742,19 +743,19 @@
         <v>1.491666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01252466215107706</v>
+        <v>0.07610949074176787</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7043164968490601</v>
+        <v>0.1426912993192673</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.162345711990123</v>
+        <v>-0.4090131696339123</v>
       </c>
       <c r="G8" t="n">
-        <v>1.120108880841877</v>
+        <v>0.9405000434582282</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.878646127737246</v>
+        <v>-2.882420259505631</v>
       </c>
       <c r="I8" t="n">
         <v>-4.039827183609478</v>
@@ -763,10 +764,10 @@
         <v>-7.070377187854572</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.8471615817348274</v>
+        <v>-0.7836444618937719</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.33460374645253</v>
+        <v>-1.111512663154885</v>
       </c>
     </row>
     <row r="9">
@@ -780,19 +781,19 @@
         <v>1.091666666666664</v>
       </c>
       <c r="D9" t="n">
-        <v>1.155658630321495</v>
+        <v>1.26904214377371</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.633250713348389</v>
+        <v>5.966415405273438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3051649315565179</v>
+        <v>2.550545877385878</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.248228614267184</v>
+        <v>-6.175377510256047</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.779281300159202</v>
+        <v>-2.41880680799203</v>
       </c>
       <c r="I9" t="n">
         <v>2.772226446684454</v>
@@ -801,10 +802,10 @@
         <v>3.221273910068808</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.005687504585371</v>
+        <v>-2.014546146954066</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.423557742771427</v>
+        <v>-0.6011176272370149</v>
       </c>
     </row>
     <row r="10">
@@ -818,19 +819,19 @@
         <v>13.475</v>
       </c>
       <c r="D10" t="n">
-        <v>8.865930621011874</v>
+        <v>8.873202213102426</v>
       </c>
       <c r="E10" t="n">
-        <v>22.66019058227539</v>
+        <v>19.55795860290527</v>
       </c>
       <c r="F10" t="n">
-        <v>20.97634568762702</v>
+        <v>19.97695713834701</v>
       </c>
       <c r="G10" t="n">
-        <v>15.72944449125641</v>
+        <v>15.15509737475784</v>
       </c>
       <c r="H10" t="n">
-        <v>13.37770145053271</v>
+        <v>12.62909261329934</v>
       </c>
       <c r="I10" t="n">
         <v>29.69499134144737</v>
@@ -839,10 +840,10 @@
         <v>3.531279501222999</v>
       </c>
       <c r="K10" t="n">
-        <v>15.61906714234727</v>
+        <v>15.92038237546806</v>
       </c>
       <c r="L10" t="n">
-        <v>13.67163412961957</v>
+        <v>14.42111801564464</v>
       </c>
     </row>
     <row r="11">
@@ -856,19 +857,19 @@
         <v>7.308333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>3.626076437156693</v>
+        <v>3.677841402946806</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.651434302330017</v>
+        <v>8.454806327819824</v>
       </c>
       <c r="F11" t="n">
-        <v>1.443318544146428</v>
+        <v>3.867840262189083</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.473183216375112</v>
+        <v>-9.810484522323225</v>
       </c>
       <c r="H11" t="n">
-        <v>2.952975571678624</v>
+        <v>2.957319034585514</v>
       </c>
       <c r="I11" t="n">
         <v>14.90697348056312</v>
@@ -877,10 +878,10 @@
         <v>3.532457192702039</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.773797210038766</v>
+        <v>-0.9951084085162095</v>
       </c>
       <c r="L11" t="n">
-        <v>1.037320653741083</v>
+        <v>1.329081999826093</v>
       </c>
     </row>
     <row r="12">
@@ -894,19 +895,19 @@
         <v>0.474999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>8.006102227413621</v>
+        <v>7.952602156747833</v>
       </c>
       <c r="E12" t="n">
-        <v>6.814132690429688</v>
+        <v>13.94483661651611</v>
       </c>
       <c r="F12" t="n">
-        <v>6.157259483627596</v>
+        <v>8.939800946256961</v>
       </c>
       <c r="G12" t="n">
-        <v>8.466217983607379</v>
+        <v>8.913848988115042</v>
       </c>
       <c r="H12" t="n">
-        <v>8.264480423769976</v>
+        <v>8.34641968297119</v>
       </c>
       <c r="I12" t="n">
         <v>5.86549781689009</v>
@@ -915,10 +916,10 @@
         <v>1.720121298662021</v>
       </c>
       <c r="K12" t="n">
-        <v>10.14872238596424</v>
+        <v>8.733356539114396</v>
       </c>
       <c r="L12" t="n">
-        <v>7.233787918307298</v>
+        <v>7.820491429847625</v>
       </c>
     </row>
     <row r="13">
@@ -929,22 +930,22 @@
         <v>12.09816059111381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9916666666666666</v>
+        <v>1.133333333333335</v>
       </c>
       <c r="D13" t="n">
-        <v>6.946776767011458</v>
+        <v>6.830724958096315</v>
       </c>
       <c r="E13" t="n">
-        <v>2.563949108123779</v>
+        <v>3.534612894058228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6070929187767251</v>
+        <v>1.450242544413713</v>
       </c>
       <c r="G13" t="n">
-        <v>10.31103344049422</v>
+        <v>10.64187333689781</v>
       </c>
       <c r="H13" t="n">
-        <v>2.300627950223674</v>
+        <v>2.291804305203471</v>
       </c>
       <c r="I13" t="n">
         <v>-1.56973918677408</v>
@@ -953,10 +954,10 @@
         <v>-0.08592920740048093</v>
       </c>
       <c r="K13" t="n">
-        <v>8.236607327277234</v>
+        <v>4.794640062171664</v>
       </c>
       <c r="L13" t="n">
-        <v>5.362291443828449</v>
+        <v>4.97533218701017</v>
       </c>
     </row>
     <row r="14">
@@ -970,19 +971,19 @@
         <v>0.6250000000000018</v>
       </c>
       <c r="D14" t="n">
-        <v>2.577784283448483</v>
+        <v>2.437625870231269</v>
       </c>
       <c r="E14" t="n">
-        <v>1.597670197486877</v>
+        <v>6.397293567657471</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2396101343081846</v>
+        <v>0.7478106617817563</v>
       </c>
       <c r="G14" t="n">
-        <v>6.532157177325887</v>
+        <v>6.691045737340787</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.089107363206029</v>
+        <v>-0.9944881885774343</v>
       </c>
       <c r="I14" t="n">
         <v>-4.557142688734477</v>
@@ -991,10 +992,10 @@
         <v>3.535914287043733</v>
       </c>
       <c r="K14" t="n">
-        <v>3.570361613534193</v>
+        <v>2.148122736848369</v>
       </c>
       <c r="L14" t="n">
-        <v>2.56706774361431</v>
+        <v>2.518617121597809</v>
       </c>
     </row>
     <row r="15">
@@ -1008,19 +1009,19 @@
         <v>-4.183333333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.889620292102666</v>
+        <v>-4.92807792220316</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9677423238754272</v>
+        <v>7.124857425689697</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.120384866374144</v>
+        <v>-4.688511421111237</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.502311675416433</v>
+        <v>-6.441306049411105</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.008065022497194</v>
+        <v>-2.967305142301883</v>
       </c>
       <c r="I15" t="n">
         <v>-2.226612149517955</v>
@@ -1029,10 +1030,10 @@
         <v>0.1222710515639767</v>
       </c>
       <c r="K15" t="n">
-        <v>-5.25219732411277</v>
+        <v>-4.699040870941408</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.15081933814589</v>
+        <v>-4.170171155941115</v>
       </c>
     </row>
     <row r="16">
@@ -1046,19 +1047,19 @@
         <v>0.4916666666666671</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.731844683911063</v>
+        <v>-5.761720316548233</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.466873168945312</v>
+        <v>7.874436378479004</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2876113814786728</v>
+        <v>-1.021762092606543</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1153570121256541</v>
+        <v>0.09113170122271816</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.57537587531881</v>
+        <v>-2.355153106243816</v>
       </c>
       <c r="I16" t="n">
         <v>-5.774572987381077</v>
@@ -1067,10 +1068,10 @@
         <v>3.53826967000181</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.204013463324122</v>
+        <v>-1.09526116587588</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.264062922044659</v>
+        <v>-1.792643115618991</v>
       </c>
     </row>
     <row r="17">
@@ -1084,19 +1085,19 @@
         <v>-1.549999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.725281474764515</v>
+        <v>-6.721007928350555</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4834766685962677</v>
+        <v>7.231811046600342</v>
       </c>
       <c r="F17" t="n">
-        <v>1.20617979967325</v>
+        <v>1.272966347518464</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8944389261273364</v>
+        <v>0.6196337137974898</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.328511285067685</v>
+        <v>-3.122114928361833</v>
       </c>
       <c r="I17" t="n">
         <v>3.369479422974109</v>
@@ -1105,10 +1106,10 @@
         <v>-1.695322299825463</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.677581666742018</v>
+        <v>-0.4098382890152929</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.164462466770011</v>
+        <v>-2.254955164245308</v>
       </c>
     </row>
     <row r="18">
@@ -1122,19 +1123,19 @@
         <v>-8.85</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.150852762772315</v>
+        <v>-8.061169331340363</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.863496780395508</v>
+        <v>-1.573058605194092</v>
       </c>
       <c r="F18" t="n">
-        <v>-8.474531043561518</v>
+        <v>-5.344519254014077</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.939466350354875</v>
+        <v>-9.377056986115544</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.445613405679778</v>
+        <v>-8.361945188640068</v>
       </c>
       <c r="I18" t="n">
         <v>-19.812149356065</v>
@@ -1143,10 +1144,10 @@
         <v>-6.45917577883078</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.76165858401911</v>
+        <v>-7.694507142923229</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.86206855168354</v>
+        <v>-8.900448761380391</v>
       </c>
     </row>
     <row r="19">
@@ -1160,19 +1161,19 @@
         <v>-6.316666666666669</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.158484465678658</v>
+        <v>-4.052955918855198</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.843279838562012</v>
+        <v>-3.518676519393921</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.001035117365191</v>
+        <v>-6.013151477855764</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7351895093744706</v>
+        <v>0.5809860377129511</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.415236209439418</v>
+        <v>-5.40122610914548</v>
       </c>
       <c r="I19" t="n">
         <v>-16.24255855467771</v>
@@ -1181,10 +1182,10 @@
         <v>-3.710795054034995</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.486415610043455</v>
+        <v>-3.611130516429431</v>
       </c>
       <c r="L19" t="n">
-        <v>-4.71322573211941</v>
+        <v>-4.599993178407549</v>
       </c>
     </row>
     <row r="20">
@@ -1198,19 +1199,19 @@
         <v>1.491666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4800963576939372</v>
+        <v>-0.3733660705608877</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9732133150100708</v>
+        <v>2.835302114486694</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.162345711990123</v>
+        <v>-0.6198695731043372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07862565405371372</v>
+        <v>-0.2777482803025944</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.724431287540325</v>
+        <v>-3.710731667908972</v>
       </c>
       <c r="I20" t="n">
         <v>-5.186981253147601</v>
@@ -1219,10 +1220,10 @@
         <v>0.1960109979384095</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.58744550422391</v>
+        <v>-1.536116507105301</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.9214262810100369</v>
+        <v>-0.8288221166595885</v>
       </c>
     </row>
     <row r="21">
@@ -1236,19 +1237,19 @@
         <v>2.041666666666664</v>
       </c>
       <c r="D21" t="n">
-        <v>1.561173161408347</v>
+        <v>1.679837297678958</v>
       </c>
       <c r="E21" t="n">
-        <v>1.383330464363098</v>
+        <v>9.79460620880127</v>
       </c>
       <c r="F21" t="n">
-        <v>5.589701183138293</v>
+        <v>3.788900297588641</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.690209268139961</v>
+        <v>-6.849485515170636</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.5382055333018273</v>
+        <v>-0.4692132135496764</v>
       </c>
       <c r="I21" t="n">
         <v>2.653789681466935</v>
@@ -1257,10 +1258,10 @@
         <v>3.544082147301578</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.87338208371296</v>
+        <v>-1.17659947704389</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.3200108410682503</v>
+        <v>0.2889878908660394</v>
       </c>
     </row>
     <row r="22">
@@ -1274,19 +1275,19 @@
         <v>10.78333333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.37331757778992</v>
+        <v>10.36239575748427</v>
       </c>
       <c r="E22" t="n">
-        <v>25.94685173034668</v>
+        <v>17.4290771484375</v>
       </c>
       <c r="F22" t="n">
-        <v>21.14067675468946</v>
+        <v>23.2193744570906</v>
       </c>
       <c r="G22" t="n">
-        <v>19.5424423453489</v>
+        <v>19.88022808480418</v>
       </c>
       <c r="H22" t="n">
-        <v>9.617815468811196</v>
+        <v>10.03497469876422</v>
       </c>
       <c r="I22" t="n">
         <v>31.49535481589763</v>
@@ -1295,10 +1296,10 @@
         <v>3.545145868637483</v>
       </c>
       <c r="K22" t="n">
-        <v>16.59734414957605</v>
+        <v>17.71152574688633</v>
       </c>
       <c r="L22" t="n">
-        <v>14.10465503486681</v>
+        <v>15.68434613582974</v>
       </c>
     </row>
     <row r="23">
@@ -1312,19 +1313,19 @@
         <v>9.25</v>
       </c>
       <c r="D23" t="n">
-        <v>6.120565927027445</v>
+        <v>6.13593655398039</v>
       </c>
       <c r="E23" t="n">
-        <v>6.682102680206299</v>
+        <v>10.25272083282471</v>
       </c>
       <c r="F23" t="n">
-        <v>7.808338562501594</v>
+        <v>6.676691432714724</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.16105012582916</v>
+        <v>-7.446834273566156</v>
       </c>
       <c r="H23" t="n">
-        <v>7.46510659926053</v>
+        <v>7.189108118040969</v>
       </c>
       <c r="I23" t="n">
         <v>13.94893835972937</v>
@@ -1333,10 +1334,10 @@
         <v>-3.038618354667637</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7610741600035773</v>
+        <v>2.139655092396512</v>
       </c>
       <c r="L23" t="n">
-        <v>3.023751087522811</v>
+        <v>3.255062300506826</v>
       </c>
     </row>
     <row r="24">
@@ -1350,19 +1351,19 @@
         <v>0.474999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>7.70234451653283</v>
+        <v>7.644760845260659</v>
       </c>
       <c r="E24" t="n">
-        <v>11.82012367248535</v>
+        <v>13.8176908493042</v>
       </c>
       <c r="F24" t="n">
-        <v>6.805417312865228</v>
+        <v>5.770894785804578</v>
       </c>
       <c r="G24" t="n">
-        <v>7.787262540921816</v>
+        <v>8.46302878115198</v>
       </c>
       <c r="H24" t="n">
-        <v>6.81527802924302</v>
+        <v>6.992858837550526</v>
       </c>
       <c r="I24" t="n">
         <v>6.691423238956697</v>
@@ -1371,10 +1372,10 @@
         <v>3.553898410376313</v>
       </c>
       <c r="K24" t="n">
-        <v>9.430004777404221</v>
+        <v>7.075594134835694</v>
       </c>
       <c r="L24" t="n">
-        <v>7.203335442082517</v>
+        <v>7.117908620469988</v>
       </c>
     </row>
     <row r="25">
@@ -1388,19 +1389,19 @@
         <v>1.475</v>
       </c>
       <c r="D25" t="n">
-        <v>5.106866265322147</v>
+        <v>5.011662751470089</v>
       </c>
       <c r="E25" t="n">
-        <v>1.679895520210266</v>
+        <v>4.61487865447998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7240161652081943</v>
+        <v>0.9479357540306557</v>
       </c>
       <c r="G25" t="n">
-        <v>6.562877315157282</v>
+        <v>6.744808222676694</v>
       </c>
       <c r="H25" t="n">
-        <v>1.46744063647437</v>
+        <v>1.444352668343956</v>
       </c>
       <c r="I25" t="n">
         <v>-3.789232407848057</v>
@@ -1409,10 +1410,10 @@
         <v>3.548640953026888</v>
       </c>
       <c r="K25" t="n">
-        <v>5.657682967672176</v>
+        <v>3.045698881683768</v>
       </c>
       <c r="L25" t="n">
-        <v>4.193881013236904</v>
+        <v>3.831234102990379</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,125 +1463,130 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Tuned</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>DynamicallyTested</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestSetLength</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TestSetRMSE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAPE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>TestSetR2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetPrediction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetActual</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InSampleRMSE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAPE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>InSampleR2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ValidationSetLength</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetric</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetricValue</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>univariate</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>weights</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1604,77 +1610,80 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'alpha': 2.0, 'l1_ratio': 1.0}</t>
+          <t>{'alpha': 1.3, 'l1_ratio': 1.0}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="n">
+        <v>749</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>12</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.956617070813387</v>
-      </c>
       <c r="K2" t="n">
-        <v>2.650963207607533</v>
+        <v>9.902651929001417</v>
       </c>
       <c r="L2" t="n">
-        <v>7.22889684746038</v>
+        <v>2.572323594374564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.548810382298065</v>
+        <v>7.170047035456705</v>
       </c>
       <c r="N2" t="n">
-        <v>10.28535560776018</v>
+        <v>0.5536880484219917</v>
       </c>
       <c r="O2" t="n">
+        <v>10.27900784150738</v>
+      </c>
+      <c r="P2" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P2" t="n">
-        <v>12.0294701672896</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
-        <v>9.387572291681305</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>12.05240000938119</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.4980840638914287</v>
+        <v>9.386526075224372</v>
       </c>
       <c r="T2" t="n">
+        <v>0.4961687971781187</v>
+      </c>
+      <c r="U2" t="n">
         <v>6</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>12.28998141594318</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>9.710460564204618</v>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>11.48716040936863</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.07638216344227612</v>
+        <v>11.19009846171499</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.13084571682385</v>
+        <v>0.07437667846228523</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3605315174210624</v>
-      </c>
-      <c r="AD2" t="b">
+        <v>9.852848717787184</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.3931776210440495</v>
+      </c>
+      <c r="AE2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1704,73 +1713,76 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="n">
+        <v>749</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>14.24919182243655</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2.005919859581277</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>11.23055555555555</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.07590641725962632</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>2.408333333333335</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P3" t="n">
-        <v>10.04312687909391</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>7.851839080459771</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>10.02513079762945</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.65015482804917</v>
+        <v>7.855379310344827</v>
       </c>
       <c r="T3" t="n">
+        <v>0.6514074661154218</v>
+      </c>
+      <c r="U3" t="n">
         <v>6</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>15.21087840196151</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>15.21438730342167</v>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
         <v>12.30746113286721</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.0776661571213545</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>10.14722222222222</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.2659414207823876</v>
       </c>
-      <c r="AD3" t="b">
+      <c r="AE3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1800,73 +1812,76 @@
           <t>pt</t>
         </is>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="n">
+        <v>749</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>14.92954405738234</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>2.582425408251861</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>11.40608929277311</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.01444516804033147</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1.718607513334995</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P4" t="n">
-        <v>10.94142810080376</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>8.33338591099441</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>10.95509040993115</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>0.5847725964031704</v>
+        <v>8.349557484933303</v>
       </c>
       <c r="T4" t="n">
+        <v>0.5837349792028876</v>
+      </c>
+      <c r="U4" t="n">
         <v>6</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>10.33418224721547</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>10.49466529325489</v>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>14.2520525329766</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.08832067882317061</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>10.50220286716312</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.01565213902185425</v>
       </c>
-      <c r="AD4" t="b">
+      <c r="AE4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1888,87 +1903,90 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="n">
+        <v>749</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>13.83945973859246</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>6.805997555488756</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>10.82154649397032</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.1282865206832411</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.08592920740048182</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>15.88908934647672</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
         <v>11.96717682947196</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.1212153067386073</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>6</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>15.85656290839023</v>
       </c>
-      <c r="W5" t="b">
+      <c r="X5" t="b">
         <v>1</v>
       </c>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>17.84098876221841</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.0983654136402418</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>13.54322601313066</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>-0.5425228717125137</v>
       </c>
-      <c r="AD5" t="b">
+      <c r="AE5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1978,7 +1996,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'max_features': None}</t>
+          <t>{'max_depth': 3}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1986,448 +2004,459 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="n">
+        <v>749</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="n">
-        <v>17.37194558192824</v>
-      </c>
       <c r="K6" t="n">
-        <v>6.854220533698605</v>
+        <v>14.62920024092119</v>
       </c>
       <c r="L6" t="n">
-        <v>14.54774562445546</v>
+        <v>11.80749569641674</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3735118444559185</v>
+        <v>12.23667150090138</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.818075717135242</v>
+        <v>0.02596030206690747</v>
       </c>
       <c r="O6" t="n">
+        <v>0.6039119362831116</v>
+      </c>
+      <c r="P6" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P6" t="n">
-        <v>9.039291965613105</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>7.15384028339544</v>
-      </c>
+      <c r="Q6" t="n">
+        <v>4.911146087889795</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.716595452650592</v>
+        <v>3.836273270434347</v>
       </c>
       <c r="T6" t="n">
+        <v>0.9163427292550247</v>
+      </c>
+      <c r="U6" t="n">
         <v>6</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>24.81173062105193</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>24.03058037544776</v>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
-        <v>23.51265749329723</v>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.156125137567104</v>
+        <v>24.0936971082616</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.96826516532918</v>
+        <v>0.1721041317838984</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.679151101386908</v>
-      </c>
-      <c r="AD6" t="b">
+        <v>21.24729773650567</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-1.813200368359647</v>
+      </c>
+      <c r="AE6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F7" t="b">
+          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>749</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
-        <v>14.22430552913185</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.283848613333041</v>
+        <v>11.05803931340146</v>
       </c>
       <c r="L7" t="n">
-        <v>11.41811351772209</v>
+        <v>0.5376141426204295</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07913146774701818</v>
+        <v>7.285661049749073</v>
       </c>
       <c r="N7" t="n">
-        <v>2.887142794722719</v>
+        <v>0.4434659410154823</v>
       </c>
       <c r="O7" t="n">
+        <v>3.524075156742938</v>
+      </c>
+      <c r="P7" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P7" t="n">
-        <v>13.13949597266035</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>10.0283713439507</v>
-      </c>
+      <c r="Q7" t="n">
+        <v>9.68365055542813</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.4011812389851548</v>
+        <v>7.620413107356328</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>15.03854518788069</v>
-      </c>
+        <v>0.6747508245367966</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
-        <v>33.25013667552012</v>
-      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>['gbt', 'elasticnet', 'mlp']</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>0.2381959297637569</v>
+        <v>25.61536212378744</v>
       </c>
       <c r="AB7" t="n">
-        <v>31.08605604300426</v>
+        <v>0.1900760005268688</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.357727764320964</v>
-      </c>
-      <c r="AD7" t="b">
+        <v>24.72428492334623</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-2.179763154495447</v>
+      </c>
+      <c r="AE7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 3}</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
-        <v>1</v>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>749</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" t="n">
-        <v>14.04056593165524</v>
-      </c>
       <c r="K8" t="n">
-        <v>4.3583448289182</v>
+        <v>14.22430552913185</v>
       </c>
       <c r="L8" t="n">
-        <v>12.07446212425986</v>
+        <v>2.283848613333041</v>
       </c>
       <c r="M8" t="n">
-        <v>0.10276808179171</v>
+        <v>11.41811351772209</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3338760690406671</v>
+        <v>0.07913146774701818</v>
       </c>
       <c r="O8" t="n">
+        <v>2.887142794722719</v>
+      </c>
+      <c r="P8" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P8" t="n">
-        <v>11.30361385552777</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>8.812225367163109</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>13.17665414363269</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.5552467855330661</v>
+        <v>10.05599202034097</v>
       </c>
       <c r="T8" t="n">
+        <v>0.3977895605518927</v>
+      </c>
+      <c r="U8" t="n">
         <v>6</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V8" t="n">
-        <v>23.39663404830682</v>
-      </c>
-      <c r="W8" t="b">
-        <v>1</v>
+      <c r="W8" t="n">
+        <v>15.05258355144947</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>33.77516179227283</v>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.2547405736759397</v>
+        <v>33.25013667552012</v>
       </c>
       <c r="AB8" t="n">
-        <v>32.16251671761294</v>
+        <v>0.2381959297637569</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.52826240469527</v>
-      </c>
-      <c r="AD8" t="b">
+        <v>31.08605604300426</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-4.357727764320964</v>
+      </c>
+      <c r="AE8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'max_depth': 2}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
+          <t>{'n_changepoints': 3}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>749</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="J9" t="n">
-        <v>22.63591742621982</v>
-      </c>
       <c r="K9" t="n">
-        <v>8.371046593418265</v>
+        <v>14.04056593165524</v>
       </c>
       <c r="L9" t="n">
-        <v>15.95802408854167</v>
+        <v>4.3583448289182</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.332016883827001</v>
+        <v>12.07446212425986</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.192923545837402</v>
+        <v>0.10276808179171</v>
       </c>
       <c r="O9" t="n">
+        <v>0.3338760690406671</v>
+      </c>
+      <c r="P9" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P9" t="n">
-        <v>7.354602499572973</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>5.802200995964223</v>
-      </c>
+      <c r="Q9" t="n">
+        <v>11.30361385552777</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0.8123898217323999</v>
+        <v>8.812225367163109</v>
       </c>
       <c r="T9" t="n">
+        <v>0.5552467855330661</v>
+      </c>
+      <c r="U9" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V9" t="n">
-        <v>23.97225070606125</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>23.39663404830682</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>70.5381552600435</v>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.5297774210958579</v>
+        <v>33.77516179227283</v>
       </c>
       <c r="AB9" t="n">
-        <v>67.19896895885468</v>
+        <v>0.2547405736759397</v>
       </c>
       <c r="AC9" t="n">
-        <v>-23.11248487401311</v>
-      </c>
-      <c r="AD9" t="b">
+        <v>32.16251671761294</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-4.52826240469527</v>
+      </c>
+      <c r="AE9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+          <t>{'max_depth': 3, 'max_features': None}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>749</v>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>12</v>
       </c>
-      <c r="J10" t="n">
-        <v>25.09343924665727</v>
-      </c>
       <c r="K10" t="n">
-        <v>22.61078025346208</v>
+        <v>19.84943437898496</v>
       </c>
       <c r="L10" t="n">
-        <v>22.44043747996288</v>
+        <v>4.851348834873515</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.865865906193841</v>
+        <v>12.87425386973141</v>
       </c>
       <c r="N10" t="n">
-        <v>-14.83732649373442</v>
+        <v>-0.7932125101290375</v>
       </c>
       <c r="O10" t="n">
+        <v>-1.425389884613556</v>
+      </c>
+      <c r="P10" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P10" t="n">
-        <v>11.06988207127236</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>8.57192604738143</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>7.317514526370901</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>0.5749657039538854</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>['mlp', 'mlr', 'elasticnet', 'svr', 'knn', 'silverkite', 'prophet', 'xgboost', 'gbt']</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>(0.1895808635833279, 0.17663213998853747, 0.1662982867629555, 0.1335783387288961, 0.13152681863435156, 0.12384034480665766, 0.03408047152663131, 0.027228112006521848, 0.017234623962120717)</t>
-        </is>
-      </c>
-      <c r="Z10" t="n">
-        <v>126.1041682381996</v>
-      </c>
+        <v>5.858780084120673</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8142772213767513</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>7.579658867634289</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0.7862656051767138</v>
+        <v>73.14959775910356</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.5459791364617</v>
+        <v>0.5577750511010798</v>
       </c>
       <c r="AC10" t="n">
-        <v>-76.06419688337324</v>
-      </c>
-      <c r="AD10" t="b">
+        <v>70.34591803072111</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-24.93090401372411</v>
+      </c>
+      <c r="AE10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2438,71 +2467,78 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
+      <c r="F11" t="n">
+        <v>749</v>
+      </c>
+      <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>12</v>
       </c>
-      <c r="J11" t="n">
-        <v>44.50459678968068</v>
-      </c>
       <c r="K11" t="n">
-        <v>45.12687833020709</v>
+        <v>20.93504326704312</v>
       </c>
       <c r="L11" t="n">
-        <v>40.55153239755035</v>
+        <v>18.00354863985847</v>
       </c>
       <c r="M11" t="n">
-        <v>-8.014574448663264</v>
+        <v>18.87664159237213</v>
       </c>
       <c r="N11" t="n">
-        <v>-28.76413561159145</v>
+        <v>-0.9947258416630231</v>
       </c>
       <c r="O11" t="n">
+        <v>-12.00032191359293</v>
+      </c>
+      <c r="P11" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P11" t="n">
-        <v>11.17752759734172</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>8.702525766370709</v>
-      </c>
+      <c r="Q11" t="n">
+        <v>10.27941201535739</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>0.5666592928286273</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>8.023055303906167</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.6334995321699002</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>['mlp', 'mlr', 'elasticnet']</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
-        <v>255.2764730465111</v>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>['gbt', 'elasticnet', 'mlp', 'mlr', 'svr', 'knn', 'silverkite', 'prophet', 'xgboost']</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>(0.18404545636830028, 0.16237414366516392, 0.1543983916588271, 0.14496785288543826, 0.10804209674520089, 0.10639647213772369, 0.09986522694113895, 0.02317895447381611, 0.016731405124390933)</t>
+        </is>
       </c>
       <c r="AA11" t="n">
-        <v>1.597216056742258</v>
+        <v>93.24258733141983</v>
       </c>
       <c r="AB11" t="n">
-        <v>208.4058898585897</v>
+        <v>0.5645389674992612</v>
       </c>
       <c r="AC11" t="n">
-        <v>-314.8023480612682</v>
-      </c>
-      <c r="AD11" t="b">
+        <v>74.0942838360898</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-41.13300209073116</v>
+      </c>
+      <c r="AE11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2528,73 +2564,76 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="n">
+        <v>749</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>131.8899867105978</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>131.3163909481432</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>121.5887810574711</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>-78.16972518083101</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>-98.29636995586952</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>11.45232152619701</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
         <v>8.951774043500853</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.5450904533667152</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>6</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>11.42190990889836</v>
       </c>
-      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>768.9252232672262</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>4.797772522577048</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>628.1525293108285</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>-2864.246480596816</v>
       </c>
-      <c r="AD12" t="b">
+      <c r="AE12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12376,7 +12415,7 @@
         <v>44378</v>
       </c>
       <c r="B751" t="n">
-        <v>4.893354976353685</v>
+        <v>4.499209047375788</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -12389,7 +12428,7 @@
         <v>44409</v>
       </c>
       <c r="B752" t="n">
-        <v>-4.842054623682291</v>
+        <v>-4.396231704963625</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -12402,7 +12441,7 @@
         <v>44440</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.395507058028087</v>
+        <v>-1.626629478330968</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -12415,7 +12454,7 @@
         <v>44470</v>
       </c>
       <c r="B754" t="n">
-        <v>1.633911372296023</v>
+        <v>1.441172003837657</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -12428,7 +12467,7 @@
         <v>44501</v>
       </c>
       <c r="B755" t="n">
-        <v>-9.850806463960213</v>
+        <v>-10.0824282535164</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -12441,7 +12480,7 @@
         <v>44531</v>
       </c>
       <c r="B756" t="n">
-        <v>1.270369484674542</v>
+        <v>1.272984401441768</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -12454,7 +12493,7 @@
         <v>44562</v>
       </c>
       <c r="B757" t="n">
-        <v>1.120108880841877</v>
+        <v>0.9405000434582282</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -12467,7 +12506,7 @@
         <v>44593</v>
       </c>
       <c r="B758" t="n">
-        <v>-6.248228614267184</v>
+        <v>-6.175377510256047</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -12480,7 +12519,7 @@
         <v>44621</v>
       </c>
       <c r="B759" t="n">
-        <v>15.72944449125641</v>
+        <v>15.15509737475784</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -12493,7 +12532,7 @@
         <v>44652</v>
       </c>
       <c r="B760" t="n">
-        <v>-9.473183216375112</v>
+        <v>-9.810484522323225</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -12506,7 +12545,7 @@
         <v>44682</v>
       </c>
       <c r="B761" t="n">
-        <v>8.466217983607379</v>
+        <v>8.913848988115042</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -12519,7 +12558,7 @@
         <v>44713</v>
       </c>
       <c r="B762" t="n">
-        <v>10.31103344049422</v>
+        <v>10.64187333689781</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -12532,7 +12571,7 @@
         <v>44743</v>
       </c>
       <c r="B763" t="n">
-        <v>6.532157177325887</v>
+        <v>6.691045737340787</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -12545,7 +12584,7 @@
         <v>44774</v>
       </c>
       <c r="B764" t="n">
-        <v>-6.502311675416433</v>
+        <v>-6.441306049411105</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -12558,7 +12597,7 @@
         <v>44805</v>
       </c>
       <c r="B765" t="n">
-        <v>0.1153570121256541</v>
+        <v>0.09113170122271816</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -12571,7 +12610,7 @@
         <v>44835</v>
       </c>
       <c r="B766" t="n">
-        <v>0.8944389261273364</v>
+        <v>0.6196337137974898</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -12584,7 +12623,7 @@
         <v>44866</v>
       </c>
       <c r="B767" t="n">
-        <v>-8.939466350354875</v>
+        <v>-9.377056986115544</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -12597,7 +12636,7 @@
         <v>44896</v>
       </c>
       <c r="B768" t="n">
-        <v>0.7351895093744706</v>
+        <v>0.5809860377129511</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -12610,7 +12649,7 @@
         <v>44927</v>
       </c>
       <c r="B769" t="n">
-        <v>0.07862565405371372</v>
+        <v>-0.2777482803025944</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -12623,7 +12662,7 @@
         <v>44958</v>
       </c>
       <c r="B770" t="n">
-        <v>-6.690209268139961</v>
+        <v>-6.849485515170636</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -12636,7 +12675,7 @@
         <v>44986</v>
       </c>
       <c r="B771" t="n">
-        <v>19.5424423453489</v>
+        <v>19.88022808480418</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -12649,7 +12688,7 @@
         <v>45017</v>
       </c>
       <c r="B772" t="n">
-        <v>-7.16105012582916</v>
+        <v>-7.446834273566156</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -12662,7 +12701,7 @@
         <v>45047</v>
       </c>
       <c r="B773" t="n">
-        <v>7.787262540921816</v>
+        <v>8.46302878115198</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -12675,7 +12714,7 @@
         <v>45078</v>
       </c>
       <c r="B774" t="n">
-        <v>6.562877315157282</v>
+        <v>6.744808222676694</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -12735,32 +12774,32 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -12777,7 +12816,7 @@
         <v>19.89999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6897154659789538</v>
+        <v>0.886387794678815</v>
       </c>
       <c r="D2" t="n">
         <v>0.3166666666666676</v>
@@ -12789,22 +12828,22 @@
         <v>3.522047919629248</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.19884466656316</v>
+        <v>-8.467312812805176</v>
       </c>
       <c r="H2" t="n">
+        <v>-9.671208188983593</v>
+      </c>
+      <c r="I2" t="n">
         <v>-0.6501172650483547</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>-8.079808106374465</v>
       </c>
-      <c r="J2" t="n">
-        <v>-36.94290542602539</v>
-      </c>
       <c r="K2" t="n">
-        <v>8.016850732640425</v>
+        <v>-31.97565952544847</v>
       </c>
       <c r="L2" t="n">
-        <v>17.46138296160277</v>
+        <v>1.758787852274275</v>
       </c>
       <c r="M2" t="n">
         <v>49.61878625501049</v>
@@ -12818,7 +12857,7 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.816594353028785</v>
+        <v>-2.695154662888475</v>
       </c>
       <c r="D3" t="n">
         <v>-1.658333333333334</v>
@@ -12830,22 +12869,22 @@
         <v>-3.061716303675877</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.592967502177341</v>
+        <v>-4.903765678405762</v>
       </c>
       <c r="H3" t="n">
+        <v>-3.380634878577235</v>
+      </c>
+      <c r="I3" t="n">
         <v>-4.773708174626774</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-1.111924933511838</v>
       </c>
-      <c r="J3" t="n">
-        <v>-11.33802318572998</v>
-      </c>
       <c r="K3" t="n">
-        <v>8.626424897006732</v>
+        <v>-9.700523614009029</v>
       </c>
       <c r="L3" t="n">
-        <v>19.23842995972412</v>
+        <v>5.467689464138034</v>
       </c>
       <c r="M3" t="n">
         <v>58.27811059103533</v>
@@ -12859,7 +12898,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1808685497568565</v>
+        <v>-0.155410284018952</v>
       </c>
       <c r="D4" t="n">
         <v>-2.083333333333333</v>
@@ -12871,22 +12910,22 @@
         <v>5.322877510363931</v>
       </c>
       <c r="G4" t="n">
-        <v>21.5825154690724</v>
+        <v>6.177246570587158</v>
       </c>
       <c r="H4" t="n">
+        <v>3.872243134070112</v>
+      </c>
+      <c r="I4" t="n">
         <v>-7.841015726920441</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-8.631864650205085</v>
       </c>
-      <c r="J4" t="n">
-        <v>16.48141288757324</v>
-      </c>
       <c r="K4" t="n">
-        <v>13.60259799769349</v>
+        <v>9.546901234731372</v>
       </c>
       <c r="L4" t="n">
-        <v>25.86842486862712</v>
+        <v>12.39533222889868</v>
       </c>
       <c r="M4" t="n">
         <v>75.56090470414028</v>
@@ -12900,7 +12939,7 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>3.196557897488409</v>
+        <v>3.166357329200009</v>
       </c>
       <c r="D5" t="n">
         <v>1.258333333333333</v>
@@ -12912,22 +12951,22 @@
         <v>-1.709188667239948</v>
       </c>
       <c r="G5" t="n">
-        <v>12.8404792669534</v>
+        <v>0.1563033759593964</v>
       </c>
       <c r="H5" t="n">
+        <v>4.116699709997374</v>
+      </c>
+      <c r="I5" t="n">
         <v>-9.041240413193128</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>6.280099472428866</v>
       </c>
-      <c r="J5" t="n">
-        <v>25.38899803161621</v>
-      </c>
       <c r="K5" t="n">
-        <v>16.76396761363472</v>
+        <v>6.903212520873891</v>
       </c>
       <c r="L5" t="n">
-        <v>31.88306532575156</v>
+        <v>14.34334697124465</v>
       </c>
       <c r="M5" t="n">
         <v>90.17210879984805</v>
@@ -12941,7 +12980,7 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.080981036787238</v>
+        <v>-8.160159484167002</v>
       </c>
       <c r="D6" t="n">
         <v>0.6083333333333343</v>
@@ -12953,22 +12992,22 @@
         <v>-6.473042146245264</v>
       </c>
       <c r="G6" t="n">
-        <v>-34.48894868457844</v>
+        <v>-16.50565338134766</v>
       </c>
       <c r="H6" t="n">
+        <v>-19.28822875176538</v>
+      </c>
+      <c r="I6" t="n">
         <v>-8.125843684894148</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-23.86272803408155</v>
       </c>
-      <c r="J6" t="n">
-        <v>-52.32772064208984</v>
-      </c>
       <c r="K6" t="n">
-        <v>10.66809368375707</v>
+        <v>-51.96577475638353</v>
       </c>
       <c r="L6" t="n">
-        <v>28.67503083831915</v>
+        <v>0.4857002218803183</v>
       </c>
       <c r="M6" t="n">
         <v>91.84482556649027</v>
@@ -12982,7 +13021,7 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.673364871093789</v>
+        <v>2.665209857359009</v>
       </c>
       <c r="D7" t="n">
         <v>-0.3250000000000005</v>
@@ -12994,22 +13033,22 @@
         <v>-3.72466142144948</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.08684589180388</v>
+        <v>-15.71452140808105</v>
       </c>
       <c r="H7" t="n">
+        <v>-3.988945225162512</v>
+      </c>
+      <c r="I7" t="n">
         <v>-5.21536473838909</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-14.54681081485071</v>
       </c>
-      <c r="J7" t="n">
-        <v>-22.26231384277344</v>
-      </c>
       <c r="K7" t="n">
-        <v>19.41701976587477</v>
+        <v>-16.79532339574522</v>
       </c>
       <c r="L7" t="n">
-        <v>41.3808018541284</v>
+        <v>13.40103726305321</v>
       </c>
       <c r="M7" t="n">
         <v>119.3057628283927</v>
@@ -13023,7 +13062,7 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
-        <v>2.517600936004953</v>
+        <v>2.42799188024261</v>
       </c>
       <c r="D8" t="n">
         <v>-1.158333333333335</v>
@@ -13035,22 +13074,22 @@
         <v>-7.070377187854572</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.165486288186339</v>
+        <v>-12.39581680297852</v>
       </c>
       <c r="H8" t="n">
+        <v>0.1385093136273537</v>
+      </c>
+      <c r="I8" t="n">
         <v>-1.191967831978312</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-3.305977486910558</v>
       </c>
-      <c r="J8" t="n">
-        <v>-7.536753177642822</v>
-      </c>
       <c r="K8" t="n">
-        <v>23.82124595277378</v>
+        <v>-4.10627811864079</v>
       </c>
       <c r="L8" t="n">
-        <v>47.99326979950291</v>
+        <v>18.92358105219393</v>
       </c>
       <c r="M8" t="n">
         <v>139.3683942832236</v>
@@ -13064,7 +13103,7 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.850265815822934</v>
+        <v>-4.82771311922374</v>
       </c>
       <c r="D9" t="n">
         <v>5.5</v>
@@ -13076,22 +13115,22 @@
         <v>3.221273910068808</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.462319762350289</v>
+        <v>12.52058696746826</v>
       </c>
       <c r="H9" t="n">
+        <v>-4.056093997032735</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.870048400161512</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>3.386111565317465</v>
       </c>
-      <c r="J9" t="n">
-        <v>-15.8209171295166</v>
-      </c>
       <c r="K9" t="n">
-        <v>27.99026701367953</v>
+        <v>-9.43351932193807</v>
       </c>
       <c r="L9" t="n">
-        <v>50.54269243016208</v>
+        <v>21.68890835370574</v>
       </c>
       <c r="M9" t="n">
         <v>154.3853926562456</v>
@@ -13105,7 +13144,7 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>16.63434728837898</v>
+        <v>16.80138490757071</v>
       </c>
       <c r="D10" t="n">
         <v>5.641666666666667</v>
@@ -13117,22 +13156,22 @@
         <v>3.531279501222999</v>
       </c>
       <c r="G10" t="n">
-        <v>57.72367596724343</v>
+        <v>44.91165924072266</v>
       </c>
       <c r="H10" t="n">
+        <v>22.31933216792287</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.998311786999068</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>27.50717832543545</v>
       </c>
-      <c r="J10" t="n">
-        <v>38.74528884887695</v>
-      </c>
       <c r="K10" t="n">
-        <v>42.05175839868278</v>
+        <v>48.26209389731464</v>
       </c>
       <c r="L10" t="n">
-        <v>70.26140945443177</v>
+        <v>42.76388574455154</v>
       </c>
       <c r="M10" t="n">
         <v>192.2553633760331</v>
@@ -13146,7 +13185,7 @@
         <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.356541574578557</v>
+        <v>-8.334223300543908</v>
       </c>
       <c r="D11" t="n">
         <v>3.516666666666664</v>
@@ -13158,22 +13197,22 @@
         <v>3.532457192702039</v>
       </c>
       <c r="G11" t="n">
-        <v>5.547440815821135</v>
+        <v>13.58354568481445</v>
       </c>
       <c r="H11" t="n">
+        <v>-1.642988245229509</v>
+      </c>
+      <c r="I11" t="n">
         <v>7.136310365204039</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>16.04297785250718</v>
       </c>
-      <c r="J11" t="n">
-        <v>-3.94494104385376</v>
-      </c>
       <c r="K11" t="n">
-        <v>34.63167687648264</v>
+        <v>1.405877234353771</v>
       </c>
       <c r="L11" t="n">
-        <v>60.63681649269517</v>
+        <v>28.60401911694593</v>
       </c>
       <c r="M11" t="n">
         <v>188.2676097221624</v>
@@ -13187,7 +13226,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.898507512184409</v>
+        <v>10.21587855953738</v>
       </c>
       <c r="D12" t="n">
         <v>2.991666666666667</v>
@@ -13199,22 +13238,22 @@
         <v>1.720121298662021</v>
       </c>
       <c r="G12" t="n">
-        <v>13.67592199063574</v>
+        <v>-2.527696132659912</v>
       </c>
       <c r="H12" t="n">
+        <v>6.991377861117421</v>
+      </c>
+      <c r="I12" t="n">
         <v>6.243696086987129</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>4.789853163569622</v>
       </c>
-      <c r="J12" t="n">
-        <v>23.78001976013184</v>
-      </c>
       <c r="K12" t="n">
-        <v>43.39172179887505</v>
+        <v>8.661421195381219</v>
       </c>
       <c r="L12" t="n">
-        <v>77.33569509727332</v>
+        <v>36.70466463053489</v>
       </c>
       <c r="M12" t="n">
         <v>220.0117439512019</v>
@@ -13228,7 +13267,7 @@
         <v>8.600000000000023</v>
       </c>
       <c r="C13" t="n">
-        <v>10.28535560776018</v>
+        <v>10.27900784150738</v>
       </c>
       <c r="D13" t="n">
         <v>2.408333333333335</v>
@@ -13240,22 +13279,22 @@
         <v>-0.08592920740048182</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.818075717135242</v>
+        <v>0.6039119362831116</v>
       </c>
       <c r="H13" t="n">
+        <v>3.524075156742938</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.887142794722719</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.3338760690406671</v>
       </c>
-      <c r="J13" t="n">
-        <v>-4.192923545837402</v>
-      </c>
       <c r="K13" t="n">
-        <v>-14.83732649373442</v>
+        <v>-1.425389884613556</v>
       </c>
       <c r="L13" t="n">
-        <v>-28.76413561159145</v>
+        <v>-12.00032191359293</v>
       </c>
       <c r="M13" t="n">
         <v>-98.29636995586952</v>
@@ -13267,6 +13306,584 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B2" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>119.6863877946788</v>
+      </c>
+      <c r="D2" t="n">
+        <v>119.1166666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120.8756471638189</v>
+      </c>
+      <c r="F2" t="n">
+        <v>122.3220479196292</v>
+      </c>
+      <c r="G2" t="n">
+        <v>110.3326871871948</v>
+      </c>
+      <c r="H2" t="n">
+        <v>109.1287918110164</v>
+      </c>
+      <c r="I2" t="n">
+        <v>118.1498827349516</v>
+      </c>
+      <c r="J2" t="n">
+        <v>110.7201918936255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>86.82434047455153</v>
+      </c>
+      <c r="L2" t="n">
+        <v>120.5587878522743</v>
+      </c>
+      <c r="M2" t="n">
+        <v>168.4187862550105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B3" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>116.9912331317903</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.4583333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123.1294208049847</v>
+      </c>
+      <c r="F3" t="n">
+        <v>119.2603316159534</v>
+      </c>
+      <c r="G3" t="n">
+        <v>105.4289215087891</v>
+      </c>
+      <c r="H3" t="n">
+        <v>105.7481569324392</v>
+      </c>
+      <c r="I3" t="n">
+        <v>113.3761745603249</v>
+      </c>
+      <c r="J3" t="n">
+        <v>109.6082669601137</v>
+      </c>
+      <c r="K3" t="n">
+        <v>77.1238168605425</v>
+      </c>
+      <c r="L3" t="n">
+        <v>126.0264773164123</v>
+      </c>
+      <c r="M3" t="n">
+        <v>226.6968968460458</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B4" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>116.8358228477714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>115.375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>125.3546592564826</v>
+      </c>
+      <c r="F4" t="n">
+        <v>124.5832091263173</v>
+      </c>
+      <c r="G4" t="n">
+        <v>111.6061680793762</v>
+      </c>
+      <c r="H4" t="n">
+        <v>109.6204000665093</v>
+      </c>
+      <c r="I4" t="n">
+        <v>105.5351588334044</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100.9764023099086</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86.67071809527388</v>
+      </c>
+      <c r="L4" t="n">
+        <v>138.421809545311</v>
+      </c>
+      <c r="M4" t="n">
+        <v>302.2578015501861</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B5" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>120.0021801769714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116.6333333333333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>127.6351885364008</v>
+      </c>
+      <c r="F5" t="n">
+        <v>122.8740204590773</v>
+      </c>
+      <c r="G5" t="n">
+        <v>111.7624714553356</v>
+      </c>
+      <c r="H5" t="n">
+        <v>113.7370997765067</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96.4939184202113</v>
+      </c>
+      <c r="J5" t="n">
+        <v>107.2565017823375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.57393061614778</v>
+      </c>
+      <c r="L5" t="n">
+        <v>152.7651565165556</v>
+      </c>
+      <c r="M5" t="n">
+        <v>392.4299103500342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B6" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>111.8420206928044</v>
+      </c>
+      <c r="D6" t="n">
+        <v>117.2416666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>129.8964365216552</v>
+      </c>
+      <c r="F6" t="n">
+        <v>116.4009783128321</v>
+      </c>
+      <c r="G6" t="n">
+        <v>95.25681807398796</v>
+      </c>
+      <c r="H6" t="n">
+        <v>94.44887102474127</v>
+      </c>
+      <c r="I6" t="n">
+        <v>88.36807473531715</v>
+      </c>
+      <c r="J6" t="n">
+        <v>83.39377374825591</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41.60815585976425</v>
+      </c>
+      <c r="L6" t="n">
+        <v>153.2508567384359</v>
+      </c>
+      <c r="M6" t="n">
+        <v>484.2747359165244</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B7" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.5072305501634</v>
+      </c>
+      <c r="D7" t="n">
+        <v>116.9166666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>132.0597143845539</v>
+      </c>
+      <c r="F7" t="n">
+        <v>112.6763168913826</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.5422966659069</v>
+      </c>
+      <c r="H7" t="n">
+        <v>90.45992579957876</v>
+      </c>
+      <c r="I7" t="n">
+        <v>83.15270999692807</v>
+      </c>
+      <c r="J7" t="n">
+        <v>68.84696293340519</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24.81283246401902</v>
+      </c>
+      <c r="L7" t="n">
+        <v>166.6518940014892</v>
+      </c>
+      <c r="M7" t="n">
+        <v>603.5804987449171</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B8" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>116.935222430406</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.7583333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>134.1535285638341</v>
+      </c>
+      <c r="F8" t="n">
+        <v>105.605939703528</v>
+      </c>
+      <c r="G8" t="n">
+        <v>67.14647986292839</v>
+      </c>
+      <c r="H8" t="n">
+        <v>90.59843511320611</v>
+      </c>
+      <c r="I8" t="n">
+        <v>81.96074216494975</v>
+      </c>
+      <c r="J8" t="n">
+        <v>65.54098544649463</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.70655434537823</v>
+      </c>
+      <c r="L8" t="n">
+        <v>185.5754750536831</v>
+      </c>
+      <c r="M8" t="n">
+        <v>742.9488930281407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B9" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>112.1075093111823</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.2583333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>136.2464790138977</v>
+      </c>
+      <c r="F9" t="n">
+        <v>108.8272136135968</v>
+      </c>
+      <c r="G9" t="n">
+        <v>79.66706683039665</v>
+      </c>
+      <c r="H9" t="n">
+        <v>86.54234111617338</v>
+      </c>
+      <c r="I9" t="n">
+        <v>84.83079056511126</v>
+      </c>
+      <c r="J9" t="n">
+        <v>68.92709701181209</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.27303502344016</v>
+      </c>
+      <c r="L9" t="n">
+        <v>207.2643834073888</v>
+      </c>
+      <c r="M9" t="n">
+        <v>897.3342856843863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B10" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>128.908894218753</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>138.1409967127809</v>
+      </c>
+      <c r="F10" t="n">
+        <v>112.3584931148198</v>
+      </c>
+      <c r="G10" t="n">
+        <v>124.5787260711193</v>
+      </c>
+      <c r="H10" t="n">
+        <v>108.8616732840962</v>
+      </c>
+      <c r="I10" t="n">
+        <v>90.82910235211033</v>
+      </c>
+      <c r="J10" t="n">
+        <v>96.43427533724754</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59.53512892075481</v>
+      </c>
+      <c r="L10" t="n">
+        <v>250.0282691519403</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1089.589649060419</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B11" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120.5746709182091</v>
+      </c>
+      <c r="D11" t="n">
+        <v>130.4166666666667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>140.1403780432826</v>
+      </c>
+      <c r="F11" t="n">
+        <v>115.8909503075219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>138.1622717559338</v>
+      </c>
+      <c r="H11" t="n">
+        <v>107.2186850388667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>97.96541271731436</v>
+      </c>
+      <c r="J11" t="n">
+        <v>112.4772531897547</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60.94100615510858</v>
+      </c>
+      <c r="L11" t="n">
+        <v>278.6322882688863</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1277.857258782582</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B12" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>130.7905494777465</v>
+      </c>
+      <c r="D12" t="n">
+        <v>133.4083333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>142.2372118717162</v>
+      </c>
+      <c r="F12" t="n">
+        <v>117.6110716061839</v>
+      </c>
+      <c r="G12" t="n">
+        <v>135.6345756232739</v>
+      </c>
+      <c r="H12" t="n">
+        <v>114.2100628999842</v>
+      </c>
+      <c r="I12" t="n">
+        <v>104.2091088043015</v>
+      </c>
+      <c r="J12" t="n">
+        <v>117.2671063533243</v>
+      </c>
+      <c r="K12" t="n">
+        <v>69.6024273504898</v>
+      </c>
+      <c r="L12" t="n">
+        <v>315.3369528994211</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1497.869002733784</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B13" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>141.0695573192538</v>
+      </c>
+      <c r="D13" t="n">
+        <v>135.8166666666667</v>
+      </c>
+      <c r="E13" t="n">
+        <v>143.9558193850512</v>
+      </c>
+      <c r="F13" t="n">
+        <v>117.5251423987834</v>
+      </c>
+      <c r="G13" t="n">
+        <v>136.238487559557</v>
+      </c>
+      <c r="H13" t="n">
+        <v>117.7341380567271</v>
+      </c>
+      <c r="I13" t="n">
+        <v>107.0962515990242</v>
+      </c>
+      <c r="J13" t="n">
+        <v>117.600982422365</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.17703746587625</v>
+      </c>
+      <c r="L13" t="n">
+        <v>303.3366309858282</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1399.572632777914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13308,32 +13925,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>weighted</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -13347,34 +13964,34 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>159.1933549763537</v>
+        <v>158.7992090473758</v>
       </c>
       <c r="C2" t="n">
         <v>154.5583333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>153.6030622343002</v>
+        <v>153.4670217678987</v>
       </c>
       <c r="E2" t="n">
         <v>157.8220479196293</v>
       </c>
       <c r="F2" t="n">
-        <v>155.276595293886</v>
+        <v>165.1073768615723</v>
       </c>
       <c r="G2" t="n">
-        <v>155.7358365917999</v>
+        <v>155.9481645337061</v>
       </c>
       <c r="H2" t="n">
+        <v>155.5700099169691</v>
+      </c>
+      <c r="I2" t="n">
         <v>148.5055401380118</v>
       </c>
-      <c r="I2" t="n">
-        <v>156.679271030426</v>
-      </c>
       <c r="J2" t="n">
-        <v>156.1930834958303</v>
+        <v>155.5782627858437</v>
       </c>
       <c r="K2" t="n">
-        <v>156.9544672998584</v>
+        <v>156.2462383405711</v>
       </c>
       <c r="L2" t="n">
         <v>158.0669846889212</v>
@@ -13385,34 +14002,34 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>154.3513003526714</v>
+        <v>154.4029773424122</v>
       </c>
       <c r="C3" t="n">
         <v>151.1083333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>150.230076809033</v>
+        <v>150.1177743467056</v>
       </c>
       <c r="E3" t="n">
         <v>154.7603316159534</v>
       </c>
       <c r="F3" t="n">
-        <v>151.148748645982</v>
+        <v>165.5584989964962</v>
       </c>
       <c r="G3" t="n">
-        <v>152.1560034239677</v>
+        <v>152.9484678482649</v>
       </c>
       <c r="H3" t="n">
+        <v>151.9564741314531</v>
+      </c>
+      <c r="I3" t="n">
         <v>146.5031239057099</v>
       </c>
-      <c r="I3" t="n">
-        <v>152.7148955345154</v>
-      </c>
       <c r="J3" t="n">
-        <v>152.5399390775411</v>
+        <v>154.324651855677</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9894314244386</v>
+        <v>153.1489658633293</v>
       </c>
       <c r="L3" t="n">
         <v>154.3869171116115</v>
@@ -13423,34 +14040,34 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>152.9557932946433</v>
+        <v>152.7763478640812</v>
       </c>
       <c r="C4" t="n">
         <v>152.775</v>
       </c>
       <c r="D4" t="n">
-        <v>147.4373026872851</v>
+        <v>147.4811886770815</v>
       </c>
       <c r="E4" t="n">
         <v>160.0832091263173</v>
       </c>
       <c r="F4" t="n">
-        <v>151.5267197551658</v>
+        <v>170.2978927075863</v>
       </c>
       <c r="G4" t="n">
-        <v>146.1222226407837</v>
+        <v>151.5803451672496</v>
       </c>
       <c r="H4" t="n">
+        <v>145.8849488064909</v>
+      </c>
+      <c r="I4" t="n">
         <v>139.4780515071026</v>
       </c>
-      <c r="I4" t="n">
-        <v>154.4187964677811</v>
-      </c>
       <c r="J4" t="n">
-        <v>150.6540802559771</v>
+        <v>154.4834989605862</v>
       </c>
       <c r="K4" t="n">
-        <v>149.6868552727977</v>
+        <v>151.6472381850969</v>
       </c>
       <c r="L4" t="n">
         <v>148.6674698364648</v>
@@ -13461,34 +14078,34 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>154.5897046669394</v>
+        <v>154.2175198679189</v>
       </c>
       <c r="C5" t="n">
         <v>150.7333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>144.4213982883196</v>
+        <v>144.6265589497182</v>
       </c>
       <c r="E5" t="n">
         <v>158.3740204590774</v>
       </c>
       <c r="F5" t="n">
-        <v>152.7328995548391</v>
+        <v>178.3332225263119</v>
       </c>
       <c r="G5" t="n">
-        <v>140.2071098855771</v>
+        <v>151.5794831842148</v>
       </c>
       <c r="H5" t="n">
+        <v>139.9546132768486</v>
+      </c>
+      <c r="I5" t="n">
         <v>144.3088045227086</v>
       </c>
-      <c r="I5" t="n">
-        <v>158.7010707139969</v>
-      </c>
       <c r="J5" t="n">
-        <v>148.4125058489592</v>
+        <v>155.8943707350073</v>
       </c>
       <c r="K5" t="n">
-        <v>147.3895629783244</v>
+        <v>150.1191791565965</v>
       </c>
       <c r="L5" t="n">
         <v>143.1575859797143</v>
@@ -13499,34 +14116,34 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>144.7388982029791</v>
+        <v>144.1350916144025</v>
       </c>
       <c r="C6" t="n">
         <v>141.8833333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>135.3638689012388</v>
+        <v>135.6913658442832</v>
       </c>
       <c r="E6" t="n">
         <v>151.9009783128321</v>
       </c>
       <c r="F6" t="n">
-        <v>141.722251231795</v>
+        <v>176.8225585401058</v>
       </c>
       <c r="G6" t="n">
-        <v>131.7062908896642</v>
+        <v>142.9523046768819</v>
       </c>
       <c r="H6" t="n">
+        <v>131.5404830124376</v>
+      </c>
+      <c r="I6" t="n">
         <v>122.5985977311986</v>
       </c>
-      <c r="I6" t="n">
-        <v>146.8686646699906</v>
-      </c>
       <c r="J6" t="n">
-        <v>138.0842864593054</v>
+        <v>149.0304565719598</v>
       </c>
       <c r="K6" t="n">
-        <v>136.1425747589087</v>
+        <v>140.6633311893828</v>
       </c>
       <c r="L6" t="n">
         <v>128.3249571725081</v>
@@ -13537,34 +14154,34 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>146.0092676876537</v>
+        <v>145.4080760158442</v>
       </c>
       <c r="C7" t="n">
         <v>137.4333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>131.2481008911306</v>
+        <v>131.5957394040541</v>
       </c>
       <c r="E7" t="n">
         <v>148.1763168913826</v>
       </c>
       <c r="F7" t="n">
-        <v>136.396455536467</v>
+        <v>170.3596302449703</v>
       </c>
       <c r="G7" t="n">
-        <v>128.3649676104336</v>
+        <v>138.9906463397934</v>
       </c>
       <c r="H7" t="n">
+        <v>128.2816103437062</v>
+      </c>
+      <c r="I7" t="n">
         <v>107.5874561757163</v>
       </c>
-      <c r="I7" t="n">
-        <v>140.2555970430374</v>
-      </c>
       <c r="J7" t="n">
-        <v>134.4425040509041</v>
+        <v>139.9681235994819</v>
       </c>
       <c r="K7" t="n">
-        <v>133.6910799377486</v>
+        <v>136.262518758053</v>
       </c>
       <c r="L7" t="n">
         <v>123.8158712344614</v>
@@ -13575,34 +14192,34 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>147.1293765684956</v>
+        <v>146.3485760593025</v>
       </c>
       <c r="C8" t="n">
         <v>138.925</v>
       </c>
       <c r="D8" t="n">
-        <v>128.3694547633933</v>
+        <v>128.7133191445484</v>
       </c>
       <c r="E8" t="n">
         <v>141.1059397035281</v>
       </c>
       <c r="F8" t="n">
-        <v>134.2341098244769</v>
+        <v>170.5023215442896</v>
       </c>
       <c r="G8" t="n">
-        <v>128.3524429482826</v>
+        <v>138.2070018778997</v>
       </c>
       <c r="H8" t="n">
+        <v>128.357719834448</v>
+      </c>
+      <c r="I8" t="n">
         <v>103.5476289921068</v>
       </c>
-      <c r="I8" t="n">
-        <v>140.9599135398865</v>
-      </c>
       <c r="J8" t="n">
-        <v>133.1079003044515</v>
+        <v>139.559110429848</v>
       </c>
       <c r="K8" t="n">
-        <v>132.8439183560137</v>
+        <v>135.1510060948981</v>
       </c>
       <c r="L8" t="n">
         <v>123.0329237361523</v>
@@ -13613,34 +14230,34 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>140.8811479542284</v>
+        <v>140.1731985490464</v>
       </c>
       <c r="C9" t="n">
         <v>140.0166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>125.5901734632342</v>
+        <v>126.2945123365564</v>
       </c>
       <c r="E9" t="n">
         <v>144.3272136135969</v>
       </c>
       <c r="F9" t="n">
-        <v>134.5392747560334</v>
+        <v>176.468736949563</v>
       </c>
       <c r="G9" t="n">
-        <v>129.5081015786041</v>
+        <v>136.1924557309456</v>
       </c>
       <c r="H9" t="n">
+        <v>129.6267619782217</v>
+      </c>
+      <c r="I9" t="n">
         <v>106.3198554387913</v>
       </c>
-      <c r="I9" t="n">
-        <v>136.3266628265381</v>
-      </c>
       <c r="J9" t="n">
-        <v>131.6843425616801</v>
+        <v>142.1096563072339</v>
       </c>
       <c r="K9" t="n">
-        <v>128.8382308514284</v>
+        <v>134.5498884676611</v>
       </c>
       <c r="L9" t="n">
         <v>120.0433711368226</v>
@@ -13651,34 +14268,34 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>156.6105924454848</v>
+        <v>155.3282959238043</v>
       </c>
       <c r="C10" t="n">
         <v>153.4916666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>138.9678749137668</v>
+        <v>138.9236049498558</v>
       </c>
       <c r="E10" t="n">
         <v>147.8584931148199</v>
       </c>
       <c r="F10" t="n">
-        <v>155.5156204436604</v>
+        <v>196.0266955524683</v>
       </c>
       <c r="G10" t="n">
-        <v>138.3740321996159</v>
+        <v>152.1128381064136</v>
       </c>
       <c r="H10" t="n">
+        <v>138.4999641913241</v>
+      </c>
+      <c r="I10" t="n">
         <v>136.0148467802387</v>
       </c>
-      <c r="I10" t="n">
-        <v>158.9868534088135</v>
-      </c>
       <c r="J10" t="n">
-        <v>145.3559766912997</v>
+        <v>162.0866134455809</v>
       </c>
       <c r="K10" t="n">
-        <v>144.4572979937756</v>
+        <v>148.9710064833057</v>
       </c>
       <c r="L10" t="n">
         <v>137.7934266220753</v>
@@ -13689,34 +14306,34 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>147.1374092291097</v>
+        <v>145.517811401481</v>
       </c>
       <c r="C11" t="n">
         <v>160.8</v>
       </c>
       <c r="D11" t="n">
-        <v>141.9208504854455</v>
+        <v>141.8809239844413</v>
       </c>
       <c r="E11" t="n">
         <v>151.3909503075219</v>
       </c>
       <c r="F11" t="n">
-        <v>156.9589389878068</v>
+        <v>204.4815018802881</v>
       </c>
       <c r="G11" t="n">
-        <v>142.0001086367726</v>
+        <v>151.1177296978974</v>
       </c>
       <c r="H11" t="n">
+        <v>142.1778055942709</v>
+      </c>
+      <c r="I11" t="n">
         <v>150.9218202608018</v>
       </c>
-      <c r="I11" t="n">
-        <v>157.3354191064835</v>
-      </c>
       <c r="J11" t="n">
-        <v>146.3932973450408</v>
+        <v>165.95445370777</v>
       </c>
       <c r="K11" t="n">
-        <v>141.6835007837369</v>
+        <v>150.3000884831318</v>
       </c>
       <c r="L11" t="n">
         <v>135.9922426366555</v>
@@ -13727,34 +14344,34 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>155.603627212717</v>
+        <v>154.4316603895961</v>
       </c>
       <c r="C12" t="n">
         <v>161.275</v>
       </c>
       <c r="D12" t="n">
-        <v>150.1853309092155</v>
+        <v>150.2273436674125</v>
       </c>
       <c r="E12" t="n">
         <v>153.1110716061839</v>
       </c>
       <c r="F12" t="n">
-        <v>163.1161984714344</v>
+        <v>218.4263384968042</v>
       </c>
       <c r="G12" t="n">
-        <v>150.0062108641862</v>
+        <v>159.8510862370118</v>
       </c>
       <c r="H12" t="n">
+        <v>150.1304077510188</v>
+      </c>
+      <c r="I12" t="n">
         <v>156.7873180776919</v>
       </c>
-      <c r="I12" t="n">
-        <v>164.1495517969132</v>
-      </c>
       <c r="J12" t="n">
-        <v>153.6270852633481</v>
+        <v>174.8942546540269</v>
       </c>
       <c r="K12" t="n">
-        <v>151.8322231697011</v>
+        <v>158.1205799129795</v>
       </c>
       <c r="L12" t="n">
         <v>149.7077113871708</v>
@@ -13765,34 +14382,34 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>165.9146606532113</v>
+        <v>165.0735337264939</v>
       </c>
       <c r="C13" t="n">
-        <v>162.2666666666667</v>
+        <v>162.4083333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>152.4859588594391</v>
+        <v>152.5191479726159</v>
       </c>
       <c r="E13" t="n">
         <v>153.0251423987834</v>
       </c>
       <c r="F13" t="n">
-        <v>163.7232913902112</v>
+        <v>221.9609513908625</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9529876311977</v>
+        <v>164.6457262991835</v>
       </c>
       <c r="H13" t="n">
+        <v>156.9611327091151</v>
+      </c>
+      <c r="I13" t="n">
         <v>155.2175788909178</v>
       </c>
-      <c r="I13" t="n">
-        <v>166.7135009050369</v>
-      </c>
       <c r="J13" t="n">
-        <v>158.9893767071765</v>
+        <v>176.3444971984406</v>
       </c>
       <c r="K13" t="n">
-        <v>160.0688304969783</v>
+        <v>163.0959120999896</v>
       </c>
       <c r="L13" t="n">
         <v>161.8058719782846</v>
@@ -13803,34 +14420,34 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>172.4468178305372</v>
+        <v>171.7645794638347</v>
       </c>
       <c r="C14" t="n">
-        <v>162.8916666666667</v>
+        <v>163.0333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>151.3968514962331</v>
+        <v>151.5246597840385</v>
       </c>
       <c r="E14" t="n">
         <v>156.5610566858272</v>
       </c>
       <c r="F14" t="n">
-        <v>163.9629015245193</v>
+        <v>228.3582449585199</v>
       </c>
       <c r="G14" t="n">
-        <v>159.5307719146462</v>
+        <v>166.7938490360318</v>
       </c>
       <c r="H14" t="n">
+        <v>159.3987585793463</v>
+      </c>
+      <c r="I14" t="n">
         <v>150.6604362021833</v>
       </c>
-      <c r="I14" t="n">
-        <v>168.3111711025238</v>
-      </c>
       <c r="J14" t="n">
-        <v>161.5564444507908</v>
+        <v>177.0923078602224</v>
       </c>
       <c r="K14" t="n">
-        <v>163.6391921105125</v>
+        <v>165.6145292215874</v>
       </c>
       <c r="L14" t="n">
         <v>167.0739070047674</v>
@@ -13841,34 +14458,34 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>165.9445061551207</v>
+        <v>165.3232734144235</v>
       </c>
       <c r="C15" t="n">
-        <v>158.7083333333333</v>
+        <v>158.85</v>
       </c>
       <c r="D15" t="n">
-        <v>148.3887864737359</v>
+        <v>148.5573546417366</v>
       </c>
       <c r="E15" t="n">
         <v>156.6833277373912</v>
       </c>
       <c r="F15" t="n">
-        <v>157.8425166581452</v>
+        <v>235.4831023842096</v>
       </c>
       <c r="G15" t="n">
-        <v>154.6411516225435</v>
+        <v>162.0948081650904</v>
       </c>
       <c r="H15" t="n">
+        <v>154.4706806571432</v>
+      </c>
+      <c r="I15" t="n">
         <v>148.4338240526654</v>
       </c>
-      <c r="I15" t="n">
-        <v>167.3434287786484</v>
-      </c>
       <c r="J15" t="n">
-        <v>157.4056251126449</v>
+        <v>172.4037964391112</v>
       </c>
       <c r="K15" t="n">
-        <v>158.3869947863998</v>
+        <v>161.4443580656463</v>
       </c>
       <c r="L15" t="n">
         <v>160.8276917303427</v>
@@ -13879,34 +14496,34 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>166.0598631672464</v>
+        <v>165.4144051156462</v>
       </c>
       <c r="C16" t="n">
-        <v>159.2</v>
+        <v>159.3416666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8134105984171</v>
+        <v>146.2022015354928</v>
       </c>
       <c r="E16" t="n">
         <v>160.2215974073929</v>
       </c>
       <c r="F16" t="n">
-        <v>157.5549052766665</v>
+        <v>243.3575387626886</v>
       </c>
       <c r="G16" t="n">
-        <v>148.9093069386325</v>
+        <v>160.9995469992145</v>
       </c>
       <c r="H16" t="n">
+        <v>148.708960340595</v>
+      </c>
+      <c r="I16" t="n">
         <v>142.6592510652843</v>
       </c>
-      <c r="I16" t="n">
-        <v>164.8765556097031</v>
-      </c>
       <c r="J16" t="n">
-        <v>155.1415621906002</v>
+        <v>171.3820343465046</v>
       </c>
       <c r="K16" t="n">
-        <v>155.1829813230757</v>
+        <v>159.6517149500273</v>
       </c>
       <c r="L16" t="n">
         <v>153.6756702035635</v>
@@ -13917,34 +14534,34 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>166.9543020933737</v>
+        <v>166.0340388294437</v>
       </c>
       <c r="C17" t="n">
-        <v>157.65</v>
+        <v>157.7916666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>142.4848993133494</v>
+        <v>143.080086607131</v>
       </c>
       <c r="E17" t="n">
         <v>158.5262751075675</v>
       </c>
       <c r="F17" t="n">
-        <v>158.7610850763398</v>
+        <v>250.589349809289</v>
       </c>
       <c r="G17" t="n">
-        <v>142.184025463868</v>
+        <v>160.5897087101993</v>
       </c>
       <c r="H17" t="n">
+        <v>141.9879524122444</v>
+      </c>
+      <c r="I17" t="n">
         <v>146.0287304882584</v>
       </c>
-      <c r="I17" t="n">
-        <v>165.3600322782993</v>
-      </c>
       <c r="J17" t="n">
-        <v>151.9770997238302</v>
+        <v>172.6550006940231</v>
       </c>
       <c r="K17" t="n">
-        <v>151.5053996563337</v>
+        <v>157.396759785782</v>
       </c>
       <c r="L17" t="n">
         <v>145.0769975622778</v>
@@ -13955,34 +14572,34 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>158.0148357430189</v>
+        <v>156.6569818433282</v>
       </c>
       <c r="C18" t="n">
-        <v>148.8</v>
+        <v>148.9416666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>134.0392859076696</v>
+        <v>134.7181414184909</v>
       </c>
       <c r="E18" t="n">
         <v>152.0670993287367</v>
       </c>
       <c r="F18" t="n">
-        <v>150.2865540327782</v>
+        <v>249.0162912040949</v>
       </c>
       <c r="G18" t="n">
-        <v>134.0331727010957</v>
+        <v>152.895201567276</v>
       </c>
       <c r="H18" t="n">
+        <v>133.926783080904</v>
+      </c>
+      <c r="I18" t="n">
         <v>126.2165811321934</v>
       </c>
-      <c r="I18" t="n">
-        <v>155.4965354979038</v>
-      </c>
       <c r="J18" t="n">
-        <v>142.1150311721467</v>
+        <v>167.310481440009</v>
       </c>
       <c r="K18" t="n">
-        <v>140.7437410723145</v>
+        <v>148.4963110244016</v>
       </c>
       <c r="L18" t="n">
         <v>130.1771015662551</v>
@@ -13993,34 +14610,34 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>158.7500252523933</v>
+        <v>157.2379678810412</v>
       </c>
       <c r="C19" t="n">
-        <v>142.4833333333333</v>
+        <v>142.625</v>
       </c>
       <c r="D19" t="n">
-        <v>128.6240496982302</v>
+        <v>129.3169153093454</v>
       </c>
       <c r="E19" t="n">
         <v>148.3563042747017</v>
       </c>
       <c r="F19" t="n">
-        <v>143.285518915413</v>
+        <v>245.497614684701</v>
       </c>
       <c r="G19" t="n">
-        <v>129.874688235417</v>
+        <v>149.2840710508466</v>
       </c>
       <c r="H19" t="n">
+        <v>129.8738271620489</v>
+      </c>
+      <c r="I19" t="n">
         <v>109.9740225775157</v>
       </c>
-      <c r="I19" t="n">
-        <v>145.6532556593418</v>
-      </c>
       <c r="J19" t="n">
-        <v>137.4018054400273</v>
+        <v>161.2973299621533</v>
       </c>
       <c r="K19" t="n">
-        <v>137.2573254622711</v>
+        <v>143.896317845994</v>
       </c>
       <c r="L19" t="n">
         <v>124.3979014361897</v>
@@ -14031,34 +14648,34 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>158.8286509064471</v>
+        <v>156.9602196007386</v>
       </c>
       <c r="C20" t="n">
-        <v>143.975</v>
+        <v>144.1166666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>124.8996184106899</v>
+        <v>125.6061836414364</v>
       </c>
       <c r="E20" t="n">
         <v>148.5523152726401</v>
       </c>
       <c r="F20" t="n">
-        <v>141.1231732034229</v>
+        <v>248.3329167991877</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3945918777231</v>
+        <v>147.7479545437413</v>
       </c>
       <c r="H20" t="n">
+        <v>129.500461091488</v>
+      </c>
+      <c r="I20" t="n">
         <v>104.7870413243681</v>
       </c>
-      <c r="I20" t="n">
-        <v>146.6264689743519</v>
-      </c>
       <c r="J20" t="n">
-        <v>136.4803791590172</v>
+        <v>160.6774603890489</v>
       </c>
       <c r="K20" t="n">
-        <v>135.6698799580472</v>
+        <v>143.0674957293345</v>
       </c>
       <c r="L20" t="n">
         <v>123.2813705570045</v>
@@ -14069,34 +14686,34 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>152.1384416383071</v>
+        <v>150.1107340855679</v>
       </c>
       <c r="C21" t="n">
-        <v>146.0166666666667</v>
+        <v>146.1583333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>124.361412877388</v>
+        <v>125.1369704278868</v>
       </c>
       <c r="E21" t="n">
         <v>152.0963974199417</v>
       </c>
       <c r="F21" t="n">
-        <v>146.7128743865612</v>
+        <v>258.1275230079889</v>
       </c>
       <c r="G21" t="n">
-        <v>130.9557650391314</v>
+        <v>146.5713550666974</v>
       </c>
       <c r="H21" t="n">
+        <v>131.1802983891669</v>
+      </c>
+      <c r="I21" t="n">
         <v>107.440831005835</v>
       </c>
-      <c r="I21" t="n">
-        <v>148.009799438715</v>
-      </c>
       <c r="J21" t="n">
-        <v>136.160368317949</v>
+        <v>164.4663606866376</v>
       </c>
       <c r="K21" t="n">
-        <v>132.7964978743342</v>
+        <v>143.3564836202005</v>
       </c>
       <c r="L21" t="n">
         <v>121.8896391073075</v>
@@ -14107,34 +14724,34 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>171.680883983656</v>
+        <v>169.9909621703721</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8</v>
+        <v>156.9416666666667</v>
       </c>
       <c r="D22" t="n">
-        <v>133.9792283461992</v>
+        <v>135.171945126651</v>
       </c>
       <c r="E22" t="n">
         <v>155.6415432885792</v>
       </c>
       <c r="F22" t="n">
-        <v>167.8535511412506</v>
+        <v>275.5566001564264</v>
       </c>
       <c r="G22" t="n">
-        <v>141.3290826169213</v>
+        <v>164.2828808135837</v>
       </c>
       <c r="H22" t="n">
+        <v>141.5426941466512</v>
+      </c>
+      <c r="I22" t="n">
         <v>138.9361858217326</v>
       </c>
-      <c r="I22" t="n">
-        <v>173.9566511690617</v>
-      </c>
       <c r="J22" t="n">
-        <v>150.2650233528158</v>
+        <v>187.6857351437282</v>
       </c>
       <c r="K22" t="n">
-        <v>149.3938420239103</v>
+        <v>159.0408297560303</v>
       </c>
       <c r="L22" t="n">
         <v>142.5214137418755</v>
@@ -14145,34 +14762,34 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>164.5198338578268</v>
+        <v>162.5441278968059</v>
       </c>
       <c r="C23" t="n">
-        <v>166.05</v>
+        <v>166.1916666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>141.4443349454598</v>
+        <v>142.3610532446919</v>
       </c>
       <c r="E23" t="n">
         <v>152.6029249339115</v>
       </c>
       <c r="F23" t="n">
-        <v>175.6618897037523</v>
+        <v>285.8093209892511</v>
       </c>
       <c r="G23" t="n">
-        <v>147.4496485439488</v>
+        <v>166.4225359059803</v>
       </c>
       <c r="H23" t="n">
+        <v>147.6786307006316</v>
+      </c>
+      <c r="I23" t="n">
         <v>152.885124181462</v>
       </c>
-      <c r="I23" t="n">
-        <v>180.638753849268</v>
-      </c>
       <c r="J23" t="n">
-        <v>153.2887744403386</v>
+        <v>194.3624265764429</v>
       </c>
       <c r="K23" t="n">
-        <v>150.1549161839139</v>
+        <v>162.2958920565371</v>
       </c>
       <c r="L23" t="n">
         <v>144.5005797484549</v>
@@ -14183,34 +14800,34 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>172.3070963987486</v>
+        <v>171.0071566779579</v>
       </c>
       <c r="C24" t="n">
-        <v>166.525</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>148.2596129747028</v>
+        <v>149.3539120822425</v>
       </c>
       <c r="E24" t="n">
         <v>156.1568233442879</v>
       </c>
       <c r="F24" t="n">
-        <v>182.4673070166175</v>
+        <v>299.6270118385553</v>
       </c>
       <c r="G24" t="n">
-        <v>155.1519930604816</v>
+        <v>173.4981300408159</v>
       </c>
       <c r="H24" t="n">
+        <v>155.3233915458923</v>
+      </c>
+      <c r="I24" t="n">
         <v>159.5765474204187</v>
       </c>
-      <c r="I24" t="n">
-        <v>192.4588775217533</v>
-      </c>
       <c r="J24" t="n">
-        <v>160.4921098824211</v>
+        <v>200.1333213622475</v>
       </c>
       <c r="K24" t="n">
-        <v>159.5849209613181</v>
+        <v>169.4138006770071</v>
       </c>
       <c r="L24" t="n">
         <v>158.1880535105027</v>
@@ -14221,34 +14838,34 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>178.8699737139059</v>
+        <v>177.7519649006346</v>
       </c>
       <c r="C25" t="n">
-        <v>168</v>
+        <v>168.1416666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>149.7270536111772</v>
+        <v>150.7982647505864</v>
       </c>
       <c r="E25" t="n">
         <v>159.7054642973147</v>
       </c>
       <c r="F25" t="n">
-        <v>183.1913231818257</v>
+        <v>304.2418904930353</v>
       </c>
       <c r="G25" t="n">
-        <v>160.2588593258037</v>
+        <v>176.5438289224997</v>
       </c>
       <c r="H25" t="n">
+        <v>160.3350542973623</v>
+      </c>
+      <c r="I25" t="n">
         <v>155.7873150125706</v>
       </c>
-      <c r="I25" t="n">
-        <v>194.1387730419636</v>
-      </c>
       <c r="J25" t="n">
-        <v>164.685990895658</v>
+        <v>201.0812571162782</v>
       </c>
       <c r="K25" t="n">
-        <v>165.2426039289902</v>
+        <v>173.2450347799975</v>
       </c>
       <c r="L25" t="n">
         <v>167.1307844618876</v>

--- a/examples/housing_results.xlsx
+++ b/examples/housing_results.xlsx
@@ -539,7 +539,7 @@
         <v>1.648164533706054</v>
       </c>
       <c r="L2" t="n">
-        <v>1.946238340571063</v>
+        <v>1.952578607830237</v>
       </c>
     </row>
     <row r="3">
@@ -559,7 +559,7 @@
         <v>0.4511221349239349</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.253610930166673</v>
+        <v>-1.253610930166672</v>
       </c>
       <c r="G3" t="n">
         <v>-4.396231704963625</v>
@@ -574,10 +574,10 @@
         <v>-3.061716303675877</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.999696685441143</v>
+        <v>-2.999696685441142</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.097272477241781</v>
+        <v>-3.122951555661883</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         <v>4.739393711090088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1588471049091813</v>
+        <v>0.1588471049091811</v>
       </c>
       <c r="G4" t="n">
         <v>-1.626629478330968</v>
@@ -615,7 +615,7 @@
         <v>-1.368122681015286</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.501727678232446</v>
+        <v>-1.52386706247734</v>
       </c>
     </row>
     <row r="5">
@@ -650,10 +650,10 @@
         <v>-1.709188667239948</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0008619830348366442</v>
+        <v>-0.0008619830348367922</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.528059028500398</v>
+        <v>-1.575793372084814</v>
       </c>
     </row>
     <row r="6">
@@ -673,7 +673,7 @@
         <v>-1.510663986206055</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.86391416304753</v>
+        <v>-6.863914163047532</v>
       </c>
       <c r="G6" t="n">
         <v>-10.0824282535164</v>
@@ -691,7 +691,7 @@
         <v>-8.627178507332971</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.455847967213678</v>
+        <v>-9.483156695418931</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +711,7 @@
         <v>-6.462928295135498</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.062332972477874</v>
+        <v>-11.85106264609203</v>
       </c>
       <c r="G7" t="n">
         <v>1.272984401441768</v>
@@ -726,10 +726,10 @@
         <v>-3.72466142144948</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.961658337088421</v>
+        <v>-4.891234894959807</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.400812431329789</v>
+        <v>-4.823736646889416</v>
       </c>
     </row>
     <row r="8">
@@ -749,7 +749,7 @@
         <v>0.1426912993192673</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4090131696339123</v>
+        <v>0.01558857323254976</v>
       </c>
       <c r="G8" t="n">
         <v>0.9405000434582282</v>
@@ -764,10 +764,10 @@
         <v>-7.070377187854572</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.7836444618937719</v>
+        <v>-0.6421105476049511</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.111512663154885</v>
+        <v>-1.042349767738945</v>
       </c>
     </row>
     <row r="9">
@@ -787,7 +787,7 @@
         <v>5.966415405273438</v>
       </c>
       <c r="F9" t="n">
-        <v>2.550545877385878</v>
+        <v>2.550545877385879</v>
       </c>
       <c r="G9" t="n">
         <v>-6.175377510256047</v>
@@ -805,7 +805,7 @@
         <v>-2.014546146954066</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6011176272370149</v>
+        <v>-0.6504891846629909</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>19.55795860290527</v>
       </c>
       <c r="F10" t="n">
-        <v>19.97695713834701</v>
+        <v>19.27821725067636</v>
       </c>
       <c r="G10" t="n">
         <v>15.15509737475784</v>
@@ -840,10 +840,10 @@
         <v>3.531279501222999</v>
       </c>
       <c r="K10" t="n">
-        <v>15.92038237546806</v>
+        <v>15.68746907957784</v>
       </c>
       <c r="L10" t="n">
-        <v>14.42111801564464</v>
+        <v>14.22097761357598</v>
       </c>
     </row>
     <row r="11">
@@ -863,7 +863,7 @@
         <v>8.454806327819824</v>
       </c>
       <c r="F11" t="n">
-        <v>3.867840262189083</v>
+        <v>6.871016454441649</v>
       </c>
       <c r="G11" t="n">
         <v>-9.810484522323225</v>
@@ -878,10 +878,10 @@
         <v>3.532457192702039</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.9951084085162095</v>
+        <v>0.005950322234645977</v>
       </c>
       <c r="L11" t="n">
-        <v>1.329081999826093</v>
+        <v>1.801041970321251</v>
       </c>
     </row>
     <row r="12">
@@ -901,7 +901,7 @@
         <v>13.94483661651611</v>
       </c>
       <c r="F12" t="n">
-        <v>8.939800946256961</v>
+        <v>7.584878069992909</v>
       </c>
       <c r="G12" t="n">
         <v>8.913848988115042</v>
@@ -916,10 +916,10 @@
         <v>1.720121298662021</v>
       </c>
       <c r="K12" t="n">
-        <v>8.733356539114396</v>
+        <v>8.281715580359714</v>
       </c>
       <c r="L12" t="n">
-        <v>7.820491429847625</v>
+        <v>7.570520428610214</v>
       </c>
     </row>
     <row r="13">
@@ -957,7 +957,7 @@
         <v>4.794640062171664</v>
       </c>
       <c r="L13" t="n">
-        <v>4.97533218701017</v>
+        <v>5.02644599508233</v>
       </c>
     </row>
     <row r="14">
@@ -977,7 +977,7 @@
         <v>6.397293567657471</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7478106617817563</v>
+        <v>0.7478106617817554</v>
       </c>
       <c r="G14" t="n">
         <v>6.691045737340787</v>
@@ -995,7 +995,7 @@
         <v>2.148122736848369</v>
       </c>
       <c r="L14" t="n">
-        <v>2.518617121597809</v>
+        <v>2.54227072607698</v>
       </c>
     </row>
     <row r="15">
@@ -1015,7 +1015,7 @@
         <v>7.124857425689697</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.688511421111237</v>
+        <v>-4.688511421111235</v>
       </c>
       <c r="G15" t="n">
         <v>-6.441306049411105</v>
@@ -1033,7 +1033,7 @@
         <v>-4.699040870941408</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.170171155941115</v>
+        <v>-4.179426868133789</v>
       </c>
     </row>
     <row r="16">
@@ -1053,7 +1053,7 @@
         <v>7.874436378479004</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.021762092606543</v>
+        <v>-1.021762092606542</v>
       </c>
       <c r="G16" t="n">
         <v>0.09113170122271816</v>
@@ -1071,7 +1071,7 @@
         <v>-1.09526116587588</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.792643115618991</v>
+        <v>-1.808751186969806</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         <v>7.231811046600342</v>
       </c>
       <c r="F17" t="n">
-        <v>1.272966347518464</v>
+        <v>1.272966347518463</v>
       </c>
       <c r="G17" t="n">
         <v>0.6196337137974898</v>
@@ -1106,10 +1106,10 @@
         <v>-1.695322299825463</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.4098382890152929</v>
+        <v>-0.4098382890152932</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.254955164245308</v>
+        <v>-2.309199604039459</v>
       </c>
     </row>
     <row r="18">
@@ -1147,7 +1147,7 @@
         <v>-7.694507142923229</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.900448761380391</v>
+        <v>-8.938955470074845</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>-3.518676519393921</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.013151477855764</v>
+        <v>-6.161453299550064</v>
       </c>
       <c r="G19" t="n">
         <v>0.5809860377129511</v>
@@ -1182,10 +1182,10 @@
         <v>-3.710795054034995</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.611130516429431</v>
+        <v>-3.660564456994198</v>
       </c>
       <c r="L19" t="n">
-        <v>-4.599993178407549</v>
+        <v>-4.598868992334386</v>
       </c>
     </row>
     <row r="20">
@@ -1205,7 +1205,7 @@
         <v>2.835302114486694</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6198695731043372</v>
+        <v>-0.6198695731043361</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2777482803025944</v>
@@ -1223,7 +1223,7 @@
         <v>-1.536116507105301</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.8288221166595885</v>
+        <v>-0.8320812758531846</v>
       </c>
     </row>
     <row r="21">
@@ -1261,7 +1261,7 @@
         <v>-1.17659947704389</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2889878908660394</v>
+        <v>0.2337959971541443</v>
       </c>
     </row>
     <row r="22">
@@ -1281,7 +1281,7 @@
         <v>17.4290771484375</v>
       </c>
       <c r="F22" t="n">
-        <v>23.2193744570906</v>
+        <v>23.21937445709059</v>
       </c>
       <c r="G22" t="n">
         <v>19.88022808480418</v>
@@ -1299,7 +1299,7 @@
         <v>17.71152574688633</v>
       </c>
       <c r="L22" t="n">
-        <v>15.68434613582974</v>
+        <v>15.58894258808175</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1319,7 @@
         <v>10.25272083282471</v>
       </c>
       <c r="F23" t="n">
-        <v>6.676691432714724</v>
+        <v>6.676691432714727</v>
       </c>
       <c r="G23" t="n">
         <v>-7.446834273566156</v>
@@ -1334,10 +1334,10 @@
         <v>-3.038618354667637</v>
       </c>
       <c r="K23" t="n">
-        <v>2.139655092396512</v>
+        <v>2.139655092396513</v>
       </c>
       <c r="L23" t="n">
-        <v>3.255062300506826</v>
+        <v>3.196739339609682</v>
       </c>
     </row>
     <row r="24">
@@ -1357,7 +1357,7 @@
         <v>13.8176908493042</v>
       </c>
       <c r="F24" t="n">
-        <v>5.770894785804578</v>
+        <v>5.770894785804579</v>
       </c>
       <c r="G24" t="n">
         <v>8.46302878115198</v>
@@ -1375,7 +1375,7 @@
         <v>7.075594134835694</v>
       </c>
       <c r="L24" t="n">
-        <v>7.117908620469988</v>
+        <v>7.13011204631547</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>4.61487865447998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9479357540306557</v>
+        <v>0.9479357540306549</v>
       </c>
       <c r="G25" t="n">
         <v>6.744808222676694</v>
@@ -1413,7 +1413,7 @@
         <v>3.045698881683768</v>
       </c>
       <c r="L25" t="n">
-        <v>3.831234102990379</v>
+        <v>3.871435431357056</v>
       </c>
     </row>
   </sheetData>
@@ -1630,19 +1630,19 @@
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>9.902651929001417</v>
+        <v>14.02642592524194</v>
       </c>
       <c r="L2" t="n">
-        <v>2.572323594374564</v>
+        <v>6.663780491287947</v>
       </c>
       <c r="M2" t="n">
-        <v>7.170047035456705</v>
+        <v>10.2331159818476</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5536880484219917</v>
+        <v>0.104574344698823</v>
       </c>
       <c r="O2" t="n">
-        <v>10.27900784150738</v>
+        <v>8.795879531155014</v>
       </c>
       <c r="P2" t="n">
         <v>8.600000000000023</v>
@@ -1672,16 +1672,16 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>11.19009846171499</v>
+        <v>12.83287437311246</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07437667846228523</v>
+        <v>0.08414943396922821</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.852848717787184</v>
+        <v>11.11989880828007</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3931776210440495</v>
+        <v>0.2019287636698676</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
@@ -1729,16 +1729,16 @@
         <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>14.24919182243655</v>
+        <v>14.23905606395988</v>
       </c>
       <c r="L3" t="n">
-        <v>2.005919859581277</v>
+        <v>1.978142081803499</v>
       </c>
       <c r="M3" t="n">
-        <v>11.23055555555555</v>
+        <v>11.15555555555555</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07590641725962632</v>
+        <v>0.07722060521125995</v>
       </c>
       <c r="O3" t="n">
         <v>2.408333333333335</v>
@@ -1771,16 +1771,16 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>12.30746113286721</v>
+        <v>13.34551483471895</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0776661571213545</v>
+        <v>0.08558887597196209</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.14722222222222</v>
+        <v>11.35555555555555</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2659414207823876</v>
+        <v>0.1368933998148608</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
@@ -1828,19 +1828,19 @@
         <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>14.92954405738234</v>
+        <v>14.85447878694572</v>
       </c>
       <c r="L4" t="n">
-        <v>2.582425408251861</v>
+        <v>2.585685464449352</v>
       </c>
       <c r="M4" t="n">
-        <v>11.40608929277311</v>
+        <v>11.37220259577465</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01444516804033147</v>
+        <v>-0.004269617908296164</v>
       </c>
       <c r="O4" t="n">
-        <v>1.718607513334995</v>
+        <v>1.334564331320183</v>
       </c>
       <c r="P4" t="n">
         <v>8.600000000000023</v>
@@ -1870,16 +1870,16 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>14.2520525329766</v>
+        <v>14.11780046733003</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.08832067882317061</v>
+        <v>0.08774390897430785</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.50220286716312</v>
+        <v>10.45437897023222</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01565213902185425</v>
+        <v>0.03410959473383657</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
@@ -1981,38 +1981,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>749</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>1</v>
       </c>
@@ -2020,58 +2010,54 @@
         <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>14.62920024092119</v>
+        <v>15.89384444251378</v>
       </c>
       <c r="L6" t="n">
-        <v>11.80749569641674</v>
+        <v>7.016186542507093</v>
       </c>
       <c r="M6" t="n">
-        <v>12.23667150090138</v>
+        <v>11.22603972473918</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02596030206690747</v>
+        <v>-0.1497234904126219</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6039119362831116</v>
+        <v>9.129036042668341</v>
       </c>
       <c r="P6" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.911146087889795</v>
+        <v>9.683650555428128</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>3.836273270434347</v>
+        <v>7.620413107356328</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9163427292550247</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>24.03058037544776</v>
-      </c>
+        <v>0.6747508245367966</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>['gbt', 'elasticnet', 'mlp']</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>24.0936971082616</v>
+        <v>21.47492324552359</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1721041317838984</v>
+        <v>0.1439520901517129</v>
       </c>
       <c r="AC6" t="n">
-        <v>21.24729773650567</v>
+        <v>19.2549123843002</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1.813200368359647</v>
+        <v>-1.234894431737837</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
@@ -2080,28 +2066,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F7" t="n">
         <v>749</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
@@ -2109,54 +2105,58 @@
         <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>11.05803931340146</v>
+        <v>14.23932284272253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5376141426204295</v>
+        <v>2.273497786112829</v>
       </c>
       <c r="M7" t="n">
-        <v>7.285661049749073</v>
+        <v>11.43275866049344</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4434659410154823</v>
+        <v>0.07718602704116251</v>
       </c>
       <c r="O7" t="n">
-        <v>3.524075156742938</v>
+        <v>2.870925929199943</v>
       </c>
       <c r="P7" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.68365055542813</v>
+        <v>13.17665414363269</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>7.620413107356328</v>
+        <v>10.05599202034097</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6747508245367966</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+        <v>0.3977895605518927</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>15.05258355144947</v>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>['gbt', 'elasticnet', 'mlp']</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>25.61536212378744</v>
+        <v>33.25991020784068</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1900760005268688</v>
+        <v>0.2382320181181875</v>
       </c>
       <c r="AC7" t="n">
-        <v>24.72428492334623</v>
+        <v>31.09109103444199</v>
       </c>
       <c r="AD7" t="n">
-        <v>-2.179763154495447</v>
+        <v>-4.36087792408701</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
@@ -2165,12 +2165,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'max_depth': 3}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2204,32 +2204,32 @@
         <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>14.22430552913185</v>
+        <v>18.56963215542325</v>
       </c>
       <c r="L8" t="n">
-        <v>2.283848613333041</v>
+        <v>2.241827958578547</v>
       </c>
       <c r="M8" t="n">
-        <v>11.41811351772209</v>
+        <v>15.77929464777311</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07913146774701818</v>
+        <v>-0.5694305067914878</v>
       </c>
       <c r="O8" t="n">
-        <v>2.887142794722719</v>
+        <v>-8.88956356048584</v>
       </c>
       <c r="P8" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.17665414363269</v>
+        <v>4.911146087889795</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>10.05599202034097</v>
+        <v>3.836273270434347</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3977895605518927</v>
+        <v>0.9163427292550247</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
@@ -2240,22 +2240,22 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>15.05258355144947</v>
+        <v>24.03058037544776</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>33.25013667552012</v>
+        <v>35.28991597573515</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2381959297637569</v>
+        <v>0.2504857507521017</v>
       </c>
       <c r="AC8" t="n">
-        <v>31.08605604300426</v>
+        <v>32.22116348346074</v>
       </c>
       <c r="AD8" t="n">
-        <v>-4.357727764320964</v>
+        <v>-5.035246620800884</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>19.84943437898496</v>
+        <v>22.27207953484413</v>
       </c>
       <c r="L10" t="n">
-        <v>4.851348834873515</v>
+        <v>12.17473306549091</v>
       </c>
       <c r="M10" t="n">
-        <v>12.87425386973141</v>
+        <v>16.43051399146067</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.7932125101290375</v>
+        <v>-1.257652137803412</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.425389884613556</v>
+        <v>17.25666426552982</v>
       </c>
       <c r="P10" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.317514526370901</v>
+        <v>7.3175145263709</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
@@ -2432,22 +2432,22 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>7.579658867634289</v>
+        <v>8.704605275122773</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>73.14959775910356</v>
+        <v>54.24682392384337</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5577750511010798</v>
+        <v>0.4039246064214898</v>
       </c>
       <c r="AC10" t="n">
-        <v>70.34591803072111</v>
+        <v>52.21341965539029</v>
       </c>
       <c r="AD10" t="n">
-        <v>-24.93090401372411</v>
+        <v>-13.26075125691827</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
@@ -2485,32 +2485,32 @@
         <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>20.93504326704312</v>
+        <v>22.59155707191278</v>
       </c>
       <c r="L11" t="n">
-        <v>18.00354863985847</v>
+        <v>22.2074636516462</v>
       </c>
       <c r="M11" t="n">
-        <v>18.87664159237213</v>
+        <v>20.00650320724523</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.9947258416630231</v>
+        <v>-1.32288557918687</v>
       </c>
       <c r="O11" t="n">
-        <v>-12.00032191359293</v>
+        <v>-9.242976766283791</v>
       </c>
       <c r="P11" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.27941201535739</v>
+        <v>10.32682165779116</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>8.023055303906167</v>
+        <v>8.05662207741487</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6334995321699002</v>
+        <v>0.6301110649678974</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2523,20 +2523,20 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>(0.18404545636830028, 0.16237414366516392, 0.1543983916588271, 0.14496785288543826, 0.10804209674520089, 0.10639647213772369, 0.09986522694113895, 0.02317895447381611, 0.016731405124390933)</t>
+          <t>(0.17527015884337976, 0.16481278381137282, 0.156659798941116, 0.1470196998160778, 0.10927339941770078, 0.10759120662682363, 0.1009148276183758, 0.022524474121209833, 0.015933650803943617)</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>93.24258733141983</v>
+        <v>97.14282162259872</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5645389674992612</v>
+        <v>0.6014671987637926</v>
       </c>
       <c r="AC11" t="n">
-        <v>74.0942838360898</v>
+        <v>78.45130715543492</v>
       </c>
       <c r="AD11" t="n">
-        <v>-41.13300209073116</v>
+        <v>-44.73147411310041</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
@@ -2580,19 +2580,19 @@
         <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>131.8899867105978</v>
+        <v>131.5000578301588</v>
       </c>
       <c r="L12" t="n">
-        <v>131.3163909481432</v>
+        <v>135.3972876425161</v>
       </c>
       <c r="M12" t="n">
-        <v>121.5887810574711</v>
+        <v>121.0241864996048</v>
       </c>
       <c r="N12" t="n">
-        <v>-78.16972518083101</v>
+        <v>-77.70229123657427</v>
       </c>
       <c r="O12" t="n">
-        <v>-98.29636995586952</v>
+        <v>-97.64907708145938</v>
       </c>
       <c r="P12" t="n">
         <v>8.600000000000023</v>
@@ -2622,16 +2622,16 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>768.9252232672262</v>
+        <v>766.0855563057025</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.797772522577048</v>
+        <v>4.7864331038512</v>
       </c>
       <c r="AC12" t="n">
-        <v>628.1525293108285</v>
+        <v>626.4526893876521</v>
       </c>
       <c r="AD12" t="n">
-        <v>-2864.246480596816</v>
+        <v>-2843.122653152443</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
@@ -12774,17 +12774,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -12828,22 +12828,22 @@
         <v>3.522047919629248</v>
       </c>
       <c r="G2" t="n">
+        <v>-9.33512027882345</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6501172650483547</v>
+      </c>
+      <c r="I2" t="n">
         <v>-8.467312812805176</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-9.671208188983593</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.6501172650483547</v>
       </c>
       <c r="J2" t="n">
         <v>-8.079808106374465</v>
       </c>
       <c r="K2" t="n">
-        <v>-31.97565952544847</v>
+        <v>-30.96739579496804</v>
       </c>
       <c r="L2" t="n">
-        <v>1.758787852274275</v>
+        <v>2.340085437496777</v>
       </c>
       <c r="M2" t="n">
         <v>49.61878625501049</v>
@@ -12857,37 +12857,37 @@
         <v>-16.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.695154662888475</v>
+        <v>7.365696457483613</v>
       </c>
       <c r="D3" t="n">
         <v>-1.658333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>2.253773641165799</v>
+        <v>1.879909617388967</v>
       </c>
       <c r="F3" t="n">
         <v>-3.061716303675877</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.903765678405762</v>
+        <v>7.834377773022861</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.380634878577235</v>
+        <v>-4.738515764885982</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.773708174626774</v>
+        <v>10.74183559417725</v>
       </c>
       <c r="J3" t="n">
         <v>-1.111924933511838</v>
       </c>
       <c r="K3" t="n">
-        <v>-9.700523614009029</v>
+        <v>14.257527244196</v>
       </c>
       <c r="L3" t="n">
-        <v>5.467689464138034</v>
+        <v>12.9025462545322</v>
       </c>
       <c r="M3" t="n">
-        <v>58.27811059103533</v>
+        <v>66.34646412393977</v>
       </c>
     </row>
     <row r="4">
@@ -12898,37 +12898,37 @@
         <v>3.799999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.155410284018952</v>
+        <v>-4.91463368146767</v>
       </c>
       <c r="D4" t="n">
         <v>-2.083333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>2.225238451497916</v>
+        <v>2.327107438271351</v>
       </c>
       <c r="F4" t="n">
         <v>5.322877510363931</v>
       </c>
       <c r="G4" t="n">
-        <v>6.177246570587158</v>
+        <v>-6.761562906220708</v>
       </c>
       <c r="H4" t="n">
-        <v>3.872243134070112</v>
+        <v>-7.859985819041194</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.841015726920441</v>
+        <v>-10.27397060394287</v>
       </c>
       <c r="J4" t="n">
         <v>-8.631864650205085</v>
       </c>
       <c r="K4" t="n">
-        <v>9.546901234731372</v>
+        <v>-17.69716247546581</v>
       </c>
       <c r="L4" t="n">
-        <v>12.39533222889868</v>
+        <v>5.64754043374905</v>
       </c>
       <c r="M4" t="n">
-        <v>75.56090470414028</v>
+        <v>68.68986756244021</v>
       </c>
     </row>
     <row r="5">
@@ -12939,37 +12939,37 @@
         <v>4.899999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166357329200009</v>
+        <v>-0.6643226359655269</v>
       </c>
       <c r="D5" t="n">
         <v>1.258333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>2.280529279918223</v>
+        <v>2.364880716227781</v>
       </c>
       <c r="F5" t="n">
         <v>-1.709188667239948</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1563033759593964</v>
+        <v>1.900283815784156</v>
       </c>
       <c r="H5" t="n">
-        <v>4.116699709997374</v>
+        <v>-9.063612297777865</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.041240413193128</v>
+        <v>-10.11615562438965</v>
       </c>
       <c r="J5" t="n">
         <v>6.280099472428866</v>
       </c>
       <c r="K5" t="n">
-        <v>6.903212520873891</v>
+        <v>4.000293367090213</v>
       </c>
       <c r="L5" t="n">
-        <v>14.34334697124465</v>
+        <v>12.53368354919731</v>
       </c>
       <c r="M5" t="n">
-        <v>90.17210879984805</v>
+        <v>85.8306648330522</v>
       </c>
     </row>
     <row r="6">
@@ -12980,37 +12980,37 @@
         <v>-13.39999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.160159484167002</v>
+        <v>-8.350257792644946</v>
       </c>
       <c r="D6" t="n">
         <v>0.6083333333333343</v>
       </c>
       <c r="E6" t="n">
-        <v>2.261247985254395</v>
+        <v>2.232300555925256</v>
       </c>
       <c r="F6" t="n">
         <v>-6.473042146245264</v>
       </c>
       <c r="G6" t="n">
-        <v>-16.50565338134766</v>
+        <v>-12.79960064574404</v>
       </c>
       <c r="H6" t="n">
-        <v>-19.28822875176538</v>
+        <v>-8.12740529474914</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.125843684894148</v>
+        <v>-20.90970611572266</v>
       </c>
       <c r="J6" t="n">
         <v>-23.86272803408155</v>
       </c>
       <c r="K6" t="n">
-        <v>-51.96577475638353</v>
+        <v>-32.28084470051245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4857002218803183</v>
+        <v>4.514718026027457</v>
       </c>
       <c r="M6" t="n">
-        <v>91.84482556649027</v>
+        <v>92.13494159646916</v>
       </c>
     </row>
     <row r="7">
@@ -13021,37 +13021,37 @@
         <v>-2.700000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.665209857359009</v>
+        <v>-1.315313924058157</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3250000000000005</v>
+        <v>-4.175000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>2.163277862898674</v>
+        <v>2.035170527854082</v>
       </c>
       <c r="F7" t="n">
         <v>-3.72466142144948</v>
       </c>
       <c r="G7" t="n">
-        <v>-15.71452140808105</v>
+        <v>0.2617402737707544</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.988945225162512</v>
+        <v>-5.232888989832688</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.21536473838909</v>
+        <v>-14.08366107940674</v>
       </c>
       <c r="J7" t="n">
         <v>-14.54681081485071</v>
       </c>
       <c r="K7" t="n">
-        <v>-16.79532339574522</v>
+        <v>0.06536421751633824</v>
       </c>
       <c r="L7" t="n">
-        <v>13.40103726305321</v>
+        <v>15.41946608772109</v>
       </c>
       <c r="M7" t="n">
-        <v>119.3057628283927</v>
+        <v>117.3645890944895</v>
       </c>
     </row>
     <row r="8">
@@ -13062,37 +13062,37 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="C8" t="n">
-        <v>2.42799188024261</v>
+        <v>7.136761923581373</v>
       </c>
       <c r="D8" t="n">
         <v>-1.158333333333335</v>
       </c>
       <c r="E8" t="n">
-        <v>2.093814179280241</v>
+        <v>2.102104513425373</v>
       </c>
       <c r="F8" t="n">
         <v>-7.070377187854572</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.39581680297852</v>
+        <v>7.442664976436493</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1385093136273537</v>
+        <v>-1.176642695397687</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.191967831978312</v>
+        <v>0.5910786390304565</v>
       </c>
       <c r="J8" t="n">
         <v>-3.305977486910558</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.10627811864079</v>
+        <v>13.08912849230273</v>
       </c>
       <c r="L8" t="n">
-        <v>18.92358105219393</v>
+        <v>24.01341887582553</v>
       </c>
       <c r="M8" t="n">
-        <v>139.3683942832236</v>
+        <v>144.5078169051326</v>
       </c>
     </row>
     <row r="9">
@@ -13103,37 +13103,37 @@
         <v>-13.10000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.82771311922374</v>
+        <v>-1.725980453198381</v>
       </c>
       <c r="D9" t="n">
         <v>5.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2.092950450063605</v>
+        <v>2.014543860461293</v>
       </c>
       <c r="F9" t="n">
         <v>3.221273910068808</v>
       </c>
       <c r="G9" t="n">
-        <v>12.52058696746826</v>
+        <v>-0.9043914638303999</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.056093997032735</v>
+        <v>2.878663240070328</v>
       </c>
       <c r="I9" t="n">
-        <v>2.870048400161512</v>
+        <v>17.91626930236816</v>
       </c>
       <c r="J9" t="n">
         <v>3.386111565317465</v>
       </c>
       <c r="K9" t="n">
-        <v>-9.43351932193807</v>
+        <v>-3.001737798754112</v>
       </c>
       <c r="L9" t="n">
-        <v>21.68890835370574</v>
+        <v>24.17787228719228</v>
       </c>
       <c r="M9" t="n">
-        <v>154.3853926562456</v>
+        <v>156.9838856092333</v>
       </c>
     </row>
     <row r="10">
@@ -13144,37 +13144,37 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>16.80138490757071</v>
+        <v>5.319803726261415</v>
       </c>
       <c r="D10" t="n">
         <v>5.641666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1.894517698883257</v>
+        <v>2.123292096198608</v>
       </c>
       <c r="F10" t="n">
         <v>3.531279501222999</v>
       </c>
       <c r="G10" t="n">
-        <v>44.91165924072266</v>
+        <v>3.523649178832436</v>
       </c>
       <c r="H10" t="n">
-        <v>22.31933216792287</v>
+        <v>5.969697749001316</v>
       </c>
       <c r="I10" t="n">
-        <v>5.998311786999068</v>
+        <v>13.93275833129883</v>
       </c>
       <c r="J10" t="n">
         <v>27.50717832543545</v>
       </c>
       <c r="K10" t="n">
-        <v>48.26209389731464</v>
+        <v>3.127851714037283</v>
       </c>
       <c r="L10" t="n">
-        <v>42.76388574455154</v>
+        <v>30.91904105480652</v>
       </c>
       <c r="M10" t="n">
-        <v>192.2553633760331</v>
+        <v>181.6365430079809</v>
       </c>
     </row>
     <row r="11">
@@ -13185,37 +13185,37 @@
         <v>-5.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.334223300543908</v>
+        <v>-1.432840196102508</v>
       </c>
       <c r="D11" t="n">
         <v>3.516666666666664</v>
       </c>
       <c r="E11" t="n">
-        <v>1.999381330501612</v>
+        <v>2.184036528837144</v>
       </c>
       <c r="F11" t="n">
         <v>3.532457192702039</v>
       </c>
       <c r="G11" t="n">
-        <v>13.58354568481445</v>
+        <v>-0.2934091815404082</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.642988245229509</v>
+        <v>7.169224419653039</v>
       </c>
       <c r="I11" t="n">
-        <v>7.136310365204039</v>
+        <v>6.052435398101807</v>
       </c>
       <c r="J11" t="n">
         <v>16.04297785250718</v>
       </c>
       <c r="K11" t="n">
-        <v>1.405877234353771</v>
+        <v>-1.631423877355861</v>
       </c>
       <c r="L11" t="n">
-        <v>28.60401911694593</v>
+        <v>30.18131204657222</v>
       </c>
       <c r="M11" t="n">
-        <v>188.2676097221624</v>
+        <v>193.0707883937844</v>
       </c>
     </row>
     <row r="12">
@@ -13226,37 +13226,37 @@
         <v>10.19999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>10.21587855953738</v>
+        <v>6.149318560537728</v>
       </c>
       <c r="D12" t="n">
         <v>2.991666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>2.096833828433665</v>
+        <v>2.056142708759418</v>
       </c>
       <c r="F12" t="n">
         <v>1.720121298662021</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.527696132659912</v>
+        <v>5.730691268340895</v>
       </c>
       <c r="H12" t="n">
-        <v>6.991377861117421</v>
+        <v>6.23148606306345</v>
       </c>
       <c r="I12" t="n">
-        <v>6.243696086987129</v>
+        <v>8.857694625854492</v>
       </c>
       <c r="J12" t="n">
         <v>4.789853163569622</v>
       </c>
       <c r="K12" t="n">
-        <v>8.661421195381219</v>
+        <v>8.986612535725538</v>
       </c>
       <c r="L12" t="n">
-        <v>36.70466463053489</v>
+        <v>36.20363065214507</v>
       </c>
       <c r="M12" t="n">
-        <v>220.0117439512019</v>
+        <v>216.7568135322658</v>
       </c>
     </row>
     <row r="13">
@@ -13267,37 +13267,37 @@
         <v>8.600000000000023</v>
       </c>
       <c r="C13" t="n">
-        <v>10.27900784150738</v>
+        <v>8.795879531155014</v>
       </c>
       <c r="D13" t="n">
         <v>2.408333333333335</v>
       </c>
       <c r="E13" t="n">
-        <v>1.718607513334995</v>
+        <v>1.334564331320183</v>
       </c>
       <c r="F13" t="n">
         <v>-0.08592920740048182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6039119362831116</v>
+        <v>9.129036042668341</v>
       </c>
       <c r="H13" t="n">
-        <v>3.524075156742938</v>
+        <v>2.870925929199943</v>
       </c>
       <c r="I13" t="n">
-        <v>2.887142794722719</v>
+        <v>-8.88956356048584</v>
       </c>
       <c r="J13" t="n">
         <v>0.3338760690406671</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.425389884613556</v>
+        <v>17.25666426552982</v>
       </c>
       <c r="L13" t="n">
-        <v>-12.00032191359293</v>
+        <v>-9.242976766283791</v>
       </c>
       <c r="M13" t="n">
-        <v>-98.29636995586952</v>
+        <v>-97.64907708145938</v>
       </c>
     </row>
   </sheetData>
@@ -13352,17 +13352,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -13406,22 +13406,22 @@
         <v>122.3220479196292</v>
       </c>
       <c r="G2" t="n">
+        <v>109.4648797211765</v>
+      </c>
+      <c r="H2" t="n">
+        <v>118.1498827349516</v>
+      </c>
+      <c r="I2" t="n">
         <v>110.3326871871948</v>
-      </c>
-      <c r="H2" t="n">
-        <v>109.1287918110164</v>
-      </c>
-      <c r="I2" t="n">
-        <v>118.1498827349516</v>
       </c>
       <c r="J2" t="n">
         <v>110.7201918936255</v>
       </c>
       <c r="K2" t="n">
-        <v>86.82434047455153</v>
+        <v>87.83260420503196</v>
       </c>
       <c r="L2" t="n">
-        <v>120.5587878522743</v>
+        <v>121.1400854374968</v>
       </c>
       <c r="M2" t="n">
         <v>168.4187862550105</v>
@@ -13435,37 +13435,37 @@
         <v>122.5</v>
       </c>
       <c r="C3" t="n">
-        <v>116.9912331317903</v>
+        <v>127.0520842521624</v>
       </c>
       <c r="D3" t="n">
         <v>117.4583333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>123.1294208049847</v>
+        <v>122.7555567812078</v>
       </c>
       <c r="F3" t="n">
         <v>119.2603316159534</v>
       </c>
       <c r="G3" t="n">
-        <v>105.4289215087891</v>
+        <v>117.2992574941994</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7481569324392</v>
+        <v>113.4113669700657</v>
       </c>
       <c r="I3" t="n">
-        <v>113.3761745603249</v>
+        <v>121.0745227813721</v>
       </c>
       <c r="J3" t="n">
         <v>109.6082669601137</v>
       </c>
       <c r="K3" t="n">
-        <v>77.1238168605425</v>
+        <v>102.090131449228</v>
       </c>
       <c r="L3" t="n">
-        <v>126.0264773164123</v>
+        <v>134.042631692029</v>
       </c>
       <c r="M3" t="n">
-        <v>226.6968968460458</v>
+        <v>234.7652503789503</v>
       </c>
     </row>
     <row r="4">
@@ -13476,37 +13476,37 @@
         <v>126.3</v>
       </c>
       <c r="C4" t="n">
-        <v>116.8358228477714</v>
+        <v>122.1374505706947</v>
       </c>
       <c r="D4" t="n">
         <v>115.375</v>
       </c>
       <c r="E4" t="n">
-        <v>125.3546592564826</v>
+        <v>125.0826642194792</v>
       </c>
       <c r="F4" t="n">
         <v>124.5832091263173</v>
       </c>
       <c r="G4" t="n">
-        <v>111.6061680793762</v>
+        <v>110.5376945879787</v>
       </c>
       <c r="H4" t="n">
-        <v>109.6204000665093</v>
+        <v>105.5513811510245</v>
       </c>
       <c r="I4" t="n">
-        <v>105.5351588334044</v>
+        <v>110.8005521774292</v>
       </c>
       <c r="J4" t="n">
         <v>100.9764023099086</v>
       </c>
       <c r="K4" t="n">
-        <v>86.67071809527388</v>
+        <v>84.39296897376215</v>
       </c>
       <c r="L4" t="n">
-        <v>138.421809545311</v>
+        <v>139.690172125778</v>
       </c>
       <c r="M4" t="n">
-        <v>302.2578015501861</v>
+        <v>303.4551179413905</v>
       </c>
     </row>
     <row r="5">
@@ -13517,37 +13517,37 @@
         <v>131.2</v>
       </c>
       <c r="C5" t="n">
-        <v>120.0021801769714</v>
+        <v>121.4731279347292</v>
       </c>
       <c r="D5" t="n">
         <v>116.6333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>127.6351885364008</v>
+        <v>127.447544935707</v>
       </c>
       <c r="F5" t="n">
         <v>122.8740204590773</v>
       </c>
       <c r="G5" t="n">
-        <v>111.7624714553356</v>
+        <v>112.4379784037629</v>
       </c>
       <c r="H5" t="n">
-        <v>113.7370997765067</v>
+        <v>96.48776885324661</v>
       </c>
       <c r="I5" t="n">
-        <v>96.4939184202113</v>
+        <v>100.6843965530395</v>
       </c>
       <c r="J5" t="n">
         <v>107.2565017823375</v>
       </c>
       <c r="K5" t="n">
-        <v>93.57393061614778</v>
+        <v>88.39326234085236</v>
       </c>
       <c r="L5" t="n">
-        <v>152.7651565165556</v>
+        <v>152.2238556749753</v>
       </c>
       <c r="M5" t="n">
-        <v>392.4299103500342</v>
+        <v>389.2857827744427</v>
       </c>
     </row>
     <row r="6">
@@ -13558,37 +13558,37 @@
         <v>117.8</v>
       </c>
       <c r="C6" t="n">
-        <v>111.8420206928044</v>
+        <v>113.1228701420843</v>
       </c>
       <c r="D6" t="n">
         <v>117.2416666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>129.8964365216552</v>
+        <v>129.6798454916322</v>
       </c>
       <c r="F6" t="n">
         <v>116.4009783128321</v>
       </c>
       <c r="G6" t="n">
-        <v>95.25681807398796</v>
+        <v>99.63837775801881</v>
       </c>
       <c r="H6" t="n">
-        <v>94.44887102474127</v>
+        <v>88.36036355849747</v>
       </c>
       <c r="I6" t="n">
-        <v>88.36807473531715</v>
+        <v>79.77469043731689</v>
       </c>
       <c r="J6" t="n">
         <v>83.39377374825591</v>
       </c>
       <c r="K6" t="n">
-        <v>41.60815585976425</v>
+        <v>56.11241764033991</v>
       </c>
       <c r="L6" t="n">
-        <v>153.2508567384359</v>
+        <v>156.7385737010028</v>
       </c>
       <c r="M6" t="n">
-        <v>484.2747359165244</v>
+        <v>481.4207243709118</v>
       </c>
     </row>
     <row r="7">
@@ -13599,37 +13599,37 @@
         <v>115.1</v>
       </c>
       <c r="C7" t="n">
-        <v>114.5072305501634</v>
+        <v>111.8075562180261</v>
       </c>
       <c r="D7" t="n">
-        <v>116.9166666666667</v>
+        <v>113.0666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>132.0597143845539</v>
+        <v>131.7150160194863</v>
       </c>
       <c r="F7" t="n">
         <v>112.6763168913826</v>
       </c>
       <c r="G7" t="n">
-        <v>79.5422966659069</v>
+        <v>99.90011803178956</v>
       </c>
       <c r="H7" t="n">
-        <v>90.45992579957876</v>
+        <v>83.12747456866478</v>
       </c>
       <c r="I7" t="n">
-        <v>83.15270999692807</v>
+        <v>65.69102935791015</v>
       </c>
       <c r="J7" t="n">
         <v>68.84696293340519</v>
       </c>
       <c r="K7" t="n">
-        <v>24.81283246401902</v>
+        <v>56.17778185785625</v>
       </c>
       <c r="L7" t="n">
-        <v>166.6518940014892</v>
+        <v>172.1580397887239</v>
       </c>
       <c r="M7" t="n">
-        <v>603.5804987449171</v>
+        <v>598.7853134654013</v>
       </c>
     </row>
     <row r="8">
@@ -13640,37 +13640,37 @@
         <v>115.2</v>
       </c>
       <c r="C8" t="n">
-        <v>116.935222430406</v>
+        <v>118.9443181416075</v>
       </c>
       <c r="D8" t="n">
-        <v>115.7583333333333</v>
+        <v>111.9083333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>134.1535285638341</v>
+        <v>133.8171205329117</v>
       </c>
       <c r="F8" t="n">
         <v>105.605939703528</v>
       </c>
       <c r="G8" t="n">
-        <v>67.14647986292839</v>
+        <v>107.342783008226</v>
       </c>
       <c r="H8" t="n">
-        <v>90.59843511320611</v>
+        <v>81.95083187326709</v>
       </c>
       <c r="I8" t="n">
-        <v>81.96074216494975</v>
+        <v>66.28210799694061</v>
       </c>
       <c r="J8" t="n">
         <v>65.54098544649463</v>
       </c>
       <c r="K8" t="n">
-        <v>20.70655434537823</v>
+        <v>69.26691035015898</v>
       </c>
       <c r="L8" t="n">
-        <v>185.5754750536831</v>
+        <v>196.1714586645494</v>
       </c>
       <c r="M8" t="n">
-        <v>742.9488930281407</v>
+        <v>743.2931303705338</v>
       </c>
     </row>
     <row r="9">
@@ -13681,37 +13681,37 @@
         <v>102.1</v>
       </c>
       <c r="C9" t="n">
-        <v>112.1075093111823</v>
+        <v>117.2183376884091</v>
       </c>
       <c r="D9" t="n">
-        <v>121.2583333333333</v>
+        <v>117.4083333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>136.2464790138977</v>
+        <v>135.831664393373</v>
       </c>
       <c r="F9" t="n">
         <v>108.8272136135968</v>
       </c>
       <c r="G9" t="n">
-        <v>79.66706683039665</v>
+        <v>106.4383915443957</v>
       </c>
       <c r="H9" t="n">
-        <v>86.54234111617338</v>
+        <v>84.82949511333742</v>
       </c>
       <c r="I9" t="n">
-        <v>84.83079056511126</v>
+        <v>84.19837729930877</v>
       </c>
       <c r="J9" t="n">
         <v>68.92709701181209</v>
       </c>
       <c r="K9" t="n">
-        <v>11.27303502344016</v>
+        <v>66.26517255140487</v>
       </c>
       <c r="L9" t="n">
-        <v>207.2643834073888</v>
+        <v>220.3493309517417</v>
       </c>
       <c r="M9" t="n">
-        <v>897.3342856843863</v>
+        <v>900.2770159797672</v>
       </c>
     </row>
     <row r="10">
@@ -13722,37 +13722,37 @@
         <v>140.6</v>
       </c>
       <c r="C10" t="n">
-        <v>128.908894218753</v>
+        <v>122.5381414146705</v>
       </c>
       <c r="D10" t="n">
-        <v>126.9</v>
+        <v>123.05</v>
       </c>
       <c r="E10" t="n">
-        <v>138.1409967127809</v>
+        <v>137.9549564895716</v>
       </c>
       <c r="F10" t="n">
         <v>112.3584931148198</v>
       </c>
       <c r="G10" t="n">
-        <v>124.5787260711193</v>
+        <v>109.9620407232281</v>
       </c>
       <c r="H10" t="n">
-        <v>108.8616732840962</v>
+        <v>90.79919286233873</v>
       </c>
       <c r="I10" t="n">
-        <v>90.82910235211033</v>
+        <v>98.1311356306076</v>
       </c>
       <c r="J10" t="n">
         <v>96.43427533724754</v>
       </c>
       <c r="K10" t="n">
-        <v>59.53512892075481</v>
+        <v>69.39302426544215</v>
       </c>
       <c r="L10" t="n">
-        <v>250.0282691519403</v>
+        <v>251.2683720065482</v>
       </c>
       <c r="M10" t="n">
-        <v>1089.589649060419</v>
+        <v>1081.913558987748</v>
       </c>
     </row>
     <row r="11">
@@ -13763,37 +13763,37 @@
         <v>135.5</v>
       </c>
       <c r="C11" t="n">
-        <v>120.5746709182091</v>
+        <v>121.105301218568</v>
       </c>
       <c r="D11" t="n">
-        <v>130.4166666666667</v>
+        <v>126.5666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>140.1403780432826</v>
+        <v>140.1389930184087</v>
       </c>
       <c r="F11" t="n">
         <v>115.8909503075219</v>
       </c>
       <c r="G11" t="n">
-        <v>138.1622717559338</v>
+        <v>109.6686315416877</v>
       </c>
       <c r="H11" t="n">
-        <v>107.2186850388667</v>
+        <v>97.96841728199176</v>
       </c>
       <c r="I11" t="n">
-        <v>97.96541271731436</v>
+        <v>104.1835710287094</v>
       </c>
       <c r="J11" t="n">
         <v>112.4772531897547</v>
       </c>
       <c r="K11" t="n">
-        <v>60.94100615510858</v>
+        <v>67.76160038808629</v>
       </c>
       <c r="L11" t="n">
-        <v>278.6322882688863</v>
+        <v>281.4496840531204</v>
       </c>
       <c r="M11" t="n">
-        <v>1277.857258782582</v>
+        <v>1274.984347381532</v>
       </c>
     </row>
     <row r="12">
@@ -13804,37 +13804,37 @@
         <v>145.7</v>
       </c>
       <c r="C12" t="n">
-        <v>130.7905494777465</v>
+        <v>127.2546197791057</v>
       </c>
       <c r="D12" t="n">
-        <v>133.4083333333333</v>
+        <v>129.5583333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>142.2372118717162</v>
+        <v>142.1951357271681</v>
       </c>
       <c r="F12" t="n">
         <v>117.6110716061839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.6345756232739</v>
+        <v>115.3993228100286</v>
       </c>
       <c r="H12" t="n">
-        <v>114.2100628999842</v>
+        <v>104.1999033450552</v>
       </c>
       <c r="I12" t="n">
-        <v>104.2091088043015</v>
+        <v>113.0412656545639</v>
       </c>
       <c r="J12" t="n">
         <v>117.2671063533243</v>
       </c>
       <c r="K12" t="n">
-        <v>69.6024273504898</v>
+        <v>76.74821292381183</v>
       </c>
       <c r="L12" t="n">
-        <v>315.3369528994211</v>
+        <v>317.6533147052655</v>
       </c>
       <c r="M12" t="n">
-        <v>1497.869002733784</v>
+        <v>1491.741160913798</v>
       </c>
     </row>
     <row r="13">
@@ -13845,37 +13845,37 @@
         <v>154.3</v>
       </c>
       <c r="C13" t="n">
-        <v>141.0695573192538</v>
+        <v>136.0504993102607</v>
       </c>
       <c r="D13" t="n">
-        <v>135.8166666666667</v>
+        <v>131.9666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>143.9558193850512</v>
+        <v>143.5297000584883</v>
       </c>
       <c r="F13" t="n">
         <v>117.5251423987834</v>
       </c>
       <c r="G13" t="n">
-        <v>136.238487559557</v>
+        <v>124.5283588526969</v>
       </c>
       <c r="H13" t="n">
-        <v>117.7341380567271</v>
+        <v>107.0708292742552</v>
       </c>
       <c r="I13" t="n">
-        <v>107.0962515990242</v>
+        <v>104.1517020940781</v>
       </c>
       <c r="J13" t="n">
         <v>117.600982422365</v>
       </c>
       <c r="K13" t="n">
-        <v>68.17703746587625</v>
+        <v>94.00487718934166</v>
       </c>
       <c r="L13" t="n">
-        <v>303.3366309858282</v>
+        <v>308.4103379389817</v>
       </c>
       <c r="M13" t="n">
-        <v>1399.572632777914</v>
+        <v>1394.092083832339</v>
       </c>
     </row>
   </sheetData>
@@ -13925,17 +13925,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -13976,13 +13976,13 @@
         <v>157.8220479196293</v>
       </c>
       <c r="F2" t="n">
+        <v>155.9481645337061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>155.5700099169691</v>
+      </c>
+      <c r="H2" t="n">
         <v>165.1073768615723</v>
-      </c>
-      <c r="G2" t="n">
-        <v>155.9481645337061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>155.5700099169691</v>
       </c>
       <c r="I2" t="n">
         <v>148.5055401380118</v>
@@ -13991,7 +13991,7 @@
         <v>155.5782627858437</v>
       </c>
       <c r="K2" t="n">
-        <v>156.2462383405711</v>
+        <v>156.2525786078303</v>
       </c>
       <c r="L2" t="n">
         <v>158.0669846889212</v>
@@ -14014,13 +14014,13 @@
         <v>154.7603316159534</v>
       </c>
       <c r="F3" t="n">
+        <v>152.9484678482649</v>
+      </c>
+      <c r="G3" t="n">
+        <v>151.9564741314531</v>
+      </c>
+      <c r="H3" t="n">
         <v>165.5584989964962</v>
-      </c>
-      <c r="G3" t="n">
-        <v>152.9484678482649</v>
-      </c>
-      <c r="H3" t="n">
-        <v>151.9564741314531</v>
       </c>
       <c r="I3" t="n">
         <v>146.5031239057099</v>
@@ -14029,7 +14029,7 @@
         <v>154.324651855677</v>
       </c>
       <c r="K3" t="n">
-        <v>153.1489658633293</v>
+        <v>153.1296270521684</v>
       </c>
       <c r="L3" t="n">
         <v>154.3869171116115</v>
@@ -14052,13 +14052,13 @@
         <v>160.0832091263173</v>
       </c>
       <c r="F4" t="n">
+        <v>151.5803451672496</v>
+      </c>
+      <c r="G4" t="n">
+        <v>145.8849488064909</v>
+      </c>
+      <c r="H4" t="n">
         <v>170.2978927075863</v>
-      </c>
-      <c r="G4" t="n">
-        <v>151.5803451672496</v>
-      </c>
-      <c r="H4" t="n">
-        <v>145.8849488064909</v>
       </c>
       <c r="I4" t="n">
         <v>139.4780515071026</v>
@@ -14067,7 +14067,7 @@
         <v>154.4834989605862</v>
       </c>
       <c r="K4" t="n">
-        <v>151.6472381850969</v>
+        <v>151.6057599896911</v>
       </c>
       <c r="L4" t="n">
         <v>148.6674698364648</v>
@@ -14090,13 +14090,13 @@
         <v>158.3740204590774</v>
       </c>
       <c r="F5" t="n">
+        <v>151.5794831842148</v>
+      </c>
+      <c r="G5" t="n">
+        <v>139.9546132768486</v>
+      </c>
+      <c r="H5" t="n">
         <v>178.3332225263119</v>
-      </c>
-      <c r="G5" t="n">
-        <v>151.5794831842148</v>
-      </c>
-      <c r="H5" t="n">
-        <v>139.9546132768486</v>
       </c>
       <c r="I5" t="n">
         <v>144.3088045227086</v>
@@ -14105,7 +14105,7 @@
         <v>155.8943707350073</v>
       </c>
       <c r="K5" t="n">
-        <v>150.1191791565965</v>
+        <v>150.0299666176062</v>
       </c>
       <c r="L5" t="n">
         <v>143.1575859797143</v>
@@ -14128,13 +14128,13 @@
         <v>151.9009783128321</v>
       </c>
       <c r="F6" t="n">
+        <v>142.9523046768819</v>
+      </c>
+      <c r="G6" t="n">
+        <v>131.5404830124376</v>
+      </c>
+      <c r="H6" t="n">
         <v>176.8225585401058</v>
-      </c>
-      <c r="G6" t="n">
-        <v>142.9523046768819</v>
-      </c>
-      <c r="H6" t="n">
-        <v>131.5404830124376</v>
       </c>
       <c r="I6" t="n">
         <v>122.5985977311986</v>
@@ -14143,7 +14143,7 @@
         <v>149.0304565719598</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6633311893828</v>
+        <v>140.5468099221873</v>
       </c>
       <c r="L6" t="n">
         <v>128.3249571725081</v>
@@ -14166,22 +14166,22 @@
         <v>148.1763168913826</v>
       </c>
       <c r="F7" t="n">
+        <v>138.061069781922</v>
+      </c>
+      <c r="G7" t="n">
+        <v>128.2816103437062</v>
+      </c>
+      <c r="H7" t="n">
         <v>170.3596302449703</v>
-      </c>
-      <c r="G7" t="n">
-        <v>138.9906463397934</v>
-      </c>
-      <c r="H7" t="n">
-        <v>128.2816103437062</v>
       </c>
       <c r="I7" t="n">
         <v>107.5874561757163</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9681235994819</v>
+        <v>137.1793939258677</v>
       </c>
       <c r="K7" t="n">
-        <v>136.262518758053</v>
+        <v>135.7230732752979</v>
       </c>
       <c r="L7" t="n">
         <v>123.8158712344614</v>
@@ -14204,22 +14204,22 @@
         <v>141.1059397035281</v>
       </c>
       <c r="F8" t="n">
+        <v>137.4189592343171</v>
+      </c>
+      <c r="G8" t="n">
+        <v>128.357719834448</v>
+      </c>
+      <c r="H8" t="n">
         <v>170.5023215442896</v>
-      </c>
-      <c r="G8" t="n">
-        <v>138.2070018778997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>128.357719834448</v>
       </c>
       <c r="I8" t="n">
         <v>103.5476289921068</v>
       </c>
       <c r="J8" t="n">
-        <v>139.559110429848</v>
+        <v>137.1949824991003</v>
       </c>
       <c r="K8" t="n">
-        <v>135.1510060948981</v>
+        <v>134.680723507559</v>
       </c>
       <c r="L8" t="n">
         <v>123.0329237361523</v>
@@ -14242,22 +14242,22 @@
         <v>144.3272136135969</v>
       </c>
       <c r="F9" t="n">
+        <v>135.404413087363</v>
+      </c>
+      <c r="G9" t="n">
+        <v>129.6267619782217</v>
+      </c>
+      <c r="H9" t="n">
         <v>176.468736949563</v>
-      </c>
-      <c r="G9" t="n">
-        <v>136.1924557309456</v>
-      </c>
-      <c r="H9" t="n">
-        <v>129.6267619782217</v>
       </c>
       <c r="I9" t="n">
         <v>106.3198554387913</v>
       </c>
       <c r="J9" t="n">
-        <v>142.1096563072339</v>
+        <v>139.7455283764862</v>
       </c>
       <c r="K9" t="n">
-        <v>134.5498884676611</v>
+        <v>134.030234322896</v>
       </c>
       <c r="L9" t="n">
         <v>120.0433711368226</v>
@@ -14280,22 +14280,22 @@
         <v>147.8584931148199</v>
       </c>
       <c r="F10" t="n">
+        <v>151.0918821669409</v>
+      </c>
+      <c r="G10" t="n">
+        <v>138.4999641913241</v>
+      </c>
+      <c r="H10" t="n">
         <v>196.0266955524683</v>
-      </c>
-      <c r="G10" t="n">
-        <v>152.1128381064136</v>
-      </c>
-      <c r="H10" t="n">
-        <v>138.4999641913241</v>
       </c>
       <c r="I10" t="n">
         <v>136.0148467802387</v>
       </c>
       <c r="J10" t="n">
-        <v>162.0866134455809</v>
+        <v>159.0237456271625</v>
       </c>
       <c r="K10" t="n">
-        <v>148.9710064833057</v>
+        <v>148.2512119364719</v>
       </c>
       <c r="L10" t="n">
         <v>137.7934266220753</v>
@@ -14318,22 +14318,22 @@
         <v>151.3909503075219</v>
       </c>
       <c r="F11" t="n">
+        <v>151.0978324891755</v>
+      </c>
+      <c r="G11" t="n">
+        <v>142.1778055942709</v>
+      </c>
+      <c r="H11" t="n">
         <v>204.4815018802881</v>
-      </c>
-      <c r="G11" t="n">
-        <v>151.1177296978974</v>
-      </c>
-      <c r="H11" t="n">
-        <v>142.1778055942709</v>
       </c>
       <c r="I11" t="n">
         <v>150.9218202608018</v>
       </c>
       <c r="J11" t="n">
-        <v>165.95445370777</v>
+        <v>165.8947620816042</v>
       </c>
       <c r="K11" t="n">
-        <v>150.3000884831318</v>
+        <v>150.0522539067932</v>
       </c>
       <c r="L11" t="n">
         <v>135.9922426366555</v>
@@ -14356,22 +14356,22 @@
         <v>153.1110716061839</v>
       </c>
       <c r="F12" t="n">
+        <v>159.3795480695352</v>
+      </c>
+      <c r="G12" t="n">
+        <v>150.1304077510188</v>
+      </c>
+      <c r="H12" t="n">
         <v>218.4263384968042</v>
-      </c>
-      <c r="G12" t="n">
-        <v>159.8510862370118</v>
-      </c>
-      <c r="H12" t="n">
-        <v>150.1304077510188</v>
       </c>
       <c r="I12" t="n">
         <v>156.7873180776919</v>
       </c>
       <c r="J12" t="n">
-        <v>174.8942546540269</v>
+        <v>173.4796401515971</v>
       </c>
       <c r="K12" t="n">
-        <v>158.1205799129795</v>
+        <v>157.6227743354034</v>
       </c>
       <c r="L12" t="n">
         <v>149.7077113871708</v>
@@ -14394,22 +14394,22 @@
         <v>153.0251423987834</v>
       </c>
       <c r="F13" t="n">
+        <v>164.1741881317069</v>
+      </c>
+      <c r="G13" t="n">
+        <v>156.9611327091151</v>
+      </c>
+      <c r="H13" t="n">
         <v>221.9609513908625</v>
-      </c>
-      <c r="G13" t="n">
-        <v>164.6457262991835</v>
-      </c>
-      <c r="H13" t="n">
-        <v>156.9611327091151</v>
       </c>
       <c r="I13" t="n">
         <v>155.2175788909178</v>
       </c>
       <c r="J13" t="n">
-        <v>176.3444971984406</v>
+        <v>174.9298826960108</v>
       </c>
       <c r="K13" t="n">
-        <v>163.0959120999896</v>
+        <v>162.6492203304857</v>
       </c>
       <c r="L13" t="n">
         <v>161.8058719782846</v>
@@ -14432,22 +14432,22 @@
         <v>156.5610566858272</v>
       </c>
       <c r="F14" t="n">
+        <v>166.3223108685552</v>
+      </c>
+      <c r="G14" t="n">
+        <v>159.3987585793463</v>
+      </c>
+      <c r="H14" t="n">
         <v>228.3582449585199</v>
-      </c>
-      <c r="G14" t="n">
-        <v>166.7938490360318</v>
-      </c>
-      <c r="H14" t="n">
-        <v>159.3987585793463</v>
       </c>
       <c r="I14" t="n">
         <v>150.6604362021833</v>
       </c>
       <c r="J14" t="n">
-        <v>177.0923078602224</v>
+        <v>175.6776933577925</v>
       </c>
       <c r="K14" t="n">
-        <v>165.6145292215874</v>
+        <v>165.1914910565627</v>
       </c>
       <c r="L14" t="n">
         <v>167.0739070047674</v>
@@ -14470,22 +14470,22 @@
         <v>156.6833277373912</v>
       </c>
       <c r="F15" t="n">
+        <v>161.6232699976138</v>
+      </c>
+      <c r="G15" t="n">
+        <v>154.4706806571432</v>
+      </c>
+      <c r="H15" t="n">
         <v>235.4831023842096</v>
-      </c>
-      <c r="G15" t="n">
-        <v>162.0948081650904</v>
-      </c>
-      <c r="H15" t="n">
-        <v>154.4706806571432</v>
       </c>
       <c r="I15" t="n">
         <v>148.4338240526654</v>
       </c>
       <c r="J15" t="n">
-        <v>172.4037964391112</v>
+        <v>170.9891819366813</v>
       </c>
       <c r="K15" t="n">
-        <v>161.4443580656463</v>
+        <v>161.0120641884289</v>
       </c>
       <c r="L15" t="n">
         <v>160.8276917303427</v>
@@ -14508,22 +14508,22 @@
         <v>160.2215974073929</v>
       </c>
       <c r="F16" t="n">
+        <v>160.5280088317379</v>
+      </c>
+      <c r="G16" t="n">
+        <v>148.708960340595</v>
+      </c>
+      <c r="H16" t="n">
         <v>243.3575387626886</v>
-      </c>
-      <c r="G16" t="n">
-        <v>160.9995469992145</v>
-      </c>
-      <c r="H16" t="n">
-        <v>148.708960340595</v>
       </c>
       <c r="I16" t="n">
         <v>142.6592510652843</v>
       </c>
       <c r="J16" t="n">
-        <v>171.3820343465046</v>
+        <v>169.9674198440748</v>
       </c>
       <c r="K16" t="n">
-        <v>159.6517149500273</v>
+        <v>159.2033130014591</v>
       </c>
       <c r="L16" t="n">
         <v>153.6756702035635</v>
@@ -14546,22 +14546,22 @@
         <v>158.5262751075675</v>
       </c>
       <c r="F17" t="n">
+        <v>160.1181705427227</v>
+      </c>
+      <c r="G17" t="n">
+        <v>141.9879524122444</v>
+      </c>
+      <c r="H17" t="n">
         <v>250.589349809289</v>
-      </c>
-      <c r="G17" t="n">
-        <v>160.5897087101993</v>
-      </c>
-      <c r="H17" t="n">
-        <v>141.9879524122444</v>
       </c>
       <c r="I17" t="n">
         <v>146.0287304882584</v>
       </c>
       <c r="J17" t="n">
-        <v>172.6550006940231</v>
+        <v>171.2403861915932</v>
       </c>
       <c r="K17" t="n">
-        <v>157.396759785782</v>
+        <v>156.8941133974197</v>
       </c>
       <c r="L17" t="n">
         <v>145.0769975622778</v>
@@ -14584,22 +14584,22 @@
         <v>152.0670993287367</v>
       </c>
       <c r="F18" t="n">
+        <v>152.4236633997994</v>
+      </c>
+      <c r="G18" t="n">
+        <v>133.926783080904</v>
+      </c>
+      <c r="H18" t="n">
         <v>249.0162912040949</v>
-      </c>
-      <c r="G18" t="n">
-        <v>152.895201567276</v>
-      </c>
-      <c r="H18" t="n">
-        <v>133.926783080904</v>
       </c>
       <c r="I18" t="n">
         <v>126.2165811321934</v>
       </c>
       <c r="J18" t="n">
-        <v>167.310481440009</v>
+        <v>165.8958669375792</v>
       </c>
       <c r="K18" t="n">
-        <v>148.4963110244016</v>
+        <v>147.9551579273448</v>
       </c>
       <c r="L18" t="n">
         <v>130.1771015662551</v>
@@ -14622,22 +14622,22 @@
         <v>148.3563042747017</v>
       </c>
       <c r="F19" t="n">
+        <v>148.7630989428052</v>
+      </c>
+      <c r="G19" t="n">
+        <v>129.8738271620489</v>
+      </c>
+      <c r="H19" t="n">
         <v>245.497614684701</v>
-      </c>
-      <c r="G19" t="n">
-        <v>149.2840710508466</v>
-      </c>
-      <c r="H19" t="n">
-        <v>129.8738271620489</v>
       </c>
       <c r="I19" t="n">
         <v>109.9740225775157</v>
       </c>
       <c r="J19" t="n">
-        <v>161.2973299621533</v>
+        <v>159.7344136380291</v>
       </c>
       <c r="K19" t="n">
-        <v>143.896317845994</v>
+        <v>143.3562889350104</v>
       </c>
       <c r="L19" t="n">
         <v>124.3979014361897</v>
@@ -14660,22 +14660,22 @@
         <v>148.5523152726401</v>
       </c>
       <c r="F20" t="n">
+        <v>147.2269824356999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>129.500461091488</v>
+      </c>
+      <c r="H20" t="n">
         <v>248.3329167991877</v>
-      </c>
-      <c r="G20" t="n">
-        <v>147.7479545437413</v>
-      </c>
-      <c r="H20" t="n">
-        <v>129.500461091488</v>
       </c>
       <c r="I20" t="n">
         <v>104.7870413243681</v>
       </c>
       <c r="J20" t="n">
-        <v>160.6774603890489</v>
+        <v>159.1145440649248</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0674957293345</v>
+        <v>142.5242076591572</v>
       </c>
       <c r="L20" t="n">
         <v>123.2813705570045</v>
@@ -14698,22 +14698,22 @@
         <v>152.0963974199417</v>
       </c>
       <c r="F21" t="n">
+        <v>146.050382958656</v>
+      </c>
+      <c r="G21" t="n">
+        <v>131.1802983891669</v>
+      </c>
+      <c r="H21" t="n">
         <v>258.1275230079889</v>
-      </c>
-      <c r="G21" t="n">
-        <v>146.5713550666974</v>
-      </c>
-      <c r="H21" t="n">
-        <v>131.1802983891669</v>
       </c>
       <c r="I21" t="n">
         <v>107.440831005835</v>
       </c>
       <c r="J21" t="n">
-        <v>164.4663606866376</v>
+        <v>162.9034443625134</v>
       </c>
       <c r="K21" t="n">
-        <v>143.3564836202005</v>
+        <v>142.7580036563114</v>
       </c>
       <c r="L21" t="n">
         <v>121.8896391073075</v>
@@ -14736,22 +14736,22 @@
         <v>155.6415432885792</v>
       </c>
       <c r="F22" t="n">
+        <v>163.7619087055424</v>
+      </c>
+      <c r="G22" t="n">
+        <v>141.5426941466512</v>
+      </c>
+      <c r="H22" t="n">
         <v>275.5566001564264</v>
-      </c>
-      <c r="G22" t="n">
-        <v>164.2828808135837</v>
-      </c>
-      <c r="H22" t="n">
-        <v>141.5426941466512</v>
       </c>
       <c r="I22" t="n">
         <v>138.9361858217326</v>
       </c>
       <c r="J22" t="n">
-        <v>187.6857351437282</v>
+        <v>186.122818819604</v>
       </c>
       <c r="K22" t="n">
-        <v>159.0408297560303</v>
+        <v>158.3469462443931</v>
       </c>
       <c r="L22" t="n">
         <v>142.5214137418755</v>
@@ -14774,22 +14774,22 @@
         <v>152.6029249339115</v>
       </c>
       <c r="F23" t="n">
+        <v>165.9015637979389</v>
+      </c>
+      <c r="G23" t="n">
+        <v>147.6786307006316</v>
+      </c>
+      <c r="H23" t="n">
         <v>285.8093209892511</v>
-      </c>
-      <c r="G23" t="n">
-        <v>166.4225359059803</v>
-      </c>
-      <c r="H23" t="n">
-        <v>147.6786307006316</v>
       </c>
       <c r="I23" t="n">
         <v>152.885124181462</v>
       </c>
       <c r="J23" t="n">
-        <v>194.3624265764429</v>
+        <v>192.7995102523188</v>
       </c>
       <c r="K23" t="n">
-        <v>162.2958920565371</v>
+        <v>161.5436855840028</v>
       </c>
       <c r="L23" t="n">
         <v>144.5005797484549</v>
@@ -14812,22 +14812,22 @@
         <v>156.1568233442879</v>
       </c>
       <c r="F24" t="n">
+        <v>172.9771579327746</v>
+      </c>
+      <c r="G24" t="n">
+        <v>155.3233915458923</v>
+      </c>
+      <c r="H24" t="n">
         <v>299.6270118385553</v>
-      </c>
-      <c r="G24" t="n">
-        <v>173.4981300408159</v>
-      </c>
-      <c r="H24" t="n">
-        <v>155.3233915458923</v>
       </c>
       <c r="I24" t="n">
         <v>159.5765474204187</v>
       </c>
       <c r="J24" t="n">
-        <v>200.1333213622475</v>
+        <v>198.5704050381233</v>
       </c>
       <c r="K24" t="n">
-        <v>169.4138006770071</v>
+        <v>168.6737976303183</v>
       </c>
       <c r="L24" t="n">
         <v>158.1880535105027</v>
@@ -14850,22 +14850,22 @@
         <v>159.7054642973147</v>
       </c>
       <c r="F25" t="n">
+        <v>176.0228568144583</v>
+      </c>
+      <c r="G25" t="n">
+        <v>160.3350542973623</v>
+      </c>
+      <c r="H25" t="n">
         <v>304.2418904930353</v>
-      </c>
-      <c r="G25" t="n">
-        <v>176.5438289224997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>160.3350542973623</v>
       </c>
       <c r="I25" t="n">
         <v>155.7873150125706</v>
       </c>
       <c r="J25" t="n">
-        <v>201.0812571162782</v>
+        <v>199.518340792154</v>
       </c>
       <c r="K25" t="n">
-        <v>173.2450347799975</v>
+        <v>172.5452330616753</v>
       </c>
       <c r="L25" t="n">
         <v>167.1307844618876</v>
